--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -30,6 +30,79 @@
             <charset val="1"/>
           </rPr>
           <t>API ini hanya boleh dijalankan melalui instance class, tidak melalui Call API (karena akan menghasilkan error disebabkan tidak dikenalnya APIWebToken)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Internal API
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>digunakan oleh \App\Helpers\ZhtHelper\General\Helper_JavaScript::getSyntaxFunc_DOMInputFileContent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Internal API
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">digunakan oleh \App\Helpers\ZhtHelper\General\Helper_JavaScript::getSyntaxFunc_DOMInputFileContent
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Internal API
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>digunakan oleh \App\Helpers\ZhtHelper\General\Helper_JavaScript::getSyntaxFunc_DOMInputFileContent</t>
         </r>
       </text>
     </comment>
@@ -2710,7 +2783,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2790,6 +2863,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3590,10 +3676,10 @@
   <dimension ref="A1:L490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -2657,9 +2657,6 @@
     <t>Laporan PDF - Daftar Anggaran</t>
   </si>
   <si>
-    <t>fileHandling.upload.setStagingFileDetail</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Mengeset Upload File Tunggal untuk </t>
     </r>
@@ -2727,14 +2724,17 @@
     </r>
   </si>
   <si>
-    <t>fileHandling.upload.getStagingFileNewID</t>
-  </si>
-  <si>
-    <t>fileHandling.upload.setStagingFileDestroyOnLocalStorage</t>
+    <t>fileHandling.upload.stagingArea.getNewID</t>
+  </si>
+  <si>
+    <t>fileHandling.upload.stagingArea.setFilesToCloudStorage</t>
+  </si>
+  <si>
+    <t>fileHandling.upload.stagingArea.setFilesToLocalStorage</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mengeset Penghapusan Direktori </t>
+      <t xml:space="preserve">Mengeset Pemindahan </t>
     </r>
     <r>
       <rPr>
@@ -2744,7 +2744,7 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Local Storage</t>
+      <t xml:space="preserve">Local Storage </t>
     </r>
     <r>
       <rPr>
@@ -2753,7 +2753,26 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> berdasarkan </t>
+      <t>ke</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CloudStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">berdasarkan </t>
     </r>
     <r>
       <rPr>
@@ -3676,10 +3695,10 @@
   <dimension ref="A1:L490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4019,10 +4038,10 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="29">
@@ -4040,10 +4059,10 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="29">
@@ -4061,7 +4080,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>825</v>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="838">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2798,9 +2798,6 @@
     <t>transaction.read.dataList.sysConfig.getRotateLog_FileUploadStagingAreaDetail</t>
   </si>
   <si>
-    <t>Mendapatkan Daftar File Upload Staging Area Detail</t>
-  </si>
-  <si>
     <t>fileHandling.upload.stagingArea.getFilesList</t>
   </si>
   <si>
@@ -2817,6 +2814,33 @@
       </rPr>
       <t>Staging Files</t>
     </r>
+  </si>
+  <si>
+    <t>transaction.read.dataList.sysConfig.getDBObject_Schema</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar Database Object - Schema</t>
+  </si>
+  <si>
+    <t>transaction.read.dataList.sysConfig.getDBObject_Table</t>
+  </si>
+  <si>
+    <t>transaction.read.dataList.sysConfig.getDBObject_User</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar Database Object - Table</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar Database Object - User</t>
+  </si>
+  <si>
+    <t>transaction.read.dataList.sysConfig.getLDAPObject_User</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar LDAP Object - User</t>
+  </si>
+  <si>
+    <t>Mendapatkan Daftar Rotate Log - File Upload Staging Area Detail</t>
   </si>
 </sst>
 </file>
@@ -3716,13 +3740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L493"/>
+  <dimension ref="A1:L497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4062,10 +4086,10 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="29">
@@ -9035,52 +9059,48 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D240" s="35"/>
-      <c r="E240" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F240" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E240" s="29"/>
+      <c r="F240" s="58"/>
       <c r="G240" s="35"/>
       <c r="H240" s="29"/>
       <c r="I240" s="19"/>
       <c r="J240" s="20"/>
       <c r="K240" s="35"/>
     </row>
-    <row r="241" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12"/>
+      <c r="B241" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="D241" s="35"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="60"/>
+      <c r="E241" s="29"/>
+      <c r="F241" s="58"/>
       <c r="G241" s="35"/>
-      <c r="H241" s="32"/>
-      <c r="I241" s="23"/>
-      <c r="J241" s="24"/>
+      <c r="H241" s="29"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
       <c r="K241" s="35"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>501</v>
+        <v>832</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>445</v>
+        <v>834</v>
       </c>
       <c r="D242" s="35"/>
-      <c r="E242" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F242" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E242" s="29"/>
+      <c r="F242" s="58"/>
       <c r="G242" s="35"/>
       <c r="H242" s="29"/>
       <c r="I242" s="19"/>
@@ -9090,18 +9110,14 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>502</v>
+        <v>835</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>472</v>
+        <v>836</v>
       </c>
       <c r="D243" s="35"/>
-      <c r="E243" s="29">
-        <v>44349</v>
-      </c>
-      <c r="F243" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E243" s="29"/>
+      <c r="F243" s="58"/>
       <c r="G243" s="35"/>
       <c r="H243" s="29"/>
       <c r="I243" s="19"/>
@@ -9111,14 +9127,14 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>503</v>
+        <v>826</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>475</v>
+        <v>837</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
-        <v>44364</v>
+        <v>44400</v>
       </c>
       <c r="F244" s="58" t="s">
         <v>627</v>
@@ -9129,34 +9145,26 @@
       <c r="J244" s="20"/>
       <c r="K244" s="35"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
-      <c r="B245" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12"/>
       <c r="D245" s="35"/>
-      <c r="E245" s="29">
-        <v>44364</v>
-      </c>
-      <c r="F245" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E245" s="32"/>
+      <c r="F245" s="60"/>
       <c r="G245" s="35"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="23"/>
+      <c r="J245" s="24"/>
       <c r="K245" s="35"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29">
@@ -9174,14 +9182,14 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="F247" s="58" t="s">
         <v>627</v>
@@ -9192,30 +9200,38 @@
       <c r="J247" s="20"/>
       <c r="K247" s="35"/>
     </row>
-    <row r="248" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12"/>
+      <c r="B248" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="D248" s="35"/>
-      <c r="E248" s="32"/>
-      <c r="F248" s="60"/>
+      <c r="E248" s="29">
+        <v>44364</v>
+      </c>
+      <c r="F248" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G248" s="35"/>
-      <c r="H248" s="32"/>
-      <c r="I248" s="23"/>
-      <c r="J248" s="24"/>
+      <c r="H248" s="29"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
       <c r="K248" s="35"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F249" s="58" t="s">
         <v>627</v>
@@ -9229,14 +9245,14 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F250" s="58" t="s">
         <v>627</v>
@@ -9247,126 +9263,102 @@
       <c r="J250" s="20"/>
       <c r="K250" s="35"/>
     </row>
-    <row r="251" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
+      <c r="B251" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D251" s="35"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="60"/>
+      <c r="E251" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F251" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G251" s="35"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="24"/>
+      <c r="H251" s="29"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
       <c r="K251" s="35"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F252" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E252" s="32"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="35"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="19">
-        <v>1</v>
-      </c>
-      <c r="J252" s="20">
-        <v>0</v>
-      </c>
+      <c r="H252" s="32"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="24"/>
       <c r="K252" s="35"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
-        <v>44148</v>
+        <v>44243</v>
       </c>
       <c r="F253" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G253" s="35"/>
       <c r="H253" s="29"/>
-      <c r="I253" s="19">
-        <v>1</v>
-      </c>
-      <c r="J253" s="20">
-        <v>0</v>
-      </c>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
       <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F254" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G254" s="35"/>
       <c r="H254" s="29"/>
-      <c r="I254" s="19">
-        <v>1</v>
-      </c>
-      <c r="J254" s="20">
-        <v>0</v>
-      </c>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
       <c r="K254" s="35"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>738</v>
-      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12"/>
       <c r="D255" s="35"/>
-      <c r="E255" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F255" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E255" s="32"/>
+      <c r="F255" s="60"/>
       <c r="G255" s="35"/>
-      <c r="H255" s="29"/>
-      <c r="I255" s="19">
-        <v>1</v>
-      </c>
-      <c r="J255" s="20">
-        <v>0</v>
-      </c>
+      <c r="H255" s="32"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="24"/>
       <c r="K255" s="35"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29">
@@ -9388,10 +9380,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29">
@@ -9413,10 +9405,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29">
@@ -9438,14 +9430,14 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
       <c r="B259" s="7" t="s">
-        <v>488</v>
+        <v>737</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>19</v>
+        <v>738</v>
       </c>
       <c r="D259" s="35"/>
       <c r="E259" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F259" s="58" t="s">
         <v>627</v>
@@ -9463,10 +9455,10 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
@@ -9488,10 +9480,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="29">
@@ -9513,10 +9505,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29">
@@ -9538,10 +9530,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
@@ -9563,10 +9555,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
@@ -9588,10 +9580,10 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
@@ -9613,10 +9605,10 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29">
@@ -9638,10 +9630,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
@@ -9663,10 +9655,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>28</v>
+        <v>493</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29">
@@ -9688,10 +9680,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29">
@@ -9713,10 +9705,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
@@ -9738,10 +9730,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29">
@@ -9760,106 +9752,130 @@
       </c>
       <c r="K271" s="35"/>
     </row>
-    <row r="272" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
+      <c r="B272" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D272" s="35"/>
-      <c r="E272" s="32"/>
-      <c r="F272" s="60"/>
+      <c r="E272" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F272" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G272" s="35"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="24"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="19">
+        <v>1</v>
+      </c>
+      <c r="J272" s="20">
+        <v>0</v>
+      </c>
       <c r="K272" s="35"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
-        <v>44343</v>
+        <v>44148</v>
       </c>
       <c r="F273" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G273" s="35"/>
       <c r="H273" s="29"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
+      <c r="I273" s="19">
+        <v>1</v>
+      </c>
+      <c r="J273" s="20">
+        <v>0</v>
+      </c>
       <c r="K273" s="35"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
-        <v>43978</v>
+        <v>44148</v>
       </c>
       <c r="F274" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G274" s="35"/>
       <c r="H274" s="29"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
+      <c r="I274" s="19">
+        <v>1</v>
+      </c>
+      <c r="J274" s="20">
+        <v>0</v>
+      </c>
       <c r="K274" s="35"/>
     </row>
-    <row r="275" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="12"/>
+      <c r="B275" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D275" s="35"/>
-      <c r="E275" s="32"/>
-      <c r="F275" s="60"/>
+      <c r="E275" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F275" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G275" s="35"/>
-      <c r="H275" s="32"/>
-      <c r="I275" s="23"/>
-      <c r="J275" s="24"/>
+      <c r="H275" s="29"/>
+      <c r="I275" s="19">
+        <v>1</v>
+      </c>
+      <c r="J275" s="20">
+        <v>0</v>
+      </c>
       <c r="K275" s="35"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
-      <c r="B276" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B276" s="11"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="35"/>
-      <c r="E276" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F276" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E276" s="32"/>
+      <c r="F276" s="60"/>
       <c r="G276" s="35"/>
-      <c r="H276" s="29"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
+      <c r="H276" s="32"/>
+      <c r="I276" s="23"/>
+      <c r="J276" s="24"/>
       <c r="K276" s="35"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F277" s="58" t="s">
         <v>627</v>
@@ -9872,41 +9888,49 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
-      <c r="B278" s="7"/>
-      <c r="C278" s="4"/>
+      <c r="B278" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D278" s="35"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="58"/>
+      <c r="E278" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F278" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G278" s="35"/>
       <c r="H278" s="29"/>
       <c r="I278" s="19"/>
       <c r="J278" s="20"/>
       <c r="K278" s="35"/>
     </row>
-    <row r="279" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="10"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12"/>
       <c r="D279" s="35"/>
-      <c r="E279" s="30"/>
-      <c r="F279" s="59"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="60"/>
       <c r="G279" s="35"/>
-      <c r="H279" s="30"/>
-      <c r="I279" s="21"/>
-      <c r="J279" s="22"/>
+      <c r="H279" s="32"/>
+      <c r="I279" s="23"/>
+      <c r="J279" s="24"/>
       <c r="K279" s="35"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
-        <v>44372</v>
+        <v>43978</v>
       </c>
       <c r="F280" s="58" t="s">
         <v>627</v>
@@ -9920,14 +9944,14 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
-        <v>44372</v>
+        <v>44148</v>
       </c>
       <c r="F281" s="58" t="s">
         <v>627</v>
@@ -9940,49 +9964,41 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
-      <c r="B282" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="B282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="35"/>
-      <c r="E282" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F282" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E282" s="29"/>
+      <c r="F282" s="58"/>
       <c r="G282" s="35"/>
       <c r="H282" s="29"/>
       <c r="I282" s="19"/>
       <c r="J282" s="20"/>
       <c r="K282" s="35"/>
     </row>
-    <row r="283" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="10"/>
       <c r="D283" s="35"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="60"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="59"/>
       <c r="G283" s="35"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="24"/>
+      <c r="H283" s="30"/>
+      <c r="I283" s="21"/>
+      <c r="J283" s="22"/>
       <c r="K283" s="35"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F284" s="58" t="s">
         <v>627</v>
@@ -9996,14 +10012,14 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F285" s="58" t="s">
         <v>627</v>
@@ -10017,14 +10033,14 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F286" s="58" t="s">
         <v>627</v>
@@ -10035,34 +10051,26 @@
       <c r="J286" s="20"/>
       <c r="K286" s="35"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
-      <c r="B287" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>479</v>
-      </c>
+      <c r="B287" s="11"/>
+      <c r="C287" s="12"/>
       <c r="D287" s="35"/>
-      <c r="E287" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F287" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E287" s="32"/>
+      <c r="F287" s="60"/>
       <c r="G287" s="35"/>
-      <c r="H287" s="29"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
+      <c r="H287" s="32"/>
+      <c r="I287" s="23"/>
+      <c r="J287" s="24"/>
       <c r="K287" s="35"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
@@ -10080,10 +10088,10 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
       <c r="B289" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D289" s="35"/>
       <c r="E289" s="29">
@@ -10098,26 +10106,34 @@
       <c r="J289" s="20"/>
       <c r="K289" s="35"/>
     </row>
-    <row r="290" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12"/>
+      <c r="B290" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D290" s="35"/>
-      <c r="E290" s="32"/>
-      <c r="F290" s="60"/>
+      <c r="E290" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F290" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G290" s="35"/>
-      <c r="H290" s="32"/>
-      <c r="I290" s="23"/>
-      <c r="J290" s="24"/>
+      <c r="H290" s="29"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="20"/>
       <c r="K290" s="35"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
@@ -10135,10 +10151,10 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
@@ -10153,51 +10169,51 @@
       <c r="J292" s="20"/>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
+      <c r="B293" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D293" s="35"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="60"/>
+      <c r="E293" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F293" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G293" s="35"/>
-      <c r="H293" s="32"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="24"/>
+      <c r="H293" s="29"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
       <c r="K293" s="35"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
-      <c r="B294" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="35"/>
-      <c r="E294" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F294" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E294" s="32"/>
+      <c r="F294" s="60"/>
       <c r="G294" s="35"/>
-      <c r="H294" s="29"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="H294" s="32"/>
+      <c r="I294" s="23"/>
+      <c r="J294" s="24"/>
       <c r="K294" s="35"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F295" s="58" t="s">
         <v>627</v>
@@ -10208,80 +10224,72 @@
       <c r="J295" s="20"/>
       <c r="K295" s="35"/>
     </row>
-    <row r="296" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12"/>
+      <c r="B296" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D296" s="35"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="60"/>
+      <c r="E296" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F296" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G296" s="35"/>
-      <c r="H296" s="32"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="24"/>
+      <c r="H296" s="29"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="20"/>
       <c r="K296" s="35"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
-      <c r="B297" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="35"/>
-      <c r="E297" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F297" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E297" s="32"/>
+      <c r="F297" s="60"/>
       <c r="G297" s="35"/>
-      <c r="H297" s="29"/>
-      <c r="I297" s="19">
-        <v>1</v>
-      </c>
-      <c r="J297" s="20">
-        <v>0</v>
-      </c>
+      <c r="H297" s="32"/>
+      <c r="I297" s="23"/>
+      <c r="J297" s="24"/>
       <c r="K297" s="35"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F298" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G298" s="35"/>
       <c r="H298" s="29"/>
-      <c r="I298" s="19">
-        <v>1</v>
-      </c>
-      <c r="J298" s="20">
-        <v>0</v>
-      </c>
+      <c r="I298" s="19"/>
+      <c r="J298" s="20"/>
       <c r="K298" s="35"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
       <c r="B299" s="7" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="D299" s="35"/>
       <c r="E299" s="29">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="F299" s="58" t="s">
         <v>627</v>
@@ -10292,34 +10300,26 @@
       <c r="J299" s="20"/>
       <c r="K299" s="35"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
-      <c r="B300" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="35"/>
-      <c r="E300" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F300" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E300" s="32"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="35"/>
-      <c r="H300" s="29"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="H300" s="32"/>
+      <c r="I300" s="23"/>
+      <c r="J300" s="24"/>
       <c r="K300" s="35"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
       <c r="B301" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="29">
@@ -10341,14 +10341,14 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F302" s="58" t="s">
         <v>627</v>
@@ -10366,60 +10366,52 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
       <c r="B303" s="7" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D303" s="35"/>
       <c r="E303" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F303" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G303" s="35"/>
       <c r="H303" s="29"/>
-      <c r="I303" s="19">
-        <v>1</v>
-      </c>
-      <c r="J303" s="20">
-        <v>0</v>
-      </c>
+      <c r="I303" s="19"/>
+      <c r="J303" s="20"/>
       <c r="K303" s="35"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
       <c r="B304" s="7" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D304" s="35"/>
       <c r="E304" s="29">
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G304" s="35"/>
       <c r="H304" s="29"/>
-      <c r="I304" s="19">
-        <v>1</v>
-      </c>
-      <c r="J304" s="20">
-        <v>0</v>
-      </c>
+      <c r="I304" s="19"/>
+      <c r="J304" s="20"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
@@ -10441,14 +10433,14 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>627</v>
@@ -10466,10 +10458,10 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
@@ -10491,14 +10483,14 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
       <c r="B308" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D308" s="35"/>
       <c r="E308" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F308" s="58" t="s">
         <v>627</v>
@@ -10516,10 +10508,10 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
@@ -10541,14 +10533,14 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
       <c r="B310" s="7" t="s">
-        <v>733</v>
+        <v>517</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>735</v>
+        <v>608</v>
       </c>
       <c r="D310" s="35"/>
       <c r="E310" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F310" s="58" t="s">
         <v>627</v>
@@ -10566,14 +10558,14 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
       <c r="B311" s="7" t="s">
-        <v>734</v>
+        <v>518</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>736</v>
+        <v>609</v>
       </c>
       <c r="D311" s="35"/>
       <c r="E311" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F311" s="58" t="s">
         <v>627</v>
@@ -10591,52 +10583,60 @@
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>739</v>
+        <v>519</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>742</v>
+        <v>610</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F312" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G312" s="35"/>
       <c r="H312" s="29"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
+      <c r="I312" s="19">
+        <v>1</v>
+      </c>
+      <c r="J312" s="20">
+        <v>0</v>
+      </c>
       <c r="K312" s="35"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>743</v>
+        <v>611</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F313" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G313" s="35"/>
       <c r="H313" s="29"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
+      <c r="I313" s="19">
+        <v>1</v>
+      </c>
+      <c r="J313" s="20">
+        <v>0</v>
+      </c>
       <c r="K313" s="35"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
       <c r="B314" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D314" s="35"/>
       <c r="E314" s="29">
@@ -10647,21 +10647,25 @@
       </c>
       <c r="G314" s="35"/>
       <c r="H314" s="29"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
+      <c r="I314" s="19">
+        <v>1</v>
+      </c>
+      <c r="J314" s="20">
+        <v>0</v>
+      </c>
       <c r="K314" s="35"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>521</v>
+        <v>734</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>612</v>
+        <v>736</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F315" s="58" t="s">
         <v>627</v>
@@ -10679,10 +10683,10 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
       <c r="B316" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D316" s="35"/>
       <c r="E316" s="29">
@@ -10693,21 +10697,17 @@
       </c>
       <c r="G316" s="35"/>
       <c r="H316" s="29"/>
-      <c r="I316" s="19">
-        <v>1</v>
-      </c>
-      <c r="J316" s="20">
-        <v>0</v>
-      </c>
+      <c r="I316" s="19"/>
+      <c r="J316" s="20"/>
       <c r="K316" s="35"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
@@ -10725,10 +10725,10 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
@@ -10746,35 +10746,39 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F319" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="I319" s="19">
+        <v>1</v>
+      </c>
+      <c r="J319" s="20">
+        <v>0</v>
+      </c>
       <c r="K319" s="35"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>522</v>
+        <v>725</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F320" s="58" t="s">
         <v>627</v>
@@ -10792,89 +10796,77 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>523</v>
+        <v>727</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>614</v>
+        <v>728</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F321" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G321" s="35"/>
       <c r="H321" s="29"/>
-      <c r="I321" s="19">
-        <v>1</v>
-      </c>
-      <c r="J321" s="20">
-        <v>0</v>
-      </c>
+      <c r="I321" s="19"/>
+      <c r="J321" s="20"/>
       <c r="K321" s="35"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>524</v>
+        <v>729</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>615</v>
+        <v>731</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F322" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G322" s="35"/>
       <c r="H322" s="29"/>
-      <c r="I322" s="19">
-        <v>1</v>
-      </c>
-      <c r="J322" s="20">
-        <v>0</v>
-      </c>
+      <c r="I322" s="19"/>
+      <c r="J322" s="20"/>
       <c r="K322" s="35"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>525</v>
+        <v>730</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>616</v>
+        <v>732</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F323" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G323" s="35"/>
       <c r="H323" s="29"/>
-      <c r="I323" s="19">
-        <v>1</v>
-      </c>
-      <c r="J323" s="20">
-        <v>0</v>
-      </c>
+      <c r="I323" s="19"/>
+      <c r="J323" s="20"/>
       <c r="K323" s="35"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>617</v>
+        <v>522</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F324" s="58" t="s">
         <v>627</v>
@@ -10892,14 +10884,14 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
@@ -10917,14 +10909,14 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F326" s="58" t="s">
         <v>627</v>
@@ -10942,14 +10934,14 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F327" s="58" t="s">
         <v>627</v>
@@ -10964,127 +10956,151 @@
       </c>
       <c r="K327" s="35"/>
     </row>
-    <row r="328" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
-      <c r="B328" s="11"/>
-      <c r="C328" s="12"/>
+      <c r="B328" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="D328" s="35"/>
-      <c r="E328" s="32"/>
-      <c r="F328" s="60"/>
+      <c r="E328" s="29">
+        <v>44370</v>
+      </c>
+      <c r="F328" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G328" s="35"/>
-      <c r="H328" s="32"/>
-      <c r="I328" s="23"/>
-      <c r="J328" s="24"/>
+      <c r="H328" s="29"/>
+      <c r="I328" s="19">
+        <v>1</v>
+      </c>
+      <c r="J328" s="20">
+        <v>0</v>
+      </c>
       <c r="K328" s="35"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>745</v>
+        <v>527</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>748</v>
+        <v>618</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F329" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G329" s="35"/>
       <c r="H329" s="29"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
+      <c r="I329" s="19">
+        <v>1</v>
+      </c>
+      <c r="J329" s="20">
+        <v>0</v>
+      </c>
       <c r="K329" s="35"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>746</v>
+        <v>528</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>747</v>
+        <v>619</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F330" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G330" s="35"/>
       <c r="H330" s="29"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
+      <c r="I330" s="19">
+        <v>1</v>
+      </c>
+      <c r="J330" s="20">
+        <v>0</v>
+      </c>
       <c r="K330" s="35"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="F331" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G331" s="35"/>
       <c r="H331" s="29"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
+      <c r="I331" s="19">
+        <v>1</v>
+      </c>
+      <c r="J331" s="20">
+        <v>0</v>
+      </c>
       <c r="K331" s="35"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
-      <c r="B332" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>553</v>
-      </c>
+      <c r="B332" s="11"/>
+      <c r="C332" s="12"/>
       <c r="D332" s="35"/>
-      <c r="E332" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F332" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E332" s="32"/>
+      <c r="F332" s="60"/>
       <c r="G332" s="35"/>
-      <c r="H332" s="29"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
+      <c r="H332" s="32"/>
+      <c r="I332" s="23"/>
+      <c r="J332" s="24"/>
       <c r="K332" s="35"/>
     </row>
-    <row r="333" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
-      <c r="B333" s="11"/>
-      <c r="C333" s="12"/>
+      <c r="B333" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="D333" s="35"/>
-      <c r="E333" s="32"/>
-      <c r="F333" s="60"/>
+      <c r="E333" s="29">
+        <v>44383</v>
+      </c>
+      <c r="F333" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G333" s="35"/>
-      <c r="H333" s="32"/>
-      <c r="I333" s="23"/>
-      <c r="J333" s="24"/>
+      <c r="H333" s="29"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="20"/>
       <c r="K333" s="35"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>538</v>
+        <v>746</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>554</v>
+        <v>747</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F334" s="58" t="s">
         <v>627</v>
@@ -11098,10 +11114,10 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
@@ -11119,10 +11135,10 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
@@ -11152,11 +11168,11 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
-      <c r="B338" s="13" t="s">
-        <v>545</v>
+      <c r="B338" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
@@ -11167,24 +11183,17 @@
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="19">
-        <v>1</v>
-      </c>
-      <c r="J338" s="20">
-        <v>0</v>
-      </c>
+      <c r="I338" s="19"/>
+      <c r="J338" s="20"/>
       <c r="K338" s="35"/>
-      <c r="L338" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
-      <c r="B339" s="13" t="s">
-        <v>546</v>
+      <c r="B339" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
@@ -11195,24 +11204,17 @@
       </c>
       <c r="G339" s="35"/>
       <c r="H339" s="29"/>
-      <c r="I339" s="19">
-        <v>1</v>
-      </c>
-      <c r="J339" s="20">
-        <v>0</v>
-      </c>
+      <c r="I339" s="19"/>
+      <c r="J339" s="20"/>
       <c r="K339" s="35"/>
-      <c r="L339" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
-      <c r="B340" s="13" t="s">
-        <v>548</v>
+      <c r="B340" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>774</v>
+        <v>555</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
@@ -11223,56 +11225,34 @@
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="19">
-        <v>1</v>
-      </c>
-      <c r="J340" s="20">
-        <v>0</v>
-      </c>
+      <c r="I340" s="19"/>
+      <c r="J340" s="20"/>
       <c r="K340" s="35"/>
-      <c r="L340" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
-      <c r="B341" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>775</v>
-      </c>
+      <c r="B341" s="11"/>
+      <c r="C341" s="12"/>
       <c r="D341" s="35"/>
-      <c r="E341" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F341" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E341" s="32"/>
+      <c r="F341" s="60"/>
       <c r="G341" s="35"/>
-      <c r="H341" s="29"/>
-      <c r="I341" s="19">
-        <v>1</v>
-      </c>
-      <c r="J341" s="20">
-        <v>0</v>
-      </c>
+      <c r="H341" s="32"/>
+      <c r="I341" s="23"/>
+      <c r="J341" s="24"/>
       <c r="K341" s="35"/>
-      <c r="L341" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>771</v>
+        <v>545</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F342" s="58" t="s">
         <v>627</v>
@@ -11292,205 +11272,229 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
-      <c r="B343" s="7"/>
-      <c r="C343" s="4"/>
+      <c r="B343" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="D343" s="35"/>
-      <c r="E343" s="29"/>
-      <c r="F343" s="58"/>
+      <c r="E343" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F343" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G343" s="35"/>
       <c r="H343" s="29"/>
-      <c r="I343" s="19"/>
-      <c r="J343" s="20"/>
+      <c r="I343" s="19">
+        <v>1</v>
+      </c>
+      <c r="J343" s="20">
+        <v>0</v>
+      </c>
       <c r="K343" s="35"/>
-    </row>
-    <row r="344" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L343" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
-      <c r="B344" s="9"/>
-      <c r="C344" s="10"/>
+      <c r="B344" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="D344" s="35"/>
-      <c r="E344" s="30"/>
-      <c r="F344" s="59"/>
+      <c r="E344" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F344" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G344" s="35"/>
-      <c r="H344" s="30"/>
-      <c r="I344" s="21"/>
-      <c r="J344" s="22"/>
+      <c r="H344" s="29"/>
+      <c r="I344" s="19">
+        <v>1</v>
+      </c>
+      <c r="J344" s="20">
+        <v>0</v>
+      </c>
       <c r="K344" s="35"/>
+      <c r="L344" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
-      <c r="B345" s="7" t="s">
-        <v>424</v>
+      <c r="B345" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>425</v>
+        <v>775</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F345" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="29"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="20"/>
+      <c r="I345" s="19">
+        <v>1</v>
+      </c>
+      <c r="J345" s="20">
+        <v>0</v>
+      </c>
       <c r="K345" s="35"/>
+      <c r="L345" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
-      <c r="B346" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>421</v>
+      <c r="B346" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
-        <v>44257</v>
+        <v>44384</v>
       </c>
       <c r="F346" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="29"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="20"/>
+      <c r="I346" s="19">
+        <v>1</v>
+      </c>
+      <c r="J346" s="20">
+        <v>0</v>
+      </c>
       <c r="K346" s="35"/>
+      <c r="L346" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
-      <c r="B347" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="B347" s="7"/>
+      <c r="C347" s="4"/>
       <c r="D347" s="35"/>
-      <c r="E347" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F347" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E347" s="29"/>
+      <c r="F347" s="58"/>
       <c r="G347" s="35"/>
       <c r="H347" s="29"/>
       <c r="I347" s="19"/>
       <c r="J347" s="20"/>
       <c r="K347" s="35"/>
     </row>
-    <row r="348" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12"/>
+      <c r="B348" s="9"/>
+      <c r="C348" s="10"/>
       <c r="D348" s="35"/>
-      <c r="E348" s="32"/>
-      <c r="F348" s="60"/>
+      <c r="E348" s="30"/>
+      <c r="F348" s="59"/>
       <c r="G348" s="35"/>
-      <c r="H348" s="32"/>
-      <c r="I348" s="23"/>
-      <c r="J348" s="24"/>
+      <c r="H348" s="30"/>
+      <c r="I348" s="21"/>
+      <c r="J348" s="22"/>
       <c r="K348" s="35"/>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="7" t="s">
-        <v>646</v>
+        <v>424</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>647</v>
+        <v>425</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
-        <v>44319</v>
+        <v>44257</v>
       </c>
       <c r="F349" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G349" s="35"/>
       <c r="H349" s="29"/>
-      <c r="I349" s="19">
-        <v>1</v>
-      </c>
-      <c r="J349" s="20">
-        <v>0</v>
-      </c>
+      <c r="I349" s="19"/>
+      <c r="J349" s="20"/>
       <c r="K349" s="35"/>
     </row>
-    <row r="350" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="12"/>
+      <c r="B350" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D350" s="35"/>
-      <c r="E350" s="32"/>
-      <c r="F350" s="60"/>
+      <c r="E350" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F350" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G350" s="35"/>
-      <c r="H350" s="32"/>
-      <c r="I350" s="23"/>
-      <c r="J350" s="24"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="19"/>
+      <c r="J350" s="20"/>
       <c r="K350" s="35"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
-        <v>44151</v>
+        <v>44257</v>
       </c>
       <c r="F351" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="29"/>
-      <c r="I351" s="19">
-        <v>1</v>
-      </c>
-      <c r="J351" s="20">
-        <v>0</v>
-      </c>
+      <c r="I351" s="19"/>
+      <c r="J351" s="20"/>
       <c r="K351" s="35"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
-      <c r="B352" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="B352" s="11"/>
+      <c r="C352" s="12"/>
       <c r="D352" s="35"/>
-      <c r="E352" s="29">
-        <v>44245</v>
-      </c>
-      <c r="F352" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E352" s="32"/>
+      <c r="F352" s="60"/>
       <c r="G352" s="35"/>
-      <c r="H352" s="29"/>
-      <c r="I352" s="19">
-        <v>1</v>
-      </c>
-      <c r="J352" s="20">
-        <v>0</v>
-      </c>
+      <c r="H352" s="32"/>
+      <c r="I352" s="23"/>
+      <c r="J352" s="24"/>
       <c r="K352" s="35"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>394</v>
+        <v>646</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>395</v>
+        <v>647</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
-        <v>44231</v>
+        <v>44319</v>
       </c>
       <c r="F353" s="58" t="s">
         <v>627</v>
@@ -11505,202 +11509,210 @@
       </c>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>380</v>
-      </c>
+      <c r="B354" s="11"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="35"/>
-      <c r="E354" s="29">
-        <v>44230</v>
-      </c>
-      <c r="F354" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E354" s="32"/>
+      <c r="F354" s="60"/>
       <c r="G354" s="35"/>
-      <c r="H354" s="29"/>
-      <c r="I354" s="19">
-        <v>1</v>
-      </c>
-      <c r="J354" s="20">
-        <v>0</v>
-      </c>
+      <c r="H354" s="32"/>
+      <c r="I354" s="23"/>
+      <c r="J354" s="24"/>
       <c r="K354" s="35"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
-      <c r="B355" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C355" s="45" t="s">
-        <v>429</v>
+      <c r="B355" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D355" s="35"/>
       <c r="E355" s="29">
-        <v>44264</v>
+        <v>44151</v>
       </c>
       <c r="F355" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G355" s="46"/>
-      <c r="H355" s="47"/>
-      <c r="I355" s="48">
-        <v>1</v>
-      </c>
-      <c r="J355" s="49">
+      <c r="G355" s="35"/>
+      <c r="H355" s="29"/>
+      <c r="I355" s="19">
+        <v>1</v>
+      </c>
+      <c r="J355" s="20">
         <v>0</v>
       </c>
       <c r="K355" s="35"/>
     </row>
-    <row r="356" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
-      <c r="B356" s="11"/>
-      <c r="C356" s="12"/>
+      <c r="B356" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="D356" s="35"/>
-      <c r="E356" s="32"/>
-      <c r="F356" s="60"/>
+      <c r="E356" s="29">
+        <v>44245</v>
+      </c>
+      <c r="F356" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G356" s="35"/>
-      <c r="H356" s="32"/>
-      <c r="I356" s="23"/>
-      <c r="J356" s="24"/>
+      <c r="H356" s="29"/>
+      <c r="I356" s="19">
+        <v>1</v>
+      </c>
+      <c r="J356" s="20">
+        <v>0</v>
+      </c>
       <c r="K356" s="35"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
-        <v>44271</v>
+        <v>44231</v>
       </c>
       <c r="F357" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
+      <c r="I357" s="19">
+        <v>1</v>
+      </c>
+      <c r="J357" s="20">
+        <v>0</v>
+      </c>
       <c r="K357" s="35"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
       <c r="B358" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
-        <v>44278</v>
+        <v>44230</v>
       </c>
       <c r="F358" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="29"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
+      <c r="I358" s="19">
+        <v>1</v>
+      </c>
+      <c r="J358" s="20">
+        <v>0</v>
+      </c>
       <c r="K358" s="35"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
-      <c r="B359" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>433</v>
+      <c r="B359" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C359" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D359" s="35"/>
       <c r="E359" s="29">
+        <v>44264</v>
+      </c>
+      <c r="F359" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G359" s="46"/>
+      <c r="H359" s="47"/>
+      <c r="I359" s="48">
+        <v>1</v>
+      </c>
+      <c r="J359" s="49">
+        <v>0</v>
+      </c>
+      <c r="K359" s="35"/>
+    </row>
+    <row r="360" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="35"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="35"/>
+      <c r="E360" s="32"/>
+      <c r="F360" s="60"/>
+      <c r="G360" s="35"/>
+      <c r="H360" s="32"/>
+      <c r="I360" s="23"/>
+      <c r="J360" s="24"/>
+      <c r="K360" s="35"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="35"/>
+      <c r="B361" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D361" s="35"/>
+      <c r="E361" s="29">
         <v>44271</v>
       </c>
-      <c r="F359" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G359" s="35"/>
-      <c r="H359" s="29"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="20"/>
-      <c r="K359" s="35"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="35"/>
-      <c r="B360" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D360" s="35"/>
-      <c r="E360" s="29">
-        <v>44272</v>
-      </c>
-      <c r="F360" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G360" s="35"/>
-      <c r="H360" s="29"/>
-      <c r="I360" s="19"/>
-      <c r="J360" s="20"/>
-      <c r="K360" s="35"/>
-    </row>
-    <row r="361" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="35"/>
-      <c r="B361" s="11"/>
-      <c r="C361" s="12"/>
-      <c r="D361" s="35"/>
-      <c r="E361" s="32"/>
-      <c r="F361" s="60"/>
+      <c r="F361" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G361" s="35"/>
-      <c r="H361" s="32"/>
-      <c r="I361" s="23"/>
-      <c r="J361" s="24"/>
+      <c r="H361" s="29"/>
+      <c r="I361" s="19"/>
+      <c r="J361" s="20"/>
       <c r="K361" s="35"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="7" t="s">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
-        <v>44151</v>
+        <v>44278</v>
       </c>
       <c r="F362" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G362" s="35"/>
       <c r="H362" s="29"/>
-      <c r="I362" s="19">
-        <v>1</v>
-      </c>
-      <c r="J362" s="20">
-        <v>0</v>
-      </c>
+      <c r="I362" s="19"/>
+      <c r="J362" s="20"/>
       <c r="K362" s="35"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44258</v>
+        <v>44271</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
@@ -11711,152 +11723,132 @@
       <c r="J363" s="20"/>
       <c r="K363" s="35"/>
     </row>
-    <row r="364" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
-      <c r="B364" s="11"/>
-      <c r="C364" s="12"/>
+      <c r="B364" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D364" s="35"/>
-      <c r="E364" s="32"/>
-      <c r="F364" s="60"/>
+      <c r="E364" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F364" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G364" s="35"/>
-      <c r="H364" s="32"/>
-      <c r="I364" s="23"/>
-      <c r="J364" s="24"/>
+      <c r="H364" s="29"/>
+      <c r="I364" s="19"/>
+      <c r="J364" s="20"/>
       <c r="K364" s="35"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="11"/>
+      <c r="C365" s="12"/>
       <c r="D365" s="35"/>
-      <c r="E365" s="29"/>
-      <c r="F365" s="58"/>
+      <c r="E365" s="32"/>
+      <c r="F365" s="60"/>
       <c r="G365" s="35"/>
-      <c r="H365" s="29"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
+      <c r="H365" s="32"/>
+      <c r="I365" s="23"/>
+      <c r="J365" s="24"/>
       <c r="K365" s="35"/>
     </row>
-    <row r="366" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="10"/>
+      <c r="B366" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D366" s="35"/>
-      <c r="E366" s="30"/>
-      <c r="F366" s="59"/>
+      <c r="E366" s="29">
+        <v>44151</v>
+      </c>
+      <c r="F366" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G366" s="35"/>
-      <c r="H366" s="30"/>
-      <c r="I366" s="21"/>
-      <c r="J366" s="22"/>
+      <c r="H366" s="29"/>
+      <c r="I366" s="19">
+        <v>1</v>
+      </c>
+      <c r="J366" s="20">
+        <v>0</v>
+      </c>
       <c r="K366" s="35"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
       <c r="B367" s="7" t="s">
-        <v>766</v>
+        <v>426</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
-        <v>44382</v>
+        <v>44258</v>
       </c>
       <c r="F367" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="29"/>
-      <c r="I367" s="19">
-        <v>1</v>
-      </c>
-      <c r="J367" s="20">
-        <v>0</v>
-      </c>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
       <c r="K367" s="35"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
-      <c r="B368" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="12"/>
       <c r="D368" s="35"/>
-      <c r="E368" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F368" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E368" s="32"/>
+      <c r="F368" s="60"/>
       <c r="G368" s="35"/>
-      <c r="H368" s="29"/>
-      <c r="I368" s="19">
-        <v>1</v>
-      </c>
-      <c r="J368" s="20">
-        <v>0</v>
-      </c>
+      <c r="H368" s="32"/>
+      <c r="I368" s="23"/>
+      <c r="J368" s="24"/>
       <c r="K368" s="35"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="B369" s="7"/>
+      <c r="C369" s="4"/>
       <c r="D369" s="35"/>
-      <c r="E369" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F369" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E369" s="29"/>
+      <c r="F369" s="58"/>
       <c r="G369" s="35"/>
       <c r="H369" s="29"/>
-      <c r="I369" s="19">
-        <v>1</v>
-      </c>
-      <c r="J369" s="20">
-        <v>0</v>
-      </c>
+      <c r="I369" s="19"/>
+      <c r="J369" s="20"/>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="B370" s="9"/>
+      <c r="C370" s="10"/>
       <c r="D370" s="35"/>
-      <c r="E370" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F370" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E370" s="30"/>
+      <c r="F370" s="59"/>
       <c r="G370" s="35"/>
-      <c r="H370" s="29"/>
-      <c r="I370" s="19">
-        <v>1</v>
-      </c>
-      <c r="J370" s="20">
-        <v>0</v>
-      </c>
+      <c r="H370" s="30"/>
+      <c r="I370" s="21"/>
+      <c r="J370" s="22"/>
       <c r="K370" s="35"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
       <c r="B371" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D371" s="35"/>
       <c r="E371" s="29">
@@ -11875,114 +11867,130 @@
       </c>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="12"/>
+      <c r="B372" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="D372" s="35"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="60"/>
+      <c r="E372" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F372" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G372" s="35"/>
-      <c r="H372" s="32"/>
-      <c r="I372" s="23"/>
-      <c r="J372" s="24"/>
+      <c r="H372" s="29"/>
+      <c r="I372" s="19">
+        <v>1</v>
+      </c>
+      <c r="J372" s="20">
+        <v>0</v>
+      </c>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>648</v>
+        <v>768</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="20"/>
+      <c r="I373" s="19">
+        <v>1</v>
+      </c>
+      <c r="J373" s="20">
+        <v>0</v>
+      </c>
       <c r="K373" s="35"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
       <c r="B374" s="7" t="s">
-        <v>542</v>
+        <v>769</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>460</v>
+        <v>703</v>
       </c>
       <c r="D374" s="35"/>
       <c r="E374" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F374" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="29"/>
-      <c r="I374" s="19"/>
-      <c r="J374" s="20"/>
+      <c r="I374" s="19">
+        <v>1</v>
+      </c>
+      <c r="J374" s="20">
+        <v>0</v>
+      </c>
       <c r="K374" s="35"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
       <c r="B375" s="7" t="s">
-        <v>650</v>
+        <v>770</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="D375" s="35"/>
       <c r="E375" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F375" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="29"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
+      <c r="I375" s="19">
+        <v>1</v>
+      </c>
+      <c r="J375" s="20">
+        <v>0</v>
+      </c>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="B376" s="11"/>
+      <c r="C376" s="12"/>
       <c r="D376" s="35"/>
-      <c r="E376" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F376" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E376" s="32"/>
+      <c r="F376" s="60"/>
       <c r="G376" s="35"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="20"/>
+      <c r="H376" s="32"/>
+      <c r="I376" s="23"/>
+      <c r="J376" s="24"/>
       <c r="K376" s="35"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
       <c r="B377" s="7" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>453</v>
+        <v>649</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F377" s="58" t="s">
         <v>627</v>
@@ -11996,10 +12004,10 @@
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
@@ -12014,26 +12022,34 @@
       <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="12"/>
+      <c r="B379" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="D379" s="35"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="60"/>
+      <c r="E379" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F379" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G379" s="35"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="23"/>
-      <c r="J379" s="24"/>
+      <c r="H379" s="29"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="20"/>
       <c r="K379" s="35"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
@@ -12044,25 +12060,21 @@
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="29"/>
-      <c r="I380" s="19">
-        <v>1</v>
-      </c>
-      <c r="J380" s="20">
-        <v>0</v>
-      </c>
+      <c r="I380" s="19"/>
+      <c r="J380" s="20"/>
       <c r="K380" s="35"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>655</v>
+        <v>543</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>658</v>
+        <v>453</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F381" s="58" t="s">
         <v>627</v>
@@ -12076,14 +12088,14 @@
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
       <c r="B382" s="7" t="s">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>659</v>
+        <v>465</v>
       </c>
       <c r="D382" s="35"/>
       <c r="E382" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F382" s="58" t="s">
         <v>627</v>
@@ -12110,10 +12122,10 @@
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
@@ -12135,10 +12147,10 @@
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
       <c r="B385" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D385" s="35"/>
       <c r="E385" s="29">
@@ -12149,59 +12161,51 @@
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="29"/>
-      <c r="I385" s="19">
-        <v>1</v>
-      </c>
-      <c r="J385" s="20">
-        <v>0</v>
-      </c>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
       <c r="K385" s="35"/>
     </row>
-    <row r="386" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="12"/>
+      <c r="B386" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D386" s="35"/>
-      <c r="E386" s="32"/>
-      <c r="F386" s="60"/>
+      <c r="E386" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F386" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G386" s="35"/>
-      <c r="H386" s="32"/>
-      <c r="I386" s="23"/>
-      <c r="J386" s="24"/>
+      <c r="H386" s="29"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
       <c r="K386" s="35"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
-      <c r="B387" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>666</v>
-      </c>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12"/>
       <c r="D387" s="35"/>
-      <c r="E387" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F387" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E387" s="32"/>
+      <c r="F387" s="60"/>
       <c r="G387" s="35"/>
-      <c r="H387" s="29"/>
-      <c r="I387" s="19">
-        <v>1</v>
-      </c>
-      <c r="J387" s="20">
-        <v>0</v>
-      </c>
+      <c r="H387" s="32"/>
+      <c r="I387" s="23"/>
+      <c r="J387" s="24"/>
       <c r="K387" s="35"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
@@ -12220,64 +12224,76 @@
       </c>
       <c r="K388" s="35"/>
     </row>
-    <row r="389" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="12"/>
+      <c r="B389" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="D389" s="35"/>
-      <c r="E389" s="32"/>
-      <c r="F389" s="60"/>
+      <c r="E389" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F389" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G389" s="35"/>
-      <c r="H389" s="32"/>
-      <c r="I389" s="23"/>
-      <c r="J389" s="24"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="19">
+        <v>1</v>
+      </c>
+      <c r="J389" s="20">
+        <v>0</v>
+      </c>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="B390" s="11"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="35"/>
-      <c r="E390" s="29">
+      <c r="E390" s="32"/>
+      <c r="F390" s="60"/>
+      <c r="G390" s="35"/>
+      <c r="H390" s="32"/>
+      <c r="I390" s="23"/>
+      <c r="J390" s="24"/>
+      <c r="K390" s="35"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="35"/>
+      <c r="B391" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D391" s="35"/>
+      <c r="E391" s="29">
         <v>44379</v>
       </c>
-      <c r="F390" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G390" s="35"/>
-      <c r="H390" s="29"/>
-      <c r="I390" s="19">
-        <v>1</v>
-      </c>
-      <c r="J390" s="20">
-        <v>0</v>
-      </c>
-      <c r="K390" s="35"/>
-    </row>
-    <row r="391" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="35"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="12"/>
-      <c r="D391" s="35"/>
-      <c r="E391" s="32"/>
-      <c r="F391" s="60"/>
+      <c r="F391" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G391" s="35"/>
-      <c r="H391" s="32"/>
-      <c r="I391" s="23"/>
-      <c r="J391" s="24"/>
+      <c r="H391" s="29"/>
+      <c r="I391" s="19">
+        <v>1</v>
+      </c>
+      <c r="J391" s="20">
+        <v>0</v>
+      </c>
       <c r="K391" s="35"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
       <c r="B392" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D392" s="35"/>
       <c r="E392" s="29">
@@ -12296,80 +12312,68 @@
       </c>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>673</v>
-      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="35"/>
-      <c r="E393" s="29">
+      <c r="E393" s="32"/>
+      <c r="F393" s="60"/>
+      <c r="G393" s="35"/>
+      <c r="H393" s="32"/>
+      <c r="I393" s="23"/>
+      <c r="J393" s="24"/>
+      <c r="K393" s="35"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="35"/>
+      <c r="B394" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D394" s="35"/>
+      <c r="E394" s="29">
         <v>44379</v>
       </c>
-      <c r="F393" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G393" s="35"/>
-      <c r="H393" s="29"/>
-      <c r="I393" s="19">
-        <v>1</v>
-      </c>
-      <c r="J393" s="20">
-        <v>0</v>
-      </c>
-      <c r="K393" s="35"/>
-    </row>
-    <row r="394" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="35"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="12"/>
-      <c r="D394" s="35"/>
-      <c r="E394" s="32"/>
-      <c r="F394" s="60"/>
+      <c r="F394" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G394" s="35"/>
-      <c r="H394" s="32"/>
-      <c r="I394" s="23"/>
-      <c r="J394" s="24"/>
+      <c r="H394" s="29"/>
+      <c r="I394" s="19">
+        <v>1</v>
+      </c>
+      <c r="J394" s="20">
+        <v>0</v>
+      </c>
       <c r="K394" s="35"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
-      <c r="B395" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B395" s="11"/>
+      <c r="C395" s="12"/>
       <c r="D395" s="35"/>
-      <c r="E395" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F395" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E395" s="32"/>
+      <c r="F395" s="60"/>
       <c r="G395" s="35"/>
-      <c r="H395" s="29"/>
-      <c r="I395" s="19">
-        <v>1</v>
-      </c>
-      <c r="J395" s="20">
-        <v>0</v>
-      </c>
+      <c r="H395" s="32"/>
+      <c r="I395" s="23"/>
+      <c r="J395" s="24"/>
       <c r="K395" s="35"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>144</v>
+        <v>670</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>126</v>
+        <v>672</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F396" s="58" t="s">
         <v>627</v>
@@ -12387,14 +12391,14 @@
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
       <c r="B397" s="7" t="s">
-        <v>284</v>
+        <v>671</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D397" s="35"/>
       <c r="E397" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F397" s="58" t="s">
         <v>627</v>
@@ -12409,42 +12413,30 @@
       </c>
       <c r="K397" s="35"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
-      <c r="B398" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="B398" s="11"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="35"/>
-      <c r="E398" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F398" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E398" s="32"/>
+      <c r="F398" s="60"/>
       <c r="G398" s="35"/>
-      <c r="H398" s="29"/>
-      <c r="I398" s="19">
-        <v>1</v>
-      </c>
-      <c r="J398" s="20">
-        <v>0</v>
-      </c>
+      <c r="H398" s="32"/>
+      <c r="I398" s="23"/>
+      <c r="J398" s="24"/>
       <c r="K398" s="35"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F399" s="58" t="s">
         <v>627</v>
@@ -12462,14 +12454,14 @@
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
       <c r="B400" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D400" s="35"/>
       <c r="E400" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F400" s="58" t="s">
         <v>627</v>
@@ -12487,14 +12479,14 @@
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
       <c r="B401" s="7" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="D401" s="35"/>
       <c r="E401" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F401" s="58" t="s">
         <v>627</v>
@@ -12512,14 +12504,14 @@
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F402" s="58" t="s">
         <v>627</v>
@@ -12537,14 +12529,14 @@
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F403" s="58" t="s">
         <v>627</v>
@@ -12562,14 +12554,14 @@
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
       <c r="B404" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D404" s="35"/>
       <c r="E404" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F404" s="58" t="s">
         <v>627</v>
@@ -12587,10 +12579,10 @@
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
       <c r="B405" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D405" s="35"/>
       <c r="E405" s="29">
@@ -12612,10 +12604,10 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
@@ -12637,10 +12629,10 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
       <c r="B407" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D407" s="35"/>
       <c r="E407" s="29">
@@ -12662,10 +12654,10 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
@@ -12687,10 +12679,10 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
       <c r="B409" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D409" s="35"/>
       <c r="E409" s="29">
@@ -12712,10 +12704,10 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
@@ -12737,10 +12729,10 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
@@ -12762,10 +12754,10 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
@@ -12787,10 +12779,10 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
@@ -12812,10 +12804,10 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
@@ -12837,10 +12829,10 @@
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>623</v>
+        <v>140</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
@@ -12862,10 +12854,10 @@
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>674</v>
+        <v>141</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
@@ -12887,10 +12879,10 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>675</v>
+        <v>142</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
@@ -12912,10 +12904,10 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>676</v>
+        <v>143</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
@@ -12937,10 +12929,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>677</v>
+        <v>623</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -12962,10 +12954,10 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
@@ -12987,10 +12979,10 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
@@ -13012,10 +13004,10 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13037,10 +13029,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13062,10 +13054,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13087,10 +13079,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13112,10 +13104,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13137,10 +13129,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13162,10 +13154,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13187,10 +13179,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13209,30 +13201,42 @@
       </c>
       <c r="K429" s="35"/>
     </row>
-    <row r="430" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
-      <c r="B430" s="11"/>
-      <c r="C430" s="12"/>
+      <c r="B430" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>684</v>
+      </c>
       <c r="D430" s="35"/>
-      <c r="E430" s="32"/>
-      <c r="F430" s="60"/>
+      <c r="E430" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F430" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G430" s="35"/>
-      <c r="H430" s="32"/>
-      <c r="I430" s="23"/>
-      <c r="J430" s="24"/>
+      <c r="H430" s="29"/>
+      <c r="I430" s="19">
+        <v>1</v>
+      </c>
+      <c r="J430" s="20">
+        <v>0</v>
+      </c>
       <c r="K430" s="35"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F431" s="58" t="s">
         <v>627</v>
@@ -13250,14 +13254,14 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F432" s="58" t="s">
         <v>627</v>
@@ -13275,14 +13279,14 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>762</v>
+        <v>176</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F433" s="58" t="s">
         <v>627</v>
@@ -13313,10 +13317,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>690</v>
+        <v>177</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13338,10 +13342,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>691</v>
+        <v>197</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13363,14 +13367,14 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>697</v>
+        <v>763</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="F437" s="58" t="s">
         <v>627</v>
@@ -13385,38 +13389,26 @@
       </c>
       <c r="K437" s="35"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
-      <c r="B438" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="B438" s="11"/>
+      <c r="C438" s="12"/>
       <c r="D438" s="35"/>
-      <c r="E438" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F438" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E438" s="32"/>
+      <c r="F438" s="60"/>
       <c r="G438" s="35"/>
-      <c r="H438" s="29"/>
-      <c r="I438" s="19">
-        <v>1</v>
-      </c>
-      <c r="J438" s="20">
-        <v>0</v>
-      </c>
+      <c r="H438" s="32"/>
+      <c r="I438" s="23"/>
+      <c r="J438" s="24"/>
       <c r="K438" s="35"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13437,121 +13429,137 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
-      <c r="B440" s="7"/>
-      <c r="C440" s="4"/>
+      <c r="B440" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="D440" s="35"/>
-      <c r="E440" s="29"/>
-      <c r="F440" s="58"/>
+      <c r="E440" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F440" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G440" s="35"/>
       <c r="H440" s="29"/>
-      <c r="I440" s="19"/>
-      <c r="J440" s="20"/>
+      <c r="I440" s="19">
+        <v>1</v>
+      </c>
+      <c r="J440" s="20">
+        <v>0</v>
+      </c>
       <c r="K440" s="35"/>
     </row>
-    <row r="441" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
-      <c r="B441" s="9"/>
-      <c r="C441" s="10"/>
+      <c r="B441" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="D441" s="35"/>
-      <c r="E441" s="30"/>
-      <c r="F441" s="59"/>
+      <c r="E441" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F441" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G441" s="35"/>
-      <c r="H441" s="30"/>
-      <c r="I441" s="21"/>
-      <c r="J441" s="22"/>
+      <c r="H441" s="29"/>
+      <c r="I441" s="19">
+        <v>1</v>
+      </c>
+      <c r="J441" s="20">
+        <v>0</v>
+      </c>
       <c r="K441" s="35"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>463</v>
+        <v>698</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F442" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="29"/>
-      <c r="I442" s="19"/>
-      <c r="J442" s="20"/>
+      <c r="I442" s="19">
+        <v>1</v>
+      </c>
+      <c r="J442" s="20">
+        <v>0</v>
+      </c>
       <c r="K442" s="35"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F443" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="29"/>
-      <c r="I443" s="19"/>
-      <c r="J443" s="20"/>
+      <c r="I443" s="19">
+        <v>1</v>
+      </c>
+      <c r="J443" s="20">
+        <v>0</v>
+      </c>
       <c r="K443" s="35"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
-      <c r="B444" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>708</v>
-      </c>
+      <c r="B444" s="7"/>
+      <c r="C444" s="4"/>
       <c r="D444" s="35"/>
-      <c r="E444" s="29">
-        <v>44365</v>
-      </c>
-      <c r="F444" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E444" s="29"/>
+      <c r="F444" s="58"/>
       <c r="G444" s="35"/>
       <c r="H444" s="29"/>
       <c r="I444" s="19"/>
       <c r="J444" s="20"/>
       <c r="K444" s="35"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
-      <c r="B445" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B445" s="9"/>
+      <c r="C445" s="10"/>
       <c r="D445" s="35"/>
-      <c r="E445" s="29">
-        <v>44362</v>
-      </c>
-      <c r="F445" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E445" s="30"/>
+      <c r="F445" s="59"/>
       <c r="G445" s="35"/>
-      <c r="H445" s="29"/>
-      <c r="I445" s="19"/>
-      <c r="J445" s="20"/>
+      <c r="H445" s="30"/>
+      <c r="I445" s="21"/>
+      <c r="J445" s="22"/>
       <c r="K445" s="35"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
@@ -13566,30 +13574,38 @@
       <c r="J446" s="20"/>
       <c r="K446" s="35"/>
     </row>
-    <row r="447" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
-      <c r="B447" s="11"/>
-      <c r="C447" s="12"/>
+      <c r="B447" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>707</v>
+      </c>
       <c r="D447" s="35"/>
-      <c r="E447" s="32"/>
-      <c r="F447" s="60"/>
+      <c r="E447" s="29">
+        <v>44365</v>
+      </c>
+      <c r="F447" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G447" s="35"/>
-      <c r="H447" s="32"/>
-      <c r="I447" s="23"/>
-      <c r="J447" s="24"/>
+      <c r="H447" s="29"/>
+      <c r="I447" s="19"/>
+      <c r="J447" s="20"/>
       <c r="K447" s="35"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>408</v>
+        <v>706</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>409</v>
+        <v>708</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
-        <v>44250</v>
+        <v>44365</v>
       </c>
       <c r="F448" s="58" t="s">
         <v>627</v>
@@ -13603,14 +13619,14 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="F449" s="58" t="s">
         <v>627</v>
@@ -13624,14 +13640,14 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
-        <v>44250</v>
+        <v>44363</v>
       </c>
       <c r="F450" s="58" t="s">
         <v>627</v>
@@ -13658,39 +13674,35 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
       <c r="B452" s="7" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="D452" s="35"/>
       <c r="E452" s="29">
-        <v>44148</v>
+        <v>44250</v>
       </c>
       <c r="F452" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G452" s="35"/>
       <c r="H452" s="29"/>
-      <c r="I452" s="19">
-        <v>1</v>
-      </c>
-      <c r="J452" s="20">
-        <v>0</v>
-      </c>
+      <c r="I452" s="19"/>
+      <c r="J452" s="20"/>
       <c r="K452" s="35"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>594</v>
+        <v>418</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>595</v>
+        <v>419</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="F453" s="58" t="s">
         <v>627</v>
@@ -13704,14 +13716,14 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F454" s="58" t="s">
         <v>627</v>
@@ -13722,38 +13734,30 @@
       <c r="J454" s="20"/>
       <c r="K454" s="35"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
-      <c r="B455" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B455" s="11"/>
+      <c r="C455" s="12"/>
       <c r="D455" s="35"/>
-      <c r="E455" s="29">
-        <v>44377</v>
-      </c>
-      <c r="F455" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E455" s="32"/>
+      <c r="F455" s="60"/>
       <c r="G455" s="35"/>
-      <c r="H455" s="29"/>
-      <c r="I455" s="19"/>
-      <c r="J455" s="20"/>
+      <c r="H455" s="32"/>
+      <c r="I455" s="23"/>
+      <c r="J455" s="24"/>
       <c r="K455" s="35"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F456" s="58" t="s">
         <v>627</v>
@@ -13771,14 +13775,14 @@
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
       <c r="B457" s="7" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="D457" s="35"/>
       <c r="E457" s="29">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="F457" s="58" t="s">
         <v>627</v>
@@ -13792,14 +13796,14 @@
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>578</v>
+        <v>294</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F458" s="58" t="s">
         <v>627</v>
@@ -13813,14 +13817,14 @@
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>579</v>
+        <v>295</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F459" s="58" t="s">
         <v>627</v>
@@ -13834,35 +13838,39 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G460" s="35"/>
       <c r="H460" s="29"/>
-      <c r="I460" s="19"/>
-      <c r="J460" s="20"/>
+      <c r="I460" s="19">
+        <v>1</v>
+      </c>
+      <c r="J460" s="20">
+        <v>0</v>
+      </c>
       <c r="K460" s="35"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
       <c r="B461" s="7" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="D461" s="35"/>
       <c r="E461" s="29">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="F461" s="58" t="s">
         <v>627</v>
@@ -13876,10 +13884,10 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
       <c r="B462" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D462" s="35"/>
       <c r="E462" s="29">
@@ -13897,10 +13905,10 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
@@ -13915,276 +13923,260 @@
       <c r="J463" s="20"/>
       <c r="K463" s="35"/>
     </row>
-    <row r="464" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="37"/>
-      <c r="B464" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C464" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D464" s="37"/>
-      <c r="E464" s="31">
-        <v>44176</v>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="35"/>
+      <c r="B464" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D464" s="35"/>
+      <c r="E464" s="29">
+        <v>44376</v>
       </c>
       <c r="F464" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G464" s="37"/>
-      <c r="H464" s="31"/>
-      <c r="I464" s="19">
-        <v>1</v>
-      </c>
-      <c r="J464" s="20">
-        <v>0</v>
-      </c>
-      <c r="K464" s="37"/>
-    </row>
-    <row r="465" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="37"/>
-      <c r="B465" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C465" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D465" s="37"/>
-      <c r="E465" s="31">
-        <v>44176</v>
+      <c r="G464" s="35"/>
+      <c r="H464" s="29"/>
+      <c r="I464" s="19"/>
+      <c r="J464" s="20"/>
+      <c r="K464" s="35"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="35"/>
+      <c r="B465" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D465" s="35"/>
+      <c r="E465" s="29">
+        <v>44376</v>
       </c>
       <c r="F465" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G465" s="37"/>
-      <c r="H465" s="31"/>
-      <c r="I465" s="19">
-        <v>1</v>
-      </c>
-      <c r="J465" s="20">
-        <v>0</v>
-      </c>
-      <c r="K465" s="37"/>
-    </row>
-    <row r="466" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="37"/>
-      <c r="B466" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C466" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D466" s="37"/>
-      <c r="E466" s="31">
-        <v>44176</v>
+      <c r="G465" s="35"/>
+      <c r="H465" s="29"/>
+      <c r="I465" s="19"/>
+      <c r="J465" s="20"/>
+      <c r="K465" s="35"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="35"/>
+      <c r="B466" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D466" s="35"/>
+      <c r="E466" s="29">
+        <v>44376</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G466" s="37"/>
-      <c r="H466" s="31"/>
-      <c r="I466" s="19">
-        <v>1</v>
-      </c>
-      <c r="J466" s="20">
-        <v>0</v>
-      </c>
-      <c r="K466" s="37"/>
-    </row>
-    <row r="467" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="37"/>
-      <c r="B467" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C467" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D467" s="37"/>
-      <c r="E467" s="31">
-        <v>44176</v>
+      <c r="G466" s="35"/>
+      <c r="H466" s="29"/>
+      <c r="I466" s="19"/>
+      <c r="J466" s="20"/>
+      <c r="K466" s="35"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="35"/>
+      <c r="B467" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D467" s="35"/>
+      <c r="E467" s="29">
+        <v>44376</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G467" s="37"/>
-      <c r="H467" s="31"/>
-      <c r="I467" s="19">
-        <v>1</v>
-      </c>
-      <c r="J467" s="20">
-        <v>0</v>
-      </c>
-      <c r="K467" s="37"/>
+      <c r="G467" s="35"/>
+      <c r="H467" s="29"/>
+      <c r="I467" s="19"/>
+      <c r="J467" s="20"/>
+      <c r="K467" s="35"/>
     </row>
     <row r="468" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="37"/>
-      <c r="B468" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>403</v>
+      <c r="B468" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C468" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="D468" s="37"/>
       <c r="E468" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G468" s="37"/>
       <c r="H468" s="31"/>
-      <c r="I468" s="19"/>
-      <c r="J468" s="20"/>
+      <c r="I468" s="19">
+        <v>1</v>
+      </c>
+      <c r="J468" s="20">
+        <v>0</v>
+      </c>
       <c r="K468" s="37"/>
     </row>
     <row r="469" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="37"/>
-      <c r="B469" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>407</v>
+      <c r="B469" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C469" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="D469" s="37"/>
       <c r="E469" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F469" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G469" s="37"/>
       <c r="H469" s="31"/>
-      <c r="I469" s="19"/>
-      <c r="J469" s="20"/>
+      <c r="I469" s="19">
+        <v>1</v>
+      </c>
+      <c r="J469" s="20">
+        <v>0</v>
+      </c>
       <c r="K469" s="37"/>
     </row>
     <row r="470" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="37"/>
-      <c r="B470" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>406</v>
+      <c r="B470" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C470" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="D470" s="37"/>
       <c r="E470" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F470" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G470" s="37"/>
       <c r="H470" s="31"/>
-      <c r="I470" s="19"/>
-      <c r="J470" s="20"/>
+      <c r="I470" s="19">
+        <v>1</v>
+      </c>
+      <c r="J470" s="20">
+        <v>0</v>
+      </c>
       <c r="K470" s="37"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="35"/>
-      <c r="B471" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C471" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D471" s="35"/>
-      <c r="E471" s="29">
-        <v>44175</v>
+    <row r="471" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="37"/>
+      <c r="B471" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C471" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D471" s="37"/>
+      <c r="E471" s="31">
+        <v>44176</v>
       </c>
       <c r="F471" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G471" s="35"/>
-      <c r="H471" s="29"/>
+      <c r="G471" s="37"/>
+      <c r="H471" s="31"/>
       <c r="I471" s="19">
         <v>1</v>
       </c>
       <c r="J471" s="20">
         <v>0</v>
       </c>
-      <c r="K471" s="35"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="35"/>
+      <c r="K471" s="37"/>
+    </row>
+    <row r="472" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="37"/>
       <c r="B472" s="7" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D472" s="35"/>
-      <c r="E472" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D472" s="37"/>
+      <c r="E472" s="31">
+        <v>44245</v>
       </c>
       <c r="F472" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G472" s="35"/>
-      <c r="H472" s="29"/>
-      <c r="I472" s="19">
-        <v>1</v>
-      </c>
-      <c r="J472" s="20">
-        <v>0</v>
-      </c>
-      <c r="K472" s="35"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="35"/>
+      <c r="G472" s="37"/>
+      <c r="H472" s="31"/>
+      <c r="I472" s="19"/>
+      <c r="J472" s="20"/>
+      <c r="K472" s="37"/>
+    </row>
+    <row r="473" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="37"/>
       <c r="B473" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D473" s="35"/>
-      <c r="E473" s="29">
-        <v>44175</v>
+        <v>407</v>
+      </c>
+      <c r="D473" s="37"/>
+      <c r="E473" s="31">
+        <v>44245</v>
       </c>
       <c r="F473" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G473" s="35"/>
-      <c r="H473" s="29"/>
-      <c r="I473" s="19">
-        <v>1</v>
-      </c>
-      <c r="J473" s="20">
-        <v>0</v>
-      </c>
-      <c r="K473" s="35"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="35"/>
+      <c r="G473" s="37"/>
+      <c r="H473" s="31"/>
+      <c r="I473" s="19"/>
+      <c r="J473" s="20"/>
+      <c r="K473" s="37"/>
+    </row>
+    <row r="474" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="37"/>
       <c r="B474" s="7" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D474" s="35"/>
-      <c r="E474" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D474" s="37"/>
+      <c r="E474" s="31">
+        <v>44245</v>
       </c>
       <c r="F474" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G474" s="35"/>
-      <c r="H474" s="29"/>
-      <c r="I474" s="19">
-        <v>1</v>
-      </c>
-      <c r="J474" s="20">
-        <v>0</v>
-      </c>
-      <c r="K474" s="35"/>
+      <c r="G474" s="37"/>
+      <c r="H474" s="31"/>
+      <c r="I474" s="19"/>
+      <c r="J474" s="20"/>
+      <c r="K474" s="37"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
@@ -14206,10 +14198,10 @@
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
       <c r="B476" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D476" s="35"/>
       <c r="E476" s="29">
@@ -14231,14 +14223,14 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
       <c r="B477" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D477" s="35"/>
       <c r="E477" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F477" s="58" t="s">
         <v>627</v>
@@ -14256,14 +14248,14 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="35"/>
       <c r="B478" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D478" s="35"/>
       <c r="E478" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
@@ -14281,14 +14273,14 @@
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D479" s="35"/>
       <c r="E479" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
@@ -14303,127 +14295,151 @@
       </c>
       <c r="K479" s="35"/>
     </row>
-    <row r="480" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
-      <c r="B480" s="11"/>
-      <c r="C480" s="12"/>
+      <c r="B480" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D480" s="35"/>
-      <c r="E480" s="32"/>
-      <c r="F480" s="60"/>
+      <c r="E480" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F480" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G480" s="35"/>
-      <c r="H480" s="32"/>
-      <c r="I480" s="23"/>
-      <c r="J480" s="24"/>
+      <c r="H480" s="29"/>
+      <c r="I480" s="19">
+        <v>1</v>
+      </c>
+      <c r="J480" s="20">
+        <v>0</v>
+      </c>
       <c r="K480" s="35"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>721</v>
+        <v>307</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F481" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G481" s="35"/>
       <c r="H481" s="29"/>
-      <c r="I481" s="19"/>
-      <c r="J481" s="20"/>
+      <c r="I481" s="19">
+        <v>1</v>
+      </c>
+      <c r="J481" s="20">
+        <v>0</v>
+      </c>
       <c r="K481" s="35"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>718</v>
+        <v>304</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>722</v>
+        <v>305</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F482" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G482" s="35"/>
       <c r="H482" s="29"/>
-      <c r="I482" s="19"/>
-      <c r="J482" s="20"/>
+      <c r="I482" s="19">
+        <v>1</v>
+      </c>
+      <c r="J482" s="20">
+        <v>0</v>
+      </c>
       <c r="K482" s="35"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>719</v>
+        <v>298</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>723</v>
+        <v>299</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F483" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G483" s="35"/>
       <c r="H483" s="29"/>
-      <c r="I483" s="19"/>
-      <c r="J483" s="20"/>
+      <c r="I483" s="19">
+        <v>1</v>
+      </c>
+      <c r="J483" s="20">
+        <v>0</v>
+      </c>
       <c r="K483" s="35"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
-      <c r="B484" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="B484" s="11"/>
+      <c r="C484" s="12"/>
       <c r="D484" s="35"/>
-      <c r="E484" s="29">
+      <c r="E484" s="32"/>
+      <c r="F484" s="60"/>
+      <c r="G484" s="35"/>
+      <c r="H484" s="32"/>
+      <c r="I484" s="23"/>
+      <c r="J484" s="24"/>
+      <c r="K484" s="35"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="35"/>
+      <c r="B485" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D485" s="35"/>
+      <c r="E485" s="29">
         <v>44382</v>
       </c>
-      <c r="F484" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G484" s="35"/>
-      <c r="H484" s="29"/>
-      <c r="I484" s="19"/>
-      <c r="J484" s="20"/>
-      <c r="K484" s="35"/>
-    </row>
-    <row r="485" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="35"/>
-      <c r="B485" s="11"/>
-      <c r="C485" s="12"/>
-      <c r="D485" s="35"/>
-      <c r="E485" s="32"/>
-      <c r="F485" s="60"/>
+      <c r="F485" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G485" s="35"/>
-      <c r="H485" s="32"/>
-      <c r="I485" s="23"/>
-      <c r="J485" s="24"/>
+      <c r="H485" s="29"/>
+      <c r="I485" s="19"/>
+      <c r="J485" s="20"/>
       <c r="K485" s="35"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
@@ -14437,14 +14453,14 @@
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
       <c r="B487" s="7" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="D487" s="35"/>
       <c r="E487" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
@@ -14458,14 +14474,14 @@
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="35"/>
       <c r="B488" s="7" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="D488" s="35"/>
       <c r="E488" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F488" s="58" t="s">
         <v>627</v>
@@ -14476,61 +14492,137 @@
       <c r="J488" s="20"/>
       <c r="K488" s="35"/>
     </row>
-    <row r="489" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
-      <c r="B489" s="8"/>
-      <c r="C489" s="6"/>
+      <c r="B489" s="11"/>
+      <c r="C489" s="12"/>
       <c r="D489" s="35"/>
-      <c r="E489" s="33"/>
-      <c r="F489" s="61"/>
+      <c r="E489" s="32"/>
+      <c r="F489" s="60"/>
       <c r="G489" s="35"/>
-      <c r="H489" s="33"/>
-      <c r="I489" s="25"/>
-      <c r="J489" s="26"/>
+      <c r="H489" s="32"/>
+      <c r="I489" s="23"/>
+      <c r="J489" s="24"/>
       <c r="K489" s="35"/>
     </row>
-    <row r="490" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
-      <c r="B490" s="38"/>
-      <c r="C490" s="39"/>
+      <c r="B490" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="D490" s="35"/>
-      <c r="E490" s="40"/>
-      <c r="F490" s="55"/>
+      <c r="E490" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F490" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G490" s="35"/>
-      <c r="H490" s="40"/>
-      <c r="I490" s="41"/>
-      <c r="J490" s="41"/>
+      <c r="H490" s="29"/>
+      <c r="I490" s="19"/>
+      <c r="J490" s="20"/>
       <c r="K490" s="35"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="35"/>
+      <c r="B491" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D491" s="35"/>
+      <c r="E491" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F491" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G491" s="35"/>
+      <c r="H491" s="29"/>
+      <c r="I491" s="19"/>
+      <c r="J491" s="20"/>
+      <c r="K491" s="35"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>389</v>
+        <v>761</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>390</v>
+        <v>758</v>
       </c>
       <c r="D492" s="35"/>
-      <c r="E492" s="29"/>
-      <c r="F492" s="58"/>
+      <c r="E492" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F492" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G492" s="35"/>
       <c r="H492" s="29"/>
       <c r="I492" s="19"/>
       <c r="J492" s="20"/>
       <c r="K492" s="35"/>
     </row>
-    <row r="493" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="35"/>
-      <c r="B493" s="50"/>
-      <c r="C493" s="51"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="6"/>
       <c r="D493" s="35"/>
-      <c r="E493" s="52"/>
-      <c r="F493" s="62"/>
+      <c r="E493" s="33"/>
+      <c r="F493" s="61"/>
       <c r="G493" s="35"/>
-      <c r="H493" s="52"/>
-      <c r="I493" s="53"/>
-      <c r="J493" s="54"/>
+      <c r="H493" s="33"/>
+      <c r="I493" s="25"/>
+      <c r="J493" s="26"/>
       <c r="K493" s="35"/>
+    </row>
+    <row r="494" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="35"/>
+      <c r="B494" s="38"/>
+      <c r="C494" s="39"/>
+      <c r="D494" s="35"/>
+      <c r="E494" s="40"/>
+      <c r="F494" s="55"/>
+      <c r="G494" s="35"/>
+      <c r="H494" s="40"/>
+      <c r="I494" s="41"/>
+      <c r="J494" s="41"/>
+      <c r="K494" s="35"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="35"/>
+      <c r="B496" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D496" s="35"/>
+      <c r="E496" s="29"/>
+      <c r="F496" s="58"/>
+      <c r="G496" s="35"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="20"/>
+      <c r="K496" s="35"/>
+    </row>
+    <row r="497" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="35"/>
+      <c r="B497" s="50"/>
+      <c r="C497" s="51"/>
+      <c r="D497" s="35"/>
+      <c r="E497" s="52"/>
+      <c r="F497" s="62"/>
+      <c r="G497" s="35"/>
+      <c r="H497" s="52"/>
+      <c r="I497" s="53"/>
+      <c r="J497" s="54"/>
+      <c r="K497" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14542,7 +14634,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F23:F24 F26 F28:F30 F59:F65 F68:F73 F75:F106 F118:F122 F124:F128 F130:F136 F138:F140 F142:F143 F148 F150:F168 F170:F205 F207:F209 F211:F215 F218:F237 F242:F247 F249:F250 F273:F274 F276:F277 F284:F289 F291:F292 F294:F295 F334:F342 F345:F347 F349 F351:F355 F357:F360 F362:F363 F373:F378 F380:F382 F384:F385 F387:F388 F145:F146 F390 F392:F393 F395:F429 F431:F433 F435:F439 F367:F371 F442:F446 F448:F450 F452:F479 F108:F111 F481:F484 F252:F271 F297:F327 F329:F332 F280:F282 F113:F115 F486:F488 F56 F40:F54 F35:F39 F33 F17:F20 F240" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F23:F24 F26 F28:F30 F59:F65 F68:F73 F75:F106 F118:F122 F124:F128 F130:F136 F138:F140 F142:F143 F148 F150:F168 F170:F205 F207:F209 F211:F215 F218:F237 F246:F251 F253:F254 F277:F278 F280:F281 F288:F293 F295:F296 F298:F299 F338:F346 F349:F351 F353 F355:F359 F361:F364 F366:F367 F377:F382 F384:F386 F388:F389 F391:F392 F145:F146 F394 F396:F397 F399:F433 F435:F437 F439:F443 F371:F375 F446:F450 F452:F454 F456:F483 F108:F111 F485:F488 F256:F275 F301:F331 F333:F336 F284:F286 F113:F115 F490:F492 F56 F40:F54 F35:F39 F33 F17:F20 F244" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="846">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2868,6 +2868,24 @@
       </rPr>
       <t xml:space="preserve"> ke Archive</t>
     </r>
+  </si>
+  <si>
+    <t>transaction.create.dataAcquisition.setLog_FileUpload_Pointer</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru File Upload Pointer</t>
+  </si>
+  <si>
+    <t>transaction.create.dataAcquisition.setLog_FileUpload_Object</t>
+  </si>
+  <si>
+    <t>transaction.create.dataAcquisition.setLog_FileUpload_ObjectDetail</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru File Upload Object</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru File Upload Object Detail</t>
   </si>
 </sst>
 </file>
@@ -3767,13 +3785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L499"/>
+  <dimension ref="A1:L503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5351,41 +5369,35 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
-        <v>12</v>
+        <v>842</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>277</v>
+        <v>844</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29">
-        <v>44148</v>
+        <v>44404</v>
       </c>
       <c r="F81" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G81" s="35"/>
-      <c r="H81" s="29">
-        <v>44200</v>
-      </c>
-      <c r="I81" s="19">
-        <v>1</v>
-      </c>
-      <c r="J81" s="20">
-        <v>1</v>
-      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
       <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
-      <c r="B82" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>593</v>
+      <c r="B82" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29">
-        <v>44148</v>
+        <v>44404</v>
       </c>
       <c r="F82" s="58" t="s">
         <v>627</v>
@@ -5398,15 +5410,15 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
-      <c r="B83" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>292</v>
+      <c r="B83" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>841</v>
       </c>
       <c r="D83" s="35"/>
-      <c r="E83" s="29" t="s">
-        <v>632</v>
+      <c r="E83" s="29">
+        <v>44404</v>
       </c>
       <c r="F83" s="58" t="s">
         <v>627</v>
@@ -5417,45 +5429,37 @@
       <c r="J83" s="20"/>
       <c r="K83" s="35"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
-      <c r="B84" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="35"/>
-      <c r="E84" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E84" s="32"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="35"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="24"/>
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F85" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G85" s="35"/>
       <c r="H85" s="29">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="I85" s="19">
         <v>1</v>
@@ -5467,15 +5471,15 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
-      <c r="B86" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>622</v>
+      <c r="B86" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>593</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F86" s="58" t="s">
         <v>627</v>
@@ -5488,15 +5492,15 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
-      <c r="B87" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>569</v>
+      <c r="B87" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="D87" s="35"/>
-      <c r="E87" s="29">
-        <v>44376</v>
+      <c r="E87" s="29" t="s">
+        <v>632</v>
       </c>
       <c r="F87" s="58" t="s">
         <v>627</v>
@@ -5507,298 +5511,298 @@
       <c r="J87" s="20"/>
       <c r="K87" s="35"/>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="35"/>
       <c r="B88" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="29">
-        <v>44376</v>
+        <v>291</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="29" t="s">
+        <v>632</v>
       </c>
       <c r="F88" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G88" s="37"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="29"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="13" t="s">
-        <v>571</v>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="35"/>
+      <c r="B89" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D89" s="37"/>
+        <v>287</v>
+      </c>
+      <c r="D89" s="35"/>
       <c r="E89" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F89" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="37"/>
-    </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="13" t="s">
-        <v>572</v>
+      <c r="G89" s="35"/>
+      <c r="H89" s="29">
+        <v>44204</v>
+      </c>
+      <c r="I89" s="19">
+        <v>1</v>
+      </c>
+      <c r="J89" s="20">
+        <v>1</v>
+      </c>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+      <c r="B90" s="7" t="s">
+        <v>621</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D90" s="37"/>
+        <v>622</v>
+      </c>
+      <c r="D90" s="35"/>
       <c r="E90" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F90" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G90" s="37"/>
+      <c r="G90" s="35"/>
       <c r="H90" s="29"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
-      <c r="K90" s="37"/>
-    </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="13" t="s">
-        <v>573</v>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="7" t="s">
+        <v>568</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D91" s="37"/>
+        <v>569</v>
+      </c>
+      <c r="D91" s="35"/>
       <c r="E91" s="29">
         <v>44376</v>
       </c>
       <c r="F91" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G91" s="37"/>
+      <c r="G91" s="35"/>
       <c r="H91" s="29"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
-      <c r="K91" s="37"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="7" t="s">
-        <v>590</v>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="13" t="s">
+        <v>570</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D92" s="35"/>
+        <v>574</v>
+      </c>
+      <c r="D92" s="37"/>
       <c r="E92" s="29">
         <v>44376</v>
       </c>
       <c r="F92" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G92" s="35"/>
+      <c r="G92" s="37"/>
       <c r="H92" s="29"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
-      <c r="K92" s="35"/>
+      <c r="K92" s="37"/>
     </row>
     <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37"/>
       <c r="B93" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>346</v>
+        <v>571</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="D93" s="37"/>
       <c r="E93" s="29">
-        <v>44176</v>
+        <v>44376</v>
       </c>
       <c r="F93" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G93" s="37"/>
-      <c r="H93" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I93" s="19">
-        <v>1</v>
-      </c>
-      <c r="J93" s="20">
-        <v>1</v>
-      </c>
+      <c r="H93" s="29"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20"/>
       <c r="K93" s="37"/>
     </row>
     <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
       <c r="B94" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>347</v>
+        <v>572</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="29">
-        <v>44176</v>
+        <v>44376</v>
       </c>
       <c r="F94" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G94" s="37"/>
-      <c r="H94" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I94" s="19">
-        <v>1</v>
-      </c>
-      <c r="J94" s="20">
-        <v>1</v>
-      </c>
+      <c r="H94" s="29"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
       <c r="K94" s="37"/>
     </row>
     <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
       <c r="B95" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>348</v>
+        <v>573</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="29">
-        <v>44173</v>
+        <v>44376</v>
       </c>
       <c r="F95" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G95" s="37"/>
-      <c r="H95" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I95" s="19">
-        <v>1</v>
-      </c>
-      <c r="J95" s="20">
-        <v>1</v>
-      </c>
+      <c r="H95" s="29"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
       <c r="K95" s="37"/>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D96" s="37"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+      <c r="B96" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D96" s="35"/>
       <c r="E96" s="29">
-        <v>44173</v>
+        <v>44376</v>
       </c>
       <c r="F96" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I96" s="19">
-        <v>1</v>
-      </c>
-      <c r="J96" s="20">
-        <v>1</v>
-      </c>
-      <c r="K96" s="37"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
-      <c r="B97" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>400</v>
+      <c r="B97" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="D97" s="37"/>
       <c r="E97" s="29">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F97" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G97" s="37"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="29">
+        <v>44204</v>
+      </c>
+      <c r="I97" s="19">
+        <v>1</v>
+      </c>
+      <c r="J97" s="20">
+        <v>1</v>
+      </c>
       <c r="K97" s="37"/>
     </row>
     <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
-      <c r="B98" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>401</v>
+      <c r="B98" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>347</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="29">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F98" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G98" s="37"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="29">
+        <v>44204</v>
+      </c>
+      <c r="I98" s="19">
+        <v>1</v>
+      </c>
+      <c r="J98" s="20">
+        <v>1</v>
+      </c>
       <c r="K98" s="37"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D99" s="35"/>
+    <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99" s="37"/>
       <c r="E99" s="29">
-        <v>44245</v>
+        <v>44173</v>
       </c>
       <c r="F99" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G99" s="35"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="35"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D100" s="35"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="29">
+        <v>44204</v>
+      </c>
+      <c r="I99" s="19">
+        <v>1</v>
+      </c>
+      <c r="J99" s="20">
+        <v>1</v>
+      </c>
+      <c r="K99" s="37"/>
+    </row>
+    <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" s="37"/>
       <c r="E100" s="29">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="F100" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G100" s="35"/>
+      <c r="G100" s="37"/>
       <c r="H100" s="29">
         <v>44207</v>
       </c>
@@ -5808,96 +5812,78 @@
       <c r="J100" s="20">
         <v>1</v>
       </c>
-      <c r="K100" s="35"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
       <c r="B101" s="7" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D101" s="35"/>
+        <v>400</v>
+      </c>
+      <c r="D101" s="37"/>
       <c r="E101" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F101" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I101" s="19">
-        <v>1</v>
-      </c>
-      <c r="J101" s="20">
-        <v>1</v>
-      </c>
-      <c r="K101" s="35"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="37"/>
+    </row>
+    <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
       <c r="B102" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D102" s="35"/>
+        <v>401</v>
+      </c>
+      <c r="D102" s="37"/>
       <c r="E102" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F102" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G102" s="35"/>
-      <c r="H102" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I102" s="19">
-        <v>1</v>
-      </c>
-      <c r="J102" s="20">
-        <v>1</v>
-      </c>
-      <c r="K102" s="35"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="7" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F103" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G103" s="35"/>
-      <c r="H103" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I103" s="19">
-        <v>1</v>
-      </c>
-      <c r="J103" s="20">
-        <v>1</v>
-      </c>
+      <c r="H103" s="29"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="35"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="29">
@@ -5921,10 +5907,10 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29">
@@ -5948,14 +5934,14 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F106" s="58" t="s">
         <v>627</v>
@@ -5975,14 +5961,14 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F107" s="58" t="s">
         <v>627</v>
@@ -6002,14 +5988,14 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F108" s="58" t="s">
         <v>627</v>
@@ -6026,127 +6012,159 @@
       </c>
       <c r="K108" s="35"/>
     </row>
-    <row r="109" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="B109" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="D109" s="35"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="60"/>
+      <c r="E109" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F109" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G109" s="35"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="24"/>
+      <c r="H109" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I109" s="19">
+        <v>1</v>
+      </c>
+      <c r="J109" s="20">
+        <v>1</v>
+      </c>
       <c r="K109" s="35"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>709</v>
+        <v>308</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>713</v>
+        <v>309</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F110" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G110" s="35"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I110" s="19">
+        <v>1</v>
+      </c>
+      <c r="J110" s="20">
+        <v>1</v>
+      </c>
       <c r="K110" s="35"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>710</v>
+        <v>302</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>714</v>
+        <v>303</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F111" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G111" s="35"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="H111" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I111" s="19">
+        <v>1</v>
+      </c>
+      <c r="J111" s="20">
+        <v>1</v>
+      </c>
       <c r="K111" s="35"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>711</v>
+        <v>300</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>715</v>
+        <v>301</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F112" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G112" s="35"/>
+      <c r="H112" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I112" s="19">
+        <v>1</v>
+      </c>
+      <c r="J112" s="20">
+        <v>1</v>
+      </c>
+      <c r="K112" s="35"/>
+    </row>
+    <row r="113" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="35"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="35"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="35"/>
+      <c r="B114" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D114" s="35"/>
+      <c r="E114" s="29">
         <v>44382</v>
       </c>
-      <c r="F112" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G112" s="35"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="35"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F113" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G113" s="35"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="35"/>
-    </row>
-    <row r="114" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="60"/>
+      <c r="F114" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G114" s="35"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="24"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
       <c r="K114" s="35"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F115" s="58" t="s">
         <v>627</v>
@@ -6160,14 +6178,14 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F116" s="58" t="s">
         <v>627</v>
@@ -6181,14 +6199,14 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F117" s="58" t="s">
         <v>627</v>
@@ -6199,139 +6217,115 @@
       <c r="J117" s="20"/>
       <c r="K117" s="35"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="4"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="35"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="58"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="60"/>
       <c r="G118" s="35"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="24"/>
       <c r="K118" s="35"/>
     </row>
-    <row r="119" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
+      <c r="B119" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>751</v>
+      </c>
       <c r="D119" s="35"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="59"/>
+      <c r="E119" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F119" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G119" s="35"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="22"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
       <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>269</v>
+        <v>752</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>271</v>
+        <v>753</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="F120" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="29"/>
-      <c r="I120" s="19">
-        <v>1</v>
-      </c>
-      <c r="J120" s="20">
-        <v>0</v>
-      </c>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>270</v>
+        <v>754</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>272</v>
+        <v>755</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="F121" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G121" s="35"/>
       <c r="H121" s="29"/>
-      <c r="I121" s="19">
-        <v>1</v>
-      </c>
-      <c r="J121" s="20">
-        <v>0</v>
-      </c>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
-      <c r="B122" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="35"/>
-      <c r="E122" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F122" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E122" s="29"/>
+      <c r="F122" s="58"/>
       <c r="G122" s="35"/>
       <c r="H122" s="29"/>
-      <c r="I122" s="19">
-        <v>1</v>
-      </c>
-      <c r="J122" s="20">
-        <v>0</v>
-      </c>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
       <c r="K122" s="35"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
-      <c r="B123" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
       <c r="D123" s="35"/>
-      <c r="E123" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F123" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E123" s="30"/>
+      <c r="F123" s="59"/>
       <c r="G123" s="35"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="19">
-        <v>1</v>
-      </c>
-      <c r="J123" s="20">
-        <v>0</v>
-      </c>
+      <c r="H123" s="30"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="22"/>
       <c r="K123" s="35"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29">
@@ -6350,57 +6344,67 @@
       </c>
       <c r="K124" s="35"/>
     </row>
-    <row r="125" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="B125" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D125" s="35"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="60"/>
+      <c r="E125" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F125" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G125" s="35"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="24"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="19">
+        <v>1</v>
+      </c>
+      <c r="J125" s="20">
+        <v>0</v>
+      </c>
       <c r="K125" s="35"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29">
-        <v>44154</v>
+        <v>44160</v>
       </c>
       <c r="F126" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G126" s="35"/>
-      <c r="H126" s="29">
-        <v>44188</v>
-      </c>
+      <c r="H126" s="29"/>
       <c r="I126" s="19">
         <v>1</v>
       </c>
       <c r="J126" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="35"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29">
-        <v>44154</v>
+        <v>44160</v>
       </c>
       <c r="F127" s="58" t="s">
         <v>627</v>
@@ -6418,14 +6422,14 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29">
-        <v>44154</v>
+        <v>44160</v>
       </c>
       <c r="F128" s="58" t="s">
         <v>627</v>
@@ -6440,38 +6444,26 @@
       </c>
       <c r="K128" s="35"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
-      <c r="B129" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="35"/>
-      <c r="E129" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F129" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E129" s="32"/>
+      <c r="F129" s="60"/>
       <c r="G129" s="35"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="19">
-        <v>1</v>
-      </c>
-      <c r="J129" s="20">
-        <v>0</v>
-      </c>
+      <c r="H129" s="32"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="24"/>
       <c r="K129" s="35"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29">
@@ -6481,35 +6473,49 @@
         <v>627</v>
       </c>
       <c r="G130" s="35"/>
-      <c r="H130" s="29"/>
+      <c r="H130" s="29">
+        <v>44188</v>
+      </c>
       <c r="I130" s="19">
         <v>1</v>
       </c>
       <c r="J130" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="35"/>
     </row>
-    <row r="131" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
+      <c r="B131" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="D131" s="35"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="60"/>
+      <c r="E131" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F131" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G131" s="35"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="24"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="19">
+        <v>1</v>
+      </c>
+      <c r="J131" s="20">
+        <v>0</v>
+      </c>
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29">
@@ -6520,84 +6526,88 @@
       </c>
       <c r="G132" s="35"/>
       <c r="H132" s="29"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="I132" s="19">
+        <v>1</v>
+      </c>
+      <c r="J132" s="20">
+        <v>0</v>
+      </c>
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>458</v>
+        <v>210</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>459</v>
+        <v>214</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F133" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="29"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="I133" s="19">
+        <v>1</v>
+      </c>
+      <c r="J133" s="20">
+        <v>0</v>
+      </c>
       <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>633</v>
+        <v>211</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>635</v>
+        <v>216</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29">
-        <v>44378</v>
+        <v>44154</v>
       </c>
       <c r="F134" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G134" s="35"/>
       <c r="H134" s="29"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="I134" s="19">
+        <v>1</v>
+      </c>
+      <c r="J134" s="20">
+        <v>0</v>
+      </c>
       <c r="K134" s="35"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
-      <c r="B135" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>636</v>
-      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="35"/>
-      <c r="E135" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F135" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E135" s="32"/>
+      <c r="F135" s="60"/>
       <c r="G135" s="35"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="24"/>
       <c r="K135" s="35"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>455</v>
+        <v>200</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F136" s="58" t="s">
         <v>627</v>
@@ -6611,10 +6621,10 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="29">
@@ -6632,77 +6642,77 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>199</v>
+        <v>633</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>201</v>
+        <v>635</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29">
-        <v>44154</v>
+        <v>44378</v>
       </c>
       <c r="F138" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G138" s="35"/>
       <c r="H138" s="29"/>
-      <c r="I138" s="19">
-        <v>1</v>
-      </c>
-      <c r="J138" s="20">
-        <v>0</v>
-      </c>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
       <c r="K138" s="35"/>
     </row>
-    <row r="139" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
+      <c r="B139" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>636</v>
+      </c>
       <c r="D139" s="35"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="60"/>
+      <c r="E139" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F139" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G139" s="35"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="24"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
       <c r="K139" s="35"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>202</v>
+        <v>454</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>637</v>
+        <v>455</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29">
-        <v>44148</v>
+        <v>44362</v>
       </c>
       <c r="F140" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G140" s="35"/>
       <c r="H140" s="29"/>
-      <c r="I140" s="19">
-        <v>1</v>
-      </c>
-      <c r="J140" s="20">
-        <v>0</v>
-      </c>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
       <c r="K140" s="35"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>638</v>
+        <v>466</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>640</v>
+        <v>467</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
-        <v>44378</v>
+        <v>44362</v>
       </c>
       <c r="F141" s="58" t="s">
         <v>627</v>
@@ -6716,22 +6726,26 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>639</v>
+        <v>199</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>641</v>
+        <v>201</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
-        <v>44378</v>
+        <v>44154</v>
       </c>
       <c r="F142" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="29"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="I142" s="19">
+        <v>1</v>
+      </c>
+      <c r="J142" s="20">
+        <v>0</v>
+      </c>
       <c r="K142" s="35"/>
     </row>
     <row r="143" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6750,14 +6764,14 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>642</v>
+        <v>202</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F144" s="58" t="s">
         <v>627</v>
@@ -6775,10 +6789,10 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29">
@@ -6789,63 +6803,55 @@
       </c>
       <c r="G145" s="35"/>
       <c r="H145" s="29"/>
-      <c r="I145" s="19">
-        <v>1</v>
-      </c>
-      <c r="J145" s="20">
-        <v>0</v>
-      </c>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
       <c r="K145" s="35"/>
     </row>
-    <row r="146" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
+      <c r="B146" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D146" s="35"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="60"/>
+      <c r="E146" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F146" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G146" s="35"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="24"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
       <c r="K146" s="35"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
-      <c r="B147" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="35"/>
-      <c r="E147" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F147" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E147" s="32"/>
+      <c r="F147" s="60"/>
       <c r="G147" s="35"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="19">
-        <v>1</v>
-      </c>
-      <c r="J147" s="20">
-        <v>0</v>
-      </c>
+      <c r="H147" s="32"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="24"/>
       <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>204</v>
+        <v>642</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>206</v>
+        <v>644</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
-        <v>44154</v>
+        <v>44378</v>
       </c>
       <c r="F148" s="58" t="s">
         <v>627</v>
@@ -6860,68 +6866,80 @@
       </c>
       <c r="K148" s="35"/>
     </row>
-    <row r="149" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
+      <c r="B149" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F149" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G149" s="35"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="24"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="19">
+        <v>1</v>
+      </c>
+      <c r="J149" s="20">
+        <v>0</v>
+      </c>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
-      <c r="B150" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="35"/>
-      <c r="E150" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F150" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="60"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="19">
-        <v>1</v>
-      </c>
-      <c r="J150" s="20">
-        <v>0</v>
-      </c>
+      <c r="H150" s="32"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="24"/>
       <c r="K150" s="35"/>
     </row>
-    <row r="151" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
+      <c r="B151" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="D151" s="35"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="60"/>
+      <c r="E151" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F151" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G151" s="35"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="24"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="19">
+        <v>1</v>
+      </c>
+      <c r="J151" s="20">
+        <v>0</v>
+      </c>
       <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
-        <v>44158</v>
+        <v>44154</v>
       </c>
       <c r="F152" s="58" t="s">
         <v>627</v>
@@ -6936,38 +6954,26 @@
       </c>
       <c r="K152" s="35"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="35"/>
-      <c r="E153" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F153" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E153" s="32"/>
+      <c r="F153" s="60"/>
       <c r="G153" s="35"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="19">
-        <v>1</v>
-      </c>
-      <c r="J153" s="20">
-        <v>0</v>
-      </c>
+      <c r="H153" s="32"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="24"/>
       <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
@@ -6986,38 +6992,26 @@
       </c>
       <c r="K154" s="35"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="35"/>
-      <c r="E155" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F155" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E155" s="32"/>
+      <c r="F155" s="60"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="19">
-        <v>1</v>
-      </c>
-      <c r="J155" s="20">
-        <v>0</v>
-      </c>
+      <c r="H155" s="32"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="24"/>
       <c r="K155" s="35"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -7039,10 +7033,10 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -7064,10 +7058,10 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -7089,10 +7083,10 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -7114,10 +7108,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -7139,10 +7133,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -7164,10 +7158,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -7189,10 +7183,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7214,10 +7208,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -7239,10 +7233,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -7264,10 +7258,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -7289,10 +7283,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -7314,10 +7308,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7339,10 +7333,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7364,10 +7358,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7386,30 +7380,42 @@
       </c>
       <c r="K170" s="35"/>
     </row>
-    <row r="171" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="12"/>
+      <c r="B171" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D171" s="35"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="60"/>
+      <c r="E171" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F171" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G171" s="35"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="24"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="19">
+        <v>1</v>
+      </c>
+      <c r="J171" s="20">
+        <v>0</v>
+      </c>
       <c r="K171" s="35"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
-        <v>44148</v>
+        <v>44158</v>
       </c>
       <c r="F172" s="58" t="s">
         <v>627</v>
@@ -7427,14 +7433,14 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
-        <v>44148</v>
+        <v>44158</v>
       </c>
       <c r="F173" s="58" t="s">
         <v>627</v>
@@ -7452,14 +7458,14 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
-        <v>44165</v>
+        <v>44158</v>
       </c>
       <c r="F174" s="58" t="s">
         <v>627</v>
@@ -7474,38 +7480,26 @@
       </c>
       <c r="K174" s="35"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
-      <c r="B175" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="35"/>
-      <c r="E175" s="29">
-        <v>44165</v>
-      </c>
-      <c r="F175" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E175" s="32"/>
+      <c r="F175" s="60"/>
       <c r="G175" s="35"/>
-      <c r="H175" s="29"/>
-      <c r="I175" s="19">
-        <v>1</v>
-      </c>
-      <c r="J175" s="20">
-        <v>0</v>
-      </c>
+      <c r="H175" s="32"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="24"/>
       <c r="K175" s="35"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29">
@@ -7527,10 +7521,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29">
@@ -7552,14 +7546,14 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="F178" s="58" t="s">
         <v>627</v>
@@ -7577,14 +7571,14 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="F179" s="58" t="s">
         <v>627</v>
@@ -7602,10 +7596,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
@@ -7627,14 +7621,14 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F181" s="58" t="s">
         <v>627</v>
@@ -7652,14 +7646,14 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F182" s="58" t="s">
         <v>627</v>
@@ -7677,14 +7671,14 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F183" s="58" t="s">
         <v>627</v>
@@ -7702,10 +7696,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
@@ -7727,14 +7721,14 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F185" s="58" t="s">
         <v>627</v>
@@ -7752,10 +7746,10 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29">
@@ -7777,10 +7771,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29">
@@ -7802,14 +7796,14 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F188" s="58" t="s">
         <v>627</v>
@@ -7827,14 +7821,14 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F189" s="58" t="s">
         <v>627</v>
@@ -7852,14 +7846,14 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F190" s="58" t="s">
         <v>627</v>
@@ -7877,14 +7871,14 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F191" s="58" t="s">
         <v>627</v>
@@ -7902,10 +7896,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
@@ -7927,10 +7921,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
@@ -7952,10 +7946,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
@@ -7977,10 +7971,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
@@ -8002,10 +7996,10 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
@@ -8027,10 +8021,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
@@ -8052,14 +8046,14 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F198" s="58" t="s">
         <v>627</v>
@@ -8077,14 +8071,14 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F199" s="58" t="s">
         <v>627</v>
@@ -8102,14 +8096,14 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F200" s="58" t="s">
         <v>627</v>
@@ -8127,14 +8121,14 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F201" s="58" t="s">
         <v>627</v>
@@ -8152,10 +8146,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
@@ -8177,10 +8171,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
@@ -8202,10 +8196,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
@@ -8227,10 +8221,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
@@ -8252,10 +8246,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
@@ -8277,10 +8271,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
@@ -8299,26 +8293,38 @@
       </c>
       <c r="K207" s="35"/>
     </row>
-    <row r="208" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12"/>
+      <c r="B208" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D208" s="35"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="60"/>
+      <c r="E208" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F208" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G208" s="35"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="23"/>
-      <c r="J208" s="24"/>
+      <c r="H208" s="29"/>
+      <c r="I208" s="19">
+        <v>1</v>
+      </c>
+      <c r="J208" s="20">
+        <v>0</v>
+      </c>
       <c r="K208" s="35"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
@@ -8340,10 +8346,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8365,14 +8371,14 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>764</v>
+        <v>110</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>765</v>
+        <v>193</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F211" s="58" t="s">
         <v>627</v>
@@ -8403,14 +8409,14 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29">
-        <v>44160</v>
+        <v>44153</v>
       </c>
       <c r="F213" s="58" t="s">
         <v>627</v>
@@ -8428,14 +8434,14 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
-        <v>44160</v>
+        <v>44153</v>
       </c>
       <c r="F214" s="58" t="s">
         <v>627</v>
@@ -8453,14 +8459,14 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>260</v>
+        <v>764</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>266</v>
+        <v>765</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="F215" s="58" t="s">
         <v>627</v>
@@ -8475,38 +8481,26 @@
       </c>
       <c r="K215" s="35"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="35"/>
-      <c r="E216" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F216" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E216" s="32"/>
+      <c r="F216" s="60"/>
       <c r="G216" s="35"/>
-      <c r="H216" s="29"/>
-      <c r="I216" s="19">
-        <v>1</v>
-      </c>
-      <c r="J216" s="20">
-        <v>0</v>
-      </c>
+      <c r="H216" s="32"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="24"/>
       <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29">
@@ -8527,145 +8521,137 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="D218" s="35"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="58"/>
+      <c r="E218" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F218" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G218" s="35"/>
       <c r="H218" s="29"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="I218" s="19">
+        <v>1</v>
+      </c>
+      <c r="J218" s="20">
+        <v>0</v>
+      </c>
       <c r="K218" s="35"/>
     </row>
-    <row r="219" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="10"/>
+      <c r="B219" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="D219" s="35"/>
-      <c r="E219" s="30"/>
-      <c r="F219" s="59"/>
+      <c r="E219" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F219" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G219" s="35"/>
-      <c r="H219" s="30"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="22"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="19">
+        <v>1</v>
+      </c>
+      <c r="J219" s="20">
+        <v>0</v>
+      </c>
       <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29">
-        <v>44148</v>
+        <v>44160</v>
       </c>
       <c r="F220" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G220" s="35"/>
-      <c r="H220" s="29">
-        <v>44207</v>
-      </c>
+      <c r="H220" s="29"/>
       <c r="I220" s="19">
         <v>1</v>
       </c>
       <c r="J220" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" s="35"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
-        <v>44148</v>
+        <v>44160</v>
       </c>
       <c r="F221" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G221" s="35"/>
-      <c r="H221" s="29">
-        <v>44211</v>
-      </c>
+      <c r="H221" s="29"/>
       <c r="I221" s="19">
         <v>1</v>
       </c>
       <c r="J221" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" s="35"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
-      <c r="B222" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="4"/>
       <c r="D222" s="35"/>
-      <c r="E222" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F222" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E222" s="29"/>
+      <c r="F222" s="58"/>
       <c r="G222" s="35"/>
-      <c r="H222" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I222" s="19">
-        <v>1</v>
-      </c>
-      <c r="J222" s="20">
-        <v>1</v>
-      </c>
+      <c r="H222" s="29"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
       <c r="K222" s="35"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
-      <c r="B223" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B223" s="9"/>
+      <c r="C223" s="10"/>
       <c r="D223" s="35"/>
-      <c r="E223" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F223" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E223" s="30"/>
+      <c r="F223" s="59"/>
       <c r="G223" s="35"/>
-      <c r="H223" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I223" s="19">
-        <v>1</v>
-      </c>
-      <c r="J223" s="20">
-        <v>1</v>
-      </c>
+      <c r="H223" s="30"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="22"/>
       <c r="K223" s="35"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29">
@@ -8676,7 +8662,7 @@
       </c>
       <c r="G224" s="35"/>
       <c r="H224" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I224" s="19">
         <v>1</v>
@@ -8689,10 +8675,10 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29">
@@ -8716,10 +8702,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29">
@@ -8743,10 +8729,10 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29">
@@ -8770,10 +8756,10 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29">
@@ -8797,10 +8783,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
@@ -8824,10 +8810,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29">
@@ -8851,10 +8837,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29">
@@ -8878,10 +8864,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
@@ -8905,10 +8891,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -8932,10 +8918,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -8959,10 +8945,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -8986,10 +8972,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -9013,10 +8999,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9040,10 +9026,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9067,10 +9053,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9093,72 +9079,116 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="4"/>
+      <c r="B240" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D240" s="35"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="58"/>
+      <c r="E240" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F240" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G240" s="35"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="H240" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I240" s="19">
+        <v>1</v>
+      </c>
+      <c r="J240" s="20">
+        <v>1</v>
+      </c>
       <c r="K240" s="35"/>
     </row>
-    <row r="241" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="10"/>
+      <c r="B241" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D241" s="35"/>
-      <c r="E241" s="30"/>
-      <c r="F241" s="59"/>
+      <c r="E241" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F241" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G241" s="35"/>
-      <c r="H241" s="30"/>
-      <c r="I241" s="21"/>
-      <c r="J241" s="22"/>
+      <c r="H241" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I241" s="19">
+        <v>1</v>
+      </c>
+      <c r="J241" s="20">
+        <v>1</v>
+      </c>
       <c r="K241" s="35"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>829</v>
+        <v>59</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>830</v>
+        <v>71</v>
       </c>
       <c r="D242" s="35"/>
-      <c r="E242" s="29"/>
-      <c r="F242" s="58"/>
+      <c r="E242" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F242" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G242" s="35"/>
-      <c r="H242" s="29"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="H242" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I242" s="19">
+        <v>1</v>
+      </c>
+      <c r="J242" s="20">
+        <v>1</v>
+      </c>
       <c r="K242" s="35"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>831</v>
+        <v>60</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>833</v>
+        <v>72</v>
       </c>
       <c r="D243" s="35"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="58"/>
+      <c r="E243" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F243" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G243" s="35"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="H243" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I243" s="19">
+        <v>1</v>
+      </c>
+      <c r="J243" s="20">
+        <v>1</v>
+      </c>
       <c r="K243" s="35"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
-      <c r="B244" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>834</v>
-      </c>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="35"/>
       <c r="E244" s="29"/>
       <c r="F244" s="58"/>
@@ -9168,72 +9198,64 @@
       <c r="J244" s="20"/>
       <c r="K244" s="35"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
-      <c r="B245" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>836</v>
-      </c>
+      <c r="B245" s="9"/>
+      <c r="C245" s="10"/>
       <c r="D245" s="35"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="58"/>
+      <c r="E245" s="30"/>
+      <c r="F245" s="59"/>
       <c r="G245" s="35"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="22"/>
       <c r="K245" s="35"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D246" s="35"/>
-      <c r="E246" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F246" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E246" s="29"/>
+      <c r="F246" s="58"/>
       <c r="G246" s="35"/>
       <c r="H246" s="29"/>
       <c r="I246" s="19"/>
       <c r="J246" s="20"/>
       <c r="K246" s="35"/>
     </row>
-    <row r="247" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12"/>
+      <c r="B247" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="D247" s="35"/>
-      <c r="E247" s="32"/>
-      <c r="F247" s="60"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="58"/>
       <c r="G247" s="35"/>
-      <c r="H247" s="32"/>
-      <c r="I247" s="23"/>
-      <c r="J247" s="24"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
       <c r="K247" s="35"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>501</v>
+        <v>832</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>445</v>
+        <v>834</v>
       </c>
       <c r="D248" s="35"/>
-      <c r="E248" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F248" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E248" s="29"/>
+      <c r="F248" s="58"/>
       <c r="G248" s="35"/>
       <c r="H248" s="29"/>
       <c r="I248" s="19"/>
@@ -9243,18 +9265,14 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>502</v>
+        <v>835</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>472</v>
+        <v>836</v>
       </c>
       <c r="D249" s="35"/>
-      <c r="E249" s="29">
-        <v>44349</v>
-      </c>
-      <c r="F249" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E249" s="29"/>
+      <c r="F249" s="58"/>
       <c r="G249" s="35"/>
       <c r="H249" s="29"/>
       <c r="I249" s="19"/>
@@ -9264,14 +9282,14 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>503</v>
+        <v>826</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>475</v>
+        <v>837</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
-        <v>44364</v>
+        <v>44400</v>
       </c>
       <c r="F250" s="58" t="s">
         <v>627</v>
@@ -9282,34 +9300,26 @@
       <c r="J250" s="20"/>
       <c r="K250" s="35"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="35"/>
-      <c r="E251" s="29">
-        <v>44364</v>
-      </c>
-      <c r="F251" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E251" s="32"/>
+      <c r="F251" s="60"/>
       <c r="G251" s="35"/>
-      <c r="H251" s="29"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="24"/>
       <c r="K251" s="35"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D252" s="35"/>
       <c r="E252" s="29">
@@ -9327,14 +9337,14 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="F253" s="58" t="s">
         <v>627</v>
@@ -9345,30 +9355,38 @@
       <c r="J253" s="20"/>
       <c r="K253" s="35"/>
     </row>
-    <row r="254" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12"/>
+      <c r="B254" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="32"/>
-      <c r="F254" s="60"/>
+      <c r="E254" s="29">
+        <v>44364</v>
+      </c>
+      <c r="F254" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G254" s="35"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="23"/>
-      <c r="J254" s="24"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
       <c r="K254" s="35"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F255" s="58" t="s">
         <v>627</v>
@@ -9382,14 +9400,14 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F256" s="58" t="s">
         <v>627</v>
@@ -9400,126 +9418,102 @@
       <c r="J256" s="20"/>
       <c r="K256" s="35"/>
     </row>
-    <row r="257" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12"/>
+      <c r="B257" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="32"/>
-      <c r="F257" s="60"/>
+      <c r="E257" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F257" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G257" s="35"/>
-      <c r="H257" s="32"/>
-      <c r="I257" s="23"/>
-      <c r="J257" s="24"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
       <c r="K257" s="35"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
-      <c r="B258" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12"/>
       <c r="D258" s="35"/>
-      <c r="E258" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F258" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E258" s="32"/>
+      <c r="F258" s="60"/>
       <c r="G258" s="35"/>
-      <c r="H258" s="29"/>
-      <c r="I258" s="19">
-        <v>1</v>
-      </c>
-      <c r="J258" s="20">
-        <v>0</v>
-      </c>
+      <c r="H258" s="32"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="24"/>
       <c r="K258" s="35"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
       <c r="B259" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="D259" s="35"/>
       <c r="E259" s="29">
-        <v>44148</v>
+        <v>44243</v>
       </c>
       <c r="F259" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G259" s="35"/>
       <c r="H259" s="29"/>
-      <c r="I259" s="19">
-        <v>1</v>
-      </c>
-      <c r="J259" s="20">
-        <v>0</v>
-      </c>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
       <c r="K259" s="35"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F260" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G260" s="35"/>
       <c r="H260" s="29"/>
-      <c r="I260" s="19">
-        <v>1</v>
-      </c>
-      <c r="J260" s="20">
-        <v>0</v>
-      </c>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
       <c r="K260" s="35"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
-      <c r="B261" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>738</v>
-      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="35"/>
-      <c r="E261" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F261" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E261" s="32"/>
+      <c r="F261" s="60"/>
       <c r="G261" s="35"/>
-      <c r="H261" s="29"/>
-      <c r="I261" s="19">
-        <v>1</v>
-      </c>
-      <c r="J261" s="20">
-        <v>0</v>
-      </c>
+      <c r="H261" s="32"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="24"/>
       <c r="K261" s="35"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29">
@@ -9541,10 +9535,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
@@ -9566,10 +9560,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
@@ -9591,14 +9585,14 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>488</v>
+        <v>737</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>19</v>
+        <v>738</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F265" s="58" t="s">
         <v>627</v>
@@ -9616,10 +9610,10 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29">
@@ -9641,10 +9635,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
@@ -9666,10 +9660,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29">
@@ -9691,10 +9685,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29">
@@ -9716,10 +9710,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
@@ -9741,10 +9735,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29">
@@ -9766,10 +9760,10 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29">
@@ -9791,10 +9785,10 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
@@ -9816,10 +9810,10 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>28</v>
+        <v>493</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
@@ -9841,10 +9835,10 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
@@ -9866,10 +9860,10 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
@@ -9891,10 +9885,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9913,106 +9907,130 @@
       </c>
       <c r="K277" s="35"/>
     </row>
-    <row r="278" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="12"/>
+      <c r="B278" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D278" s="35"/>
-      <c r="E278" s="32"/>
-      <c r="F278" s="60"/>
+      <c r="E278" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F278" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G278" s="35"/>
-      <c r="H278" s="32"/>
-      <c r="I278" s="23"/>
-      <c r="J278" s="24"/>
+      <c r="H278" s="29"/>
+      <c r="I278" s="19">
+        <v>1</v>
+      </c>
+      <c r="J278" s="20">
+        <v>0</v>
+      </c>
       <c r="K278" s="35"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
-        <v>44343</v>
+        <v>44148</v>
       </c>
       <c r="F279" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G279" s="35"/>
       <c r="H279" s="29"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="20"/>
+      <c r="I279" s="19">
+        <v>1</v>
+      </c>
+      <c r="J279" s="20">
+        <v>0</v>
+      </c>
       <c r="K279" s="35"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
-        <v>43978</v>
+        <v>44148</v>
       </c>
       <c r="F280" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G280" s="35"/>
       <c r="H280" s="29"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="20"/>
+      <c r="I280" s="19">
+        <v>1</v>
+      </c>
+      <c r="J280" s="20">
+        <v>0</v>
+      </c>
       <c r="K280" s="35"/>
     </row>
-    <row r="281" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12"/>
+      <c r="B281" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D281" s="35"/>
-      <c r="E281" s="32"/>
-      <c r="F281" s="60"/>
+      <c r="E281" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F281" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G281" s="35"/>
-      <c r="H281" s="32"/>
-      <c r="I281" s="23"/>
-      <c r="J281" s="24"/>
+      <c r="H281" s="29"/>
+      <c r="I281" s="19">
+        <v>1</v>
+      </c>
+      <c r="J281" s="20">
+        <v>0</v>
+      </c>
       <c r="K281" s="35"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
-      <c r="B282" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B282" s="11"/>
+      <c r="C282" s="12"/>
       <c r="D282" s="35"/>
-      <c r="E282" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F282" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E282" s="32"/>
+      <c r="F282" s="60"/>
       <c r="G282" s="35"/>
-      <c r="H282" s="29"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="20"/>
+      <c r="H282" s="32"/>
+      <c r="I282" s="23"/>
+      <c r="J282" s="24"/>
       <c r="K282" s="35"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
       <c r="B283" s="7" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D283" s="35"/>
       <c r="E283" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F283" s="58" t="s">
         <v>627</v>
@@ -10025,41 +10043,49 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="4"/>
+      <c r="B284" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D284" s="35"/>
-      <c r="E284" s="29"/>
-      <c r="F284" s="58"/>
+      <c r="E284" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F284" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G284" s="35"/>
       <c r="H284" s="29"/>
       <c r="I284" s="19"/>
       <c r="J284" s="20"/>
       <c r="K284" s="35"/>
     </row>
-    <row r="285" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="10"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="12"/>
       <c r="D285" s="35"/>
-      <c r="E285" s="30"/>
-      <c r="F285" s="59"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="60"/>
       <c r="G285" s="35"/>
-      <c r="H285" s="30"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="22"/>
+      <c r="H285" s="32"/>
+      <c r="I285" s="23"/>
+      <c r="J285" s="24"/>
       <c r="K285" s="35"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
-        <v>44372</v>
+        <v>43978</v>
       </c>
       <c r="F286" s="58" t="s">
         <v>627</v>
@@ -10073,14 +10099,14 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
-        <v>44372</v>
+        <v>44148</v>
       </c>
       <c r="F287" s="58" t="s">
         <v>627</v>
@@ -10093,49 +10119,41 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
-      <c r="B288" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="B288" s="7"/>
+      <c r="C288" s="4"/>
       <c r="D288" s="35"/>
-      <c r="E288" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F288" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E288" s="29"/>
+      <c r="F288" s="58"/>
       <c r="G288" s="35"/>
       <c r="H288" s="29"/>
       <c r="I288" s="19"/>
       <c r="J288" s="20"/>
       <c r="K288" s="35"/>
     </row>
-    <row r="289" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="10"/>
       <c r="D289" s="35"/>
-      <c r="E289" s="32"/>
-      <c r="F289" s="60"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="59"/>
       <c r="G289" s="35"/>
-      <c r="H289" s="32"/>
-      <c r="I289" s="23"/>
-      <c r="J289" s="24"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="22"/>
       <c r="K289" s="35"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
       <c r="B290" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D290" s="35"/>
       <c r="E290" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F290" s="58" t="s">
         <v>627</v>
@@ -10149,14 +10167,14 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F291" s="58" t="s">
         <v>627</v>
@@ -10170,14 +10188,14 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F292" s="58" t="s">
         <v>627</v>
@@ -10188,34 +10206,26 @@
       <c r="J292" s="20"/>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>479</v>
-      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="35"/>
-      <c r="E293" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F293" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E293" s="32"/>
+      <c r="F293" s="60"/>
       <c r="G293" s="35"/>
-      <c r="H293" s="29"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="H293" s="32"/>
+      <c r="I293" s="23"/>
+      <c r="J293" s="24"/>
       <c r="K293" s="35"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
       <c r="B294" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D294" s="35"/>
       <c r="E294" s="29">
@@ -10233,10 +10243,10 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
@@ -10251,26 +10261,34 @@
       <c r="J295" s="20"/>
       <c r="K295" s="35"/>
     </row>
-    <row r="296" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12"/>
+      <c r="B296" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D296" s="35"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="60"/>
+      <c r="E296" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F296" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G296" s="35"/>
-      <c r="H296" s="32"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="24"/>
+      <c r="H296" s="29"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="20"/>
       <c r="K296" s="35"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
       <c r="B297" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="29">
@@ -10288,10 +10306,10 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
@@ -10306,51 +10324,51 @@
       <c r="J298" s="20"/>
       <c r="K298" s="35"/>
     </row>
-    <row r="299" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="12"/>
+      <c r="B299" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D299" s="35"/>
-      <c r="E299" s="32"/>
-      <c r="F299" s="60"/>
+      <c r="E299" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F299" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G299" s="35"/>
-      <c r="H299" s="32"/>
-      <c r="I299" s="23"/>
-      <c r="J299" s="24"/>
+      <c r="H299" s="29"/>
+      <c r="I299" s="19"/>
+      <c r="J299" s="20"/>
       <c r="K299" s="35"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
-      <c r="B300" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="35"/>
-      <c r="E300" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F300" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E300" s="32"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="35"/>
-      <c r="H300" s="29"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="H300" s="32"/>
+      <c r="I300" s="23"/>
+      <c r="J300" s="24"/>
       <c r="K300" s="35"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
       <c r="B301" s="7" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F301" s="58" t="s">
         <v>627</v>
@@ -10361,80 +10379,72 @@
       <c r="J301" s="20"/>
       <c r="K301" s="35"/>
     </row>
-    <row r="302" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="12"/>
+      <c r="B302" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D302" s="35"/>
-      <c r="E302" s="32"/>
-      <c r="F302" s="60"/>
+      <c r="E302" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F302" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G302" s="35"/>
-      <c r="H302" s="32"/>
-      <c r="I302" s="23"/>
-      <c r="J302" s="24"/>
+      <c r="H302" s="29"/>
+      <c r="I302" s="19"/>
+      <c r="J302" s="20"/>
       <c r="K302" s="35"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
-      <c r="B303" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B303" s="11"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="35"/>
-      <c r="E303" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F303" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E303" s="32"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="35"/>
-      <c r="H303" s="29"/>
-      <c r="I303" s="19">
-        <v>1</v>
-      </c>
-      <c r="J303" s="20">
-        <v>0</v>
-      </c>
+      <c r="H303" s="32"/>
+      <c r="I303" s="23"/>
+      <c r="J303" s="24"/>
       <c r="K303" s="35"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
       <c r="B304" s="7" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="D304" s="35"/>
       <c r="E304" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G304" s="35"/>
       <c r="H304" s="29"/>
-      <c r="I304" s="19">
-        <v>1</v>
-      </c>
-      <c r="J304" s="20">
-        <v>0</v>
-      </c>
+      <c r="I304" s="19"/>
+      <c r="J304" s="20"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>627</v>
@@ -10445,34 +10455,26 @@
       <c r="J305" s="20"/>
       <c r="K305" s="35"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
-      <c r="B306" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B306" s="11"/>
+      <c r="C306" s="12"/>
       <c r="D306" s="35"/>
-      <c r="E306" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F306" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E306" s="32"/>
+      <c r="F306" s="60"/>
       <c r="G306" s="35"/>
-      <c r="H306" s="29"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
+      <c r="H306" s="32"/>
+      <c r="I306" s="23"/>
+      <c r="J306" s="24"/>
       <c r="K306" s="35"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
@@ -10494,14 +10496,14 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
       <c r="B308" s="7" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D308" s="35"/>
       <c r="E308" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F308" s="58" t="s">
         <v>627</v>
@@ -10519,60 +10521,52 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F309" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G309" s="35"/>
       <c r="H309" s="29"/>
-      <c r="I309" s="19">
-        <v>1</v>
-      </c>
-      <c r="J309" s="20">
-        <v>0</v>
-      </c>
+      <c r="I309" s="19"/>
+      <c r="J309" s="20"/>
       <c r="K309" s="35"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
       <c r="B310" s="7" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D310" s="35"/>
       <c r="E310" s="29">
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F310" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G310" s="35"/>
       <c r="H310" s="29"/>
-      <c r="I310" s="19">
-        <v>1</v>
-      </c>
-      <c r="J310" s="20">
-        <v>0</v>
-      </c>
+      <c r="I310" s="19"/>
+      <c r="J310" s="20"/>
       <c r="K310" s="35"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
       <c r="B311" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D311" s="35"/>
       <c r="E311" s="29">
@@ -10594,14 +10588,14 @@
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F312" s="58" t="s">
         <v>627</v>
@@ -10619,10 +10613,10 @@
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
@@ -10644,14 +10638,14 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
       <c r="B314" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D314" s="35"/>
       <c r="E314" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F314" s="58" t="s">
         <v>627</v>
@@ -10669,10 +10663,10 @@
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
@@ -10694,14 +10688,14 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
       <c r="B316" s="7" t="s">
-        <v>733</v>
+        <v>517</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>735</v>
+        <v>608</v>
       </c>
       <c r="D316" s="35"/>
       <c r="E316" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F316" s="58" t="s">
         <v>627</v>
@@ -10719,14 +10713,14 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>734</v>
+        <v>518</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>736</v>
+        <v>609</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F317" s="58" t="s">
         <v>627</v>
@@ -10744,52 +10738,60 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>739</v>
+        <v>519</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>742</v>
+        <v>610</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F318" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G318" s="35"/>
       <c r="H318" s="29"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
+      <c r="I318" s="19">
+        <v>1</v>
+      </c>
+      <c r="J318" s="20">
+        <v>0</v>
+      </c>
       <c r="K318" s="35"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>743</v>
+        <v>611</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F319" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="I319" s="19">
+        <v>1</v>
+      </c>
+      <c r="J319" s="20">
+        <v>0</v>
+      </c>
       <c r="K319" s="35"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
@@ -10800,21 +10802,25 @@
       </c>
       <c r="G320" s="35"/>
       <c r="H320" s="29"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
+      <c r="I320" s="19">
+        <v>1</v>
+      </c>
+      <c r="J320" s="20">
+        <v>0</v>
+      </c>
       <c r="K320" s="35"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>521</v>
+        <v>734</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>612</v>
+        <v>736</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F321" s="58" t="s">
         <v>627</v>
@@ -10832,10 +10838,10 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
@@ -10846,21 +10852,17 @@
       </c>
       <c r="G322" s="35"/>
       <c r="H322" s="29"/>
-      <c r="I322" s="19">
-        <v>1</v>
-      </c>
-      <c r="J322" s="20">
-        <v>0</v>
-      </c>
+      <c r="I322" s="19"/>
+      <c r="J322" s="20"/>
       <c r="K322" s="35"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
@@ -10878,10 +10880,10 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
@@ -10899,35 +10901,39 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G325" s="35"/>
       <c r="H325" s="29"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
+      <c r="I325" s="19">
+        <v>1</v>
+      </c>
+      <c r="J325" s="20">
+        <v>0</v>
+      </c>
       <c r="K325" s="35"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>522</v>
+        <v>725</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F326" s="58" t="s">
         <v>627</v>
@@ -10945,89 +10951,77 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>523</v>
+        <v>727</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>614</v>
+        <v>728</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F327" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G327" s="35"/>
       <c r="H327" s="29"/>
-      <c r="I327" s="19">
-        <v>1</v>
-      </c>
-      <c r="J327" s="20">
-        <v>0</v>
-      </c>
+      <c r="I327" s="19"/>
+      <c r="J327" s="20"/>
       <c r="K327" s="35"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>524</v>
+        <v>729</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>615</v>
+        <v>731</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F328" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G328" s="35"/>
       <c r="H328" s="29"/>
-      <c r="I328" s="19">
-        <v>1</v>
-      </c>
-      <c r="J328" s="20">
-        <v>0</v>
-      </c>
+      <c r="I328" s="19"/>
+      <c r="J328" s="20"/>
       <c r="K328" s="35"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>525</v>
+        <v>730</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>616</v>
+        <v>732</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F329" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G329" s="35"/>
       <c r="H329" s="29"/>
-      <c r="I329" s="19">
-        <v>1</v>
-      </c>
-      <c r="J329" s="20">
-        <v>0</v>
-      </c>
+      <c r="I329" s="19"/>
+      <c r="J329" s="20"/>
       <c r="K329" s="35"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>617</v>
+        <v>522</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F330" s="58" t="s">
         <v>627</v>
@@ -11045,14 +11039,14 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F331" s="58" t="s">
         <v>627</v>
@@ -11070,14 +11064,14 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F332" s="58" t="s">
         <v>627</v>
@@ -11095,14 +11089,14 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F333" s="58" t="s">
         <v>627</v>
@@ -11117,127 +11111,151 @@
       </c>
       <c r="K333" s="35"/>
     </row>
-    <row r="334" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
-      <c r="B334" s="11"/>
-      <c r="C334" s="12"/>
+      <c r="B334" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="D334" s="35"/>
-      <c r="E334" s="32"/>
-      <c r="F334" s="60"/>
+      <c r="E334" s="29">
+        <v>44370</v>
+      </c>
+      <c r="F334" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G334" s="35"/>
-      <c r="H334" s="32"/>
-      <c r="I334" s="23"/>
-      <c r="J334" s="24"/>
+      <c r="H334" s="29"/>
+      <c r="I334" s="19">
+        <v>1</v>
+      </c>
+      <c r="J334" s="20">
+        <v>0</v>
+      </c>
       <c r="K334" s="35"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>745</v>
+        <v>527</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>748</v>
+        <v>618</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F335" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="29"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
+      <c r="I335" s="19">
+        <v>1</v>
+      </c>
+      <c r="J335" s="20">
+        <v>0</v>
+      </c>
       <c r="K335" s="35"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>746</v>
+        <v>528</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>747</v>
+        <v>619</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F336" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
+      <c r="I336" s="19">
+        <v>1</v>
+      </c>
+      <c r="J336" s="20">
+        <v>0</v>
+      </c>
       <c r="K336" s="35"/>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="F337" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
+      <c r="I337" s="19">
+        <v>1</v>
+      </c>
+      <c r="J337" s="20">
+        <v>0</v>
+      </c>
       <c r="K337" s="35"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
-      <c r="B338" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>553</v>
-      </c>
+      <c r="B338" s="11"/>
+      <c r="C338" s="12"/>
       <c r="D338" s="35"/>
-      <c r="E338" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F338" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E338" s="32"/>
+      <c r="F338" s="60"/>
       <c r="G338" s="35"/>
-      <c r="H338" s="29"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
+      <c r="H338" s="32"/>
+      <c r="I338" s="23"/>
+      <c r="J338" s="24"/>
       <c r="K338" s="35"/>
     </row>
-    <row r="339" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
-      <c r="B339" s="11"/>
-      <c r="C339" s="12"/>
+      <c r="B339" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="D339" s="35"/>
-      <c r="E339" s="32"/>
-      <c r="F339" s="60"/>
+      <c r="E339" s="29">
+        <v>44383</v>
+      </c>
+      <c r="F339" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G339" s="35"/>
-      <c r="H339" s="32"/>
-      <c r="I339" s="23"/>
-      <c r="J339" s="24"/>
+      <c r="H339" s="29"/>
+      <c r="I339" s="19"/>
+      <c r="J339" s="20"/>
       <c r="K339" s="35"/>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>538</v>
+        <v>746</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>554</v>
+        <v>747</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F340" s="58" t="s">
         <v>627</v>
@@ -11251,10 +11269,10 @@
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
@@ -11272,10 +11290,10 @@
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
@@ -11305,11 +11323,11 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
-      <c r="B344" s="13" t="s">
-        <v>545</v>
+      <c r="B344" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
@@ -11320,24 +11338,17 @@
       </c>
       <c r="G344" s="35"/>
       <c r="H344" s="29"/>
-      <c r="I344" s="19">
-        <v>1</v>
-      </c>
-      <c r="J344" s="20">
-        <v>0</v>
-      </c>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
       <c r="K344" s="35"/>
-      <c r="L344" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
-      <c r="B345" s="13" t="s">
-        <v>546</v>
+      <c r="B345" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>773</v>
+        <v>556</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
@@ -11348,24 +11359,17 @@
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="29"/>
-      <c r="I345" s="19">
-        <v>1</v>
-      </c>
-      <c r="J345" s="20">
-        <v>0</v>
-      </c>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
       <c r="K345" s="35"/>
-      <c r="L345" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
-      <c r="B346" s="13" t="s">
-        <v>548</v>
+      <c r="B346" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>774</v>
+        <v>555</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
@@ -11376,56 +11380,34 @@
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="29"/>
-      <c r="I346" s="19">
-        <v>1</v>
-      </c>
-      <c r="J346" s="20">
-        <v>0</v>
-      </c>
+      <c r="I346" s="19"/>
+      <c r="J346" s="20"/>
       <c r="K346" s="35"/>
-      <c r="L346" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
-      <c r="B347" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>775</v>
-      </c>
+      <c r="B347" s="11"/>
+      <c r="C347" s="12"/>
       <c r="D347" s="35"/>
-      <c r="E347" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F347" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E347" s="32"/>
+      <c r="F347" s="60"/>
       <c r="G347" s="35"/>
-      <c r="H347" s="29"/>
-      <c r="I347" s="19">
-        <v>1</v>
-      </c>
-      <c r="J347" s="20">
-        <v>0</v>
-      </c>
+      <c r="H347" s="32"/>
+      <c r="I347" s="23"/>
+      <c r="J347" s="24"/>
       <c r="K347" s="35"/>
-      <c r="L347" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>771</v>
+        <v>545</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F348" s="58" t="s">
         <v>627</v>
@@ -11445,205 +11427,229 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
-      <c r="B349" s="7"/>
-      <c r="C349" s="4"/>
+      <c r="B349" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="D349" s="35"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="58"/>
+      <c r="E349" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F349" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G349" s="35"/>
       <c r="H349" s="29"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="20"/>
+      <c r="I349" s="19">
+        <v>1</v>
+      </c>
+      <c r="J349" s="20">
+        <v>0</v>
+      </c>
       <c r="K349" s="35"/>
-    </row>
-    <row r="350" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L349" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="10"/>
+      <c r="B350" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="D350" s="35"/>
-      <c r="E350" s="30"/>
-      <c r="F350" s="59"/>
+      <c r="E350" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F350" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G350" s="35"/>
-      <c r="H350" s="30"/>
-      <c r="I350" s="21"/>
-      <c r="J350" s="22"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="19">
+        <v>1</v>
+      </c>
+      <c r="J350" s="20">
+        <v>0</v>
+      </c>
       <c r="K350" s="35"/>
+      <c r="L350" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
-      <c r="B351" s="7" t="s">
-        <v>424</v>
+      <c r="B351" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>425</v>
+        <v>775</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F351" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="29"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
+      <c r="I351" s="19">
+        <v>1</v>
+      </c>
+      <c r="J351" s="20">
+        <v>0</v>
+      </c>
       <c r="K351" s="35"/>
+      <c r="L351" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
-      <c r="B352" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>421</v>
+      <c r="B352" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44257</v>
+        <v>44384</v>
       </c>
       <c r="F352" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G352" s="35"/>
       <c r="H352" s="29"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="20"/>
+      <c r="I352" s="19">
+        <v>1</v>
+      </c>
+      <c r="J352" s="20">
+        <v>0</v>
+      </c>
       <c r="K352" s="35"/>
+      <c r="L352" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
-      <c r="B353" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="B353" s="7"/>
+      <c r="C353" s="4"/>
       <c r="D353" s="35"/>
-      <c r="E353" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F353" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E353" s="29"/>
+      <c r="F353" s="58"/>
       <c r="G353" s="35"/>
       <c r="H353" s="29"/>
       <c r="I353" s="19"/>
       <c r="J353" s="20"/>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="10"/>
       <c r="D354" s="35"/>
-      <c r="E354" s="32"/>
-      <c r="F354" s="60"/>
+      <c r="E354" s="30"/>
+      <c r="F354" s="59"/>
       <c r="G354" s="35"/>
-      <c r="H354" s="32"/>
-      <c r="I354" s="23"/>
-      <c r="J354" s="24"/>
+      <c r="H354" s="30"/>
+      <c r="I354" s="21"/>
+      <c r="J354" s="22"/>
       <c r="K354" s="35"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
       <c r="B355" s="7" t="s">
-        <v>646</v>
+        <v>424</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>647</v>
+        <v>425</v>
       </c>
       <c r="D355" s="35"/>
       <c r="E355" s="29">
-        <v>44319</v>
+        <v>44257</v>
       </c>
       <c r="F355" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G355" s="35"/>
       <c r="H355" s="29"/>
-      <c r="I355" s="19">
-        <v>1</v>
-      </c>
-      <c r="J355" s="20">
-        <v>0</v>
-      </c>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
       <c r="K355" s="35"/>
     </row>
-    <row r="356" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
-      <c r="B356" s="11"/>
-      <c r="C356" s="12"/>
+      <c r="B356" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D356" s="35"/>
-      <c r="E356" s="32"/>
-      <c r="F356" s="60"/>
+      <c r="E356" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F356" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G356" s="35"/>
-      <c r="H356" s="32"/>
-      <c r="I356" s="23"/>
-      <c r="J356" s="24"/>
+      <c r="H356" s="29"/>
+      <c r="I356" s="19"/>
+      <c r="J356" s="20"/>
       <c r="K356" s="35"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
-        <v>44151</v>
+        <v>44257</v>
       </c>
       <c r="F357" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19">
-        <v>1</v>
-      </c>
-      <c r="J357" s="20">
-        <v>0</v>
-      </c>
+      <c r="I357" s="19"/>
+      <c r="J357" s="20"/>
       <c r="K357" s="35"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
-      <c r="B358" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="B358" s="11"/>
+      <c r="C358" s="12"/>
       <c r="D358" s="35"/>
-      <c r="E358" s="29">
-        <v>44245</v>
-      </c>
-      <c r="F358" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E358" s="32"/>
+      <c r="F358" s="60"/>
       <c r="G358" s="35"/>
-      <c r="H358" s="29"/>
-      <c r="I358" s="19">
-        <v>1</v>
-      </c>
-      <c r="J358" s="20">
-        <v>0</v>
-      </c>
+      <c r="H358" s="32"/>
+      <c r="I358" s="23"/>
+      <c r="J358" s="24"/>
       <c r="K358" s="35"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
       <c r="B359" s="7" t="s">
-        <v>394</v>
+        <v>646</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>395</v>
+        <v>647</v>
       </c>
       <c r="D359" s="35"/>
       <c r="E359" s="29">
-        <v>44231</v>
+        <v>44319</v>
       </c>
       <c r="F359" s="58" t="s">
         <v>627</v>
@@ -11658,202 +11664,210 @@
       </c>
       <c r="K359" s="35"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
-      <c r="B360" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>380</v>
-      </c>
+      <c r="B360" s="11"/>
+      <c r="C360" s="12"/>
       <c r="D360" s="35"/>
-      <c r="E360" s="29">
-        <v>44230</v>
-      </c>
-      <c r="F360" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E360" s="32"/>
+      <c r="F360" s="60"/>
       <c r="G360" s="35"/>
-      <c r="H360" s="29"/>
-      <c r="I360" s="19">
-        <v>1</v>
-      </c>
-      <c r="J360" s="20">
-        <v>0</v>
-      </c>
+      <c r="H360" s="32"/>
+      <c r="I360" s="23"/>
+      <c r="J360" s="24"/>
       <c r="K360" s="35"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
-      <c r="B361" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C361" s="45" t="s">
-        <v>429</v>
+      <c r="B361" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
-        <v>44264</v>
+        <v>44151</v>
       </c>
       <c r="F361" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G361" s="46"/>
-      <c r="H361" s="47"/>
-      <c r="I361" s="48">
-        <v>1</v>
-      </c>
-      <c r="J361" s="49">
+      <c r="G361" s="35"/>
+      <c r="H361" s="29"/>
+      <c r="I361" s="19">
+        <v>1</v>
+      </c>
+      <c r="J361" s="20">
         <v>0</v>
       </c>
       <c r="K361" s="35"/>
     </row>
-    <row r="362" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
-      <c r="B362" s="11"/>
-      <c r="C362" s="12"/>
+      <c r="B362" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="D362" s="35"/>
-      <c r="E362" s="32"/>
-      <c r="F362" s="60"/>
+      <c r="E362" s="29">
+        <v>44245</v>
+      </c>
+      <c r="F362" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G362" s="35"/>
-      <c r="H362" s="32"/>
-      <c r="I362" s="23"/>
-      <c r="J362" s="24"/>
+      <c r="H362" s="29"/>
+      <c r="I362" s="19">
+        <v>1</v>
+      </c>
+      <c r="J362" s="20">
+        <v>0</v>
+      </c>
       <c r="K362" s="35"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44271</v>
+        <v>44231</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="29"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="20"/>
+      <c r="I363" s="19">
+        <v>1</v>
+      </c>
+      <c r="J363" s="20">
+        <v>0</v>
+      </c>
       <c r="K363" s="35"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
-        <v>44278</v>
+        <v>44230</v>
       </c>
       <c r="F364" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G364" s="35"/>
       <c r="H364" s="29"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="20"/>
+      <c r="I364" s="19">
+        <v>1</v>
+      </c>
+      <c r="J364" s="20">
+        <v>0</v>
+      </c>
       <c r="K364" s="35"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>433</v>
+      <c r="B365" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C365" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
+        <v>44264</v>
+      </c>
+      <c r="F365" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G365" s="46"/>
+      <c r="H365" s="47"/>
+      <c r="I365" s="48">
+        <v>1</v>
+      </c>
+      <c r="J365" s="49">
+        <v>0</v>
+      </c>
+      <c r="K365" s="35"/>
+    </row>
+    <row r="366" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="35"/>
+      <c r="B366" s="11"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="35"/>
+      <c r="E366" s="32"/>
+      <c r="F366" s="60"/>
+      <c r="G366" s="35"/>
+      <c r="H366" s="32"/>
+      <c r="I366" s="23"/>
+      <c r="J366" s="24"/>
+      <c r="K366" s="35"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="35"/>
+      <c r="B367" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D367" s="35"/>
+      <c r="E367" s="29">
         <v>44271</v>
       </c>
-      <c r="F365" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G365" s="35"/>
-      <c r="H365" s="29"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
-      <c r="K365" s="35"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="35"/>
-      <c r="B366" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D366" s="35"/>
-      <c r="E366" s="29">
-        <v>44272</v>
-      </c>
-      <c r="F366" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G366" s="35"/>
-      <c r="H366" s="29"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="20"/>
-      <c r="K366" s="35"/>
-    </row>
-    <row r="367" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="35"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="12"/>
-      <c r="D367" s="35"/>
-      <c r="E367" s="32"/>
-      <c r="F367" s="60"/>
+      <c r="F367" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G367" s="35"/>
-      <c r="H367" s="32"/>
-      <c r="I367" s="23"/>
-      <c r="J367" s="24"/>
+      <c r="H367" s="29"/>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
       <c r="K367" s="35"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
       <c r="B368" s="7" t="s">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
-        <v>44151</v>
+        <v>44278</v>
       </c>
       <c r="F368" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="29"/>
-      <c r="I368" s="19">
-        <v>1</v>
-      </c>
-      <c r="J368" s="20">
-        <v>0</v>
-      </c>
+      <c r="I368" s="19"/>
+      <c r="J368" s="20"/>
       <c r="K368" s="35"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
       <c r="B369" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D369" s="35"/>
       <c r="E369" s="29">
-        <v>44258</v>
+        <v>44271</v>
       </c>
       <c r="F369" s="58" t="s">
         <v>627</v>
@@ -11864,152 +11878,132 @@
       <c r="J369" s="20"/>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="12"/>
+      <c r="B370" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D370" s="35"/>
-      <c r="E370" s="32"/>
-      <c r="F370" s="60"/>
+      <c r="E370" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F370" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G370" s="35"/>
-      <c r="H370" s="32"/>
-      <c r="I370" s="23"/>
-      <c r="J370" s="24"/>
+      <c r="H370" s="29"/>
+      <c r="I370" s="19"/>
+      <c r="J370" s="20"/>
       <c r="K370" s="35"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="4"/>
+      <c r="B371" s="11"/>
+      <c r="C371" s="12"/>
       <c r="D371" s="35"/>
-      <c r="E371" s="29"/>
-      <c r="F371" s="58"/>
+      <c r="E371" s="32"/>
+      <c r="F371" s="60"/>
       <c r="G371" s="35"/>
-      <c r="H371" s="29"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
+      <c r="H371" s="32"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="24"/>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="9"/>
-      <c r="C372" s="10"/>
+      <c r="B372" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D372" s="35"/>
-      <c r="E372" s="30"/>
-      <c r="F372" s="59"/>
+      <c r="E372" s="29">
+        <v>44151</v>
+      </c>
+      <c r="F372" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G372" s="35"/>
-      <c r="H372" s="30"/>
-      <c r="I372" s="21"/>
-      <c r="J372" s="22"/>
+      <c r="H372" s="29"/>
+      <c r="I372" s="19">
+        <v>1</v>
+      </c>
+      <c r="J372" s="20">
+        <v>0</v>
+      </c>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>766</v>
+        <v>426</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44382</v>
+        <v>44258</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="19">
-        <v>1</v>
-      </c>
-      <c r="J373" s="20">
-        <v>0</v>
-      </c>
+      <c r="I373" s="19"/>
+      <c r="J373" s="20"/>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="B374" s="11"/>
+      <c r="C374" s="12"/>
       <c r="D374" s="35"/>
-      <c r="E374" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F374" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E374" s="32"/>
+      <c r="F374" s="60"/>
       <c r="G374" s="35"/>
-      <c r="H374" s="29"/>
-      <c r="I374" s="19">
-        <v>1</v>
-      </c>
-      <c r="J374" s="20">
-        <v>0</v>
-      </c>
+      <c r="H374" s="32"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="24"/>
       <c r="K374" s="35"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="B375" s="7"/>
+      <c r="C375" s="4"/>
       <c r="D375" s="35"/>
-      <c r="E375" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F375" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E375" s="29"/>
+      <c r="F375" s="58"/>
       <c r="G375" s="35"/>
       <c r="H375" s="29"/>
-      <c r="I375" s="19">
-        <v>1</v>
-      </c>
-      <c r="J375" s="20">
-        <v>0</v>
-      </c>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="B376" s="9"/>
+      <c r="C376" s="10"/>
       <c r="D376" s="35"/>
-      <c r="E376" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F376" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E376" s="30"/>
+      <c r="F376" s="59"/>
       <c r="G376" s="35"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="19">
-        <v>1</v>
-      </c>
-      <c r="J376" s="20">
-        <v>0</v>
-      </c>
+      <c r="H376" s="30"/>
+      <c r="I376" s="21"/>
+      <c r="J376" s="22"/>
       <c r="K376" s="35"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
       <c r="B377" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
@@ -12028,114 +12022,130 @@
       </c>
       <c r="K377" s="35"/>
     </row>
-    <row r="378" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="12"/>
+      <c r="B378" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="D378" s="35"/>
-      <c r="E378" s="32"/>
-      <c r="F378" s="60"/>
+      <c r="E378" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F378" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G378" s="35"/>
-      <c r="H378" s="32"/>
-      <c r="I378" s="23"/>
-      <c r="J378" s="24"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="19">
+        <v>1</v>
+      </c>
+      <c r="J378" s="20">
+        <v>0</v>
+      </c>
       <c r="K378" s="35"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
       <c r="B379" s="7" t="s">
-        <v>648</v>
+        <v>768</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="D379" s="35"/>
       <c r="E379" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F379" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="29"/>
-      <c r="I379" s="19"/>
-      <c r="J379" s="20"/>
+      <c r="I379" s="19">
+        <v>1</v>
+      </c>
+      <c r="J379" s="20">
+        <v>0</v>
+      </c>
       <c r="K379" s="35"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>542</v>
+        <v>769</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>460</v>
+        <v>703</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F380" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="29"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="20"/>
+      <c r="I380" s="19">
+        <v>1</v>
+      </c>
+      <c r="J380" s="20">
+        <v>0</v>
+      </c>
       <c r="K380" s="35"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>650</v>
+        <v>770</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F381" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="29"/>
-      <c r="I381" s="19"/>
-      <c r="J381" s="20"/>
+      <c r="I381" s="19">
+        <v>1</v>
+      </c>
+      <c r="J381" s="20">
+        <v>0</v>
+      </c>
       <c r="K381" s="35"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
-      <c r="B382" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="B382" s="11"/>
+      <c r="C382" s="12"/>
       <c r="D382" s="35"/>
-      <c r="E382" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F382" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E382" s="32"/>
+      <c r="F382" s="60"/>
       <c r="G382" s="35"/>
-      <c r="H382" s="29"/>
-      <c r="I382" s="19"/>
-      <c r="J382" s="20"/>
+      <c r="H382" s="32"/>
+      <c r="I382" s="23"/>
+      <c r="J382" s="24"/>
       <c r="K382" s="35"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
       <c r="B383" s="7" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>453</v>
+        <v>649</v>
       </c>
       <c r="D383" s="35"/>
       <c r="E383" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F383" s="58" t="s">
         <v>627</v>
@@ -12149,10 +12159,10 @@
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
@@ -12167,26 +12177,34 @@
       <c r="J384" s="20"/>
       <c r="K384" s="35"/>
     </row>
-    <row r="385" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="12"/>
+      <c r="B385" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="D385" s="35"/>
-      <c r="E385" s="32"/>
-      <c r="F385" s="60"/>
+      <c r="E385" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F385" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G385" s="35"/>
-      <c r="H385" s="32"/>
-      <c r="I385" s="23"/>
-      <c r="J385" s="24"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
       <c r="K385" s="35"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
       <c r="B386" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D386" s="35"/>
       <c r="E386" s="29">
@@ -12197,25 +12215,21 @@
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="29"/>
-      <c r="I386" s="19">
-        <v>1</v>
-      </c>
-      <c r="J386" s="20">
-        <v>0</v>
-      </c>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
       <c r="K386" s="35"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
       <c r="B387" s="7" t="s">
-        <v>655</v>
+        <v>543</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>658</v>
+        <v>453</v>
       </c>
       <c r="D387" s="35"/>
       <c r="E387" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F387" s="58" t="s">
         <v>627</v>
@@ -12229,14 +12243,14 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>659</v>
+        <v>465</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F388" s="58" t="s">
         <v>627</v>
@@ -12263,10 +12277,10 @@
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
       <c r="B390" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D390" s="35"/>
       <c r="E390" s="29">
@@ -12288,10 +12302,10 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
       <c r="B391" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D391" s="35"/>
       <c r="E391" s="29">
@@ -12302,59 +12316,51 @@
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="19">
-        <v>1</v>
-      </c>
-      <c r="J391" s="20">
-        <v>0</v>
-      </c>
+      <c r="I391" s="19"/>
+      <c r="J391" s="20"/>
       <c r="K391" s="35"/>
     </row>
-    <row r="392" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="12"/>
+      <c r="B392" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D392" s="35"/>
-      <c r="E392" s="32"/>
-      <c r="F392" s="60"/>
+      <c r="E392" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F392" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G392" s="35"/>
-      <c r="H392" s="32"/>
-      <c r="I392" s="23"/>
-      <c r="J392" s="24"/>
+      <c r="H392" s="29"/>
+      <c r="I392" s="19"/>
+      <c r="J392" s="20"/>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>666</v>
-      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="35"/>
-      <c r="E393" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F393" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E393" s="32"/>
+      <c r="F393" s="60"/>
       <c r="G393" s="35"/>
-      <c r="H393" s="29"/>
-      <c r="I393" s="19">
-        <v>1</v>
-      </c>
-      <c r="J393" s="20">
-        <v>0</v>
-      </c>
+      <c r="H393" s="32"/>
+      <c r="I393" s="23"/>
+      <c r="J393" s="24"/>
       <c r="K393" s="35"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
       <c r="B394" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D394" s="35"/>
       <c r="E394" s="29">
@@ -12373,64 +12379,76 @@
       </c>
       <c r="K394" s="35"/>
     </row>
-    <row r="395" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
-      <c r="B395" s="11"/>
-      <c r="C395" s="12"/>
+      <c r="B395" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="D395" s="35"/>
-      <c r="E395" s="32"/>
-      <c r="F395" s="60"/>
+      <c r="E395" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F395" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G395" s="35"/>
-      <c r="H395" s="32"/>
-      <c r="I395" s="23"/>
-      <c r="J395" s="24"/>
+      <c r="H395" s="29"/>
+      <c r="I395" s="19">
+        <v>1</v>
+      </c>
+      <c r="J395" s="20">
+        <v>0</v>
+      </c>
       <c r="K395" s="35"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
-      <c r="B396" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="B396" s="11"/>
+      <c r="C396" s="12"/>
       <c r="D396" s="35"/>
-      <c r="E396" s="29">
+      <c r="E396" s="32"/>
+      <c r="F396" s="60"/>
+      <c r="G396" s="35"/>
+      <c r="H396" s="32"/>
+      <c r="I396" s="23"/>
+      <c r="J396" s="24"/>
+      <c r="K396" s="35"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="35"/>
+      <c r="B397" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D397" s="35"/>
+      <c r="E397" s="29">
         <v>44379</v>
       </c>
-      <c r="F396" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G396" s="35"/>
-      <c r="H396" s="29"/>
-      <c r="I396" s="19">
-        <v>1</v>
-      </c>
-      <c r="J396" s="20">
-        <v>0</v>
-      </c>
-      <c r="K396" s="35"/>
-    </row>
-    <row r="397" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="35"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12"/>
-      <c r="D397" s="35"/>
-      <c r="E397" s="32"/>
-      <c r="F397" s="60"/>
+      <c r="F397" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G397" s="35"/>
-      <c r="H397" s="32"/>
-      <c r="I397" s="23"/>
-      <c r="J397" s="24"/>
+      <c r="H397" s="29"/>
+      <c r="I397" s="19">
+        <v>1</v>
+      </c>
+      <c r="J397" s="20">
+        <v>0</v>
+      </c>
       <c r="K397" s="35"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
       <c r="B398" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D398" s="35"/>
       <c r="E398" s="29">
@@ -12449,80 +12467,68 @@
       </c>
       <c r="K398" s="35"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
-      <c r="B399" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>673</v>
-      </c>
+      <c r="B399" s="11"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="35"/>
-      <c r="E399" s="29">
+      <c r="E399" s="32"/>
+      <c r="F399" s="60"/>
+      <c r="G399" s="35"/>
+      <c r="H399" s="32"/>
+      <c r="I399" s="23"/>
+      <c r="J399" s="24"/>
+      <c r="K399" s="35"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="35"/>
+      <c r="B400" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D400" s="35"/>
+      <c r="E400" s="29">
         <v>44379</v>
       </c>
-      <c r="F399" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G399" s="35"/>
-      <c r="H399" s="29"/>
-      <c r="I399" s="19">
-        <v>1</v>
-      </c>
-      <c r="J399" s="20">
-        <v>0</v>
-      </c>
-      <c r="K399" s="35"/>
-    </row>
-    <row r="400" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="35"/>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="35"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="60"/>
+      <c r="F400" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G400" s="35"/>
-      <c r="H400" s="32"/>
-      <c r="I400" s="23"/>
-      <c r="J400" s="24"/>
+      <c r="H400" s="29"/>
+      <c r="I400" s="19">
+        <v>1</v>
+      </c>
+      <c r="J400" s="20">
+        <v>0</v>
+      </c>
       <c r="K400" s="35"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
-      <c r="B401" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C401" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B401" s="11"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="35"/>
-      <c r="E401" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F401" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E401" s="32"/>
+      <c r="F401" s="60"/>
       <c r="G401" s="35"/>
-      <c r="H401" s="29"/>
-      <c r="I401" s="19">
-        <v>1</v>
-      </c>
-      <c r="J401" s="20">
-        <v>0</v>
-      </c>
+      <c r="H401" s="32"/>
+      <c r="I401" s="23"/>
+      <c r="J401" s="24"/>
       <c r="K401" s="35"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>144</v>
+        <v>670</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>126</v>
+        <v>672</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F402" s="58" t="s">
         <v>627</v>
@@ -12540,14 +12546,14 @@
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>284</v>
+        <v>671</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>285</v>
+        <v>673</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F403" s="58" t="s">
         <v>627</v>
@@ -12562,42 +12568,30 @@
       </c>
       <c r="K403" s="35"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
-      <c r="B404" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="B404" s="11"/>
+      <c r="C404" s="12"/>
       <c r="D404" s="35"/>
-      <c r="E404" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F404" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E404" s="32"/>
+      <c r="F404" s="60"/>
       <c r="G404" s="35"/>
-      <c r="H404" s="29"/>
-      <c r="I404" s="19">
-        <v>1</v>
-      </c>
-      <c r="J404" s="20">
-        <v>0</v>
-      </c>
+      <c r="H404" s="32"/>
+      <c r="I404" s="23"/>
+      <c r="J404" s="24"/>
       <c r="K404" s="35"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
       <c r="B405" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D405" s="35"/>
       <c r="E405" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F405" s="58" t="s">
         <v>627</v>
@@ -12615,14 +12609,14 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F406" s="58" t="s">
         <v>627</v>
@@ -12640,14 +12634,14 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
       <c r="B407" s="7" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="D407" s="35"/>
       <c r="E407" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F407" s="58" t="s">
         <v>627</v>
@@ -12665,14 +12659,14 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F408" s="58" t="s">
         <v>627</v>
@@ -12690,14 +12684,14 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
       <c r="B409" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D409" s="35"/>
       <c r="E409" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F409" s="58" t="s">
         <v>627</v>
@@ -12715,14 +12709,14 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F410" s="58" t="s">
         <v>627</v>
@@ -12740,10 +12734,10 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
@@ -12765,10 +12759,10 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
@@ -12790,10 +12784,10 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
@@ -12815,10 +12809,10 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
@@ -12840,10 +12834,10 @@
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
@@ -12865,10 +12859,10 @@
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
@@ -12890,10 +12884,10 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
@@ -12915,10 +12909,10 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
@@ -12940,10 +12934,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -12965,10 +12959,10 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
@@ -12990,10 +12984,10 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>623</v>
+        <v>140</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
@@ -13015,10 +13009,10 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>674</v>
+        <v>141</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13040,10 +13034,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>675</v>
+        <v>142</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13065,10 +13059,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>676</v>
+        <v>143</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13090,10 +13084,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>677</v>
+        <v>623</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13115,10 +13109,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13140,10 +13134,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13165,10 +13159,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13190,10 +13184,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13215,10 +13209,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13240,10 +13234,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13265,10 +13259,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13290,10 +13284,10 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
@@ -13315,10 +13309,10 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
@@ -13340,10 +13334,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13362,30 +13356,42 @@
       </c>
       <c r="K435" s="35"/>
     </row>
-    <row r="436" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
-      <c r="B436" s="11"/>
-      <c r="C436" s="12"/>
+      <c r="B436" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>684</v>
+      </c>
       <c r="D436" s="35"/>
-      <c r="E436" s="32"/>
-      <c r="F436" s="60"/>
+      <c r="E436" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F436" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G436" s="35"/>
-      <c r="H436" s="32"/>
-      <c r="I436" s="23"/>
-      <c r="J436" s="24"/>
+      <c r="H436" s="29"/>
+      <c r="I436" s="19">
+        <v>1</v>
+      </c>
+      <c r="J436" s="20">
+        <v>0</v>
+      </c>
       <c r="K436" s="35"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F437" s="58" t="s">
         <v>627</v>
@@ -13403,14 +13409,14 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F438" s="58" t="s">
         <v>627</v>
@@ -13428,14 +13434,14 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>762</v>
+        <v>176</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F439" s="58" t="s">
         <v>627</v>
@@ -13466,10 +13472,10 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>690</v>
+        <v>177</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
@@ -13491,10 +13497,10 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>691</v>
+        <v>197</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
@@ -13516,14 +13522,14 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>697</v>
+        <v>763</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="F443" s="58" t="s">
         <v>627</v>
@@ -13538,38 +13544,26 @@
       </c>
       <c r="K443" s="35"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
-      <c r="B444" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="B444" s="11"/>
+      <c r="C444" s="12"/>
       <c r="D444" s="35"/>
-      <c r="E444" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F444" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E444" s="32"/>
+      <c r="F444" s="60"/>
       <c r="G444" s="35"/>
-      <c r="H444" s="29"/>
-      <c r="I444" s="19">
-        <v>1</v>
-      </c>
-      <c r="J444" s="20">
-        <v>0</v>
-      </c>
+      <c r="H444" s="32"/>
+      <c r="I444" s="23"/>
+      <c r="J444" s="24"/>
       <c r="K444" s="35"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
@@ -13590,121 +13584,137 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="D446" s="35"/>
-      <c r="E446" s="29"/>
-      <c r="F446" s="58"/>
+      <c r="E446" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F446" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G446" s="35"/>
       <c r="H446" s="29"/>
-      <c r="I446" s="19"/>
-      <c r="J446" s="20"/>
+      <c r="I446" s="19">
+        <v>1</v>
+      </c>
+      <c r="J446" s="20">
+        <v>0</v>
+      </c>
       <c r="K446" s="35"/>
     </row>
-    <row r="447" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
-      <c r="B447" s="9"/>
-      <c r="C447" s="10"/>
+      <c r="B447" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="D447" s="35"/>
-      <c r="E447" s="30"/>
-      <c r="F447" s="59"/>
+      <c r="E447" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F447" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G447" s="35"/>
-      <c r="H447" s="30"/>
-      <c r="I447" s="21"/>
-      <c r="J447" s="22"/>
+      <c r="H447" s="29"/>
+      <c r="I447" s="19">
+        <v>1</v>
+      </c>
+      <c r="J447" s="20">
+        <v>0</v>
+      </c>
       <c r="K447" s="35"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>463</v>
+        <v>698</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F448" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G448" s="35"/>
       <c r="H448" s="29"/>
-      <c r="I448" s="19"/>
-      <c r="J448" s="20"/>
+      <c r="I448" s="19">
+        <v>1</v>
+      </c>
+      <c r="J448" s="20">
+        <v>0</v>
+      </c>
       <c r="K448" s="35"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F449" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G449" s="35"/>
       <c r="H449" s="29"/>
-      <c r="I449" s="19"/>
-      <c r="J449" s="20"/>
+      <c r="I449" s="19">
+        <v>1</v>
+      </c>
+      <c r="J449" s="20">
+        <v>0</v>
+      </c>
       <c r="K449" s="35"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
-      <c r="B450" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>708</v>
-      </c>
+      <c r="B450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="35"/>
-      <c r="E450" s="29">
-        <v>44365</v>
-      </c>
-      <c r="F450" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E450" s="29"/>
+      <c r="F450" s="58"/>
       <c r="G450" s="35"/>
       <c r="H450" s="29"/>
       <c r="I450" s="19"/>
       <c r="J450" s="20"/>
       <c r="K450" s="35"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
-      <c r="B451" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B451" s="9"/>
+      <c r="C451" s="10"/>
       <c r="D451" s="35"/>
-      <c r="E451" s="29">
-        <v>44362</v>
-      </c>
-      <c r="F451" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E451" s="30"/>
+      <c r="F451" s="59"/>
       <c r="G451" s="35"/>
-      <c r="H451" s="29"/>
-      <c r="I451" s="19"/>
-      <c r="J451" s="20"/>
+      <c r="H451" s="30"/>
+      <c r="I451" s="21"/>
+      <c r="J451" s="22"/>
       <c r="K451" s="35"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
       <c r="B452" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D452" s="35"/>
       <c r="E452" s="29">
@@ -13719,30 +13729,38 @@
       <c r="J452" s="20"/>
       <c r="K452" s="35"/>
     </row>
-    <row r="453" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
-      <c r="B453" s="11"/>
-      <c r="C453" s="12"/>
+      <c r="B453" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>707</v>
+      </c>
       <c r="D453" s="35"/>
-      <c r="E453" s="32"/>
-      <c r="F453" s="60"/>
+      <c r="E453" s="29">
+        <v>44365</v>
+      </c>
+      <c r="F453" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G453" s="35"/>
-      <c r="H453" s="32"/>
-      <c r="I453" s="23"/>
-      <c r="J453" s="24"/>
+      <c r="H453" s="29"/>
+      <c r="I453" s="19"/>
+      <c r="J453" s="20"/>
       <c r="K453" s="35"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>408</v>
+        <v>706</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>409</v>
+        <v>708</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
-        <v>44250</v>
+        <v>44365</v>
       </c>
       <c r="F454" s="58" t="s">
         <v>627</v>
@@ -13756,14 +13774,14 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
@@ -13777,14 +13795,14 @@
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
-        <v>44250</v>
+        <v>44363</v>
       </c>
       <c r="F456" s="58" t="s">
         <v>627</v>
@@ -13811,39 +13829,35 @@
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
-        <v>44148</v>
+        <v>44250</v>
       </c>
       <c r="F458" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="29"/>
-      <c r="I458" s="19">
-        <v>1</v>
-      </c>
-      <c r="J458" s="20">
-        <v>0</v>
-      </c>
+      <c r="I458" s="19"/>
+      <c r="J458" s="20"/>
       <c r="K458" s="35"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>594</v>
+        <v>418</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>595</v>
+        <v>419</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="F459" s="58" t="s">
         <v>627</v>
@@ -13857,14 +13871,14 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
@@ -13875,38 +13889,30 @@
       <c r="J460" s="20"/>
       <c r="K460" s="35"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
-      <c r="B461" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B461" s="11"/>
+      <c r="C461" s="12"/>
       <c r="D461" s="35"/>
-      <c r="E461" s="29">
-        <v>44377</v>
-      </c>
-      <c r="F461" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E461" s="32"/>
+      <c r="F461" s="60"/>
       <c r="G461" s="35"/>
-      <c r="H461" s="29"/>
-      <c r="I461" s="19"/>
-      <c r="J461" s="20"/>
+      <c r="H461" s="32"/>
+      <c r="I461" s="23"/>
+      <c r="J461" s="24"/>
       <c r="K461" s="35"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
       <c r="B462" s="7" t="s">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="D462" s="35"/>
       <c r="E462" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F462" s="58" t="s">
         <v>627</v>
@@ -13924,14 +13930,14 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="F463" s="58" t="s">
         <v>627</v>
@@ -13945,14 +13951,14 @@
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>578</v>
+        <v>294</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F464" s="58" t="s">
         <v>627</v>
@@ -13966,14 +13972,14 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
       <c r="B465" s="7" t="s">
-        <v>579</v>
+        <v>295</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="D465" s="35"/>
       <c r="E465" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F465" s="58" t="s">
         <v>627</v>
@@ -13987,35 +13993,39 @@
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="29"/>
-      <c r="I466" s="19"/>
-      <c r="J466" s="20"/>
+      <c r="I466" s="19">
+        <v>1</v>
+      </c>
+      <c r="J466" s="20">
+        <v>0</v>
+      </c>
       <c r="K466" s="35"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
@@ -14029,10 +14039,10 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
@@ -14050,10 +14060,10 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
       <c r="B469" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D469" s="35"/>
       <c r="E469" s="29">
@@ -14068,276 +14078,260 @@
       <c r="J469" s="20"/>
       <c r="K469" s="35"/>
     </row>
-    <row r="470" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="37"/>
-      <c r="B470" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C470" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D470" s="37"/>
-      <c r="E470" s="31">
-        <v>44176</v>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="35"/>
+      <c r="B470" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D470" s="35"/>
+      <c r="E470" s="29">
+        <v>44376</v>
       </c>
       <c r="F470" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G470" s="37"/>
-      <c r="H470" s="31"/>
-      <c r="I470" s="19">
-        <v>1</v>
-      </c>
-      <c r="J470" s="20">
-        <v>0</v>
-      </c>
-      <c r="K470" s="37"/>
-    </row>
-    <row r="471" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="37"/>
-      <c r="B471" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C471" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D471" s="37"/>
-      <c r="E471" s="31">
-        <v>44176</v>
+      <c r="G470" s="35"/>
+      <c r="H470" s="29"/>
+      <c r="I470" s="19"/>
+      <c r="J470" s="20"/>
+      <c r="K470" s="35"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="35"/>
+      <c r="B471" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D471" s="35"/>
+      <c r="E471" s="29">
+        <v>44376</v>
       </c>
       <c r="F471" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G471" s="37"/>
-      <c r="H471" s="31"/>
-      <c r="I471" s="19">
-        <v>1</v>
-      </c>
-      <c r="J471" s="20">
-        <v>0</v>
-      </c>
-      <c r="K471" s="37"/>
-    </row>
-    <row r="472" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="37"/>
-      <c r="B472" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C472" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D472" s="37"/>
-      <c r="E472" s="31">
-        <v>44176</v>
+      <c r="G471" s="35"/>
+      <c r="H471" s="29"/>
+      <c r="I471" s="19"/>
+      <c r="J471" s="20"/>
+      <c r="K471" s="35"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="35"/>
+      <c r="B472" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D472" s="35"/>
+      <c r="E472" s="29">
+        <v>44376</v>
       </c>
       <c r="F472" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G472" s="37"/>
-      <c r="H472" s="31"/>
-      <c r="I472" s="19">
-        <v>1</v>
-      </c>
-      <c r="J472" s="20">
-        <v>0</v>
-      </c>
-      <c r="K472" s="37"/>
-    </row>
-    <row r="473" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="37"/>
-      <c r="B473" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C473" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D473" s="37"/>
-      <c r="E473" s="31">
-        <v>44176</v>
+      <c r="G472" s="35"/>
+      <c r="H472" s="29"/>
+      <c r="I472" s="19"/>
+      <c r="J472" s="20"/>
+      <c r="K472" s="35"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="35"/>
+      <c r="B473" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D473" s="35"/>
+      <c r="E473" s="29">
+        <v>44376</v>
       </c>
       <c r="F473" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G473" s="37"/>
-      <c r="H473" s="31"/>
-      <c r="I473" s="19">
-        <v>1</v>
-      </c>
-      <c r="J473" s="20">
-        <v>0</v>
-      </c>
-      <c r="K473" s="37"/>
+      <c r="G473" s="35"/>
+      <c r="H473" s="29"/>
+      <c r="I473" s="19"/>
+      <c r="J473" s="20"/>
+      <c r="K473" s="35"/>
     </row>
     <row r="474" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="37"/>
-      <c r="B474" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>403</v>
+      <c r="B474" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C474" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="D474" s="37"/>
       <c r="E474" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F474" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G474" s="37"/>
       <c r="H474" s="31"/>
-      <c r="I474" s="19"/>
-      <c r="J474" s="20"/>
+      <c r="I474" s="19">
+        <v>1</v>
+      </c>
+      <c r="J474" s="20">
+        <v>0</v>
+      </c>
       <c r="K474" s="37"/>
     </row>
     <row r="475" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="37"/>
-      <c r="B475" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>407</v>
+      <c r="B475" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C475" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="D475" s="37"/>
       <c r="E475" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F475" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G475" s="37"/>
       <c r="H475" s="31"/>
-      <c r="I475" s="19"/>
-      <c r="J475" s="20"/>
+      <c r="I475" s="19">
+        <v>1</v>
+      </c>
+      <c r="J475" s="20">
+        <v>0</v>
+      </c>
       <c r="K475" s="37"/>
     </row>
     <row r="476" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="37"/>
-      <c r="B476" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>406</v>
+      <c r="B476" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C476" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="D476" s="37"/>
       <c r="E476" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F476" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G476" s="37"/>
       <c r="H476" s="31"/>
-      <c r="I476" s="19"/>
-      <c r="J476" s="20"/>
+      <c r="I476" s="19">
+        <v>1</v>
+      </c>
+      <c r="J476" s="20">
+        <v>0</v>
+      </c>
       <c r="K476" s="37"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="35"/>
-      <c r="B477" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D477" s="35"/>
-      <c r="E477" s="29">
-        <v>44175</v>
+    <row r="477" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="37"/>
+      <c r="B477" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C477" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D477" s="37"/>
+      <c r="E477" s="31">
+        <v>44176</v>
       </c>
       <c r="F477" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G477" s="35"/>
-      <c r="H477" s="29"/>
+      <c r="G477" s="37"/>
+      <c r="H477" s="31"/>
       <c r="I477" s="19">
         <v>1</v>
       </c>
       <c r="J477" s="20">
         <v>0</v>
       </c>
-      <c r="K477" s="35"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="35"/>
+      <c r="K477" s="37"/>
+    </row>
+    <row r="478" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="37"/>
       <c r="B478" s="7" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D478" s="35"/>
-      <c r="E478" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D478" s="37"/>
+      <c r="E478" s="31">
+        <v>44245</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G478" s="35"/>
-      <c r="H478" s="29"/>
-      <c r="I478" s="19">
-        <v>1</v>
-      </c>
-      <c r="J478" s="20">
-        <v>0</v>
-      </c>
-      <c r="K478" s="35"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="35"/>
+      <c r="G478" s="37"/>
+      <c r="H478" s="31"/>
+      <c r="I478" s="19"/>
+      <c r="J478" s="20"/>
+      <c r="K478" s="37"/>
+    </row>
+    <row r="479" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="37"/>
       <c r="B479" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D479" s="35"/>
-      <c r="E479" s="29">
-        <v>44175</v>
+        <v>407</v>
+      </c>
+      <c r="D479" s="37"/>
+      <c r="E479" s="31">
+        <v>44245</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G479" s="35"/>
-      <c r="H479" s="29"/>
-      <c r="I479" s="19">
-        <v>1</v>
-      </c>
-      <c r="J479" s="20">
-        <v>0</v>
-      </c>
-      <c r="K479" s="35"/>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="35"/>
+      <c r="G479" s="37"/>
+      <c r="H479" s="31"/>
+      <c r="I479" s="19"/>
+      <c r="J479" s="20"/>
+      <c r="K479" s="37"/>
+    </row>
+    <row r="480" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="37"/>
       <c r="B480" s="7" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D480" s="35"/>
-      <c r="E480" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D480" s="37"/>
+      <c r="E480" s="31">
+        <v>44245</v>
       </c>
       <c r="F480" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G480" s="35"/>
-      <c r="H480" s="29"/>
-      <c r="I480" s="19">
-        <v>1</v>
-      </c>
-      <c r="J480" s="20">
-        <v>0</v>
-      </c>
-      <c r="K480" s="35"/>
+      <c r="G480" s="37"/>
+      <c r="H480" s="31"/>
+      <c r="I480" s="19"/>
+      <c r="J480" s="20"/>
+      <c r="K480" s="37"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
@@ -14359,10 +14353,10 @@
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
@@ -14384,14 +14378,14 @@
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F483" s="58" t="s">
         <v>627</v>
@@ -14409,14 +14403,14 @@
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F484" s="58" t="s">
         <v>627</v>
@@ -14434,14 +14428,14 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F485" s="58" t="s">
         <v>627</v>
@@ -14456,127 +14450,151 @@
       </c>
       <c r="K485" s="35"/>
     </row>
-    <row r="486" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
-      <c r="B486" s="11"/>
-      <c r="C486" s="12"/>
+      <c r="B486" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D486" s="35"/>
-      <c r="E486" s="32"/>
-      <c r="F486" s="60"/>
+      <c r="E486" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F486" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G486" s="35"/>
-      <c r="H486" s="32"/>
-      <c r="I486" s="23"/>
-      <c r="J486" s="24"/>
+      <c r="H486" s="29"/>
+      <c r="I486" s="19">
+        <v>1</v>
+      </c>
+      <c r="J486" s="20">
+        <v>0</v>
+      </c>
       <c r="K486" s="35"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
       <c r="B487" s="7" t="s">
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>721</v>
+        <v>307</v>
       </c>
       <c r="D487" s="35"/>
       <c r="E487" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G487" s="35"/>
       <c r="H487" s="29"/>
-      <c r="I487" s="19"/>
-      <c r="J487" s="20"/>
+      <c r="I487" s="19">
+        <v>1</v>
+      </c>
+      <c r="J487" s="20">
+        <v>0</v>
+      </c>
       <c r="K487" s="35"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="35"/>
       <c r="B488" s="7" t="s">
-        <v>718</v>
+        <v>304</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>722</v>
+        <v>305</v>
       </c>
       <c r="D488" s="35"/>
       <c r="E488" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F488" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G488" s="35"/>
       <c r="H488" s="29"/>
-      <c r="I488" s="19"/>
-      <c r="J488" s="20"/>
+      <c r="I488" s="19">
+        <v>1</v>
+      </c>
+      <c r="J488" s="20">
+        <v>0</v>
+      </c>
       <c r="K488" s="35"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
       <c r="B489" s="7" t="s">
-        <v>719</v>
+        <v>298</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>723</v>
+        <v>299</v>
       </c>
       <c r="D489" s="35"/>
       <c r="E489" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F489" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G489" s="35"/>
       <c r="H489" s="29"/>
-      <c r="I489" s="19"/>
-      <c r="J489" s="20"/>
+      <c r="I489" s="19">
+        <v>1</v>
+      </c>
+      <c r="J489" s="20">
+        <v>0</v>
+      </c>
       <c r="K489" s="35"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
-      <c r="B490" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="B490" s="11"/>
+      <c r="C490" s="12"/>
       <c r="D490" s="35"/>
-      <c r="E490" s="29">
+      <c r="E490" s="32"/>
+      <c r="F490" s="60"/>
+      <c r="G490" s="35"/>
+      <c r="H490" s="32"/>
+      <c r="I490" s="23"/>
+      <c r="J490" s="24"/>
+      <c r="K490" s="35"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="35"/>
+      <c r="B491" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D491" s="35"/>
+      <c r="E491" s="29">
         <v>44382</v>
       </c>
-      <c r="F490" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G490" s="35"/>
-      <c r="H490" s="29"/>
-      <c r="I490" s="19"/>
-      <c r="J490" s="20"/>
-      <c r="K490" s="35"/>
-    </row>
-    <row r="491" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="35"/>
-      <c r="B491" s="11"/>
-      <c r="C491" s="12"/>
-      <c r="D491" s="35"/>
-      <c r="E491" s="32"/>
-      <c r="F491" s="60"/>
+      <c r="F491" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G491" s="35"/>
-      <c r="H491" s="32"/>
-      <c r="I491" s="23"/>
-      <c r="J491" s="24"/>
+      <c r="H491" s="29"/>
+      <c r="I491" s="19"/>
+      <c r="J491" s="20"/>
       <c r="K491" s="35"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="D492" s="35"/>
       <c r="E492" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F492" s="58" t="s">
         <v>627</v>
@@ -14590,14 +14608,14 @@
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F493" s="58" t="s">
         <v>627</v>
@@ -14611,14 +14629,14 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F494" s="58" t="s">
         <v>627</v>
@@ -14629,61 +14647,137 @@
       <c r="J494" s="20"/>
       <c r="K494" s="35"/>
     </row>
-    <row r="495" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
-      <c r="B495" s="8"/>
-      <c r="C495" s="6"/>
+      <c r="B495" s="11"/>
+      <c r="C495" s="12"/>
       <c r="D495" s="35"/>
-      <c r="E495" s="33"/>
-      <c r="F495" s="61"/>
+      <c r="E495" s="32"/>
+      <c r="F495" s="60"/>
       <c r="G495" s="35"/>
-      <c r="H495" s="33"/>
-      <c r="I495" s="25"/>
-      <c r="J495" s="26"/>
+      <c r="H495" s="32"/>
+      <c r="I495" s="23"/>
+      <c r="J495" s="24"/>
       <c r="K495" s="35"/>
     </row>
-    <row r="496" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
-      <c r="B496" s="38"/>
-      <c r="C496" s="39"/>
+      <c r="B496" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="D496" s="35"/>
-      <c r="E496" s="40"/>
-      <c r="F496" s="55"/>
+      <c r="E496" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F496" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G496" s="35"/>
-      <c r="H496" s="40"/>
-      <c r="I496" s="41"/>
-      <c r="J496" s="41"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="20"/>
       <c r="K496" s="35"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="35"/>
+      <c r="B497" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D497" s="35"/>
+      <c r="E497" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F497" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G497" s="35"/>
+      <c r="H497" s="29"/>
+      <c r="I497" s="19"/>
+      <c r="J497" s="20"/>
+      <c r="K497" s="35"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>389</v>
+        <v>761</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>390</v>
+        <v>758</v>
       </c>
       <c r="D498" s="35"/>
-      <c r="E498" s="29"/>
-      <c r="F498" s="58"/>
+      <c r="E498" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F498" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G498" s="35"/>
       <c r="H498" s="29"/>
       <c r="I498" s="19"/>
       <c r="J498" s="20"/>
       <c r="K498" s="35"/>
     </row>
-    <row r="499" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="35"/>
-      <c r="B499" s="50"/>
-      <c r="C499" s="51"/>
+      <c r="B499" s="8"/>
+      <c r="C499" s="6"/>
       <c r="D499" s="35"/>
-      <c r="E499" s="52"/>
-      <c r="F499" s="62"/>
+      <c r="E499" s="33"/>
+      <c r="F499" s="61"/>
       <c r="G499" s="35"/>
-      <c r="H499" s="52"/>
-      <c r="I499" s="53"/>
-      <c r="J499" s="54"/>
+      <c r="H499" s="33"/>
+      <c r="I499" s="25"/>
+      <c r="J499" s="26"/>
       <c r="K499" s="35"/>
+    </row>
+    <row r="500" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="35"/>
+      <c r="B500" s="38"/>
+      <c r="C500" s="39"/>
+      <c r="D500" s="35"/>
+      <c r="E500" s="40"/>
+      <c r="F500" s="55"/>
+      <c r="G500" s="35"/>
+      <c r="H500" s="40"/>
+      <c r="I500" s="41"/>
+      <c r="J500" s="41"/>
+      <c r="K500" s="35"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="35"/>
+      <c r="B502" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D502" s="35"/>
+      <c r="E502" s="29"/>
+      <c r="F502" s="58"/>
+      <c r="G502" s="35"/>
+      <c r="H502" s="29"/>
+      <c r="I502" s="19"/>
+      <c r="J502" s="20"/>
+      <c r="K502" s="35"/>
+    </row>
+    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="35"/>
+      <c r="B503" s="50"/>
+      <c r="C503" s="51"/>
+      <c r="D503" s="35"/>
+      <c r="E503" s="52"/>
+      <c r="F503" s="62"/>
+      <c r="G503" s="35"/>
+      <c r="H503" s="52"/>
+      <c r="I503" s="53"/>
+      <c r="J503" s="54"/>
+      <c r="K503" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14695,7 +14789,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F77:F108 F120:F124 F126:F130 F132:F138 F140:F142 F144:F145 F150 F152:F170 F172:F207 F209:F211 F213:F217 F220:F239 F248:F253 F255:F256 F279:F280 F282:F283 F290:F295 F297:F298 F300:F301 F340:F348 F351:F353 F355 F357:F361 F363:F366 F368:F369 F379:F384 F386:F388 F390:F391 F393:F394 F147:F148 F396 F398:F399 F401:F435 F437:F439 F441:F445 F373:F377 F448:F452 F454:F456 F458:F485 F110:F113 F487:F490 F258:F277 F303:F333 F335:F338 F286:F288 F115:F117 F492:F494 F58 F42:F56 F37:F41 F35 F19:F22 F246 F17" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F85:F112 F124:F128 F130:F134 F136:F142 F144:F146 F148:F149 F154 F156:F174 F176:F211 F213:F215 F217:F221 F224:F243 F252:F257 F259:F260 F283:F284 F286:F287 F294:F299 F301:F302 F304:F305 F344:F352 F355:F357 F359 F361:F365 F367:F370 F372:F373 F383:F388 F390:F392 F394:F395 F397:F398 F151:F152 F400 F402:F403 F405:F439 F441:F443 F445:F449 F377:F381 F452:F456 F458:F460 F462:F489 F114:F117 F491:F494 F262:F281 F307:F337 F339:F342 F290:F292 F119:F121 F496:F498 F58 F37:F56 F35 F19:F22 F250 F17 F83 F77:F80 F81:F82" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="848">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2886,6 +2886,12 @@
   </si>
   <si>
     <t>Menyimpan Data Baru File Upload Object Detail</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Kartu Keluarga</t>
   </si>
 </sst>
 </file>
@@ -3785,13 +3791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L503"/>
+  <dimension ref="A1:L504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81:F82"/>
+      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5583,14 +5589,14 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>568</v>
+        <v>846</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>569</v>
+        <v>847</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29">
-        <v>44376</v>
+        <v>44404</v>
       </c>
       <c r="F91" s="58" t="s">
         <v>627</v>
@@ -5601,34 +5607,34 @@
       <c r="J91" s="20"/>
       <c r="K91" s="35"/>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="13" t="s">
-        <v>570</v>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="7" t="s">
+        <v>568</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D92" s="37"/>
+        <v>569</v>
+      </c>
+      <c r="D92" s="35"/>
       <c r="E92" s="29">
         <v>44376</v>
       </c>
       <c r="F92" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G92" s="37"/>
+      <c r="G92" s="35"/>
       <c r="H92" s="29"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
-      <c r="K92" s="37"/>
+      <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37"/>
       <c r="B93" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D93" s="37"/>
       <c r="E93" s="29">
@@ -5646,10 +5652,10 @@
     <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
       <c r="B94" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="29">
@@ -5667,10 +5673,10 @@
     <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
       <c r="B95" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="29">
@@ -5685,61 +5691,55 @@
       <c r="J95" s="20"/>
       <c r="K95" s="37"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="7" t="s">
-        <v>590</v>
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D96" s="35"/>
+        <v>577</v>
+      </c>
+      <c r="D96" s="37"/>
       <c r="E96" s="29">
         <v>44376</v>
       </c>
       <c r="F96" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G96" s="35"/>
+      <c r="G96" s="37"/>
       <c r="H96" s="29"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
-      <c r="K96" s="35"/>
-    </row>
-    <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D97" s="37"/>
+      <c r="K96" s="37"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+      <c r="B97" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D97" s="35"/>
       <c r="E97" s="29">
-        <v>44176</v>
+        <v>44376</v>
       </c>
       <c r="F97" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I97" s="19">
-        <v>1</v>
-      </c>
-      <c r="J97" s="20">
-        <v>1</v>
-      </c>
-      <c r="K97" s="37"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="35"/>
     </row>
     <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
       <c r="B98" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="29">
@@ -5763,14 +5763,14 @@
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="29">
-        <v>44173</v>
+        <v>44176</v>
       </c>
       <c r="F99" s="58" t="s">
         <v>627</v>
@@ -5790,10 +5790,10 @@
     <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
       <c r="B100" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D100" s="37"/>
       <c r="E100" s="29">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="G100" s="37"/>
       <c r="H100" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="I100" s="19">
         <v>1</v>
@@ -5816,32 +5816,38 @@
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
-      <c r="B101" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>400</v>
+      <c r="B101" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="D101" s="37"/>
       <c r="E101" s="29">
-        <v>44245</v>
+        <v>44173</v>
       </c>
       <c r="F101" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G101" s="37"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I101" s="19">
+        <v>1</v>
+      </c>
+      <c r="J101" s="20">
+        <v>1</v>
+      </c>
       <c r="K101" s="37"/>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
       <c r="B102" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D102" s="37"/>
       <c r="E102" s="29">
@@ -5856,61 +5862,55 @@
       <c r="J102" s="20"/>
       <c r="K102" s="37"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+    <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
       <c r="B103" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D103" s="35"/>
+        <v>401</v>
+      </c>
+      <c r="D103" s="37"/>
       <c r="E103" s="29">
         <v>44245</v>
       </c>
       <c r="F103" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G103" s="35"/>
+      <c r="G103" s="37"/>
       <c r="H103" s="29"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
-      <c r="K103" s="35"/>
+      <c r="K103" s="37"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F104" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G104" s="35"/>
-      <c r="H104" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I104" s="19">
-        <v>1</v>
-      </c>
-      <c r="J104" s="20">
-        <v>1</v>
-      </c>
+      <c r="H104" s="29"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
       <c r="K104" s="35"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29">
@@ -5934,10 +5934,10 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29">
@@ -5961,10 +5961,10 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29">
@@ -5988,10 +5988,10 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29">
@@ -6015,10 +6015,10 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29">
@@ -6042,14 +6042,14 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F110" s="58" t="s">
         <v>627</v>
@@ -6069,10 +6069,10 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29">
@@ -6096,10 +6096,10 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29">
@@ -6120,47 +6120,53 @@
       </c>
       <c r="K112" s="35"/>
     </row>
-    <row r="113" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="B113" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D113" s="35"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="60"/>
+      <c r="E113" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F113" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G113" s="35"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="24"/>
+      <c r="H113" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I113" s="19">
+        <v>1</v>
+      </c>
+      <c r="J113" s="20">
+        <v>1</v>
+      </c>
       <c r="K113" s="35"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
-      <c r="B114" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="35"/>
-      <c r="E114" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F114" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="60"/>
       <c r="G114" s="35"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="24"/>
       <c r="K114" s="35"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29">
@@ -6178,10 +6184,10 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29">
@@ -6199,10 +6205,10 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
@@ -6217,47 +6223,47 @@
       <c r="J117" s="20"/>
       <c r="K117" s="35"/>
     </row>
-    <row r="118" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="B118" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="D118" s="35"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="60"/>
+      <c r="E118" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F118" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G118" s="35"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="24"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
       <c r="K118" s="35"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
-      <c r="B119" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>751</v>
-      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F119" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E119" s="32"/>
+      <c r="F119" s="60"/>
       <c r="G119" s="35"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="24"/>
       <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29">
@@ -6275,10 +6281,10 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29">
@@ -6295,62 +6301,58 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="4"/>
+      <c r="B122" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>755</v>
+      </c>
       <c r="D122" s="35"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="58"/>
+      <c r="E122" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F122" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G122" s="35"/>
       <c r="H122" s="29"/>
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
       <c r="K122" s="35"/>
     </row>
-    <row r="123" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="35"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="59"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="58"/>
       <c r="G123" s="35"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
       <c r="K123" s="35"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
-      <c r="B124" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="35"/>
-      <c r="E124" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F124" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E124" s="30"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="35"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="19">
-        <v>1</v>
-      </c>
-      <c r="J124" s="20">
-        <v>0</v>
-      </c>
+      <c r="H124" s="30"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="22"/>
       <c r="K124" s="35"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="29">
@@ -6372,10 +6374,10 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29">
@@ -6397,10 +6399,10 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29">
@@ -6422,10 +6424,10 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29">
@@ -6444,53 +6446,51 @@
       </c>
       <c r="K128" s="35"/>
     </row>
-    <row r="129" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
+      <c r="B129" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D129" s="35"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="60"/>
+      <c r="E129" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F129" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G129" s="35"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="24"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="19">
+        <v>1</v>
+      </c>
+      <c r="J129" s="20">
+        <v>0</v>
+      </c>
       <c r="K129" s="35"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
-      <c r="B130" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="35"/>
-      <c r="E130" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F130" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="60"/>
       <c r="G130" s="35"/>
-      <c r="H130" s="29">
-        <v>44188</v>
-      </c>
-      <c r="I130" s="19">
-        <v>1</v>
-      </c>
-      <c r="J130" s="20">
-        <v>1</v>
-      </c>
+      <c r="H130" s="32"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="24"/>
       <c r="K130" s="35"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="29">
@@ -6500,22 +6500,24 @@
         <v>627</v>
       </c>
       <c r="G131" s="35"/>
-      <c r="H131" s="29"/>
+      <c r="H131" s="29">
+        <v>44188</v>
+      </c>
       <c r="I131" s="19">
         <v>1</v>
       </c>
       <c r="J131" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29">
@@ -6537,10 +6539,10 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29">
@@ -6562,10 +6564,10 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29">
@@ -6584,51 +6586,55 @@
       </c>
       <c r="K134" s="35"/>
     </row>
-    <row r="135" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
+      <c r="B135" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D135" s="35"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="60"/>
+      <c r="E135" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F135" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G135" s="35"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="24"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="19">
+        <v>1</v>
+      </c>
+      <c r="J135" s="20">
+        <v>0</v>
+      </c>
       <c r="K135" s="35"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
-      <c r="B136" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="35"/>
-      <c r="E136" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F136" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E136" s="32"/>
+      <c r="F136" s="60"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="24"/>
       <c r="K136" s="35"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="7" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>459</v>
+        <v>200</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F137" s="58" t="s">
         <v>627</v>
@@ -6642,14 +6648,14 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>633</v>
+        <v>458</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>635</v>
+        <v>459</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29">
-        <v>44378</v>
+        <v>44362</v>
       </c>
       <c r="F138" s="58" t="s">
         <v>627</v>
@@ -6663,10 +6669,10 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29">
@@ -6684,14 +6690,14 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>455</v>
+        <v>636</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29">
-        <v>44362</v>
+        <v>44378</v>
       </c>
       <c r="F140" s="58" t="s">
         <v>627</v>
@@ -6705,10 +6711,10 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
@@ -6726,94 +6732,94 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>199</v>
+        <v>466</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
-        <v>44154</v>
+        <v>44362</v>
       </c>
       <c r="F142" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="29"/>
-      <c r="I142" s="19">
-        <v>1</v>
-      </c>
-      <c r="J142" s="20">
-        <v>0</v>
-      </c>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
       <c r="K142" s="35"/>
     </row>
-    <row r="143" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12"/>
+      <c r="B143" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D143" s="35"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F143" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G143" s="35"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="24"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="19">
+        <v>1</v>
+      </c>
+      <c r="J143" s="20">
+        <v>0</v>
+      </c>
       <c r="K143" s="35"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
-      <c r="B144" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>637</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="35"/>
-      <c r="E144" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F144" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E144" s="32"/>
+      <c r="F144" s="60"/>
       <c r="G144" s="35"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="19">
-        <v>1</v>
-      </c>
-      <c r="J144" s="20">
-        <v>0</v>
-      </c>
+      <c r="H144" s="32"/>
+      <c r="I144" s="23"/>
+      <c r="J144" s="24"/>
       <c r="K144" s="35"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>638</v>
+        <v>202</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F145" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G145" s="35"/>
       <c r="H145" s="29"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="I145" s="19">
+        <v>1</v>
+      </c>
+      <c r="J145" s="20">
+        <v>0</v>
+      </c>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29">
@@ -6828,51 +6834,47 @@
       <c r="J146" s="20"/>
       <c r="K146" s="35"/>
     </row>
-    <row r="147" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
+      <c r="B147" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D147" s="35"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="60"/>
+      <c r="E147" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F147" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G147" s="35"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="24"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
       <c r="K147" s="35"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
-      <c r="B148" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="35"/>
-      <c r="E148" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F148" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E148" s="32"/>
+      <c r="F148" s="60"/>
       <c r="G148" s="35"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="19">
-        <v>1</v>
-      </c>
-      <c r="J148" s="20">
-        <v>0</v>
-      </c>
+      <c r="H148" s="32"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="24"/>
       <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
@@ -6891,51 +6893,51 @@
       </c>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
+      <c r="B150" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="60"/>
+      <c r="E150" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F150" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G150" s="35"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="24"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="19">
+        <v>1</v>
+      </c>
+      <c r="J150" s="20">
+        <v>0</v>
+      </c>
       <c r="K150" s="35"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
-      <c r="B151" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="35"/>
-      <c r="E151" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F151" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="60"/>
       <c r="G151" s="35"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="19">
-        <v>1</v>
-      </c>
-      <c r="J151" s="20">
-        <v>0</v>
-      </c>
+      <c r="H151" s="32"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="24"/>
       <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
@@ -6954,89 +6956,89 @@
       </c>
       <c r="K152" s="35"/>
     </row>
-    <row r="153" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
+      <c r="B153" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D153" s="35"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="60"/>
+      <c r="E153" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F153" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="24"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="19">
+        <v>1</v>
+      </c>
+      <c r="J153" s="20">
+        <v>0</v>
+      </c>
       <c r="K153" s="35"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="11"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="35"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="35"/>
+      <c r="B155" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D154" s="35"/>
-      <c r="E154" s="29">
+      <c r="D155" s="35"/>
+      <c r="E155" s="29">
         <v>44158</v>
       </c>
-      <c r="F154" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G154" s="35"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="19">
-        <v>1</v>
-      </c>
-      <c r="J154" s="20">
-        <v>0</v>
-      </c>
-      <c r="K154" s="35"/>
-    </row>
-    <row r="155" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="60"/>
+      <c r="F155" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G155" s="35"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="24"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="19">
+        <v>1</v>
+      </c>
+      <c r="J155" s="20">
+        <v>0</v>
+      </c>
       <c r="K155" s="35"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="35"/>
-      <c r="E156" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F156" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E156" s="32"/>
+      <c r="F156" s="60"/>
       <c r="G156" s="35"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="19">
-        <v>1</v>
-      </c>
-      <c r="J156" s="20">
-        <v>0</v>
-      </c>
+      <c r="H156" s="32"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="24"/>
       <c r="K156" s="35"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
@@ -7058,10 +7060,10 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -7083,10 +7085,10 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -7108,10 +7110,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -7133,10 +7135,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -7158,10 +7160,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -7183,10 +7185,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7208,10 +7210,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -7233,10 +7235,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -7258,10 +7260,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -7283,10 +7285,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -7308,10 +7310,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7333,10 +7335,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7358,10 +7360,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7383,10 +7385,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29">
@@ -7408,10 +7410,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
@@ -7433,10 +7435,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
@@ -7458,10 +7460,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
@@ -7480,51 +7482,51 @@
       </c>
       <c r="K174" s="35"/>
     </row>
-    <row r="175" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
+      <c r="B175" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D175" s="35"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="60"/>
+      <c r="E175" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F175" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G175" s="35"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="24"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="19">
+        <v>1</v>
+      </c>
+      <c r="J175" s="20">
+        <v>0</v>
+      </c>
       <c r="K175" s="35"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
-      <c r="B176" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="35"/>
-      <c r="E176" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F176" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E176" s="32"/>
+      <c r="F176" s="60"/>
       <c r="G176" s="35"/>
-      <c r="H176" s="29"/>
-      <c r="I176" s="19">
-        <v>1</v>
-      </c>
-      <c r="J176" s="20">
-        <v>0</v>
-      </c>
+      <c r="H176" s="32"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="24"/>
       <c r="K176" s="35"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29">
@@ -7546,14 +7548,14 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29">
-        <v>44165</v>
+        <v>44148</v>
       </c>
       <c r="F178" s="58" t="s">
         <v>627</v>
@@ -7571,10 +7573,10 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
@@ -7596,14 +7598,14 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
-        <v>44148</v>
+        <v>44165</v>
       </c>
       <c r="F180" s="58" t="s">
         <v>627</v>
@@ -7621,10 +7623,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
@@ -7646,14 +7648,14 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F182" s="58" t="s">
         <v>627</v>
@@ -7671,10 +7673,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
@@ -7696,14 +7698,14 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F184" s="58" t="s">
         <v>627</v>
@@ -7721,14 +7723,14 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F185" s="58" t="s">
         <v>627</v>
@@ -7746,14 +7748,14 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F186" s="58" t="s">
         <v>627</v>
@@ -7771,10 +7773,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29">
@@ -7796,10 +7798,10 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
@@ -7821,10 +7823,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
@@ -7846,10 +7848,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
@@ -7871,10 +7873,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
@@ -7896,14 +7898,14 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F192" s="58" t="s">
         <v>627</v>
@@ -7921,10 +7923,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
@@ -7946,10 +7948,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
@@ -7971,10 +7973,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
@@ -7996,10 +7998,10 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
@@ -8021,10 +8023,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
@@ -8046,10 +8048,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
@@ -8071,10 +8073,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
@@ -8096,10 +8098,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
@@ -8121,10 +8123,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
@@ -8146,14 +8148,14 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F202" s="58" t="s">
         <v>627</v>
@@ -8171,10 +8173,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
@@ -8196,10 +8198,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
@@ -8221,10 +8223,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
@@ -8246,10 +8248,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
@@ -8271,10 +8273,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
@@ -8296,10 +8298,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29">
@@ -8321,10 +8323,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
@@ -8346,10 +8348,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8371,10 +8373,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
@@ -8393,51 +8395,51 @@
       </c>
       <c r="K211" s="35"/>
     </row>
-    <row r="212" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
+      <c r="B212" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="D212" s="35"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="60"/>
+      <c r="E212" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F212" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G212" s="35"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="23"/>
-      <c r="J212" s="24"/>
+      <c r="H212" s="29"/>
+      <c r="I212" s="19">
+        <v>1</v>
+      </c>
+      <c r="J212" s="20">
+        <v>0</v>
+      </c>
       <c r="K212" s="35"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-      <c r="B213" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="35"/>
-      <c r="E213" s="29">
-        <v>44153</v>
-      </c>
-      <c r="F213" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E213" s="32"/>
+      <c r="F213" s="60"/>
       <c r="G213" s="35"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="19">
-        <v>1</v>
-      </c>
-      <c r="J213" s="20">
-        <v>0</v>
-      </c>
+      <c r="H213" s="32"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="24"/>
       <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
@@ -8459,14 +8461,14 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>764</v>
+        <v>195</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>765</v>
+        <v>196</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F215" s="58" t="s">
         <v>627</v>
@@ -8481,51 +8483,51 @@
       </c>
       <c r="K215" s="35"/>
     </row>
-    <row r="216" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
+      <c r="B216" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>765</v>
+      </c>
       <c r="D216" s="35"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="60"/>
+      <c r="E216" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F216" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G216" s="35"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="24"/>
+      <c r="H216" s="29"/>
+      <c r="I216" s="19">
+        <v>1</v>
+      </c>
+      <c r="J216" s="20">
+        <v>0</v>
+      </c>
       <c r="K216" s="35"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
-      <c r="B217" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="35"/>
-      <c r="E217" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F217" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E217" s="32"/>
+      <c r="F217" s="60"/>
       <c r="G217" s="35"/>
-      <c r="H217" s="29"/>
-      <c r="I217" s="19">
-        <v>1</v>
-      </c>
-      <c r="J217" s="20">
-        <v>0</v>
-      </c>
+      <c r="H217" s="32"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="24"/>
       <c r="K217" s="35"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29">
@@ -8547,10 +8549,10 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29">
@@ -8572,10 +8574,10 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29">
@@ -8597,10 +8599,10 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
@@ -8621,64 +8623,62 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="D222" s="35"/>
-      <c r="E222" s="29"/>
-      <c r="F222" s="58"/>
+      <c r="E222" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F222" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G222" s="35"/>
       <c r="H222" s="29"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="I222" s="19">
+        <v>1</v>
+      </c>
+      <c r="J222" s="20">
+        <v>0</v>
+      </c>
       <c r="K222" s="35"/>
     </row>
-    <row r="223" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="10"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="4"/>
       <c r="D223" s="35"/>
-      <c r="E223" s="30"/>
-      <c r="F223" s="59"/>
+      <c r="E223" s="29"/>
+      <c r="F223" s="58"/>
       <c r="G223" s="35"/>
-      <c r="H223" s="30"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="22"/>
+      <c r="H223" s="29"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
       <c r="K223" s="35"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
-      <c r="B224" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B224" s="9"/>
+      <c r="C224" s="10"/>
       <c r="D224" s="35"/>
-      <c r="E224" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F224" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E224" s="30"/>
+      <c r="F224" s="59"/>
       <c r="G224" s="35"/>
-      <c r="H224" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I224" s="19">
-        <v>1</v>
-      </c>
-      <c r="J224" s="20">
-        <v>1</v>
-      </c>
+      <c r="H224" s="30"/>
+      <c r="I224" s="21"/>
+      <c r="J224" s="22"/>
       <c r="K224" s="35"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="G225" s="35"/>
       <c r="H225" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I225" s="19">
         <v>1</v>
@@ -8702,10 +8702,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29">
@@ -8729,10 +8729,10 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29">
@@ -8756,10 +8756,10 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29">
@@ -8783,10 +8783,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
@@ -8810,10 +8810,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29">
@@ -8837,10 +8837,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29">
@@ -8864,10 +8864,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
@@ -8891,10 +8891,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -8918,10 +8918,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -8945,10 +8945,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -8972,10 +8972,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -8999,10 +8999,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9026,10 +9026,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9053,10 +9053,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9080,10 +9080,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9107,10 +9107,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9134,10 +9134,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29">
@@ -9161,10 +9161,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29">
@@ -9187,54 +9187,64 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="4"/>
+      <c r="B244" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D244" s="35"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="58"/>
+      <c r="E244" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F244" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G244" s="35"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
+      <c r="H244" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I244" s="19">
+        <v>1</v>
+      </c>
+      <c r="J244" s="20">
+        <v>1</v>
+      </c>
       <c r="K244" s="35"/>
     </row>
-    <row r="245" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="10"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="35"/>
-      <c r="E245" s="30"/>
-      <c r="F245" s="59"/>
+      <c r="E245" s="29"/>
+      <c r="F245" s="58"/>
       <c r="G245" s="35"/>
-      <c r="H245" s="30"/>
-      <c r="I245" s="21"/>
-      <c r="J245" s="22"/>
+      <c r="H245" s="29"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
       <c r="K245" s="35"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
-      <c r="B246" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>830</v>
-      </c>
+      <c r="B246" s="9"/>
+      <c r="C246" s="10"/>
       <c r="D246" s="35"/>
-      <c r="E246" s="29"/>
-      <c r="F246" s="58"/>
+      <c r="E246" s="30"/>
+      <c r="F246" s="59"/>
       <c r="G246" s="35"/>
-      <c r="H246" s="29"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="22"/>
       <c r="K246" s="35"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29"/>
@@ -9248,10 +9258,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29"/>
@@ -9265,10 +9275,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29"/>
@@ -9282,69 +9292,65 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D250" s="35"/>
-      <c r="E250" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F250" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E250" s="29"/>
+      <c r="F250" s="58"/>
       <c r="G250" s="35"/>
       <c r="H250" s="29"/>
       <c r="I250" s="19"/>
       <c r="J250" s="20"/>
       <c r="K250" s="35"/>
     </row>
-    <row r="251" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
+      <c r="B251" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>837</v>
+      </c>
       <c r="D251" s="35"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="60"/>
+      <c r="E251" s="29">
+        <v>44400</v>
+      </c>
+      <c r="F251" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G251" s="35"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="24"/>
+      <c r="H251" s="29"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
       <c r="K251" s="35"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F252" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E252" s="32"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="35"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="24"/>
       <c r="K252" s="35"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
-        <v>44349</v>
+        <v>44243</v>
       </c>
       <c r="F253" s="58" t="s">
         <v>627</v>
@@ -9358,14 +9364,14 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="F254" s="58" t="s">
         <v>627</v>
@@ -9379,10 +9385,10 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29">
@@ -9400,14 +9406,14 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F256" s="58" t="s">
         <v>627</v>
@@ -9421,14 +9427,14 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29">
-        <v>44362</v>
+        <v>44243</v>
       </c>
       <c r="F257" s="58" t="s">
         <v>627</v>
@@ -9439,51 +9445,51 @@
       <c r="J257" s="20"/>
       <c r="K257" s="35"/>
     </row>
-    <row r="258" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12"/>
+      <c r="B258" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="60"/>
+      <c r="E258" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F258" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G258" s="35"/>
-      <c r="H258" s="32"/>
-      <c r="I258" s="23"/>
-      <c r="J258" s="24"/>
+      <c r="H258" s="29"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
       <c r="K258" s="35"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
-      <c r="B259" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12"/>
       <c r="D259" s="35"/>
-      <c r="E259" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F259" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E259" s="32"/>
+      <c r="F259" s="60"/>
       <c r="G259" s="35"/>
-      <c r="H259" s="29"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
+      <c r="H259" s="32"/>
+      <c r="I259" s="23"/>
+      <c r="J259" s="24"/>
       <c r="K259" s="35"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F260" s="58" t="s">
         <v>627</v>
@@ -9494,51 +9500,47 @@
       <c r="J260" s="20"/>
       <c r="K260" s="35"/>
     </row>
-    <row r="261" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12"/>
+      <c r="B261" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="60"/>
+      <c r="E261" s="29">
+        <v>44343</v>
+      </c>
+      <c r="F261" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G261" s="35"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="23"/>
-      <c r="J261" s="24"/>
+      <c r="H261" s="29"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
       <c r="K261" s="35"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
-      <c r="B262" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12"/>
       <c r="D262" s="35"/>
-      <c r="E262" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F262" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E262" s="32"/>
+      <c r="F262" s="60"/>
       <c r="G262" s="35"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="19">
-        <v>1</v>
-      </c>
-      <c r="J262" s="20">
-        <v>0</v>
-      </c>
+      <c r="H262" s="32"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="24"/>
       <c r="K262" s="35"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
@@ -9560,10 +9562,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
@@ -9585,14 +9587,14 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>737</v>
+        <v>484</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>738</v>
+        <v>15</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
-        <v>44383</v>
+        <v>44148</v>
       </c>
       <c r="F265" s="58" t="s">
         <v>627</v>
@@ -9610,14 +9612,14 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>485</v>
+        <v>737</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>16</v>
+        <v>738</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F266" s="58" t="s">
         <v>627</v>
@@ -9635,10 +9637,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
@@ -9660,10 +9662,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29">
@@ -9685,10 +9687,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29">
@@ -9710,10 +9712,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
@@ -9735,10 +9737,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29">
@@ -9760,10 +9762,10 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29">
@@ -9785,10 +9787,10 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
@@ -9810,10 +9812,10 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
@@ -9835,10 +9837,10 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
@@ -9860,10 +9862,10 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
@@ -9885,10 +9887,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9910,10 +9912,10 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>28</v>
+        <v>496</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
@@ -9935,10 +9937,10 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>29</v>
+        <v>497</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
@@ -9960,10 +9962,10 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
@@ -9985,10 +9987,10 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
@@ -10007,51 +10009,55 @@
       </c>
       <c r="K281" s="35"/>
     </row>
-    <row r="282" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12"/>
+      <c r="B282" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D282" s="35"/>
-      <c r="E282" s="32"/>
-      <c r="F282" s="60"/>
+      <c r="E282" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F282" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G282" s="35"/>
-      <c r="H282" s="32"/>
-      <c r="I282" s="23"/>
-      <c r="J282" s="24"/>
+      <c r="H282" s="29"/>
+      <c r="I282" s="19">
+        <v>1</v>
+      </c>
+      <c r="J282" s="20">
+        <v>0</v>
+      </c>
       <c r="K282" s="35"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
-      <c r="B283" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="B283" s="11"/>
+      <c r="C283" s="12"/>
       <c r="D283" s="35"/>
-      <c r="E283" s="29">
-        <v>44343</v>
-      </c>
-      <c r="F283" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E283" s="32"/>
+      <c r="F283" s="60"/>
       <c r="G283" s="35"/>
-      <c r="H283" s="29"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="20"/>
+      <c r="H283" s="32"/>
+      <c r="I283" s="23"/>
+      <c r="J283" s="24"/>
       <c r="K283" s="35"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
-        <v>43978</v>
+        <v>44343</v>
       </c>
       <c r="F284" s="58" t="s">
         <v>627</v>
@@ -10062,51 +10068,51 @@
       <c r="J284" s="20"/>
       <c r="K284" s="35"/>
     </row>
-    <row r="285" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12"/>
+      <c r="B285" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D285" s="35"/>
-      <c r="E285" s="32"/>
-      <c r="F285" s="60"/>
+      <c r="E285" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F285" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G285" s="35"/>
-      <c r="H285" s="32"/>
-      <c r="I285" s="23"/>
-      <c r="J285" s="24"/>
+      <c r="H285" s="29"/>
+      <c r="I285" s="19"/>
+      <c r="J285" s="20"/>
       <c r="K285" s="35"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
-      <c r="B286" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12"/>
       <c r="D286" s="35"/>
-      <c r="E286" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F286" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E286" s="32"/>
+      <c r="F286" s="60"/>
       <c r="G286" s="35"/>
-      <c r="H286" s="29"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="20"/>
+      <c r="H286" s="32"/>
+      <c r="I286" s="23"/>
+      <c r="J286" s="24"/>
       <c r="K286" s="35"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
-        <v>44148</v>
+        <v>43978</v>
       </c>
       <c r="F287" s="58" t="s">
         <v>627</v>
@@ -10119,58 +10125,58 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="4"/>
+      <c r="B288" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D288" s="35"/>
-      <c r="E288" s="29"/>
-      <c r="F288" s="58"/>
+      <c r="E288" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F288" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G288" s="35"/>
       <c r="H288" s="29"/>
       <c r="I288" s="19"/>
       <c r="J288" s="20"/>
       <c r="K288" s="35"/>
     </row>
-    <row r="289" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="10"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="4"/>
       <c r="D289" s="35"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="59"/>
+      <c r="E289" s="29"/>
+      <c r="F289" s="58"/>
       <c r="G289" s="35"/>
-      <c r="H289" s="30"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="22"/>
+      <c r="H289" s="29"/>
+      <c r="I289" s="19"/>
+      <c r="J289" s="20"/>
       <c r="K289" s="35"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
-      <c r="B290" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="B290" s="9"/>
+      <c r="C290" s="10"/>
       <c r="D290" s="35"/>
-      <c r="E290" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F290" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E290" s="30"/>
+      <c r="F290" s="59"/>
       <c r="G290" s="35"/>
-      <c r="H290" s="29"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="22"/>
       <c r="K290" s="35"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
@@ -10188,10 +10194,10 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
@@ -10206,47 +10212,47 @@
       <c r="J292" s="20"/>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
+      <c r="B293" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="D293" s="35"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="60"/>
+      <c r="E293" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F293" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G293" s="35"/>
-      <c r="H293" s="32"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="24"/>
+      <c r="H293" s="29"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
       <c r="K293" s="35"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
-      <c r="B294" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="35"/>
-      <c r="E294" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F294" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E294" s="32"/>
+      <c r="F294" s="60"/>
       <c r="G294" s="35"/>
-      <c r="H294" s="29"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="H294" s="32"/>
+      <c r="I294" s="23"/>
+      <c r="J294" s="24"/>
       <c r="K294" s="35"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
@@ -10264,10 +10270,10 @@
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
       <c r="B296" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D296" s="35"/>
       <c r="E296" s="29">
@@ -10285,10 +10291,10 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
       <c r="B297" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="29">
@@ -10306,10 +10312,10 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
@@ -10327,10 +10333,10 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
       <c r="B299" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D299" s="35"/>
       <c r="E299" s="29">
@@ -10345,47 +10351,47 @@
       <c r="J299" s="20"/>
       <c r="K299" s="35"/>
     </row>
-    <row r="300" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12"/>
+      <c r="B300" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D300" s="35"/>
-      <c r="E300" s="32"/>
-      <c r="F300" s="60"/>
+      <c r="E300" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F300" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G300" s="35"/>
-      <c r="H300" s="32"/>
-      <c r="I300" s="23"/>
-      <c r="J300" s="24"/>
+      <c r="H300" s="29"/>
+      <c r="I300" s="19"/>
+      <c r="J300" s="20"/>
       <c r="K300" s="35"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
-      <c r="B301" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>470</v>
-      </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="12"/>
       <c r="D301" s="35"/>
-      <c r="E301" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F301" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E301" s="32"/>
+      <c r="F301" s="60"/>
       <c r="G301" s="35"/>
-      <c r="H301" s="29"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
+      <c r="H301" s="32"/>
+      <c r="I301" s="23"/>
+      <c r="J301" s="24"/>
       <c r="K301" s="35"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
@@ -10400,47 +10406,47 @@
       <c r="J302" s="20"/>
       <c r="K302" s="35"/>
     </row>
-    <row r="303" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="12"/>
+      <c r="B303" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D303" s="35"/>
-      <c r="E303" s="32"/>
-      <c r="F303" s="60"/>
+      <c r="E303" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F303" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G303" s="35"/>
-      <c r="H303" s="32"/>
-      <c r="I303" s="23"/>
-      <c r="J303" s="24"/>
+      <c r="H303" s="29"/>
+      <c r="I303" s="19"/>
+      <c r="J303" s="20"/>
       <c r="K303" s="35"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
-      <c r="B304" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="B304" s="11"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="35"/>
-      <c r="E304" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F304" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E304" s="32"/>
+      <c r="F304" s="60"/>
       <c r="G304" s="35"/>
-      <c r="H304" s="29"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
+      <c r="H304" s="32"/>
+      <c r="I304" s="23"/>
+      <c r="J304" s="24"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
@@ -10455,51 +10461,47 @@
       <c r="J305" s="20"/>
       <c r="K305" s="35"/>
     </row>
-    <row r="306" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="12"/>
+      <c r="B306" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="D306" s="35"/>
-      <c r="E306" s="32"/>
-      <c r="F306" s="60"/>
+      <c r="E306" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F306" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G306" s="35"/>
-      <c r="H306" s="32"/>
-      <c r="I306" s="23"/>
-      <c r="J306" s="24"/>
+      <c r="H306" s="29"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="20"/>
       <c r="K306" s="35"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
-      <c r="B307" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B307" s="11"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="35"/>
-      <c r="E307" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F307" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E307" s="32"/>
+      <c r="F307" s="60"/>
       <c r="G307" s="35"/>
-      <c r="H307" s="29"/>
-      <c r="I307" s="19">
-        <v>1</v>
-      </c>
-      <c r="J307" s="20">
-        <v>0</v>
-      </c>
+      <c r="H307" s="32"/>
+      <c r="I307" s="23"/>
+      <c r="J307" s="24"/>
       <c r="K307" s="35"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
       <c r="B308" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D308" s="35"/>
       <c r="E308" s="29">
@@ -10521,31 +10523,35 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>596</v>
+        <v>512</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F309" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G309" s="35"/>
       <c r="H309" s="29"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
+      <c r="I309" s="19">
+        <v>1</v>
+      </c>
+      <c r="J309" s="20">
+        <v>0</v>
+      </c>
       <c r="K309" s="35"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
       <c r="B310" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D310" s="35"/>
       <c r="E310" s="29">
@@ -10563,39 +10569,35 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
       <c r="B311" s="7" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D311" s="35"/>
       <c r="E311" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F311" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G311" s="35"/>
       <c r="H311" s="29"/>
-      <c r="I311" s="19">
-        <v>1</v>
-      </c>
-      <c r="J311" s="20">
-        <v>0</v>
-      </c>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
       <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F312" s="58" t="s">
         <v>627</v>
@@ -10613,14 +10615,14 @@
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F313" s="58" t="s">
         <v>627</v>
@@ -10638,14 +10640,14 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
       <c r="B314" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D314" s="35"/>
       <c r="E314" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F314" s="58" t="s">
         <v>627</v>
@@ -10663,14 +10665,14 @@
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F315" s="58" t="s">
         <v>627</v>
@@ -10688,10 +10690,10 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
       <c r="B316" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D316" s="35"/>
       <c r="E316" s="29">
@@ -10713,10 +10715,10 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
@@ -10738,10 +10740,10 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
@@ -10763,10 +10765,10 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
@@ -10788,14 +10790,14 @@
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>733</v>
+        <v>520</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>735</v>
+        <v>611</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F320" s="58" t="s">
         <v>627</v>
@@ -10813,10 +10815,10 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
@@ -10838,10 +10840,10 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
@@ -10852,17 +10854,21 @@
       </c>
       <c r="G322" s="35"/>
       <c r="H322" s="29"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
+      <c r="I322" s="19">
+        <v>1</v>
+      </c>
+      <c r="J322" s="20">
+        <v>0</v>
+      </c>
       <c r="K322" s="35"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
@@ -10880,10 +10886,10 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
@@ -10901,39 +10907,35 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>521</v>
+        <v>741</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>612</v>
+        <v>744</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G325" s="35"/>
       <c r="H325" s="29"/>
-      <c r="I325" s="19">
-        <v>1</v>
-      </c>
-      <c r="J325" s="20">
-        <v>0</v>
-      </c>
+      <c r="I325" s="19"/>
+      <c r="J325" s="20"/>
       <c r="K325" s="35"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>725</v>
+        <v>521</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F326" s="58" t="s">
         <v>627</v>
@@ -10951,10 +10953,10 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
@@ -10965,17 +10967,21 @@
       </c>
       <c r="G327" s="35"/>
       <c r="H327" s="29"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
+      <c r="I327" s="19">
+        <v>1</v>
+      </c>
+      <c r="J327" s="20">
+        <v>0</v>
+      </c>
       <c r="K327" s="35"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
@@ -10993,10 +10999,10 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
@@ -11014,35 +11020,31 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>522</v>
+        <v>730</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>613</v>
+        <v>732</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F330" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G330" s="35"/>
       <c r="H330" s="29"/>
-      <c r="I330" s="19">
-        <v>1</v>
-      </c>
-      <c r="J330" s="20">
-        <v>0</v>
-      </c>
+      <c r="I330" s="19"/>
+      <c r="J330" s="20"/>
       <c r="K330" s="35"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
@@ -11064,10 +11066,10 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
@@ -11089,10 +11091,10 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
@@ -11114,14 +11116,14 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>617</v>
+        <v>525</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F334" s="58" t="s">
         <v>627</v>
@@ -11139,10 +11141,10 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>618</v>
+        <v>526</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
@@ -11164,10 +11166,10 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
@@ -11189,14 +11191,14 @@
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="F337" s="58" t="s">
         <v>627</v>
@@ -11211,47 +11213,51 @@
       </c>
       <c r="K337" s="35"/>
     </row>
-    <row r="338" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
-      <c r="B338" s="11"/>
-      <c r="C338" s="12"/>
+      <c r="B338" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="D338" s="35"/>
-      <c r="E338" s="32"/>
-      <c r="F338" s="60"/>
+      <c r="E338" s="29">
+        <v>44369</v>
+      </c>
+      <c r="F338" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G338" s="35"/>
-      <c r="H338" s="32"/>
-      <c r="I338" s="23"/>
-      <c r="J338" s="24"/>
+      <c r="H338" s="29"/>
+      <c r="I338" s="19">
+        <v>1</v>
+      </c>
+      <c r="J338" s="20">
+        <v>0</v>
+      </c>
       <c r="K338" s="35"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
-      <c r="B339" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="C339" s="4" t="s">
-        <v>748</v>
-      </c>
+      <c r="B339" s="11"/>
+      <c r="C339" s="12"/>
       <c r="D339" s="35"/>
-      <c r="E339" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F339" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E339" s="32"/>
+      <c r="F339" s="60"/>
       <c r="G339" s="35"/>
-      <c r="H339" s="29"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
+      <c r="H339" s="32"/>
+      <c r="I339" s="23"/>
+      <c r="J339" s="24"/>
       <c r="K339" s="35"/>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
@@ -11269,14 +11275,14 @@
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>550</v>
+        <v>746</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>552</v>
+        <v>747</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F341" s="58" t="s">
         <v>627</v>
@@ -11290,10 +11296,10 @@
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
@@ -11308,47 +11314,47 @@
       <c r="J342" s="20"/>
       <c r="K342" s="35"/>
     </row>
-    <row r="343" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
-      <c r="B343" s="11"/>
-      <c r="C343" s="12"/>
+      <c r="B343" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D343" s="35"/>
-      <c r="E343" s="32"/>
-      <c r="F343" s="60"/>
+      <c r="E343" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F343" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G343" s="35"/>
-      <c r="H343" s="32"/>
-      <c r="I343" s="23"/>
-      <c r="J343" s="24"/>
+      <c r="H343" s="29"/>
+      <c r="I343" s="19"/>
+      <c r="J343" s="20"/>
       <c r="K343" s="35"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
-      <c r="B344" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>554</v>
-      </c>
+      <c r="B344" s="11"/>
+      <c r="C344" s="12"/>
       <c r="D344" s="35"/>
-      <c r="E344" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F344" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E344" s="32"/>
+      <c r="F344" s="60"/>
       <c r="G344" s="35"/>
-      <c r="H344" s="29"/>
-      <c r="I344" s="19"/>
-      <c r="J344" s="20"/>
+      <c r="H344" s="32"/>
+      <c r="I344" s="23"/>
+      <c r="J344" s="24"/>
       <c r="K344" s="35"/>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
@@ -11366,10 +11372,10 @@
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
@@ -11384,54 +11390,47 @@
       <c r="J346" s="20"/>
       <c r="K346" s="35"/>
     </row>
-    <row r="347" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
-      <c r="B347" s="11"/>
-      <c r="C347" s="12"/>
+      <c r="B347" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D347" s="35"/>
-      <c r="E347" s="32"/>
-      <c r="F347" s="60"/>
+      <c r="E347" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F347" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G347" s="35"/>
-      <c r="H347" s="32"/>
-      <c r="I347" s="23"/>
-      <c r="J347" s="24"/>
+      <c r="H347" s="29"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="20"/>
       <c r="K347" s="35"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
-      <c r="B348" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>772</v>
-      </c>
+      <c r="B348" s="11"/>
+      <c r="C348" s="12"/>
       <c r="D348" s="35"/>
-      <c r="E348" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F348" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E348" s="32"/>
+      <c r="F348" s="60"/>
       <c r="G348" s="35"/>
-      <c r="H348" s="29"/>
-      <c r="I348" s="19">
-        <v>1</v>
-      </c>
-      <c r="J348" s="20">
-        <v>0</v>
-      </c>
+      <c r="H348" s="32"/>
+      <c r="I348" s="23"/>
+      <c r="J348" s="24"/>
       <c r="K348" s="35"/>
-      <c r="L348" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
@@ -11456,10 +11455,10 @@
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
       <c r="B350" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
@@ -11484,10 +11483,10 @@
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
@@ -11512,14 +11511,14 @@
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C352" s="14" t="s">
-        <v>771</v>
+        <v>549</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F352" s="58" t="s">
         <v>627</v>
@@ -11537,60 +11536,67 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
-      <c r="B353" s="7"/>
-      <c r="C353" s="4"/>
+      <c r="B353" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C353" s="14" t="s">
+        <v>771</v>
+      </c>
       <c r="D353" s="35"/>
-      <c r="E353" s="29"/>
-      <c r="F353" s="58"/>
+      <c r="E353" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F353" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G353" s="35"/>
       <c r="H353" s="29"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="20"/>
+      <c r="I353" s="19">
+        <v>1</v>
+      </c>
+      <c r="J353" s="20">
+        <v>0</v>
+      </c>
       <c r="K353" s="35"/>
-    </row>
-    <row r="354" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L353" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="9"/>
-      <c r="C354" s="10"/>
+      <c r="B354" s="7"/>
+      <c r="C354" s="4"/>
       <c r="D354" s="35"/>
-      <c r="E354" s="30"/>
-      <c r="F354" s="59"/>
+      <c r="E354" s="29"/>
+      <c r="F354" s="58"/>
       <c r="G354" s="35"/>
-      <c r="H354" s="30"/>
-      <c r="I354" s="21"/>
-      <c r="J354" s="22"/>
+      <c r="H354" s="29"/>
+      <c r="I354" s="19"/>
+      <c r="J354" s="20"/>
       <c r="K354" s="35"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
-      <c r="B355" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="B355" s="9"/>
+      <c r="C355" s="10"/>
       <c r="D355" s="35"/>
-      <c r="E355" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F355" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E355" s="30"/>
+      <c r="F355" s="59"/>
       <c r="G355" s="35"/>
-      <c r="H355" s="29"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
+      <c r="H355" s="30"/>
+      <c r="I355" s="21"/>
+      <c r="J355" s="22"/>
       <c r="K355" s="35"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
@@ -11605,13 +11611,13 @@
       <c r="J356" s="20"/>
       <c r="K356" s="35"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11626,93 +11632,89 @@
       <c r="J357" s="20"/>
       <c r="K357" s="35"/>
     </row>
-    <row r="358" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
-      <c r="B358" s="11"/>
-      <c r="C358" s="12"/>
+      <c r="B358" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D358" s="35"/>
-      <c r="E358" s="32"/>
-      <c r="F358" s="60"/>
+      <c r="E358" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F358" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G358" s="35"/>
-      <c r="H358" s="32"/>
-      <c r="I358" s="23"/>
-      <c r="J358" s="24"/>
+      <c r="H358" s="29"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="20"/>
       <c r="K358" s="35"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="11"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="35"/>
+      <c r="E359" s="32"/>
+      <c r="F359" s="60"/>
+      <c r="G359" s="35"/>
+      <c r="H359" s="32"/>
+      <c r="I359" s="23"/>
+      <c r="J359" s="24"/>
+      <c r="K359" s="35"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="35"/>
+      <c r="B360" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="C359" s="4" t="s">
+      <c r="C360" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D359" s="35"/>
-      <c r="E359" s="29">
+      <c r="D360" s="35"/>
+      <c r="E360" s="29">
         <v>44319</v>
       </c>
-      <c r="F359" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G359" s="35"/>
-      <c r="H359" s="29"/>
-      <c r="I359" s="19">
-        <v>1</v>
-      </c>
-      <c r="J359" s="20">
-        <v>0</v>
-      </c>
-      <c r="K359" s="35"/>
-    </row>
-    <row r="360" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="35"/>
-      <c r="B360" s="11"/>
-      <c r="C360" s="12"/>
-      <c r="D360" s="35"/>
-      <c r="E360" s="32"/>
-      <c r="F360" s="60"/>
+      <c r="F360" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G360" s="35"/>
-      <c r="H360" s="32"/>
-      <c r="I360" s="23"/>
-      <c r="J360" s="24"/>
+      <c r="H360" s="29"/>
+      <c r="I360" s="19">
+        <v>1</v>
+      </c>
+      <c r="J360" s="20">
+        <v>0</v>
+      </c>
       <c r="K360" s="35"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
-      <c r="B361" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B361" s="11"/>
+      <c r="C361" s="12"/>
       <c r="D361" s="35"/>
-      <c r="E361" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F361" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E361" s="32"/>
+      <c r="F361" s="60"/>
       <c r="G361" s="35"/>
-      <c r="H361" s="29"/>
-      <c r="I361" s="19">
-        <v>1</v>
-      </c>
-      <c r="J361" s="20">
-        <v>0</v>
-      </c>
+      <c r="H361" s="32"/>
+      <c r="I361" s="23"/>
+      <c r="J361" s="24"/>
       <c r="K361" s="35"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="7" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
-        <v>44245</v>
+        <v>44151</v>
       </c>
       <c r="F362" s="58" t="s">
         <v>627</v>
@@ -11727,17 +11729,17 @@
       </c>
       <c r="K362" s="35"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
@@ -11752,17 +11754,17 @@
       </c>
       <c r="K363" s="35"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="F364" s="58" t="s">
         <v>627</v>
@@ -11777,76 +11779,80 @@
       </c>
       <c r="K364" s="35"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C365" s="45" t="s">
-        <v>429</v>
+      <c r="B365" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
+        <v>44230</v>
+      </c>
+      <c r="F365" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G365" s="35"/>
+      <c r="H365" s="29"/>
+      <c r="I365" s="19">
+        <v>1</v>
+      </c>
+      <c r="J365" s="20">
+        <v>0</v>
+      </c>
+      <c r="K365" s="35"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="35"/>
+      <c r="B366" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C366" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="D366" s="35"/>
+      <c r="E366" s="29">
         <v>44264</v>
       </c>
-      <c r="F365" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G365" s="46"/>
-      <c r="H365" s="47"/>
-      <c r="I365" s="48">
-        <v>1</v>
-      </c>
-      <c r="J365" s="49">
-        <v>0</v>
-      </c>
-      <c r="K365" s="35"/>
-    </row>
-    <row r="366" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="35"/>
-      <c r="B366" s="11"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="35"/>
-      <c r="E366" s="32"/>
-      <c r="F366" s="60"/>
-      <c r="G366" s="35"/>
-      <c r="H366" s="32"/>
-      <c r="I366" s="23"/>
-      <c r="J366" s="24"/>
+      <c r="F366" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G366" s="46"/>
+      <c r="H366" s="47"/>
+      <c r="I366" s="48">
+        <v>1</v>
+      </c>
+      <c r="J366" s="49">
+        <v>0</v>
+      </c>
       <c r="K366" s="35"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
-      <c r="B367" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B367" s="11"/>
+      <c r="C367" s="12"/>
       <c r="D367" s="35"/>
-      <c r="E367" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F367" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E367" s="32"/>
+      <c r="F367" s="60"/>
       <c r="G367" s="35"/>
-      <c r="H367" s="29"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="20"/>
+      <c r="H367" s="32"/>
+      <c r="I367" s="23"/>
+      <c r="J367" s="24"/>
       <c r="K367" s="35"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
       <c r="B368" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F368" s="58" t="s">
         <v>627</v>
@@ -11860,14 +11866,14 @@
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
       <c r="B369" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D369" s="35"/>
       <c r="E369" s="29">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="F369" s="58" t="s">
         <v>627</v>
@@ -11881,14 +11887,14 @@
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
       <c r="B370" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D370" s="35"/>
       <c r="E370" s="29">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F370" s="58" t="s">
         <v>627</v>
@@ -11899,136 +11905,132 @@
       <c r="J370" s="20"/>
       <c r="K370" s="35"/>
     </row>
-    <row r="371" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="12"/>
+      <c r="B371" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D371" s="35"/>
-      <c r="E371" s="32"/>
-      <c r="F371" s="60"/>
+      <c r="E371" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F371" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G371" s="35"/>
-      <c r="H371" s="32"/>
-      <c r="I371" s="23"/>
-      <c r="J371" s="24"/>
+      <c r="H371" s="29"/>
+      <c r="I371" s="19"/>
+      <c r="J371" s="20"/>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B372" s="11"/>
+      <c r="C372" s="12"/>
       <c r="D372" s="35"/>
-      <c r="E372" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F372" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E372" s="32"/>
+      <c r="F372" s="60"/>
       <c r="G372" s="35"/>
-      <c r="H372" s="29"/>
-      <c r="I372" s="19">
-        <v>1</v>
-      </c>
-      <c r="J372" s="20">
-        <v>0</v>
-      </c>
+      <c r="H372" s="32"/>
+      <c r="I372" s="23"/>
+      <c r="J372" s="24"/>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44258</v>
+        <v>44151</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="20"/>
+      <c r="I373" s="19">
+        <v>1</v>
+      </c>
+      <c r="J373" s="20">
+        <v>0</v>
+      </c>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="12"/>
+      <c r="B374" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D374" s="35"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="60"/>
+      <c r="E374" s="29">
+        <v>44258</v>
+      </c>
+      <c r="F374" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G374" s="35"/>
-      <c r="H374" s="32"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
+      <c r="H374" s="29"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="20"/>
       <c r="K374" s="35"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="7"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="11"/>
+      <c r="C375" s="12"/>
       <c r="D375" s="35"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="58"/>
+      <c r="E375" s="32"/>
+      <c r="F375" s="60"/>
       <c r="G375" s="35"/>
-      <c r="H375" s="29"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
+      <c r="H375" s="32"/>
+      <c r="I375" s="23"/>
+      <c r="J375" s="24"/>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="9"/>
-      <c r="C376" s="10"/>
+      <c r="B376" s="7"/>
+      <c r="C376" s="4"/>
       <c r="D376" s="35"/>
-      <c r="E376" s="30"/>
-      <c r="F376" s="59"/>
+      <c r="E376" s="29"/>
+      <c r="F376" s="58"/>
       <c r="G376" s="35"/>
-      <c r="H376" s="30"/>
-      <c r="I376" s="21"/>
-      <c r="J376" s="22"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="20"/>
       <c r="K376" s="35"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
-      <c r="B377" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="B377" s="9"/>
+      <c r="C377" s="10"/>
       <c r="D377" s="35"/>
-      <c r="E377" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F377" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E377" s="30"/>
+      <c r="F377" s="59"/>
       <c r="G377" s="35"/>
-      <c r="H377" s="29"/>
-      <c r="I377" s="19">
-        <v>1</v>
-      </c>
-      <c r="J377" s="20">
-        <v>0</v>
-      </c>
+      <c r="H377" s="30"/>
+      <c r="I377" s="21"/>
+      <c r="J377" s="22"/>
       <c r="K377" s="35"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
@@ -12050,10 +12052,10 @@
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
       <c r="B379" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D379" s="35"/>
       <c r="E379" s="29">
@@ -12075,10 +12077,10 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
@@ -12100,10 +12102,10 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
@@ -12122,51 +12124,55 @@
       </c>
       <c r="K381" s="35"/>
     </row>
-    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="12"/>
+      <c r="B382" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="D382" s="35"/>
-      <c r="E382" s="32"/>
-      <c r="F382" s="60"/>
+      <c r="E382" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F382" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G382" s="35"/>
-      <c r="H382" s="32"/>
-      <c r="I382" s="23"/>
-      <c r="J382" s="24"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="19">
+        <v>1</v>
+      </c>
+      <c r="J382" s="20">
+        <v>0</v>
+      </c>
       <c r="K382" s="35"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
-      <c r="B383" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>649</v>
-      </c>
+      <c r="B383" s="11"/>
+      <c r="C383" s="12"/>
       <c r="D383" s="35"/>
-      <c r="E383" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F383" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E383" s="32"/>
+      <c r="F383" s="60"/>
       <c r="G383" s="35"/>
-      <c r="H383" s="29"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="20"/>
+      <c r="H383" s="32"/>
+      <c r="I383" s="23"/>
+      <c r="J383" s="24"/>
       <c r="K383" s="35"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>460</v>
+        <v>649</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F384" s="58" t="s">
         <v>627</v>
@@ -12180,14 +12186,14 @@
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
       <c r="B385" s="7" t="s">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>651</v>
+        <v>460</v>
       </c>
       <c r="D385" s="35"/>
       <c r="E385" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F385" s="58" t="s">
         <v>627</v>
@@ -12201,10 +12207,10 @@
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
       <c r="B386" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D386" s="35"/>
       <c r="E386" s="29">
@@ -12222,14 +12228,14 @@
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
       <c r="B387" s="7" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>453</v>
+        <v>653</v>
       </c>
       <c r="D387" s="35"/>
       <c r="E387" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F387" s="58" t="s">
         <v>627</v>
@@ -12243,10 +12249,10 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
@@ -12261,51 +12267,47 @@
       <c r="J388" s="20"/>
       <c r="K388" s="35"/>
     </row>
-    <row r="389" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="12"/>
+      <c r="B389" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D389" s="35"/>
-      <c r="E389" s="32"/>
-      <c r="F389" s="60"/>
+      <c r="E389" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F389" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G389" s="35"/>
-      <c r="H389" s="32"/>
-      <c r="I389" s="23"/>
-      <c r="J389" s="24"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="19"/>
+      <c r="J389" s="20"/>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="B390" s="11"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="35"/>
-      <c r="E390" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F390" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E390" s="32"/>
+      <c r="F390" s="60"/>
       <c r="G390" s="35"/>
-      <c r="H390" s="29"/>
-      <c r="I390" s="19">
-        <v>1</v>
-      </c>
-      <c r="J390" s="20">
-        <v>0</v>
-      </c>
+      <c r="H390" s="32"/>
+      <c r="I390" s="23"/>
+      <c r="J390" s="24"/>
       <c r="K390" s="35"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
       <c r="B391" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D391" s="35"/>
       <c r="E391" s="29">
@@ -12316,17 +12318,21 @@
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="19"/>
-      <c r="J391" s="20"/>
+      <c r="I391" s="19">
+        <v>1</v>
+      </c>
+      <c r="J391" s="20">
+        <v>0</v>
+      </c>
       <c r="K391" s="35"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
       <c r="B392" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D392" s="35"/>
       <c r="E392" s="29">
@@ -12341,51 +12347,47 @@
       <c r="J392" s="20"/>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="11"/>
-      <c r="C393" s="12"/>
+      <c r="B393" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D393" s="35"/>
-      <c r="E393" s="32"/>
-      <c r="F393" s="60"/>
+      <c r="E393" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F393" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G393" s="35"/>
-      <c r="H393" s="32"/>
-      <c r="I393" s="23"/>
-      <c r="J393" s="24"/>
+      <c r="H393" s="29"/>
+      <c r="I393" s="19"/>
+      <c r="J393" s="20"/>
       <c r="K393" s="35"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
-      <c r="B394" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>662</v>
-      </c>
+      <c r="B394" s="11"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="35"/>
-      <c r="E394" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F394" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E394" s="32"/>
+      <c r="F394" s="60"/>
       <c r="G394" s="35"/>
-      <c r="H394" s="29"/>
-      <c r="I394" s="19">
-        <v>1</v>
-      </c>
-      <c r="J394" s="20">
-        <v>0</v>
-      </c>
+      <c r="H394" s="32"/>
+      <c r="I394" s="23"/>
+      <c r="J394" s="24"/>
       <c r="K394" s="35"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
@@ -12404,51 +12406,51 @@
       </c>
       <c r="K395" s="35"/>
     </row>
-    <row r="396" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
-      <c r="B396" s="11"/>
-      <c r="C396" s="12"/>
+      <c r="B396" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="D396" s="35"/>
-      <c r="E396" s="32"/>
-      <c r="F396" s="60"/>
+      <c r="E396" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F396" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G396" s="35"/>
-      <c r="H396" s="32"/>
-      <c r="I396" s="23"/>
-      <c r="J396" s="24"/>
+      <c r="H396" s="29"/>
+      <c r="I396" s="19">
+        <v>1</v>
+      </c>
+      <c r="J396" s="20">
+        <v>0</v>
+      </c>
       <c r="K396" s="35"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
-      <c r="B397" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>666</v>
-      </c>
+      <c r="B397" s="11"/>
+      <c r="C397" s="12"/>
       <c r="D397" s="35"/>
-      <c r="E397" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F397" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E397" s="32"/>
+      <c r="F397" s="60"/>
       <c r="G397" s="35"/>
-      <c r="H397" s="29"/>
-      <c r="I397" s="19">
-        <v>1</v>
-      </c>
-      <c r="J397" s="20">
-        <v>0</v>
-      </c>
+      <c r="H397" s="32"/>
+      <c r="I397" s="23"/>
+      <c r="J397" s="24"/>
       <c r="K397" s="35"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
       <c r="B398" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D398" s="35"/>
       <c r="E398" s="29">
@@ -12467,89 +12469,89 @@
       </c>
       <c r="K398" s="35"/>
     </row>
-    <row r="399" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
-      <c r="B399" s="11"/>
-      <c r="C399" s="12"/>
+      <c r="B399" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>667</v>
+      </c>
       <c r="D399" s="35"/>
-      <c r="E399" s="32"/>
-      <c r="F399" s="60"/>
+      <c r="E399" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F399" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G399" s="35"/>
-      <c r="H399" s="32"/>
-      <c r="I399" s="23"/>
-      <c r="J399" s="24"/>
+      <c r="H399" s="29"/>
+      <c r="I399" s="19">
+        <v>1</v>
+      </c>
+      <c r="J399" s="20">
+        <v>0</v>
+      </c>
       <c r="K399" s="35"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="11"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="35"/>
+      <c r="E400" s="32"/>
+      <c r="F400" s="60"/>
+      <c r="G400" s="35"/>
+      <c r="H400" s="32"/>
+      <c r="I400" s="23"/>
+      <c r="J400" s="24"/>
+      <c r="K400" s="35"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="35"/>
+      <c r="B401" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="C401" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D400" s="35"/>
-      <c r="E400" s="29">
+      <c r="D401" s="35"/>
+      <c r="E401" s="29">
         <v>44379</v>
       </c>
-      <c r="F400" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G400" s="35"/>
-      <c r="H400" s="29"/>
-      <c r="I400" s="19">
-        <v>1</v>
-      </c>
-      <c r="J400" s="20">
-        <v>0</v>
-      </c>
-      <c r="K400" s="35"/>
-    </row>
-    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="35"/>
-      <c r="B401" s="11"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="35"/>
-      <c r="E401" s="32"/>
-      <c r="F401" s="60"/>
+      <c r="F401" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G401" s="35"/>
-      <c r="H401" s="32"/>
-      <c r="I401" s="23"/>
-      <c r="J401" s="24"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="19">
+        <v>1</v>
+      </c>
+      <c r="J401" s="20">
+        <v>0</v>
+      </c>
       <c r="K401" s="35"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
-      <c r="B402" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>672</v>
-      </c>
+      <c r="B402" s="11"/>
+      <c r="C402" s="12"/>
       <c r="D402" s="35"/>
-      <c r="E402" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F402" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E402" s="32"/>
+      <c r="F402" s="60"/>
       <c r="G402" s="35"/>
-      <c r="H402" s="29"/>
-      <c r="I402" s="19">
-        <v>1</v>
-      </c>
-      <c r="J402" s="20">
-        <v>0</v>
-      </c>
+      <c r="H402" s="32"/>
+      <c r="I402" s="23"/>
+      <c r="J402" s="24"/>
       <c r="K402" s="35"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
@@ -12568,55 +12570,55 @@
       </c>
       <c r="K403" s="35"/>
     </row>
-    <row r="404" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
-      <c r="B404" s="11"/>
-      <c r="C404" s="12"/>
+      <c r="B404" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>673</v>
+      </c>
       <c r="D404" s="35"/>
-      <c r="E404" s="32"/>
-      <c r="F404" s="60"/>
+      <c r="E404" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F404" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G404" s="35"/>
-      <c r="H404" s="32"/>
-      <c r="I404" s="23"/>
-      <c r="J404" s="24"/>
+      <c r="H404" s="29"/>
+      <c r="I404" s="19">
+        <v>1</v>
+      </c>
+      <c r="J404" s="20">
+        <v>0</v>
+      </c>
       <c r="K404" s="35"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
-      <c r="B405" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B405" s="11"/>
+      <c r="C405" s="12"/>
       <c r="D405" s="35"/>
-      <c r="E405" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F405" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E405" s="32"/>
+      <c r="F405" s="60"/>
       <c r="G405" s="35"/>
-      <c r="H405" s="29"/>
-      <c r="I405" s="19">
-        <v>1</v>
-      </c>
-      <c r="J405" s="20">
-        <v>0</v>
-      </c>
+      <c r="H405" s="32"/>
+      <c r="I405" s="23"/>
+      <c r="J405" s="24"/>
       <c r="K405" s="35"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F406" s="58" t="s">
         <v>627</v>
@@ -12634,10 +12636,10 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
       <c r="B407" s="7" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="D407" s="35"/>
       <c r="E407" s="29">
@@ -12659,10 +12661,10 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
@@ -12684,10 +12686,10 @@
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
       <c r="B409" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D409" s="35"/>
       <c r="E409" s="29">
@@ -12709,14 +12711,14 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F410" s="58" t="s">
         <v>627</v>
@@ -12734,14 +12736,14 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F411" s="58" t="s">
         <v>627</v>
@@ -12759,10 +12761,10 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
@@ -12784,10 +12786,10 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
@@ -12809,10 +12811,10 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
@@ -12834,10 +12836,10 @@
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
@@ -12859,10 +12861,10 @@
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
@@ -12884,10 +12886,10 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
@@ -12909,10 +12911,10 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
@@ -12934,10 +12936,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -12959,10 +12961,10 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
@@ -12984,10 +12986,10 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
@@ -13009,10 +13011,10 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13034,10 +13036,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13059,10 +13061,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13084,10 +13086,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>623</v>
+        <v>143</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13109,10 +13111,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13134,10 +13136,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13159,10 +13161,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13184,10 +13186,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13209,10 +13211,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13234,10 +13236,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13259,10 +13261,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13284,10 +13286,10 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
@@ -13309,10 +13311,10 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
@@ -13334,10 +13336,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13359,10 +13361,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13384,10 +13386,10 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
@@ -13409,10 +13411,10 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13434,10 +13436,10 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13456,51 +13458,51 @@
       </c>
       <c r="K439" s="35"/>
     </row>
-    <row r="440" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
-      <c r="B440" s="11"/>
-      <c r="C440" s="12"/>
+      <c r="B440" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="D440" s="35"/>
-      <c r="E440" s="32"/>
-      <c r="F440" s="60"/>
+      <c r="E440" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F440" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G440" s="35"/>
-      <c r="H440" s="32"/>
-      <c r="I440" s="23"/>
-      <c r="J440" s="24"/>
+      <c r="H440" s="29"/>
+      <c r="I440" s="19">
+        <v>1</v>
+      </c>
+      <c r="J440" s="20">
+        <v>0</v>
+      </c>
       <c r="K440" s="35"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
-      <c r="B441" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C441" s="4" t="s">
-        <v>688</v>
-      </c>
+      <c r="B441" s="11"/>
+      <c r="C441" s="12"/>
       <c r="D441" s="35"/>
-      <c r="E441" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F441" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E441" s="32"/>
+      <c r="F441" s="60"/>
       <c r="G441" s="35"/>
-      <c r="H441" s="29"/>
-      <c r="I441" s="19">
-        <v>1</v>
-      </c>
-      <c r="J441" s="20">
-        <v>0</v>
-      </c>
+      <c r="H441" s="32"/>
+      <c r="I441" s="23"/>
+      <c r="J441" s="24"/>
       <c r="K441" s="35"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
@@ -13522,14 +13524,14 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>762</v>
+        <v>197</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>763</v>
+        <v>689</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F443" s="58" t="s">
         <v>627</v>
@@ -13544,51 +13546,51 @@
       </c>
       <c r="K443" s="35"/>
     </row>
-    <row r="444" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
-      <c r="B444" s="11"/>
-      <c r="C444" s="12"/>
+      <c r="B444" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="D444" s="35"/>
-      <c r="E444" s="32"/>
-      <c r="F444" s="60"/>
+      <c r="E444" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F444" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G444" s="35"/>
-      <c r="H444" s="32"/>
-      <c r="I444" s="23"/>
-      <c r="J444" s="24"/>
+      <c r="H444" s="29"/>
+      <c r="I444" s="19">
+        <v>1</v>
+      </c>
+      <c r="J444" s="20">
+        <v>0</v>
+      </c>
       <c r="K444" s="35"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
-      <c r="B445" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>695</v>
-      </c>
+      <c r="B445" s="11"/>
+      <c r="C445" s="12"/>
       <c r="D445" s="35"/>
-      <c r="E445" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F445" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E445" s="32"/>
+      <c r="F445" s="60"/>
       <c r="G445" s="35"/>
-      <c r="H445" s="29"/>
-      <c r="I445" s="19">
-        <v>1</v>
-      </c>
-      <c r="J445" s="20">
-        <v>0</v>
-      </c>
+      <c r="H445" s="32"/>
+      <c r="I445" s="23"/>
+      <c r="J445" s="24"/>
       <c r="K445" s="35"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
@@ -13610,10 +13612,10 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
@@ -13635,10 +13637,10 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
@@ -13660,10 +13662,10 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
@@ -13684,62 +13686,66 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="4"/>
+      <c r="B450" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="D450" s="35"/>
-      <c r="E450" s="29"/>
-      <c r="F450" s="58"/>
+      <c r="E450" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F450" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G450" s="35"/>
       <c r="H450" s="29"/>
-      <c r="I450" s="19"/>
-      <c r="J450" s="20"/>
+      <c r="I450" s="19">
+        <v>1</v>
+      </c>
+      <c r="J450" s="20">
+        <v>0</v>
+      </c>
       <c r="K450" s="35"/>
     </row>
-    <row r="451" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
-      <c r="B451" s="9"/>
-      <c r="C451" s="10"/>
+      <c r="B451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="35"/>
-      <c r="E451" s="30"/>
-      <c r="F451" s="59"/>
+      <c r="E451" s="29"/>
+      <c r="F451" s="58"/>
       <c r="G451" s="35"/>
-      <c r="H451" s="30"/>
-      <c r="I451" s="21"/>
-      <c r="J451" s="22"/>
+      <c r="H451" s="29"/>
+      <c r="I451" s="19"/>
+      <c r="J451" s="20"/>
       <c r="K451" s="35"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
-      <c r="B452" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B452" s="9"/>
+      <c r="C452" s="10"/>
       <c r="D452" s="35"/>
-      <c r="E452" s="29">
-        <v>44363</v>
-      </c>
-      <c r="F452" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E452" s="30"/>
+      <c r="F452" s="59"/>
       <c r="G452" s="35"/>
-      <c r="H452" s="29"/>
-      <c r="I452" s="19"/>
-      <c r="J452" s="20"/>
+      <c r="H452" s="30"/>
+      <c r="I452" s="21"/>
+      <c r="J452" s="22"/>
       <c r="K452" s="35"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>705</v>
+        <v>461</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>707</v>
+        <v>463</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="F453" s="58" t="s">
         <v>627</v>
@@ -13753,10 +13759,10 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
@@ -13774,14 +13780,14 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>451</v>
+        <v>708</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
@@ -13795,14 +13801,14 @@
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="F456" s="58" t="s">
         <v>627</v>
@@ -13813,51 +13819,51 @@
       <c r="J456" s="20"/>
       <c r="K456" s="35"/>
     </row>
-    <row r="457" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
-      <c r="B457" s="11"/>
-      <c r="C457" s="12"/>
+      <c r="B457" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D457" s="35"/>
-      <c r="E457" s="32"/>
-      <c r="F457" s="60"/>
+      <c r="E457" s="29">
+        <v>44363</v>
+      </c>
+      <c r="F457" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G457" s="35"/>
-      <c r="H457" s="32"/>
-      <c r="I457" s="23"/>
-      <c r="J457" s="24"/>
+      <c r="H457" s="29"/>
+      <c r="I457" s="19"/>
+      <c r="J457" s="20"/>
       <c r="K457" s="35"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
-      <c r="B458" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="B458" s="11"/>
+      <c r="C458" s="12"/>
       <c r="D458" s="35"/>
-      <c r="E458" s="29">
-        <v>44250</v>
-      </c>
-      <c r="F458" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E458" s="32"/>
+      <c r="F458" s="60"/>
       <c r="G458" s="35"/>
-      <c r="H458" s="29"/>
-      <c r="I458" s="19"/>
-      <c r="J458" s="20"/>
+      <c r="H458" s="32"/>
+      <c r="I458" s="23"/>
+      <c r="J458" s="24"/>
       <c r="K458" s="35"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
-        <v>44382</v>
+        <v>44250</v>
       </c>
       <c r="F459" s="58" t="s">
         <v>627</v>
@@ -13871,14 +13877,14 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44250</v>
+        <v>44382</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
@@ -13889,72 +13895,72 @@
       <c r="J460" s="20"/>
       <c r="K460" s="35"/>
     </row>
-    <row r="461" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
-      <c r="B461" s="11"/>
-      <c r="C461" s="12"/>
+      <c r="B461" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D461" s="35"/>
-      <c r="E461" s="32"/>
-      <c r="F461" s="60"/>
+      <c r="E461" s="29">
+        <v>44250</v>
+      </c>
+      <c r="F461" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G461" s="35"/>
-      <c r="H461" s="32"/>
-      <c r="I461" s="23"/>
-      <c r="J461" s="24"/>
+      <c r="H461" s="29"/>
+      <c r="I461" s="19"/>
+      <c r="J461" s="20"/>
       <c r="K461" s="35"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
-      <c r="B462" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B462" s="11"/>
+      <c r="C462" s="12"/>
       <c r="D462" s="35"/>
-      <c r="E462" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F462" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E462" s="32"/>
+      <c r="F462" s="60"/>
       <c r="G462" s="35"/>
-      <c r="H462" s="29"/>
-      <c r="I462" s="19">
-        <v>1</v>
-      </c>
-      <c r="J462" s="20">
-        <v>0</v>
-      </c>
+      <c r="H462" s="32"/>
+      <c r="I462" s="23"/>
+      <c r="J462" s="24"/>
       <c r="K462" s="35"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>595</v>
+        <v>85</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
-        <v>44377</v>
+        <v>44148</v>
       </c>
       <c r="F463" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G463" s="35"/>
       <c r="H463" s="29"/>
-      <c r="I463" s="19"/>
-      <c r="J463" s="20"/>
+      <c r="I463" s="19">
+        <v>1</v>
+      </c>
+      <c r="J463" s="20">
+        <v>0</v>
+      </c>
       <c r="K463" s="35"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>294</v>
+        <v>594</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>296</v>
+        <v>595</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
@@ -13972,10 +13978,10 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
       <c r="B465" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D465" s="35"/>
       <c r="E465" s="29">
@@ -13993,60 +13999,60 @@
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
-        <v>44172</v>
+        <v>44377</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="29"/>
-      <c r="I466" s="19">
-        <v>1</v>
-      </c>
-      <c r="J466" s="20">
-        <v>0</v>
-      </c>
+      <c r="I466" s="19"/>
+      <c r="J466" s="20"/>
       <c r="K466" s="35"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>624</v>
+        <v>288</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>625</v>
+        <v>289</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44378</v>
+        <v>44172</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="29"/>
-      <c r="I467" s="19"/>
-      <c r="J467" s="20"/>
+      <c r="I467" s="19">
+        <v>1</v>
+      </c>
+      <c r="J467" s="20">
+        <v>0</v>
+      </c>
       <c r="K467" s="35"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
@@ -14060,10 +14066,10 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
       <c r="B469" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D469" s="35"/>
       <c r="E469" s="29">
@@ -14081,10 +14087,10 @@
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
       <c r="B470" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D470" s="35"/>
       <c r="E470" s="29">
@@ -14102,10 +14108,10 @@
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
       <c r="B471" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="29">
@@ -14123,10 +14129,10 @@
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
       <c r="B472" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D472" s="35"/>
       <c r="E472" s="29">
@@ -14144,10 +14150,10 @@
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
       <c r="B473" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D473" s="35"/>
       <c r="E473" s="29">
@@ -14162,38 +14168,34 @@
       <c r="J473" s="20"/>
       <c r="K473" s="35"/>
     </row>
-    <row r="474" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="37"/>
-      <c r="B474" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C474" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D474" s="37"/>
-      <c r="E474" s="31">
-        <v>44176</v>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="35"/>
+      <c r="B474" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D474" s="35"/>
+      <c r="E474" s="29">
+        <v>44376</v>
       </c>
       <c r="F474" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G474" s="37"/>
-      <c r="H474" s="31"/>
-      <c r="I474" s="19">
-        <v>1</v>
-      </c>
-      <c r="J474" s="20">
-        <v>0</v>
-      </c>
-      <c r="K474" s="37"/>
+      <c r="G474" s="35"/>
+      <c r="H474" s="29"/>
+      <c r="I474" s="19"/>
+      <c r="J474" s="20"/>
+      <c r="K474" s="35"/>
     </row>
     <row r="475" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="37"/>
       <c r="B475" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C475" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D475" s="37"/>
       <c r="E475" s="31">
@@ -14215,10 +14217,10 @@
     <row r="476" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="37"/>
       <c r="B476" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C476" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D476" s="37"/>
       <c r="E476" s="31">
@@ -14240,10 +14242,10 @@
     <row r="477" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="37"/>
       <c r="B477" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C477" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D477" s="37"/>
       <c r="E477" s="31">
@@ -14264,32 +14266,36 @@
     </row>
     <row r="478" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="37"/>
-      <c r="B478" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>403</v>
+      <c r="B478" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C478" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D478" s="37"/>
       <c r="E478" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G478" s="37"/>
       <c r="H478" s="31"/>
-      <c r="I478" s="19"/>
-      <c r="J478" s="20"/>
+      <c r="I478" s="19">
+        <v>1</v>
+      </c>
+      <c r="J478" s="20">
+        <v>0</v>
+      </c>
       <c r="K478" s="37"/>
     </row>
     <row r="479" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="37"/>
       <c r="B479" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D479" s="37"/>
       <c r="E479" s="31">
@@ -14307,10 +14313,10 @@
     <row r="480" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="37"/>
       <c r="B480" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D480" s="37"/>
       <c r="E480" s="31">
@@ -14325,38 +14331,34 @@
       <c r="J480" s="20"/>
       <c r="K480" s="37"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" s="35"/>
+    <row r="481" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="37"/>
       <c r="B481" s="7" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D481" s="35"/>
-      <c r="E481" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D481" s="37"/>
+      <c r="E481" s="31">
+        <v>44245</v>
       </c>
       <c r="F481" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G481" s="35"/>
-      <c r="H481" s="29"/>
-      <c r="I481" s="19">
-        <v>1</v>
-      </c>
-      <c r="J481" s="20">
-        <v>0</v>
-      </c>
-      <c r="K481" s="35"/>
+      <c r="G481" s="37"/>
+      <c r="H481" s="31"/>
+      <c r="I481" s="19"/>
+      <c r="J481" s="20"/>
+      <c r="K481" s="37"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
@@ -14378,10 +14380,10 @@
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
@@ -14403,10 +14405,10 @@
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
@@ -14428,10 +14430,10 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
@@ -14453,10 +14455,10 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
@@ -14478,14 +14480,14 @@
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
       <c r="B487" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D487" s="35"/>
       <c r="E487" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
@@ -14503,10 +14505,10 @@
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="35"/>
       <c r="B488" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D488" s="35"/>
       <c r="E488" s="29">
@@ -14528,10 +14530,10 @@
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
       <c r="B489" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D489" s="35"/>
       <c r="E489" s="29">
@@ -14550,47 +14552,51 @@
       </c>
       <c r="K489" s="35"/>
     </row>
-    <row r="490" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
-      <c r="B490" s="11"/>
-      <c r="C490" s="12"/>
+      <c r="B490" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D490" s="35"/>
-      <c r="E490" s="32"/>
-      <c r="F490" s="60"/>
+      <c r="E490" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F490" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G490" s="35"/>
-      <c r="H490" s="32"/>
-      <c r="I490" s="23"/>
-      <c r="J490" s="24"/>
+      <c r="H490" s="29"/>
+      <c r="I490" s="19">
+        <v>1</v>
+      </c>
+      <c r="J490" s="20">
+        <v>0</v>
+      </c>
       <c r="K490" s="35"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="35"/>
-      <c r="B491" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="B491" s="11"/>
+      <c r="C491" s="12"/>
       <c r="D491" s="35"/>
-      <c r="E491" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F491" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E491" s="32"/>
+      <c r="F491" s="60"/>
       <c r="G491" s="35"/>
-      <c r="H491" s="29"/>
-      <c r="I491" s="19"/>
-      <c r="J491" s="20"/>
+      <c r="H491" s="32"/>
+      <c r="I491" s="23"/>
+      <c r="J491" s="24"/>
       <c r="K491" s="35"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D492" s="35"/>
       <c r="E492" s="29">
@@ -14608,10 +14614,10 @@
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
@@ -14629,10 +14635,10 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
@@ -14647,47 +14653,47 @@
       <c r="J494" s="20"/>
       <c r="K494" s="35"/>
     </row>
-    <row r="495" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
-      <c r="B495" s="11"/>
-      <c r="C495" s="12"/>
+      <c r="B495" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="D495" s="35"/>
-      <c r="E495" s="32"/>
-      <c r="F495" s="60"/>
+      <c r="E495" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F495" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G495" s="35"/>
-      <c r="H495" s="32"/>
-      <c r="I495" s="23"/>
-      <c r="J495" s="24"/>
+      <c r="H495" s="29"/>
+      <c r="I495" s="19"/>
+      <c r="J495" s="20"/>
       <c r="K495" s="35"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
-      <c r="B496" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>756</v>
-      </c>
+      <c r="B496" s="11"/>
+      <c r="C496" s="12"/>
       <c r="D496" s="35"/>
-      <c r="E496" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F496" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E496" s="32"/>
+      <c r="F496" s="60"/>
       <c r="G496" s="35"/>
-      <c r="H496" s="29"/>
-      <c r="I496" s="19"/>
-      <c r="J496" s="20"/>
+      <c r="H496" s="32"/>
+      <c r="I496" s="23"/>
+      <c r="J496" s="24"/>
       <c r="K496" s="35"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
@@ -14705,10 +14711,10 @@
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D498" s="35"/>
       <c r="E498" s="29">
@@ -14723,61 +14729,82 @@
       <c r="J498" s="20"/>
       <c r="K498" s="35"/>
     </row>
-    <row r="499" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
-      <c r="B499" s="8"/>
-      <c r="C499" s="6"/>
+      <c r="B499" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="D499" s="35"/>
-      <c r="E499" s="33"/>
-      <c r="F499" s="61"/>
+      <c r="E499" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F499" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G499" s="35"/>
-      <c r="H499" s="33"/>
-      <c r="I499" s="25"/>
-      <c r="J499" s="26"/>
+      <c r="H499" s="29"/>
+      <c r="I499" s="19"/>
+      <c r="J499" s="20"/>
       <c r="K499" s="35"/>
     </row>
-    <row r="500" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="35"/>
-      <c r="B500" s="38"/>
-      <c r="C500" s="39"/>
+      <c r="B500" s="8"/>
+      <c r="C500" s="6"/>
       <c r="D500" s="35"/>
-      <c r="E500" s="40"/>
-      <c r="F500" s="55"/>
+      <c r="E500" s="33"/>
+      <c r="F500" s="61"/>
       <c r="G500" s="35"/>
-      <c r="H500" s="40"/>
-      <c r="I500" s="41"/>
-      <c r="J500" s="41"/>
+      <c r="H500" s="33"/>
+      <c r="I500" s="25"/>
+      <c r="J500" s="26"/>
       <c r="K500" s="35"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="35"/>
-      <c r="B502" s="7" t="s">
+    <row r="501" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="35"/>
+      <c r="B501" s="38"/>
+      <c r="C501" s="39"/>
+      <c r="D501" s="35"/>
+      <c r="E501" s="40"/>
+      <c r="F501" s="55"/>
+      <c r="G501" s="35"/>
+      <c r="H501" s="40"/>
+      <c r="I501" s="41"/>
+      <c r="J501" s="41"/>
+      <c r="K501" s="35"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" s="35"/>
+      <c r="B503" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C502" s="4" t="s">
+      <c r="C503" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D502" s="35"/>
-      <c r="E502" s="29"/>
-      <c r="F502" s="58"/>
-      <c r="G502" s="35"/>
-      <c r="H502" s="29"/>
-      <c r="I502" s="19"/>
-      <c r="J502" s="20"/>
-      <c r="K502" s="35"/>
-    </row>
-    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="35"/>
-      <c r="B503" s="50"/>
-      <c r="C503" s="51"/>
       <c r="D503" s="35"/>
-      <c r="E503" s="52"/>
-      <c r="F503" s="62"/>
+      <c r="E503" s="29"/>
+      <c r="F503" s="58"/>
       <c r="G503" s="35"/>
-      <c r="H503" s="52"/>
-      <c r="I503" s="53"/>
-      <c r="J503" s="54"/>
+      <c r="H503" s="29"/>
+      <c r="I503" s="19"/>
+      <c r="J503" s="20"/>
       <c r="K503" s="35"/>
+    </row>
+    <row r="504" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="35"/>
+      <c r="B504" s="50"/>
+      <c r="C504" s="51"/>
+      <c r="D504" s="35"/>
+      <c r="E504" s="52"/>
+      <c r="F504" s="62"/>
+      <c r="G504" s="35"/>
+      <c r="H504" s="52"/>
+      <c r="I504" s="53"/>
+      <c r="J504" s="54"/>
+      <c r="K504" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14789,7 +14816,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F85:F112 F124:F128 F130:F134 F136:F142 F144:F146 F148:F149 F154 F156:F174 F176:F211 F213:F215 F217:F221 F224:F243 F252:F257 F259:F260 F283:F284 F286:F287 F294:F299 F301:F302 F304:F305 F344:F352 F355:F357 F359 F361:F365 F367:F370 F372:F373 F383:F388 F390:F392 F394:F395 F397:F398 F151:F152 F400 F402:F403 F405:F439 F441:F443 F445:F449 F377:F381 F452:F456 F458:F460 F462:F489 F114:F117 F491:F494 F262:F281 F307:F337 F339:F342 F290:F292 F119:F121 F496:F498 F58 F37:F56 F35 F19:F22 F250 F17 F83 F77:F80 F81:F82" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F91:F113 F125:F129 F131:F135 F137:F143 F145:F147 F149:F150 F155 F157:F175 F177:F212 F214:F216 F218:F222 F225:F244 F253:F258 F260:F261 F284:F285 F287:F288 F295:F300 F302:F303 F305:F306 F345:F353 F356:F358 F360 F362:F366 F368:F371 F373:F374 F384:F389 F391:F393 F395:F396 F398:F399 F152:F153 F401 F403:F404 F406:F440 F442:F444 F446:F450 F378:F382 F453:F457 F459:F461 F463:F490 F115:F118 F492:F495 F263:F282 F308:F338 F340:F343 F291:F293 F120:F122 F497:F499 F58 F37:F56 F35 F19:F22 F251 F17 F77:F83 F85:F90" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="858">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2892,6 +2892,36 @@
   </si>
   <si>
     <t>Menyimpan Data Baru Kartu Keluarga</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Rotate Log - File Upload Staging Area Detail</t>
+  </si>
+  <si>
+    <t>transaction.initialize.sysConfig.getRotateLog_FileUploadStagingAreaDetail</t>
+  </si>
+  <si>
+    <t>transaction.initialize.sysConfig.getRotateLog_FileUploadStagingArea</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Rotate Log - File Upload Staging Area</t>
+  </si>
+  <si>
+    <t>transaction.initialize.dataAcquisition.setLog_FileUpload_Object</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Log - File Upload Object</t>
+  </si>
+  <si>
+    <t>transaction.initialize.dataAcquisition.setLog_FileUpload_ObjectDetail</t>
+  </si>
+  <si>
+    <t>transaction.initialize.dataAcquisition.setLog_FileUpload_Pointer</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Log - File Upload Object Detail</t>
+  </si>
+  <si>
+    <t>Menginisialisasi Data Log - File Upload Pointer</t>
   </si>
 </sst>
 </file>
@@ -3791,13 +3821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L504"/>
+  <dimension ref="A1:L511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomRight" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8675,118 +8705,86 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>33</v>
+        <v>852</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>34</v>
+        <v>853</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F225" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G225" s="35"/>
-      <c r="H225" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I225" s="19">
-        <v>1</v>
-      </c>
-      <c r="J225" s="20">
-        <v>1</v>
-      </c>
+      <c r="H225" s="29"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
       <c r="K225" s="35"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>35</v>
+        <v>854</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>36</v>
+        <v>856</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F226" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G226" s="35"/>
-      <c r="H226" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I226" s="19">
-        <v>1</v>
-      </c>
-      <c r="J226" s="20">
-        <v>1</v>
-      </c>
+      <c r="H226" s="29"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
       <c r="K226" s="35"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>38</v>
+        <v>855</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>37</v>
+        <v>857</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F227" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G227" s="35"/>
-      <c r="H227" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I227" s="19">
-        <v>1</v>
-      </c>
-      <c r="J227" s="20">
-        <v>1</v>
-      </c>
+      <c r="H227" s="29"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="20"/>
       <c r="K227" s="35"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
-      <c r="B228" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
       <c r="D228" s="35"/>
-      <c r="E228" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F228" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E228" s="32"/>
+      <c r="F228" s="60"/>
       <c r="G228" s="35"/>
-      <c r="H228" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I228" s="19">
-        <v>1</v>
-      </c>
-      <c r="J228" s="20">
-        <v>1</v>
-      </c>
+      <c r="H228" s="32"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="24"/>
       <c r="K228" s="35"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
@@ -8797,7 +8795,7 @@
       </c>
       <c r="G229" s="35"/>
       <c r="H229" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I229" s="19">
         <v>1</v>
@@ -8810,10 +8808,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29">
@@ -8837,10 +8835,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29">
@@ -8864,10 +8862,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
@@ -8891,10 +8889,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -8918,10 +8916,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -8945,10 +8943,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -8972,10 +8970,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -8999,10 +8997,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9026,10 +9024,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9053,10 +9051,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9080,10 +9078,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9107,10 +9105,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9134,10 +9132,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29">
@@ -9161,10 +9159,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29">
@@ -9188,10 +9186,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
@@ -9214,92 +9212,140 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="4"/>
+      <c r="B245" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D245" s="35"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="58"/>
+      <c r="E245" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F245" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G245" s="35"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="H245" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I245" s="19">
+        <v>1</v>
+      </c>
+      <c r="J245" s="20">
+        <v>1</v>
+      </c>
       <c r="K245" s="35"/>
     </row>
-    <row r="246" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="10"/>
+      <c r="B246" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D246" s="35"/>
-      <c r="E246" s="30"/>
-      <c r="F246" s="59"/>
+      <c r="E246" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F246" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G246" s="35"/>
-      <c r="H246" s="30"/>
-      <c r="I246" s="21"/>
-      <c r="J246" s="22"/>
+      <c r="H246" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I246" s="19">
+        <v>1</v>
+      </c>
+      <c r="J246" s="20">
+        <v>1</v>
+      </c>
       <c r="K246" s="35"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>829</v>
+        <v>59</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>830</v>
+        <v>71</v>
       </c>
       <c r="D247" s="35"/>
-      <c r="E247" s="29"/>
-      <c r="F247" s="58"/>
+      <c r="E247" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F247" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G247" s="35"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
+      <c r="H247" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I247" s="19">
+        <v>1</v>
+      </c>
+      <c r="J247" s="20">
+        <v>1</v>
+      </c>
       <c r="K247" s="35"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>831</v>
+        <v>60</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>833</v>
+        <v>72</v>
       </c>
       <c r="D248" s="35"/>
-      <c r="E248" s="29"/>
-      <c r="F248" s="58"/>
+      <c r="E248" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F248" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G248" s="35"/>
-      <c r="H248" s="29"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
+      <c r="H248" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I248" s="19">
+        <v>1</v>
+      </c>
+      <c r="J248" s="20">
+        <v>1</v>
+      </c>
       <c r="K248" s="35"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
-      <c r="B249" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>834</v>
-      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
       <c r="D249" s="35"/>
-      <c r="E249" s="29"/>
-      <c r="F249" s="58"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="60"/>
       <c r="G249" s="35"/>
-      <c r="H249" s="29"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="H249" s="32"/>
+      <c r="I249" s="23"/>
+      <c r="J249" s="24"/>
       <c r="K249" s="35"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="D250" s="35"/>
-      <c r="E250" s="29"/>
-      <c r="F250" s="58"/>
+      <c r="E250" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F250" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G250" s="35"/>
       <c r="H250" s="29"/>
       <c r="I250" s="19"/>
@@ -9309,14 +9355,14 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29">
-        <v>44400</v>
+        <v>44405</v>
       </c>
       <c r="F251" s="58" t="s">
         <v>627</v>
@@ -9327,55 +9373,43 @@
       <c r="J251" s="20"/>
       <c r="K251" s="35"/>
     </row>
-    <row r="252" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="60"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="58"/>
       <c r="G252" s="35"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="23"/>
-      <c r="J252" s="24"/>
+      <c r="H252" s="29"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
       <c r="K252" s="35"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="B253" s="9"/>
+      <c r="C253" s="10"/>
       <c r="D253" s="35"/>
-      <c r="E253" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F253" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E253" s="30"/>
+      <c r="F253" s="59"/>
       <c r="G253" s="35"/>
-      <c r="H253" s="29"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="22"/>
       <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>472</v>
+        <v>830</v>
       </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="29">
-        <v>44349</v>
-      </c>
-      <c r="F254" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E254" s="29"/>
+      <c r="F254" s="58"/>
       <c r="G254" s="35"/>
       <c r="H254" s="29"/>
       <c r="I254" s="19"/>
@@ -9385,18 +9419,14 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>503</v>
+        <v>831</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>475</v>
+        <v>833</v>
       </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="29">
-        <v>44364</v>
-      </c>
-      <c r="F255" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E255" s="29"/>
+      <c r="F255" s="58"/>
       <c r="G255" s="35"/>
       <c r="H255" s="29"/>
       <c r="I255" s="19"/>
@@ -9406,18 +9436,14 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>504</v>
+        <v>832</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>476</v>
+        <v>834</v>
       </c>
       <c r="D256" s="35"/>
-      <c r="E256" s="29">
-        <v>44364</v>
-      </c>
-      <c r="F256" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E256" s="29"/>
+      <c r="F256" s="58"/>
       <c r="G256" s="35"/>
       <c r="H256" s="29"/>
       <c r="I256" s="19"/>
@@ -9427,18 +9453,14 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>505</v>
+        <v>835</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>452</v>
+        <v>836</v>
       </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F257" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E257" s="29"/>
+      <c r="F257" s="58"/>
       <c r="G257" s="35"/>
       <c r="H257" s="29"/>
       <c r="I257" s="19"/>
@@ -9448,14 +9470,14 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>506</v>
+        <v>826</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>477</v>
+        <v>837</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29">
-        <v>44362</v>
+        <v>44400</v>
       </c>
       <c r="F258" s="58" t="s">
         <v>627</v>
@@ -9482,10 +9504,10 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
@@ -9503,14 +9525,14 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="29">
-        <v>44343</v>
+        <v>44349</v>
       </c>
       <c r="F261" s="58" t="s">
         <v>627</v>
@@ -9521,201 +9543,165 @@
       <c r="J261" s="20"/>
       <c r="K261" s="35"/>
     </row>
-    <row r="262" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12"/>
+      <c r="B262" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="D262" s="35"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="60"/>
+      <c r="E262" s="29">
+        <v>44364</v>
+      </c>
+      <c r="F262" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G262" s="35"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="23"/>
-      <c r="J262" s="24"/>
+      <c r="H262" s="29"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
       <c r="K262" s="35"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>13</v>
+        <v>476</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
-        <v>44148</v>
+        <v>44364</v>
       </c>
       <c r="F263" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G263" s="35"/>
       <c r="H263" s="29"/>
-      <c r="I263" s="19">
-        <v>1</v>
-      </c>
-      <c r="J263" s="20">
-        <v>0</v>
-      </c>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
       <c r="K263" s="35"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>14</v>
+        <v>452</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
-        <v>44148</v>
+        <v>44243</v>
       </c>
       <c r="F264" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G264" s="35"/>
       <c r="H264" s="29"/>
-      <c r="I264" s="19">
-        <v>1</v>
-      </c>
-      <c r="J264" s="20">
-        <v>0</v>
-      </c>
+      <c r="I264" s="19"/>
+      <c r="J264" s="20"/>
       <c r="K264" s="35"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>15</v>
+        <v>477</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
-        <v>44148</v>
+        <v>44362</v>
       </c>
       <c r="F265" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G265" s="35"/>
       <c r="H265" s="29"/>
-      <c r="I265" s="19">
-        <v>1</v>
-      </c>
-      <c r="J265" s="20">
-        <v>0</v>
-      </c>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
       <c r="K265" s="35"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
-      <c r="B266" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>738</v>
-      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="35"/>
-      <c r="E266" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F266" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E266" s="32"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="35"/>
-      <c r="H266" s="29"/>
-      <c r="I266" s="19">
-        <v>1</v>
-      </c>
-      <c r="J266" s="20">
-        <v>0</v>
-      </c>
+      <c r="H266" s="32"/>
+      <c r="I266" s="23"/>
+      <c r="J266" s="24"/>
       <c r="K266" s="35"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
-        <v>44148</v>
+        <v>44243</v>
       </c>
       <c r="F267" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G267" s="35"/>
       <c r="H267" s="29"/>
-      <c r="I267" s="19">
-        <v>1</v>
-      </c>
-      <c r="J267" s="20">
-        <v>0</v>
-      </c>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
       <c r="K267" s="35"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F268" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G268" s="35"/>
       <c r="H268" s="29"/>
-      <c r="I268" s="19">
-        <v>1</v>
-      </c>
-      <c r="J268" s="20">
-        <v>0</v>
-      </c>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
       <c r="K268" s="35"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
-      <c r="B269" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="35"/>
-      <c r="E269" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F269" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E269" s="32"/>
+      <c r="F269" s="60"/>
       <c r="G269" s="35"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="19">
-        <v>1</v>
-      </c>
-      <c r="J269" s="20">
-        <v>0</v>
-      </c>
+      <c r="H269" s="32"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="24"/>
       <c r="K269" s="35"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
@@ -9737,10 +9723,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29">
@@ -9762,10 +9748,10 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29">
@@ -9787,14 +9773,14 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>491</v>
+        <v>737</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>22</v>
+        <v>738</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F273" s="58" t="s">
         <v>627</v>
@@ -9812,10 +9798,10 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
@@ -9837,10 +9823,10 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
@@ -9862,10 +9848,10 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
@@ -9887,10 +9873,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9912,10 +9898,10 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
@@ -9937,10 +9923,10 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>28</v>
+        <v>490</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
@@ -9962,10 +9948,10 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
@@ -9987,10 +9973,10 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
@@ -10012,10 +9998,10 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29">
@@ -10034,102 +10020,138 @@
       </c>
       <c r="K282" s="35"/>
     </row>
-    <row r="283" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
+      <c r="B283" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D283" s="35"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="60"/>
+      <c r="E283" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F283" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G283" s="35"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="24"/>
+      <c r="H283" s="29"/>
+      <c r="I283" s="19">
+        <v>1</v>
+      </c>
+      <c r="J283" s="20">
+        <v>0</v>
+      </c>
       <c r="K283" s="35"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>440</v>
+        <v>26</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
-        <v>44343</v>
+        <v>44148</v>
       </c>
       <c r="F284" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G284" s="35"/>
       <c r="H284" s="29"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="20"/>
+      <c r="I284" s="19">
+        <v>1</v>
+      </c>
+      <c r="J284" s="20">
+        <v>0</v>
+      </c>
       <c r="K284" s="35"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>443</v>
+        <v>27</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
-        <v>43978</v>
+        <v>44148</v>
       </c>
       <c r="F285" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G285" s="35"/>
       <c r="H285" s="29"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="20"/>
+      <c r="I285" s="19">
+        <v>1</v>
+      </c>
+      <c r="J285" s="20">
+        <v>0</v>
+      </c>
       <c r="K285" s="35"/>
     </row>
-    <row r="286" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12"/>
+      <c r="B286" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D286" s="35"/>
-      <c r="E286" s="32"/>
-      <c r="F286" s="60"/>
+      <c r="E286" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F286" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G286" s="35"/>
-      <c r="H286" s="32"/>
-      <c r="I286" s="23"/>
-      <c r="J286" s="24"/>
+      <c r="H286" s="29"/>
+      <c r="I286" s="19">
+        <v>1</v>
+      </c>
+      <c r="J286" s="20">
+        <v>0</v>
+      </c>
       <c r="K286" s="35"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>441</v>
+        <v>29</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
-        <v>43978</v>
+        <v>44148</v>
       </c>
       <c r="F287" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G287" s="35"/>
       <c r="H287" s="29"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
+      <c r="I287" s="19">
+        <v>1</v>
+      </c>
+      <c r="J287" s="20">
+        <v>0</v>
+      </c>
       <c r="K287" s="35"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>442</v>
+        <v>24</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
@@ -10140,47 +10162,63 @@
       </c>
       <c r="G288" s="35"/>
       <c r="H288" s="29"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="20"/>
+      <c r="I288" s="19">
+        <v>1</v>
+      </c>
+      <c r="J288" s="20">
+        <v>0</v>
+      </c>
       <c r="K288" s="35"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="4"/>
+      <c r="B289" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D289" s="35"/>
-      <c r="E289" s="29"/>
-      <c r="F289" s="58"/>
+      <c r="E289" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F289" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G289" s="35"/>
       <c r="H289" s="29"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="20"/>
+      <c r="I289" s="19">
+        <v>1</v>
+      </c>
+      <c r="J289" s="20">
+        <v>0</v>
+      </c>
       <c r="K289" s="35"/>
     </row>
-    <row r="290" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="10"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12"/>
       <c r="D290" s="35"/>
-      <c r="E290" s="30"/>
-      <c r="F290" s="59"/>
+      <c r="E290" s="32"/>
+      <c r="F290" s="60"/>
       <c r="G290" s="35"/>
-      <c r="H290" s="30"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="22"/>
+      <c r="H290" s="32"/>
+      <c r="I290" s="23"/>
+      <c r="J290" s="24"/>
       <c r="K290" s="35"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>563</v>
+        <v>509</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>565</v>
+        <v>440</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
-        <v>44372</v>
+        <v>44343</v>
       </c>
       <c r="F291" s="58" t="s">
         <v>627</v>
@@ -10194,14 +10232,14 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>566</v>
+        <v>443</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
-        <v>44372</v>
+        <v>43978</v>
       </c>
       <c r="F292" s="58" t="s">
         <v>627</v>
@@ -10212,51 +10250,51 @@
       <c r="J292" s="20"/>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="35"/>
-      <c r="E293" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F293" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E293" s="32"/>
+      <c r="F293" s="60"/>
       <c r="G293" s="35"/>
-      <c r="H293" s="29"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="H293" s="32"/>
+      <c r="I293" s="23"/>
+      <c r="J293" s="24"/>
       <c r="K293" s="35"/>
     </row>
-    <row r="294" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12"/>
+      <c r="B294" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="D294" s="35"/>
-      <c r="E294" s="32"/>
-      <c r="F294" s="60"/>
+      <c r="E294" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F294" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G294" s="35"/>
-      <c r="H294" s="32"/>
-      <c r="I294" s="23"/>
-      <c r="J294" s="24"/>
+      <c r="H294" s="29"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="20"/>
       <c r="K294" s="35"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
-        <v>44371</v>
+        <v>44148</v>
       </c>
       <c r="F295" s="58" t="s">
         <v>627</v>
@@ -10269,57 +10307,41 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="4"/>
       <c r="D296" s="35"/>
-      <c r="E296" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F296" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E296" s="29"/>
+      <c r="F296" s="58"/>
       <c r="G296" s="35"/>
       <c r="H296" s="29"/>
       <c r="I296" s="19"/>
       <c r="J296" s="20"/>
       <c r="K296" s="35"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
-      <c r="B297" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="10"/>
       <c r="D297" s="35"/>
-      <c r="E297" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F297" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E297" s="30"/>
+      <c r="F297" s="59"/>
       <c r="G297" s="35"/>
-      <c r="H297" s="29"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
+      <c r="H297" s="30"/>
+      <c r="I297" s="21"/>
+      <c r="J297" s="22"/>
       <c r="K297" s="35"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F298" s="58" t="s">
         <v>627</v>
@@ -10333,14 +10355,14 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
       <c r="B299" s="7" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="D299" s="35"/>
       <c r="E299" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F299" s="58" t="s">
         <v>627</v>
@@ -10354,14 +10376,14 @@
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
       <c r="B300" s="7" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
       <c r="D300" s="35"/>
       <c r="E300" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F300" s="58" t="s">
         <v>627</v>
@@ -10388,10 +10410,10 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
@@ -10409,10 +10431,10 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
       <c r="B303" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D303" s="35"/>
       <c r="E303" s="29">
@@ -10427,30 +10449,38 @@
       <c r="J303" s="20"/>
       <c r="K303" s="35"/>
     </row>
-    <row r="304" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="12"/>
+      <c r="B304" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D304" s="35"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="60"/>
+      <c r="E304" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F304" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G304" s="35"/>
-      <c r="H304" s="32"/>
-      <c r="I304" s="23"/>
-      <c r="J304" s="24"/>
+      <c r="H304" s="29"/>
+      <c r="I304" s="19"/>
+      <c r="J304" s="20"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>627</v>
@@ -10464,14 +10494,14 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>627</v>
@@ -10482,51 +10512,47 @@
       <c r="J306" s="20"/>
       <c r="K306" s="35"/>
     </row>
-    <row r="307" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="12"/>
+      <c r="B307" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D307" s="35"/>
-      <c r="E307" s="32"/>
-      <c r="F307" s="60"/>
+      <c r="E307" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F307" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G307" s="35"/>
-      <c r="H307" s="32"/>
-      <c r="I307" s="23"/>
-      <c r="J307" s="24"/>
+      <c r="H307" s="29"/>
+      <c r="I307" s="19"/>
+      <c r="J307" s="20"/>
       <c r="K307" s="35"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
-      <c r="B308" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="35"/>
-      <c r="E308" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F308" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E308" s="32"/>
+      <c r="F308" s="60"/>
       <c r="G308" s="35"/>
-      <c r="H308" s="29"/>
-      <c r="I308" s="19">
-        <v>1</v>
-      </c>
-      <c r="J308" s="20">
-        <v>0</v>
-      </c>
+      <c r="H308" s="32"/>
+      <c r="I308" s="23"/>
+      <c r="J308" s="24"/>
       <c r="K308" s="35"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>598</v>
+        <v>470</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
@@ -10537,25 +10563,21 @@
       </c>
       <c r="G309" s="35"/>
       <c r="H309" s="29"/>
-      <c r="I309" s="19">
-        <v>1</v>
-      </c>
-      <c r="J309" s="20">
-        <v>0</v>
-      </c>
+      <c r="I309" s="19"/>
+      <c r="J309" s="20"/>
       <c r="K309" s="35"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
       <c r="B310" s="7" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>599</v>
+        <v>471</v>
       </c>
       <c r="D310" s="35"/>
       <c r="E310" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F310" s="58" t="s">
         <v>627</v>
@@ -10566,113 +10588,85 @@
       <c r="J310" s="20"/>
       <c r="K310" s="35"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
-      <c r="B311" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B311" s="11"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="35"/>
-      <c r="E311" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F311" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E311" s="32"/>
+      <c r="F311" s="60"/>
       <c r="G311" s="35"/>
-      <c r="H311" s="29"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="H311" s="32"/>
+      <c r="I311" s="23"/>
+      <c r="J311" s="24"/>
       <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F312" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G312" s="35"/>
       <c r="H312" s="29"/>
-      <c r="I312" s="19">
-        <v>1</v>
-      </c>
-      <c r="J312" s="20">
-        <v>0</v>
-      </c>
+      <c r="I312" s="19"/>
+      <c r="J312" s="20"/>
       <c r="K312" s="35"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="F313" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G313" s="35"/>
       <c r="H313" s="29"/>
-      <c r="I313" s="19">
-        <v>1</v>
-      </c>
-      <c r="J313" s="20">
-        <v>0</v>
-      </c>
+      <c r="I313" s="19"/>
+      <c r="J313" s="20"/>
       <c r="K313" s="35"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
-      <c r="B314" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>605</v>
-      </c>
+      <c r="B314" s="11"/>
+      <c r="C314" s="12"/>
       <c r="D314" s="35"/>
-      <c r="E314" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F314" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E314" s="32"/>
+      <c r="F314" s="60"/>
       <c r="G314" s="35"/>
-      <c r="H314" s="29"/>
-      <c r="I314" s="19">
-        <v>1</v>
-      </c>
-      <c r="J314" s="20">
-        <v>0</v>
-      </c>
+      <c r="H314" s="32"/>
+      <c r="I314" s="23"/>
+      <c r="J314" s="24"/>
       <c r="K314" s="35"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F315" s="58" t="s">
         <v>627</v>
@@ -10690,10 +10684,10 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
       <c r="B316" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D316" s="35"/>
       <c r="E316" s="29">
@@ -10715,60 +10709,52 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F317" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G317" s="35"/>
       <c r="H317" s="29"/>
-      <c r="I317" s="19">
-        <v>1</v>
-      </c>
-      <c r="J317" s="20">
-        <v>0</v>
-      </c>
+      <c r="I317" s="19"/>
+      <c r="J317" s="20"/>
       <c r="K317" s="35"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F318" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G318" s="35"/>
       <c r="H318" s="29"/>
-      <c r="I318" s="19">
-        <v>1</v>
-      </c>
-      <c r="J318" s="20">
-        <v>0</v>
-      </c>
+      <c r="I318" s="19"/>
+      <c r="J318" s="20"/>
       <c r="K318" s="35"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
@@ -10790,14 +10776,14 @@
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>520</v>
+        <v>601</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F320" s="58" t="s">
         <v>627</v>
@@ -10815,14 +10801,14 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>733</v>
+        <v>514</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>735</v>
+        <v>605</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F321" s="58" t="s">
         <v>627</v>
@@ -10840,14 +10826,14 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>734</v>
+        <v>515</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>736</v>
+        <v>606</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
-        <v>44383</v>
+        <v>44369</v>
       </c>
       <c r="F322" s="58" t="s">
         <v>627</v>
@@ -10865,73 +10851,85 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>739</v>
+        <v>516</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>742</v>
+        <v>607</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F323" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G323" s="35"/>
       <c r="H323" s="29"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
+      <c r="I323" s="19">
+        <v>1</v>
+      </c>
+      <c r="J323" s="20">
+        <v>0</v>
+      </c>
       <c r="K323" s="35"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>740</v>
+        <v>517</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>743</v>
+        <v>608</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F324" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G324" s="35"/>
       <c r="H324" s="29"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
+      <c r="I324" s="19">
+        <v>1</v>
+      </c>
+      <c r="J324" s="20">
+        <v>0</v>
+      </c>
       <c r="K324" s="35"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>741</v>
+        <v>518</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>744</v>
+        <v>609</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G325" s="35"/>
       <c r="H325" s="29"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
+      <c r="I325" s="19">
+        <v>1</v>
+      </c>
+      <c r="J325" s="20">
+        <v>0</v>
+      </c>
       <c r="K325" s="35"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
@@ -10953,14 +10951,14 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>725</v>
+        <v>520</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>726</v>
+        <v>611</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F327" s="58" t="s">
         <v>627</v>
@@ -10978,10 +10976,10 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
@@ -10992,17 +10990,21 @@
       </c>
       <c r="G328" s="35"/>
       <c r="H328" s="29"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
+      <c r="I328" s="19">
+        <v>1</v>
+      </c>
+      <c r="J328" s="20">
+        <v>0</v>
+      </c>
       <c r="K328" s="35"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
@@ -11013,17 +11015,21 @@
       </c>
       <c r="G329" s="35"/>
       <c r="H329" s="29"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
+      <c r="I329" s="19">
+        <v>1</v>
+      </c>
+      <c r="J329" s="20">
+        <v>0</v>
+      </c>
       <c r="K329" s="35"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
@@ -11041,60 +11047,52 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>522</v>
+        <v>740</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>613</v>
+        <v>743</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F331" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G331" s="35"/>
       <c r="H331" s="29"/>
-      <c r="I331" s="19">
-        <v>1</v>
-      </c>
-      <c r="J331" s="20">
-        <v>0</v>
-      </c>
+      <c r="I331" s="19"/>
+      <c r="J331" s="20"/>
       <c r="K331" s="35"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>523</v>
+        <v>741</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>614</v>
+        <v>744</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F332" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G332" s="35"/>
       <c r="H332" s="29"/>
-      <c r="I332" s="19">
-        <v>1</v>
-      </c>
-      <c r="J332" s="20">
-        <v>0</v>
-      </c>
+      <c r="I332" s="19"/>
+      <c r="J332" s="20"/>
       <c r="K332" s="35"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
@@ -11116,14 +11114,14 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>616</v>
+        <v>726</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F334" s="58" t="s">
         <v>627</v>
@@ -11141,89 +11139,77 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>617</v>
+        <v>727</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
-        <v>44370</v>
+        <v>44383</v>
       </c>
       <c r="F335" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="29"/>
-      <c r="I335" s="19">
-        <v>1</v>
-      </c>
-      <c r="J335" s="20">
-        <v>0</v>
-      </c>
+      <c r="I335" s="19"/>
+      <c r="J335" s="20"/>
       <c r="K335" s="35"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>527</v>
+        <v>729</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>618</v>
+        <v>731</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
-        <v>44370</v>
+        <v>44383</v>
       </c>
       <c r="F336" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="19">
-        <v>1</v>
-      </c>
-      <c r="J336" s="20">
-        <v>0</v>
-      </c>
+      <c r="I336" s="19"/>
+      <c r="J336" s="20"/>
       <c r="K336" s="35"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>528</v>
+        <v>730</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>619</v>
+        <v>732</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44370</v>
+        <v>44383</v>
       </c>
       <c r="F337" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19">
-        <v>1</v>
-      </c>
-      <c r="J337" s="20">
-        <v>0</v>
-      </c>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
       <c r="K337" s="35"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F338" s="58" t="s">
         <v>627</v>
@@ -11238,169 +11224,205 @@
       </c>
       <c r="K338" s="35"/>
     </row>
-    <row r="339" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
-      <c r="B339" s="11"/>
-      <c r="C339" s="12"/>
+      <c r="B339" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="D339" s="35"/>
-      <c r="E339" s="32"/>
-      <c r="F339" s="60"/>
+      <c r="E339" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F339" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G339" s="35"/>
-      <c r="H339" s="32"/>
-      <c r="I339" s="23"/>
-      <c r="J339" s="24"/>
+      <c r="H339" s="29"/>
+      <c r="I339" s="19">
+        <v>1</v>
+      </c>
+      <c r="J339" s="20">
+        <v>0</v>
+      </c>
       <c r="K339" s="35"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>745</v>
+        <v>524</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>748</v>
+        <v>615</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F340" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
+      <c r="I340" s="19">
+        <v>1</v>
+      </c>
+      <c r="J340" s="20">
+        <v>0</v>
+      </c>
       <c r="K340" s="35"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>746</v>
+        <v>525</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F341" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="29"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="20"/>
+      <c r="I341" s="19">
+        <v>1</v>
+      </c>
+      <c r="J341" s="20">
+        <v>0</v>
+      </c>
       <c r="K341" s="35"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>552</v>
+        <v>526</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="F342" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G342" s="35"/>
       <c r="H342" s="29"/>
-      <c r="I342" s="19"/>
-      <c r="J342" s="20"/>
+      <c r="I342" s="19">
+        <v>1</v>
+      </c>
+      <c r="J342" s="20">
+        <v>0</v>
+      </c>
       <c r="K342" s="35"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="F343" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G343" s="35"/>
       <c r="H343" s="29"/>
-      <c r="I343" s="19"/>
-      <c r="J343" s="20"/>
+      <c r="I343" s="19">
+        <v>1</v>
+      </c>
+      <c r="J343" s="20">
+        <v>0</v>
+      </c>
       <c r="K343" s="35"/>
     </row>
-    <row r="344" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
-      <c r="B344" s="11"/>
-      <c r="C344" s="12"/>
+      <c r="B344" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="D344" s="35"/>
-      <c r="E344" s="32"/>
-      <c r="F344" s="60"/>
+      <c r="E344" s="29">
+        <v>44370</v>
+      </c>
+      <c r="F344" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G344" s="35"/>
-      <c r="H344" s="32"/>
-      <c r="I344" s="23"/>
-      <c r="J344" s="24"/>
+      <c r="H344" s="29"/>
+      <c r="I344" s="19">
+        <v>1</v>
+      </c>
+      <c r="J344" s="20">
+        <v>0</v>
+      </c>
       <c r="K344" s="35"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="F345" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="29"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="20"/>
+      <c r="I345" s="19">
+        <v>1</v>
+      </c>
+      <c r="J345" s="20">
+        <v>0</v>
+      </c>
       <c r="K345" s="35"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
-      <c r="B346" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>556</v>
-      </c>
+      <c r="B346" s="11"/>
+      <c r="C346" s="12"/>
       <c r="D346" s="35"/>
-      <c r="E346" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F346" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E346" s="32"/>
+      <c r="F346" s="60"/>
       <c r="G346" s="35"/>
-      <c r="H346" s="29"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="20"/>
+      <c r="H346" s="32"/>
+      <c r="I346" s="23"/>
+      <c r="J346" s="24"/>
       <c r="K346" s="35"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>539</v>
+        <v>745</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>555</v>
+        <v>748</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F347" s="58" t="s">
         <v>627</v>
@@ -11411,26 +11433,34 @@
       <c r="J347" s="20"/>
       <c r="K347" s="35"/>
     </row>
-    <row r="348" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12"/>
+      <c r="B348" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>747</v>
+      </c>
       <c r="D348" s="35"/>
-      <c r="E348" s="32"/>
-      <c r="F348" s="60"/>
+      <c r="E348" s="29">
+        <v>44383</v>
+      </c>
+      <c r="F348" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G348" s="35"/>
-      <c r="H348" s="32"/>
-      <c r="I348" s="23"/>
-      <c r="J348" s="24"/>
+      <c r="H348" s="29"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="20"/>
       <c r="K348" s="35"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
-      <c r="B349" s="13" t="s">
-        <v>545</v>
+      <c r="B349" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>772</v>
+        <v>552</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
@@ -11441,24 +11471,17 @@
       </c>
       <c r="G349" s="35"/>
       <c r="H349" s="29"/>
-      <c r="I349" s="19">
-        <v>1</v>
-      </c>
-      <c r="J349" s="20">
-        <v>0</v>
-      </c>
+      <c r="I349" s="19"/>
+      <c r="J349" s="20"/>
       <c r="K349" s="35"/>
-      <c r="L349" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
-      <c r="B350" s="13" t="s">
-        <v>546</v>
+      <c r="B350" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>773</v>
+        <v>553</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
@@ -11469,52 +11492,30 @@
       </c>
       <c r="G350" s="35"/>
       <c r="H350" s="29"/>
-      <c r="I350" s="19">
-        <v>1</v>
-      </c>
-      <c r="J350" s="20">
-        <v>0</v>
-      </c>
+      <c r="I350" s="19"/>
+      <c r="J350" s="20"/>
       <c r="K350" s="35"/>
-      <c r="L350" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
-      <c r="B351" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>774</v>
-      </c>
+      <c r="B351" s="11"/>
+      <c r="C351" s="12"/>
       <c r="D351" s="35"/>
-      <c r="E351" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F351" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E351" s="32"/>
+      <c r="F351" s="60"/>
       <c r="G351" s="35"/>
-      <c r="H351" s="29"/>
-      <c r="I351" s="19">
-        <v>1</v>
-      </c>
-      <c r="J351" s="20">
-        <v>0</v>
-      </c>
+      <c r="H351" s="32"/>
+      <c r="I351" s="23"/>
+      <c r="J351" s="24"/>
       <c r="K351" s="35"/>
-      <c r="L351" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
-      <c r="B352" s="13" t="s">
-        <v>549</v>
+      <c r="B352" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>775</v>
+        <v>554</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
@@ -11525,158 +11526,188 @@
       </c>
       <c r="G352" s="35"/>
       <c r="H352" s="29"/>
-      <c r="I352" s="19">
-        <v>1</v>
-      </c>
-      <c r="J352" s="20">
-        <v>0</v>
-      </c>
+      <c r="I352" s="19"/>
+      <c r="J352" s="20"/>
       <c r="K352" s="35"/>
-      <c r="L352" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
-      <c r="B353" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C353" s="14" t="s">
-        <v>771</v>
+      <c r="B353" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F353" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G353" s="35"/>
       <c r="H353" s="29"/>
-      <c r="I353" s="19">
-        <v>1</v>
-      </c>
-      <c r="J353" s="20">
-        <v>0</v>
-      </c>
+      <c r="I353" s="19"/>
+      <c r="J353" s="20"/>
       <c r="K353" s="35"/>
-      <c r="L353" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
+      <c r="B354" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D354" s="35"/>
-      <c r="E354" s="29"/>
-      <c r="F354" s="58"/>
+      <c r="E354" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F354" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G354" s="35"/>
       <c r="H354" s="29"/>
       <c r="I354" s="19"/>
       <c r="J354" s="20"/>
       <c r="K354" s="35"/>
     </row>
-    <row r="355" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
-      <c r="B355" s="9"/>
-      <c r="C355" s="10"/>
+      <c r="B355" s="11"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="35"/>
-      <c r="E355" s="30"/>
-      <c r="F355" s="59"/>
+      <c r="E355" s="32"/>
+      <c r="F355" s="60"/>
       <c r="G355" s="35"/>
-      <c r="H355" s="30"/>
-      <c r="I355" s="21"/>
-      <c r="J355" s="22"/>
+      <c r="H355" s="32"/>
+      <c r="I355" s="23"/>
+      <c r="J355" s="24"/>
       <c r="K355" s="35"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
-      <c r="B356" s="7" t="s">
-        <v>424</v>
+      <c r="B356" s="13" t="s">
+        <v>545</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>425</v>
+        <v>772</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F356" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="29"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
+      <c r="I356" s="19">
+        <v>1</v>
+      </c>
+      <c r="J356" s="20">
+        <v>0</v>
+      </c>
       <c r="K356" s="35"/>
+      <c r="L356" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
-      <c r="B357" s="7" t="s">
-        <v>420</v>
+      <c r="B357" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>421</v>
+        <v>773</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F357" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
+      <c r="I357" s="19">
+        <v>1</v>
+      </c>
+      <c r="J357" s="20">
+        <v>0</v>
+      </c>
       <c r="K357" s="35"/>
+      <c r="L357" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
-      <c r="B358" s="7" t="s">
-        <v>422</v>
+      <c r="B358" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>423</v>
+        <v>774</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F358" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="29"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
+      <c r="I358" s="19">
+        <v>1</v>
+      </c>
+      <c r="J358" s="20">
+        <v>0</v>
+      </c>
       <c r="K358" s="35"/>
-    </row>
-    <row r="359" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L358" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
-      <c r="B359" s="11"/>
-      <c r="C359" s="12"/>
+      <c r="B359" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>775</v>
+      </c>
       <c r="D359" s="35"/>
-      <c r="E359" s="32"/>
-      <c r="F359" s="60"/>
+      <c r="E359" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F359" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G359" s="35"/>
-      <c r="H359" s="32"/>
-      <c r="I359" s="23"/>
-      <c r="J359" s="24"/>
+      <c r="H359" s="29"/>
+      <c r="I359" s="19">
+        <v>1</v>
+      </c>
+      <c r="J359" s="20">
+        <v>0</v>
+      </c>
       <c r="K359" s="35"/>
+      <c r="L359" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
-      <c r="B360" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>647</v>
+      <c r="B360" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C360" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
-        <v>44319</v>
+        <v>44384</v>
       </c>
       <c r="F360" s="58" t="s">
         <v>627</v>
@@ -11690,401 +11721,396 @@
         <v>0</v>
       </c>
       <c r="K360" s="35"/>
-    </row>
-    <row r="361" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L360" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
-      <c r="B361" s="11"/>
-      <c r="C361" s="12"/>
+      <c r="B361" s="7"/>
+      <c r="C361" s="4"/>
       <c r="D361" s="35"/>
-      <c r="E361" s="32"/>
-      <c r="F361" s="60"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="58"/>
       <c r="G361" s="35"/>
-      <c r="H361" s="32"/>
-      <c r="I361" s="23"/>
-      <c r="J361" s="24"/>
+      <c r="H361" s="29"/>
+      <c r="I361" s="19"/>
+      <c r="J361" s="20"/>
       <c r="K361" s="35"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
-      <c r="B362" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B362" s="9"/>
+      <c r="C362" s="10"/>
       <c r="D362" s="35"/>
-      <c r="E362" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F362" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E362" s="30"/>
+      <c r="F362" s="59"/>
       <c r="G362" s="35"/>
-      <c r="H362" s="29"/>
-      <c r="I362" s="19">
-        <v>1</v>
-      </c>
-      <c r="J362" s="20">
-        <v>0</v>
-      </c>
+      <c r="H362" s="30"/>
+      <c r="I362" s="21"/>
+      <c r="J362" s="22"/>
       <c r="K362" s="35"/>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44245</v>
+        <v>44257</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="29"/>
-      <c r="I363" s="19">
-        <v>1</v>
-      </c>
-      <c r="J363" s="20">
-        <v>0</v>
-      </c>
+      <c r="I363" s="19"/>
+      <c r="J363" s="20"/>
       <c r="K363" s="35"/>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
-        <v>44231</v>
+        <v>44257</v>
       </c>
       <c r="F364" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G364" s="35"/>
       <c r="H364" s="29"/>
-      <c r="I364" s="19">
-        <v>1</v>
-      </c>
-      <c r="J364" s="20">
-        <v>0</v>
-      </c>
+      <c r="I364" s="19"/>
+      <c r="J364" s="20"/>
       <c r="K364" s="35"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
       <c r="B365" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
-        <v>44230</v>
+        <v>44257</v>
       </c>
       <c r="F365" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G365" s="35"/>
       <c r="H365" s="29"/>
-      <c r="I365" s="19">
-        <v>1</v>
-      </c>
-      <c r="J365" s="20">
-        <v>0</v>
-      </c>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
       <c r="K365" s="35"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
-      <c r="B366" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C366" s="45" t="s">
-        <v>429</v>
-      </c>
+      <c r="B366" s="11"/>
+      <c r="C366" s="12"/>
       <c r="D366" s="35"/>
-      <c r="E366" s="29">
-        <v>44264</v>
-      </c>
-      <c r="F366" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G366" s="46"/>
-      <c r="H366" s="47"/>
-      <c r="I366" s="48">
-        <v>1</v>
-      </c>
-      <c r="J366" s="49">
-        <v>0</v>
-      </c>
+      <c r="E366" s="32"/>
+      <c r="F366" s="60"/>
+      <c r="G366" s="35"/>
+      <c r="H366" s="32"/>
+      <c r="I366" s="23"/>
+      <c r="J366" s="24"/>
       <c r="K366" s="35"/>
     </row>
-    <row r="367" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="12"/>
+      <c r="B367" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="D367" s="35"/>
-      <c r="E367" s="32"/>
-      <c r="F367" s="60"/>
+      <c r="E367" s="29">
+        <v>44319</v>
+      </c>
+      <c r="F367" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G367" s="35"/>
-      <c r="H367" s="32"/>
-      <c r="I367" s="23"/>
-      <c r="J367" s="24"/>
+      <c r="H367" s="29"/>
+      <c r="I367" s="19">
+        <v>1</v>
+      </c>
+      <c r="J367" s="20">
+        <v>0</v>
+      </c>
       <c r="K367" s="35"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
-      <c r="B368" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="12"/>
       <c r="D368" s="35"/>
-      <c r="E368" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F368" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E368" s="32"/>
+      <c r="F368" s="60"/>
       <c r="G368" s="35"/>
-      <c r="H368" s="29"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="20"/>
+      <c r="H368" s="32"/>
+      <c r="I368" s="23"/>
+      <c r="J368" s="24"/>
       <c r="K368" s="35"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
       <c r="B369" s="7" t="s">
-        <v>436</v>
+        <v>278</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>437</v>
+        <v>279</v>
       </c>
       <c r="D369" s="35"/>
       <c r="E369" s="29">
-        <v>44278</v>
+        <v>44151</v>
       </c>
       <c r="F369" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="29"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="20"/>
+      <c r="I369" s="19">
+        <v>1</v>
+      </c>
+      <c r="J369" s="20">
+        <v>0</v>
+      </c>
       <c r="K369" s="35"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
       <c r="B370" s="7" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="D370" s="35"/>
       <c r="E370" s="29">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="F370" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="29"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="20"/>
+      <c r="I370" s="19">
+        <v>1</v>
+      </c>
+      <c r="J370" s="20">
+        <v>0</v>
+      </c>
       <c r="K370" s="35"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
       <c r="B371" s="7" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="D371" s="35"/>
       <c r="E371" s="29">
-        <v>44272</v>
+        <v>44231</v>
       </c>
       <c r="F371" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="29"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
+      <c r="I371" s="19">
+        <v>1</v>
+      </c>
+      <c r="J371" s="20">
+        <v>0</v>
+      </c>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="12"/>
+      <c r="B372" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="D372" s="35"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="60"/>
+      <c r="E372" s="29">
+        <v>44230</v>
+      </c>
+      <c r="F372" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G372" s="35"/>
-      <c r="H372" s="32"/>
-      <c r="I372" s="23"/>
-      <c r="J372" s="24"/>
+      <c r="H372" s="29"/>
+      <c r="I372" s="19">
+        <v>1</v>
+      </c>
+      <c r="J372" s="20">
+        <v>0</v>
+      </c>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
-      <c r="B373" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>84</v>
+      <c r="B373" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C373" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44151</v>
+        <v>44264</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G373" s="35"/>
-      <c r="H373" s="29"/>
-      <c r="I373" s="19">
-        <v>1</v>
-      </c>
-      <c r="J373" s="20">
+      <c r="G373" s="46"/>
+      <c r="H373" s="47"/>
+      <c r="I373" s="48">
+        <v>1</v>
+      </c>
+      <c r="J373" s="49">
         <v>0</v>
       </c>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="B374" s="11"/>
+      <c r="C374" s="12"/>
       <c r="D374" s="35"/>
-      <c r="E374" s="29">
-        <v>44258</v>
-      </c>
-      <c r="F374" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E374" s="32"/>
+      <c r="F374" s="60"/>
       <c r="G374" s="35"/>
-      <c r="H374" s="29"/>
-      <c r="I374" s="19"/>
-      <c r="J374" s="20"/>
+      <c r="H374" s="32"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="24"/>
       <c r="K374" s="35"/>
     </row>
-    <row r="375" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="12"/>
+      <c r="B375" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="D375" s="35"/>
-      <c r="E375" s="32"/>
-      <c r="F375" s="60"/>
+      <c r="E375" s="29">
+        <v>44271</v>
+      </c>
+      <c r="F375" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G375" s="35"/>
-      <c r="H375" s="32"/>
-      <c r="I375" s="23"/>
-      <c r="J375" s="24"/>
+      <c r="H375" s="29"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
       <c r="K375" s="35"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="D376" s="35"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="58"/>
+      <c r="E376" s="29">
+        <v>44278</v>
+      </c>
+      <c r="F376" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G376" s="35"/>
       <c r="H376" s="29"/>
       <c r="I376" s="19"/>
       <c r="J376" s="20"/>
       <c r="K376" s="35"/>
     </row>
-    <row r="377" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
-      <c r="B377" s="9"/>
-      <c r="C377" s="10"/>
+      <c r="B377" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="D377" s="35"/>
-      <c r="E377" s="30"/>
-      <c r="F377" s="59"/>
+      <c r="E377" s="29">
+        <v>44271</v>
+      </c>
+      <c r="F377" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G377" s="35"/>
-      <c r="H377" s="30"/>
-      <c r="I377" s="21"/>
-      <c r="J377" s="22"/>
+      <c r="H377" s="29"/>
+      <c r="I377" s="19"/>
+      <c r="J377" s="20"/>
       <c r="K377" s="35"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>766</v>
+        <v>434</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>700</v>
+        <v>435</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
-        <v>44382</v>
+        <v>44272</v>
       </c>
       <c r="F378" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="29"/>
-      <c r="I378" s="19">
-        <v>1</v>
-      </c>
-      <c r="J378" s="20">
-        <v>0</v>
-      </c>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="B379" s="11"/>
+      <c r="C379" s="12"/>
       <c r="D379" s="35"/>
-      <c r="E379" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F379" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E379" s="32"/>
+      <c r="F379" s="60"/>
       <c r="G379" s="35"/>
-      <c r="H379" s="29"/>
-      <c r="I379" s="19">
-        <v>1</v>
-      </c>
-      <c r="J379" s="20">
-        <v>0</v>
-      </c>
+      <c r="H379" s="32"/>
+      <c r="I379" s="23"/>
+      <c r="J379" s="24"/>
       <c r="K379" s="35"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>768</v>
+        <v>83</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>702</v>
+        <v>84</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44382</v>
+        <v>44151</v>
       </c>
       <c r="F380" s="58" t="s">
         <v>627</v>
@@ -12102,190 +12128,186 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>769</v>
+        <v>426</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>703</v>
+        <v>427</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
-        <v>44382</v>
+        <v>44258</v>
       </c>
       <c r="F381" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="29"/>
-      <c r="I381" s="19">
-        <v>1</v>
-      </c>
-      <c r="J381" s="20">
-        <v>0</v>
-      </c>
+      <c r="I381" s="19"/>
+      <c r="J381" s="20"/>
       <c r="K381" s="35"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
-      <c r="B382" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>704</v>
-      </c>
+      <c r="B382" s="11"/>
+      <c r="C382" s="12"/>
       <c r="D382" s="35"/>
-      <c r="E382" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F382" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E382" s="32"/>
+      <c r="F382" s="60"/>
       <c r="G382" s="35"/>
-      <c r="H382" s="29"/>
-      <c r="I382" s="19">
-        <v>1</v>
-      </c>
-      <c r="J382" s="20">
-        <v>0</v>
-      </c>
+      <c r="H382" s="32"/>
+      <c r="I382" s="23"/>
+      <c r="J382" s="24"/>
       <c r="K382" s="35"/>
     </row>
-    <row r="383" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="12"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="4"/>
       <c r="D383" s="35"/>
-      <c r="E383" s="32"/>
-      <c r="F383" s="60"/>
+      <c r="E383" s="29"/>
+      <c r="F383" s="58"/>
       <c r="G383" s="35"/>
-      <c r="H383" s="32"/>
-      <c r="I383" s="23"/>
-      <c r="J383" s="24"/>
+      <c r="H383" s="29"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="20"/>
       <c r="K383" s="35"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
-      <c r="B384" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>649</v>
-      </c>
+      <c r="B384" s="9"/>
+      <c r="C384" s="10"/>
       <c r="D384" s="35"/>
-      <c r="E384" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F384" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E384" s="30"/>
+      <c r="F384" s="59"/>
       <c r="G384" s="35"/>
-      <c r="H384" s="29"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
+      <c r="H384" s="30"/>
+      <c r="I384" s="21"/>
+      <c r="J384" s="22"/>
       <c r="K384" s="35"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
       <c r="B385" s="7" t="s">
-        <v>542</v>
+        <v>766</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="D385" s="35"/>
       <c r="E385" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F385" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="29"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="20"/>
+      <c r="I385" s="19">
+        <v>1</v>
+      </c>
+      <c r="J385" s="20">
+        <v>0</v>
+      </c>
       <c r="K385" s="35"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
       <c r="B386" s="7" t="s">
-        <v>650</v>
+        <v>767</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>651</v>
+        <v>701</v>
       </c>
       <c r="D386" s="35"/>
       <c r="E386" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F386" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="29"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
+      <c r="I386" s="19">
+        <v>1</v>
+      </c>
+      <c r="J386" s="20">
+        <v>0</v>
+      </c>
       <c r="K386" s="35"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
       <c r="B387" s="7" t="s">
-        <v>652</v>
+        <v>768</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="D387" s="35"/>
       <c r="E387" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F387" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="29"/>
-      <c r="I387" s="19"/>
-      <c r="J387" s="20"/>
+      <c r="I387" s="19">
+        <v>1</v>
+      </c>
+      <c r="J387" s="20">
+        <v>0</v>
+      </c>
       <c r="K387" s="35"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>543</v>
+        <v>769</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>453</v>
+        <v>703</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F388" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="29"/>
-      <c r="I388" s="19"/>
-      <c r="J388" s="20"/>
+      <c r="I388" s="19">
+        <v>1</v>
+      </c>
+      <c r="J388" s="20">
+        <v>0</v>
+      </c>
       <c r="K388" s="35"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>544</v>
+        <v>770</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>465</v>
+        <v>704</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F389" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="29"/>
-      <c r="I389" s="19"/>
-      <c r="J389" s="20"/>
+      <c r="I389" s="19">
+        <v>1</v>
+      </c>
+      <c r="J389" s="20">
+        <v>0</v>
+      </c>
       <c r="K389" s="35"/>
     </row>
     <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12304,10 +12326,10 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
       <c r="B391" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D391" s="35"/>
       <c r="E391" s="29">
@@ -12318,25 +12340,21 @@
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="19">
-        <v>1</v>
-      </c>
-      <c r="J391" s="20">
-        <v>0</v>
-      </c>
+      <c r="I391" s="19"/>
+      <c r="J391" s="20"/>
       <c r="K391" s="35"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
       <c r="B392" s="7" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>658</v>
+        <v>460</v>
       </c>
       <c r="D392" s="35"/>
       <c r="E392" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F392" s="58" t="s">
         <v>627</v>
@@ -12350,10 +12368,10 @@
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
       <c r="B393" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D393" s="35"/>
       <c r="E393" s="29">
@@ -12368,67 +12386,67 @@
       <c r="J393" s="20"/>
       <c r="K393" s="35"/>
     </row>
-    <row r="394" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="12"/>
+      <c r="B394" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="D394" s="35"/>
-      <c r="E394" s="32"/>
-      <c r="F394" s="60"/>
+      <c r="E394" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F394" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G394" s="35"/>
-      <c r="H394" s="32"/>
-      <c r="I394" s="23"/>
-      <c r="J394" s="24"/>
+      <c r="H394" s="29"/>
+      <c r="I394" s="19"/>
+      <c r="J394" s="20"/>
       <c r="K394" s="35"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>662</v>
+        <v>453</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F395" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G395" s="35"/>
       <c r="H395" s="29"/>
-      <c r="I395" s="19">
-        <v>1</v>
-      </c>
-      <c r="J395" s="20">
-        <v>0</v>
-      </c>
+      <c r="I395" s="19"/>
+      <c r="J395" s="20"/>
       <c r="K395" s="35"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>661</v>
+        <v>544</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>663</v>
+        <v>465</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F396" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G396" s="35"/>
       <c r="H396" s="29"/>
-      <c r="I396" s="19">
-        <v>1</v>
-      </c>
-      <c r="J396" s="20">
-        <v>0</v>
-      </c>
+      <c r="I396" s="19"/>
+      <c r="J396" s="20"/>
       <c r="K396" s="35"/>
     </row>
     <row r="397" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12447,10 +12465,10 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
       <c r="B398" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D398" s="35"/>
       <c r="E398" s="29">
@@ -12472,10 +12490,10 @@
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
@@ -12486,72 +12504,76 @@
       </c>
       <c r="G399" s="35"/>
       <c r="H399" s="29"/>
-      <c r="I399" s="19">
-        <v>1</v>
-      </c>
-      <c r="J399" s="20">
-        <v>0</v>
-      </c>
+      <c r="I399" s="19"/>
+      <c r="J399" s="20"/>
       <c r="K399" s="35"/>
     </row>
-    <row r="400" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12"/>
+      <c r="B400" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D400" s="35"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="60"/>
+      <c r="E400" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F400" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G400" s="35"/>
-      <c r="H400" s="32"/>
-      <c r="I400" s="23"/>
-      <c r="J400" s="24"/>
+      <c r="H400" s="29"/>
+      <c r="I400" s="19"/>
+      <c r="J400" s="20"/>
       <c r="K400" s="35"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
-      <c r="B401" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C401" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="B401" s="11"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="35"/>
-      <c r="E401" s="29">
+      <c r="E401" s="32"/>
+      <c r="F401" s="60"/>
+      <c r="G401" s="35"/>
+      <c r="H401" s="32"/>
+      <c r="I401" s="23"/>
+      <c r="J401" s="24"/>
+      <c r="K401" s="35"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="35"/>
+      <c r="B402" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D402" s="35"/>
+      <c r="E402" s="29">
         <v>44379</v>
       </c>
-      <c r="F401" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G401" s="35"/>
-      <c r="H401" s="29"/>
-      <c r="I401" s="19">
-        <v>1</v>
-      </c>
-      <c r="J401" s="20">
-        <v>0</v>
-      </c>
-      <c r="K401" s="35"/>
-    </row>
-    <row r="402" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="35"/>
-      <c r="B402" s="11"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="35"/>
-      <c r="E402" s="32"/>
-      <c r="F402" s="60"/>
+      <c r="F402" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G402" s="35"/>
-      <c r="H402" s="32"/>
-      <c r="I402" s="23"/>
-      <c r="J402" s="24"/>
+      <c r="H402" s="29"/>
+      <c r="I402" s="19">
+        <v>1</v>
+      </c>
+      <c r="J402" s="20">
+        <v>0</v>
+      </c>
       <c r="K402" s="35"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
@@ -12570,55 +12592,55 @@
       </c>
       <c r="K403" s="35"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
-      <c r="B404" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>673</v>
-      </c>
+      <c r="B404" s="11"/>
+      <c r="C404" s="12"/>
       <c r="D404" s="35"/>
-      <c r="E404" s="29">
+      <c r="E404" s="32"/>
+      <c r="F404" s="60"/>
+      <c r="G404" s="35"/>
+      <c r="H404" s="32"/>
+      <c r="I404" s="23"/>
+      <c r="J404" s="24"/>
+      <c r="K404" s="35"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="35"/>
+      <c r="B405" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D405" s="35"/>
+      <c r="E405" s="29">
         <v>44379</v>
       </c>
-      <c r="F404" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G404" s="35"/>
-      <c r="H404" s="29"/>
-      <c r="I404" s="19">
-        <v>1</v>
-      </c>
-      <c r="J404" s="20">
-        <v>0</v>
-      </c>
-      <c r="K404" s="35"/>
-    </row>
-    <row r="405" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="35"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="12"/>
-      <c r="D405" s="35"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="60"/>
+      <c r="F405" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G405" s="35"/>
-      <c r="H405" s="32"/>
-      <c r="I405" s="23"/>
-      <c r="J405" s="24"/>
+      <c r="H405" s="29"/>
+      <c r="I405" s="19">
+        <v>1</v>
+      </c>
+      <c r="J405" s="20">
+        <v>0</v>
+      </c>
       <c r="K405" s="35"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>32</v>
+        <v>665</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>74</v>
+        <v>667</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
-        <v>44148</v>
+        <v>44379</v>
       </c>
       <c r="F406" s="58" t="s">
         <v>627</v>
@@ -12633,42 +12655,30 @@
       </c>
       <c r="K406" s="35"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
-      <c r="B407" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="B407" s="11"/>
+      <c r="C407" s="12"/>
       <c r="D407" s="35"/>
-      <c r="E407" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F407" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E407" s="32"/>
+      <c r="F407" s="60"/>
       <c r="G407" s="35"/>
-      <c r="H407" s="29"/>
-      <c r="I407" s="19">
-        <v>1</v>
-      </c>
-      <c r="J407" s="20">
-        <v>0</v>
-      </c>
+      <c r="H407" s="32"/>
+      <c r="I407" s="23"/>
+      <c r="J407" s="24"/>
       <c r="K407" s="35"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>284</v>
+        <v>668</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>285</v>
+        <v>669</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F408" s="58" t="s">
         <v>627</v>
@@ -12683,42 +12693,30 @@
       </c>
       <c r="K408" s="35"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
-      <c r="B409" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="35"/>
-      <c r="E409" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F409" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E409" s="32"/>
+      <c r="F409" s="60"/>
       <c r="G409" s="35"/>
-      <c r="H409" s="29"/>
-      <c r="I409" s="19">
-        <v>1</v>
-      </c>
-      <c r="J409" s="20">
-        <v>0</v>
-      </c>
+      <c r="H409" s="32"/>
+      <c r="I409" s="23"/>
+      <c r="J409" s="24"/>
       <c r="K409" s="35"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>146</v>
+        <v>670</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>128</v>
+        <v>672</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F410" s="58" t="s">
         <v>627</v>
@@ -12736,14 +12734,14 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>129</v>
+        <v>673</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="F411" s="58" t="s">
         <v>627</v>
@@ -12758,42 +12756,30 @@
       </c>
       <c r="K411" s="35"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
-      <c r="B412" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B412" s="11"/>
+      <c r="C412" s="12"/>
       <c r="D412" s="35"/>
-      <c r="E412" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F412" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E412" s="32"/>
+      <c r="F412" s="60"/>
       <c r="G412" s="35"/>
-      <c r="H412" s="29"/>
-      <c r="I412" s="19">
-        <v>1</v>
-      </c>
-      <c r="J412" s="20">
-        <v>0</v>
-      </c>
+      <c r="H412" s="32"/>
+      <c r="I412" s="23"/>
+      <c r="J412" s="24"/>
       <c r="K412" s="35"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
-        <v>44379</v>
+        <v>44148</v>
       </c>
       <c r="F413" s="58" t="s">
         <v>627</v>
@@ -12811,14 +12797,14 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F414" s="58" t="s">
         <v>627</v>
@@ -12836,14 +12822,14 @@
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F415" s="58" t="s">
         <v>627</v>
@@ -12861,14 +12847,14 @@
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F416" s="58" t="s">
         <v>627</v>
@@ -12886,14 +12872,14 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F417" s="58" t="s">
         <v>627</v>
@@ -12911,14 +12897,14 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F418" s="58" t="s">
         <v>627</v>
@@ -12936,10 +12922,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -12961,10 +12947,10 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
@@ -12986,10 +12972,10 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
@@ -13011,10 +12997,10 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13036,10 +13022,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13061,10 +13047,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13086,10 +13072,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13111,10 +13097,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>623</v>
+        <v>137</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13136,10 +13122,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>674</v>
+        <v>138</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13161,10 +13147,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>675</v>
+        <v>139</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13186,10 +13172,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>676</v>
+        <v>140</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13211,10 +13197,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>677</v>
+        <v>141</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13236,10 +13222,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>678</v>
+        <v>142</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13261,10 +13247,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>679</v>
+        <v>143</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13286,10 +13272,10 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>680</v>
+        <v>623</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
@@ -13311,10 +13297,10 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
@@ -13336,10 +13322,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13361,10 +13347,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13386,10 +13372,10 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
@@ -13411,10 +13397,10 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13436,10 +13422,10 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13461,10 +13447,10 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
       <c r="B440" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D440" s="35"/>
       <c r="E440" s="29">
@@ -13483,30 +13469,42 @@
       </c>
       <c r="K440" s="35"/>
     </row>
-    <row r="441" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
-      <c r="B441" s="11"/>
-      <c r="C441" s="12"/>
+      <c r="B441" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>681</v>
+      </c>
       <c r="D441" s="35"/>
-      <c r="E441" s="32"/>
-      <c r="F441" s="60"/>
+      <c r="E441" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F441" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G441" s="35"/>
-      <c r="H441" s="32"/>
-      <c r="I441" s="23"/>
-      <c r="J441" s="24"/>
+      <c r="H441" s="29"/>
+      <c r="I441" s="19">
+        <v>1</v>
+      </c>
+      <c r="J441" s="20">
+        <v>0</v>
+      </c>
       <c r="K441" s="35"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F442" s="58" t="s">
         <v>627</v>
@@ -13524,14 +13522,14 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F443" s="58" t="s">
         <v>627</v>
@@ -13549,14 +13547,14 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>762</v>
+        <v>173</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>763</v>
+        <v>684</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F444" s="58" t="s">
         <v>627</v>
@@ -13571,30 +13569,42 @@
       </c>
       <c r="K444" s="35"/>
     </row>
-    <row r="445" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
-      <c r="B445" s="11"/>
-      <c r="C445" s="12"/>
+      <c r="B445" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="D445" s="35"/>
-      <c r="E445" s="32"/>
-      <c r="F445" s="60"/>
+      <c r="E445" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F445" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G445" s="35"/>
-      <c r="H445" s="32"/>
-      <c r="I445" s="23"/>
-      <c r="J445" s="24"/>
+      <c r="H445" s="29"/>
+      <c r="I445" s="19">
+        <v>1</v>
+      </c>
+      <c r="J445" s="20">
+        <v>0</v>
+      </c>
       <c r="K445" s="35"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>690</v>
+        <v>175</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F446" s="58" t="s">
         <v>627</v>
@@ -13612,14 +13622,14 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>691</v>
+        <v>176</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F447" s="58" t="s">
         <v>627</v>
@@ -13634,38 +13644,26 @@
       </c>
       <c r="K447" s="35"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
-      <c r="B448" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="B448" s="11"/>
+      <c r="C448" s="12"/>
       <c r="D448" s="35"/>
-      <c r="E448" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F448" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E448" s="32"/>
+      <c r="F448" s="60"/>
       <c r="G448" s="35"/>
-      <c r="H448" s="29"/>
-      <c r="I448" s="19">
-        <v>1</v>
-      </c>
-      <c r="J448" s="20">
-        <v>0</v>
-      </c>
+      <c r="H448" s="32"/>
+      <c r="I448" s="23"/>
+      <c r="J448" s="24"/>
       <c r="K448" s="35"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>693</v>
+        <v>177</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
@@ -13687,10 +13685,10 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>694</v>
+        <v>197</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
@@ -13711,180 +13709,204 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="4"/>
+      <c r="B451" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="D451" s="35"/>
-      <c r="E451" s="29"/>
-      <c r="F451" s="58"/>
+      <c r="E451" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F451" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G451" s="35"/>
       <c r="H451" s="29"/>
-      <c r="I451" s="19"/>
-      <c r="J451" s="20"/>
+      <c r="I451" s="19">
+        <v>1</v>
+      </c>
+      <c r="J451" s="20">
+        <v>0</v>
+      </c>
       <c r="K451" s="35"/>
     </row>
-    <row r="452" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
-      <c r="B452" s="9"/>
-      <c r="C452" s="10"/>
+      <c r="B452" s="11"/>
+      <c r="C452" s="12"/>
       <c r="D452" s="35"/>
-      <c r="E452" s="30"/>
-      <c r="F452" s="59"/>
+      <c r="E452" s="32"/>
+      <c r="F452" s="60"/>
       <c r="G452" s="35"/>
-      <c r="H452" s="30"/>
-      <c r="I452" s="21"/>
-      <c r="J452" s="22"/>
+      <c r="H452" s="32"/>
+      <c r="I452" s="23"/>
+      <c r="J452" s="24"/>
       <c r="K452" s="35"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>461</v>
+        <v>690</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>463</v>
+        <v>695</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F453" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G453" s="35"/>
       <c r="H453" s="29"/>
-      <c r="I453" s="19"/>
-      <c r="J453" s="20"/>
+      <c r="I453" s="19">
+        <v>1</v>
+      </c>
+      <c r="J453" s="20">
+        <v>0</v>
+      </c>
       <c r="K453" s="35"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F454" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G454" s="35"/>
       <c r="H454" s="29"/>
-      <c r="I454" s="19"/>
-      <c r="J454" s="20"/>
+      <c r="I454" s="19">
+        <v>1</v>
+      </c>
+      <c r="J454" s="20">
+        <v>0</v>
+      </c>
       <c r="K454" s="35"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G455" s="35"/>
       <c r="H455" s="29"/>
-      <c r="I455" s="19"/>
-      <c r="J455" s="20"/>
+      <c r="I455" s="19">
+        <v>1</v>
+      </c>
+      <c r="J455" s="20">
+        <v>0</v>
+      </c>
       <c r="K455" s="35"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>450</v>
+        <v>693</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>451</v>
+        <v>698</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F456" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G456" s="35"/>
       <c r="H456" s="29"/>
-      <c r="I456" s="19"/>
-      <c r="J456" s="20"/>
+      <c r="I456" s="19">
+        <v>1</v>
+      </c>
+      <c r="J456" s="20">
+        <v>0</v>
+      </c>
       <c r="K456" s="35"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
       <c r="B457" s="7" t="s">
-        <v>462</v>
+        <v>694</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>464</v>
+        <v>699</v>
       </c>
       <c r="D457" s="35"/>
       <c r="E457" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F457" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="29"/>
-      <c r="I457" s="19"/>
-      <c r="J457" s="20"/>
+      <c r="I457" s="19">
+        <v>1</v>
+      </c>
+      <c r="J457" s="20">
+        <v>0</v>
+      </c>
       <c r="K457" s="35"/>
     </row>
-    <row r="458" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
-      <c r="B458" s="11"/>
-      <c r="C458" s="12"/>
+      <c r="B458" s="7"/>
+      <c r="C458" s="4"/>
       <c r="D458" s="35"/>
-      <c r="E458" s="32"/>
-      <c r="F458" s="60"/>
+      <c r="E458" s="29"/>
+      <c r="F458" s="58"/>
       <c r="G458" s="35"/>
-      <c r="H458" s="32"/>
-      <c r="I458" s="23"/>
-      <c r="J458" s="24"/>
+      <c r="H458" s="29"/>
+      <c r="I458" s="19"/>
+      <c r="J458" s="20"/>
       <c r="K458" s="35"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
-      <c r="B459" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C459" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="B459" s="9"/>
+      <c r="C459" s="10"/>
       <c r="D459" s="35"/>
-      <c r="E459" s="29">
-        <v>44250</v>
-      </c>
-      <c r="F459" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E459" s="30"/>
+      <c r="F459" s="59"/>
       <c r="G459" s="35"/>
-      <c r="H459" s="29"/>
-      <c r="I459" s="19"/>
-      <c r="J459" s="20"/>
+      <c r="H459" s="30"/>
+      <c r="I459" s="21"/>
+      <c r="J459" s="22"/>
       <c r="K459" s="35"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44382</v>
+        <v>44363</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
@@ -13898,14 +13920,14 @@
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
       <c r="B461" s="7" t="s">
-        <v>410</v>
+        <v>705</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>411</v>
+        <v>707</v>
       </c>
       <c r="D461" s="35"/>
       <c r="E461" s="29">
-        <v>44250</v>
+        <v>44365</v>
       </c>
       <c r="F461" s="58" t="s">
         <v>627</v>
@@ -13916,55 +13938,59 @@
       <c r="J461" s="20"/>
       <c r="K461" s="35"/>
     </row>
-    <row r="462" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
-      <c r="B462" s="11"/>
-      <c r="C462" s="12"/>
+      <c r="B462" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>708</v>
+      </c>
       <c r="D462" s="35"/>
-      <c r="E462" s="32"/>
-      <c r="F462" s="60"/>
+      <c r="E462" s="29">
+        <v>44365</v>
+      </c>
+      <c r="F462" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G462" s="35"/>
-      <c r="H462" s="32"/>
-      <c r="I462" s="23"/>
-      <c r="J462" s="24"/>
+      <c r="H462" s="29"/>
+      <c r="I462" s="19"/>
+      <c r="J462" s="20"/>
       <c r="K462" s="35"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>85</v>
+        <v>451</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
-        <v>44148</v>
+        <v>44362</v>
       </c>
       <c r="F463" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G463" s="35"/>
       <c r="H463" s="29"/>
-      <c r="I463" s="19">
-        <v>1</v>
-      </c>
-      <c r="J463" s="20">
-        <v>0</v>
-      </c>
+      <c r="I463" s="19"/>
+      <c r="J463" s="20"/>
       <c r="K463" s="35"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>594</v>
+        <v>462</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>595</v>
+        <v>464</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
-        <v>44377</v>
+        <v>44363</v>
       </c>
       <c r="F464" s="58" t="s">
         <v>627</v>
@@ -13975,38 +14001,30 @@
       <c r="J464" s="20"/>
       <c r="K464" s="35"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
-      <c r="B465" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="B465" s="11"/>
+      <c r="C465" s="12"/>
       <c r="D465" s="35"/>
-      <c r="E465" s="29">
-        <v>44377</v>
-      </c>
-      <c r="F465" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E465" s="32"/>
+      <c r="F465" s="60"/>
       <c r="G465" s="35"/>
-      <c r="H465" s="29"/>
-      <c r="I465" s="19"/>
-      <c r="J465" s="20"/>
+      <c r="H465" s="32"/>
+      <c r="I465" s="23"/>
+      <c r="J465" s="24"/>
       <c r="K465" s="35"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
@@ -14020,39 +14038,35 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44172</v>
+        <v>44382</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="29"/>
-      <c r="I467" s="19">
-        <v>1</v>
-      </c>
-      <c r="J467" s="20">
-        <v>0</v>
-      </c>
+      <c r="I467" s="19"/>
+      <c r="J467" s="20"/>
       <c r="K467" s="35"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>624</v>
+        <v>410</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>625</v>
+        <v>411</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
-        <v>44378</v>
+        <v>44250</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
@@ -14063,59 +14077,55 @@
       <c r="J468" s="20"/>
       <c r="K468" s="35"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
-      <c r="B469" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="B469" s="11"/>
+      <c r="C469" s="12"/>
       <c r="D469" s="35"/>
-      <c r="E469" s="29">
-        <v>44376</v>
-      </c>
-      <c r="F469" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E469" s="32"/>
+      <c r="F469" s="60"/>
       <c r="G469" s="35"/>
-      <c r="H469" s="29"/>
-      <c r="I469" s="19"/>
-      <c r="J469" s="20"/>
+      <c r="H469" s="32"/>
+      <c r="I469" s="23"/>
+      <c r="J469" s="24"/>
       <c r="K469" s="35"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
       <c r="B470" s="7" t="s">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>583</v>
+        <v>85</v>
       </c>
       <c r="D470" s="35"/>
       <c r="E470" s="29">
-        <v>44376</v>
+        <v>44148</v>
       </c>
       <c r="F470" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="29"/>
-      <c r="I470" s="19"/>
-      <c r="J470" s="20"/>
+      <c r="I470" s="19">
+        <v>1</v>
+      </c>
+      <c r="J470" s="20">
+        <v>0</v>
+      </c>
       <c r="K470" s="35"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
       <c r="B471" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F471" s="58" t="s">
         <v>627</v>
@@ -14129,14 +14139,14 @@
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
       <c r="B472" s="7" t="s">
-        <v>581</v>
+        <v>294</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>586</v>
+        <v>296</v>
       </c>
       <c r="D472" s="35"/>
       <c r="E472" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F472" s="58" t="s">
         <v>627</v>
@@ -14150,14 +14160,14 @@
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
       <c r="B473" s="7" t="s">
-        <v>582</v>
+        <v>295</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>587</v>
+        <v>297</v>
       </c>
       <c r="D473" s="35"/>
       <c r="E473" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F473" s="58" t="s">
         <v>627</v>
@@ -14171,373 +14181,349 @@
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
       <c r="B474" s="7" t="s">
-        <v>588</v>
+        <v>288</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>589</v>
+        <v>289</v>
       </c>
       <c r="D474" s="35"/>
       <c r="E474" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F474" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G474" s="35"/>
       <c r="H474" s="29"/>
-      <c r="I474" s="19"/>
-      <c r="J474" s="20"/>
+      <c r="I474" s="19">
+        <v>1</v>
+      </c>
+      <c r="J474" s="20">
+        <v>0</v>
+      </c>
       <c r="K474" s="35"/>
     </row>
-    <row r="475" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="37"/>
-      <c r="B475" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C475" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D475" s="37"/>
-      <c r="E475" s="31">
-        <v>44176</v>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="35"/>
+      <c r="B475" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D475" s="35"/>
+      <c r="E475" s="29">
+        <v>44378</v>
       </c>
       <c r="F475" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G475" s="37"/>
-      <c r="H475" s="31"/>
-      <c r="I475" s="19">
-        <v>1</v>
-      </c>
-      <c r="J475" s="20">
-        <v>0</v>
-      </c>
-      <c r="K475" s="37"/>
-    </row>
-    <row r="476" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="37"/>
-      <c r="B476" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C476" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D476" s="37"/>
-      <c r="E476" s="31">
-        <v>44176</v>
+      <c r="G475" s="35"/>
+      <c r="H475" s="29"/>
+      <c r="I475" s="19"/>
+      <c r="J475" s="20"/>
+      <c r="K475" s="35"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="35"/>
+      <c r="B476" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D476" s="35"/>
+      <c r="E476" s="29">
+        <v>44376</v>
       </c>
       <c r="F476" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G476" s="37"/>
-      <c r="H476" s="31"/>
-      <c r="I476" s="19">
-        <v>1</v>
-      </c>
-      <c r="J476" s="20">
-        <v>0</v>
-      </c>
-      <c r="K476" s="37"/>
-    </row>
-    <row r="477" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="37"/>
-      <c r="B477" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C477" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D477" s="37"/>
-      <c r="E477" s="31">
-        <v>44176</v>
+      <c r="G476" s="35"/>
+      <c r="H476" s="29"/>
+      <c r="I476" s="19"/>
+      <c r="J476" s="20"/>
+      <c r="K476" s="35"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="35"/>
+      <c r="B477" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D477" s="35"/>
+      <c r="E477" s="29">
+        <v>44376</v>
       </c>
       <c r="F477" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G477" s="37"/>
-      <c r="H477" s="31"/>
-      <c r="I477" s="19">
-        <v>1</v>
-      </c>
-      <c r="J477" s="20">
-        <v>0</v>
-      </c>
-      <c r="K477" s="37"/>
-    </row>
-    <row r="478" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="37"/>
-      <c r="B478" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C478" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D478" s="37"/>
-      <c r="E478" s="31">
-        <v>44176</v>
+      <c r="G477" s="35"/>
+      <c r="H477" s="29"/>
+      <c r="I477" s="19"/>
+      <c r="J477" s="20"/>
+      <c r="K477" s="35"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="35"/>
+      <c r="B478" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D478" s="35"/>
+      <c r="E478" s="29">
+        <v>44376</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G478" s="37"/>
-      <c r="H478" s="31"/>
-      <c r="I478" s="19">
-        <v>1</v>
-      </c>
-      <c r="J478" s="20">
-        <v>0</v>
-      </c>
-      <c r="K478" s="37"/>
-    </row>
-    <row r="479" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="37"/>
+      <c r="G478" s="35"/>
+      <c r="H478" s="29"/>
+      <c r="I478" s="19"/>
+      <c r="J478" s="20"/>
+      <c r="K478" s="35"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>402</v>
+        <v>581</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D479" s="37"/>
-      <c r="E479" s="31">
-        <v>44245</v>
+        <v>586</v>
+      </c>
+      <c r="D479" s="35"/>
+      <c r="E479" s="29">
+        <v>44376</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G479" s="37"/>
-      <c r="H479" s="31"/>
+      <c r="G479" s="35"/>
+      <c r="H479" s="29"/>
       <c r="I479" s="19"/>
       <c r="J479" s="20"/>
-      <c r="K479" s="37"/>
-    </row>
-    <row r="480" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="37"/>
+      <c r="K479" s="35"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>404</v>
+        <v>582</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D480" s="37"/>
-      <c r="E480" s="31">
-        <v>44245</v>
+        <v>587</v>
+      </c>
+      <c r="D480" s="35"/>
+      <c r="E480" s="29">
+        <v>44376</v>
       </c>
       <c r="F480" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G480" s="37"/>
-      <c r="H480" s="31"/>
+      <c r="G480" s="35"/>
+      <c r="H480" s="29"/>
       <c r="I480" s="19"/>
       <c r="J480" s="20"/>
-      <c r="K480" s="37"/>
-    </row>
-    <row r="481" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="37"/>
+      <c r="K480" s="35"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>405</v>
+        <v>588</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D481" s="37"/>
-      <c r="E481" s="31">
-        <v>44245</v>
+        <v>589</v>
+      </c>
+      <c r="D481" s="35"/>
+      <c r="E481" s="29">
+        <v>44376</v>
       </c>
       <c r="F481" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G481" s="37"/>
-      <c r="H481" s="31"/>
+      <c r="G481" s="35"/>
+      <c r="H481" s="29"/>
       <c r="I481" s="19"/>
       <c r="J481" s="20"/>
-      <c r="K481" s="37"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="35"/>
-      <c r="B482" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D482" s="35"/>
-      <c r="E482" s="29">
-        <v>44175</v>
+      <c r="K481" s="35"/>
+    </row>
+    <row r="482" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="37"/>
+      <c r="B482" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C482" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D482" s="37"/>
+      <c r="E482" s="31">
+        <v>44176</v>
       </c>
       <c r="F482" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G482" s="35"/>
-      <c r="H482" s="29"/>
+      <c r="G482" s="37"/>
+      <c r="H482" s="31"/>
       <c r="I482" s="19">
         <v>1</v>
       </c>
       <c r="J482" s="20">
         <v>0</v>
       </c>
-      <c r="K482" s="35"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" s="35"/>
-      <c r="B483" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D483" s="35"/>
-      <c r="E483" s="29">
-        <v>44175</v>
+      <c r="K482" s="37"/>
+    </row>
+    <row r="483" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="37"/>
+      <c r="B483" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C483" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D483" s="37"/>
+      <c r="E483" s="31">
+        <v>44176</v>
       </c>
       <c r="F483" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G483" s="35"/>
-      <c r="H483" s="29"/>
+      <c r="G483" s="37"/>
+      <c r="H483" s="31"/>
       <c r="I483" s="19">
         <v>1</v>
       </c>
       <c r="J483" s="20">
         <v>0</v>
       </c>
-      <c r="K483" s="35"/>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="35"/>
-      <c r="B484" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D484" s="35"/>
-      <c r="E484" s="29">
-        <v>44175</v>
+      <c r="K483" s="37"/>
+    </row>
+    <row r="484" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="37"/>
+      <c r="B484" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C484" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D484" s="37"/>
+      <c r="E484" s="31">
+        <v>44176</v>
       </c>
       <c r="F484" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G484" s="35"/>
-      <c r="H484" s="29"/>
+      <c r="G484" s="37"/>
+      <c r="H484" s="31"/>
       <c r="I484" s="19">
         <v>1</v>
       </c>
       <c r="J484" s="20">
         <v>0</v>
       </c>
-      <c r="K484" s="35"/>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" s="35"/>
-      <c r="B485" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C485" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D485" s="35"/>
-      <c r="E485" s="29">
-        <v>44175</v>
+      <c r="K484" s="37"/>
+    </row>
+    <row r="485" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="37"/>
+      <c r="B485" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C485" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D485" s="37"/>
+      <c r="E485" s="31">
+        <v>44176</v>
       </c>
       <c r="F485" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G485" s="35"/>
-      <c r="H485" s="29"/>
+      <c r="G485" s="37"/>
+      <c r="H485" s="31"/>
       <c r="I485" s="19">
         <v>1</v>
       </c>
       <c r="J485" s="20">
         <v>0</v>
       </c>
-      <c r="K485" s="35"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="35"/>
+      <c r="K485" s="37"/>
+    </row>
+    <row r="486" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="37"/>
       <c r="B486" s="7" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D486" s="35"/>
-      <c r="E486" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D486" s="37"/>
+      <c r="E486" s="31">
+        <v>44245</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G486" s="35"/>
-      <c r="H486" s="29"/>
-      <c r="I486" s="19">
-        <v>1</v>
-      </c>
-      <c r="J486" s="20">
-        <v>0</v>
-      </c>
-      <c r="K486" s="35"/>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="35"/>
+      <c r="G486" s="37"/>
+      <c r="H486" s="31"/>
+      <c r="I486" s="19"/>
+      <c r="J486" s="20"/>
+      <c r="K486" s="37"/>
+    </row>
+    <row r="487" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="37"/>
       <c r="B487" s="7" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D487" s="35"/>
-      <c r="E487" s="29">
-        <v>44175</v>
+        <v>407</v>
+      </c>
+      <c r="D487" s="37"/>
+      <c r="E487" s="31">
+        <v>44245</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G487" s="35"/>
-      <c r="H487" s="29"/>
-      <c r="I487" s="19">
-        <v>1</v>
-      </c>
-      <c r="J487" s="20">
-        <v>0</v>
-      </c>
-      <c r="K487" s="35"/>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="35"/>
+      <c r="G487" s="37"/>
+      <c r="H487" s="31"/>
+      <c r="I487" s="19"/>
+      <c r="J487" s="20"/>
+      <c r="K487" s="37"/>
+    </row>
+    <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="37"/>
       <c r="B488" s="7" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D488" s="35"/>
-      <c r="E488" s="29">
-        <v>44173</v>
+        <v>406</v>
+      </c>
+      <c r="D488" s="37"/>
+      <c r="E488" s="31">
+        <v>44245</v>
       </c>
       <c r="F488" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G488" s="35"/>
-      <c r="H488" s="29"/>
-      <c r="I488" s="19">
-        <v>1</v>
-      </c>
-      <c r="J488" s="20">
-        <v>0</v>
-      </c>
-      <c r="K488" s="35"/>
+      <c r="G488" s="37"/>
+      <c r="H488" s="31"/>
+      <c r="I488" s="19"/>
+      <c r="J488" s="20"/>
+      <c r="K488" s="37"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
       <c r="B489" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D489" s="35"/>
       <c r="E489" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F489" s="58" t="s">
         <v>627</v>
@@ -14555,14 +14541,14 @@
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
       <c r="B490" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="D490" s="35"/>
       <c r="E490" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F490" s="58" t="s">
         <v>627</v>
@@ -14577,169 +14563,205 @@
       </c>
       <c r="K490" s="35"/>
     </row>
-    <row r="491" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="35"/>
-      <c r="B491" s="11"/>
-      <c r="C491" s="12"/>
+      <c r="B491" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="D491" s="35"/>
-      <c r="E491" s="32"/>
-      <c r="F491" s="60"/>
+      <c r="E491" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F491" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G491" s="35"/>
-      <c r="H491" s="32"/>
-      <c r="I491" s="23"/>
-      <c r="J491" s="24"/>
+      <c r="H491" s="29"/>
+      <c r="I491" s="19">
+        <v>1</v>
+      </c>
+      <c r="J491" s="20">
+        <v>0</v>
+      </c>
       <c r="K491" s="35"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>717</v>
+        <v>318</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>721</v>
+        <v>319</v>
       </c>
       <c r="D492" s="35"/>
       <c r="E492" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F492" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G492" s="35"/>
       <c r="H492" s="29"/>
-      <c r="I492" s="19"/>
-      <c r="J492" s="20"/>
+      <c r="I492" s="19">
+        <v>1</v>
+      </c>
+      <c r="J492" s="20">
+        <v>0</v>
+      </c>
       <c r="K492" s="35"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>718</v>
+        <v>317</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>722</v>
+        <v>320</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F493" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G493" s="35"/>
       <c r="H493" s="29"/>
-      <c r="I493" s="19"/>
-      <c r="J493" s="20"/>
+      <c r="I493" s="19">
+        <v>1</v>
+      </c>
+      <c r="J493" s="20">
+        <v>0</v>
+      </c>
       <c r="K493" s="35"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>719</v>
+        <v>316</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>723</v>
+        <v>321</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F494" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G494" s="35"/>
       <c r="H494" s="29"/>
-      <c r="I494" s="19"/>
-      <c r="J494" s="20"/>
+      <c r="I494" s="19">
+        <v>1</v>
+      </c>
+      <c r="J494" s="20">
+        <v>0</v>
+      </c>
       <c r="K494" s="35"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>720</v>
+        <v>306</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>724</v>
+        <v>307</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F495" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G495" s="35"/>
       <c r="H495" s="29"/>
-      <c r="I495" s="19"/>
-      <c r="J495" s="20"/>
+      <c r="I495" s="19">
+        <v>1</v>
+      </c>
+      <c r="J495" s="20">
+        <v>0</v>
+      </c>
       <c r="K495" s="35"/>
     </row>
-    <row r="496" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
-      <c r="B496" s="11"/>
-      <c r="C496" s="12"/>
+      <c r="B496" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D496" s="35"/>
-      <c r="E496" s="32"/>
-      <c r="F496" s="60"/>
+      <c r="E496" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F496" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G496" s="35"/>
-      <c r="H496" s="32"/>
-      <c r="I496" s="23"/>
-      <c r="J496" s="24"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="19">
+        <v>1</v>
+      </c>
+      <c r="J496" s="20">
+        <v>0</v>
+      </c>
       <c r="K496" s="35"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>759</v>
+        <v>298</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>756</v>
+        <v>299</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
-        <v>44384</v>
+        <v>44173</v>
       </c>
       <c r="F497" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G497" s="35"/>
       <c r="H497" s="29"/>
-      <c r="I497" s="19"/>
-      <c r="J497" s="20"/>
+      <c r="I497" s="19">
+        <v>1</v>
+      </c>
+      <c r="J497" s="20">
+        <v>0</v>
+      </c>
       <c r="K497" s="35"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
-      <c r="B498" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>757</v>
-      </c>
+      <c r="B498" s="11"/>
+      <c r="C498" s="12"/>
       <c r="D498" s="35"/>
-      <c r="E498" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F498" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E498" s="32"/>
+      <c r="F498" s="60"/>
       <c r="G498" s="35"/>
-      <c r="H498" s="29"/>
-      <c r="I498" s="19"/>
-      <c r="J498" s="20"/>
+      <c r="H498" s="32"/>
+      <c r="I498" s="23"/>
+      <c r="J498" s="24"/>
       <c r="K498" s="35"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F499" s="58" t="s">
         <v>627</v>
@@ -14750,61 +14772,200 @@
       <c r="J499" s="20"/>
       <c r="K499" s="35"/>
     </row>
-    <row r="500" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
-      <c r="B500" s="8"/>
-      <c r="C500" s="6"/>
+      <c r="B500" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D500" s="35"/>
-      <c r="E500" s="33"/>
-      <c r="F500" s="61"/>
+      <c r="E500" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F500" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G500" s="35"/>
-      <c r="H500" s="33"/>
-      <c r="I500" s="25"/>
-      <c r="J500" s="26"/>
+      <c r="H500" s="29"/>
+      <c r="I500" s="19"/>
+      <c r="J500" s="20"/>
       <c r="K500" s="35"/>
     </row>
-    <row r="501" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
-      <c r="B501" s="38"/>
-      <c r="C501" s="39"/>
+      <c r="B501" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="D501" s="35"/>
-      <c r="E501" s="40"/>
-      <c r="F501" s="55"/>
+      <c r="E501" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F501" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G501" s="35"/>
-      <c r="H501" s="40"/>
-      <c r="I501" s="41"/>
-      <c r="J501" s="41"/>
+      <c r="H501" s="29"/>
+      <c r="I501" s="19"/>
+      <c r="J501" s="20"/>
       <c r="K501" s="35"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="35"/>
+      <c r="B502" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D502" s="35"/>
+      <c r="E502" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F502" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G502" s="35"/>
+      <c r="H502" s="29"/>
+      <c r="I502" s="19"/>
+      <c r="J502" s="20"/>
+      <c r="K502" s="35"/>
+    </row>
+    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="35"/>
-      <c r="B503" s="7" t="s">
+      <c r="B503" s="11"/>
+      <c r="C503" s="12"/>
+      <c r="D503" s="35"/>
+      <c r="E503" s="32"/>
+      <c r="F503" s="60"/>
+      <c r="G503" s="35"/>
+      <c r="H503" s="32"/>
+      <c r="I503" s="23"/>
+      <c r="J503" s="24"/>
+      <c r="K503" s="35"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" s="35"/>
+      <c r="B504" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D504" s="35"/>
+      <c r="E504" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F504" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G504" s="35"/>
+      <c r="H504" s="29"/>
+      <c r="I504" s="19"/>
+      <c r="J504" s="20"/>
+      <c r="K504" s="35"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="35"/>
+      <c r="B505" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D505" s="35"/>
+      <c r="E505" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F505" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G505" s="35"/>
+      <c r="H505" s="29"/>
+      <c r="I505" s="19"/>
+      <c r="J505" s="20"/>
+      <c r="K505" s="35"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="35"/>
+      <c r="B506" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="D506" s="35"/>
+      <c r="E506" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F506" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G506" s="35"/>
+      <c r="H506" s="29"/>
+      <c r="I506" s="19"/>
+      <c r="J506" s="20"/>
+      <c r="K506" s="35"/>
+    </row>
+    <row r="507" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="35"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="6"/>
+      <c r="D507" s="35"/>
+      <c r="E507" s="33"/>
+      <c r="F507" s="61"/>
+      <c r="G507" s="35"/>
+      <c r="H507" s="33"/>
+      <c r="I507" s="25"/>
+      <c r="J507" s="26"/>
+      <c r="K507" s="35"/>
+    </row>
+    <row r="508" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="35"/>
+      <c r="B508" s="38"/>
+      <c r="C508" s="39"/>
+      <c r="D508" s="35"/>
+      <c r="E508" s="40"/>
+      <c r="F508" s="55"/>
+      <c r="G508" s="35"/>
+      <c r="H508" s="40"/>
+      <c r="I508" s="41"/>
+      <c r="J508" s="41"/>
+      <c r="K508" s="35"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510" s="35"/>
+      <c r="B510" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C503" s="4" t="s">
+      <c r="C510" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D503" s="35"/>
-      <c r="E503" s="29"/>
-      <c r="F503" s="58"/>
-      <c r="G503" s="35"/>
-      <c r="H503" s="29"/>
-      <c r="I503" s="19"/>
-      <c r="J503" s="20"/>
-      <c r="K503" s="35"/>
-    </row>
-    <row r="504" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="35"/>
-      <c r="B504" s="50"/>
-      <c r="C504" s="51"/>
-      <c r="D504" s="35"/>
-      <c r="E504" s="52"/>
-      <c r="F504" s="62"/>
-      <c r="G504" s="35"/>
-      <c r="H504" s="52"/>
-      <c r="I504" s="53"/>
-      <c r="J504" s="54"/>
-      <c r="K504" s="35"/>
+      <c r="D510" s="35"/>
+      <c r="E510" s="29"/>
+      <c r="F510" s="58"/>
+      <c r="G510" s="35"/>
+      <c r="H510" s="29"/>
+      <c r="I510" s="19"/>
+      <c r="J510" s="20"/>
+      <c r="K510" s="35"/>
+    </row>
+    <row r="511" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="35"/>
+      <c r="B511" s="50"/>
+      <c r="C511" s="51"/>
+      <c r="D511" s="35"/>
+      <c r="E511" s="52"/>
+      <c r="F511" s="62"/>
+      <c r="G511" s="35"/>
+      <c r="H511" s="52"/>
+      <c r="I511" s="53"/>
+      <c r="J511" s="54"/>
+      <c r="K511" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14816,7 +14977,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F91:F113 F125:F129 F131:F135 F137:F143 F145:F147 F149:F150 F155 F157:F175 F177:F212 F214:F216 F218:F222 F225:F244 F253:F258 F260:F261 F284:F285 F287:F288 F295:F300 F302:F303 F305:F306 F345:F353 F356:F358 F360 F362:F366 F368:F371 F373:F374 F384:F389 F391:F393 F395:F396 F398:F399 F152:F153 F401 F403:F404 F406:F440 F442:F444 F446:F450 F378:F382 F453:F457 F459:F461 F463:F490 F115:F118 F492:F495 F263:F282 F308:F338 F340:F343 F291:F293 F120:F122 F497:F499 F58 F37:F56 F35 F19:F22 F251 F17 F77:F83 F85:F90" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F91:F113 F125:F129 F131:F135 F137:F143 F145:F147 F149:F150 F155 F157:F175 F177:F212 F214:F216 F218:F222 F229:F248 F260:F265 F267:F268 F291:F292 F294:F295 F302:F307 F309:F310 F312:F313 F352:F360 F363:F365 F367 F369:F373 F375:F378 F380:F381 F391:F396 F398:F400 F402:F403 F405:F406 F152:F153 F408 F410:F411 F413:F447 F449:F451 F453:F457 F385:F389 F460:F464 F466:F468 F470:F497 F115:F118 F499:F502 F270:F289 F315:F345 F347:F350 F298:F300 F120:F122 F504:F506 F58 F37:F56 F35 F19:F22 F258 F17 F77:F83 F85:F90 F225 F250:F251 F226:F227" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6465"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="866">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2421,12 +2421,6 @@
   </si>
   <si>
     <t>transaction.read.dataRecord.master.getDayOffRegional</t>
-  </si>
-  <si>
-    <t>Mendapatkan Data Record  Hari Libur Kebijakan Pemerintah</t>
-  </si>
-  <si>
-    <t>Mendapatkan Data Record  Hari Libur Nasional</t>
   </si>
   <si>
     <t>Mendapatkan Data Record  Hari Libur Regional</t>
@@ -2922,6 +2916,36 @@
   </si>
   <si>
     <t>Menginisialisasi Data Log - File Upload Pointer</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setDataCompression</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Kompresi Data</t>
+  </si>
+  <si>
+    <t>transaction.delete.master.setDataCompression</t>
+  </si>
+  <si>
+    <t>Menghapus Data Kompresi Data</t>
+  </si>
+  <si>
+    <t>transaction.undelete.master.setDataCompression</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Kompresi Data</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.master.getDataCompression</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Hari Libur Kebijakan Pemerintah</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Kompresi Data</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Hari Libur Nasional</t>
   </si>
 </sst>
 </file>
@@ -3821,13 +3845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L511"/>
+  <dimension ref="A1:L515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E230" sqref="E230"/>
+      <selection pane="bottomRight" activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4167,10 +4191,10 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="29">
@@ -4201,10 +4225,10 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="29">
@@ -4222,10 +4246,10 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="29">
@@ -4243,10 +4267,10 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="29">
@@ -4264,10 +4288,10 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>825</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="29">
@@ -4501,10 +4525,10 @@
     <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="29">
@@ -4535,10 +4559,10 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="29">
@@ -4556,10 +4580,10 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="29">
@@ -4577,10 +4601,10 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="29">
@@ -4598,10 +4622,10 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="29">
@@ -4619,10 +4643,10 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="29">
@@ -4640,10 +4664,10 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="29">
@@ -4661,10 +4685,10 @@
     <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="29">
@@ -4682,10 +4706,10 @@
     <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="29">
@@ -4703,10 +4727,10 @@
     <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="29">
@@ -4724,10 +4748,10 @@
     <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
       <c r="B46" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="29">
@@ -4745,10 +4769,10 @@
     <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="29">
@@ -4766,10 +4790,10 @@
     <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D48" s="37"/>
       <c r="E48" s="29">
@@ -4787,10 +4811,10 @@
     <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="29">
@@ -4808,10 +4832,10 @@
     <row r="50" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="29">
@@ -4831,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="29">
@@ -4852,10 +4876,10 @@
     <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="29">
@@ -4873,10 +4897,10 @@
     <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="29">
@@ -4894,10 +4918,10 @@
     <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="29">
@@ -4915,10 +4939,10 @@
     <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="29">
@@ -4936,10 +4960,10 @@
     <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="29">
@@ -4970,10 +4994,10 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29">
@@ -5405,10 +5429,10 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>844</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29">
@@ -5426,10 +5450,10 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>845</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29">
@@ -5447,10 +5471,10 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29">
@@ -5619,10 +5643,10 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29">
@@ -5766,37 +5790,31 @@
     <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
       <c r="B98" s="13" t="s">
-        <v>334</v>
+        <v>856</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>346</v>
+        <v>857</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="29">
-        <v>44176</v>
+        <v>44405</v>
       </c>
       <c r="F98" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G98" s="37"/>
-      <c r="H98" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I98" s="19">
-        <v>1</v>
-      </c>
-      <c r="J98" s="20">
-        <v>1</v>
-      </c>
+      <c r="H98" s="29"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
       <c r="K98" s="37"/>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="29">
@@ -5820,14 +5838,14 @@
     <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
       <c r="B100" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D100" s="37"/>
       <c r="E100" s="29">
-        <v>44173</v>
+        <v>44176</v>
       </c>
       <c r="F100" s="58" t="s">
         <v>627</v>
@@ -5847,10 +5865,10 @@
     <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
       <c r="B101" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D101" s="37"/>
       <c r="E101" s="29">
@@ -5861,7 +5879,7 @@
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="I101" s="19">
         <v>1</v>
@@ -5873,32 +5891,38 @@
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
-      <c r="B102" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>400</v>
+      <c r="B102" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="D102" s="37"/>
       <c r="E102" s="29">
-        <v>44245</v>
+        <v>44173</v>
       </c>
       <c r="F102" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G102" s="37"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I102" s="19">
+        <v>1</v>
+      </c>
+      <c r="J102" s="20">
+        <v>1</v>
+      </c>
       <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
       <c r="B103" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="29">
@@ -5913,61 +5937,55 @@
       <c r="J103" s="20"/>
       <c r="K103" s="37"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
+    <row r="104" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
       <c r="B104" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="35"/>
+        <v>401</v>
+      </c>
+      <c r="D104" s="37"/>
       <c r="E104" s="29">
         <v>44245</v>
       </c>
       <c r="F104" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G104" s="35"/>
+      <c r="G104" s="37"/>
       <c r="H104" s="29"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
-      <c r="K104" s="35"/>
+      <c r="K104" s="37"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F105" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G105" s="35"/>
-      <c r="H105" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I105" s="19">
-        <v>1</v>
-      </c>
-      <c r="J105" s="20">
-        <v>1</v>
-      </c>
+      <c r="H105" s="29"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
       <c r="K105" s="35"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29">
@@ -5991,10 +6009,10 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29">
@@ -6018,10 +6036,10 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29">
@@ -6045,10 +6063,10 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29">
@@ -6072,10 +6090,10 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29">
@@ -6099,14 +6117,14 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F111" s="58" t="s">
         <v>627</v>
@@ -6126,10 +6144,10 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29">
@@ -6153,10 +6171,10 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29">
@@ -6177,47 +6195,53 @@
       </c>
       <c r="K113" s="35"/>
     </row>
-    <row r="114" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="B114" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D114" s="35"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="60"/>
+      <c r="E114" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F114" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G114" s="35"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="24"/>
+      <c r="H114" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I114" s="19">
+        <v>1</v>
+      </c>
+      <c r="J114" s="20">
+        <v>1</v>
+      </c>
       <c r="K114" s="35"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
-      <c r="B115" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="35"/>
-      <c r="E115" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F115" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E115" s="32"/>
+      <c r="F115" s="60"/>
       <c r="G115" s="35"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="24"/>
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29">
@@ -6235,10 +6259,10 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
@@ -6256,10 +6280,10 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29">
@@ -6274,47 +6298,47 @@
       <c r="J118" s="20"/>
       <c r="K118" s="35"/>
     </row>
-    <row r="119" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
+      <c r="B119" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="D119" s="35"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="60"/>
+      <c r="E119" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F119" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G119" s="35"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="24"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
       <c r="K119" s="35"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
-      <c r="B120" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>751</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="35"/>
-      <c r="E120" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F120" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E120" s="32"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="35"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="24"/>
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="29">
@@ -6332,10 +6356,10 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29">
@@ -6352,62 +6376,58 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="4"/>
+      <c r="B123" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="D123" s="35"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="58"/>
+      <c r="E123" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F123" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G123" s="35"/>
       <c r="H123" s="29"/>
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
       <c r="K123" s="35"/>
     </row>
-    <row r="124" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="35"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="59"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="35"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
       <c r="K124" s="35"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="10"/>
       <c r="D125" s="35"/>
-      <c r="E125" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F125" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E125" s="30"/>
+      <c r="F125" s="59"/>
       <c r="G125" s="35"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="19">
-        <v>1</v>
-      </c>
-      <c r="J125" s="20">
-        <v>0</v>
-      </c>
+      <c r="H125" s="30"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="22"/>
       <c r="K125" s="35"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="29">
@@ -6429,10 +6449,10 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29">
@@ -6454,10 +6474,10 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29">
@@ -6479,10 +6499,10 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29">
@@ -6501,53 +6521,51 @@
       </c>
       <c r="K129" s="35"/>
     </row>
-    <row r="130" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
+      <c r="B130" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D130" s="35"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F130" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G130" s="35"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="24"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="19">
+        <v>1</v>
+      </c>
+      <c r="J130" s="20">
+        <v>0</v>
+      </c>
       <c r="K130" s="35"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="35"/>
-      <c r="E131" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F131" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="60"/>
       <c r="G131" s="35"/>
-      <c r="H131" s="29">
-        <v>44188</v>
-      </c>
-      <c r="I131" s="19">
-        <v>1</v>
-      </c>
-      <c r="J131" s="20">
-        <v>1</v>
-      </c>
+      <c r="H131" s="32"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="24"/>
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29">
@@ -6557,22 +6575,24 @@
         <v>627</v>
       </c>
       <c r="G132" s="35"/>
-      <c r="H132" s="29"/>
+      <c r="H132" s="29">
+        <v>44188</v>
+      </c>
       <c r="I132" s="19">
         <v>1</v>
       </c>
       <c r="J132" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29">
@@ -6594,10 +6614,10 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29">
@@ -6619,10 +6639,10 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29">
@@ -6641,51 +6661,55 @@
       </c>
       <c r="K135" s="35"/>
     </row>
-    <row r="136" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="B136" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D136" s="35"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="60"/>
+      <c r="E136" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F136" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G136" s="35"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="24"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="19">
+        <v>1</v>
+      </c>
+      <c r="J136" s="20">
+        <v>0</v>
+      </c>
       <c r="K136" s="35"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
-      <c r="B137" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="35"/>
-      <c r="E137" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F137" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E137" s="32"/>
+      <c r="F137" s="60"/>
       <c r="G137" s="35"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="35"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>459</v>
+        <v>200</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F138" s="58" t="s">
         <v>627</v>
@@ -6699,14 +6723,14 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>633</v>
+        <v>458</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>635</v>
+        <v>459</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29">
-        <v>44378</v>
+        <v>44362</v>
       </c>
       <c r="F139" s="58" t="s">
         <v>627</v>
@@ -6720,10 +6744,10 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29">
@@ -6741,14 +6765,14 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>455</v>
+        <v>636</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
-        <v>44362</v>
+        <v>44378</v>
       </c>
       <c r="F141" s="58" t="s">
         <v>627</v>
@@ -6762,10 +6786,10 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
@@ -6783,94 +6807,94 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
-        <v>199</v>
+        <v>466</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29">
-        <v>44154</v>
+        <v>44362</v>
       </c>
       <c r="F143" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G143" s="35"/>
       <c r="H143" s="29"/>
-      <c r="I143" s="19">
-        <v>1</v>
-      </c>
-      <c r="J143" s="20">
-        <v>0</v>
-      </c>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
       <c r="K143" s="35"/>
     </row>
-    <row r="144" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
+      <c r="B144" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D144" s="35"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="60"/>
+      <c r="E144" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F144" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G144" s="35"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="24"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="19">
+        <v>1</v>
+      </c>
+      <c r="J144" s="20">
+        <v>0</v>
+      </c>
       <c r="K144" s="35"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
-      <c r="B145" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>637</v>
-      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="35"/>
-      <c r="E145" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F145" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="60"/>
       <c r="G145" s="35"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="19">
-        <v>1</v>
-      </c>
-      <c r="J145" s="20">
-        <v>0</v>
-      </c>
+      <c r="H145" s="32"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="24"/>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>638</v>
+        <v>202</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F146" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G146" s="35"/>
       <c r="H146" s="29"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="I146" s="19">
+        <v>1</v>
+      </c>
+      <c r="J146" s="20">
+        <v>0</v>
+      </c>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
@@ -6885,51 +6909,47 @@
       <c r="J147" s="20"/>
       <c r="K147" s="35"/>
     </row>
-    <row r="148" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
+      <c r="B148" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D148" s="35"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="60"/>
+      <c r="E148" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F148" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G148" s="35"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="24"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
       <c r="K148" s="35"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="35"/>
-      <c r="E149" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F149" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E149" s="32"/>
+      <c r="F149" s="60"/>
       <c r="G149" s="35"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="19">
-        <v>1</v>
-      </c>
-      <c r="J149" s="20">
-        <v>0</v>
-      </c>
+      <c r="H149" s="32"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="24"/>
       <c r="K149" s="35"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D150" s="35"/>
       <c r="E150" s="29">
@@ -6948,51 +6968,51 @@
       </c>
       <c r="K150" s="35"/>
     </row>
-    <row r="151" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
+      <c r="B151" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="D151" s="35"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="60"/>
+      <c r="E151" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F151" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G151" s="35"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="24"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="19">
+        <v>1</v>
+      </c>
+      <c r="J151" s="20">
+        <v>0</v>
+      </c>
       <c r="K151" s="35"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
-      <c r="B152" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="35"/>
-      <c r="E152" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F152" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E152" s="32"/>
+      <c r="F152" s="60"/>
       <c r="G152" s="35"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="19">
-        <v>1</v>
-      </c>
-      <c r="J152" s="20">
-        <v>0</v>
-      </c>
+      <c r="H152" s="32"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="24"/>
       <c r="K152" s="35"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
@@ -7011,89 +7031,89 @@
       </c>
       <c r="K153" s="35"/>
     </row>
-    <row r="154" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
+      <c r="B154" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D154" s="35"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="60"/>
+      <c r="E154" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F154" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G154" s="35"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="24"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="19">
+        <v>1</v>
+      </c>
+      <c r="J154" s="20">
+        <v>0</v>
+      </c>
       <c r="K154" s="35"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="11"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="35"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="35"/>
+      <c r="B156" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D155" s="35"/>
-      <c r="E155" s="29">
+      <c r="D156" s="35"/>
+      <c r="E156" s="29">
         <v>44158</v>
       </c>
-      <c r="F155" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G155" s="35"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="19">
-        <v>1</v>
-      </c>
-      <c r="J155" s="20">
-        <v>0</v>
-      </c>
-      <c r="K155" s="35"/>
-    </row>
-    <row r="156" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="60"/>
+      <c r="F156" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G156" s="35"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="24"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="19">
+        <v>1</v>
+      </c>
+      <c r="J156" s="20">
+        <v>0</v>
+      </c>
       <c r="K156" s="35"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="35"/>
-      <c r="E157" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F157" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E157" s="32"/>
+      <c r="F157" s="60"/>
       <c r="G157" s="35"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="19">
-        <v>1</v>
-      </c>
-      <c r="J157" s="20">
-        <v>0</v>
-      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="24"/>
       <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -7115,10 +7135,10 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -7140,10 +7160,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -7165,10 +7185,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -7190,10 +7210,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -7215,10 +7235,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7240,10 +7260,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -7265,10 +7285,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -7290,10 +7310,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -7315,10 +7335,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -7340,10 +7360,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7365,10 +7385,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7390,10 +7410,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7415,10 +7435,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29">
@@ -7440,10 +7460,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
@@ -7465,10 +7485,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
@@ -7490,10 +7510,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
@@ -7515,10 +7535,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29">
@@ -7537,51 +7557,51 @@
       </c>
       <c r="K175" s="35"/>
     </row>
-    <row r="176" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
+      <c r="B176" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D176" s="35"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="60"/>
+      <c r="E176" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F176" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G176" s="35"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="23"/>
-      <c r="J176" s="24"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="19">
+        <v>1</v>
+      </c>
+      <c r="J176" s="20">
+        <v>0</v>
+      </c>
       <c r="K176" s="35"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
-      <c r="B177" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="35"/>
-      <c r="E177" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F177" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E177" s="32"/>
+      <c r="F177" s="60"/>
       <c r="G177" s="35"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="19">
-        <v>1</v>
-      </c>
-      <c r="J177" s="20">
-        <v>0</v>
-      </c>
+      <c r="H177" s="32"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="24"/>
       <c r="K177" s="35"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29">
@@ -7603,14 +7623,14 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
-        <v>44165</v>
+        <v>44148</v>
       </c>
       <c r="F179" s="58" t="s">
         <v>627</v>
@@ -7628,10 +7648,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
@@ -7653,14 +7673,14 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
-        <v>44148</v>
+        <v>44165</v>
       </c>
       <c r="F181" s="58" t="s">
         <v>627</v>
@@ -7678,10 +7698,10 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29">
@@ -7703,14 +7723,14 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F183" s="58" t="s">
         <v>627</v>
@@ -7728,10 +7748,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
@@ -7753,14 +7773,14 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F185" s="58" t="s">
         <v>627</v>
@@ -7778,14 +7798,14 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F186" s="58" t="s">
         <v>627</v>
@@ -7803,14 +7823,14 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F187" s="58" t="s">
         <v>627</v>
@@ -7828,10 +7848,10 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
@@ -7853,10 +7873,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
@@ -7878,10 +7898,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
@@ -7903,10 +7923,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
@@ -7928,10 +7948,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
@@ -7953,14 +7973,14 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F193" s="58" t="s">
         <v>627</v>
@@ -7978,10 +7998,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
@@ -8003,10 +8023,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
@@ -8028,14 +8048,14 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>99</v>
+        <v>858</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>101</v>
+        <v>859</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
-        <v>44152</v>
+        <v>44406</v>
       </c>
       <c r="F196" s="58" t="s">
         <v>627</v>
@@ -8053,10 +8073,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
@@ -8078,10 +8098,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
@@ -8103,10 +8123,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
@@ -8128,10 +8148,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
@@ -8153,10 +8173,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
@@ -8178,10 +8198,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
@@ -8203,14 +8223,14 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F203" s="58" t="s">
         <v>627</v>
@@ -8228,14 +8248,14 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F204" s="58" t="s">
         <v>627</v>
@@ -8253,10 +8273,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
@@ -8278,10 +8298,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
@@ -8303,10 +8323,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
@@ -8328,10 +8348,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29">
@@ -8353,10 +8373,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
@@ -8378,10 +8398,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8403,10 +8423,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
@@ -8428,10 +8448,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29">
@@ -8450,26 +8470,38 @@
       </c>
       <c r="K212" s="35"/>
     </row>
-    <row r="213" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12"/>
+      <c r="B213" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="D213" s="35"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="60"/>
+      <c r="E213" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F213" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G213" s="35"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="23"/>
-      <c r="J213" s="24"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="19">
+        <v>1</v>
+      </c>
+      <c r="J213" s="20">
+        <v>0</v>
+      </c>
       <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
@@ -8488,42 +8520,30 @@
       </c>
       <c r="K214" s="35"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
-      <c r="B215" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="35"/>
-      <c r="E215" s="29">
-        <v>44153</v>
-      </c>
-      <c r="F215" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E215" s="32"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="35"/>
-      <c r="H215" s="29"/>
-      <c r="I215" s="19">
-        <v>1</v>
-      </c>
-      <c r="J215" s="20">
-        <v>0</v>
-      </c>
+      <c r="H215" s="32"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="24"/>
       <c r="K215" s="35"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>764</v>
+        <v>125</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>765</v>
+        <v>194</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F216" s="58" t="s">
         <v>627</v>
@@ -8538,30 +8558,42 @@
       </c>
       <c r="K216" s="35"/>
     </row>
-    <row r="217" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="12"/>
+      <c r="B217" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D217" s="35"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="60"/>
+      <c r="E217" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F217" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G217" s="35"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="23"/>
-      <c r="J217" s="24"/>
+      <c r="H217" s="29"/>
+      <c r="I217" s="19">
+        <v>1</v>
+      </c>
+      <c r="J217" s="20">
+        <v>0</v>
+      </c>
       <c r="K217" s="35"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>257</v>
+        <v>762</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>265</v>
+        <v>763</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="F218" s="58" t="s">
         <v>627</v>
@@ -8576,38 +8608,26 @@
       </c>
       <c r="K218" s="35"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="B219" s="11"/>
+      <c r="C219" s="12"/>
       <c r="D219" s="35"/>
-      <c r="E219" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F219" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E219" s="32"/>
+      <c r="F219" s="60"/>
       <c r="G219" s="35"/>
-      <c r="H219" s="29"/>
-      <c r="I219" s="19">
-        <v>1</v>
-      </c>
-      <c r="J219" s="20">
-        <v>0</v>
-      </c>
+      <c r="H219" s="32"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="24"/>
       <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29">
@@ -8629,10 +8649,10 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
@@ -8654,10 +8674,10 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29">
@@ -8678,79 +8698,87 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="D223" s="35"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="58"/>
+      <c r="E223" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F223" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G223" s="35"/>
       <c r="H223" s="29"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="I223" s="19">
+        <v>1</v>
+      </c>
+      <c r="J223" s="20">
+        <v>0</v>
+      </c>
       <c r="K223" s="35"/>
     </row>
-    <row r="224" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="10"/>
+      <c r="B224" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="D224" s="35"/>
-      <c r="E224" s="30"/>
-      <c r="F224" s="59"/>
+      <c r="E224" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F224" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G224" s="35"/>
-      <c r="H224" s="30"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="22"/>
+      <c r="H224" s="29"/>
+      <c r="I224" s="19">
+        <v>1</v>
+      </c>
+      <c r="J224" s="20">
+        <v>0</v>
+      </c>
       <c r="K224" s="35"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
-      <c r="B225" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>853</v>
-      </c>
+      <c r="B225" s="7"/>
+      <c r="C225" s="4"/>
       <c r="D225" s="35"/>
-      <c r="E225" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F225" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E225" s="29"/>
+      <c r="F225" s="58"/>
       <c r="G225" s="35"/>
       <c r="H225" s="29"/>
       <c r="I225" s="19"/>
       <c r="J225" s="20"/>
       <c r="K225" s="35"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
-      <c r="B226" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>856</v>
-      </c>
+      <c r="B226" s="9"/>
+      <c r="C226" s="10"/>
       <c r="D226" s="35"/>
-      <c r="E226" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F226" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="59"/>
       <c r="G226" s="35"/>
-      <c r="H226" s="29"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="22"/>
       <c r="K226" s="35"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
       <c r="B227" s="7" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29">
@@ -8765,80 +8793,68 @@
       <c r="J227" s="20"/>
       <c r="K227" s="35"/>
     </row>
-    <row r="228" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12"/>
+      <c r="B228" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>854</v>
+      </c>
       <c r="D228" s="35"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="60"/>
+      <c r="E228" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F228" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G228" s="35"/>
-      <c r="H228" s="32"/>
-      <c r="I228" s="23"/>
-      <c r="J228" s="24"/>
+      <c r="H228" s="29"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="20"/>
       <c r="K228" s="35"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>33</v>
+        <v>853</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>34</v>
+        <v>855</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F229" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G229" s="35"/>
-      <c r="H229" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I229" s="19">
-        <v>1</v>
-      </c>
-      <c r="J229" s="20">
-        <v>1</v>
-      </c>
+      <c r="H229" s="29"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="20"/>
       <c r="K229" s="35"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
-      <c r="B230" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
       <c r="D230" s="35"/>
-      <c r="E230" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F230" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E230" s="32"/>
+      <c r="F230" s="60"/>
       <c r="G230" s="35"/>
-      <c r="H230" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I230" s="19">
-        <v>1</v>
-      </c>
-      <c r="J230" s="20">
-        <v>1</v>
-      </c>
+      <c r="H230" s="32"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="24"/>
       <c r="K230" s="35"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
       <c r="B231" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D231" s="35"/>
       <c r="E231" s="29">
@@ -8849,7 +8865,7 @@
       </c>
       <c r="G231" s="35"/>
       <c r="H231" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I231" s="19">
         <v>1</v>
@@ -8862,10 +8878,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
@@ -8889,10 +8905,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -8916,10 +8932,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -8943,10 +8959,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -8970,10 +8986,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -8997,10 +9013,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9024,10 +9040,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9051,10 +9067,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9078,10 +9094,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9105,10 +9121,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9132,10 +9148,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29">
@@ -9159,10 +9175,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29">
@@ -9186,10 +9202,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
@@ -9213,10 +9229,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29">
@@ -9240,10 +9256,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29">
@@ -9267,10 +9283,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29">
@@ -9294,10 +9310,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29">
@@ -9318,95 +9334,119 @@
       </c>
       <c r="K248" s="35"/>
     </row>
-    <row r="249" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12"/>
+      <c r="B249" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D249" s="35"/>
-      <c r="E249" s="32"/>
-      <c r="F249" s="60"/>
+      <c r="E249" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F249" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G249" s="35"/>
-      <c r="H249" s="32"/>
-      <c r="I249" s="23"/>
-      <c r="J249" s="24"/>
+      <c r="H249" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I249" s="19">
+        <v>1</v>
+      </c>
+      <c r="J249" s="20">
+        <v>1</v>
+      </c>
       <c r="K249" s="35"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>850</v>
+        <v>60</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>851</v>
+        <v>72</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
-        <v>44405</v>
+        <v>44148</v>
       </c>
       <c r="F250" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G250" s="35"/>
-      <c r="H250" s="29"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
+      <c r="H250" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I250" s="19">
+        <v>1</v>
+      </c>
+      <c r="J250" s="20">
+        <v>1</v>
+      </c>
       <c r="K250" s="35"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>848</v>
-      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="35"/>
-      <c r="E251" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F251" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E251" s="32"/>
+      <c r="F251" s="60"/>
       <c r="G251" s="35"/>
-      <c r="H251" s="29"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="24"/>
       <c r="K251" s="35"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="D252" s="35"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="58"/>
+      <c r="E252" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F252" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G252" s="35"/>
       <c r="H252" s="29"/>
       <c r="I252" s="19"/>
       <c r="J252" s="20"/>
       <c r="K252" s="35"/>
     </row>
-    <row r="253" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="10"/>
+      <c r="B253" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="D253" s="35"/>
-      <c r="E253" s="30"/>
-      <c r="F253" s="59"/>
+      <c r="E253" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F253" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G253" s="35"/>
-      <c r="H253" s="30"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="22"/>
+      <c r="H253" s="29"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
       <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>830</v>
-      </c>
+      <c r="B254" s="7"/>
+      <c r="C254" s="4"/>
       <c r="D254" s="35"/>
       <c r="E254" s="29"/>
       <c r="F254" s="58"/>
@@ -9416,30 +9456,26 @@
       <c r="J254" s="20"/>
       <c r="K254" s="35"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>833</v>
-      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
       <c r="D255" s="35"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="58"/>
+      <c r="E255" s="30"/>
+      <c r="F255" s="59"/>
       <c r="G255" s="35"/>
-      <c r="H255" s="29"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
+      <c r="H255" s="30"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="22"/>
       <c r="K255" s="35"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29"/>
@@ -9453,10 +9489,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
@@ -9470,48 +9506,48 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F258" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E258" s="29"/>
+      <c r="F258" s="58"/>
       <c r="G258" s="35"/>
       <c r="H258" s="29"/>
       <c r="I258" s="19"/>
       <c r="J258" s="20"/>
       <c r="K258" s="35"/>
     </row>
-    <row r="259" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12"/>
+      <c r="B259" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>834</v>
+      </c>
       <c r="D259" s="35"/>
-      <c r="E259" s="32"/>
-      <c r="F259" s="60"/>
+      <c r="E259" s="29"/>
+      <c r="F259" s="58"/>
       <c r="G259" s="35"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="23"/>
-      <c r="J259" s="24"/>
+      <c r="H259" s="29"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
       <c r="K259" s="35"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>501</v>
+        <v>824</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>445</v>
+        <v>835</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
-        <v>44243</v>
+        <v>44400</v>
       </c>
       <c r="F260" s="58" t="s">
         <v>627</v>
@@ -9522,38 +9558,30 @@
       <c r="J260" s="20"/>
       <c r="K260" s="35"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
-      <c r="B261" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>472</v>
-      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="35"/>
-      <c r="E261" s="29">
-        <v>44349</v>
-      </c>
-      <c r="F261" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E261" s="32"/>
+      <c r="F261" s="60"/>
       <c r="G261" s="35"/>
-      <c r="H261" s="29"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="24"/>
       <c r="K261" s="35"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29">
-        <v>44364</v>
+        <v>44243</v>
       </c>
       <c r="F262" s="58" t="s">
         <v>627</v>
@@ -9567,14 +9595,14 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="F263" s="58" t="s">
         <v>627</v>
@@ -9588,14 +9616,14 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F264" s="58" t="s">
         <v>627</v>
@@ -9609,14 +9637,14 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="F265" s="58" t="s">
         <v>627</v>
@@ -9627,30 +9655,38 @@
       <c r="J265" s="20"/>
       <c r="K265" s="35"/>
     </row>
-    <row r="266" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12"/>
+      <c r="B266" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="32"/>
-      <c r="F266" s="60"/>
+      <c r="E266" s="29">
+        <v>44243</v>
+      </c>
+      <c r="F266" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G266" s="35"/>
-      <c r="H266" s="32"/>
-      <c r="I266" s="23"/>
-      <c r="J266" s="24"/>
+      <c r="H266" s="29"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="20"/>
       <c r="K266" s="35"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
-        <v>44243</v>
+        <v>44362</v>
       </c>
       <c r="F267" s="58" t="s">
         <v>627</v>
@@ -9661,97 +9697,81 @@
       <c r="J267" s="20"/>
       <c r="K267" s="35"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
-      <c r="B268" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>444</v>
-      </c>
+      <c r="B268" s="11"/>
+      <c r="C268" s="12"/>
       <c r="D268" s="35"/>
-      <c r="E268" s="29">
-        <v>44343</v>
-      </c>
-      <c r="F268" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E268" s="32"/>
+      <c r="F268" s="60"/>
       <c r="G268" s="35"/>
-      <c r="H268" s="29"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
+      <c r="H268" s="32"/>
+      <c r="I268" s="23"/>
+      <c r="J268" s="24"/>
       <c r="K268" s="35"/>
     </row>
-    <row r="269" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12"/>
+      <c r="B269" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="D269" s="35"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="60"/>
+      <c r="E269" s="29">
+        <v>44243</v>
+      </c>
+      <c r="F269" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G269" s="35"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="23"/>
-      <c r="J269" s="24"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
       <c r="K269" s="35"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F270" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G270" s="35"/>
       <c r="H270" s="29"/>
-      <c r="I270" s="19">
-        <v>1</v>
-      </c>
-      <c r="J270" s="20">
-        <v>0</v>
-      </c>
+      <c r="I270" s="19"/>
+      <c r="J270" s="20"/>
       <c r="K270" s="35"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
-      <c r="B271" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="35"/>
-      <c r="E271" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F271" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E271" s="32"/>
+      <c r="F271" s="60"/>
       <c r="G271" s="35"/>
-      <c r="H271" s="29"/>
-      <c r="I271" s="19">
-        <v>1</v>
-      </c>
-      <c r="J271" s="20">
-        <v>0</v>
-      </c>
+      <c r="H271" s="32"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="24"/>
       <c r="K271" s="35"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="29">
@@ -9773,14 +9793,14 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>737</v>
+        <v>483</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>738</v>
+        <v>14</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
-        <v>44383</v>
+        <v>44148</v>
       </c>
       <c r="F273" s="58" t="s">
         <v>627</v>
@@ -9798,10 +9818,10 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
@@ -9823,14 +9843,14 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>486</v>
+        <v>737</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>17</v>
+        <v>738</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F275" s="58" t="s">
         <v>627</v>
@@ -9848,10 +9868,10 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
@@ -9873,10 +9893,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9898,10 +9918,10 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
@@ -9923,10 +9943,10 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
@@ -9948,10 +9968,10 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
@@ -9973,10 +9993,10 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
@@ -9998,10 +10018,10 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29">
@@ -10023,10 +10043,10 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
       <c r="B283" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D283" s="35"/>
       <c r="E283" s="29">
@@ -10048,10 +10068,10 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
@@ -10073,10 +10093,10 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
@@ -10098,10 +10118,10 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>28</v>
+        <v>495</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
@@ -10123,10 +10143,10 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
@@ -10148,10 +10168,10 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>24</v>
+        <v>497</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
@@ -10173,10 +10193,10 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
       <c r="B289" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D289" s="35"/>
       <c r="E289" s="29">
@@ -10195,81 +10215,97 @@
       </c>
       <c r="K289" s="35"/>
     </row>
-    <row r="290" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12"/>
+      <c r="B290" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D290" s="35"/>
-      <c r="E290" s="32"/>
-      <c r="F290" s="60"/>
+      <c r="E290" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F290" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G290" s="35"/>
-      <c r="H290" s="32"/>
-      <c r="I290" s="23"/>
-      <c r="J290" s="24"/>
+      <c r="H290" s="29"/>
+      <c r="I290" s="19">
+        <v>1</v>
+      </c>
+      <c r="J290" s="20">
+        <v>0</v>
+      </c>
       <c r="K290" s="35"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
-        <v>44343</v>
+        <v>44148</v>
       </c>
       <c r="F291" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G291" s="35"/>
       <c r="H291" s="29"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="20"/>
+      <c r="I291" s="19">
+        <v>1</v>
+      </c>
+      <c r="J291" s="20">
+        <v>0</v>
+      </c>
       <c r="K291" s="35"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
-      <c r="B292" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12"/>
       <c r="D292" s="35"/>
-      <c r="E292" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F292" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E292" s="32"/>
+      <c r="F292" s="60"/>
       <c r="G292" s="35"/>
-      <c r="H292" s="29"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="20"/>
+      <c r="H292" s="32"/>
+      <c r="I292" s="23"/>
+      <c r="J292" s="24"/>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
+      <c r="B293" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D293" s="35"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="60"/>
+      <c r="E293" s="29">
+        <v>44343</v>
+      </c>
+      <c r="F293" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G293" s="35"/>
-      <c r="H293" s="32"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="24"/>
+      <c r="H293" s="29"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
       <c r="K293" s="35"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
       <c r="B294" s="7" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D294" s="35"/>
       <c r="E294" s="29">
@@ -10284,102 +10320,94 @@
       <c r="J294" s="20"/>
       <c r="K294" s="35"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
-      <c r="B295" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>442</v>
-      </c>
+      <c r="B295" s="11"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="35"/>
-      <c r="E295" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F295" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E295" s="32"/>
+      <c r="F295" s="60"/>
       <c r="G295" s="35"/>
-      <c r="H295" s="29"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
+      <c r="H295" s="32"/>
+      <c r="I295" s="23"/>
+      <c r="J295" s="24"/>
       <c r="K295" s="35"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="7"/>
-      <c r="C296" s="4"/>
+      <c r="B296" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="D296" s="35"/>
-      <c r="E296" s="29"/>
-      <c r="F296" s="58"/>
+      <c r="E296" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F296" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G296" s="35"/>
       <c r="H296" s="29"/>
       <c r="I296" s="19"/>
       <c r="J296" s="20"/>
       <c r="K296" s="35"/>
     </row>
-    <row r="297" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="10"/>
+      <c r="B297" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D297" s="35"/>
-      <c r="E297" s="30"/>
-      <c r="F297" s="59"/>
+      <c r="E297" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F297" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G297" s="35"/>
-      <c r="H297" s="30"/>
-      <c r="I297" s="21"/>
-      <c r="J297" s="22"/>
+      <c r="H297" s="29"/>
+      <c r="I297" s="19"/>
+      <c r="J297" s="20"/>
       <c r="K297" s="35"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
-      <c r="B298" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="4"/>
       <c r="D298" s="35"/>
-      <c r="E298" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F298" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E298" s="29"/>
+      <c r="F298" s="58"/>
       <c r="G298" s="35"/>
       <c r="H298" s="29"/>
       <c r="I298" s="19"/>
       <c r="J298" s="20"/>
       <c r="K298" s="35"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
-      <c r="B299" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="B299" s="9"/>
+      <c r="C299" s="10"/>
       <c r="D299" s="35"/>
-      <c r="E299" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F299" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E299" s="30"/>
+      <c r="F299" s="59"/>
       <c r="G299" s="35"/>
-      <c r="H299" s="29"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="20"/>
+      <c r="H299" s="30"/>
+      <c r="I299" s="21"/>
+      <c r="J299" s="22"/>
       <c r="K299" s="35"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
       <c r="B300" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D300" s="35"/>
       <c r="E300" s="29">
@@ -10394,30 +10422,38 @@
       <c r="J300" s="20"/>
       <c r="K300" s="35"/>
     </row>
-    <row r="301" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="12"/>
+      <c r="B301" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="D301" s="35"/>
-      <c r="E301" s="32"/>
-      <c r="F301" s="60"/>
+      <c r="E301" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F301" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G301" s="35"/>
-      <c r="H301" s="32"/>
-      <c r="I301" s="23"/>
-      <c r="J301" s="24"/>
+      <c r="H301" s="29"/>
+      <c r="I301" s="19"/>
+      <c r="J301" s="20"/>
       <c r="K301" s="35"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F302" s="58" t="s">
         <v>627</v>
@@ -10428,34 +10464,26 @@
       <c r="J302" s="20"/>
       <c r="K302" s="35"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
-      <c r="B303" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="B303" s="11"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="35"/>
-      <c r="E303" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F303" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E303" s="32"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="35"/>
-      <c r="H303" s="29"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
+      <c r="H303" s="32"/>
+      <c r="I303" s="23"/>
+      <c r="J303" s="24"/>
       <c r="K303" s="35"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
       <c r="B304" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D304" s="35"/>
       <c r="E304" s="29">
@@ -10473,10 +10501,10 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
@@ -10494,10 +10522,10 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
@@ -10515,10 +10543,10 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
@@ -10533,26 +10561,34 @@
       <c r="J307" s="20"/>
       <c r="K307" s="35"/>
     </row>
-    <row r="308" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="12"/>
+      <c r="B308" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="D308" s="35"/>
-      <c r="E308" s="32"/>
-      <c r="F308" s="60"/>
+      <c r="E308" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F308" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G308" s="35"/>
-      <c r="H308" s="32"/>
-      <c r="I308" s="23"/>
-      <c r="J308" s="24"/>
+      <c r="H308" s="29"/>
+      <c r="I308" s="19"/>
+      <c r="J308" s="20"/>
       <c r="K308" s="35"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
@@ -10567,51 +10603,51 @@
       <c r="J309" s="20"/>
       <c r="K309" s="35"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
-      <c r="B310" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>471</v>
-      </c>
+      <c r="B310" s="11"/>
+      <c r="C310" s="12"/>
       <c r="D310" s="35"/>
-      <c r="E310" s="29">
+      <c r="E310" s="32"/>
+      <c r="F310" s="60"/>
+      <c r="G310" s="35"/>
+      <c r="H310" s="32"/>
+      <c r="I310" s="23"/>
+      <c r="J310" s="24"/>
+      <c r="K310" s="35"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="35"/>
+      <c r="B311" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D311" s="35"/>
+      <c r="E311" s="29">
         <v>44371</v>
       </c>
-      <c r="F310" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G310" s="35"/>
-      <c r="H310" s="29"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
-      <c r="K310" s="35"/>
-    </row>
-    <row r="311" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="35"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="35"/>
-      <c r="E311" s="32"/>
-      <c r="F311" s="60"/>
+      <c r="F311" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G311" s="35"/>
-      <c r="H311" s="32"/>
-      <c r="I311" s="23"/>
-      <c r="J311" s="24"/>
+      <c r="H311" s="29"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
       <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F312" s="58" t="s">
         <v>627</v>
@@ -10622,164 +10658,152 @@
       <c r="J312" s="20"/>
       <c r="K312" s="35"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
-      <c r="B313" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>561</v>
-      </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="12"/>
       <c r="D313" s="35"/>
-      <c r="E313" s="29">
+      <c r="E313" s="32"/>
+      <c r="F313" s="60"/>
+      <c r="G313" s="35"/>
+      <c r="H313" s="32"/>
+      <c r="I313" s="23"/>
+      <c r="J313" s="24"/>
+      <c r="K313" s="35"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="35"/>
+      <c r="B314" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D314" s="35"/>
+      <c r="E314" s="29">
         <v>44372</v>
       </c>
-      <c r="F313" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G313" s="35"/>
-      <c r="H313" s="29"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
-      <c r="K313" s="35"/>
-    </row>
-    <row r="314" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="35"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="12"/>
-      <c r="D314" s="35"/>
-      <c r="E314" s="32"/>
-      <c r="F314" s="60"/>
+      <c r="F314" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G314" s="35"/>
-      <c r="H314" s="32"/>
-      <c r="I314" s="23"/>
-      <c r="J314" s="24"/>
+      <c r="H314" s="29"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="20"/>
       <c r="K314" s="35"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F315" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G315" s="35"/>
       <c r="H315" s="29"/>
-      <c r="I315" s="19">
-        <v>1</v>
-      </c>
-      <c r="J315" s="20">
-        <v>0</v>
-      </c>
+      <c r="I315" s="19"/>
+      <c r="J315" s="20"/>
       <c r="K315" s="35"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
-      <c r="B316" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>598</v>
-      </c>
+      <c r="B316" s="11"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="35"/>
-      <c r="E316" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F316" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E316" s="32"/>
+      <c r="F316" s="60"/>
       <c r="G316" s="35"/>
-      <c r="H316" s="29"/>
-      <c r="I316" s="19">
-        <v>1</v>
-      </c>
-      <c r="J316" s="20">
-        <v>0</v>
-      </c>
+      <c r="H316" s="32"/>
+      <c r="I316" s="23"/>
+      <c r="J316" s="24"/>
       <c r="K316" s="35"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>596</v>
+        <v>511</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F317" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G317" s="35"/>
       <c r="H317" s="29"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
+      <c r="I317" s="19">
+        <v>1</v>
+      </c>
+      <c r="J317" s="20">
+        <v>0</v>
+      </c>
       <c r="K317" s="35"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>597</v>
+        <v>512</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F318" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G318" s="35"/>
       <c r="H318" s="29"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
+      <c r="I318" s="19">
+        <v>1</v>
+      </c>
+      <c r="J318" s="20">
+        <v>0</v>
+      </c>
       <c r="K318" s="35"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>513</v>
+        <v>596</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F319" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="19">
-        <v>1</v>
-      </c>
-      <c r="J319" s="20">
-        <v>0</v>
-      </c>
+      <c r="I319" s="19"/>
+      <c r="J319" s="20"/>
       <c r="K319" s="35"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
@@ -10790,21 +10814,17 @@
       </c>
       <c r="G320" s="35"/>
       <c r="H320" s="29"/>
-      <c r="I320" s="19">
-        <v>1</v>
-      </c>
-      <c r="J320" s="20">
-        <v>0</v>
-      </c>
+      <c r="I320" s="19"/>
+      <c r="J320" s="20"/>
       <c r="K320" s="35"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
@@ -10826,14 +10846,14 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F322" s="58" t="s">
         <v>627</v>
@@ -10851,10 +10871,10 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
@@ -10876,14 +10896,14 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F324" s="58" t="s">
         <v>627</v>
@@ -10901,10 +10921,10 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
@@ -10926,10 +10946,10 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
@@ -10951,10 +10971,10 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
@@ -10976,14 +10996,14 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>733</v>
+        <v>519</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F328" s="58" t="s">
         <v>627</v>
@@ -11001,14 +11021,14 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>734</v>
+        <v>520</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F329" s="58" t="s">
         <v>627</v>
@@ -11026,10 +11046,10 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
@@ -11040,17 +11060,21 @@
       </c>
       <c r="G330" s="35"/>
       <c r="H330" s="29"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
+      <c r="I330" s="19">
+        <v>1</v>
+      </c>
+      <c r="J330" s="20">
+        <v>0</v>
+      </c>
       <c r="K330" s="35"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
@@ -11061,17 +11085,21 @@
       </c>
       <c r="G331" s="35"/>
       <c r="H331" s="29"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
+      <c r="I331" s="19">
+        <v>1</v>
+      </c>
+      <c r="J331" s="20">
+        <v>0</v>
+      </c>
       <c r="K331" s="35"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>744</v>
+        <v>863</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
@@ -11089,35 +11117,31 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>521</v>
+        <v>862</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>612</v>
+        <v>864</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
-        <v>44371</v>
+        <v>44406</v>
       </c>
       <c r="F333" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G333" s="35"/>
       <c r="H333" s="29"/>
-      <c r="I333" s="19">
-        <v>1</v>
-      </c>
-      <c r="J333" s="20">
-        <v>0</v>
-      </c>
+      <c r="I333" s="19"/>
+      <c r="J333" s="20"/>
       <c r="K333" s="35"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>726</v>
+        <v>865</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
@@ -11128,21 +11152,17 @@
       </c>
       <c r="G334" s="35"/>
       <c r="H334" s="29"/>
-      <c r="I334" s="19">
-        <v>1</v>
-      </c>
-      <c r="J334" s="20">
-        <v>0</v>
-      </c>
+      <c r="I334" s="19"/>
+      <c r="J334" s="20"/>
       <c r="K334" s="35"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
@@ -11160,31 +11180,35 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>729</v>
+        <v>521</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>731</v>
+        <v>612</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F336" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
+      <c r="I336" s="19">
+        <v>1</v>
+      </c>
+      <c r="J336" s="20">
+        <v>0</v>
+      </c>
       <c r="K336" s="35"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
@@ -11195,92 +11219,84 @@
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
+      <c r="I337" s="19">
+        <v>1</v>
+      </c>
+      <c r="J337" s="20">
+        <v>0</v>
+      </c>
       <c r="K337" s="35"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>522</v>
+        <v>727</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>613</v>
+        <v>728</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F338" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="19">
-        <v>1</v>
-      </c>
-      <c r="J338" s="20">
-        <v>0</v>
-      </c>
+      <c r="I338" s="19"/>
+      <c r="J338" s="20"/>
       <c r="K338" s="35"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
       <c r="B339" s="7" t="s">
-        <v>523</v>
+        <v>729</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>614</v>
+        <v>731</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F339" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G339" s="35"/>
       <c r="H339" s="29"/>
-      <c r="I339" s="19">
-        <v>1</v>
-      </c>
-      <c r="J339" s="20">
-        <v>0</v>
-      </c>
+      <c r="I339" s="19"/>
+      <c r="J339" s="20"/>
       <c r="K339" s="35"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>524</v>
+        <v>730</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>615</v>
+        <v>732</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F340" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="19">
-        <v>1</v>
-      </c>
-      <c r="J340" s="20">
-        <v>0</v>
-      </c>
+      <c r="I340" s="19"/>
+      <c r="J340" s="20"/>
       <c r="K340" s="35"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
@@ -11302,14 +11318,14 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>617</v>
+        <v>523</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F342" s="58" t="s">
         <v>627</v>
@@ -11327,14 +11343,14 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F343" s="58" t="s">
         <v>627</v>
@@ -11352,14 +11368,14 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F344" s="58" t="s">
         <v>627</v>
@@ -11377,14 +11393,14 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>620</v>
+        <v>526</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="F345" s="58" t="s">
         <v>627</v>
@@ -11399,93 +11415,105 @@
       </c>
       <c r="K345" s="35"/>
     </row>
-    <row r="346" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
-      <c r="B346" s="11"/>
-      <c r="C346" s="12"/>
+      <c r="B346" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="D346" s="35"/>
-      <c r="E346" s="32"/>
-      <c r="F346" s="60"/>
+      <c r="E346" s="29">
+        <v>44370</v>
+      </c>
+      <c r="F346" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G346" s="35"/>
-      <c r="H346" s="32"/>
-      <c r="I346" s="23"/>
-      <c r="J346" s="24"/>
+      <c r="H346" s="29"/>
+      <c r="I346" s="19">
+        <v>1</v>
+      </c>
+      <c r="J346" s="20">
+        <v>0</v>
+      </c>
       <c r="K346" s="35"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>745</v>
+        <v>528</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>748</v>
+        <v>619</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F347" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G347" s="35"/>
       <c r="H347" s="29"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="20"/>
+      <c r="I347" s="19">
+        <v>1</v>
+      </c>
+      <c r="J347" s="20">
+        <v>0</v>
+      </c>
       <c r="K347" s="35"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>746</v>
+        <v>529</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>747</v>
+        <v>620</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44383</v>
+        <v>44369</v>
       </c>
       <c r="F348" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G348" s="35"/>
       <c r="H348" s="29"/>
-      <c r="I348" s="19"/>
-      <c r="J348" s="20"/>
+      <c r="I348" s="19">
+        <v>1</v>
+      </c>
+      <c r="J348" s="20">
+        <v>0</v>
+      </c>
       <c r="K348" s="35"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
-      <c r="B349" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="B349" s="11"/>
+      <c r="C349" s="12"/>
       <c r="D349" s="35"/>
-      <c r="E349" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F349" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E349" s="32"/>
+      <c r="F349" s="60"/>
       <c r="G349" s="35"/>
-      <c r="H349" s="29"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="20"/>
+      <c r="H349" s="32"/>
+      <c r="I349" s="23"/>
+      <c r="J349" s="24"/>
       <c r="K349" s="35"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
       <c r="B350" s="7" t="s">
-        <v>551</v>
+        <v>743</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>553</v>
+        <v>746</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F350" s="58" t="s">
         <v>627</v>
@@ -11496,26 +11524,34 @@
       <c r="J350" s="20"/>
       <c r="K350" s="35"/>
     </row>
-    <row r="351" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
-      <c r="B351" s="11"/>
-      <c r="C351" s="12"/>
+      <c r="B351" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="D351" s="35"/>
-      <c r="E351" s="32"/>
-      <c r="F351" s="60"/>
+      <c r="E351" s="29">
+        <v>44383</v>
+      </c>
+      <c r="F351" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G351" s="35"/>
-      <c r="H351" s="32"/>
-      <c r="I351" s="23"/>
-      <c r="J351" s="24"/>
+      <c r="H351" s="29"/>
+      <c r="I351" s="19"/>
+      <c r="J351" s="20"/>
       <c r="K351" s="35"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
@@ -11533,10 +11569,10 @@
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
@@ -11551,47 +11587,47 @@
       <c r="J353" s="20"/>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>555</v>
-      </c>
+      <c r="B354" s="11"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="35"/>
-      <c r="E354" s="29">
+      <c r="E354" s="32"/>
+      <c r="F354" s="60"/>
+      <c r="G354" s="35"/>
+      <c r="H354" s="32"/>
+      <c r="I354" s="23"/>
+      <c r="J354" s="24"/>
+      <c r="K354" s="35"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="35"/>
+      <c r="B355" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D355" s="35"/>
+      <c r="E355" s="29">
         <v>44372</v>
       </c>
-      <c r="F354" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G354" s="35"/>
-      <c r="H354" s="29"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="20"/>
-      <c r="K354" s="35"/>
-    </row>
-    <row r="355" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="35"/>
-      <c r="B355" s="11"/>
-      <c r="C355" s="12"/>
-      <c r="D355" s="35"/>
-      <c r="E355" s="32"/>
-      <c r="F355" s="60"/>
+      <c r="F355" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G355" s="35"/>
-      <c r="H355" s="32"/>
-      <c r="I355" s="23"/>
-      <c r="J355" s="24"/>
+      <c r="H355" s="29"/>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
       <c r="K355" s="35"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
-      <c r="B356" s="13" t="s">
-        <v>545</v>
+      <c r="B356" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>772</v>
+        <v>556</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
@@ -11602,24 +11638,17 @@
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="29"/>
-      <c r="I356" s="19">
-        <v>1</v>
-      </c>
-      <c r="J356" s="20">
-        <v>0</v>
-      </c>
+      <c r="I356" s="19"/>
+      <c r="J356" s="20"/>
       <c r="K356" s="35"/>
-      <c r="L356" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
-      <c r="B357" s="13" t="s">
-        <v>546</v>
+      <c r="B357" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>773</v>
+        <v>555</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11630,52 +11659,30 @@
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19">
-        <v>1</v>
-      </c>
-      <c r="J357" s="20">
-        <v>0</v>
-      </c>
+      <c r="I357" s="19"/>
+      <c r="J357" s="20"/>
       <c r="K357" s="35"/>
-      <c r="L357" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
-      <c r="B358" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>774</v>
-      </c>
+      <c r="B358" s="11"/>
+      <c r="C358" s="12"/>
       <c r="D358" s="35"/>
-      <c r="E358" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F358" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E358" s="32"/>
+      <c r="F358" s="60"/>
       <c r="G358" s="35"/>
-      <c r="H358" s="29"/>
-      <c r="I358" s="19">
-        <v>1</v>
-      </c>
-      <c r="J358" s="20">
-        <v>0</v>
-      </c>
+      <c r="H358" s="32"/>
+      <c r="I358" s="23"/>
+      <c r="J358" s="24"/>
       <c r="K358" s="35"/>
-      <c r="L358" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
       <c r="B359" s="13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D359" s="35"/>
       <c r="E359" s="29">
@@ -11700,14 +11707,14 @@
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
       <c r="B360" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C360" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C360" s="4" t="s">
         <v>771</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F360" s="58" t="s">
         <v>627</v>
@@ -11727,180 +11734,201 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
-      <c r="B361" s="7"/>
-      <c r="C361" s="4"/>
+      <c r="B361" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="D361" s="35"/>
-      <c r="E361" s="29"/>
-      <c r="F361" s="58"/>
+      <c r="E361" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F361" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G361" s="35"/>
       <c r="H361" s="29"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="20"/>
+      <c r="I361" s="19">
+        <v>1</v>
+      </c>
+      <c r="J361" s="20">
+        <v>0</v>
+      </c>
       <c r="K361" s="35"/>
-    </row>
-    <row r="362" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L361" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
-      <c r="B362" s="9"/>
-      <c r="C362" s="10"/>
+      <c r="B362" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="D362" s="35"/>
-      <c r="E362" s="30"/>
-      <c r="F362" s="59"/>
+      <c r="E362" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F362" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G362" s="35"/>
-      <c r="H362" s="30"/>
-      <c r="I362" s="21"/>
-      <c r="J362" s="22"/>
+      <c r="H362" s="29"/>
+      <c r="I362" s="19">
+        <v>1</v>
+      </c>
+      <c r="J362" s="20">
+        <v>0</v>
+      </c>
       <c r="K362" s="35"/>
+      <c r="L362" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
-      <c r="B363" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>425</v>
+      <c r="B363" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C363" s="14" t="s">
+        <v>769</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44257</v>
+        <v>44384</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="29"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="20"/>
+      <c r="I363" s="19">
+        <v>1</v>
+      </c>
+      <c r="J363" s="20">
+        <v>0</v>
+      </c>
       <c r="K363" s="35"/>
+      <c r="L363" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
-      <c r="B364" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="B364" s="7"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="35"/>
-      <c r="E364" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F364" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E364" s="29"/>
+      <c r="F364" s="58"/>
       <c r="G364" s="35"/>
       <c r="H364" s="29"/>
       <c r="I364" s="19"/>
       <c r="J364" s="20"/>
       <c r="K364" s="35"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="B365" s="9"/>
+      <c r="C365" s="10"/>
       <c r="D365" s="35"/>
-      <c r="E365" s="29">
+      <c r="E365" s="30"/>
+      <c r="F365" s="59"/>
+      <c r="G365" s="35"/>
+      <c r="H365" s="30"/>
+      <c r="I365" s="21"/>
+      <c r="J365" s="22"/>
+      <c r="K365" s="35"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="35"/>
+      <c r="B366" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D366" s="35"/>
+      <c r="E366" s="29">
         <v>44257</v>
       </c>
-      <c r="F365" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G365" s="35"/>
-      <c r="H365" s="29"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
-      <c r="K365" s="35"/>
-    </row>
-    <row r="366" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="35"/>
-      <c r="B366" s="11"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="35"/>
-      <c r="E366" s="32"/>
-      <c r="F366" s="60"/>
+      <c r="F366" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G366" s="35"/>
-      <c r="H366" s="32"/>
-      <c r="I366" s="23"/>
-      <c r="J366" s="24"/>
+      <c r="H366" s="29"/>
+      <c r="I366" s="19"/>
+      <c r="J366" s="20"/>
       <c r="K366" s="35"/>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
       <c r="B367" s="7" t="s">
-        <v>646</v>
+        <v>420</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>647</v>
+        <v>421</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
-        <v>44319</v>
+        <v>44257</v>
       </c>
       <c r="F367" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="29"/>
-      <c r="I367" s="19">
-        <v>1</v>
-      </c>
-      <c r="J367" s="20">
-        <v>0</v>
-      </c>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
       <c r="K367" s="35"/>
     </row>
-    <row r="368" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="12"/>
+      <c r="B368" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D368" s="35"/>
-      <c r="E368" s="32"/>
-      <c r="F368" s="60"/>
+      <c r="E368" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F368" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G368" s="35"/>
-      <c r="H368" s="32"/>
-      <c r="I368" s="23"/>
-      <c r="J368" s="24"/>
+      <c r="H368" s="29"/>
+      <c r="I368" s="19"/>
+      <c r="J368" s="20"/>
       <c r="K368" s="35"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B369" s="11"/>
+      <c r="C369" s="12"/>
       <c r="D369" s="35"/>
-      <c r="E369" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F369" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E369" s="32"/>
+      <c r="F369" s="60"/>
       <c r="G369" s="35"/>
-      <c r="H369" s="29"/>
-      <c r="I369" s="19">
-        <v>1</v>
-      </c>
-      <c r="J369" s="20">
-        <v>0</v>
-      </c>
+      <c r="H369" s="32"/>
+      <c r="I369" s="23"/>
+      <c r="J369" s="24"/>
       <c r="K369" s="35"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
       <c r="B370" s="7" t="s">
-        <v>392</v>
+        <v>646</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>393</v>
+        <v>647</v>
       </c>
       <c r="D370" s="35"/>
       <c r="E370" s="29">
-        <v>44245</v>
+        <v>44319</v>
       </c>
       <c r="F370" s="58" t="s">
         <v>627</v>
@@ -11915,42 +11943,30 @@
       </c>
       <c r="K370" s="35"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
-      <c r="B371" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="B371" s="11"/>
+      <c r="C371" s="12"/>
       <c r="D371" s="35"/>
-      <c r="E371" s="29">
-        <v>44231</v>
-      </c>
-      <c r="F371" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E371" s="32"/>
+      <c r="F371" s="60"/>
       <c r="G371" s="35"/>
-      <c r="H371" s="29"/>
-      <c r="I371" s="19">
-        <v>1</v>
-      </c>
-      <c r="J371" s="20">
-        <v>0</v>
-      </c>
+      <c r="H371" s="32"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="24"/>
       <c r="K371" s="35"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
       <c r="B372" s="7" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="D372" s="35"/>
       <c r="E372" s="29">
-        <v>44230</v>
+        <v>44151</v>
       </c>
       <c r="F372" s="58" t="s">
         <v>627</v>
@@ -11967,116 +11983,128 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
-      <c r="B373" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C373" s="45" t="s">
-        <v>429</v>
+      <c r="B373" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44264</v>
+        <v>44245</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G373" s="46"/>
-      <c r="H373" s="47"/>
-      <c r="I373" s="48">
-        <v>1</v>
-      </c>
-      <c r="J373" s="49">
+      <c r="G373" s="35"/>
+      <c r="H373" s="29"/>
+      <c r="I373" s="19">
+        <v>1</v>
+      </c>
+      <c r="J373" s="20">
         <v>0</v>
       </c>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="12"/>
+      <c r="B374" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="D374" s="35"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="60"/>
+      <c r="E374" s="29">
+        <v>44231</v>
+      </c>
+      <c r="F374" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G374" s="35"/>
-      <c r="H374" s="32"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
+      <c r="H374" s="29"/>
+      <c r="I374" s="19">
+        <v>1</v>
+      </c>
+      <c r="J374" s="20">
+        <v>0</v>
+      </c>
       <c r="K374" s="35"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
       <c r="B375" s="7" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="D375" s="35"/>
       <c r="E375" s="29">
-        <v>44271</v>
+        <v>44230</v>
       </c>
       <c r="F375" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="29"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
+      <c r="I375" s="19">
+        <v>1</v>
+      </c>
+      <c r="J375" s="20">
+        <v>0</v>
+      </c>
       <c r="K375" s="35"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>437</v>
+      <c r="B376" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C376" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D376" s="35"/>
       <c r="E376" s="29">
-        <v>44278</v>
+        <v>44264</v>
       </c>
       <c r="F376" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G376" s="35"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="20"/>
+      <c r="G376" s="46"/>
+      <c r="H376" s="47"/>
+      <c r="I376" s="48">
+        <v>1</v>
+      </c>
+      <c r="J376" s="49">
+        <v>0</v>
+      </c>
       <c r="K376" s="35"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
-      <c r="B377" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>433</v>
-      </c>
+      <c r="B377" s="11"/>
+      <c r="C377" s="12"/>
       <c r="D377" s="35"/>
-      <c r="E377" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F377" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E377" s="32"/>
+      <c r="F377" s="60"/>
       <c r="G377" s="35"/>
-      <c r="H377" s="29"/>
-      <c r="I377" s="19"/>
-      <c r="J377" s="20"/>
+      <c r="H377" s="32"/>
+      <c r="I377" s="23"/>
+      <c r="J377" s="24"/>
       <c r="K377" s="35"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F378" s="58" t="s">
         <v>627</v>
@@ -12087,55 +12115,59 @@
       <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="12"/>
+      <c r="B379" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="D379" s="35"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="60"/>
+      <c r="E379" s="29">
+        <v>44278</v>
+      </c>
+      <c r="F379" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G379" s="35"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="23"/>
-      <c r="J379" s="24"/>
+      <c r="H379" s="29"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="20"/>
       <c r="K379" s="35"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44151</v>
+        <v>44271</v>
       </c>
       <c r="F380" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="29"/>
-      <c r="I380" s="19">
-        <v>1</v>
-      </c>
-      <c r="J380" s="20">
-        <v>0</v>
-      </c>
+      <c r="I380" s="19"/>
+      <c r="J380" s="20"/>
       <c r="K380" s="35"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
-        <v>44258</v>
+        <v>44272</v>
       </c>
       <c r="F381" s="58" t="s">
         <v>627</v>
@@ -12161,112 +12193,96 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
-      <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="B383" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D383" s="35"/>
-      <c r="E383" s="29"/>
-      <c r="F383" s="58"/>
+      <c r="E383" s="29">
+        <v>44151</v>
+      </c>
+      <c r="F383" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G383" s="35"/>
       <c r="H383" s="29"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="20"/>
+      <c r="I383" s="19">
+        <v>1</v>
+      </c>
+      <c r="J383" s="20">
+        <v>0</v>
+      </c>
       <c r="K383" s="35"/>
     </row>
-    <row r="384" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
-      <c r="B384" s="9"/>
-      <c r="C384" s="10"/>
+      <c r="B384" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D384" s="35"/>
-      <c r="E384" s="30"/>
-      <c r="F384" s="59"/>
+      <c r="E384" s="29">
+        <v>44258</v>
+      </c>
+      <c r="F384" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G384" s="35"/>
-      <c r="H384" s="30"/>
-      <c r="I384" s="21"/>
-      <c r="J384" s="22"/>
+      <c r="H384" s="29"/>
+      <c r="I384" s="19"/>
+      <c r="J384" s="20"/>
       <c r="K384" s="35"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
-      <c r="B385" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="B385" s="11"/>
+      <c r="C385" s="12"/>
       <c r="D385" s="35"/>
-      <c r="E385" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F385" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E385" s="32"/>
+      <c r="F385" s="60"/>
       <c r="G385" s="35"/>
-      <c r="H385" s="29"/>
-      <c r="I385" s="19">
-        <v>1</v>
-      </c>
-      <c r="J385" s="20">
-        <v>0</v>
-      </c>
+      <c r="H385" s="32"/>
+      <c r="I385" s="23"/>
+      <c r="J385" s="24"/>
       <c r="K385" s="35"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="B386" s="7"/>
+      <c r="C386" s="4"/>
       <c r="D386" s="35"/>
-      <c r="E386" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F386" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E386" s="29"/>
+      <c r="F386" s="58"/>
       <c r="G386" s="35"/>
       <c r="H386" s="29"/>
-      <c r="I386" s="19">
-        <v>1</v>
-      </c>
-      <c r="J386" s="20">
-        <v>0</v>
-      </c>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
       <c r="K386" s="35"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
-      <c r="B387" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="B387" s="9"/>
+      <c r="C387" s="10"/>
       <c r="D387" s="35"/>
-      <c r="E387" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F387" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E387" s="30"/>
+      <c r="F387" s="59"/>
       <c r="G387" s="35"/>
-      <c r="H387" s="29"/>
-      <c r="I387" s="19">
-        <v>1</v>
-      </c>
-      <c r="J387" s="20">
-        <v>0</v>
-      </c>
+      <c r="H387" s="30"/>
+      <c r="I387" s="21"/>
+      <c r="J387" s="22"/>
       <c r="K387" s="35"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
@@ -12288,10 +12304,10 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
@@ -12310,89 +12326,101 @@
       </c>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="12"/>
+      <c r="B390" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="D390" s="35"/>
-      <c r="E390" s="32"/>
-      <c r="F390" s="60"/>
+      <c r="E390" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F390" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G390" s="35"/>
-      <c r="H390" s="32"/>
-      <c r="I390" s="23"/>
-      <c r="J390" s="24"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="19">
+        <v>1</v>
+      </c>
+      <c r="J390" s="20">
+        <v>0</v>
+      </c>
       <c r="K390" s="35"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
       <c r="B391" s="7" t="s">
-        <v>648</v>
+        <v>767</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="D391" s="35"/>
       <c r="E391" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F391" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="19"/>
-      <c r="J391" s="20"/>
+      <c r="I391" s="19">
+        <v>1</v>
+      </c>
+      <c r="J391" s="20">
+        <v>0</v>
+      </c>
       <c r="K391" s="35"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
       <c r="B392" s="7" t="s">
-        <v>542</v>
+        <v>768</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>460</v>
+        <v>704</v>
       </c>
       <c r="D392" s="35"/>
       <c r="E392" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F392" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="29"/>
-      <c r="I392" s="19"/>
-      <c r="J392" s="20"/>
+      <c r="I392" s="19">
+        <v>1</v>
+      </c>
+      <c r="J392" s="20">
+        <v>0</v>
+      </c>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>651</v>
-      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="35"/>
-      <c r="E393" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F393" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E393" s="32"/>
+      <c r="F393" s="60"/>
       <c r="G393" s="35"/>
-      <c r="H393" s="29"/>
-      <c r="I393" s="19"/>
-      <c r="J393" s="20"/>
+      <c r="H393" s="32"/>
+      <c r="I393" s="23"/>
+      <c r="J393" s="24"/>
       <c r="K393" s="35"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
       <c r="B394" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D394" s="35"/>
       <c r="E394" s="29">
@@ -12410,10 +12438,10 @@
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
@@ -12431,14 +12459,14 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>544</v>
+        <v>650</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>465</v>
+        <v>651</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F396" s="58" t="s">
         <v>627</v>
@@ -12449,55 +12477,59 @@
       <c r="J396" s="20"/>
       <c r="K396" s="35"/>
     </row>
-    <row r="397" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12"/>
+      <c r="B397" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>653</v>
+      </c>
       <c r="D397" s="35"/>
-      <c r="E397" s="32"/>
-      <c r="F397" s="60"/>
+      <c r="E397" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F397" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G397" s="35"/>
-      <c r="H397" s="32"/>
-      <c r="I397" s="23"/>
-      <c r="J397" s="24"/>
+      <c r="H397" s="29"/>
+      <c r="I397" s="19"/>
+      <c r="J397" s="20"/>
       <c r="K397" s="35"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
       <c r="B398" s="7" t="s">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>657</v>
+        <v>453</v>
       </c>
       <c r="D398" s="35"/>
       <c r="E398" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F398" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G398" s="35"/>
       <c r="H398" s="29"/>
-      <c r="I398" s="19">
-        <v>1</v>
-      </c>
-      <c r="J398" s="20">
-        <v>0</v>
-      </c>
+      <c r="I398" s="19"/>
+      <c r="J398" s="20"/>
       <c r="K398" s="35"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>655</v>
+        <v>544</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>658</v>
+        <v>465</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F399" s="58" t="s">
         <v>627</v>
@@ -12508,47 +12540,51 @@
       <c r="J399" s="20"/>
       <c r="K399" s="35"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
-      <c r="B400" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>659</v>
-      </c>
+      <c r="B400" s="11"/>
+      <c r="C400" s="12"/>
       <c r="D400" s="35"/>
-      <c r="E400" s="29">
+      <c r="E400" s="32"/>
+      <c r="F400" s="60"/>
+      <c r="G400" s="35"/>
+      <c r="H400" s="32"/>
+      <c r="I400" s="23"/>
+      <c r="J400" s="24"/>
+      <c r="K400" s="35"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="35"/>
+      <c r="B401" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D401" s="35"/>
+      <c r="E401" s="29">
         <v>44379</v>
       </c>
-      <c r="F400" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G400" s="35"/>
-      <c r="H400" s="29"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
-      <c r="K400" s="35"/>
-    </row>
-    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="35"/>
-      <c r="B401" s="11"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="35"/>
-      <c r="E401" s="32"/>
-      <c r="F401" s="60"/>
+      <c r="F401" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G401" s="35"/>
-      <c r="H401" s="32"/>
-      <c r="I401" s="23"/>
-      <c r="J401" s="24"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="19">
+        <v>1</v>
+      </c>
+      <c r="J401" s="20">
+        <v>0</v>
+      </c>
       <c r="K401" s="35"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
@@ -12559,21 +12595,17 @@
       </c>
       <c r="G402" s="35"/>
       <c r="H402" s="29"/>
-      <c r="I402" s="19">
-        <v>1</v>
-      </c>
-      <c r="J402" s="20">
-        <v>0</v>
-      </c>
+      <c r="I402" s="19"/>
+      <c r="J402" s="20"/>
       <c r="K402" s="35"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
@@ -12584,12 +12616,8 @@
       </c>
       <c r="G403" s="35"/>
       <c r="H403" s="29"/>
-      <c r="I403" s="19">
-        <v>1</v>
-      </c>
-      <c r="J403" s="20">
-        <v>0</v>
-      </c>
+      <c r="I403" s="19"/>
+      <c r="J403" s="20"/>
       <c r="K403" s="35"/>
     </row>
     <row r="404" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,10 +12636,10 @@
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
       <c r="B405" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D405" s="35"/>
       <c r="E405" s="29">
@@ -12633,10 +12661,10 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
@@ -12671,10 +12699,10 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
@@ -12693,51 +12721,51 @@
       </c>
       <c r="K408" s="35"/>
     </row>
-    <row r="409" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12"/>
+      <c r="B409" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>667</v>
+      </c>
       <c r="D409" s="35"/>
-      <c r="E409" s="32"/>
-      <c r="F409" s="60"/>
+      <c r="E409" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F409" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G409" s="35"/>
-      <c r="H409" s="32"/>
-      <c r="I409" s="23"/>
-      <c r="J409" s="24"/>
+      <c r="H409" s="29"/>
+      <c r="I409" s="19">
+        <v>1</v>
+      </c>
+      <c r="J409" s="20">
+        <v>0</v>
+      </c>
       <c r="K409" s="35"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
-      <c r="B410" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>672</v>
-      </c>
+      <c r="B410" s="11"/>
+      <c r="C410" s="12"/>
       <c r="D410" s="35"/>
-      <c r="E410" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F410" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E410" s="32"/>
+      <c r="F410" s="60"/>
       <c r="G410" s="35"/>
-      <c r="H410" s="29"/>
-      <c r="I410" s="19">
-        <v>1</v>
-      </c>
-      <c r="J410" s="20">
-        <v>0</v>
-      </c>
+      <c r="H410" s="32"/>
+      <c r="I410" s="23"/>
+      <c r="J410" s="24"/>
       <c r="K410" s="35"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
@@ -12772,14 +12800,14 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>32</v>
+        <v>670</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>74</v>
+        <v>672</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
-        <v>44148</v>
+        <v>44379</v>
       </c>
       <c r="F413" s="58" t="s">
         <v>627</v>
@@ -12797,14 +12825,14 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>144</v>
+        <v>671</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>126</v>
+        <v>673</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F414" s="58" t="s">
         <v>627</v>
@@ -12819,42 +12847,30 @@
       </c>
       <c r="K414" s="35"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
-      <c r="B415" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="B415" s="11"/>
+      <c r="C415" s="12"/>
       <c r="D415" s="35"/>
-      <c r="E415" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F415" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E415" s="32"/>
+      <c r="F415" s="60"/>
       <c r="G415" s="35"/>
-      <c r="H415" s="29"/>
-      <c r="I415" s="19">
-        <v>1</v>
-      </c>
-      <c r="J415" s="20">
-        <v>0</v>
-      </c>
+      <c r="H415" s="32"/>
+      <c r="I415" s="23"/>
+      <c r="J415" s="24"/>
       <c r="K415" s="35"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F416" s="58" t="s">
         <v>627</v>
@@ -12872,10 +12888,10 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
@@ -12897,14 +12913,14 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>129</v>
+        <v>285</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F418" s="58" t="s">
         <v>627</v>
@@ -12922,14 +12938,14 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F419" s="58" t="s">
         <v>627</v>
@@ -12947,14 +12963,14 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F420" s="58" t="s">
         <v>627</v>
@@ -12972,14 +12988,14 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F421" s="58" t="s">
         <v>627</v>
@@ -12997,10 +13013,10 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13022,10 +13038,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13047,10 +13063,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13072,10 +13088,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13097,10 +13113,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13122,10 +13138,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13147,10 +13163,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13172,10 +13188,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13197,10 +13213,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13222,10 +13238,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13247,10 +13263,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13272,14 +13288,14 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>162</v>
+        <v>860</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>623</v>
+        <v>861</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F433" s="58" t="s">
         <v>627</v>
@@ -13297,10 +13313,10 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>674</v>
+        <v>141</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
@@ -13322,10 +13338,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>675</v>
+        <v>142</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13347,10 +13363,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>676</v>
+        <v>143</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13372,10 +13388,10 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>677</v>
+        <v>623</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
@@ -13397,10 +13413,10 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13422,10 +13438,10 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13447,10 +13463,10 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
       <c r="B440" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D440" s="35"/>
       <c r="E440" s="29">
@@ -13472,10 +13488,10 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
@@ -13497,10 +13513,10 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
@@ -13522,10 +13538,10 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
@@ -13547,10 +13563,10 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
@@ -13572,10 +13588,10 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
@@ -13597,10 +13613,10 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
@@ -13622,10 +13638,10 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
@@ -13644,30 +13660,42 @@
       </c>
       <c r="K447" s="35"/>
     </row>
-    <row r="448" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
-      <c r="B448" s="11"/>
-      <c r="C448" s="12"/>
+      <c r="B448" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>684</v>
+      </c>
       <c r="D448" s="35"/>
-      <c r="E448" s="32"/>
-      <c r="F448" s="60"/>
+      <c r="E448" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F448" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G448" s="35"/>
-      <c r="H448" s="32"/>
-      <c r="I448" s="23"/>
-      <c r="J448" s="24"/>
+      <c r="H448" s="29"/>
+      <c r="I448" s="19">
+        <v>1</v>
+      </c>
+      <c r="J448" s="20">
+        <v>0</v>
+      </c>
       <c r="K448" s="35"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F449" s="58" t="s">
         <v>627</v>
@@ -13685,14 +13713,14 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F450" s="58" t="s">
         <v>627</v>
@@ -13710,14 +13738,14 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
       <c r="B451" s="7" t="s">
-        <v>762</v>
+        <v>176</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
       <c r="D451" s="35"/>
       <c r="E451" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F451" s="58" t="s">
         <v>627</v>
@@ -13748,10 +13776,10 @@
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>690</v>
+        <v>177</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
@@ -13773,10 +13801,10 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>691</v>
+        <v>197</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
@@ -13798,14 +13826,14 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>692</v>
+        <v>760</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
@@ -13820,38 +13848,26 @@
       </c>
       <c r="K455" s="35"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
-      <c r="B456" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="B456" s="11"/>
+      <c r="C456" s="12"/>
       <c r="D456" s="35"/>
-      <c r="E456" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F456" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E456" s="32"/>
+      <c r="F456" s="60"/>
       <c r="G456" s="35"/>
-      <c r="H456" s="29"/>
-      <c r="I456" s="19">
-        <v>1</v>
-      </c>
-      <c r="J456" s="20">
-        <v>0</v>
-      </c>
+      <c r="H456" s="32"/>
+      <c r="I456" s="23"/>
+      <c r="J456" s="24"/>
       <c r="K456" s="35"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
       <c r="B457" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D457" s="35"/>
       <c r="E457" s="29">
@@ -13872,121 +13888,137 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
-      <c r="B458" s="7"/>
-      <c r="C458" s="4"/>
+      <c r="B458" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="D458" s="35"/>
-      <c r="E458" s="29"/>
-      <c r="F458" s="58"/>
+      <c r="E458" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F458" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G458" s="35"/>
       <c r="H458" s="29"/>
-      <c r="I458" s="19"/>
-      <c r="J458" s="20"/>
+      <c r="I458" s="19">
+        <v>1</v>
+      </c>
+      <c r="J458" s="20">
+        <v>0</v>
+      </c>
       <c r="K458" s="35"/>
     </row>
-    <row r="459" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
-      <c r="B459" s="9"/>
-      <c r="C459" s="10"/>
+      <c r="B459" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="D459" s="35"/>
-      <c r="E459" s="30"/>
-      <c r="F459" s="59"/>
+      <c r="E459" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F459" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G459" s="35"/>
-      <c r="H459" s="30"/>
-      <c r="I459" s="21"/>
-      <c r="J459" s="22"/>
+      <c r="H459" s="29"/>
+      <c r="I459" s="19">
+        <v>1</v>
+      </c>
+      <c r="J459" s="20">
+        <v>0</v>
+      </c>
       <c r="K459" s="35"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>461</v>
+        <v>693</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>463</v>
+        <v>698</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G460" s="35"/>
       <c r="H460" s="29"/>
-      <c r="I460" s="19"/>
-      <c r="J460" s="20"/>
+      <c r="I460" s="19">
+        <v>1</v>
+      </c>
+      <c r="J460" s="20">
+        <v>0</v>
+      </c>
       <c r="K460" s="35"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
       <c r="B461" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D461" s="35"/>
       <c r="E461" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F461" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G461" s="35"/>
       <c r="H461" s="29"/>
-      <c r="I461" s="19"/>
-      <c r="J461" s="20"/>
+      <c r="I461" s="19">
+        <v>1</v>
+      </c>
+      <c r="J461" s="20">
+        <v>0</v>
+      </c>
       <c r="K461" s="35"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
-      <c r="B462" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>708</v>
-      </c>
+      <c r="B462" s="7"/>
+      <c r="C462" s="4"/>
       <c r="D462" s="35"/>
-      <c r="E462" s="29">
-        <v>44365</v>
-      </c>
-      <c r="F462" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E462" s="29"/>
+      <c r="F462" s="58"/>
       <c r="G462" s="35"/>
       <c r="H462" s="29"/>
       <c r="I462" s="19"/>
       <c r="J462" s="20"/>
       <c r="K462" s="35"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
-      <c r="B463" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B463" s="9"/>
+      <c r="C463" s="10"/>
       <c r="D463" s="35"/>
-      <c r="E463" s="29">
-        <v>44362</v>
-      </c>
-      <c r="F463" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E463" s="30"/>
+      <c r="F463" s="59"/>
       <c r="G463" s="35"/>
-      <c r="H463" s="29"/>
-      <c r="I463" s="19"/>
-      <c r="J463" s="20"/>
+      <c r="H463" s="30"/>
+      <c r="I463" s="21"/>
+      <c r="J463" s="22"/>
       <c r="K463" s="35"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
@@ -14001,30 +14033,38 @@
       <c r="J464" s="20"/>
       <c r="K464" s="35"/>
     </row>
-    <row r="465" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
-      <c r="B465" s="11"/>
-      <c r="C465" s="12"/>
+      <c r="B465" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>707</v>
+      </c>
       <c r="D465" s="35"/>
-      <c r="E465" s="32"/>
-      <c r="F465" s="60"/>
+      <c r="E465" s="29">
+        <v>44365</v>
+      </c>
+      <c r="F465" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G465" s="35"/>
-      <c r="H465" s="32"/>
-      <c r="I465" s="23"/>
-      <c r="J465" s="24"/>
+      <c r="H465" s="29"/>
+      <c r="I465" s="19"/>
+      <c r="J465" s="20"/>
       <c r="K465" s="35"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>408</v>
+        <v>706</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>409</v>
+        <v>708</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
-        <v>44250</v>
+        <v>44365</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
@@ -14038,14 +14078,14 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44382</v>
+        <v>44362</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
@@ -14059,14 +14099,14 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
-        <v>44250</v>
+        <v>44363</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
@@ -14093,39 +14133,35 @@
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
       <c r="B470" s="7" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="D470" s="35"/>
       <c r="E470" s="29">
-        <v>44148</v>
+        <v>44250</v>
       </c>
       <c r="F470" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="29"/>
-      <c r="I470" s="19">
-        <v>1</v>
-      </c>
-      <c r="J470" s="20">
-        <v>0</v>
-      </c>
+      <c r="I470" s="19"/>
+      <c r="J470" s="20"/>
       <c r="K470" s="35"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
       <c r="B471" s="7" t="s">
-        <v>594</v>
+        <v>418</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>595</v>
+        <v>419</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="29">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="F471" s="58" t="s">
         <v>627</v>
@@ -14139,14 +14175,14 @@
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
       <c r="B472" s="7" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="D472" s="35"/>
       <c r="E472" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F472" s="58" t="s">
         <v>627</v>
@@ -14157,38 +14193,30 @@
       <c r="J472" s="20"/>
       <c r="K472" s="35"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
-      <c r="B473" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C473" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B473" s="11"/>
+      <c r="C473" s="12"/>
       <c r="D473" s="35"/>
-      <c r="E473" s="29">
-        <v>44377</v>
-      </c>
-      <c r="F473" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E473" s="32"/>
+      <c r="F473" s="60"/>
       <c r="G473" s="35"/>
-      <c r="H473" s="29"/>
-      <c r="I473" s="19"/>
-      <c r="J473" s="20"/>
+      <c r="H473" s="32"/>
+      <c r="I473" s="23"/>
+      <c r="J473" s="24"/>
       <c r="K473" s="35"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
       <c r="B474" s="7" t="s">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="D474" s="35"/>
       <c r="E474" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F474" s="58" t="s">
         <v>627</v>
@@ -14206,14 +14234,14 @@
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="F475" s="58" t="s">
         <v>627</v>
@@ -14227,14 +14255,14 @@
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
       <c r="B476" s="7" t="s">
-        <v>578</v>
+        <v>294</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="D476" s="35"/>
       <c r="E476" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F476" s="58" t="s">
         <v>627</v>
@@ -14248,14 +14276,14 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
       <c r="B477" s="7" t="s">
-        <v>579</v>
+        <v>295</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="D477" s="35"/>
       <c r="E477" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F477" s="58" t="s">
         <v>627</v>
@@ -14269,35 +14297,39 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="35"/>
       <c r="B478" s="7" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="D478" s="35"/>
       <c r="E478" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G478" s="35"/>
       <c r="H478" s="29"/>
-      <c r="I478" s="19"/>
-      <c r="J478" s="20"/>
+      <c r="I478" s="19">
+        <v>1</v>
+      </c>
+      <c r="J478" s="20">
+        <v>0</v>
+      </c>
       <c r="K478" s="35"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="D479" s="35"/>
       <c r="E479" s="29">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
@@ -14311,10 +14343,10 @@
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D480" s="35"/>
       <c r="E480" s="29">
@@ -14332,10 +14364,10 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
@@ -14350,276 +14382,260 @@
       <c r="J481" s="20"/>
       <c r="K481" s="35"/>
     </row>
-    <row r="482" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="37"/>
-      <c r="B482" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C482" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D482" s="37"/>
-      <c r="E482" s="31">
-        <v>44176</v>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="35"/>
+      <c r="B482" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D482" s="35"/>
+      <c r="E482" s="29">
+        <v>44376</v>
       </c>
       <c r="F482" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G482" s="37"/>
-      <c r="H482" s="31"/>
-      <c r="I482" s="19">
-        <v>1</v>
-      </c>
-      <c r="J482" s="20">
-        <v>0</v>
-      </c>
-      <c r="K482" s="37"/>
-    </row>
-    <row r="483" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="37"/>
-      <c r="B483" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C483" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D483" s="37"/>
-      <c r="E483" s="31">
-        <v>44176</v>
+      <c r="G482" s="35"/>
+      <c r="H482" s="29"/>
+      <c r="I482" s="19"/>
+      <c r="J482" s="20"/>
+      <c r="K482" s="35"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="35"/>
+      <c r="B483" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D483" s="35"/>
+      <c r="E483" s="29">
+        <v>44376</v>
       </c>
       <c r="F483" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G483" s="37"/>
-      <c r="H483" s="31"/>
-      <c r="I483" s="19">
-        <v>1</v>
-      </c>
-      <c r="J483" s="20">
-        <v>0</v>
-      </c>
-      <c r="K483" s="37"/>
-    </row>
-    <row r="484" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="37"/>
-      <c r="B484" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C484" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D484" s="37"/>
-      <c r="E484" s="31">
-        <v>44176</v>
+      <c r="G483" s="35"/>
+      <c r="H483" s="29"/>
+      <c r="I483" s="19"/>
+      <c r="J483" s="20"/>
+      <c r="K483" s="35"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="35"/>
+      <c r="B484" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D484" s="35"/>
+      <c r="E484" s="29">
+        <v>44376</v>
       </c>
       <c r="F484" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G484" s="37"/>
-      <c r="H484" s="31"/>
-      <c r="I484" s="19">
-        <v>1</v>
-      </c>
-      <c r="J484" s="20">
-        <v>0</v>
-      </c>
-      <c r="K484" s="37"/>
-    </row>
-    <row r="485" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="37"/>
-      <c r="B485" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C485" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D485" s="37"/>
-      <c r="E485" s="31">
-        <v>44176</v>
+      <c r="G484" s="35"/>
+      <c r="H484" s="29"/>
+      <c r="I484" s="19"/>
+      <c r="J484" s="20"/>
+      <c r="K484" s="35"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="35"/>
+      <c r="B485" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D485" s="35"/>
+      <c r="E485" s="29">
+        <v>44376</v>
       </c>
       <c r="F485" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G485" s="37"/>
-      <c r="H485" s="31"/>
-      <c r="I485" s="19">
-        <v>1</v>
-      </c>
-      <c r="J485" s="20">
-        <v>0</v>
-      </c>
-      <c r="K485" s="37"/>
+      <c r="G485" s="35"/>
+      <c r="H485" s="29"/>
+      <c r="I485" s="19"/>
+      <c r="J485" s="20"/>
+      <c r="K485" s="35"/>
     </row>
     <row r="486" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="37"/>
-      <c r="B486" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>403</v>
+      <c r="B486" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C486" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="D486" s="37"/>
       <c r="E486" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G486" s="37"/>
       <c r="H486" s="31"/>
-      <c r="I486" s="19"/>
-      <c r="J486" s="20"/>
+      <c r="I486" s="19">
+        <v>1</v>
+      </c>
+      <c r="J486" s="20">
+        <v>0</v>
+      </c>
       <c r="K486" s="37"/>
     </row>
     <row r="487" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="37"/>
-      <c r="B487" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>407</v>
+      <c r="B487" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C487" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="D487" s="37"/>
       <c r="E487" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G487" s="37"/>
       <c r="H487" s="31"/>
-      <c r="I487" s="19"/>
-      <c r="J487" s="20"/>
+      <c r="I487" s="19">
+        <v>1</v>
+      </c>
+      <c r="J487" s="20">
+        <v>0</v>
+      </c>
       <c r="K487" s="37"/>
     </row>
     <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="37"/>
-      <c r="B488" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>406</v>
+      <c r="B488" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C488" s="14" t="s">
+        <v>344</v>
       </c>
       <c r="D488" s="37"/>
       <c r="E488" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F488" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G488" s="37"/>
       <c r="H488" s="31"/>
-      <c r="I488" s="19"/>
-      <c r="J488" s="20"/>
+      <c r="I488" s="19">
+        <v>1</v>
+      </c>
+      <c r="J488" s="20">
+        <v>0</v>
+      </c>
       <c r="K488" s="37"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="35"/>
-      <c r="B489" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D489" s="35"/>
-      <c r="E489" s="29">
-        <v>44175</v>
+    <row r="489" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="37"/>
+      <c r="B489" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C489" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D489" s="37"/>
+      <c r="E489" s="31">
+        <v>44176</v>
       </c>
       <c r="F489" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G489" s="35"/>
-      <c r="H489" s="29"/>
+      <c r="G489" s="37"/>
+      <c r="H489" s="31"/>
       <c r="I489" s="19">
         <v>1</v>
       </c>
       <c r="J489" s="20">
         <v>0</v>
       </c>
-      <c r="K489" s="35"/>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="35"/>
+      <c r="K489" s="37"/>
+    </row>
+    <row r="490" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="37"/>
       <c r="B490" s="7" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D490" s="35"/>
-      <c r="E490" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D490" s="37"/>
+      <c r="E490" s="31">
+        <v>44245</v>
       </c>
       <c r="F490" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G490" s="35"/>
-      <c r="H490" s="29"/>
-      <c r="I490" s="19">
-        <v>1</v>
-      </c>
-      <c r="J490" s="20">
-        <v>0</v>
-      </c>
-      <c r="K490" s="35"/>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="35"/>
+      <c r="G490" s="37"/>
+      <c r="H490" s="31"/>
+      <c r="I490" s="19"/>
+      <c r="J490" s="20"/>
+      <c r="K490" s="37"/>
+    </row>
+    <row r="491" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="37"/>
       <c r="B491" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D491" s="35"/>
-      <c r="E491" s="29">
-        <v>44175</v>
+        <v>407</v>
+      </c>
+      <c r="D491" s="37"/>
+      <c r="E491" s="31">
+        <v>44245</v>
       </c>
       <c r="F491" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G491" s="35"/>
-      <c r="H491" s="29"/>
-      <c r="I491" s="19">
-        <v>1</v>
-      </c>
-      <c r="J491" s="20">
-        <v>0</v>
-      </c>
-      <c r="K491" s="35"/>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="35"/>
+      <c r="G491" s="37"/>
+      <c r="H491" s="31"/>
+      <c r="I491" s="19"/>
+      <c r="J491" s="20"/>
+      <c r="K491" s="37"/>
+    </row>
+    <row r="492" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="37"/>
       <c r="B492" s="7" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D492" s="35"/>
-      <c r="E492" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D492" s="37"/>
+      <c r="E492" s="31">
+        <v>44245</v>
       </c>
       <c r="F492" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G492" s="35"/>
-      <c r="H492" s="29"/>
-      <c r="I492" s="19">
-        <v>1</v>
-      </c>
-      <c r="J492" s="20">
-        <v>0</v>
-      </c>
-      <c r="K492" s="35"/>
+      <c r="G492" s="37"/>
+      <c r="H492" s="31"/>
+      <c r="I492" s="19"/>
+      <c r="J492" s="20"/>
+      <c r="K492" s="37"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
@@ -14641,10 +14657,10 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
@@ -14666,14 +14682,14 @@
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F495" s="58" t="s">
         <v>627</v>
@@ -14691,14 +14707,14 @@
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
       <c r="B496" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D496" s="35"/>
       <c r="E496" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F496" s="58" t="s">
         <v>627</v>
@@ -14716,14 +14732,14 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F497" s="58" t="s">
         <v>627</v>
@@ -14738,127 +14754,151 @@
       </c>
       <c r="K497" s="35"/>
     </row>
-    <row r="498" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
-      <c r="B498" s="11"/>
-      <c r="C498" s="12"/>
+      <c r="B498" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D498" s="35"/>
-      <c r="E498" s="32"/>
-      <c r="F498" s="60"/>
+      <c r="E498" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F498" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G498" s="35"/>
-      <c r="H498" s="32"/>
-      <c r="I498" s="23"/>
-      <c r="J498" s="24"/>
+      <c r="H498" s="29"/>
+      <c r="I498" s="19">
+        <v>1</v>
+      </c>
+      <c r="J498" s="20">
+        <v>0</v>
+      </c>
       <c r="K498" s="35"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>721</v>
+        <v>307</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F499" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G499" s="35"/>
       <c r="H499" s="29"/>
-      <c r="I499" s="19"/>
-      <c r="J499" s="20"/>
+      <c r="I499" s="19">
+        <v>1</v>
+      </c>
+      <c r="J499" s="20">
+        <v>0</v>
+      </c>
       <c r="K499" s="35"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
       <c r="B500" s="7" t="s">
-        <v>718</v>
+        <v>304</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>722</v>
+        <v>305</v>
       </c>
       <c r="D500" s="35"/>
       <c r="E500" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F500" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G500" s="35"/>
       <c r="H500" s="29"/>
-      <c r="I500" s="19"/>
-      <c r="J500" s="20"/>
+      <c r="I500" s="19">
+        <v>1</v>
+      </c>
+      <c r="J500" s="20">
+        <v>0</v>
+      </c>
       <c r="K500" s="35"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
       <c r="B501" s="7" t="s">
-        <v>719</v>
+        <v>298</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>723</v>
+        <v>299</v>
       </c>
       <c r="D501" s="35"/>
       <c r="E501" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F501" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G501" s="35"/>
       <c r="H501" s="29"/>
-      <c r="I501" s="19"/>
-      <c r="J501" s="20"/>
+      <c r="I501" s="19">
+        <v>1</v>
+      </c>
+      <c r="J501" s="20">
+        <v>0</v>
+      </c>
       <c r="K501" s="35"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
-      <c r="B502" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>724</v>
-      </c>
+      <c r="B502" s="11"/>
+      <c r="C502" s="12"/>
       <c r="D502" s="35"/>
-      <c r="E502" s="29">
+      <c r="E502" s="32"/>
+      <c r="F502" s="60"/>
+      <c r="G502" s="35"/>
+      <c r="H502" s="32"/>
+      <c r="I502" s="23"/>
+      <c r="J502" s="24"/>
+      <c r="K502" s="35"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" s="35"/>
+      <c r="B503" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D503" s="35"/>
+      <c r="E503" s="29">
         <v>44382</v>
       </c>
-      <c r="F502" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G502" s="35"/>
-      <c r="H502" s="29"/>
-      <c r="I502" s="19"/>
-      <c r="J502" s="20"/>
-      <c r="K502" s="35"/>
-    </row>
-    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="35"/>
-      <c r="B503" s="11"/>
-      <c r="C503" s="12"/>
-      <c r="D503" s="35"/>
-      <c r="E503" s="32"/>
-      <c r="F503" s="60"/>
+      <c r="F503" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G503" s="35"/>
-      <c r="H503" s="32"/>
-      <c r="I503" s="23"/>
-      <c r="J503" s="24"/>
+      <c r="H503" s="29"/>
+      <c r="I503" s="19"/>
+      <c r="J503" s="20"/>
       <c r="K503" s="35"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
       <c r="B504" s="7" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="D504" s="35"/>
       <c r="E504" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F504" s="58" t="s">
         <v>627</v>
@@ -14872,14 +14912,14 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
       <c r="B505" s="7" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="D505" s="35"/>
       <c r="E505" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F505" s="58" t="s">
         <v>627</v>
@@ -14893,14 +14933,14 @@
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F506" s="58" t="s">
         <v>627</v>
@@ -14911,61 +14951,137 @@
       <c r="J506" s="20"/>
       <c r="K506" s="35"/>
     </row>
-    <row r="507" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
-      <c r="B507" s="8"/>
-      <c r="C507" s="6"/>
+      <c r="B507" s="11"/>
+      <c r="C507" s="12"/>
       <c r="D507" s="35"/>
-      <c r="E507" s="33"/>
-      <c r="F507" s="61"/>
+      <c r="E507" s="32"/>
+      <c r="F507" s="60"/>
       <c r="G507" s="35"/>
-      <c r="H507" s="33"/>
-      <c r="I507" s="25"/>
-      <c r="J507" s="26"/>
+      <c r="H507" s="32"/>
+      <c r="I507" s="23"/>
+      <c r="J507" s="24"/>
       <c r="K507" s="35"/>
     </row>
-    <row r="508" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
-      <c r="B508" s="38"/>
-      <c r="C508" s="39"/>
+      <c r="B508" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="D508" s="35"/>
-      <c r="E508" s="40"/>
-      <c r="F508" s="55"/>
+      <c r="E508" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F508" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G508" s="35"/>
-      <c r="H508" s="40"/>
-      <c r="I508" s="41"/>
-      <c r="J508" s="41"/>
+      <c r="H508" s="29"/>
+      <c r="I508" s="19"/>
+      <c r="J508" s="20"/>
       <c r="K508" s="35"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" s="35"/>
+      <c r="B509" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D509" s="35"/>
+      <c r="E509" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F509" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G509" s="35"/>
+      <c r="H509" s="29"/>
+      <c r="I509" s="19"/>
+      <c r="J509" s="20"/>
+      <c r="K509" s="35"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
       <c r="B510" s="7" t="s">
-        <v>389</v>
+        <v>759</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>390</v>
+        <v>756</v>
       </c>
       <c r="D510" s="35"/>
-      <c r="E510" s="29"/>
-      <c r="F510" s="58"/>
+      <c r="E510" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F510" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G510" s="35"/>
       <c r="H510" s="29"/>
       <c r="I510" s="19"/>
       <c r="J510" s="20"/>
       <c r="K510" s="35"/>
     </row>
-    <row r="511" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="35"/>
-      <c r="B511" s="50"/>
-      <c r="C511" s="51"/>
+      <c r="B511" s="8"/>
+      <c r="C511" s="6"/>
       <c r="D511" s="35"/>
-      <c r="E511" s="52"/>
-      <c r="F511" s="62"/>
+      <c r="E511" s="33"/>
+      <c r="F511" s="61"/>
       <c r="G511" s="35"/>
-      <c r="H511" s="52"/>
-      <c r="I511" s="53"/>
-      <c r="J511" s="54"/>
+      <c r="H511" s="33"/>
+      <c r="I511" s="25"/>
+      <c r="J511" s="26"/>
       <c r="K511" s="35"/>
+    </row>
+    <row r="512" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="35"/>
+      <c r="B512" s="38"/>
+      <c r="C512" s="39"/>
+      <c r="D512" s="35"/>
+      <c r="E512" s="40"/>
+      <c r="F512" s="55"/>
+      <c r="G512" s="35"/>
+      <c r="H512" s="40"/>
+      <c r="I512" s="41"/>
+      <c r="J512" s="41"/>
+      <c r="K512" s="35"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="35"/>
+      <c r="B514" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D514" s="35"/>
+      <c r="E514" s="29"/>
+      <c r="F514" s="58"/>
+      <c r="G514" s="35"/>
+      <c r="H514" s="29"/>
+      <c r="I514" s="19"/>
+      <c r="J514" s="20"/>
+      <c r="K514" s="35"/>
+    </row>
+    <row r="515" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="35"/>
+      <c r="B515" s="50"/>
+      <c r="C515" s="51"/>
+      <c r="D515" s="35"/>
+      <c r="E515" s="52"/>
+      <c r="F515" s="62"/>
+      <c r="G515" s="35"/>
+      <c r="H515" s="52"/>
+      <c r="I515" s="53"/>
+      <c r="J515" s="54"/>
+      <c r="K515" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14977,7 +15093,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F91:F113 F125:F129 F131:F135 F137:F143 F145:F147 F149:F150 F155 F157:F175 F177:F212 F214:F216 F218:F222 F229:F248 F260:F265 F267:F268 F291:F292 F294:F295 F302:F307 F309:F310 F312:F313 F352:F360 F363:F365 F367 F369:F373 F375:F378 F380:F381 F391:F396 F398:F400 F402:F403 F405:F406 F152:F153 F408 F410:F411 F413:F447 F449:F451 F453:F457 F385:F389 F460:F464 F466:F468 F470:F497 F115:F118 F499:F502 F270:F289 F315:F345 F347:F350 F298:F300 F120:F122 F504:F506 F58 F37:F56 F35 F19:F22 F258 F17 F77:F83 F85:F90 F225 F250:F251 F226:F227" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F474:F501 F116:F119 F503:F506 F272:F291 F333:F348 F350:F353 F300:F302 F121:F123 F508:F510 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F332" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="868">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2946,6 +2946,12 @@
   </si>
   <si>
     <t>Mendapatkan Data Record Hari Libur Nasional</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setDataCompression</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Kompresi Data</t>
   </si>
 </sst>
 </file>
@@ -3845,13 +3851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L515"/>
+  <dimension ref="A1:L516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E333" sqref="E333"/>
+      <selection pane="bottomRight" activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14469,14 +14475,14 @@
     <row r="486" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="37"/>
       <c r="B486" s="13" t="s">
-        <v>338</v>
+        <v>866</v>
       </c>
       <c r="C486" s="14" t="s">
-        <v>342</v>
+        <v>867</v>
       </c>
       <c r="D486" s="37"/>
       <c r="E486" s="31">
-        <v>44176</v>
+        <v>44406</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
@@ -14494,10 +14500,10 @@
     <row r="487" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="37"/>
       <c r="B487" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C487" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D487" s="37"/>
       <c r="E487" s="31">
@@ -14519,10 +14525,10 @@
     <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="37"/>
       <c r="B488" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C488" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D488" s="37"/>
       <c r="E488" s="31">
@@ -14544,10 +14550,10 @@
     <row r="489" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="37"/>
       <c r="B489" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D489" s="37"/>
       <c r="E489" s="31">
@@ -14568,32 +14574,36 @@
     </row>
     <row r="490" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="37"/>
-      <c r="B490" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>403</v>
+      <c r="B490" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C490" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D490" s="37"/>
       <c r="E490" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F490" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G490" s="37"/>
       <c r="H490" s="31"/>
-      <c r="I490" s="19"/>
-      <c r="J490" s="20"/>
+      <c r="I490" s="19">
+        <v>1</v>
+      </c>
+      <c r="J490" s="20">
+        <v>0</v>
+      </c>
       <c r="K490" s="37"/>
     </row>
     <row r="491" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="37"/>
       <c r="B491" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D491" s="37"/>
       <c r="E491" s="31">
@@ -14611,10 +14621,10 @@
     <row r="492" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="37"/>
       <c r="B492" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D492" s="37"/>
       <c r="E492" s="31">
@@ -14629,38 +14639,34 @@
       <c r="J492" s="20"/>
       <c r="K492" s="37"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="35"/>
+    <row r="493" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="37"/>
       <c r="B493" s="7" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D493" s="35"/>
-      <c r="E493" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D493" s="37"/>
+      <c r="E493" s="31">
+        <v>44245</v>
       </c>
       <c r="F493" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G493" s="35"/>
-      <c r="H493" s="29"/>
-      <c r="I493" s="19">
-        <v>1</v>
-      </c>
-      <c r="J493" s="20">
-        <v>0</v>
-      </c>
-      <c r="K493" s="35"/>
+      <c r="G493" s="37"/>
+      <c r="H493" s="31"/>
+      <c r="I493" s="19"/>
+      <c r="J493" s="20"/>
+      <c r="K493" s="37"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
@@ -14682,10 +14688,10 @@
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
@@ -14707,10 +14713,10 @@
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
       <c r="B496" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D496" s="35"/>
       <c r="E496" s="29">
@@ -14732,10 +14738,10 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
@@ -14757,10 +14763,10 @@
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D498" s="35"/>
       <c r="E498" s="29">
@@ -14782,14 +14788,14 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F499" s="58" t="s">
         <v>627</v>
@@ -14807,10 +14813,10 @@
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
       <c r="B500" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D500" s="35"/>
       <c r="E500" s="29">
@@ -14832,10 +14838,10 @@
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
       <c r="B501" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D501" s="35"/>
       <c r="E501" s="29">
@@ -14854,47 +14860,51 @@
       </c>
       <c r="K501" s="35"/>
     </row>
-    <row r="502" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
-      <c r="B502" s="11"/>
-      <c r="C502" s="12"/>
+      <c r="B502" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D502" s="35"/>
-      <c r="E502" s="32"/>
-      <c r="F502" s="60"/>
+      <c r="E502" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F502" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G502" s="35"/>
-      <c r="H502" s="32"/>
-      <c r="I502" s="23"/>
-      <c r="J502" s="24"/>
+      <c r="H502" s="29"/>
+      <c r="I502" s="19">
+        <v>1</v>
+      </c>
+      <c r="J502" s="20">
+        <v>0</v>
+      </c>
       <c r="K502" s="35"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="35"/>
-      <c r="B503" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C503" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="B503" s="11"/>
+      <c r="C503" s="12"/>
       <c r="D503" s="35"/>
-      <c r="E503" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F503" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E503" s="32"/>
+      <c r="F503" s="60"/>
       <c r="G503" s="35"/>
-      <c r="H503" s="29"/>
-      <c r="I503" s="19"/>
-      <c r="J503" s="20"/>
+      <c r="H503" s="32"/>
+      <c r="I503" s="23"/>
+      <c r="J503" s="24"/>
       <c r="K503" s="35"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
       <c r="B504" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D504" s="35"/>
       <c r="E504" s="29">
@@ -14912,10 +14922,10 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
       <c r="B505" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D505" s="35"/>
       <c r="E505" s="29">
@@ -14933,10 +14943,10 @@
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
@@ -14951,47 +14961,47 @@
       <c r="J506" s="20"/>
       <c r="K506" s="35"/>
     </row>
-    <row r="507" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
-      <c r="B507" s="11"/>
-      <c r="C507" s="12"/>
+      <c r="B507" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="D507" s="35"/>
-      <c r="E507" s="32"/>
-      <c r="F507" s="60"/>
+      <c r="E507" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F507" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G507" s="35"/>
-      <c r="H507" s="32"/>
-      <c r="I507" s="23"/>
-      <c r="J507" s="24"/>
+      <c r="H507" s="29"/>
+      <c r="I507" s="19"/>
+      <c r="J507" s="20"/>
       <c r="K507" s="35"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
-      <c r="B508" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="C508" s="4" t="s">
-        <v>754</v>
-      </c>
+      <c r="B508" s="11"/>
+      <c r="C508" s="12"/>
       <c r="D508" s="35"/>
-      <c r="E508" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F508" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E508" s="32"/>
+      <c r="F508" s="60"/>
       <c r="G508" s="35"/>
-      <c r="H508" s="29"/>
-      <c r="I508" s="19"/>
-      <c r="J508" s="20"/>
+      <c r="H508" s="32"/>
+      <c r="I508" s="23"/>
+      <c r="J508" s="24"/>
       <c r="K508" s="35"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
       <c r="B509" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D509" s="35"/>
       <c r="E509" s="29">
@@ -15009,10 +15019,10 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
       <c r="B510" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D510" s="35"/>
       <c r="E510" s="29">
@@ -15027,61 +15037,82 @@
       <c r="J510" s="20"/>
       <c r="K510" s="35"/>
     </row>
-    <row r="511" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
-      <c r="B511" s="8"/>
-      <c r="C511" s="6"/>
+      <c r="B511" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="D511" s="35"/>
-      <c r="E511" s="33"/>
-      <c r="F511" s="61"/>
+      <c r="E511" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F511" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G511" s="35"/>
-      <c r="H511" s="33"/>
-      <c r="I511" s="25"/>
-      <c r="J511" s="26"/>
+      <c r="H511" s="29"/>
+      <c r="I511" s="19"/>
+      <c r="J511" s="20"/>
       <c r="K511" s="35"/>
     </row>
-    <row r="512" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="35"/>
-      <c r="B512" s="38"/>
-      <c r="C512" s="39"/>
+      <c r="B512" s="8"/>
+      <c r="C512" s="6"/>
       <c r="D512" s="35"/>
-      <c r="E512" s="40"/>
-      <c r="F512" s="55"/>
+      <c r="E512" s="33"/>
+      <c r="F512" s="61"/>
       <c r="G512" s="35"/>
-      <c r="H512" s="40"/>
-      <c r="I512" s="41"/>
-      <c r="J512" s="41"/>
+      <c r="H512" s="33"/>
+      <c r="I512" s="25"/>
+      <c r="J512" s="26"/>
       <c r="K512" s="35"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="35"/>
-      <c r="B514" s="7" t="s">
+    <row r="513" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="35"/>
+      <c r="B513" s="38"/>
+      <c r="C513" s="39"/>
+      <c r="D513" s="35"/>
+      <c r="E513" s="40"/>
+      <c r="F513" s="55"/>
+      <c r="G513" s="35"/>
+      <c r="H513" s="40"/>
+      <c r="I513" s="41"/>
+      <c r="J513" s="41"/>
+      <c r="K513" s="35"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="35"/>
+      <c r="B515" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C514" s="4" t="s">
+      <c r="C515" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D514" s="35"/>
-      <c r="E514" s="29"/>
-      <c r="F514" s="58"/>
-      <c r="G514" s="35"/>
-      <c r="H514" s="29"/>
-      <c r="I514" s="19"/>
-      <c r="J514" s="20"/>
-      <c r="K514" s="35"/>
-    </row>
-    <row r="515" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="35"/>
-      <c r="B515" s="50"/>
-      <c r="C515" s="51"/>
       <c r="D515" s="35"/>
-      <c r="E515" s="52"/>
-      <c r="F515" s="62"/>
+      <c r="E515" s="29"/>
+      <c r="F515" s="58"/>
       <c r="G515" s="35"/>
-      <c r="H515" s="52"/>
-      <c r="I515" s="53"/>
-      <c r="J515" s="54"/>
+      <c r="H515" s="29"/>
+      <c r="I515" s="19"/>
+      <c r="J515" s="20"/>
       <c r="K515" s="35"/>
+    </row>
+    <row r="516" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="35"/>
+      <c r="B516" s="50"/>
+      <c r="C516" s="51"/>
+      <c r="D516" s="35"/>
+      <c r="E516" s="52"/>
+      <c r="F516" s="62"/>
+      <c r="G516" s="35"/>
+      <c r="H516" s="52"/>
+      <c r="I516" s="53"/>
+      <c r="J516" s="54"/>
+      <c r="K516" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15093,7 +15124,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F474:F501 F116:F119 F503:F506 F272:F291 F333:F348 F350:F353 F300:F302 F121:F123 F508:F510 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F332" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F486:F502 F116:F119 F504:F507 F272:F291 F350:F353 F300:F302 F121:F123 F509:F511 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F348 F474:F485" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="870">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2952,6 +2952,12 @@
   </si>
   <si>
     <t>Memutakhirkan Data Kompresi Data</t>
+  </si>
+  <si>
+    <t>transaction.update.master.setCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>Memutakhirkan Data Baru Kartu Keluarga</t>
   </si>
 </sst>
 </file>
@@ -3851,13 +3857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L516"/>
+  <dimension ref="A1:L517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C480" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C492" sqref="C492"/>
+      <selection pane="bottomRight" activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14349,14 +14355,14 @@
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>578</v>
+        <v>868</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>584</v>
+        <v>869</v>
       </c>
       <c r="D480" s="35"/>
       <c r="E480" s="29">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="F480" s="58" t="s">
         <v>627</v>
@@ -14370,10 +14376,10 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
@@ -14391,10 +14397,10 @@
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
@@ -14412,10 +14418,10 @@
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
@@ -14433,10 +14439,10 @@
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
@@ -14454,10 +14460,10 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
@@ -14472,42 +14478,38 @@
       <c r="J485" s="20"/>
       <c r="K485" s="35"/>
     </row>
-    <row r="486" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="37"/>
-      <c r="B486" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C486" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="D486" s="37"/>
-      <c r="E486" s="31">
-        <v>44406</v>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="35"/>
+      <c r="B486" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D486" s="35"/>
+      <c r="E486" s="29">
+        <v>44376</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G486" s="37"/>
-      <c r="H486" s="31"/>
-      <c r="I486" s="19">
-        <v>1</v>
-      </c>
-      <c r="J486" s="20">
-        <v>0</v>
-      </c>
-      <c r="K486" s="37"/>
+      <c r="G486" s="35"/>
+      <c r="H486" s="29"/>
+      <c r="I486" s="19"/>
+      <c r="J486" s="20"/>
+      <c r="K486" s="35"/>
     </row>
     <row r="487" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="37"/>
       <c r="B487" s="13" t="s">
-        <v>338</v>
+        <v>866</v>
       </c>
       <c r="C487" s="14" t="s">
-        <v>342</v>
+        <v>867</v>
       </c>
       <c r="D487" s="37"/>
       <c r="E487" s="31">
-        <v>44176</v>
+        <v>44406</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
@@ -14525,10 +14527,10 @@
     <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="37"/>
       <c r="B488" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C488" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D488" s="37"/>
       <c r="E488" s="31">
@@ -14550,10 +14552,10 @@
     <row r="489" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="37"/>
       <c r="B489" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D489" s="37"/>
       <c r="E489" s="31">
@@ -14575,10 +14577,10 @@
     <row r="490" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="37"/>
       <c r="B490" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D490" s="37"/>
       <c r="E490" s="31">
@@ -14599,32 +14601,36 @@
     </row>
     <row r="491" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="37"/>
-      <c r="B491" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>403</v>
+      <c r="B491" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C491" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D491" s="37"/>
       <c r="E491" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F491" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G491" s="37"/>
       <c r="H491" s="31"/>
-      <c r="I491" s="19"/>
-      <c r="J491" s="20"/>
+      <c r="I491" s="19">
+        <v>1</v>
+      </c>
+      <c r="J491" s="20">
+        <v>0</v>
+      </c>
       <c r="K491" s="37"/>
     </row>
     <row r="492" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="37"/>
       <c r="B492" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D492" s="37"/>
       <c r="E492" s="31">
@@ -14642,10 +14648,10 @@
     <row r="493" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="37"/>
       <c r="B493" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D493" s="37"/>
       <c r="E493" s="31">
@@ -14660,38 +14666,34 @@
       <c r="J493" s="20"/>
       <c r="K493" s="37"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="35"/>
+    <row r="494" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="37"/>
       <c r="B494" s="7" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D494" s="35"/>
-      <c r="E494" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D494" s="37"/>
+      <c r="E494" s="31">
+        <v>44245</v>
       </c>
       <c r="F494" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G494" s="35"/>
-      <c r="H494" s="29"/>
-      <c r="I494" s="19">
-        <v>1</v>
-      </c>
-      <c r="J494" s="20">
-        <v>0</v>
-      </c>
-      <c r="K494" s="35"/>
+      <c r="G494" s="37"/>
+      <c r="H494" s="31"/>
+      <c r="I494" s="19"/>
+      <c r="J494" s="20"/>
+      <c r="K494" s="37"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
@@ -14713,10 +14715,10 @@
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
       <c r="B496" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D496" s="35"/>
       <c r="E496" s="29">
@@ -14738,10 +14740,10 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
@@ -14763,10 +14765,10 @@
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D498" s="35"/>
       <c r="E498" s="29">
@@ -14788,10 +14790,10 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
@@ -14813,14 +14815,14 @@
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
       <c r="B500" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D500" s="35"/>
       <c r="E500" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F500" s="58" t="s">
         <v>627</v>
@@ -14838,10 +14840,10 @@
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
       <c r="B501" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D501" s="35"/>
       <c r="E501" s="29">
@@ -14863,10 +14865,10 @@
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
       <c r="B502" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D502" s="35"/>
       <c r="E502" s="29">
@@ -14885,47 +14887,51 @@
       </c>
       <c r="K502" s="35"/>
     </row>
-    <row r="503" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="35"/>
-      <c r="B503" s="11"/>
-      <c r="C503" s="12"/>
+      <c r="B503" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D503" s="35"/>
-      <c r="E503" s="32"/>
-      <c r="F503" s="60"/>
+      <c r="E503" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F503" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G503" s="35"/>
-      <c r="H503" s="32"/>
-      <c r="I503" s="23"/>
-      <c r="J503" s="24"/>
+      <c r="H503" s="29"/>
+      <c r="I503" s="19">
+        <v>1</v>
+      </c>
+      <c r="J503" s="20">
+        <v>0</v>
+      </c>
       <c r="K503" s="35"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
-      <c r="B504" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C504" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="B504" s="11"/>
+      <c r="C504" s="12"/>
       <c r="D504" s="35"/>
-      <c r="E504" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F504" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E504" s="32"/>
+      <c r="F504" s="60"/>
       <c r="G504" s="35"/>
-      <c r="H504" s="29"/>
-      <c r="I504" s="19"/>
-      <c r="J504" s="20"/>
+      <c r="H504" s="32"/>
+      <c r="I504" s="23"/>
+      <c r="J504" s="24"/>
       <c r="K504" s="35"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
       <c r="B505" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D505" s="35"/>
       <c r="E505" s="29">
@@ -14943,10 +14949,10 @@
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
@@ -14964,10 +14970,10 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
       <c r="B507" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D507" s="35"/>
       <c r="E507" s="29">
@@ -14982,47 +14988,47 @@
       <c r="J507" s="20"/>
       <c r="K507" s="35"/>
     </row>
-    <row r="508" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
-      <c r="B508" s="11"/>
-      <c r="C508" s="12"/>
+      <c r="B508" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="D508" s="35"/>
-      <c r="E508" s="32"/>
-      <c r="F508" s="60"/>
+      <c r="E508" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F508" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G508" s="35"/>
-      <c r="H508" s="32"/>
-      <c r="I508" s="23"/>
-      <c r="J508" s="24"/>
+      <c r="H508" s="29"/>
+      <c r="I508" s="19"/>
+      <c r="J508" s="20"/>
       <c r="K508" s="35"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
-      <c r="B509" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="C509" s="4" t="s">
-        <v>754</v>
-      </c>
+      <c r="B509" s="11"/>
+      <c r="C509" s="12"/>
       <c r="D509" s="35"/>
-      <c r="E509" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F509" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E509" s="32"/>
+      <c r="F509" s="60"/>
       <c r="G509" s="35"/>
-      <c r="H509" s="29"/>
-      <c r="I509" s="19"/>
-      <c r="J509" s="20"/>
+      <c r="H509" s="32"/>
+      <c r="I509" s="23"/>
+      <c r="J509" s="24"/>
       <c r="K509" s="35"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
       <c r="B510" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D510" s="35"/>
       <c r="E510" s="29">
@@ -15040,10 +15046,10 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
       <c r="B511" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D511" s="35"/>
       <c r="E511" s="29">
@@ -15058,61 +15064,82 @@
       <c r="J511" s="20"/>
       <c r="K511" s="35"/>
     </row>
-    <row r="512" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="35"/>
-      <c r="B512" s="8"/>
-      <c r="C512" s="6"/>
+      <c r="B512" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="D512" s="35"/>
-      <c r="E512" s="33"/>
-      <c r="F512" s="61"/>
+      <c r="E512" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F512" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G512" s="35"/>
-      <c r="H512" s="33"/>
-      <c r="I512" s="25"/>
-      <c r="J512" s="26"/>
+      <c r="H512" s="29"/>
+      <c r="I512" s="19"/>
+      <c r="J512" s="20"/>
       <c r="K512" s="35"/>
     </row>
-    <row r="513" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="35"/>
-      <c r="B513" s="38"/>
-      <c r="C513" s="39"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="6"/>
       <c r="D513" s="35"/>
-      <c r="E513" s="40"/>
-      <c r="F513" s="55"/>
+      <c r="E513" s="33"/>
+      <c r="F513" s="61"/>
       <c r="G513" s="35"/>
-      <c r="H513" s="40"/>
-      <c r="I513" s="41"/>
-      <c r="J513" s="41"/>
+      <c r="H513" s="33"/>
+      <c r="I513" s="25"/>
+      <c r="J513" s="26"/>
       <c r="K513" s="35"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="35"/>
-      <c r="B515" s="7" t="s">
+    <row r="514" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="35"/>
+      <c r="B514" s="38"/>
+      <c r="C514" s="39"/>
+      <c r="D514" s="35"/>
+      <c r="E514" s="40"/>
+      <c r="F514" s="55"/>
+      <c r="G514" s="35"/>
+      <c r="H514" s="40"/>
+      <c r="I514" s="41"/>
+      <c r="J514" s="41"/>
+      <c r="K514" s="35"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="35"/>
+      <c r="B516" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C516" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D515" s="35"/>
-      <c r="E515" s="29"/>
-      <c r="F515" s="58"/>
-      <c r="G515" s="35"/>
-      <c r="H515" s="29"/>
-      <c r="I515" s="19"/>
-      <c r="J515" s="20"/>
-      <c r="K515" s="35"/>
-    </row>
-    <row r="516" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="35"/>
-      <c r="B516" s="50"/>
-      <c r="C516" s="51"/>
       <c r="D516" s="35"/>
-      <c r="E516" s="52"/>
-      <c r="F516" s="62"/>
+      <c r="E516" s="29"/>
+      <c r="F516" s="58"/>
       <c r="G516" s="35"/>
-      <c r="H516" s="52"/>
-      <c r="I516" s="53"/>
-      <c r="J516" s="54"/>
+      <c r="H516" s="29"/>
+      <c r="I516" s="19"/>
+      <c r="J516" s="20"/>
       <c r="K516" s="35"/>
+    </row>
+    <row r="517" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="35"/>
+      <c r="B517" s="50"/>
+      <c r="C517" s="51"/>
+      <c r="D517" s="35"/>
+      <c r="E517" s="52"/>
+      <c r="F517" s="62"/>
+      <c r="G517" s="35"/>
+      <c r="H517" s="52"/>
+      <c r="I517" s="53"/>
+      <c r="J517" s="54"/>
+      <c r="K517" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15124,7 +15151,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F486:F502 F116:F119 F504:F507 F272:F291 F350:F353 F300:F302 F121:F123 F509:F511 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F348 F474:F485" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F116:F119 F505:F508 F272:F291 F350:F353 F300:F302 F121:F123 F510:F512 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F348 F480:F503 F474:F479" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="872">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2958,6 +2958,12 @@
   </si>
   <si>
     <t>Memutakhirkan Data Baru Kartu Keluarga</t>
+  </si>
+  <si>
+    <t>transaction.create.dataAcquisition.setLog_FileUpload_PointerHistory</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru File Upload Pointer History</t>
   </si>
 </sst>
 </file>
@@ -3857,13 +3863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L517"/>
+  <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F480" sqref="F480"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5501,53 +5507,47 @@
       <c r="J83" s="20"/>
       <c r="K83" s="35"/>
     </row>
-    <row r="84" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="B84" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>871</v>
+      </c>
       <c r="D84" s="35"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="60"/>
+      <c r="E84" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G84" s="35"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="24"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="35"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
-      <c r="B85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="35"/>
-      <c r="E85" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="29">
-        <v>44200</v>
-      </c>
-      <c r="I85" s="19">
-        <v>1</v>
-      </c>
-      <c r="J85" s="20">
-        <v>1</v>
-      </c>
+      <c r="H85" s="32"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="24"/>
       <c r="K85" s="35"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
-      <c r="B86" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>593</v>
+      <c r="B86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="D86" s="35"/>
       <c r="E86" s="29">
@@ -5557,22 +5557,28 @@
         <v>627</v>
       </c>
       <c r="G86" s="35"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="29">
+        <v>44200</v>
+      </c>
+      <c r="I86" s="19">
+        <v>1</v>
+      </c>
+      <c r="J86" s="20">
+        <v>1</v>
+      </c>
       <c r="K86" s="35"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="13" t="s">
-        <v>290</v>
+        <v>592</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="D87" s="35"/>
-      <c r="E87" s="29" t="s">
-        <v>632</v>
+      <c r="E87" s="29">
+        <v>44148</v>
       </c>
       <c r="F87" s="58" t="s">
         <v>627</v>
@@ -5586,10 +5592,10 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29" t="s">
@@ -5606,38 +5612,32 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
-      <c r="B89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>287</v>
+      <c r="B89" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="D89" s="35"/>
-      <c r="E89" s="29">
-        <v>44172</v>
+      <c r="E89" s="29" t="s">
+        <v>632</v>
       </c>
       <c r="F89" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G89" s="35"/>
-      <c r="H89" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I89" s="19">
-        <v>1</v>
-      </c>
-      <c r="J89" s="20">
-        <v>1</v>
-      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
       <c r="K89" s="35"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="7" t="s">
-        <v>621</v>
+        <v>286</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>622</v>
+        <v>287</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="29">
@@ -5647,22 +5647,28 @@
         <v>627</v>
       </c>
       <c r="G90" s="35"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="29">
+        <v>44204</v>
+      </c>
+      <c r="I90" s="19">
+        <v>1</v>
+      </c>
+      <c r="J90" s="20">
+        <v>1</v>
+      </c>
       <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>844</v>
+        <v>621</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>845</v>
+        <v>622</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29">
-        <v>44404</v>
+        <v>44172</v>
       </c>
       <c r="F91" s="58" t="s">
         <v>627</v>
@@ -5676,14 +5682,14 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>568</v>
+        <v>844</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>569</v>
+        <v>845</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29">
-        <v>44376</v>
+        <v>44404</v>
       </c>
       <c r="F92" s="58" t="s">
         <v>627</v>
@@ -5694,34 +5700,34 @@
       <c r="J92" s="20"/>
       <c r="K92" s="35"/>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="13" t="s">
-        <v>570</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="7" t="s">
+        <v>568</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D93" s="37"/>
+        <v>569</v>
+      </c>
+      <c r="D93" s="35"/>
       <c r="E93" s="29">
         <v>44376</v>
       </c>
       <c r="F93" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G93" s="37"/>
+      <c r="G93" s="35"/>
       <c r="H93" s="29"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
-      <c r="K93" s="37"/>
+      <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
       <c r="B94" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="29">
@@ -5739,10 +5745,10 @@
     <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
       <c r="B95" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="29">
@@ -5760,10 +5766,10 @@
     <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
       <c r="B96" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D96" s="37"/>
       <c r="E96" s="29">
@@ -5778,82 +5784,76 @@
       <c r="J96" s="20"/>
       <c r="K96" s="37"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="7" t="s">
-        <v>590</v>
+    <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D97" s="35"/>
+        <v>577</v>
+      </c>
+      <c r="D97" s="37"/>
       <c r="E97" s="29">
         <v>44376</v>
       </c>
       <c r="F97" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G97" s="35"/>
+      <c r="G97" s="37"/>
       <c r="H97" s="29"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
-      <c r="K97" s="35"/>
-    </row>
-    <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>857</v>
-      </c>
-      <c r="D98" s="37"/>
+      <c r="K97" s="37"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="35"/>
+      <c r="B98" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D98" s="35"/>
       <c r="E98" s="29">
-        <v>44405</v>
+        <v>44376</v>
       </c>
       <c r="F98" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G98" s="37"/>
+      <c r="G98" s="35"/>
       <c r="H98" s="29"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
-      <c r="K98" s="37"/>
+      <c r="K98" s="35"/>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
-        <v>334</v>
+        <v>856</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>346</v>
+        <v>857</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="29">
-        <v>44176</v>
+        <v>44405</v>
       </c>
       <c r="F99" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G99" s="37"/>
-      <c r="H99" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I99" s="19">
-        <v>1</v>
-      </c>
-      <c r="J99" s="20">
-        <v>1</v>
-      </c>
+      <c r="H99" s="29"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
       <c r="K99" s="37"/>
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
       <c r="B100" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D100" s="37"/>
       <c r="E100" s="29">
@@ -5877,14 +5877,14 @@
     <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
       <c r="B101" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D101" s="37"/>
       <c r="E101" s="29">
-        <v>44173</v>
+        <v>44176</v>
       </c>
       <c r="F101" s="58" t="s">
         <v>627</v>
@@ -5904,10 +5904,10 @@
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
       <c r="B102" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D102" s="37"/>
       <c r="E102" s="29">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G102" s="37"/>
       <c r="H102" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="I102" s="19">
         <v>1</v>
@@ -5930,32 +5930,38 @@
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
-      <c r="B103" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>400</v>
+      <c r="B103" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="29">
-        <v>44245</v>
+        <v>44173</v>
       </c>
       <c r="F103" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G103" s="37"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I103" s="19">
+        <v>1</v>
+      </c>
+      <c r="J103" s="20">
+        <v>1</v>
+      </c>
       <c r="K103" s="37"/>
     </row>
     <row r="104" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37"/>
       <c r="B104" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D104" s="37"/>
       <c r="E104" s="29">
@@ -5970,61 +5976,55 @@
       <c r="J104" s="20"/>
       <c r="K104" s="37"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
+    <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
       <c r="B105" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D105" s="35"/>
+        <v>401</v>
+      </c>
+      <c r="D105" s="37"/>
       <c r="E105" s="29">
         <v>44245</v>
       </c>
       <c r="F105" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G105" s="35"/>
+      <c r="G105" s="37"/>
       <c r="H105" s="29"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
-      <c r="K105" s="35"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F106" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G106" s="35"/>
-      <c r="H106" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I106" s="19">
-        <v>1</v>
-      </c>
-      <c r="J106" s="20">
-        <v>1</v>
-      </c>
+      <c r="H106" s="29"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
       <c r="K106" s="35"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="29">
@@ -6048,10 +6048,10 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="29">
@@ -6075,10 +6075,10 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29">
@@ -6102,10 +6102,10 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29">
@@ -6129,10 +6129,10 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29">
@@ -6156,14 +6156,14 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F112" s="58" t="s">
         <v>627</v>
@@ -6183,10 +6183,10 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29">
@@ -6210,10 +6210,10 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="29">
@@ -6234,47 +6234,53 @@
       </c>
       <c r="K114" s="35"/>
     </row>
-    <row r="115" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="B115" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D115" s="35"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="60"/>
+      <c r="E115" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F115" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G115" s="35"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="24"/>
+      <c r="H115" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I115" s="19">
+        <v>1</v>
+      </c>
+      <c r="J115" s="20">
+        <v>1</v>
+      </c>
       <c r="K115" s="35"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
-      <c r="B116" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="35"/>
-      <c r="E116" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F116" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="60"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="24"/>
       <c r="K116" s="35"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
@@ -6292,10 +6298,10 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29">
@@ -6313,10 +6319,10 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29">
@@ -6331,47 +6337,47 @@
       <c r="J119" s="20"/>
       <c r="K119" s="35"/>
     </row>
-    <row r="120" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="B120" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="D120" s="35"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="60"/>
+      <c r="E120" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F120" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G120" s="35"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="24"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
       <c r="K120" s="35"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
-      <c r="B121" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>749</v>
-      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="35"/>
-      <c r="E121" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F121" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E121" s="32"/>
+      <c r="F121" s="60"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="24"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29">
@@ -6389,10 +6395,10 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29">
@@ -6409,62 +6415,58 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="4"/>
+      <c r="B124" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="D124" s="35"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="58"/>
+      <c r="E124" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F124" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G124" s="35"/>
       <c r="H124" s="29"/>
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
       <c r="K124" s="35"/>
     </row>
-    <row r="125" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="10"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="4"/>
       <c r="D125" s="35"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="59"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="58"/>
       <c r="G125" s="35"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="22"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
       <c r="K125" s="35"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
-      <c r="B126" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="35"/>
-      <c r="E126" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F126" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E126" s="30"/>
+      <c r="F126" s="59"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="19">
-        <v>1</v>
-      </c>
-      <c r="J126" s="20">
-        <v>0</v>
-      </c>
+      <c r="H126" s="30"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="22"/>
       <c r="K126" s="35"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29">
@@ -6486,10 +6488,10 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29">
@@ -6511,10 +6513,10 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="29">
@@ -6536,10 +6538,10 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D130" s="35"/>
       <c r="E130" s="29">
@@ -6558,53 +6560,51 @@
       </c>
       <c r="K130" s="35"/>
     </row>
-    <row r="131" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
+      <c r="B131" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D131" s="35"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="60"/>
+      <c r="E131" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F131" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G131" s="35"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="24"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="19">
+        <v>1</v>
+      </c>
+      <c r="J131" s="20">
+        <v>0</v>
+      </c>
       <c r="K131" s="35"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
-      <c r="B132" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="35"/>
-      <c r="E132" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F132" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E132" s="32"/>
+      <c r="F132" s="60"/>
       <c r="G132" s="35"/>
-      <c r="H132" s="29">
-        <v>44188</v>
-      </c>
-      <c r="I132" s="19">
-        <v>1</v>
-      </c>
-      <c r="J132" s="20">
-        <v>1</v>
-      </c>
+      <c r="H132" s="32"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="24"/>
       <c r="K132" s="35"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29">
@@ -6614,22 +6614,24 @@
         <v>627</v>
       </c>
       <c r="G133" s="35"/>
-      <c r="H133" s="29"/>
+      <c r="H133" s="29">
+        <v>44188</v>
+      </c>
       <c r="I133" s="19">
         <v>1</v>
       </c>
       <c r="J133" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29">
@@ -6651,10 +6653,10 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29">
@@ -6676,10 +6678,10 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="29">
@@ -6698,51 +6700,55 @@
       </c>
       <c r="K136" s="35"/>
     </row>
-    <row r="137" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
+      <c r="B137" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D137" s="35"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F137" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G137" s="35"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="24"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="19">
+        <v>1</v>
+      </c>
+      <c r="J137" s="20">
+        <v>0</v>
+      </c>
       <c r="K137" s="35"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
-      <c r="B138" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="35"/>
-      <c r="E138" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F138" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E138" s="32"/>
+      <c r="F138" s="60"/>
       <c r="G138" s="35"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="24"/>
       <c r="K138" s="35"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>459</v>
+        <v>200</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F139" s="58" t="s">
         <v>627</v>
@@ -6756,14 +6762,14 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>633</v>
+        <v>458</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>635</v>
+        <v>459</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29">
-        <v>44378</v>
+        <v>44362</v>
       </c>
       <c r="F140" s="58" t="s">
         <v>627</v>
@@ -6777,10 +6783,10 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
@@ -6798,14 +6804,14 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>455</v>
+        <v>636</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
-        <v>44362</v>
+        <v>44378</v>
       </c>
       <c r="F142" s="58" t="s">
         <v>627</v>
@@ -6819,10 +6825,10 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D143" s="35"/>
       <c r="E143" s="29">
@@ -6840,94 +6846,94 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>199</v>
+        <v>466</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29">
-        <v>44154</v>
+        <v>44362</v>
       </c>
       <c r="F144" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G144" s="35"/>
       <c r="H144" s="29"/>
-      <c r="I144" s="19">
-        <v>1</v>
-      </c>
-      <c r="J144" s="20">
-        <v>0</v>
-      </c>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
       <c r="K144" s="35"/>
     </row>
-    <row r="145" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
+      <c r="B145" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D145" s="35"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="60"/>
+      <c r="E145" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F145" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G145" s="35"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="24"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="19">
+        <v>1</v>
+      </c>
+      <c r="J145" s="20">
+        <v>0</v>
+      </c>
       <c r="K145" s="35"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>637</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="35"/>
-      <c r="E146" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F146" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E146" s="32"/>
+      <c r="F146" s="60"/>
       <c r="G146" s="35"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="19">
-        <v>1</v>
-      </c>
-      <c r="J146" s="20">
-        <v>0</v>
-      </c>
+      <c r="H146" s="32"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="24"/>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>638</v>
+        <v>202</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F147" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G147" s="35"/>
       <c r="H147" s="29"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="I147" s="19">
+        <v>1</v>
+      </c>
+      <c r="J147" s="20">
+        <v>0</v>
+      </c>
       <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
@@ -6942,51 +6948,47 @@
       <c r="J148" s="20"/>
       <c r="K148" s="35"/>
     </row>
-    <row r="149" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
+      <c r="B149" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D149" s="35"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="60"/>
+      <c r="E149" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F149" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G149" s="35"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="24"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
-      <c r="B150" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="35"/>
-      <c r="E150" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F150" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="60"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="19">
-        <v>1</v>
-      </c>
-      <c r="J150" s="20">
-        <v>0</v>
-      </c>
+      <c r="H150" s="32"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="24"/>
       <c r="K150" s="35"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
@@ -7005,51 +7007,51 @@
       </c>
       <c r="K151" s="35"/>
     </row>
-    <row r="152" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
+      <c r="B152" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="D152" s="35"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="60"/>
+      <c r="E152" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F152" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G152" s="35"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="24"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="19">
+        <v>1</v>
+      </c>
+      <c r="J152" s="20">
+        <v>0</v>
+      </c>
       <c r="K152" s="35"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="35"/>
-      <c r="E153" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F153" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E153" s="32"/>
+      <c r="F153" s="60"/>
       <c r="G153" s="35"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="19">
-        <v>1</v>
-      </c>
-      <c r="J153" s="20">
-        <v>0</v>
-      </c>
+      <c r="H153" s="32"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="24"/>
       <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
@@ -7068,89 +7070,89 @@
       </c>
       <c r="K154" s="35"/>
     </row>
-    <row r="155" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
+      <c r="B155" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D155" s="35"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="60"/>
+      <c r="E155" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F155" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G155" s="35"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="24"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="19">
+        <v>1</v>
+      </c>
+      <c r="J155" s="20">
+        <v>0</v>
+      </c>
       <c r="K155" s="35"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="60"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="35"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="35"/>
+      <c r="B157" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D156" s="35"/>
-      <c r="E156" s="29">
+      <c r="D157" s="35"/>
+      <c r="E157" s="29">
         <v>44158</v>
       </c>
-      <c r="F156" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G156" s="35"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="19">
-        <v>1</v>
-      </c>
-      <c r="J156" s="20">
-        <v>0</v>
-      </c>
-      <c r="K156" s="35"/>
-    </row>
-    <row r="157" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="60"/>
+      <c r="F157" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G157" s="35"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="24"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="19">
+        <v>1</v>
+      </c>
+      <c r="J157" s="20">
+        <v>0</v>
+      </c>
       <c r="K157" s="35"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="35"/>
-      <c r="E158" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F158" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E158" s="32"/>
+      <c r="F158" s="60"/>
       <c r="G158" s="35"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="19">
-        <v>1</v>
-      </c>
-      <c r="J158" s="20">
-        <v>0</v>
-      </c>
+      <c r="H158" s="32"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="24"/>
       <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -7172,10 +7174,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -7197,10 +7199,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -7222,10 +7224,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
       <c r="B162" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D162" s="35"/>
       <c r="E162" s="29">
@@ -7247,10 +7249,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7272,10 +7274,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -7297,10 +7299,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -7322,10 +7324,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -7347,10 +7349,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -7372,10 +7374,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7397,10 +7399,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7422,10 +7424,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7447,10 +7449,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29">
@@ -7472,10 +7474,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
@@ -7497,10 +7499,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
@@ -7522,10 +7524,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
@@ -7547,10 +7549,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29">
@@ -7572,10 +7574,10 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29">
@@ -7594,51 +7596,51 @@
       </c>
       <c r="K176" s="35"/>
     </row>
-    <row r="177" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
+      <c r="B177" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D177" s="35"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="60"/>
+      <c r="E177" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F177" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G177" s="35"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="23"/>
-      <c r="J177" s="24"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="19">
+        <v>1</v>
+      </c>
+      <c r="J177" s="20">
+        <v>0</v>
+      </c>
       <c r="K177" s="35"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
-      <c r="B178" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="35"/>
-      <c r="E178" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F178" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E178" s="32"/>
+      <c r="F178" s="60"/>
       <c r="G178" s="35"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="19">
-        <v>1</v>
-      </c>
-      <c r="J178" s="20">
-        <v>0</v>
-      </c>
+      <c r="H178" s="32"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="24"/>
       <c r="K178" s="35"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
@@ -7660,14 +7662,14 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
-        <v>44165</v>
+        <v>44148</v>
       </c>
       <c r="F180" s="58" t="s">
         <v>627</v>
@@ -7685,10 +7687,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
@@ -7710,14 +7712,14 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29">
-        <v>44148</v>
+        <v>44165</v>
       </c>
       <c r="F182" s="58" t="s">
         <v>627</v>
@@ -7735,10 +7737,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
@@ -7760,14 +7762,14 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F184" s="58" t="s">
         <v>627</v>
@@ -7785,10 +7787,10 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
@@ -7810,14 +7812,14 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F186" s="58" t="s">
         <v>627</v>
@@ -7835,14 +7837,14 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F187" s="58" t="s">
         <v>627</v>
@@ -7860,14 +7862,14 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F188" s="58" t="s">
         <v>627</v>
@@ -7885,10 +7887,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
@@ -7910,10 +7912,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
@@ -7935,10 +7937,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
@@ -7960,10 +7962,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
@@ -7985,10 +7987,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
@@ -8010,14 +8012,14 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F194" s="58" t="s">
         <v>627</v>
@@ -8035,10 +8037,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
@@ -8060,14 +8062,14 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>858</v>
+        <v>94</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>859</v>
+        <v>97</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
-        <v>44406</v>
+        <v>44152</v>
       </c>
       <c r="F196" s="58" t="s">
         <v>627</v>
@@ -8085,14 +8087,14 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>98</v>
+        <v>858</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>100</v>
+        <v>859</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
-        <v>44152</v>
+        <v>44406</v>
       </c>
       <c r="F197" s="58" t="s">
         <v>627</v>
@@ -8110,10 +8112,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
@@ -8135,10 +8137,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
@@ -8160,10 +8162,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
@@ -8185,10 +8187,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
@@ -8210,10 +8212,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
@@ -8235,10 +8237,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
@@ -8260,10 +8262,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
@@ -8285,14 +8287,14 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F205" s="58" t="s">
         <v>627</v>
@@ -8310,10 +8312,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
@@ -8335,10 +8337,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
@@ -8360,10 +8362,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29">
@@ -8385,10 +8387,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
@@ -8410,10 +8412,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8435,10 +8437,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
@@ -8460,10 +8462,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29">
@@ -8485,10 +8487,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29">
@@ -8510,10 +8512,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
@@ -8532,51 +8534,51 @@
       </c>
       <c r="K214" s="35"/>
     </row>
-    <row r="215" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12"/>
+      <c r="B215" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="D215" s="35"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="60"/>
+      <c r="E215" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F215" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G215" s="35"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="24"/>
+      <c r="H215" s="29"/>
+      <c r="I215" s="19">
+        <v>1</v>
+      </c>
+      <c r="J215" s="20">
+        <v>0</v>
+      </c>
       <c r="K215" s="35"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="35"/>
-      <c r="E216" s="29">
-        <v>44153</v>
-      </c>
-      <c r="F216" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E216" s="32"/>
+      <c r="F216" s="60"/>
       <c r="G216" s="35"/>
-      <c r="H216" s="29"/>
-      <c r="I216" s="19">
-        <v>1</v>
-      </c>
-      <c r="J216" s="20">
-        <v>0</v>
-      </c>
+      <c r="H216" s="32"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="24"/>
       <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29">
@@ -8598,14 +8600,14 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>762</v>
+        <v>195</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>763</v>
+        <v>196</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F218" s="58" t="s">
         <v>627</v>
@@ -8620,51 +8622,51 @@
       </c>
       <c r="K218" s="35"/>
     </row>
-    <row r="219" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12"/>
+      <c r="B219" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="D219" s="35"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="60"/>
+      <c r="E219" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F219" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G219" s="35"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="23"/>
-      <c r="J219" s="24"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="19">
+        <v>1</v>
+      </c>
+      <c r="J219" s="20">
+        <v>0</v>
+      </c>
       <c r="K219" s="35"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
-      <c r="B220" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12"/>
       <c r="D220" s="35"/>
-      <c r="E220" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F220" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E220" s="32"/>
+      <c r="F220" s="60"/>
       <c r="G220" s="35"/>
-      <c r="H220" s="29"/>
-      <c r="I220" s="19">
-        <v>1</v>
-      </c>
-      <c r="J220" s="20">
-        <v>0</v>
-      </c>
+      <c r="H220" s="32"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="24"/>
       <c r="K220" s="35"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
@@ -8686,10 +8688,10 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29">
@@ -8711,10 +8713,10 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29">
@@ -8736,10 +8738,10 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29">
@@ -8760,58 +8762,62 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="D225" s="35"/>
-      <c r="E225" s="29"/>
-      <c r="F225" s="58"/>
+      <c r="E225" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F225" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G225" s="35"/>
       <c r="H225" s="29"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="I225" s="19">
+        <v>1</v>
+      </c>
+      <c r="J225" s="20">
+        <v>0</v>
+      </c>
       <c r="K225" s="35"/>
     </row>
-    <row r="226" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="10"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="4"/>
       <c r="D226" s="35"/>
-      <c r="E226" s="30"/>
-      <c r="F226" s="59"/>
+      <c r="E226" s="29"/>
+      <c r="F226" s="58"/>
       <c r="G226" s="35"/>
-      <c r="H226" s="30"/>
-      <c r="I226" s="21"/>
-      <c r="J226" s="22"/>
+      <c r="H226" s="29"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
       <c r="K226" s="35"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
-      <c r="B227" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>851</v>
-      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="10"/>
       <c r="D227" s="35"/>
-      <c r="E227" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F227" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E227" s="30"/>
+      <c r="F227" s="59"/>
       <c r="G227" s="35"/>
-      <c r="H227" s="29"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="22"/>
       <c r="K227" s="35"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29">
@@ -8829,10 +8835,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
@@ -8847,53 +8853,47 @@
       <c r="J229" s="20"/>
       <c r="K229" s="35"/>
     </row>
-    <row r="230" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12"/>
+      <c r="B230" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="D230" s="35"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="60"/>
+      <c r="E230" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F230" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G230" s="35"/>
-      <c r="H230" s="32"/>
-      <c r="I230" s="23"/>
-      <c r="J230" s="24"/>
+      <c r="H230" s="29"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="20"/>
       <c r="K230" s="35"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
-      <c r="B231" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12"/>
       <c r="D231" s="35"/>
-      <c r="E231" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F231" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E231" s="32"/>
+      <c r="F231" s="60"/>
       <c r="G231" s="35"/>
-      <c r="H231" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I231" s="19">
-        <v>1</v>
-      </c>
-      <c r="J231" s="20">
-        <v>1</v>
-      </c>
+      <c r="H231" s="32"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="24"/>
       <c r="K231" s="35"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="G232" s="35"/>
       <c r="H232" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I232" s="19">
         <v>1</v>
@@ -8917,10 +8917,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -8944,10 +8944,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -8971,10 +8971,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -8998,10 +8998,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -9025,10 +9025,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9052,10 +9052,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9079,10 +9079,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9106,10 +9106,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9133,10 +9133,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9160,10 +9160,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29">
@@ -9187,10 +9187,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29">
@@ -9214,10 +9214,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
@@ -9241,10 +9241,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29">
@@ -9268,10 +9268,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29">
@@ -9295,10 +9295,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29">
@@ -9322,10 +9322,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29">
@@ -9349,10 +9349,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29">
@@ -9376,10 +9376,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
@@ -9400,47 +9400,53 @@
       </c>
       <c r="K250" s="35"/>
     </row>
-    <row r="251" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
+      <c r="B251" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D251" s="35"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="60"/>
+      <c r="E251" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F251" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G251" s="35"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="24"/>
+      <c r="H251" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I251" s="19">
+        <v>1</v>
+      </c>
+      <c r="J251" s="20">
+        <v>1</v>
+      </c>
       <c r="K251" s="35"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>849</v>
-      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="35"/>
-      <c r="E252" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F252" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E252" s="32"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="35"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="24"/>
       <c r="K252" s="35"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
@@ -9457,54 +9463,58 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="D254" s="35"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="58"/>
+      <c r="E254" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F254" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G254" s="35"/>
       <c r="H254" s="29"/>
       <c r="I254" s="19"/>
       <c r="J254" s="20"/>
       <c r="K254" s="35"/>
     </row>
-    <row r="255" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="10"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="4"/>
       <c r="D255" s="35"/>
-      <c r="E255" s="30"/>
-      <c r="F255" s="59"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="58"/>
       <c r="G255" s="35"/>
-      <c r="H255" s="30"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="22"/>
+      <c r="H255" s="29"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
       <c r="K255" s="35"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
-      <c r="B256" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>828</v>
-      </c>
+      <c r="B256" s="9"/>
+      <c r="C256" s="10"/>
       <c r="D256" s="35"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="58"/>
+      <c r="E256" s="30"/>
+      <c r="F256" s="59"/>
       <c r="G256" s="35"/>
-      <c r="H256" s="29"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
+      <c r="H256" s="30"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="22"/>
       <c r="K256" s="35"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29"/>
@@ -9518,10 +9528,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29"/>
@@ -9535,10 +9545,10 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
       <c r="B259" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D259" s="35"/>
       <c r="E259" s="29"/>
@@ -9552,69 +9562,65 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D260" s="35"/>
-      <c r="E260" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F260" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E260" s="29"/>
+      <c r="F260" s="58"/>
       <c r="G260" s="35"/>
       <c r="H260" s="29"/>
       <c r="I260" s="19"/>
       <c r="J260" s="20"/>
       <c r="K260" s="35"/>
     </row>
-    <row r="261" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12"/>
+      <c r="B261" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>835</v>
+      </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="60"/>
+      <c r="E261" s="29">
+        <v>44400</v>
+      </c>
+      <c r="F261" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G261" s="35"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="23"/>
-      <c r="J261" s="24"/>
+      <c r="H261" s="29"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
       <c r="K261" s="35"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
-      <c r="B262" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12"/>
       <c r="D262" s="35"/>
-      <c r="E262" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F262" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E262" s="32"/>
+      <c r="F262" s="60"/>
       <c r="G262" s="35"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="24"/>
       <c r="K262" s="35"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29">
-        <v>44349</v>
+        <v>44243</v>
       </c>
       <c r="F263" s="58" t="s">
         <v>627</v>
@@ -9628,14 +9634,14 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="F264" s="58" t="s">
         <v>627</v>
@@ -9649,10 +9655,10 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
@@ -9670,14 +9676,14 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
       <c r="B266" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F266" s="58" t="s">
         <v>627</v>
@@ -9691,14 +9697,14 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
-        <v>44362</v>
+        <v>44243</v>
       </c>
       <c r="F267" s="58" t="s">
         <v>627</v>
@@ -9709,51 +9715,51 @@
       <c r="J267" s="20"/>
       <c r="K267" s="35"/>
     </row>
-    <row r="268" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12"/>
+      <c r="B268" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D268" s="35"/>
-      <c r="E268" s="32"/>
-      <c r="F268" s="60"/>
+      <c r="E268" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F268" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G268" s="35"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="23"/>
-      <c r="J268" s="24"/>
+      <c r="H268" s="29"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
       <c r="K268" s="35"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
-      <c r="B269" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="35"/>
-      <c r="E269" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F269" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E269" s="32"/>
+      <c r="F269" s="60"/>
       <c r="G269" s="35"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
+      <c r="H269" s="32"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="24"/>
       <c r="K269" s="35"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F270" s="58" t="s">
         <v>627</v>
@@ -9764,51 +9770,47 @@
       <c r="J270" s="20"/>
       <c r="K270" s="35"/>
     </row>
-    <row r="271" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12"/>
+      <c r="B271" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D271" s="35"/>
-      <c r="E271" s="32"/>
-      <c r="F271" s="60"/>
+      <c r="E271" s="29">
+        <v>44343</v>
+      </c>
+      <c r="F271" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G271" s="35"/>
-      <c r="H271" s="32"/>
-      <c r="I271" s="23"/>
-      <c r="J271" s="24"/>
+      <c r="H271" s="29"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="20"/>
       <c r="K271" s="35"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
-      <c r="B272" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12"/>
       <c r="D272" s="35"/>
-      <c r="E272" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F272" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E272" s="32"/>
+      <c r="F272" s="60"/>
       <c r="G272" s="35"/>
-      <c r="H272" s="29"/>
-      <c r="I272" s="19">
-        <v>1</v>
-      </c>
-      <c r="J272" s="20">
-        <v>0</v>
-      </c>
+      <c r="H272" s="32"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="24"/>
       <c r="K272" s="35"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
       <c r="B273" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D273" s="35"/>
       <c r="E273" s="29">
@@ -9830,10 +9832,10 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
@@ -9855,14 +9857,14 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>737</v>
+        <v>484</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>738</v>
+        <v>15</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
-        <v>44383</v>
+        <v>44148</v>
       </c>
       <c r="F275" s="58" t="s">
         <v>627</v>
@@ -9880,14 +9882,14 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>485</v>
+        <v>737</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>16</v>
+        <v>738</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F276" s="58" t="s">
         <v>627</v>
@@ -9905,10 +9907,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9930,10 +9932,10 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
@@ -9955,10 +9957,10 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
@@ -9980,10 +9982,10 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
@@ -10005,10 +10007,10 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
@@ -10030,10 +10032,10 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29">
@@ -10055,10 +10057,10 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
       <c r="B283" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D283" s="35"/>
       <c r="E283" s="29">
@@ -10080,10 +10082,10 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
@@ -10105,10 +10107,10 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
@@ -10130,10 +10132,10 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
@@ -10155,10 +10157,10 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
@@ -10180,10 +10182,10 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>28</v>
+        <v>496</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
@@ -10205,10 +10207,10 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
       <c r="B289" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>29</v>
+        <v>497</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D289" s="35"/>
       <c r="E289" s="29">
@@ -10230,10 +10232,10 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
       <c r="B290" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D290" s="35"/>
       <c r="E290" s="29">
@@ -10255,10 +10257,10 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
@@ -10277,51 +10279,55 @@
       </c>
       <c r="K291" s="35"/>
     </row>
-    <row r="292" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12"/>
+      <c r="B292" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D292" s="35"/>
-      <c r="E292" s="32"/>
-      <c r="F292" s="60"/>
+      <c r="E292" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F292" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G292" s="35"/>
-      <c r="H292" s="32"/>
-      <c r="I292" s="23"/>
-      <c r="J292" s="24"/>
+      <c r="H292" s="29"/>
+      <c r="I292" s="19">
+        <v>1</v>
+      </c>
+      <c r="J292" s="20">
+        <v>0</v>
+      </c>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="35"/>
-      <c r="E293" s="29">
-        <v>44343</v>
-      </c>
-      <c r="F293" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E293" s="32"/>
+      <c r="F293" s="60"/>
       <c r="G293" s="35"/>
-      <c r="H293" s="29"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="H293" s="32"/>
+      <c r="I293" s="23"/>
+      <c r="J293" s="24"/>
       <c r="K293" s="35"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
       <c r="B294" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D294" s="35"/>
       <c r="E294" s="29">
-        <v>43978</v>
+        <v>44343</v>
       </c>
       <c r="F294" s="58" t="s">
         <v>627</v>
@@ -10332,51 +10338,51 @@
       <c r="J294" s="20"/>
       <c r="K294" s="35"/>
     </row>
-    <row r="295" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="12"/>
+      <c r="B295" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D295" s="35"/>
-      <c r="E295" s="32"/>
-      <c r="F295" s="60"/>
+      <c r="E295" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F295" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G295" s="35"/>
-      <c r="H295" s="32"/>
-      <c r="I295" s="23"/>
-      <c r="J295" s="24"/>
+      <c r="H295" s="29"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="20"/>
       <c r="K295" s="35"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12"/>
       <c r="D296" s="35"/>
-      <c r="E296" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F296" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E296" s="32"/>
+      <c r="F296" s="60"/>
       <c r="G296" s="35"/>
-      <c r="H296" s="29"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="20"/>
+      <c r="H296" s="32"/>
+      <c r="I296" s="23"/>
+      <c r="J296" s="24"/>
       <c r="K296" s="35"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
       <c r="B297" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="29">
-        <v>44148</v>
+        <v>43978</v>
       </c>
       <c r="F297" s="58" t="s">
         <v>627</v>
@@ -10389,58 +10395,58 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
-      <c r="B298" s="7"/>
-      <c r="C298" s="4"/>
+      <c r="B298" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D298" s="35"/>
-      <c r="E298" s="29"/>
-      <c r="F298" s="58"/>
+      <c r="E298" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F298" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G298" s="35"/>
       <c r="H298" s="29"/>
       <c r="I298" s="19"/>
       <c r="J298" s="20"/>
       <c r="K298" s="35"/>
     </row>
-    <row r="299" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="10"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="4"/>
       <c r="D299" s="35"/>
-      <c r="E299" s="30"/>
-      <c r="F299" s="59"/>
+      <c r="E299" s="29"/>
+      <c r="F299" s="58"/>
       <c r="G299" s="35"/>
-      <c r="H299" s="30"/>
-      <c r="I299" s="21"/>
-      <c r="J299" s="22"/>
+      <c r="H299" s="29"/>
+      <c r="I299" s="19"/>
+      <c r="J299" s="20"/>
       <c r="K299" s="35"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
-      <c r="B300" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="B300" s="9"/>
+      <c r="C300" s="10"/>
       <c r="D300" s="35"/>
-      <c r="E300" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F300" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E300" s="30"/>
+      <c r="F300" s="59"/>
       <c r="G300" s="35"/>
-      <c r="H300" s="29"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="H300" s="30"/>
+      <c r="I300" s="21"/>
+      <c r="J300" s="22"/>
       <c r="K300" s="35"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
       <c r="B301" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="29">
@@ -10458,10 +10464,10 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
@@ -10476,47 +10482,47 @@
       <c r="J302" s="20"/>
       <c r="K302" s="35"/>
     </row>
-    <row r="303" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="12"/>
+      <c r="B303" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="D303" s="35"/>
-      <c r="E303" s="32"/>
-      <c r="F303" s="60"/>
+      <c r="E303" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F303" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G303" s="35"/>
-      <c r="H303" s="32"/>
-      <c r="I303" s="23"/>
-      <c r="J303" s="24"/>
+      <c r="H303" s="29"/>
+      <c r="I303" s="19"/>
+      <c r="J303" s="20"/>
       <c r="K303" s="35"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
-      <c r="B304" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="B304" s="11"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="35"/>
-      <c r="E304" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F304" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E304" s="32"/>
+      <c r="F304" s="60"/>
       <c r="G304" s="35"/>
-      <c r="H304" s="29"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
+      <c r="H304" s="32"/>
+      <c r="I304" s="23"/>
+      <c r="J304" s="24"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
@@ -10534,10 +10540,10 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
@@ -10555,10 +10561,10 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
@@ -10576,10 +10582,10 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
       <c r="B308" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D308" s="35"/>
       <c r="E308" s="29">
@@ -10597,10 +10603,10 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
@@ -10615,47 +10621,47 @@
       <c r="J309" s="20"/>
       <c r="K309" s="35"/>
     </row>
-    <row r="310" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="12"/>
+      <c r="B310" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D310" s="35"/>
-      <c r="E310" s="32"/>
-      <c r="F310" s="60"/>
+      <c r="E310" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F310" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G310" s="35"/>
-      <c r="H310" s="32"/>
-      <c r="I310" s="23"/>
-      <c r="J310" s="24"/>
+      <c r="H310" s="29"/>
+      <c r="I310" s="19"/>
+      <c r="J310" s="20"/>
       <c r="K310" s="35"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
-      <c r="B311" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>470</v>
-      </c>
+      <c r="B311" s="11"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="35"/>
-      <c r="E311" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F311" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E311" s="32"/>
+      <c r="F311" s="60"/>
       <c r="G311" s="35"/>
-      <c r="H311" s="29"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="H311" s="32"/>
+      <c r="I311" s="23"/>
+      <c r="J311" s="24"/>
       <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
@@ -10670,47 +10676,47 @@
       <c r="J312" s="20"/>
       <c r="K312" s="35"/>
     </row>
-    <row r="313" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
-      <c r="B313" s="11"/>
-      <c r="C313" s="12"/>
+      <c r="B313" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D313" s="35"/>
-      <c r="E313" s="32"/>
-      <c r="F313" s="60"/>
+      <c r="E313" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F313" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G313" s="35"/>
-      <c r="H313" s="32"/>
-      <c r="I313" s="23"/>
-      <c r="J313" s="24"/>
+      <c r="H313" s="29"/>
+      <c r="I313" s="19"/>
+      <c r="J313" s="20"/>
       <c r="K313" s="35"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
-      <c r="B314" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="B314" s="11"/>
+      <c r="C314" s="12"/>
       <c r="D314" s="35"/>
-      <c r="E314" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F314" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E314" s="32"/>
+      <c r="F314" s="60"/>
       <c r="G314" s="35"/>
-      <c r="H314" s="29"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
+      <c r="H314" s="32"/>
+      <c r="I314" s="23"/>
+      <c r="J314" s="24"/>
       <c r="K314" s="35"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
       <c r="B315" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D315" s="35"/>
       <c r="E315" s="29">
@@ -10725,51 +10731,47 @@
       <c r="J315" s="20"/>
       <c r="K315" s="35"/>
     </row>
-    <row r="316" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="12"/>
+      <c r="B316" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="D316" s="35"/>
-      <c r="E316" s="32"/>
-      <c r="F316" s="60"/>
+      <c r="E316" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F316" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G316" s="35"/>
-      <c r="H316" s="32"/>
-      <c r="I316" s="23"/>
-      <c r="J316" s="24"/>
+      <c r="H316" s="29"/>
+      <c r="I316" s="19"/>
+      <c r="J316" s="20"/>
       <c r="K316" s="35"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
-      <c r="B317" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B317" s="11"/>
+      <c r="C317" s="12"/>
       <c r="D317" s="35"/>
-      <c r="E317" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F317" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E317" s="32"/>
+      <c r="F317" s="60"/>
       <c r="G317" s="35"/>
-      <c r="H317" s="29"/>
-      <c r="I317" s="19">
-        <v>1</v>
-      </c>
-      <c r="J317" s="20">
-        <v>0</v>
-      </c>
+      <c r="H317" s="32"/>
+      <c r="I317" s="23"/>
+      <c r="J317" s="24"/>
       <c r="K317" s="35"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
@@ -10791,31 +10793,35 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>596</v>
+        <v>512</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F319" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="I319" s="19">
+        <v>1</v>
+      </c>
+      <c r="J319" s="20">
+        <v>0</v>
+      </c>
       <c r="K319" s="35"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
@@ -10833,39 +10839,35 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F321" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G321" s="35"/>
       <c r="H321" s="29"/>
-      <c r="I321" s="19">
-        <v>1</v>
-      </c>
-      <c r="J321" s="20">
-        <v>0</v>
-      </c>
+      <c r="I321" s="19"/>
+      <c r="J321" s="20"/>
       <c r="K321" s="35"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F322" s="58" t="s">
         <v>627</v>
@@ -10883,14 +10885,14 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F323" s="58" t="s">
         <v>627</v>
@@ -10908,14 +10910,14 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F324" s="58" t="s">
         <v>627</v>
@@ -10933,14 +10935,14 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
@@ -10958,10 +10960,10 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
@@ -10983,10 +10985,10 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
@@ -11008,10 +11010,10 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
@@ -11033,10 +11035,10 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
@@ -11058,14 +11060,14 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>733</v>
+        <v>520</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>735</v>
+        <v>611</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F330" s="58" t="s">
         <v>627</v>
@@ -11083,10 +11085,10 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
@@ -11108,10 +11110,10 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>863</v>
+        <v>736</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
@@ -11122,21 +11124,25 @@
       </c>
       <c r="G332" s="35"/>
       <c r="H332" s="29"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
+      <c r="I332" s="19">
+        <v>1</v>
+      </c>
+      <c r="J332" s="20">
+        <v>0</v>
+      </c>
       <c r="K332" s="35"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>862</v>
+        <v>739</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
-        <v>44406</v>
+        <v>44383</v>
       </c>
       <c r="F333" s="58" t="s">
         <v>627</v>
@@ -11150,14 +11156,14 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>740</v>
+        <v>862</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44383</v>
+        <v>44406</v>
       </c>
       <c r="F334" s="58" t="s">
         <v>627</v>
@@ -11171,10 +11177,10 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>742</v>
+        <v>865</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
@@ -11192,39 +11198,35 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>521</v>
+        <v>741</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>612</v>
+        <v>742</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F336" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="19">
-        <v>1</v>
-      </c>
-      <c r="J336" s="20">
-        <v>0</v>
-      </c>
+      <c r="I336" s="19"/>
+      <c r="J336" s="20"/>
       <c r="K336" s="35"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>725</v>
+        <v>521</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F337" s="58" t="s">
         <v>627</v>
@@ -11242,10 +11244,10 @@
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
@@ -11256,17 +11258,21 @@
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
+      <c r="I338" s="19">
+        <v>1</v>
+      </c>
+      <c r="J338" s="20">
+        <v>0</v>
+      </c>
       <c r="K338" s="35"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
       <c r="B339" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
@@ -11284,10 +11290,10 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
@@ -11305,35 +11311,31 @@
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>522</v>
+        <v>730</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>613</v>
+        <v>732</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F341" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="29"/>
-      <c r="I341" s="19">
-        <v>1</v>
-      </c>
-      <c r="J341" s="20">
-        <v>0</v>
-      </c>
+      <c r="I341" s="19"/>
+      <c r="J341" s="20"/>
       <c r="K341" s="35"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
@@ -11355,10 +11357,10 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
@@ -11380,10 +11382,10 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
@@ -11405,14 +11407,14 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>617</v>
+        <v>525</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F345" s="58" t="s">
         <v>627</v>
@@ -11430,10 +11432,10 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>618</v>
+        <v>526</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
@@ -11455,10 +11457,10 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
@@ -11480,14 +11482,14 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="F348" s="58" t="s">
         <v>627</v>
@@ -11502,47 +11504,51 @@
       </c>
       <c r="K348" s="35"/>
     </row>
-    <row r="349" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
-      <c r="B349" s="11"/>
-      <c r="C349" s="12"/>
+      <c r="B349" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="D349" s="35"/>
-      <c r="E349" s="32"/>
-      <c r="F349" s="60"/>
+      <c r="E349" s="29">
+        <v>44369</v>
+      </c>
+      <c r="F349" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G349" s="35"/>
-      <c r="H349" s="32"/>
-      <c r="I349" s="23"/>
-      <c r="J349" s="24"/>
+      <c r="H349" s="29"/>
+      <c r="I349" s="19">
+        <v>1</v>
+      </c>
+      <c r="J349" s="20">
+        <v>0</v>
+      </c>
       <c r="K349" s="35"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
-      <c r="B350" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>746</v>
-      </c>
+      <c r="B350" s="11"/>
+      <c r="C350" s="12"/>
       <c r="D350" s="35"/>
-      <c r="E350" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F350" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E350" s="32"/>
+      <c r="F350" s="60"/>
       <c r="G350" s="35"/>
-      <c r="H350" s="29"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="20"/>
+      <c r="H350" s="32"/>
+      <c r="I350" s="23"/>
+      <c r="J350" s="24"/>
       <c r="K350" s="35"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
@@ -11560,14 +11566,14 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>550</v>
+        <v>744</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>552</v>
+        <v>745</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F352" s="58" t="s">
         <v>627</v>
@@ -11581,10 +11587,10 @@
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
@@ -11599,47 +11605,47 @@
       <c r="J353" s="20"/>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12"/>
+      <c r="B354" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D354" s="35"/>
-      <c r="E354" s="32"/>
-      <c r="F354" s="60"/>
+      <c r="E354" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F354" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G354" s="35"/>
-      <c r="H354" s="32"/>
-      <c r="I354" s="23"/>
-      <c r="J354" s="24"/>
+      <c r="H354" s="29"/>
+      <c r="I354" s="19"/>
+      <c r="J354" s="20"/>
       <c r="K354" s="35"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
-      <c r="B355" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>554</v>
-      </c>
+      <c r="B355" s="11"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="35"/>
-      <c r="E355" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F355" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E355" s="32"/>
+      <c r="F355" s="60"/>
       <c r="G355" s="35"/>
-      <c r="H355" s="29"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
+      <c r="H355" s="32"/>
+      <c r="I355" s="23"/>
+      <c r="J355" s="24"/>
       <c r="K355" s="35"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
@@ -11657,10 +11663,10 @@
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11675,54 +11681,47 @@
       <c r="J357" s="20"/>
       <c r="K357" s="35"/>
     </row>
-    <row r="358" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
-      <c r="B358" s="11"/>
-      <c r="C358" s="12"/>
+      <c r="B358" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D358" s="35"/>
-      <c r="E358" s="32"/>
-      <c r="F358" s="60"/>
+      <c r="E358" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F358" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G358" s="35"/>
-      <c r="H358" s="32"/>
-      <c r="I358" s="23"/>
-      <c r="J358" s="24"/>
+      <c r="H358" s="29"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="20"/>
       <c r="K358" s="35"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
-      <c r="B359" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>770</v>
-      </c>
+      <c r="B359" s="11"/>
+      <c r="C359" s="12"/>
       <c r="D359" s="35"/>
-      <c r="E359" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F359" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E359" s="32"/>
+      <c r="F359" s="60"/>
       <c r="G359" s="35"/>
-      <c r="H359" s="29"/>
-      <c r="I359" s="19">
-        <v>1</v>
-      </c>
-      <c r="J359" s="20">
-        <v>0</v>
-      </c>
+      <c r="H359" s="32"/>
+      <c r="I359" s="23"/>
+      <c r="J359" s="24"/>
       <c r="K359" s="35"/>
-      <c r="L359" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
       <c r="B360" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
@@ -11747,10 +11746,10 @@
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
       <c r="B361" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
@@ -11775,10 +11774,10 @@
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
@@ -11803,14 +11802,14 @@
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="C363" s="14" t="s">
-        <v>769</v>
+        <v>549</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F363" s="58" t="s">
         <v>627</v>
@@ -11830,58 +11829,65 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
-      <c r="B364" s="7"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>769</v>
+      </c>
       <c r="D364" s="35"/>
-      <c r="E364" s="29"/>
-      <c r="F364" s="58"/>
+      <c r="E364" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F364" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G364" s="35"/>
       <c r="H364" s="29"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="20"/>
+      <c r="I364" s="19">
+        <v>1</v>
+      </c>
+      <c r="J364" s="20">
+        <v>0</v>
+      </c>
       <c r="K364" s="35"/>
-    </row>
-    <row r="365" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L364" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="10"/>
+      <c r="B365" s="7"/>
+      <c r="C365" s="4"/>
       <c r="D365" s="35"/>
-      <c r="E365" s="30"/>
-      <c r="F365" s="59"/>
+      <c r="E365" s="29"/>
+      <c r="F365" s="58"/>
       <c r="G365" s="35"/>
-      <c r="H365" s="30"/>
-      <c r="I365" s="21"/>
-      <c r="J365" s="22"/>
+      <c r="H365" s="29"/>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
       <c r="K365" s="35"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
-      <c r="B366" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="B366" s="9"/>
+      <c r="C366" s="10"/>
       <c r="D366" s="35"/>
-      <c r="E366" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F366" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E366" s="30"/>
+      <c r="F366" s="59"/>
       <c r="G366" s="35"/>
-      <c r="H366" s="29"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="20"/>
+      <c r="H366" s="30"/>
+      <c r="I366" s="21"/>
+      <c r="J366" s="22"/>
       <c r="K366" s="35"/>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
       <c r="B367" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
@@ -11899,10 +11905,10 @@
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
       <c r="B368" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
@@ -11917,93 +11923,89 @@
       <c r="J368" s="20"/>
       <c r="K368" s="35"/>
     </row>
-    <row r="369" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="12"/>
+      <c r="B369" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D369" s="35"/>
-      <c r="E369" s="32"/>
-      <c r="F369" s="60"/>
+      <c r="E369" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F369" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G369" s="35"/>
-      <c r="H369" s="32"/>
-      <c r="I369" s="23"/>
-      <c r="J369" s="24"/>
+      <c r="H369" s="29"/>
+      <c r="I369" s="19"/>
+      <c r="J369" s="20"/>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="11"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="35"/>
+      <c r="E370" s="32"/>
+      <c r="F370" s="60"/>
+      <c r="G370" s="35"/>
+      <c r="H370" s="32"/>
+      <c r="I370" s="23"/>
+      <c r="J370" s="24"/>
+      <c r="K370" s="35"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="35"/>
+      <c r="B371" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="C370" s="4" t="s">
+      <c r="C371" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D370" s="35"/>
-      <c r="E370" s="29">
+      <c r="D371" s="35"/>
+      <c r="E371" s="29">
         <v>44319</v>
       </c>
-      <c r="F370" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G370" s="35"/>
-      <c r="H370" s="29"/>
-      <c r="I370" s="19">
-        <v>1</v>
-      </c>
-      <c r="J370" s="20">
-        <v>0</v>
-      </c>
-      <c r="K370" s="35"/>
-    </row>
-    <row r="371" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="35"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="12"/>
-      <c r="D371" s="35"/>
-      <c r="E371" s="32"/>
-      <c r="F371" s="60"/>
+      <c r="F371" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G371" s="35"/>
-      <c r="H371" s="32"/>
-      <c r="I371" s="23"/>
-      <c r="J371" s="24"/>
+      <c r="H371" s="29"/>
+      <c r="I371" s="19">
+        <v>1</v>
+      </c>
+      <c r="J371" s="20">
+        <v>0</v>
+      </c>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B372" s="11"/>
+      <c r="C372" s="12"/>
       <c r="D372" s="35"/>
-      <c r="E372" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F372" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E372" s="32"/>
+      <c r="F372" s="60"/>
       <c r="G372" s="35"/>
-      <c r="H372" s="29"/>
-      <c r="I372" s="19">
-        <v>1</v>
-      </c>
-      <c r="J372" s="20">
-        <v>0</v>
-      </c>
+      <c r="H372" s="32"/>
+      <c r="I372" s="23"/>
+      <c r="J372" s="24"/>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44245</v>
+        <v>44151</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
@@ -12021,14 +12023,14 @@
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
       <c r="B374" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D374" s="35"/>
       <c r="E374" s="29">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="F374" s="58" t="s">
         <v>627</v>
@@ -12046,14 +12048,14 @@
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
       <c r="B375" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D375" s="35"/>
       <c r="E375" s="29">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="F375" s="58" t="s">
         <v>627</v>
@@ -12070,74 +12072,78 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C376" s="45" t="s">
-        <v>429</v>
+      <c r="B376" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="D376" s="35"/>
       <c r="E376" s="29">
+        <v>44230</v>
+      </c>
+      <c r="F376" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G376" s="35"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="19">
+        <v>1</v>
+      </c>
+      <c r="J376" s="20">
+        <v>0</v>
+      </c>
+      <c r="K376" s="35"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="35"/>
+      <c r="B377" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C377" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="D377" s="35"/>
+      <c r="E377" s="29">
         <v>44264</v>
       </c>
-      <c r="F376" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G376" s="46"/>
-      <c r="H376" s="47"/>
-      <c r="I376" s="48">
-        <v>1</v>
-      </c>
-      <c r="J376" s="49">
-        <v>0</v>
-      </c>
-      <c r="K376" s="35"/>
-    </row>
-    <row r="377" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="35"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="12"/>
-      <c r="D377" s="35"/>
-      <c r="E377" s="32"/>
-      <c r="F377" s="60"/>
-      <c r="G377" s="35"/>
-      <c r="H377" s="32"/>
-      <c r="I377" s="23"/>
-      <c r="J377" s="24"/>
+      <c r="F377" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G377" s="46"/>
+      <c r="H377" s="47"/>
+      <c r="I377" s="48">
+        <v>1</v>
+      </c>
+      <c r="J377" s="49">
+        <v>0</v>
+      </c>
       <c r="K377" s="35"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
-      <c r="B378" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B378" s="11"/>
+      <c r="C378" s="12"/>
       <c r="D378" s="35"/>
-      <c r="E378" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F378" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E378" s="32"/>
+      <c r="F378" s="60"/>
       <c r="G378" s="35"/>
-      <c r="H378" s="29"/>
-      <c r="I378" s="19"/>
-      <c r="J378" s="20"/>
+      <c r="H378" s="32"/>
+      <c r="I378" s="23"/>
+      <c r="J378" s="24"/>
       <c r="K378" s="35"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
       <c r="B379" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D379" s="35"/>
       <c r="E379" s="29">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F379" s="58" t="s">
         <v>627</v>
@@ -12151,14 +12157,14 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="F380" s="58" t="s">
         <v>627</v>
@@ -12172,14 +12178,14 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F381" s="58" t="s">
         <v>627</v>
@@ -12190,136 +12196,132 @@
       <c r="J381" s="20"/>
       <c r="K381" s="35"/>
     </row>
-    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="12"/>
+      <c r="B382" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D382" s="35"/>
-      <c r="E382" s="32"/>
-      <c r="F382" s="60"/>
+      <c r="E382" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F382" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G382" s="35"/>
-      <c r="H382" s="32"/>
-      <c r="I382" s="23"/>
-      <c r="J382" s="24"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="19"/>
+      <c r="J382" s="20"/>
       <c r="K382" s="35"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
-      <c r="B383" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B383" s="11"/>
+      <c r="C383" s="12"/>
       <c r="D383" s="35"/>
-      <c r="E383" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F383" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E383" s="32"/>
+      <c r="F383" s="60"/>
       <c r="G383" s="35"/>
-      <c r="H383" s="29"/>
-      <c r="I383" s="19">
-        <v>1</v>
-      </c>
-      <c r="J383" s="20">
-        <v>0</v>
-      </c>
+      <c r="H383" s="32"/>
+      <c r="I383" s="23"/>
+      <c r="J383" s="24"/>
       <c r="K383" s="35"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
-        <v>44258</v>
+        <v>44151</v>
       </c>
       <c r="F384" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="29"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
+      <c r="I384" s="19">
+        <v>1</v>
+      </c>
+      <c r="J384" s="20">
+        <v>0</v>
+      </c>
       <c r="K384" s="35"/>
     </row>
-    <row r="385" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="12"/>
+      <c r="B385" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D385" s="35"/>
-      <c r="E385" s="32"/>
-      <c r="F385" s="60"/>
+      <c r="E385" s="29">
+        <v>44258</v>
+      </c>
+      <c r="F385" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G385" s="35"/>
-      <c r="H385" s="32"/>
-      <c r="I385" s="23"/>
-      <c r="J385" s="24"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
       <c r="K385" s="35"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="7"/>
-      <c r="C386" s="4"/>
+      <c r="B386" s="11"/>
+      <c r="C386" s="12"/>
       <c r="D386" s="35"/>
-      <c r="E386" s="29"/>
-      <c r="F386" s="58"/>
+      <c r="E386" s="32"/>
+      <c r="F386" s="60"/>
       <c r="G386" s="35"/>
-      <c r="H386" s="29"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
+      <c r="H386" s="32"/>
+      <c r="I386" s="23"/>
+      <c r="J386" s="24"/>
       <c r="K386" s="35"/>
     </row>
-    <row r="387" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
-      <c r="B387" s="9"/>
-      <c r="C387" s="10"/>
+      <c r="B387" s="7"/>
+      <c r="C387" s="4"/>
       <c r="D387" s="35"/>
-      <c r="E387" s="30"/>
-      <c r="F387" s="59"/>
+      <c r="E387" s="29"/>
+      <c r="F387" s="58"/>
       <c r="G387" s="35"/>
-      <c r="H387" s="30"/>
-      <c r="I387" s="21"/>
-      <c r="J387" s="22"/>
+      <c r="H387" s="29"/>
+      <c r="I387" s="19"/>
+      <c r="J387" s="20"/>
       <c r="K387" s="35"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
-      <c r="B388" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="B388" s="9"/>
+      <c r="C388" s="10"/>
       <c r="D388" s="35"/>
-      <c r="E388" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F388" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E388" s="30"/>
+      <c r="F388" s="59"/>
       <c r="G388" s="35"/>
-      <c r="H388" s="29"/>
-      <c r="I388" s="19">
-        <v>1</v>
-      </c>
-      <c r="J388" s="20">
-        <v>0</v>
-      </c>
+      <c r="H388" s="30"/>
+      <c r="I388" s="21"/>
+      <c r="J388" s="22"/>
       <c r="K388" s="35"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
@@ -12341,10 +12343,10 @@
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
       <c r="B390" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D390" s="35"/>
       <c r="E390" s="29">
@@ -12366,10 +12368,10 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
       <c r="B391" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D391" s="35"/>
       <c r="E391" s="29">
@@ -12391,10 +12393,10 @@
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
       <c r="B392" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D392" s="35"/>
       <c r="E392" s="29">
@@ -12413,51 +12415,55 @@
       </c>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="11"/>
-      <c r="C393" s="12"/>
+      <c r="B393" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="D393" s="35"/>
-      <c r="E393" s="32"/>
-      <c r="F393" s="60"/>
+      <c r="E393" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F393" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G393" s="35"/>
-      <c r="H393" s="32"/>
-      <c r="I393" s="23"/>
-      <c r="J393" s="24"/>
+      <c r="H393" s="29"/>
+      <c r="I393" s="19">
+        <v>1</v>
+      </c>
+      <c r="J393" s="20">
+        <v>0</v>
+      </c>
       <c r="K393" s="35"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
-      <c r="B394" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>649</v>
-      </c>
+      <c r="B394" s="11"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="35"/>
-      <c r="E394" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F394" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E394" s="32"/>
+      <c r="F394" s="60"/>
       <c r="G394" s="35"/>
-      <c r="H394" s="29"/>
-      <c r="I394" s="19"/>
-      <c r="J394" s="20"/>
+      <c r="H394" s="32"/>
+      <c r="I394" s="23"/>
+      <c r="J394" s="24"/>
       <c r="K394" s="35"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>460</v>
+        <v>649</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F395" s="58" t="s">
         <v>627</v>
@@ -12471,14 +12477,14 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>650</v>
+        <v>542</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>651</v>
+        <v>460</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F396" s="58" t="s">
         <v>627</v>
@@ -12492,10 +12498,10 @@
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
       <c r="B397" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D397" s="35"/>
       <c r="E397" s="29">
@@ -12513,14 +12519,14 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
       <c r="B398" s="7" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>453</v>
+        <v>653</v>
       </c>
       <c r="D398" s="35"/>
       <c r="E398" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F398" s="58" t="s">
         <v>627</v>
@@ -12534,10 +12540,10 @@
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
@@ -12552,51 +12558,47 @@
       <c r="J399" s="20"/>
       <c r="K399" s="35"/>
     </row>
-    <row r="400" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12"/>
+      <c r="B400" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D400" s="35"/>
-      <c r="E400" s="32"/>
-      <c r="F400" s="60"/>
+      <c r="E400" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F400" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G400" s="35"/>
-      <c r="H400" s="32"/>
-      <c r="I400" s="23"/>
-      <c r="J400" s="24"/>
+      <c r="H400" s="29"/>
+      <c r="I400" s="19"/>
+      <c r="J400" s="20"/>
       <c r="K400" s="35"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
-      <c r="B401" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C401" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="B401" s="11"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="35"/>
-      <c r="E401" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F401" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E401" s="32"/>
+      <c r="F401" s="60"/>
       <c r="G401" s="35"/>
-      <c r="H401" s="29"/>
-      <c r="I401" s="19">
-        <v>1</v>
-      </c>
-      <c r="J401" s="20">
-        <v>0</v>
-      </c>
+      <c r="H401" s="32"/>
+      <c r="I401" s="23"/>
+      <c r="J401" s="24"/>
       <c r="K401" s="35"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
@@ -12607,17 +12609,21 @@
       </c>
       <c r="G402" s="35"/>
       <c r="H402" s="29"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="20"/>
+      <c r="I402" s="19">
+        <v>1</v>
+      </c>
+      <c r="J402" s="20">
+        <v>0</v>
+      </c>
       <c r="K402" s="35"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
@@ -12632,51 +12638,47 @@
       <c r="J403" s="20"/>
       <c r="K403" s="35"/>
     </row>
-    <row r="404" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
-      <c r="B404" s="11"/>
-      <c r="C404" s="12"/>
+      <c r="B404" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D404" s="35"/>
-      <c r="E404" s="32"/>
-      <c r="F404" s="60"/>
+      <c r="E404" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F404" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G404" s="35"/>
-      <c r="H404" s="32"/>
-      <c r="I404" s="23"/>
-      <c r="J404" s="24"/>
+      <c r="H404" s="29"/>
+      <c r="I404" s="19"/>
+      <c r="J404" s="20"/>
       <c r="K404" s="35"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
-      <c r="B405" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>662</v>
-      </c>
+      <c r="B405" s="11"/>
+      <c r="C405" s="12"/>
       <c r="D405" s="35"/>
-      <c r="E405" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F405" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E405" s="32"/>
+      <c r="F405" s="60"/>
       <c r="G405" s="35"/>
-      <c r="H405" s="29"/>
-      <c r="I405" s="19">
-        <v>1</v>
-      </c>
-      <c r="J405" s="20">
-        <v>0</v>
-      </c>
+      <c r="H405" s="32"/>
+      <c r="I405" s="23"/>
+      <c r="J405" s="24"/>
       <c r="K405" s="35"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
@@ -12695,51 +12697,51 @@
       </c>
       <c r="K406" s="35"/>
     </row>
-    <row r="407" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
-      <c r="B407" s="11"/>
-      <c r="C407" s="12"/>
+      <c r="B407" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="D407" s="35"/>
-      <c r="E407" s="32"/>
-      <c r="F407" s="60"/>
+      <c r="E407" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F407" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G407" s="35"/>
-      <c r="H407" s="32"/>
-      <c r="I407" s="23"/>
-      <c r="J407" s="24"/>
+      <c r="H407" s="29"/>
+      <c r="I407" s="19">
+        <v>1</v>
+      </c>
+      <c r="J407" s="20">
+        <v>0</v>
+      </c>
       <c r="K407" s="35"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
-      <c r="B408" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>666</v>
-      </c>
+      <c r="B408" s="11"/>
+      <c r="C408" s="12"/>
       <c r="D408" s="35"/>
-      <c r="E408" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F408" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E408" s="32"/>
+      <c r="F408" s="60"/>
       <c r="G408" s="35"/>
-      <c r="H408" s="29"/>
-      <c r="I408" s="19">
-        <v>1</v>
-      </c>
-      <c r="J408" s="20">
-        <v>0</v>
-      </c>
+      <c r="H408" s="32"/>
+      <c r="I408" s="23"/>
+      <c r="J408" s="24"/>
       <c r="K408" s="35"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
       <c r="B409" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D409" s="35"/>
       <c r="E409" s="29">
@@ -12758,89 +12760,89 @@
       </c>
       <c r="K409" s="35"/>
     </row>
-    <row r="410" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
-      <c r="B410" s="11"/>
-      <c r="C410" s="12"/>
+      <c r="B410" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>667</v>
+      </c>
       <c r="D410" s="35"/>
-      <c r="E410" s="32"/>
-      <c r="F410" s="60"/>
+      <c r="E410" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F410" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G410" s="35"/>
-      <c r="H410" s="32"/>
-      <c r="I410" s="23"/>
-      <c r="J410" s="24"/>
+      <c r="H410" s="29"/>
+      <c r="I410" s="19">
+        <v>1</v>
+      </c>
+      <c r="J410" s="20">
+        <v>0</v>
+      </c>
       <c r="K410" s="35"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="11"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="35"/>
+      <c r="E411" s="32"/>
+      <c r="F411" s="60"/>
+      <c r="G411" s="35"/>
+      <c r="H411" s="32"/>
+      <c r="I411" s="23"/>
+      <c r="J411" s="24"/>
+      <c r="K411" s="35"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="35"/>
+      <c r="B412" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C412" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D411" s="35"/>
-      <c r="E411" s="29">
+      <c r="D412" s="35"/>
+      <c r="E412" s="29">
         <v>44379</v>
       </c>
-      <c r="F411" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G411" s="35"/>
-      <c r="H411" s="29"/>
-      <c r="I411" s="19">
-        <v>1</v>
-      </c>
-      <c r="J411" s="20">
-        <v>0</v>
-      </c>
-      <c r="K411" s="35"/>
-    </row>
-    <row r="412" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="35"/>
-      <c r="B412" s="11"/>
-      <c r="C412" s="12"/>
-      <c r="D412" s="35"/>
-      <c r="E412" s="32"/>
-      <c r="F412" s="60"/>
+      <c r="F412" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G412" s="35"/>
-      <c r="H412" s="32"/>
-      <c r="I412" s="23"/>
-      <c r="J412" s="24"/>
+      <c r="H412" s="29"/>
+      <c r="I412" s="19">
+        <v>1</v>
+      </c>
+      <c r="J412" s="20">
+        <v>0</v>
+      </c>
       <c r="K412" s="35"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
-      <c r="B413" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>672</v>
-      </c>
+      <c r="B413" s="11"/>
+      <c r="C413" s="12"/>
       <c r="D413" s="35"/>
-      <c r="E413" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F413" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E413" s="32"/>
+      <c r="F413" s="60"/>
       <c r="G413" s="35"/>
-      <c r="H413" s="29"/>
-      <c r="I413" s="19">
-        <v>1</v>
-      </c>
-      <c r="J413" s="20">
-        <v>0</v>
-      </c>
+      <c r="H413" s="32"/>
+      <c r="I413" s="23"/>
+      <c r="J413" s="24"/>
       <c r="K413" s="35"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
@@ -12859,55 +12861,55 @@
       </c>
       <c r="K414" s="35"/>
     </row>
-    <row r="415" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
-      <c r="B415" s="11"/>
-      <c r="C415" s="12"/>
+      <c r="B415" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>673</v>
+      </c>
       <c r="D415" s="35"/>
-      <c r="E415" s="32"/>
-      <c r="F415" s="60"/>
+      <c r="E415" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F415" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G415" s="35"/>
-      <c r="H415" s="32"/>
-      <c r="I415" s="23"/>
-      <c r="J415" s="24"/>
+      <c r="H415" s="29"/>
+      <c r="I415" s="19">
+        <v>1</v>
+      </c>
+      <c r="J415" s="20">
+        <v>0</v>
+      </c>
       <c r="K415" s="35"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
-      <c r="B416" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B416" s="11"/>
+      <c r="C416" s="12"/>
       <c r="D416" s="35"/>
-      <c r="E416" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F416" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E416" s="32"/>
+      <c r="F416" s="60"/>
       <c r="G416" s="35"/>
-      <c r="H416" s="29"/>
-      <c r="I416" s="19">
-        <v>1</v>
-      </c>
-      <c r="J416" s="20">
-        <v>0</v>
-      </c>
+      <c r="H416" s="32"/>
+      <c r="I416" s="23"/>
+      <c r="J416" s="24"/>
       <c r="K416" s="35"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F417" s="58" t="s">
         <v>627</v>
@@ -12925,10 +12927,10 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
@@ -12950,10 +12952,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -12975,10 +12977,10 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
@@ -13000,14 +13002,14 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
       <c r="B421" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D421" s="35"/>
       <c r="E421" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F421" s="58" t="s">
         <v>627</v>
@@ -13025,14 +13027,14 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F422" s="58" t="s">
         <v>627</v>
@@ -13050,10 +13052,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13075,10 +13077,10 @@
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
       <c r="B424" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D424" s="35"/>
       <c r="E424" s="29">
@@ -13100,10 +13102,10 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
@@ -13125,10 +13127,10 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13150,10 +13152,10 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
@@ -13175,10 +13177,10 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13200,10 +13202,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13225,10 +13227,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13250,10 +13252,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13275,10 +13277,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13300,14 +13302,14 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>860</v>
+        <v>158</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>861</v>
+        <v>140</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F433" s="58" t="s">
         <v>627</v>
@@ -13325,14 +13327,14 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>159</v>
+        <v>860</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>141</v>
+        <v>861</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F434" s="58" t="s">
         <v>627</v>
@@ -13350,10 +13352,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13375,10 +13377,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13400,10 +13402,10 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>623</v>
+        <v>143</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
@@ -13425,10 +13427,10 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13450,10 +13452,10 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13475,10 +13477,10 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
       <c r="B440" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D440" s="35"/>
       <c r="E440" s="29">
@@ -13500,10 +13502,10 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
@@ -13525,10 +13527,10 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
@@ -13550,10 +13552,10 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
@@ -13575,10 +13577,10 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
@@ -13600,10 +13602,10 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
@@ -13625,10 +13627,10 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
@@ -13650,10 +13652,10 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
@@ -13675,10 +13677,10 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
@@ -13700,10 +13702,10 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
@@ -13725,10 +13727,10 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
@@ -13750,10 +13752,10 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
       <c r="B451" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D451" s="35"/>
       <c r="E451" s="29">
@@ -13772,51 +13774,51 @@
       </c>
       <c r="K451" s="35"/>
     </row>
-    <row r="452" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
-      <c r="B452" s="11"/>
-      <c r="C452" s="12"/>
+      <c r="B452" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="D452" s="35"/>
-      <c r="E452" s="32"/>
-      <c r="F452" s="60"/>
+      <c r="E452" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F452" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G452" s="35"/>
-      <c r="H452" s="32"/>
-      <c r="I452" s="23"/>
-      <c r="J452" s="24"/>
+      <c r="H452" s="29"/>
+      <c r="I452" s="19">
+        <v>1</v>
+      </c>
+      <c r="J452" s="20">
+        <v>0</v>
+      </c>
       <c r="K452" s="35"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
-      <c r="B453" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C453" s="4" t="s">
-        <v>688</v>
-      </c>
+      <c r="B453" s="11"/>
+      <c r="C453" s="12"/>
       <c r="D453" s="35"/>
-      <c r="E453" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F453" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E453" s="32"/>
+      <c r="F453" s="60"/>
       <c r="G453" s="35"/>
-      <c r="H453" s="29"/>
-      <c r="I453" s="19">
-        <v>1</v>
-      </c>
-      <c r="J453" s="20">
-        <v>0</v>
-      </c>
+      <c r="H453" s="32"/>
+      <c r="I453" s="23"/>
+      <c r="J453" s="24"/>
       <c r="K453" s="35"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
@@ -13838,14 +13840,14 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>760</v>
+        <v>197</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>761</v>
+        <v>689</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
@@ -13860,51 +13862,51 @@
       </c>
       <c r="K455" s="35"/>
     </row>
-    <row r="456" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
-      <c r="B456" s="11"/>
-      <c r="C456" s="12"/>
+      <c r="B456" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="D456" s="35"/>
-      <c r="E456" s="32"/>
-      <c r="F456" s="60"/>
+      <c r="E456" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F456" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G456" s="35"/>
-      <c r="H456" s="32"/>
-      <c r="I456" s="23"/>
-      <c r="J456" s="24"/>
+      <c r="H456" s="29"/>
+      <c r="I456" s="19">
+        <v>1</v>
+      </c>
+      <c r="J456" s="20">
+        <v>0</v>
+      </c>
       <c r="K456" s="35"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
-      <c r="B457" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>695</v>
-      </c>
+      <c r="B457" s="11"/>
+      <c r="C457" s="12"/>
       <c r="D457" s="35"/>
-      <c r="E457" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F457" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E457" s="32"/>
+      <c r="F457" s="60"/>
       <c r="G457" s="35"/>
-      <c r="H457" s="29"/>
-      <c r="I457" s="19">
-        <v>1</v>
-      </c>
-      <c r="J457" s="20">
-        <v>0</v>
-      </c>
+      <c r="H457" s="32"/>
+      <c r="I457" s="23"/>
+      <c r="J457" s="24"/>
       <c r="K457" s="35"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
@@ -13926,10 +13928,10 @@
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
@@ -13951,10 +13953,10 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
@@ -13976,10 +13978,10 @@
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
       <c r="B461" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D461" s="35"/>
       <c r="E461" s="29">
@@ -14000,62 +14002,66 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
-      <c r="B462" s="7"/>
-      <c r="C462" s="4"/>
+      <c r="B462" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="D462" s="35"/>
-      <c r="E462" s="29"/>
-      <c r="F462" s="58"/>
+      <c r="E462" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F462" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G462" s="35"/>
       <c r="H462" s="29"/>
-      <c r="I462" s="19"/>
-      <c r="J462" s="20"/>
+      <c r="I462" s="19">
+        <v>1</v>
+      </c>
+      <c r="J462" s="20">
+        <v>0</v>
+      </c>
       <c r="K462" s="35"/>
     </row>
-    <row r="463" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
-      <c r="B463" s="9"/>
-      <c r="C463" s="10"/>
+      <c r="B463" s="7"/>
+      <c r="C463" s="4"/>
       <c r="D463" s="35"/>
-      <c r="E463" s="30"/>
-      <c r="F463" s="59"/>
+      <c r="E463" s="29"/>
+      <c r="F463" s="58"/>
       <c r="G463" s="35"/>
-      <c r="H463" s="30"/>
-      <c r="I463" s="21"/>
-      <c r="J463" s="22"/>
+      <c r="H463" s="29"/>
+      <c r="I463" s="19"/>
+      <c r="J463" s="20"/>
       <c r="K463" s="35"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
-      <c r="B464" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B464" s="9"/>
+      <c r="C464" s="10"/>
       <c r="D464" s="35"/>
-      <c r="E464" s="29">
-        <v>44363</v>
-      </c>
-      <c r="F464" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E464" s="30"/>
+      <c r="F464" s="59"/>
       <c r="G464" s="35"/>
-      <c r="H464" s="29"/>
-      <c r="I464" s="19"/>
-      <c r="J464" s="20"/>
+      <c r="H464" s="30"/>
+      <c r="I464" s="21"/>
+      <c r="J464" s="22"/>
       <c r="K464" s="35"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
       <c r="B465" s="7" t="s">
-        <v>705</v>
+        <v>461</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>707</v>
+        <v>463</v>
       </c>
       <c r="D465" s="35"/>
       <c r="E465" s="29">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="F465" s="58" t="s">
         <v>627</v>
@@ -14069,10 +14075,10 @@
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
@@ -14090,14 +14096,14 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>451</v>
+        <v>708</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
@@ -14111,14 +14117,14 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
@@ -14129,51 +14135,51 @@
       <c r="J468" s="20"/>
       <c r="K468" s="35"/>
     </row>
-    <row r="469" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
-      <c r="B469" s="11"/>
-      <c r="C469" s="12"/>
+      <c r="B469" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D469" s="35"/>
-      <c r="E469" s="32"/>
-      <c r="F469" s="60"/>
+      <c r="E469" s="29">
+        <v>44363</v>
+      </c>
+      <c r="F469" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G469" s="35"/>
-      <c r="H469" s="32"/>
-      <c r="I469" s="23"/>
-      <c r="J469" s="24"/>
+      <c r="H469" s="29"/>
+      <c r="I469" s="19"/>
+      <c r="J469" s="20"/>
       <c r="K469" s="35"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
-      <c r="B470" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="B470" s="11"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="35"/>
-      <c r="E470" s="29">
-        <v>44250</v>
-      </c>
-      <c r="F470" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E470" s="32"/>
+      <c r="F470" s="60"/>
       <c r="G470" s="35"/>
-      <c r="H470" s="29"/>
-      <c r="I470" s="19"/>
-      <c r="J470" s="20"/>
+      <c r="H470" s="32"/>
+      <c r="I470" s="23"/>
+      <c r="J470" s="24"/>
       <c r="K470" s="35"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
       <c r="B471" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="29">
-        <v>44382</v>
+        <v>44250</v>
       </c>
       <c r="F471" s="58" t="s">
         <v>627</v>
@@ -14187,14 +14193,14 @@
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
       <c r="B472" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D472" s="35"/>
       <c r="E472" s="29">
-        <v>44250</v>
+        <v>44382</v>
       </c>
       <c r="F472" s="58" t="s">
         <v>627</v>
@@ -14205,72 +14211,72 @@
       <c r="J472" s="20"/>
       <c r="K472" s="35"/>
     </row>
-    <row r="473" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
-      <c r="B473" s="11"/>
-      <c r="C473" s="12"/>
+      <c r="B473" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D473" s="35"/>
-      <c r="E473" s="32"/>
-      <c r="F473" s="60"/>
+      <c r="E473" s="29">
+        <v>44250</v>
+      </c>
+      <c r="F473" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G473" s="35"/>
-      <c r="H473" s="32"/>
-      <c r="I473" s="23"/>
-      <c r="J473" s="24"/>
+      <c r="H473" s="29"/>
+      <c r="I473" s="19"/>
+      <c r="J473" s="20"/>
       <c r="K473" s="35"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
-      <c r="B474" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B474" s="11"/>
+      <c r="C474" s="12"/>
       <c r="D474" s="35"/>
-      <c r="E474" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F474" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E474" s="32"/>
+      <c r="F474" s="60"/>
       <c r="G474" s="35"/>
-      <c r="H474" s="29"/>
-      <c r="I474" s="19">
-        <v>1</v>
-      </c>
-      <c r="J474" s="20">
-        <v>0</v>
-      </c>
+      <c r="H474" s="32"/>
+      <c r="I474" s="23"/>
+      <c r="J474" s="24"/>
       <c r="K474" s="35"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>595</v>
+        <v>85</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
-        <v>44377</v>
+        <v>44148</v>
       </c>
       <c r="F475" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G475" s="35"/>
       <c r="H475" s="29"/>
-      <c r="I475" s="19"/>
-      <c r="J475" s="20"/>
+      <c r="I475" s="19">
+        <v>1</v>
+      </c>
+      <c r="J475" s="20">
+        <v>0</v>
+      </c>
       <c r="K475" s="35"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
       <c r="B476" s="7" t="s">
-        <v>294</v>
+        <v>594</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>296</v>
+        <v>595</v>
       </c>
       <c r="D476" s="35"/>
       <c r="E476" s="29">
@@ -14288,10 +14294,10 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
       <c r="B477" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D477" s="35"/>
       <c r="E477" s="29">
@@ -14309,60 +14315,60 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="35"/>
       <c r="B478" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D478" s="35"/>
       <c r="E478" s="29">
-        <v>44172</v>
+        <v>44377</v>
       </c>
       <c r="F478" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G478" s="35"/>
       <c r="H478" s="29"/>
-      <c r="I478" s="19">
-        <v>1</v>
-      </c>
-      <c r="J478" s="20">
-        <v>0</v>
-      </c>
+      <c r="I478" s="19"/>
+      <c r="J478" s="20"/>
       <c r="K478" s="35"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>624</v>
+        <v>288</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>625</v>
+        <v>289</v>
       </c>
       <c r="D479" s="35"/>
       <c r="E479" s="29">
-        <v>44378</v>
+        <v>44172</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G479" s="35"/>
       <c r="H479" s="29"/>
-      <c r="I479" s="19"/>
-      <c r="J479" s="20"/>
+      <c r="I479" s="19">
+        <v>1</v>
+      </c>
+      <c r="J479" s="20">
+        <v>0</v>
+      </c>
       <c r="K479" s="35"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>868</v>
+        <v>624</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>869</v>
+        <v>625</v>
       </c>
       <c r="D480" s="35"/>
       <c r="E480" s="29">
-        <v>44406</v>
+        <v>44378</v>
       </c>
       <c r="F480" s="58" t="s">
         <v>627</v>
@@ -14376,14 +14382,14 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>578</v>
+        <v>868</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>584</v>
+        <v>869</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="F481" s="58" t="s">
         <v>627</v>
@@ -14397,10 +14403,10 @@
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
@@ -14418,10 +14424,10 @@
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
@@ -14439,10 +14445,10 @@
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
@@ -14460,10 +14466,10 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
@@ -14481,10 +14487,10 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
@@ -14499,42 +14505,38 @@
       <c r="J486" s="20"/>
       <c r="K486" s="35"/>
     </row>
-    <row r="487" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="37"/>
-      <c r="B487" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C487" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="D487" s="37"/>
-      <c r="E487" s="31">
-        <v>44406</v>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="35"/>
+      <c r="B487" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D487" s="35"/>
+      <c r="E487" s="29">
+        <v>44376</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G487" s="37"/>
-      <c r="H487" s="31"/>
-      <c r="I487" s="19">
-        <v>1</v>
-      </c>
-      <c r="J487" s="20">
-        <v>0</v>
-      </c>
-      <c r="K487" s="37"/>
+      <c r="G487" s="35"/>
+      <c r="H487" s="29"/>
+      <c r="I487" s="19"/>
+      <c r="J487" s="20"/>
+      <c r="K487" s="35"/>
     </row>
     <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="37"/>
       <c r="B488" s="13" t="s">
-        <v>338</v>
+        <v>866</v>
       </c>
       <c r="C488" s="14" t="s">
-        <v>342</v>
+        <v>867</v>
       </c>
       <c r="D488" s="37"/>
       <c r="E488" s="31">
-        <v>44176</v>
+        <v>44406</v>
       </c>
       <c r="F488" s="58" t="s">
         <v>627</v>
@@ -14552,10 +14554,10 @@
     <row r="489" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="37"/>
       <c r="B489" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D489" s="37"/>
       <c r="E489" s="31">
@@ -14577,10 +14579,10 @@
     <row r="490" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="37"/>
       <c r="B490" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D490" s="37"/>
       <c r="E490" s="31">
@@ -14602,10 +14604,10 @@
     <row r="491" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="37"/>
       <c r="B491" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C491" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D491" s="37"/>
       <c r="E491" s="31">
@@ -14626,32 +14628,36 @@
     </row>
     <row r="492" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="37"/>
-      <c r="B492" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>403</v>
+      <c r="B492" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C492" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D492" s="37"/>
       <c r="E492" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F492" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G492" s="37"/>
       <c r="H492" s="31"/>
-      <c r="I492" s="19"/>
-      <c r="J492" s="20"/>
+      <c r="I492" s="19">
+        <v>1</v>
+      </c>
+      <c r="J492" s="20">
+        <v>0</v>
+      </c>
       <c r="K492" s="37"/>
     </row>
     <row r="493" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="37"/>
       <c r="B493" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D493" s="37"/>
       <c r="E493" s="31">
@@ -14669,10 +14675,10 @@
     <row r="494" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="37"/>
       <c r="B494" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D494" s="37"/>
       <c r="E494" s="31">
@@ -14687,38 +14693,34 @@
       <c r="J494" s="20"/>
       <c r="K494" s="37"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="35"/>
+    <row r="495" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="37"/>
       <c r="B495" s="7" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D495" s="35"/>
-      <c r="E495" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D495" s="37"/>
+      <c r="E495" s="31">
+        <v>44245</v>
       </c>
       <c r="F495" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G495" s="35"/>
-      <c r="H495" s="29"/>
-      <c r="I495" s="19">
-        <v>1</v>
-      </c>
-      <c r="J495" s="20">
-        <v>0</v>
-      </c>
-      <c r="K495" s="35"/>
+      <c r="G495" s="37"/>
+      <c r="H495" s="31"/>
+      <c r="I495" s="19"/>
+      <c r="J495" s="20"/>
+      <c r="K495" s="37"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
       <c r="B496" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D496" s="35"/>
       <c r="E496" s="29">
@@ -14740,10 +14742,10 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
       <c r="B497" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D497" s="35"/>
       <c r="E497" s="29">
@@ -14765,10 +14767,10 @@
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D498" s="35"/>
       <c r="E498" s="29">
@@ -14790,10 +14792,10 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
@@ -14815,10 +14817,10 @@
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
       <c r="B500" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D500" s="35"/>
       <c r="E500" s="29">
@@ -14840,14 +14842,14 @@
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
       <c r="B501" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D501" s="35"/>
       <c r="E501" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F501" s="58" t="s">
         <v>627</v>
@@ -14865,10 +14867,10 @@
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
       <c r="B502" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D502" s="35"/>
       <c r="E502" s="29">
@@ -14890,10 +14892,10 @@
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="35"/>
       <c r="B503" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D503" s="35"/>
       <c r="E503" s="29">
@@ -14912,47 +14914,51 @@
       </c>
       <c r="K503" s="35"/>
     </row>
-    <row r="504" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
-      <c r="B504" s="11"/>
-      <c r="C504" s="12"/>
+      <c r="B504" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D504" s="35"/>
-      <c r="E504" s="32"/>
-      <c r="F504" s="60"/>
+      <c r="E504" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F504" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G504" s="35"/>
-      <c r="H504" s="32"/>
-      <c r="I504" s="23"/>
-      <c r="J504" s="24"/>
+      <c r="H504" s="29"/>
+      <c r="I504" s="19">
+        <v>1</v>
+      </c>
+      <c r="J504" s="20">
+        <v>0</v>
+      </c>
       <c r="K504" s="35"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
-      <c r="B505" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="B505" s="11"/>
+      <c r="C505" s="12"/>
       <c r="D505" s="35"/>
-      <c r="E505" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F505" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E505" s="32"/>
+      <c r="F505" s="60"/>
       <c r="G505" s="35"/>
-      <c r="H505" s="29"/>
-      <c r="I505" s="19"/>
-      <c r="J505" s="20"/>
+      <c r="H505" s="32"/>
+      <c r="I505" s="23"/>
+      <c r="J505" s="24"/>
       <c r="K505" s="35"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
@@ -14970,10 +14976,10 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
       <c r="B507" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D507" s="35"/>
       <c r="E507" s="29">
@@ -14991,10 +14997,10 @@
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
       <c r="B508" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D508" s="35"/>
       <c r="E508" s="29">
@@ -15009,47 +15015,47 @@
       <c r="J508" s="20"/>
       <c r="K508" s="35"/>
     </row>
-    <row r="509" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
-      <c r="B509" s="11"/>
-      <c r="C509" s="12"/>
+      <c r="B509" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="D509" s="35"/>
-      <c r="E509" s="32"/>
-      <c r="F509" s="60"/>
+      <c r="E509" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F509" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G509" s="35"/>
-      <c r="H509" s="32"/>
-      <c r="I509" s="23"/>
-      <c r="J509" s="24"/>
+      <c r="H509" s="29"/>
+      <c r="I509" s="19"/>
+      <c r="J509" s="20"/>
       <c r="K509" s="35"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
-      <c r="B510" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>754</v>
-      </c>
+      <c r="B510" s="11"/>
+      <c r="C510" s="12"/>
       <c r="D510" s="35"/>
-      <c r="E510" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F510" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E510" s="32"/>
+      <c r="F510" s="60"/>
       <c r="G510" s="35"/>
-      <c r="H510" s="29"/>
-      <c r="I510" s="19"/>
-      <c r="J510" s="20"/>
+      <c r="H510" s="32"/>
+      <c r="I510" s="23"/>
+      <c r="J510" s="24"/>
       <c r="K510" s="35"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
       <c r="B511" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D511" s="35"/>
       <c r="E511" s="29">
@@ -15067,10 +15073,10 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="35"/>
       <c r="B512" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D512" s="35"/>
       <c r="E512" s="29">
@@ -15085,61 +15091,82 @@
       <c r="J512" s="20"/>
       <c r="K512" s="35"/>
     </row>
-    <row r="513" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="35"/>
-      <c r="B513" s="8"/>
-      <c r="C513" s="6"/>
+      <c r="B513" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="D513" s="35"/>
-      <c r="E513" s="33"/>
-      <c r="F513" s="61"/>
+      <c r="E513" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F513" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G513" s="35"/>
-      <c r="H513" s="33"/>
-      <c r="I513" s="25"/>
-      <c r="J513" s="26"/>
+      <c r="H513" s="29"/>
+      <c r="I513" s="19"/>
+      <c r="J513" s="20"/>
       <c r="K513" s="35"/>
     </row>
-    <row r="514" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="35"/>
-      <c r="B514" s="38"/>
-      <c r="C514" s="39"/>
+      <c r="B514" s="8"/>
+      <c r="C514" s="6"/>
       <c r="D514" s="35"/>
-      <c r="E514" s="40"/>
-      <c r="F514" s="55"/>
+      <c r="E514" s="33"/>
+      <c r="F514" s="61"/>
       <c r="G514" s="35"/>
-      <c r="H514" s="40"/>
-      <c r="I514" s="41"/>
-      <c r="J514" s="41"/>
+      <c r="H514" s="33"/>
+      <c r="I514" s="25"/>
+      <c r="J514" s="26"/>
       <c r="K514" s="35"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="35"/>
-      <c r="B516" s="7" t="s">
+    <row r="515" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="35"/>
+      <c r="B515" s="38"/>
+      <c r="C515" s="39"/>
+      <c r="D515" s="35"/>
+      <c r="E515" s="40"/>
+      <c r="F515" s="55"/>
+      <c r="G515" s="35"/>
+      <c r="H515" s="40"/>
+      <c r="I515" s="41"/>
+      <c r="J515" s="41"/>
+      <c r="K515" s="35"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="35"/>
+      <c r="B517" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C516" s="4" t="s">
+      <c r="C517" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D516" s="35"/>
-      <c r="E516" s="29"/>
-      <c r="F516" s="58"/>
-      <c r="G516" s="35"/>
-      <c r="H516" s="29"/>
-      <c r="I516" s="19"/>
-      <c r="J516" s="20"/>
-      <c r="K516" s="35"/>
-    </row>
-    <row r="517" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="35"/>
-      <c r="B517" s="50"/>
-      <c r="C517" s="51"/>
       <c r="D517" s="35"/>
-      <c r="E517" s="52"/>
-      <c r="F517" s="62"/>
+      <c r="E517" s="29"/>
+      <c r="F517" s="58"/>
       <c r="G517" s="35"/>
-      <c r="H517" s="52"/>
-      <c r="I517" s="53"/>
-      <c r="J517" s="54"/>
+      <c r="H517" s="29"/>
+      <c r="I517" s="19"/>
+      <c r="J517" s="20"/>
       <c r="K517" s="35"/>
+    </row>
+    <row r="518" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="35"/>
+      <c r="B518" s="50"/>
+      <c r="C518" s="51"/>
+      <c r="D518" s="35"/>
+      <c r="E518" s="52"/>
+      <c r="F518" s="62"/>
+      <c r="G518" s="35"/>
+      <c r="H518" s="52"/>
+      <c r="I518" s="53"/>
+      <c r="J518" s="54"/>
+      <c r="K518" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15151,7 +15178,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F126:F130 F132:F136 F138:F144 F146:F148 F150:F151 F156 F158:F176 F216:F218 F220:F224 F231:F250 F262:F267 F269:F270 F293:F294 F296:F297 F304:F309 F311:F312 F314:F315 F355:F363 F366:F368 F370 F372:F376 F378:F381 F383:F384 F394:F399 F401:F403 F405:F406 F408:F409 F153:F154 F411 F413:F414 F453:F455 F457:F461 F388:F392 F464:F468 F470:F472 F116:F119 F505:F508 F272:F291 F350:F353 F300:F302 F121:F123 F510:F512 F58 F37:F56 F35 F19:F22 F260 F17 F77:F83 F252:F253 F227:F229 F85:F114 F178:F214 F416:F451 F317:F348 F480:F503 F474:F479" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F127:F131 F133:F137 F139:F145 F147:F149 F151:F152 F157 F159:F177 F217:F219 F221:F225 F232:F251 F263:F268 F270:F271 F294:F295 F297:F298 F305:F310 F312:F313 F315:F316 F356:F364 F367:F369 F371 F373:F377 F379:F382 F384:F385 F395:F400 F402:F404 F406:F407 F409:F410 F154:F155 F412 F414:F415 F454:F456 F458:F462 F389:F393 F465:F469 F471:F473 F117:F120 F506:F509 F273:F292 F351:F354 F301:F303 F122:F124 F511:F513 F58 F37:F56 F35 F19:F22 F261 F17 F77:F84 F253:F254 F228:F230 F86:F115 F179:F215 F417:F452 F318:F349 F481:F504 F475:F480" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="888">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -2964,6 +2964,54 @@
   </si>
   <si>
     <t>Menyimpan Data Baru File Upload Pointer History</t>
+  </si>
+  <si>
+    <t>transaction.delete.dataAcquisition.setLog_FileUpload_Object</t>
+  </si>
+  <si>
+    <t>transaction.delete.dataAcquisition.setLog_FileUpload_ObjectDetail</t>
+  </si>
+  <si>
+    <t>transaction.delete.dataAcquisition.setLog_FileUpload_Pointer</t>
+  </si>
+  <si>
+    <t>transaction.delete.dataAcquisition.setLog_FileUpload_PointerHistory</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log File Upload Object</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log File Upload Object Detail</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log Upload Pointer</t>
+  </si>
+  <si>
+    <t>Menghapus Data Log Upload Pointer History</t>
+  </si>
+  <si>
+    <t>transaction.undelete.dataAcquisition.setLog_FileUpload_Object</t>
+  </si>
+  <si>
+    <t>transaction.undelete.dataAcquisition.setLog_FileUpload_ObjectDetail</t>
+  </si>
+  <si>
+    <t>transaction.undelete.dataAcquisition.setLog_FileUpload_Pointer</t>
+  </si>
+  <si>
+    <t>transaction.undelete.dataAcquisition.setLog_FileUpload_PointerHistory</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Log File Upload Object</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Log File Upload Object Detail</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Log Upload Pointer</t>
+  </si>
+  <si>
+    <t>Membatalkan Penghapusan Data Log Upload Pointer History</t>
   </si>
 </sst>
 </file>
@@ -3863,13 +3911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L518"/>
+  <dimension ref="A1:L526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="F415" sqref="F412:F415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7032,131 +7080,139 @@
       </c>
       <c r="K152" s="35"/>
     </row>
-    <row r="153" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
+      <c r="B153" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>876</v>
+      </c>
       <c r="D153" s="35"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="60"/>
+      <c r="E153" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F153" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="24"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
       <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>203</v>
+        <v>873</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>205</v>
+        <v>877</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
-        <v>44154</v>
+        <v>44406</v>
       </c>
       <c r="F154" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G154" s="35"/>
       <c r="H154" s="29"/>
-      <c r="I154" s="19">
-        <v>1</v>
-      </c>
-      <c r="J154" s="20">
-        <v>0</v>
-      </c>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
       <c r="K154" s="35"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>204</v>
+        <v>874</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>206</v>
+        <v>878</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
-        <v>44154</v>
+        <v>44406</v>
       </c>
       <c r="F155" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G155" s="35"/>
       <c r="H155" s="29"/>
-      <c r="I155" s="19">
-        <v>1</v>
-      </c>
-      <c r="J155" s="20">
-        <v>0</v>
-      </c>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
       <c r="K155" s="35"/>
     </row>
-    <row r="156" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
+      <c r="B156" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>879</v>
+      </c>
       <c r="D156" s="35"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="60"/>
+      <c r="E156" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F156" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G156" s="35"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="24"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
       <c r="K156" s="35"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="35"/>
-      <c r="E157" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F157" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E157" s="32"/>
+      <c r="F157" s="60"/>
       <c r="G157" s="35"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="19">
-        <v>1</v>
-      </c>
-      <c r="J157" s="20">
-        <v>0</v>
-      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="24"/>
       <c r="K157" s="35"/>
     </row>
-    <row r="158" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
+      <c r="B158" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="D158" s="35"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="60"/>
+      <c r="E158" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F158" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G158" s="35"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="24"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="19">
+        <v>1</v>
+      </c>
+      <c r="J158" s="20">
+        <v>0</v>
+      </c>
       <c r="K158" s="35"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
-        <v>44158</v>
+        <v>44154</v>
       </c>
       <c r="F159" s="58" t="s">
         <v>627</v>
@@ -7171,38 +7227,26 @@
       </c>
       <c r="K159" s="35"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
-      <c r="B160" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="35"/>
-      <c r="E160" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F160" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E160" s="32"/>
+      <c r="F160" s="60"/>
       <c r="G160" s="35"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="19">
-        <v>1</v>
-      </c>
-      <c r="J160" s="20">
-        <v>0</v>
-      </c>
+      <c r="H160" s="32"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="24"/>
       <c r="K160" s="35"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
       <c r="B161" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D161" s="35"/>
       <c r="E161" s="29">
@@ -7221,38 +7265,26 @@
       </c>
       <c r="K161" s="35"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
-      <c r="B162" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="35"/>
-      <c r="E162" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F162" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E162" s="32"/>
+      <c r="F162" s="60"/>
       <c r="G162" s="35"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="19">
-        <v>1</v>
-      </c>
-      <c r="J162" s="20">
-        <v>0</v>
-      </c>
+      <c r="H162" s="32"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="24"/>
       <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7274,10 +7306,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
       <c r="B164" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D164" s="35"/>
       <c r="E164" s="29">
@@ -7299,10 +7331,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
       <c r="B165" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D165" s="35"/>
       <c r="E165" s="29">
@@ -7324,10 +7356,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="35"/>
       <c r="B166" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D166" s="35"/>
       <c r="E166" s="29">
@@ -7349,10 +7381,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
       <c r="B167" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D167" s="35"/>
       <c r="E167" s="29">
@@ -7374,10 +7406,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7399,10 +7431,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7424,10 +7456,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7449,10 +7481,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29">
@@ -7474,10 +7506,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
@@ -7499,10 +7531,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
@@ -7524,10 +7556,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
@@ -7549,10 +7581,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29">
@@ -7574,10 +7606,10 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29">
@@ -7599,10 +7631,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29">
@@ -7621,30 +7653,42 @@
       </c>
       <c r="K177" s="35"/>
     </row>
-    <row r="178" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
+      <c r="B178" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D178" s="35"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="60"/>
+      <c r="E178" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F178" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G178" s="35"/>
-      <c r="H178" s="32"/>
-      <c r="I178" s="23"/>
-      <c r="J178" s="24"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="19">
+        <v>1</v>
+      </c>
+      <c r="J178" s="20">
+        <v>0</v>
+      </c>
       <c r="K178" s="35"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
-        <v>44148</v>
+        <v>44158</v>
       </c>
       <c r="F179" s="58" t="s">
         <v>627</v>
@@ -7662,14 +7706,14 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
-        <v>44148</v>
+        <v>44158</v>
       </c>
       <c r="F180" s="58" t="s">
         <v>627</v>
@@ -7687,14 +7731,14 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
-        <v>44165</v>
+        <v>44158</v>
       </c>
       <c r="F181" s="58" t="s">
         <v>627</v>
@@ -7709,38 +7753,26 @@
       </c>
       <c r="K181" s="35"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
-      <c r="B182" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="35"/>
-      <c r="E182" s="29">
-        <v>44165</v>
-      </c>
-      <c r="F182" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E182" s="32"/>
+      <c r="F182" s="60"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="29"/>
-      <c r="I182" s="19">
-        <v>1</v>
-      </c>
-      <c r="J182" s="20">
-        <v>0</v>
-      </c>
+      <c r="H182" s="32"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="24"/>
       <c r="K182" s="35"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
@@ -7762,10 +7794,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
@@ -7787,14 +7819,14 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="F185" s="58" t="s">
         <v>627</v>
@@ -7812,14 +7844,14 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
       <c r="B186" s="7" t="s">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="D186" s="35"/>
       <c r="E186" s="29">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="F186" s="58" t="s">
         <v>627</v>
@@ -7837,10 +7869,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
       <c r="B187" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D187" s="35"/>
       <c r="E187" s="29">
@@ -7862,14 +7894,14 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F188" s="58" t="s">
         <v>627</v>
@@ -7887,14 +7919,14 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F189" s="58" t="s">
         <v>627</v>
@@ -7912,14 +7944,14 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F190" s="58" t="s">
         <v>627</v>
@@ -7937,10 +7969,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
@@ -7962,14 +7994,14 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F192" s="58" t="s">
         <v>627</v>
@@ -7987,10 +8019,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
@@ -8012,10 +8044,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
@@ -8037,14 +8069,14 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F195" s="58" t="s">
         <v>627</v>
@@ -8062,14 +8094,14 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F196" s="58" t="s">
         <v>627</v>
@@ -8087,14 +8119,14 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>858</v>
+        <v>89</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>859</v>
+        <v>353</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
-        <v>44406</v>
+        <v>44148</v>
       </c>
       <c r="F197" s="58" t="s">
         <v>627</v>
@@ -8112,14 +8144,14 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F198" s="58" t="s">
         <v>627</v>
@@ -8137,10 +8169,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
@@ -8162,10 +8194,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
@@ -8187,14 +8219,14 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>124</v>
+        <v>858</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>178</v>
+        <v>859</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
-        <v>44152</v>
+        <v>44406</v>
       </c>
       <c r="F201" s="58" t="s">
         <v>627</v>
@@ -8212,10 +8244,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
@@ -8237,10 +8269,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
@@ -8262,10 +8294,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
@@ -8287,10 +8319,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
@@ -8312,14 +8344,14 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F206" s="58" t="s">
         <v>627</v>
@@ -8337,14 +8369,14 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F207" s="58" t="s">
         <v>627</v>
@@ -8362,14 +8394,14 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F208" s="58" t="s">
         <v>627</v>
@@ -8387,14 +8419,14 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F209" s="58" t="s">
         <v>627</v>
@@ -8412,10 +8444,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8437,10 +8469,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
@@ -8462,10 +8494,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29">
@@ -8487,10 +8519,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29">
@@ -8512,10 +8544,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
@@ -8537,10 +8569,10 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29">
@@ -8559,26 +8591,38 @@
       </c>
       <c r="K215" s="35"/>
     </row>
-    <row r="216" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
+      <c r="B216" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D216" s="35"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="60"/>
+      <c r="E216" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F216" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G216" s="35"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="24"/>
+      <c r="H216" s="29"/>
+      <c r="I216" s="19">
+        <v>1</v>
+      </c>
+      <c r="J216" s="20">
+        <v>0</v>
+      </c>
       <c r="K216" s="35"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29">
@@ -8600,10 +8644,10 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29">
@@ -8625,14 +8669,14 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>762</v>
+        <v>110</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>763</v>
+        <v>193</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F219" s="58" t="s">
         <v>627</v>
@@ -8663,14 +8707,14 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
-        <v>44160</v>
+        <v>44153</v>
       </c>
       <c r="F221" s="58" t="s">
         <v>627</v>
@@ -8688,14 +8732,14 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29">
-        <v>44160</v>
+        <v>44153</v>
       </c>
       <c r="F222" s="58" t="s">
         <v>627</v>
@@ -8713,14 +8757,14 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>260</v>
+        <v>762</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>266</v>
+        <v>763</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="F223" s="58" t="s">
         <v>627</v>
@@ -8735,38 +8779,26 @@
       </c>
       <c r="K223" s="35"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
-      <c r="B224" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="B224" s="11"/>
+      <c r="C224" s="12"/>
       <c r="D224" s="35"/>
-      <c r="E224" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F224" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E224" s="32"/>
+      <c r="F224" s="60"/>
       <c r="G224" s="35"/>
-      <c r="H224" s="29"/>
-      <c r="I224" s="19">
-        <v>1</v>
-      </c>
-      <c r="J224" s="20">
-        <v>0</v>
-      </c>
+      <c r="H224" s="32"/>
+      <c r="I224" s="23"/>
+      <c r="J224" s="24"/>
       <c r="K224" s="35"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29">
@@ -8787,221 +8819,213 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="D226" s="35"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="58"/>
+      <c r="E226" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F226" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G226" s="35"/>
       <c r="H226" s="29"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="I226" s="19">
+        <v>1</v>
+      </c>
+      <c r="J226" s="20">
+        <v>0</v>
+      </c>
       <c r="K226" s="35"/>
     </row>
-    <row r="227" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="10"/>
+      <c r="B227" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="D227" s="35"/>
-      <c r="E227" s="30"/>
-      <c r="F227" s="59"/>
+      <c r="E227" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F227" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G227" s="35"/>
-      <c r="H227" s="30"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="22"/>
+      <c r="H227" s="29"/>
+      <c r="I227" s="19">
+        <v>1</v>
+      </c>
+      <c r="J227" s="20">
+        <v>0</v>
+      </c>
       <c r="K227" s="35"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
       <c r="B228" s="7" t="s">
-        <v>850</v>
+        <v>261</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>851</v>
+        <v>262</v>
       </c>
       <c r="D228" s="35"/>
       <c r="E228" s="29">
-        <v>44405</v>
+        <v>44160</v>
       </c>
       <c r="F228" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G228" s="35"/>
       <c r="H228" s="29"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="I228" s="19">
+        <v>1</v>
+      </c>
+      <c r="J228" s="20">
+        <v>0</v>
+      </c>
       <c r="K228" s="35"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>852</v>
+        <v>263</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>854</v>
+        <v>264</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
-        <v>44405</v>
+        <v>44160</v>
       </c>
       <c r="F229" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G229" s="35"/>
       <c r="H229" s="29"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="I229" s="19">
+        <v>1</v>
+      </c>
+      <c r="J229" s="20">
+        <v>0</v>
+      </c>
       <c r="K229" s="35"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
-      <c r="B230" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>855</v>
-      </c>
+      <c r="B230" s="7"/>
+      <c r="C230" s="4"/>
       <c r="D230" s="35"/>
-      <c r="E230" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F230" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E230" s="29"/>
+      <c r="F230" s="58"/>
       <c r="G230" s="35"/>
       <c r="H230" s="29"/>
       <c r="I230" s="19"/>
       <c r="J230" s="20"/>
       <c r="K230" s="35"/>
     </row>
-    <row r="231" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
       <c r="D231" s="35"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="60"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="59"/>
       <c r="G231" s="35"/>
-      <c r="H231" s="32"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="24"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="21"/>
+      <c r="J231" s="22"/>
       <c r="K231" s="35"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>33</v>
+        <v>850</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>34</v>
+        <v>851</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F232" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G232" s="35"/>
-      <c r="H232" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I232" s="19">
-        <v>1</v>
-      </c>
-      <c r="J232" s="20">
-        <v>1</v>
-      </c>
+      <c r="H232" s="29"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="20"/>
       <c r="K232" s="35"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>35</v>
+        <v>852</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>36</v>
+        <v>854</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F233" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G233" s="35"/>
-      <c r="H233" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I233" s="19">
-        <v>1</v>
-      </c>
-      <c r="J233" s="20">
-        <v>1</v>
-      </c>
+      <c r="H233" s="29"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="20"/>
       <c r="K233" s="35"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>38</v>
+        <v>853</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>37</v>
+        <v>855</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
-        <v>44148</v>
+        <v>44405</v>
       </c>
       <c r="F234" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G234" s="35"/>
-      <c r="H234" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I234" s="19">
-        <v>1</v>
-      </c>
-      <c r="J234" s="20">
-        <v>1</v>
-      </c>
+      <c r="H234" s="29"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
       <c r="K234" s="35"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
-      <c r="B235" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12"/>
       <c r="D235" s="35"/>
-      <c r="E235" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F235" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E235" s="32"/>
+      <c r="F235" s="60"/>
       <c r="G235" s="35"/>
-      <c r="H235" s="29">
-        <v>44211</v>
-      </c>
-      <c r="I235" s="19">
-        <v>1</v>
-      </c>
-      <c r="J235" s="20">
-        <v>1</v>
-      </c>
+      <c r="H235" s="32"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="24"/>
       <c r="K235" s="35"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -9012,7 +9036,7 @@
       </c>
       <c r="G236" s="35"/>
       <c r="H236" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I236" s="19">
         <v>1</v>
@@ -9025,10 +9049,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
       <c r="B237" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D237" s="35"/>
       <c r="E237" s="29">
@@ -9052,10 +9076,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="29">
@@ -9079,10 +9103,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
       <c r="B239" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="29">
@@ -9106,10 +9130,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9133,10 +9157,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9160,10 +9184,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
       <c r="B242" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D242" s="35"/>
       <c r="E242" s="29">
@@ -9187,10 +9211,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
       <c r="B243" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D243" s="35"/>
       <c r="E243" s="29">
@@ -9214,10 +9238,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
@@ -9241,10 +9265,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29">
@@ -9268,10 +9292,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29">
@@ -9295,10 +9319,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29">
@@ -9322,10 +9346,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29">
@@ -9349,10 +9373,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29">
@@ -9376,10 +9400,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
@@ -9403,10 +9427,10 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29">
@@ -9427,98 +9451,142 @@
       </c>
       <c r="K251" s="35"/>
     </row>
-    <row r="252" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12"/>
+      <c r="B252" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D252" s="35"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="60"/>
+      <c r="E252" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F252" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G252" s="35"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="23"/>
-      <c r="J252" s="24"/>
+      <c r="H252" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I252" s="19">
+        <v>1</v>
+      </c>
+      <c r="J252" s="20">
+        <v>1</v>
+      </c>
       <c r="K252" s="35"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>848</v>
+        <v>58</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>849</v>
+        <v>70</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
-        <v>44405</v>
+        <v>44148</v>
       </c>
       <c r="F253" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G253" s="35"/>
-      <c r="H253" s="29"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="H253" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I253" s="19">
+        <v>1</v>
+      </c>
+      <c r="J253" s="20">
+        <v>1</v>
+      </c>
       <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>847</v>
+        <v>59</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>846</v>
+        <v>71</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29">
-        <v>44405</v>
+        <v>44148</v>
       </c>
       <c r="F254" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G254" s="35"/>
-      <c r="H254" s="29"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
+      <c r="H254" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I254" s="19">
+        <v>1</v>
+      </c>
+      <c r="J254" s="20">
+        <v>1</v>
+      </c>
       <c r="K254" s="35"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D255" s="35"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="58"/>
+      <c r="E255" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F255" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G255" s="35"/>
-      <c r="H255" s="29"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
+      <c r="H255" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I255" s="19">
+        <v>1</v>
+      </c>
+      <c r="J255" s="20">
+        <v>1</v>
+      </c>
       <c r="K255" s="35"/>
     </row>
-    <row r="256" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="10"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12"/>
       <c r="D256" s="35"/>
-      <c r="E256" s="30"/>
-      <c r="F256" s="59"/>
+      <c r="E256" s="32"/>
+      <c r="F256" s="60"/>
       <c r="G256" s="35"/>
-      <c r="H256" s="30"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="22"/>
+      <c r="H256" s="32"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="24"/>
       <c r="K256" s="35"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="D257" s="35"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="58"/>
+      <c r="E257" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F257" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G257" s="35"/>
       <c r="H257" s="29"/>
       <c r="I257" s="19"/>
@@ -9528,14 +9596,18 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="D258" s="35"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="58"/>
+      <c r="E258" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F258" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G258" s="35"/>
       <c r="H258" s="29"/>
       <c r="I258" s="19"/>
@@ -9544,12 +9616,8 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
-      <c r="B259" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>832</v>
-      </c>
+      <c r="B259" s="7"/>
+      <c r="C259" s="4"/>
       <c r="D259" s="35"/>
       <c r="E259" s="29"/>
       <c r="F259" s="58"/>
@@ -9559,72 +9627,64 @@
       <c r="J259" s="20"/>
       <c r="K259" s="35"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
-      <c r="B260" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>834</v>
-      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="10"/>
       <c r="D260" s="35"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="58"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="59"/>
       <c r="G260" s="35"/>
-      <c r="H260" s="29"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="22"/>
       <c r="K260" s="35"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D261" s="35"/>
-      <c r="E261" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F261" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E261" s="29"/>
+      <c r="F261" s="58"/>
       <c r="G261" s="35"/>
       <c r="H261" s="29"/>
       <c r="I261" s="19"/>
       <c r="J261" s="20"/>
       <c r="K261" s="35"/>
     </row>
-    <row r="262" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12"/>
+      <c r="B262" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="D262" s="35"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="60"/>
+      <c r="E262" s="29"/>
+      <c r="F262" s="58"/>
       <c r="G262" s="35"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="23"/>
-      <c r="J262" s="24"/>
+      <c r="H262" s="29"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
       <c r="K262" s="35"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
-        <v>501</v>
+        <v>830</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>445</v>
+        <v>832</v>
       </c>
       <c r="D263" s="35"/>
-      <c r="E263" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F263" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E263" s="29"/>
+      <c r="F263" s="58"/>
       <c r="G263" s="35"/>
       <c r="H263" s="29"/>
       <c r="I263" s="19"/>
@@ -9634,18 +9694,14 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>502</v>
+        <v>833</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>472</v>
+        <v>834</v>
       </c>
       <c r="D264" s="35"/>
-      <c r="E264" s="29">
-        <v>44349</v>
-      </c>
-      <c r="F264" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E264" s="29"/>
+      <c r="F264" s="58"/>
       <c r="G264" s="35"/>
       <c r="H264" s="29"/>
       <c r="I264" s="19"/>
@@ -9655,14 +9711,14 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>503</v>
+        <v>824</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>475</v>
+        <v>835</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
-        <v>44364</v>
+        <v>44400</v>
       </c>
       <c r="F265" s="58" t="s">
         <v>627</v>
@@ -9673,34 +9729,26 @@
       <c r="J265" s="20"/>
       <c r="K265" s="35"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
-      <c r="B266" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="35"/>
-      <c r="E266" s="29">
-        <v>44364</v>
-      </c>
-      <c r="F266" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E266" s="32"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="35"/>
-      <c r="H266" s="29"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
+      <c r="H266" s="32"/>
+      <c r="I266" s="23"/>
+      <c r="J266" s="24"/>
       <c r="K266" s="35"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
       <c r="B267" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D267" s="35"/>
       <c r="E267" s="29">
@@ -9718,14 +9766,14 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
       <c r="B268" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D268" s="35"/>
       <c r="E268" s="29">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="F268" s="58" t="s">
         <v>627</v>
@@ -9736,30 +9784,38 @@
       <c r="J268" s="20"/>
       <c r="K268" s="35"/>
     </row>
-    <row r="269" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12"/>
+      <c r="B269" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="D269" s="35"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="60"/>
+      <c r="E269" s="29">
+        <v>44364</v>
+      </c>
+      <c r="F269" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G269" s="35"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="23"/>
-      <c r="J269" s="24"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
       <c r="K269" s="35"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F270" s="58" t="s">
         <v>627</v>
@@ -9773,14 +9829,14 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F271" s="58" t="s">
         <v>627</v>
@@ -9791,126 +9847,102 @@
       <c r="J271" s="20"/>
       <c r="K271" s="35"/>
     </row>
-    <row r="272" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
+      <c r="B272" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D272" s="35"/>
-      <c r="E272" s="32"/>
-      <c r="F272" s="60"/>
+      <c r="E272" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F272" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G272" s="35"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="24"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="19"/>
+      <c r="J272" s="20"/>
       <c r="K272" s="35"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
-      <c r="B273" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="35"/>
-      <c r="E273" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F273" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E273" s="32"/>
+      <c r="F273" s="60"/>
       <c r="G273" s="35"/>
-      <c r="H273" s="29"/>
-      <c r="I273" s="19">
-        <v>1</v>
-      </c>
-      <c r="J273" s="20">
-        <v>0</v>
-      </c>
+      <c r="H273" s="32"/>
+      <c r="I273" s="23"/>
+      <c r="J273" s="24"/>
       <c r="K273" s="35"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
       <c r="B274" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="29">
-        <v>44148</v>
+        <v>44243</v>
       </c>
       <c r="F274" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G274" s="35"/>
       <c r="H274" s="29"/>
-      <c r="I274" s="19">
-        <v>1</v>
-      </c>
-      <c r="J274" s="20">
-        <v>0</v>
-      </c>
+      <c r="I274" s="19"/>
+      <c r="J274" s="20"/>
       <c r="K274" s="35"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F275" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G275" s="35"/>
       <c r="H275" s="29"/>
-      <c r="I275" s="19">
-        <v>1</v>
-      </c>
-      <c r="J275" s="20">
-        <v>0</v>
-      </c>
+      <c r="I275" s="19"/>
+      <c r="J275" s="20"/>
       <c r="K275" s="35"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
-      <c r="B276" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>738</v>
-      </c>
+      <c r="B276" s="11"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="35"/>
-      <c r="E276" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F276" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E276" s="32"/>
+      <c r="F276" s="60"/>
       <c r="G276" s="35"/>
-      <c r="H276" s="29"/>
-      <c r="I276" s="19">
-        <v>1</v>
-      </c>
-      <c r="J276" s="20">
-        <v>0</v>
-      </c>
+      <c r="H276" s="32"/>
+      <c r="I276" s="23"/>
+      <c r="J276" s="24"/>
       <c r="K276" s="35"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -9932,10 +9964,10 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
@@ -9957,10 +9989,10 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
@@ -9982,14 +10014,14 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>488</v>
+        <v>737</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>19</v>
+        <v>738</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F280" s="58" t="s">
         <v>627</v>
@@ -10007,10 +10039,10 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
       <c r="B281" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D281" s="35"/>
       <c r="E281" s="29">
@@ -10032,10 +10064,10 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29">
@@ -10057,10 +10089,10 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
       <c r="B283" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D283" s="35"/>
       <c r="E283" s="29">
@@ -10082,10 +10114,10 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
       <c r="B284" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D284" s="35"/>
       <c r="E284" s="29">
@@ -10107,10 +10139,10 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
@@ -10132,10 +10164,10 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
@@ -10157,10 +10189,10 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
@@ -10182,10 +10214,10 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
@@ -10207,10 +10239,10 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
       <c r="B289" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>28</v>
+        <v>493</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D289" s="35"/>
       <c r="E289" s="29">
@@ -10232,10 +10264,10 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
       <c r="B290" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D290" s="35"/>
       <c r="E290" s="29">
@@ -10257,10 +10289,10 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
@@ -10282,10 +10314,10 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
@@ -10304,106 +10336,130 @@
       </c>
       <c r="K292" s="35"/>
     </row>
-    <row r="293" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
+      <c r="B293" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D293" s="35"/>
-      <c r="E293" s="32"/>
-      <c r="F293" s="60"/>
+      <c r="E293" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F293" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G293" s="35"/>
-      <c r="H293" s="32"/>
-      <c r="I293" s="23"/>
-      <c r="J293" s="24"/>
+      <c r="H293" s="29"/>
+      <c r="I293" s="19">
+        <v>1</v>
+      </c>
+      <c r="J293" s="20">
+        <v>0</v>
+      </c>
       <c r="K293" s="35"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
       <c r="B294" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="D294" s="35"/>
       <c r="E294" s="29">
-        <v>44343</v>
+        <v>44148</v>
       </c>
       <c r="F294" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G294" s="35"/>
       <c r="H294" s="29"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="I294" s="19">
+        <v>1</v>
+      </c>
+      <c r="J294" s="20">
+        <v>0</v>
+      </c>
       <c r="K294" s="35"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
-        <v>43978</v>
+        <v>44148</v>
       </c>
       <c r="F295" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G295" s="35"/>
       <c r="H295" s="29"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
+      <c r="I295" s="19">
+        <v>1</v>
+      </c>
+      <c r="J295" s="20">
+        <v>0</v>
+      </c>
       <c r="K295" s="35"/>
     </row>
-    <row r="296" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12"/>
+      <c r="B296" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D296" s="35"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="60"/>
+      <c r="E296" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F296" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G296" s="35"/>
-      <c r="H296" s="32"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="24"/>
+      <c r="H296" s="29"/>
+      <c r="I296" s="19">
+        <v>1</v>
+      </c>
+      <c r="J296" s="20">
+        <v>0</v>
+      </c>
       <c r="K296" s="35"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
-      <c r="B297" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="35"/>
-      <c r="E297" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F297" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E297" s="32"/>
+      <c r="F297" s="60"/>
       <c r="G297" s="35"/>
-      <c r="H297" s="29"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
+      <c r="H297" s="32"/>
+      <c r="I297" s="23"/>
+      <c r="J297" s="24"/>
       <c r="K297" s="35"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
-        <v>44148</v>
+        <v>44343</v>
       </c>
       <c r="F298" s="58" t="s">
         <v>627</v>
@@ -10416,41 +10472,49 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
-      <c r="B299" s="7"/>
-      <c r="C299" s="4"/>
+      <c r="B299" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D299" s="35"/>
-      <c r="E299" s="29"/>
-      <c r="F299" s="58"/>
+      <c r="E299" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F299" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G299" s="35"/>
       <c r="H299" s="29"/>
       <c r="I299" s="19"/>
       <c r="J299" s="20"/>
       <c r="K299" s="35"/>
     </row>
-    <row r="300" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="10"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="35"/>
-      <c r="E300" s="30"/>
-      <c r="F300" s="59"/>
+      <c r="E300" s="32"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="35"/>
-      <c r="H300" s="30"/>
-      <c r="I300" s="21"/>
-      <c r="J300" s="22"/>
+      <c r="H300" s="32"/>
+      <c r="I300" s="23"/>
+      <c r="J300" s="24"/>
       <c r="K300" s="35"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
       <c r="B301" s="7" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="29">
-        <v>44372</v>
+        <v>43978</v>
       </c>
       <c r="F301" s="58" t="s">
         <v>627</v>
@@ -10464,14 +10528,14 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
-        <v>44372</v>
+        <v>44148</v>
       </c>
       <c r="F302" s="58" t="s">
         <v>627</v>
@@ -10484,49 +10548,41 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
-      <c r="B303" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="B303" s="7"/>
+      <c r="C303" s="4"/>
       <c r="D303" s="35"/>
-      <c r="E303" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F303" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E303" s="29"/>
+      <c r="F303" s="58"/>
       <c r="G303" s="35"/>
       <c r="H303" s="29"/>
       <c r="I303" s="19"/>
       <c r="J303" s="20"/>
       <c r="K303" s="35"/>
     </row>
-    <row r="304" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="12"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="10"/>
       <c r="D304" s="35"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="60"/>
+      <c r="E304" s="30"/>
+      <c r="F304" s="59"/>
       <c r="G304" s="35"/>
-      <c r="H304" s="32"/>
-      <c r="I304" s="23"/>
-      <c r="J304" s="24"/>
+      <c r="H304" s="30"/>
+      <c r="I304" s="21"/>
+      <c r="J304" s="22"/>
       <c r="K304" s="35"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>627</v>
@@ -10540,14 +10596,14 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>627</v>
@@ -10561,14 +10617,14 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F307" s="58" t="s">
         <v>627</v>
@@ -10579,34 +10635,26 @@
       <c r="J307" s="20"/>
       <c r="K307" s="35"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
-      <c r="B308" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>479</v>
-      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="35"/>
-      <c r="E308" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F308" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E308" s="32"/>
+      <c r="F308" s="60"/>
       <c r="G308" s="35"/>
-      <c r="H308" s="29"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
+      <c r="H308" s="32"/>
+      <c r="I308" s="23"/>
+      <c r="J308" s="24"/>
       <c r="K308" s="35"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
@@ -10624,10 +10672,10 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
       <c r="B310" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D310" s="35"/>
       <c r="E310" s="29">
@@ -10642,26 +10690,34 @@
       <c r="J310" s="20"/>
       <c r="K310" s="35"/>
     </row>
-    <row r="311" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="12"/>
+      <c r="B311" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D311" s="35"/>
-      <c r="E311" s="32"/>
-      <c r="F311" s="60"/>
+      <c r="E311" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F311" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G311" s="35"/>
-      <c r="H311" s="32"/>
-      <c r="I311" s="23"/>
-      <c r="J311" s="24"/>
+      <c r="H311" s="29"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
       <c r="K311" s="35"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
       <c r="B312" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D312" s="35"/>
       <c r="E312" s="29">
@@ -10679,10 +10735,10 @@
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
@@ -10697,51 +10753,51 @@
       <c r="J313" s="20"/>
       <c r="K313" s="35"/>
     </row>
-    <row r="314" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="12"/>
+      <c r="B314" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D314" s="35"/>
-      <c r="E314" s="32"/>
-      <c r="F314" s="60"/>
+      <c r="E314" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F314" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G314" s="35"/>
-      <c r="H314" s="32"/>
-      <c r="I314" s="23"/>
-      <c r="J314" s="24"/>
+      <c r="H314" s="29"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="20"/>
       <c r="K314" s="35"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
-      <c r="B315" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="B315" s="11"/>
+      <c r="C315" s="12"/>
       <c r="D315" s="35"/>
-      <c r="E315" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F315" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E315" s="32"/>
+      <c r="F315" s="60"/>
       <c r="G315" s="35"/>
-      <c r="H315" s="29"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
+      <c r="H315" s="32"/>
+      <c r="I315" s="23"/>
+      <c r="J315" s="24"/>
       <c r="K315" s="35"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
       <c r="B316" s="7" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="D316" s="35"/>
       <c r="E316" s="29">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="F316" s="58" t="s">
         <v>627</v>
@@ -10752,80 +10808,72 @@
       <c r="J316" s="20"/>
       <c r="K316" s="35"/>
     </row>
-    <row r="317" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="12"/>
+      <c r="B317" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D317" s="35"/>
-      <c r="E317" s="32"/>
-      <c r="F317" s="60"/>
+      <c r="E317" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F317" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G317" s="35"/>
-      <c r="H317" s="32"/>
-      <c r="I317" s="23"/>
-      <c r="J317" s="24"/>
+      <c r="H317" s="29"/>
+      <c r="I317" s="19"/>
+      <c r="J317" s="20"/>
       <c r="K317" s="35"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
-      <c r="B318" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="B318" s="11"/>
+      <c r="C318" s="12"/>
       <c r="D318" s="35"/>
-      <c r="E318" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F318" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E318" s="32"/>
+      <c r="F318" s="60"/>
       <c r="G318" s="35"/>
-      <c r="H318" s="29"/>
-      <c r="I318" s="19">
-        <v>1</v>
-      </c>
-      <c r="J318" s="20">
-        <v>0</v>
-      </c>
+      <c r="H318" s="32"/>
+      <c r="I318" s="23"/>
+      <c r="J318" s="24"/>
       <c r="K318" s="35"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="F319" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="19">
-        <v>1</v>
-      </c>
-      <c r="J319" s="20">
-        <v>0</v>
-      </c>
+      <c r="I319" s="19"/>
+      <c r="J319" s="20"/>
       <c r="K319" s="35"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="F320" s="58" t="s">
         <v>627</v>
@@ -10836,34 +10884,26 @@
       <c r="J320" s="20"/>
       <c r="K320" s="35"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
-      <c r="B321" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B321" s="11"/>
+      <c r="C321" s="12"/>
       <c r="D321" s="35"/>
-      <c r="E321" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F321" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E321" s="32"/>
+      <c r="F321" s="60"/>
       <c r="G321" s="35"/>
-      <c r="H321" s="29"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
+      <c r="H321" s="32"/>
+      <c r="I321" s="23"/>
+      <c r="J321" s="24"/>
       <c r="K321" s="35"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
@@ -10885,14 +10925,14 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F323" s="58" t="s">
         <v>627</v>
@@ -10910,60 +10950,52 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F324" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G324" s="35"/>
       <c r="H324" s="29"/>
-      <c r="I324" s="19">
-        <v>1</v>
-      </c>
-      <c r="J324" s="20">
-        <v>0</v>
-      </c>
+      <c r="I324" s="19"/>
+      <c r="J324" s="20"/>
       <c r="K324" s="35"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
       <c r="B325" s="7" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="29">
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F325" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G325" s="35"/>
       <c r="H325" s="29"/>
-      <c r="I325" s="19">
-        <v>1</v>
-      </c>
-      <c r="J325" s="20">
-        <v>0</v>
-      </c>
+      <c r="I325" s="19"/>
+      <c r="J325" s="20"/>
       <c r="K325" s="35"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
@@ -10985,14 +11017,14 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F327" s="58" t="s">
         <v>627</v>
@@ -11010,10 +11042,10 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
@@ -11035,14 +11067,14 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F329" s="58" t="s">
         <v>627</v>
@@ -11060,10 +11092,10 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
@@ -11085,14 +11117,14 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>733</v>
+        <v>517</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>735</v>
+        <v>608</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F331" s="58" t="s">
         <v>627</v>
@@ -11110,14 +11142,14 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>734</v>
+        <v>518</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>736</v>
+        <v>609</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F332" s="58" t="s">
         <v>627</v>
@@ -11135,52 +11167,60 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>739</v>
+        <v>519</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>863</v>
+        <v>610</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F333" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G333" s="35"/>
       <c r="H333" s="29"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
+      <c r="I333" s="19">
+        <v>1</v>
+      </c>
+      <c r="J333" s="20">
+        <v>0</v>
+      </c>
       <c r="K333" s="35"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>862</v>
+        <v>520</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>864</v>
+        <v>611</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44406</v>
+        <v>44371</v>
       </c>
       <c r="F334" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G334" s="35"/>
       <c r="H334" s="29"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
+      <c r="I334" s="19">
+        <v>1</v>
+      </c>
+      <c r="J334" s="20">
+        <v>0</v>
+      </c>
       <c r="K334" s="35"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>865</v>
+        <v>735</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
@@ -11191,17 +11231,21 @@
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="29"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
+      <c r="I335" s="19">
+        <v>1</v>
+      </c>
+      <c r="J335" s="20">
+        <v>0</v>
+      </c>
       <c r="K335" s="35"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
@@ -11212,67 +11256,63 @@
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
+      <c r="I336" s="19">
+        <v>1</v>
+      </c>
+      <c r="J336" s="20">
+        <v>0</v>
+      </c>
       <c r="K336" s="35"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>612</v>
+        <v>863</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F337" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19">
-        <v>1</v>
-      </c>
-      <c r="J337" s="20">
-        <v>0</v>
-      </c>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
       <c r="K337" s="35"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>725</v>
+        <v>862</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>726</v>
+        <v>864</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
-        <v>44383</v>
+        <v>44406</v>
       </c>
       <c r="F338" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="19">
-        <v>1</v>
-      </c>
-      <c r="J338" s="20">
-        <v>0</v>
-      </c>
+      <c r="I338" s="19"/>
+      <c r="J338" s="20"/>
       <c r="K338" s="35"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
       <c r="B339" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>728</v>
+        <v>865</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
@@ -11290,10 +11330,10 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
@@ -11311,35 +11351,39 @@
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F341" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="29"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="20"/>
+      <c r="I341" s="19">
+        <v>1</v>
+      </c>
+      <c r="J341" s="20">
+        <v>0</v>
+      </c>
       <c r="K341" s="35"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>522</v>
+        <v>725</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F342" s="58" t="s">
         <v>627</v>
@@ -11357,89 +11401,77 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>523</v>
+        <v>727</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>614</v>
+        <v>728</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F343" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G343" s="35"/>
       <c r="H343" s="29"/>
-      <c r="I343" s="19">
-        <v>1</v>
-      </c>
-      <c r="J343" s="20">
-        <v>0</v>
-      </c>
+      <c r="I343" s="19"/>
+      <c r="J343" s="20"/>
       <c r="K343" s="35"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>524</v>
+        <v>729</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>615</v>
+        <v>731</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F344" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G344" s="35"/>
       <c r="H344" s="29"/>
-      <c r="I344" s="19">
-        <v>1</v>
-      </c>
-      <c r="J344" s="20">
-        <v>0</v>
-      </c>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
       <c r="K344" s="35"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>525</v>
+        <v>730</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>616</v>
+        <v>732</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F345" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="29"/>
-      <c r="I345" s="19">
-        <v>1</v>
-      </c>
-      <c r="J345" s="20">
-        <v>0</v>
-      </c>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
       <c r="K345" s="35"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>617</v>
+        <v>522</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F346" s="58" t="s">
         <v>627</v>
@@ -11457,14 +11489,14 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F347" s="58" t="s">
         <v>627</v>
@@ -11482,14 +11514,14 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F348" s="58" t="s">
         <v>627</v>
@@ -11507,14 +11539,14 @@
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F349" s="58" t="s">
         <v>627</v>
@@ -11529,127 +11561,151 @@
       </c>
       <c r="K349" s="35"/>
     </row>
-    <row r="350" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="12"/>
+      <c r="B350" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="D350" s="35"/>
-      <c r="E350" s="32"/>
-      <c r="F350" s="60"/>
+      <c r="E350" s="29">
+        <v>44370</v>
+      </c>
+      <c r="F350" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G350" s="35"/>
-      <c r="H350" s="32"/>
-      <c r="I350" s="23"/>
-      <c r="J350" s="24"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="19">
+        <v>1</v>
+      </c>
+      <c r="J350" s="20">
+        <v>0</v>
+      </c>
       <c r="K350" s="35"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>743</v>
+        <v>527</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>746</v>
+        <v>618</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F351" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="29"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
+      <c r="I351" s="19">
+        <v>1</v>
+      </c>
+      <c r="J351" s="20">
+        <v>0</v>
+      </c>
       <c r="K351" s="35"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>744</v>
+        <v>528</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>745</v>
+        <v>619</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F352" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G352" s="35"/>
       <c r="H352" s="29"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="20"/>
+      <c r="I352" s="19">
+        <v>1</v>
+      </c>
+      <c r="J352" s="20">
+        <v>0</v>
+      </c>
       <c r="K352" s="35"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="F353" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G353" s="35"/>
       <c r="H353" s="29"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="20"/>
+      <c r="I353" s="19">
+        <v>1</v>
+      </c>
+      <c r="J353" s="20">
+        <v>0</v>
+      </c>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>553</v>
-      </c>
+      <c r="B354" s="11"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="35"/>
-      <c r="E354" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F354" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E354" s="32"/>
+      <c r="F354" s="60"/>
       <c r="G354" s="35"/>
-      <c r="H354" s="29"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="20"/>
+      <c r="H354" s="32"/>
+      <c r="I354" s="23"/>
+      <c r="J354" s="24"/>
       <c r="K354" s="35"/>
     </row>
-    <row r="355" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
-      <c r="B355" s="11"/>
-      <c r="C355" s="12"/>
+      <c r="B355" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="D355" s="35"/>
-      <c r="E355" s="32"/>
-      <c r="F355" s="60"/>
+      <c r="E355" s="29">
+        <v>44383</v>
+      </c>
+      <c r="F355" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G355" s="35"/>
-      <c r="H355" s="32"/>
-      <c r="I355" s="23"/>
-      <c r="J355" s="24"/>
+      <c r="H355" s="29"/>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
       <c r="K355" s="35"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>538</v>
+        <v>744</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>554</v>
+        <v>745</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F356" s="58" t="s">
         <v>627</v>
@@ -11663,10 +11719,10 @@
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11684,10 +11740,10 @@
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
       <c r="B358" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
@@ -11717,11 +11773,11 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
-      <c r="B360" s="13" t="s">
-        <v>545</v>
+      <c r="B360" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>770</v>
+        <v>554</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
@@ -11732,24 +11788,17 @@
       </c>
       <c r="G360" s="35"/>
       <c r="H360" s="29"/>
-      <c r="I360" s="19">
-        <v>1</v>
-      </c>
-      <c r="J360" s="20">
-        <v>0</v>
-      </c>
+      <c r="I360" s="19"/>
+      <c r="J360" s="20"/>
       <c r="K360" s="35"/>
-      <c r="L360" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
-      <c r="B361" s="13" t="s">
-        <v>546</v>
+      <c r="B361" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>771</v>
+        <v>556</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
@@ -11760,24 +11809,17 @@
       </c>
       <c r="G361" s="35"/>
       <c r="H361" s="29"/>
-      <c r="I361" s="19">
-        <v>1</v>
-      </c>
-      <c r="J361" s="20">
-        <v>0</v>
-      </c>
+      <c r="I361" s="19"/>
+      <c r="J361" s="20"/>
       <c r="K361" s="35"/>
-      <c r="L361" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
-      <c r="B362" s="13" t="s">
-        <v>548</v>
+      <c r="B362" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>772</v>
+        <v>555</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
@@ -11788,56 +11830,34 @@
       </c>
       <c r="G362" s="35"/>
       <c r="H362" s="29"/>
-      <c r="I362" s="19">
-        <v>1</v>
-      </c>
-      <c r="J362" s="20">
-        <v>0</v>
-      </c>
+      <c r="I362" s="19"/>
+      <c r="J362" s="20"/>
       <c r="K362" s="35"/>
-      <c r="L362" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
-      <c r="B363" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>773</v>
-      </c>
+      <c r="B363" s="11"/>
+      <c r="C363" s="12"/>
       <c r="D363" s="35"/>
-      <c r="E363" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F363" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E363" s="32"/>
+      <c r="F363" s="60"/>
       <c r="G363" s="35"/>
-      <c r="H363" s="29"/>
-      <c r="I363" s="19">
-        <v>1</v>
-      </c>
-      <c r="J363" s="20">
-        <v>0</v>
-      </c>
+      <c r="H363" s="32"/>
+      <c r="I363" s="23"/>
+      <c r="J363" s="24"/>
       <c r="K363" s="35"/>
-      <c r="L363" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>769</v>
+        <v>545</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F364" s="58" t="s">
         <v>627</v>
@@ -11857,205 +11877,229 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>771</v>
+      </c>
       <c r="D365" s="35"/>
-      <c r="E365" s="29"/>
-      <c r="F365" s="58"/>
+      <c r="E365" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F365" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G365" s="35"/>
       <c r="H365" s="29"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
+      <c r="I365" s="19">
+        <v>1</v>
+      </c>
+      <c r="J365" s="20">
+        <v>0</v>
+      </c>
       <c r="K365" s="35"/>
-    </row>
-    <row r="366" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L365" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="10"/>
+      <c r="B366" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="D366" s="35"/>
-      <c r="E366" s="30"/>
-      <c r="F366" s="59"/>
+      <c r="E366" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F366" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G366" s="35"/>
-      <c r="H366" s="30"/>
-      <c r="I366" s="21"/>
-      <c r="J366" s="22"/>
+      <c r="H366" s="29"/>
+      <c r="I366" s="19">
+        <v>1</v>
+      </c>
+      <c r="J366" s="20">
+        <v>0</v>
+      </c>
       <c r="K366" s="35"/>
+      <c r="L366" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
-      <c r="B367" s="7" t="s">
-        <v>424</v>
+      <c r="B367" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>425</v>
+        <v>773</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F367" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="29"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="20"/>
+      <c r="I367" s="19">
+        <v>1</v>
+      </c>
+      <c r="J367" s="20">
+        <v>0</v>
+      </c>
       <c r="K367" s="35"/>
+      <c r="L367" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
-      <c r="B368" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>421</v>
+      <c r="B368" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>769</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
-        <v>44257</v>
+        <v>44384</v>
       </c>
       <c r="F368" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="29"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="20"/>
+      <c r="I368" s="19">
+        <v>1</v>
+      </c>
+      <c r="J368" s="20">
+        <v>0</v>
+      </c>
       <c r="K368" s="35"/>
+      <c r="L368" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="B369" s="7"/>
+      <c r="C369" s="4"/>
       <c r="D369" s="35"/>
-      <c r="E369" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F369" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E369" s="29"/>
+      <c r="F369" s="58"/>
       <c r="G369" s="35"/>
       <c r="H369" s="29"/>
       <c r="I369" s="19"/>
       <c r="J369" s="20"/>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="12"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="10"/>
       <c r="D370" s="35"/>
-      <c r="E370" s="32"/>
-      <c r="F370" s="60"/>
+      <c r="E370" s="30"/>
+      <c r="F370" s="59"/>
       <c r="G370" s="35"/>
-      <c r="H370" s="32"/>
-      <c r="I370" s="23"/>
-      <c r="J370" s="24"/>
+      <c r="H370" s="30"/>
+      <c r="I370" s="21"/>
+      <c r="J370" s="22"/>
       <c r="K370" s="35"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
       <c r="B371" s="7" t="s">
-        <v>646</v>
+        <v>424</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>647</v>
+        <v>425</v>
       </c>
       <c r="D371" s="35"/>
       <c r="E371" s="29">
-        <v>44319</v>
+        <v>44257</v>
       </c>
       <c r="F371" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="29"/>
-      <c r="I371" s="19">
-        <v>1</v>
-      </c>
-      <c r="J371" s="20">
-        <v>0</v>
-      </c>
+      <c r="I371" s="19"/>
+      <c r="J371" s="20"/>
       <c r="K371" s="35"/>
     </row>
-    <row r="372" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="12"/>
+      <c r="B372" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D372" s="35"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="60"/>
+      <c r="E372" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F372" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G372" s="35"/>
-      <c r="H372" s="32"/>
-      <c r="I372" s="23"/>
-      <c r="J372" s="24"/>
+      <c r="H372" s="29"/>
+      <c r="I372" s="19"/>
+      <c r="J372" s="20"/>
       <c r="K372" s="35"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44151</v>
+        <v>44257</v>
       </c>
       <c r="F373" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="19">
-        <v>1</v>
-      </c>
-      <c r="J373" s="20">
-        <v>0</v>
-      </c>
+      <c r="I373" s="19"/>
+      <c r="J373" s="20"/>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>393</v>
-      </c>
+      <c r="B374" s="11"/>
+      <c r="C374" s="12"/>
       <c r="D374" s="35"/>
-      <c r="E374" s="29">
-        <v>44245</v>
-      </c>
-      <c r="F374" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E374" s="32"/>
+      <c r="F374" s="60"/>
       <c r="G374" s="35"/>
-      <c r="H374" s="29"/>
-      <c r="I374" s="19">
-        <v>1</v>
-      </c>
-      <c r="J374" s="20">
-        <v>0</v>
-      </c>
+      <c r="H374" s="32"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="24"/>
       <c r="K374" s="35"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
       <c r="B375" s="7" t="s">
-        <v>394</v>
+        <v>646</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>395</v>
+        <v>647</v>
       </c>
       <c r="D375" s="35"/>
       <c r="E375" s="29">
-        <v>44231</v>
+        <v>44319</v>
       </c>
       <c r="F375" s="58" t="s">
         <v>627</v>
@@ -12070,202 +12114,210 @@
       </c>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>380</v>
-      </c>
+      <c r="B376" s="11"/>
+      <c r="C376" s="12"/>
       <c r="D376" s="35"/>
-      <c r="E376" s="29">
-        <v>44230</v>
-      </c>
-      <c r="F376" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E376" s="32"/>
+      <c r="F376" s="60"/>
       <c r="G376" s="35"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="19">
-        <v>1</v>
-      </c>
-      <c r="J376" s="20">
-        <v>0</v>
-      </c>
+      <c r="H376" s="32"/>
+      <c r="I376" s="23"/>
+      <c r="J376" s="24"/>
       <c r="K376" s="35"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
-      <c r="B377" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C377" s="45" t="s">
-        <v>429</v>
+      <c r="B377" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
-        <v>44264</v>
+        <v>44151</v>
       </c>
       <c r="F377" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G377" s="46"/>
-      <c r="H377" s="47"/>
-      <c r="I377" s="48">
-        <v>1</v>
-      </c>
-      <c r="J377" s="49">
+      <c r="G377" s="35"/>
+      <c r="H377" s="29"/>
+      <c r="I377" s="19">
+        <v>1</v>
+      </c>
+      <c r="J377" s="20">
         <v>0</v>
       </c>
       <c r="K377" s="35"/>
     </row>
-    <row r="378" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="12"/>
+      <c r="B378" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="D378" s="35"/>
-      <c r="E378" s="32"/>
-      <c r="F378" s="60"/>
+      <c r="E378" s="29">
+        <v>44245</v>
+      </c>
+      <c r="F378" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G378" s="35"/>
-      <c r="H378" s="32"/>
-      <c r="I378" s="23"/>
-      <c r="J378" s="24"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="19">
+        <v>1</v>
+      </c>
+      <c r="J378" s="20">
+        <v>0</v>
+      </c>
       <c r="K378" s="35"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
       <c r="B379" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D379" s="35"/>
       <c r="E379" s="29">
-        <v>44271</v>
+        <v>44231</v>
       </c>
       <c r="F379" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="29"/>
-      <c r="I379" s="19"/>
-      <c r="J379" s="20"/>
+      <c r="I379" s="19">
+        <v>1</v>
+      </c>
+      <c r="J379" s="20">
+        <v>0</v>
+      </c>
       <c r="K379" s="35"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44278</v>
+        <v>44230</v>
       </c>
       <c r="F380" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="29"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="20"/>
+      <c r="I380" s="19">
+        <v>1</v>
+      </c>
+      <c r="J380" s="20">
+        <v>0</v>
+      </c>
       <c r="K380" s="35"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
-      <c r="B381" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>433</v>
+      <c r="B381" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C381" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
+        <v>44264</v>
+      </c>
+      <c r="F381" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G381" s="46"/>
+      <c r="H381" s="47"/>
+      <c r="I381" s="48">
+        <v>1</v>
+      </c>
+      <c r="J381" s="49">
+        <v>0</v>
+      </c>
+      <c r="K381" s="35"/>
+    </row>
+    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="35"/>
+      <c r="B382" s="11"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="35"/>
+      <c r="E382" s="32"/>
+      <c r="F382" s="60"/>
+      <c r="G382" s="35"/>
+      <c r="H382" s="32"/>
+      <c r="I382" s="23"/>
+      <c r="J382" s="24"/>
+      <c r="K382" s="35"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="35"/>
+      <c r="B383" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D383" s="35"/>
+      <c r="E383" s="29">
         <v>44271</v>
       </c>
-      <c r="F381" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G381" s="35"/>
-      <c r="H381" s="29"/>
-      <c r="I381" s="19"/>
-      <c r="J381" s="20"/>
-      <c r="K381" s="35"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="35"/>
-      <c r="B382" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D382" s="35"/>
-      <c r="E382" s="29">
-        <v>44272</v>
-      </c>
-      <c r="F382" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G382" s="35"/>
-      <c r="H382" s="29"/>
-      <c r="I382" s="19"/>
-      <c r="J382" s="20"/>
-      <c r="K382" s="35"/>
-    </row>
-    <row r="383" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="35"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="35"/>
-      <c r="E383" s="32"/>
-      <c r="F383" s="60"/>
+      <c r="F383" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G383" s="35"/>
-      <c r="H383" s="32"/>
-      <c r="I383" s="23"/>
-      <c r="J383" s="24"/>
+      <c r="H383" s="29"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="20"/>
       <c r="K383" s="35"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
-        <v>44151</v>
+        <v>44278</v>
       </c>
       <c r="F384" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="29"/>
-      <c r="I384" s="19">
-        <v>1</v>
-      </c>
-      <c r="J384" s="20">
-        <v>0</v>
-      </c>
+      <c r="I384" s="19"/>
+      <c r="J384" s="20"/>
       <c r="K384" s="35"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
       <c r="B385" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D385" s="35"/>
       <c r="E385" s="29">
-        <v>44258</v>
+        <v>44271</v>
       </c>
       <c r="F385" s="58" t="s">
         <v>627</v>
@@ -12276,152 +12328,132 @@
       <c r="J385" s="20"/>
       <c r="K385" s="35"/>
     </row>
-    <row r="386" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="12"/>
+      <c r="B386" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D386" s="35"/>
-      <c r="E386" s="32"/>
-      <c r="F386" s="60"/>
+      <c r="E386" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F386" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G386" s="35"/>
-      <c r="H386" s="32"/>
-      <c r="I386" s="23"/>
-      <c r="J386" s="24"/>
+      <c r="H386" s="29"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
       <c r="K386" s="35"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
-      <c r="B387" s="7"/>
-      <c r="C387" s="4"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12"/>
       <c r="D387" s="35"/>
-      <c r="E387" s="29"/>
-      <c r="F387" s="58"/>
+      <c r="E387" s="32"/>
+      <c r="F387" s="60"/>
       <c r="G387" s="35"/>
-      <c r="H387" s="29"/>
-      <c r="I387" s="19"/>
-      <c r="J387" s="20"/>
+      <c r="H387" s="32"/>
+      <c r="I387" s="23"/>
+      <c r="J387" s="24"/>
       <c r="K387" s="35"/>
     </row>
-    <row r="388" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
-      <c r="B388" s="9"/>
-      <c r="C388" s="10"/>
+      <c r="B388" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D388" s="35"/>
-      <c r="E388" s="30"/>
-      <c r="F388" s="59"/>
+      <c r="E388" s="29">
+        <v>44151</v>
+      </c>
+      <c r="F388" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G388" s="35"/>
-      <c r="H388" s="30"/>
-      <c r="I388" s="21"/>
-      <c r="J388" s="22"/>
+      <c r="H388" s="29"/>
+      <c r="I388" s="19">
+        <v>1</v>
+      </c>
+      <c r="J388" s="20">
+        <v>0</v>
+      </c>
       <c r="K388" s="35"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>764</v>
+        <v>426</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
-        <v>44382</v>
+        <v>44258</v>
       </c>
       <c r="F389" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="29"/>
-      <c r="I389" s="19">
-        <v>1</v>
-      </c>
-      <c r="J389" s="20">
-        <v>0</v>
-      </c>
+      <c r="I389" s="19"/>
+      <c r="J389" s="20"/>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="B390" s="11"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="35"/>
-      <c r="E390" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F390" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E390" s="32"/>
+      <c r="F390" s="60"/>
       <c r="G390" s="35"/>
-      <c r="H390" s="29"/>
-      <c r="I390" s="19">
-        <v>1</v>
-      </c>
-      <c r="J390" s="20">
-        <v>0</v>
-      </c>
+      <c r="H390" s="32"/>
+      <c r="I390" s="23"/>
+      <c r="J390" s="24"/>
       <c r="K390" s="35"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
-      <c r="B391" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="B391" s="7"/>
+      <c r="C391" s="4"/>
       <c r="D391" s="35"/>
-      <c r="E391" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F391" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E391" s="29"/>
+      <c r="F391" s="58"/>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="19">
-        <v>1</v>
-      </c>
-      <c r="J391" s="20">
-        <v>0</v>
-      </c>
+      <c r="I391" s="19"/>
+      <c r="J391" s="20"/>
       <c r="K391" s="35"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
-      <c r="B392" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="B392" s="9"/>
+      <c r="C392" s="10"/>
       <c r="D392" s="35"/>
-      <c r="E392" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F392" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E392" s="30"/>
+      <c r="F392" s="59"/>
       <c r="G392" s="35"/>
-      <c r="H392" s="29"/>
-      <c r="I392" s="19">
-        <v>1</v>
-      </c>
-      <c r="J392" s="20">
-        <v>0</v>
-      </c>
+      <c r="H392" s="30"/>
+      <c r="I392" s="21"/>
+      <c r="J392" s="22"/>
       <c r="K392" s="35"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
       <c r="B393" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D393" s="35"/>
       <c r="E393" s="29">
@@ -12440,114 +12472,130 @@
       </c>
       <c r="K393" s="35"/>
     </row>
-    <row r="394" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="12"/>
+      <c r="B394" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>701</v>
+      </c>
       <c r="D394" s="35"/>
-      <c r="E394" s="32"/>
-      <c r="F394" s="60"/>
+      <c r="E394" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F394" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G394" s="35"/>
-      <c r="H394" s="32"/>
-      <c r="I394" s="23"/>
-      <c r="J394" s="24"/>
+      <c r="H394" s="29"/>
+      <c r="I394" s="19">
+        <v>1</v>
+      </c>
+      <c r="J394" s="20">
+        <v>0</v>
+      </c>
       <c r="K394" s="35"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>648</v>
+        <v>766</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F395" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G395" s="35"/>
       <c r="H395" s="29"/>
-      <c r="I395" s="19"/>
-      <c r="J395" s="20"/>
+      <c r="I395" s="19">
+        <v>1</v>
+      </c>
+      <c r="J395" s="20">
+        <v>0</v>
+      </c>
       <c r="K395" s="35"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>542</v>
+        <v>767</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>460</v>
+        <v>703</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F396" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G396" s="35"/>
       <c r="H396" s="29"/>
-      <c r="I396" s="19"/>
-      <c r="J396" s="20"/>
+      <c r="I396" s="19">
+        <v>1</v>
+      </c>
+      <c r="J396" s="20">
+        <v>0</v>
+      </c>
       <c r="K396" s="35"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
       <c r="B397" s="7" t="s">
-        <v>650</v>
+        <v>768</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="D397" s="35"/>
       <c r="E397" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F397" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G397" s="35"/>
       <c r="H397" s="29"/>
-      <c r="I397" s="19"/>
-      <c r="J397" s="20"/>
+      <c r="I397" s="19">
+        <v>1</v>
+      </c>
+      <c r="J397" s="20">
+        <v>0</v>
+      </c>
       <c r="K397" s="35"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
-      <c r="B398" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="B398" s="11"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="35"/>
-      <c r="E398" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F398" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E398" s="32"/>
+      <c r="F398" s="60"/>
       <c r="G398" s="35"/>
-      <c r="H398" s="29"/>
-      <c r="I398" s="19"/>
-      <c r="J398" s="20"/>
+      <c r="H398" s="32"/>
+      <c r="I398" s="23"/>
+      <c r="J398" s="24"/>
       <c r="K398" s="35"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>453</v>
+        <v>649</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F399" s="58" t="s">
         <v>627</v>
@@ -12561,10 +12609,10 @@
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
       <c r="B400" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D400" s="35"/>
       <c r="E400" s="29">
@@ -12579,26 +12627,34 @@
       <c r="J400" s="20"/>
       <c r="K400" s="35"/>
     </row>
-    <row r="401" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
-      <c r="B401" s="11"/>
-      <c r="C401" s="12"/>
+      <c r="B401" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="D401" s="35"/>
-      <c r="E401" s="32"/>
-      <c r="F401" s="60"/>
+      <c r="E401" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F401" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G401" s="35"/>
-      <c r="H401" s="32"/>
-      <c r="I401" s="23"/>
-      <c r="J401" s="24"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="19"/>
+      <c r="J401" s="20"/>
       <c r="K401" s="35"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
@@ -12609,25 +12665,21 @@
       </c>
       <c r="G402" s="35"/>
       <c r="H402" s="29"/>
-      <c r="I402" s="19">
-        <v>1</v>
-      </c>
-      <c r="J402" s="20">
-        <v>0</v>
-      </c>
+      <c r="I402" s="19"/>
+      <c r="J402" s="20"/>
       <c r="K402" s="35"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
       <c r="B403" s="7" t="s">
-        <v>655</v>
+        <v>543</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>658</v>
+        <v>453</v>
       </c>
       <c r="D403" s="35"/>
       <c r="E403" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F403" s="58" t="s">
         <v>627</v>
@@ -12641,14 +12693,14 @@
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
       <c r="B404" s="7" t="s">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>659</v>
+        <v>465</v>
       </c>
       <c r="D404" s="35"/>
       <c r="E404" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F404" s="58" t="s">
         <v>627</v>
@@ -12675,10 +12727,10 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
@@ -12700,10 +12752,10 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
       <c r="B407" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D407" s="35"/>
       <c r="E407" s="29">
@@ -12714,59 +12766,51 @@
       </c>
       <c r="G407" s="35"/>
       <c r="H407" s="29"/>
-      <c r="I407" s="19">
-        <v>1</v>
-      </c>
-      <c r="J407" s="20">
-        <v>0</v>
-      </c>
+      <c r="I407" s="19"/>
+      <c r="J407" s="20"/>
       <c r="K407" s="35"/>
     </row>
-    <row r="408" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
-      <c r="B408" s="11"/>
-      <c r="C408" s="12"/>
+      <c r="B408" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>659</v>
+      </c>
       <c r="D408" s="35"/>
-      <c r="E408" s="32"/>
-      <c r="F408" s="60"/>
+      <c r="E408" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F408" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G408" s="35"/>
-      <c r="H408" s="32"/>
-      <c r="I408" s="23"/>
-      <c r="J408" s="24"/>
+      <c r="H408" s="29"/>
+      <c r="I408" s="19"/>
+      <c r="J408" s="20"/>
       <c r="K408" s="35"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
-      <c r="B409" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>666</v>
-      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="35"/>
-      <c r="E409" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F409" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E409" s="32"/>
+      <c r="F409" s="60"/>
       <c r="G409" s="35"/>
-      <c r="H409" s="29"/>
-      <c r="I409" s="19">
-        <v>1</v>
-      </c>
-      <c r="J409" s="20">
-        <v>0</v>
-      </c>
+      <c r="H409" s="32"/>
+      <c r="I409" s="23"/>
+      <c r="J409" s="24"/>
       <c r="K409" s="35"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
@@ -12785,105 +12829,113 @@
       </c>
       <c r="K410" s="35"/>
     </row>
-    <row r="411" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
-      <c r="B411" s="11"/>
-      <c r="C411" s="12"/>
+      <c r="B411" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="D411" s="35"/>
-      <c r="E411" s="32"/>
-      <c r="F411" s="60"/>
+      <c r="E411" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F411" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G411" s="35"/>
-      <c r="H411" s="32"/>
-      <c r="I411" s="23"/>
-      <c r="J411" s="24"/>
+      <c r="H411" s="29"/>
+      <c r="I411" s="19">
+        <v>1</v>
+      </c>
+      <c r="J411" s="20">
+        <v>0</v>
+      </c>
       <c r="K411" s="35"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>668</v>
+        <v>880</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>669</v>
+        <v>884</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F412" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G412" s="35"/>
       <c r="H412" s="29"/>
-      <c r="I412" s="19">
-        <v>1</v>
-      </c>
-      <c r="J412" s="20">
-        <v>0</v>
-      </c>
+      <c r="I412" s="19"/>
+      <c r="J412" s="20"/>
       <c r="K412" s="35"/>
     </row>
-    <row r="413" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="12"/>
+      <c r="B413" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>885</v>
+      </c>
       <c r="D413" s="35"/>
-      <c r="E413" s="32"/>
-      <c r="F413" s="60"/>
+      <c r="E413" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F413" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G413" s="35"/>
-      <c r="H413" s="32"/>
-      <c r="I413" s="23"/>
-      <c r="J413" s="24"/>
+      <c r="H413" s="29"/>
+      <c r="I413" s="19"/>
+      <c r="J413" s="20"/>
       <c r="K413" s="35"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
       <c r="B414" s="7" t="s">
-        <v>670</v>
+        <v>882</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>672</v>
+        <v>886</v>
       </c>
       <c r="D414" s="35"/>
       <c r="E414" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F414" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G414" s="35"/>
       <c r="H414" s="29"/>
-      <c r="I414" s="19">
-        <v>1</v>
-      </c>
-      <c r="J414" s="20">
-        <v>0</v>
-      </c>
+      <c r="I414" s="19"/>
+      <c r="J414" s="20"/>
       <c r="K414" s="35"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>671</v>
+        <v>883</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>673</v>
+        <v>887</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F415" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G415" s="35"/>
       <c r="H415" s="29"/>
-      <c r="I415" s="19">
-        <v>1</v>
-      </c>
-      <c r="J415" s="20">
-        <v>0</v>
-      </c>
+      <c r="I415" s="19"/>
+      <c r="J415" s="20"/>
       <c r="K415" s="35"/>
     </row>
     <row r="416" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12902,14 +12954,14 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>74</v>
+        <v>666</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
-        <v>44148</v>
+        <v>44379</v>
       </c>
       <c r="F417" s="58" t="s">
         <v>627</v>
@@ -12927,14 +12979,14 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>144</v>
+        <v>665</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>126</v>
+        <v>667</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F418" s="58" t="s">
         <v>627</v>
@@ -12949,42 +13001,30 @@
       </c>
       <c r="K418" s="35"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
-      <c r="B419" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C419" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="B419" s="11"/>
+      <c r="C419" s="12"/>
       <c r="D419" s="35"/>
-      <c r="E419" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F419" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E419" s="32"/>
+      <c r="F419" s="60"/>
       <c r="G419" s="35"/>
-      <c r="H419" s="29"/>
-      <c r="I419" s="19">
-        <v>1</v>
-      </c>
-      <c r="J419" s="20">
-        <v>0</v>
-      </c>
+      <c r="H419" s="32"/>
+      <c r="I419" s="23"/>
+      <c r="J419" s="24"/>
       <c r="K419" s="35"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>145</v>
+        <v>668</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>127</v>
+        <v>669</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F420" s="58" t="s">
         <v>627</v>
@@ -12999,42 +13039,30 @@
       </c>
       <c r="K420" s="35"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
-      <c r="B421" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="B421" s="11"/>
+      <c r="C421" s="12"/>
       <c r="D421" s="35"/>
-      <c r="E421" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F421" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E421" s="32"/>
+      <c r="F421" s="60"/>
       <c r="G421" s="35"/>
-      <c r="H421" s="29"/>
-      <c r="I421" s="19">
-        <v>1</v>
-      </c>
-      <c r="J421" s="20">
-        <v>0</v>
-      </c>
+      <c r="H421" s="32"/>
+      <c r="I421" s="23"/>
+      <c r="J421" s="24"/>
       <c r="K421" s="35"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>147</v>
+        <v>670</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>129</v>
+        <v>672</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="F422" s="58" t="s">
         <v>627</v>
@@ -13052,10 +13080,10 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>148</v>
+        <v>671</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>130</v>
+        <v>673</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13074,42 +13102,30 @@
       </c>
       <c r="K423" s="35"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
-      <c r="B424" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C424" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B424" s="11"/>
+      <c r="C424" s="12"/>
       <c r="D424" s="35"/>
-      <c r="E424" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F424" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E424" s="32"/>
+      <c r="F424" s="60"/>
       <c r="G424" s="35"/>
-      <c r="H424" s="29"/>
-      <c r="I424" s="19">
-        <v>1</v>
-      </c>
-      <c r="J424" s="20">
-        <v>0</v>
-      </c>
+      <c r="H424" s="32"/>
+      <c r="I424" s="23"/>
+      <c r="J424" s="24"/>
       <c r="K424" s="35"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
-        <v>44379</v>
+        <v>44148</v>
       </c>
       <c r="F425" s="58" t="s">
         <v>627</v>
@@ -13127,14 +13143,14 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F426" s="58" t="s">
         <v>627</v>
@@ -13152,14 +13168,14 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F427" s="58" t="s">
         <v>627</v>
@@ -13177,14 +13193,14 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F428" s="58" t="s">
         <v>627</v>
@@ -13202,14 +13218,14 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F429" s="58" t="s">
         <v>627</v>
@@ -13227,14 +13243,14 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F430" s="58" t="s">
         <v>627</v>
@@ -13252,10 +13268,10 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
@@ -13277,10 +13293,10 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
@@ -13302,10 +13318,10 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
@@ -13327,14 +13343,14 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>860</v>
+        <v>151</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>861</v>
+        <v>133</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F434" s="58" t="s">
         <v>627</v>
@@ -13352,10 +13368,10 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
@@ -13377,10 +13393,10 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
@@ -13402,10 +13418,10 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
@@ -13427,10 +13443,10 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>623</v>
+        <v>137</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13452,10 +13468,10 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>674</v>
+        <v>138</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
@@ -13477,10 +13493,10 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
       <c r="B440" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>675</v>
+        <v>139</v>
       </c>
       <c r="D440" s="35"/>
       <c r="E440" s="29">
@@ -13502,10 +13518,10 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>676</v>
+        <v>140</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
@@ -13527,14 +13543,14 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>166</v>
+        <v>860</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>677</v>
+        <v>861</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F442" s="58" t="s">
         <v>627</v>
@@ -13552,10 +13568,10 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>678</v>
+        <v>141</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
@@ -13577,10 +13593,10 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>679</v>
+        <v>142</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
@@ -13602,10 +13618,10 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>680</v>
+        <v>143</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
@@ -13627,10 +13643,10 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>681</v>
+        <v>623</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
@@ -13652,10 +13668,10 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
@@ -13677,10 +13693,10 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
@@ -13702,10 +13718,10 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
@@ -13727,10 +13743,10 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
@@ -13752,10 +13768,10 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
       <c r="B451" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D451" s="35"/>
       <c r="E451" s="29">
@@ -13777,10 +13793,10 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
       <c r="B452" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D452" s="35"/>
       <c r="E452" s="29">
@@ -13799,30 +13815,42 @@
       </c>
       <c r="K452" s="35"/>
     </row>
-    <row r="453" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
-      <c r="B453" s="11"/>
-      <c r="C453" s="12"/>
+      <c r="B453" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>680</v>
+      </c>
       <c r="D453" s="35"/>
-      <c r="E453" s="32"/>
-      <c r="F453" s="60"/>
+      <c r="E453" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F453" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G453" s="35"/>
-      <c r="H453" s="32"/>
-      <c r="I453" s="23"/>
-      <c r="J453" s="24"/>
+      <c r="H453" s="29"/>
+      <c r="I453" s="19">
+        <v>1</v>
+      </c>
+      <c r="J453" s="20">
+        <v>0</v>
+      </c>
       <c r="K453" s="35"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F454" s="58" t="s">
         <v>627</v>
@@ -13840,14 +13868,14 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F455" s="58" t="s">
         <v>627</v>
@@ -13865,14 +13893,14 @@
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>760</v>
+        <v>172</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>761</v>
+        <v>683</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F456" s="58" t="s">
         <v>627</v>
@@ -13887,30 +13915,42 @@
       </c>
       <c r="K456" s="35"/>
     </row>
-    <row r="457" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
-      <c r="B457" s="11"/>
-      <c r="C457" s="12"/>
+      <c r="B457" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>684</v>
+      </c>
       <c r="D457" s="35"/>
-      <c r="E457" s="32"/>
-      <c r="F457" s="60"/>
+      <c r="E457" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F457" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G457" s="35"/>
-      <c r="H457" s="32"/>
-      <c r="I457" s="23"/>
-      <c r="J457" s="24"/>
+      <c r="H457" s="29"/>
+      <c r="I457" s="19">
+        <v>1</v>
+      </c>
+      <c r="J457" s="20">
+        <v>0</v>
+      </c>
       <c r="K457" s="35"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>690</v>
+        <v>174</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F458" s="58" t="s">
         <v>627</v>
@@ -13928,14 +13968,14 @@
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>691</v>
+        <v>175</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F459" s="58" t="s">
         <v>627</v>
@@ -13953,14 +13993,14 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>692</v>
+        <v>176</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F460" s="58" t="s">
         <v>627</v>
@@ -13975,38 +14015,26 @@
       </c>
       <c r="K460" s="35"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
-      <c r="B461" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="B461" s="11"/>
+      <c r="C461" s="12"/>
       <c r="D461" s="35"/>
-      <c r="E461" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F461" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E461" s="32"/>
+      <c r="F461" s="60"/>
       <c r="G461" s="35"/>
-      <c r="H461" s="29"/>
-      <c r="I461" s="19">
-        <v>1</v>
-      </c>
-      <c r="J461" s="20">
-        <v>0</v>
-      </c>
+      <c r="H461" s="32"/>
+      <c r="I461" s="23"/>
+      <c r="J461" s="24"/>
       <c r="K461" s="35"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
       <c r="B462" s="7" t="s">
-        <v>694</v>
+        <v>177</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="D462" s="35"/>
       <c r="E462" s="29">
@@ -14027,201 +14055,229 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
-      <c r="B463" s="7"/>
-      <c r="C463" s="4"/>
+      <c r="B463" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="D463" s="35"/>
-      <c r="E463" s="29"/>
-      <c r="F463" s="58"/>
+      <c r="E463" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F463" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G463" s="35"/>
       <c r="H463" s="29"/>
-      <c r="I463" s="19"/>
-      <c r="J463" s="20"/>
+      <c r="I463" s="19">
+        <v>1</v>
+      </c>
+      <c r="J463" s="20">
+        <v>0</v>
+      </c>
       <c r="K463" s="35"/>
     </row>
-    <row r="464" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
-      <c r="B464" s="9"/>
-      <c r="C464" s="10"/>
+      <c r="B464" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="D464" s="35"/>
-      <c r="E464" s="30"/>
-      <c r="F464" s="59"/>
+      <c r="E464" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F464" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G464" s="35"/>
-      <c r="H464" s="30"/>
-      <c r="I464" s="21"/>
-      <c r="J464" s="22"/>
+      <c r="H464" s="29"/>
+      <c r="I464" s="19">
+        <v>1</v>
+      </c>
+      <c r="J464" s="20">
+        <v>0</v>
+      </c>
       <c r="K464" s="35"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
-      <c r="B465" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B465" s="11"/>
+      <c r="C465" s="12"/>
       <c r="D465" s="35"/>
-      <c r="E465" s="29">
-        <v>44363</v>
-      </c>
-      <c r="F465" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E465" s="32"/>
+      <c r="F465" s="60"/>
       <c r="G465" s="35"/>
-      <c r="H465" s="29"/>
-      <c r="I465" s="19"/>
-      <c r="J465" s="20"/>
+      <c r="H465" s="32"/>
+      <c r="I465" s="23"/>
+      <c r="J465" s="24"/>
       <c r="K465" s="35"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F466" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="29"/>
-      <c r="I466" s="19"/>
-      <c r="J466" s="20"/>
+      <c r="I466" s="19">
+        <v>1</v>
+      </c>
+      <c r="J466" s="20">
+        <v>0</v>
+      </c>
       <c r="K466" s="35"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F467" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="29"/>
-      <c r="I467" s="19"/>
-      <c r="J467" s="20"/>
+      <c r="I467" s="19">
+        <v>1</v>
+      </c>
+      <c r="J467" s="20">
+        <v>0</v>
+      </c>
       <c r="K467" s="35"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>450</v>
+        <v>692</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>451</v>
+        <v>697</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F468" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G468" s="35"/>
       <c r="H468" s="29"/>
-      <c r="I468" s="19"/>
-      <c r="J468" s="20"/>
+      <c r="I468" s="19">
+        <v>1</v>
+      </c>
+      <c r="J468" s="20">
+        <v>0</v>
+      </c>
       <c r="K468" s="35"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
       <c r="B469" s="7" t="s">
-        <v>462</v>
+        <v>693</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>464</v>
+        <v>698</v>
       </c>
       <c r="D469" s="35"/>
       <c r="E469" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F469" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="29"/>
-      <c r="I469" s="19"/>
-      <c r="J469" s="20"/>
+      <c r="I469" s="19">
+        <v>1</v>
+      </c>
+      <c r="J469" s="20">
+        <v>0</v>
+      </c>
       <c r="K469" s="35"/>
     </row>
-    <row r="470" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
-      <c r="B470" s="11"/>
-      <c r="C470" s="12"/>
+      <c r="B470" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="D470" s="35"/>
-      <c r="E470" s="32"/>
-      <c r="F470" s="60"/>
+      <c r="E470" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F470" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G470" s="35"/>
-      <c r="H470" s="32"/>
-      <c r="I470" s="23"/>
-      <c r="J470" s="24"/>
+      <c r="H470" s="29"/>
+      <c r="I470" s="19">
+        <v>1</v>
+      </c>
+      <c r="J470" s="20">
+        <v>0</v>
+      </c>
       <c r="K470" s="35"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
-      <c r="B471" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C471" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="B471" s="7"/>
+      <c r="C471" s="4"/>
       <c r="D471" s="35"/>
-      <c r="E471" s="29">
-        <v>44250</v>
-      </c>
-      <c r="F471" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E471" s="29"/>
+      <c r="F471" s="58"/>
       <c r="G471" s="35"/>
       <c r="H471" s="29"/>
       <c r="I471" s="19"/>
       <c r="J471" s="20"/>
       <c r="K471" s="35"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
-      <c r="B472" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>419</v>
-      </c>
+      <c r="B472" s="9"/>
+      <c r="C472" s="10"/>
       <c r="D472" s="35"/>
-      <c r="E472" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F472" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E472" s="30"/>
+      <c r="F472" s="59"/>
       <c r="G472" s="35"/>
-      <c r="H472" s="29"/>
-      <c r="I472" s="19"/>
-      <c r="J472" s="20"/>
+      <c r="H472" s="30"/>
+      <c r="I472" s="21"/>
+      <c r="J472" s="22"/>
       <c r="K472" s="35"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
       <c r="B473" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="D473" s="35"/>
       <c r="E473" s="29">
-        <v>44250</v>
+        <v>44363</v>
       </c>
       <c r="F473" s="58" t="s">
         <v>627</v>
@@ -14232,55 +14288,59 @@
       <c r="J473" s="20"/>
       <c r="K473" s="35"/>
     </row>
-    <row r="474" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
-      <c r="B474" s="11"/>
-      <c r="C474" s="12"/>
+      <c r="B474" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>707</v>
+      </c>
       <c r="D474" s="35"/>
-      <c r="E474" s="32"/>
-      <c r="F474" s="60"/>
+      <c r="E474" s="29">
+        <v>44365</v>
+      </c>
+      <c r="F474" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G474" s="35"/>
-      <c r="H474" s="32"/>
-      <c r="I474" s="23"/>
-      <c r="J474" s="24"/>
+      <c r="H474" s="29"/>
+      <c r="I474" s="19"/>
+      <c r="J474" s="20"/>
       <c r="K474" s="35"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>85</v>
+        <v>708</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
-        <v>44148</v>
+        <v>44365</v>
       </c>
       <c r="F475" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G475" s="35"/>
       <c r="H475" s="29"/>
-      <c r="I475" s="19">
-        <v>1</v>
-      </c>
-      <c r="J475" s="20">
-        <v>0</v>
-      </c>
+      <c r="I475" s="19"/>
+      <c r="J475" s="20"/>
       <c r="K475" s="35"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
       <c r="B476" s="7" t="s">
-        <v>594</v>
+        <v>450</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>595</v>
+        <v>451</v>
       </c>
       <c r="D476" s="35"/>
       <c r="E476" s="29">
-        <v>44377</v>
+        <v>44362</v>
       </c>
       <c r="F476" s="58" t="s">
         <v>627</v>
@@ -14294,14 +14354,14 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
       <c r="B477" s="7" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
       <c r="D477" s="35"/>
       <c r="E477" s="29">
-        <v>44377</v>
+        <v>44363</v>
       </c>
       <c r="F477" s="58" t="s">
         <v>627</v>
@@ -14312,63 +14372,51 @@
       <c r="J477" s="20"/>
       <c r="K477" s="35"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="35"/>
-      <c r="B478" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="B478" s="11"/>
+      <c r="C478" s="12"/>
       <c r="D478" s="35"/>
-      <c r="E478" s="29">
-        <v>44377</v>
-      </c>
-      <c r="F478" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E478" s="32"/>
+      <c r="F478" s="60"/>
       <c r="G478" s="35"/>
-      <c r="H478" s="29"/>
-      <c r="I478" s="19"/>
-      <c r="J478" s="20"/>
+      <c r="H478" s="32"/>
+      <c r="I478" s="23"/>
+      <c r="J478" s="24"/>
       <c r="K478" s="35"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="D479" s="35"/>
       <c r="E479" s="29">
-        <v>44172</v>
+        <v>44250</v>
       </c>
       <c r="F479" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G479" s="35"/>
       <c r="H479" s="29"/>
-      <c r="I479" s="19">
-        <v>1</v>
-      </c>
-      <c r="J479" s="20">
-        <v>0</v>
-      </c>
+      <c r="I479" s="19"/>
+      <c r="J479" s="20"/>
       <c r="K479" s="35"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>624</v>
+        <v>418</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>625</v>
+        <v>419</v>
       </c>
       <c r="D480" s="35"/>
       <c r="E480" s="29">
-        <v>44378</v>
+        <v>44382</v>
       </c>
       <c r="F480" s="58" t="s">
         <v>627</v>
@@ -14382,14 +14430,14 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>868</v>
+        <v>410</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>869</v>
+        <v>411</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
-        <v>44406</v>
+        <v>44250</v>
       </c>
       <c r="F481" s="58" t="s">
         <v>627</v>
@@ -14400,59 +14448,55 @@
       <c r="J481" s="20"/>
       <c r="K481" s="35"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
-      <c r="B482" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="B482" s="11"/>
+      <c r="C482" s="12"/>
       <c r="D482" s="35"/>
-      <c r="E482" s="29">
-        <v>44376</v>
-      </c>
-      <c r="F482" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E482" s="32"/>
+      <c r="F482" s="60"/>
       <c r="G482" s="35"/>
-      <c r="H482" s="29"/>
-      <c r="I482" s="19"/>
-      <c r="J482" s="20"/>
+      <c r="H482" s="32"/>
+      <c r="I482" s="23"/>
+      <c r="J482" s="24"/>
       <c r="K482" s="35"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
       <c r="B483" s="7" t="s">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>583</v>
+        <v>85</v>
       </c>
       <c r="D483" s="35"/>
       <c r="E483" s="29">
-        <v>44376</v>
+        <v>44148</v>
       </c>
       <c r="F483" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G483" s="35"/>
       <c r="H483" s="29"/>
-      <c r="I483" s="19"/>
-      <c r="J483" s="20"/>
+      <c r="I483" s="19">
+        <v>1</v>
+      </c>
+      <c r="J483" s="20">
+        <v>0</v>
+      </c>
       <c r="K483" s="35"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F484" s="58" t="s">
         <v>627</v>
@@ -14466,14 +14510,14 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>581</v>
+        <v>294</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>586</v>
+        <v>296</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F485" s="58" t="s">
         <v>627</v>
@@ -14487,14 +14531,14 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>582</v>
+        <v>295</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>587</v>
+        <v>297</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F486" s="58" t="s">
         <v>627</v>
@@ -14508,423 +14552,395 @@
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
       <c r="B487" s="7" t="s">
-        <v>588</v>
+        <v>288</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>589</v>
+        <v>289</v>
       </c>
       <c r="D487" s="35"/>
       <c r="E487" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F487" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G487" s="35"/>
       <c r="H487" s="29"/>
-      <c r="I487" s="19"/>
-      <c r="J487" s="20"/>
+      <c r="I487" s="19">
+        <v>1</v>
+      </c>
+      <c r="J487" s="20">
+        <v>0</v>
+      </c>
       <c r="K487" s="35"/>
     </row>
-    <row r="488" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="37"/>
-      <c r="B488" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C488" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="D488" s="37"/>
-      <c r="E488" s="31">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="35"/>
+      <c r="B488" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D488" s="35"/>
+      <c r="E488" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F488" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G488" s="35"/>
+      <c r="H488" s="29"/>
+      <c r="I488" s="19"/>
+      <c r="J488" s="20"/>
+      <c r="K488" s="35"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="35"/>
+      <c r="B489" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D489" s="35"/>
+      <c r="E489" s="29">
         <v>44406</v>
       </c>
-      <c r="F488" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G488" s="37"/>
-      <c r="H488" s="31"/>
-      <c r="I488" s="19">
-        <v>1</v>
-      </c>
-      <c r="J488" s="20">
-        <v>0</v>
-      </c>
-      <c r="K488" s="37"/>
-    </row>
-    <row r="489" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="37"/>
-      <c r="B489" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C489" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D489" s="37"/>
-      <c r="E489" s="31">
-        <v>44176</v>
-      </c>
       <c r="F489" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G489" s="37"/>
-      <c r="H489" s="31"/>
-      <c r="I489" s="19">
-        <v>1</v>
-      </c>
-      <c r="J489" s="20">
-        <v>0</v>
-      </c>
-      <c r="K489" s="37"/>
-    </row>
-    <row r="490" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="37"/>
-      <c r="B490" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C490" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D490" s="37"/>
-      <c r="E490" s="31">
-        <v>44176</v>
+      <c r="G489" s="35"/>
+      <c r="H489" s="29"/>
+      <c r="I489" s="19"/>
+      <c r="J489" s="20"/>
+      <c r="K489" s="35"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="35"/>
+      <c r="B490" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D490" s="35"/>
+      <c r="E490" s="29">
+        <v>44376</v>
       </c>
       <c r="F490" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G490" s="37"/>
-      <c r="H490" s="31"/>
-      <c r="I490" s="19">
-        <v>1</v>
-      </c>
-      <c r="J490" s="20">
-        <v>0</v>
-      </c>
-      <c r="K490" s="37"/>
-    </row>
-    <row r="491" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="37"/>
-      <c r="B491" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C491" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D491" s="37"/>
-      <c r="E491" s="31">
-        <v>44176</v>
+      <c r="G490" s="35"/>
+      <c r="H490" s="29"/>
+      <c r="I490" s="19"/>
+      <c r="J490" s="20"/>
+      <c r="K490" s="35"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="35"/>
+      <c r="B491" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D491" s="35"/>
+      <c r="E491" s="29">
+        <v>44376</v>
       </c>
       <c r="F491" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G491" s="37"/>
-      <c r="H491" s="31"/>
-      <c r="I491" s="19">
-        <v>1</v>
-      </c>
-      <c r="J491" s="20">
-        <v>0</v>
-      </c>
-      <c r="K491" s="37"/>
-    </row>
-    <row r="492" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="37"/>
-      <c r="B492" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C492" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D492" s="37"/>
-      <c r="E492" s="31">
-        <v>44176</v>
+      <c r="G491" s="35"/>
+      <c r="H491" s="29"/>
+      <c r="I491" s="19"/>
+      <c r="J491" s="20"/>
+      <c r="K491" s="35"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="35"/>
+      <c r="B492" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D492" s="35"/>
+      <c r="E492" s="29">
+        <v>44376</v>
       </c>
       <c r="F492" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G492" s="37"/>
-      <c r="H492" s="31"/>
-      <c r="I492" s="19">
-        <v>1</v>
-      </c>
-      <c r="J492" s="20">
-        <v>0</v>
-      </c>
-      <c r="K492" s="37"/>
-    </row>
-    <row r="493" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="37"/>
+      <c r="G492" s="35"/>
+      <c r="H492" s="29"/>
+      <c r="I492" s="19"/>
+      <c r="J492" s="20"/>
+      <c r="K492" s="35"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>402</v>
+        <v>581</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D493" s="37"/>
-      <c r="E493" s="31">
-        <v>44245</v>
+        <v>586</v>
+      </c>
+      <c r="D493" s="35"/>
+      <c r="E493" s="29">
+        <v>44376</v>
       </c>
       <c r="F493" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G493" s="37"/>
-      <c r="H493" s="31"/>
+      <c r="G493" s="35"/>
+      <c r="H493" s="29"/>
       <c r="I493" s="19"/>
       <c r="J493" s="20"/>
-      <c r="K493" s="37"/>
-    </row>
-    <row r="494" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="37"/>
+      <c r="K493" s="35"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>404</v>
+        <v>582</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D494" s="37"/>
-      <c r="E494" s="31">
-        <v>44245</v>
+        <v>587</v>
+      </c>
+      <c r="D494" s="35"/>
+      <c r="E494" s="29">
+        <v>44376</v>
       </c>
       <c r="F494" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G494" s="37"/>
-      <c r="H494" s="31"/>
+      <c r="G494" s="35"/>
+      <c r="H494" s="29"/>
       <c r="I494" s="19"/>
       <c r="J494" s="20"/>
-      <c r="K494" s="37"/>
-    </row>
-    <row r="495" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="37"/>
+      <c r="K494" s="35"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>405</v>
+        <v>588</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D495" s="37"/>
-      <c r="E495" s="31">
-        <v>44245</v>
+        <v>589</v>
+      </c>
+      <c r="D495" s="35"/>
+      <c r="E495" s="29">
+        <v>44376</v>
       </c>
       <c r="F495" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G495" s="37"/>
-      <c r="H495" s="31"/>
+      <c r="G495" s="35"/>
+      <c r="H495" s="29"/>
       <c r="I495" s="19"/>
       <c r="J495" s="20"/>
-      <c r="K495" s="37"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="35"/>
-      <c r="B496" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D496" s="35"/>
-      <c r="E496" s="29">
-        <v>44175</v>
+      <c r="K495" s="35"/>
+    </row>
+    <row r="496" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="37"/>
+      <c r="B496" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C496" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D496" s="37"/>
+      <c r="E496" s="31">
+        <v>44406</v>
       </c>
       <c r="F496" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G496" s="35"/>
-      <c r="H496" s="29"/>
+      <c r="G496" s="37"/>
+      <c r="H496" s="31"/>
       <c r="I496" s="19">
         <v>1</v>
       </c>
       <c r="J496" s="20">
         <v>0</v>
       </c>
-      <c r="K496" s="35"/>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="35"/>
-      <c r="B497" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D497" s="35"/>
-      <c r="E497" s="29">
-        <v>44175</v>
+      <c r="K496" s="37"/>
+    </row>
+    <row r="497" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="37"/>
+      <c r="B497" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C497" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D497" s="37"/>
+      <c r="E497" s="31">
+        <v>44176</v>
       </c>
       <c r="F497" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G497" s="35"/>
-      <c r="H497" s="29"/>
+      <c r="G497" s="37"/>
+      <c r="H497" s="31"/>
       <c r="I497" s="19">
         <v>1</v>
       </c>
       <c r="J497" s="20">
         <v>0</v>
       </c>
-      <c r="K497" s="35"/>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="35"/>
-      <c r="B498" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D498" s="35"/>
-      <c r="E498" s="29">
-        <v>44175</v>
+      <c r="K497" s="37"/>
+    </row>
+    <row r="498" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="37"/>
+      <c r="B498" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C498" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D498" s="37"/>
+      <c r="E498" s="31">
+        <v>44176</v>
       </c>
       <c r="F498" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G498" s="35"/>
-      <c r="H498" s="29"/>
+      <c r="G498" s="37"/>
+      <c r="H498" s="31"/>
       <c r="I498" s="19">
         <v>1</v>
       </c>
       <c r="J498" s="20">
         <v>0</v>
       </c>
-      <c r="K498" s="35"/>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="35"/>
-      <c r="B499" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D499" s="35"/>
-      <c r="E499" s="29">
-        <v>44175</v>
+      <c r="K498" s="37"/>
+    </row>
+    <row r="499" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="37"/>
+      <c r="B499" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C499" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D499" s="37"/>
+      <c r="E499" s="31">
+        <v>44176</v>
       </c>
       <c r="F499" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G499" s="35"/>
-      <c r="H499" s="29"/>
+      <c r="G499" s="37"/>
+      <c r="H499" s="31"/>
       <c r="I499" s="19">
         <v>1</v>
       </c>
       <c r="J499" s="20">
         <v>0</v>
       </c>
-      <c r="K499" s="35"/>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="35"/>
-      <c r="B500" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D500" s="35"/>
-      <c r="E500" s="29">
-        <v>44175</v>
+      <c r="K499" s="37"/>
+    </row>
+    <row r="500" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="37"/>
+      <c r="B500" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C500" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D500" s="37"/>
+      <c r="E500" s="31">
+        <v>44176</v>
       </c>
       <c r="F500" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G500" s="35"/>
-      <c r="H500" s="29"/>
+      <c r="G500" s="37"/>
+      <c r="H500" s="31"/>
       <c r="I500" s="19">
         <v>1</v>
       </c>
       <c r="J500" s="20">
         <v>0</v>
       </c>
-      <c r="K500" s="35"/>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="35"/>
+      <c r="K500" s="37"/>
+    </row>
+    <row r="501" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="37"/>
       <c r="B501" s="7" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D501" s="35"/>
-      <c r="E501" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D501" s="37"/>
+      <c r="E501" s="31">
+        <v>44245</v>
       </c>
       <c r="F501" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G501" s="35"/>
-      <c r="H501" s="29"/>
-      <c r="I501" s="19">
-        <v>1</v>
-      </c>
-      <c r="J501" s="20">
-        <v>0</v>
-      </c>
-      <c r="K501" s="35"/>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="35"/>
+      <c r="G501" s="37"/>
+      <c r="H501" s="31"/>
+      <c r="I501" s="19"/>
+      <c r="J501" s="20"/>
+      <c r="K501" s="37"/>
+    </row>
+    <row r="502" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="37"/>
       <c r="B502" s="7" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D502" s="35"/>
-      <c r="E502" s="29">
-        <v>44173</v>
+        <v>407</v>
+      </c>
+      <c r="D502" s="37"/>
+      <c r="E502" s="31">
+        <v>44245</v>
       </c>
       <c r="F502" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G502" s="35"/>
-      <c r="H502" s="29"/>
-      <c r="I502" s="19">
-        <v>1</v>
-      </c>
-      <c r="J502" s="20">
-        <v>0</v>
-      </c>
-      <c r="K502" s="35"/>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="35"/>
+      <c r="G502" s="37"/>
+      <c r="H502" s="31"/>
+      <c r="I502" s="19"/>
+      <c r="J502" s="20"/>
+      <c r="K502" s="37"/>
+    </row>
+    <row r="503" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="37"/>
       <c r="B503" s="7" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D503" s="35"/>
-      <c r="E503" s="29">
-        <v>44173</v>
+        <v>406</v>
+      </c>
+      <c r="D503" s="37"/>
+      <c r="E503" s="31">
+        <v>44245</v>
       </c>
       <c r="F503" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="G503" s="35"/>
-      <c r="H503" s="29"/>
-      <c r="I503" s="19">
-        <v>1</v>
-      </c>
-      <c r="J503" s="20">
-        <v>0</v>
-      </c>
-      <c r="K503" s="35"/>
+      <c r="G503" s="37"/>
+      <c r="H503" s="31"/>
+      <c r="I503" s="19"/>
+      <c r="J503" s="20"/>
+      <c r="K503" s="37"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
       <c r="B504" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D504" s="35"/>
       <c r="E504" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F504" s="58" t="s">
         <v>627</v>
@@ -14939,216 +14955,297 @@
       </c>
       <c r="K504" s="35"/>
     </row>
-    <row r="505" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
-      <c r="B505" s="11"/>
-      <c r="C505" s="12"/>
+      <c r="B505" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="D505" s="35"/>
-      <c r="E505" s="32"/>
-      <c r="F505" s="60"/>
+      <c r="E505" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F505" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G505" s="35"/>
-      <c r="H505" s="32"/>
-      <c r="I505" s="23"/>
-      <c r="J505" s="24"/>
+      <c r="H505" s="29"/>
+      <c r="I505" s="19">
+        <v>1</v>
+      </c>
+      <c r="J505" s="20">
+        <v>0</v>
+      </c>
       <c r="K505" s="35"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>717</v>
+        <v>324</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>721</v>
+        <v>327</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F506" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G506" s="35"/>
       <c r="H506" s="29"/>
-      <c r="I506" s="19"/>
-      <c r="J506" s="20"/>
+      <c r="I506" s="19">
+        <v>1</v>
+      </c>
+      <c r="J506" s="20">
+        <v>0</v>
+      </c>
       <c r="K506" s="35"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
       <c r="B507" s="7" t="s">
-        <v>718</v>
+        <v>318</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>722</v>
+        <v>319</v>
       </c>
       <c r="D507" s="35"/>
       <c r="E507" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F507" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G507" s="35"/>
       <c r="H507" s="29"/>
-      <c r="I507" s="19"/>
-      <c r="J507" s="20"/>
+      <c r="I507" s="19">
+        <v>1</v>
+      </c>
+      <c r="J507" s="20">
+        <v>0</v>
+      </c>
       <c r="K507" s="35"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
       <c r="B508" s="7" t="s">
-        <v>719</v>
+        <v>317</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>723</v>
+        <v>320</v>
       </c>
       <c r="D508" s="35"/>
       <c r="E508" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F508" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G508" s="35"/>
       <c r="H508" s="29"/>
-      <c r="I508" s="19"/>
-      <c r="J508" s="20"/>
+      <c r="I508" s="19">
+        <v>1</v>
+      </c>
+      <c r="J508" s="20">
+        <v>0</v>
+      </c>
       <c r="K508" s="35"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
       <c r="B509" s="7" t="s">
-        <v>720</v>
+        <v>316</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>724</v>
+        <v>321</v>
       </c>
       <c r="D509" s="35"/>
       <c r="E509" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F509" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G509" s="35"/>
       <c r="H509" s="29"/>
-      <c r="I509" s="19"/>
-      <c r="J509" s="20"/>
+      <c r="I509" s="19">
+        <v>1</v>
+      </c>
+      <c r="J509" s="20">
+        <v>0</v>
+      </c>
       <c r="K509" s="35"/>
     </row>
-    <row r="510" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
-      <c r="B510" s="11"/>
-      <c r="C510" s="12"/>
+      <c r="B510" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="D510" s="35"/>
-      <c r="E510" s="32"/>
-      <c r="F510" s="60"/>
+      <c r="E510" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F510" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G510" s="35"/>
-      <c r="H510" s="32"/>
-      <c r="I510" s="23"/>
-      <c r="J510" s="24"/>
+      <c r="H510" s="29"/>
+      <c r="I510" s="19">
+        <v>1</v>
+      </c>
+      <c r="J510" s="20">
+        <v>0</v>
+      </c>
       <c r="K510" s="35"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
       <c r="B511" s="7" t="s">
-        <v>757</v>
+        <v>304</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>754</v>
+        <v>305</v>
       </c>
       <c r="D511" s="35"/>
       <c r="E511" s="29">
-        <v>44384</v>
+        <v>44173</v>
       </c>
       <c r="F511" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G511" s="35"/>
       <c r="H511" s="29"/>
-      <c r="I511" s="19"/>
-      <c r="J511" s="20"/>
+      <c r="I511" s="19">
+        <v>1</v>
+      </c>
+      <c r="J511" s="20">
+        <v>0</v>
+      </c>
       <c r="K511" s="35"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="35"/>
       <c r="B512" s="7" t="s">
-        <v>758</v>
+        <v>298</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>755</v>
+        <v>299</v>
       </c>
       <c r="D512" s="35"/>
       <c r="E512" s="29">
-        <v>44384</v>
+        <v>44173</v>
       </c>
       <c r="F512" s="58" t="s">
         <v>627</v>
       </c>
       <c r="G512" s="35"/>
       <c r="H512" s="29"/>
-      <c r="I512" s="19"/>
-      <c r="J512" s="20"/>
+      <c r="I512" s="19">
+        <v>1</v>
+      </c>
+      <c r="J512" s="20">
+        <v>0</v>
+      </c>
       <c r="K512" s="35"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="35"/>
-      <c r="B513" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>756</v>
-      </c>
+      <c r="B513" s="11"/>
+      <c r="C513" s="12"/>
       <c r="D513" s="35"/>
-      <c r="E513" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F513" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E513" s="32"/>
+      <c r="F513" s="60"/>
       <c r="G513" s="35"/>
-      <c r="H513" s="29"/>
-      <c r="I513" s="19"/>
-      <c r="J513" s="20"/>
+      <c r="H513" s="32"/>
+      <c r="I513" s="23"/>
+      <c r="J513" s="24"/>
       <c r="K513" s="35"/>
     </row>
-    <row r="514" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="35"/>
-      <c r="B514" s="8"/>
-      <c r="C514" s="6"/>
+      <c r="B514" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="D514" s="35"/>
-      <c r="E514" s="33"/>
-      <c r="F514" s="61"/>
+      <c r="E514" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F514" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G514" s="35"/>
-      <c r="H514" s="33"/>
-      <c r="I514" s="25"/>
-      <c r="J514" s="26"/>
+      <c r="H514" s="29"/>
+      <c r="I514" s="19"/>
+      <c r="J514" s="20"/>
       <c r="K514" s="35"/>
     </row>
-    <row r="515" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="35"/>
-      <c r="B515" s="38"/>
-      <c r="C515" s="39"/>
+      <c r="B515" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D515" s="35"/>
-      <c r="E515" s="40"/>
-      <c r="F515" s="55"/>
+      <c r="E515" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F515" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G515" s="35"/>
-      <c r="H515" s="40"/>
-      <c r="I515" s="41"/>
-      <c r="J515" s="41"/>
+      <c r="H515" s="29"/>
+      <c r="I515" s="19"/>
+      <c r="J515" s="20"/>
       <c r="K515" s="35"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="35"/>
+      <c r="B516" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D516" s="35"/>
+      <c r="E516" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F516" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G516" s="35"/>
+      <c r="H516" s="29"/>
+      <c r="I516" s="19"/>
+      <c r="J516" s="20"/>
+      <c r="K516" s="35"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="35"/>
       <c r="B517" s="7" t="s">
-        <v>389</v>
+        <v>720</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>390</v>
+        <v>724</v>
       </c>
       <c r="D517" s="35"/>
-      <c r="E517" s="29"/>
-      <c r="F517" s="58"/>
+      <c r="E517" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F517" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="G517" s="35"/>
       <c r="H517" s="29"/>
       <c r="I517" s="19"/>
@@ -15157,16 +15254,135 @@
     </row>
     <row r="518" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="35"/>
-      <c r="B518" s="50"/>
-      <c r="C518" s="51"/>
+      <c r="B518" s="11"/>
+      <c r="C518" s="12"/>
       <c r="D518" s="35"/>
-      <c r="E518" s="52"/>
-      <c r="F518" s="62"/>
+      <c r="E518" s="32"/>
+      <c r="F518" s="60"/>
       <c r="G518" s="35"/>
-      <c r="H518" s="52"/>
-      <c r="I518" s="53"/>
-      <c r="J518" s="54"/>
+      <c r="H518" s="32"/>
+      <c r="I518" s="23"/>
+      <c r="J518" s="24"/>
       <c r="K518" s="35"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="35"/>
+      <c r="B519" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D519" s="35"/>
+      <c r="E519" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F519" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G519" s="35"/>
+      <c r="H519" s="29"/>
+      <c r="I519" s="19"/>
+      <c r="J519" s="20"/>
+      <c r="K519" s="35"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="35"/>
+      <c r="B520" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D520" s="35"/>
+      <c r="E520" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F520" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G520" s="35"/>
+      <c r="H520" s="29"/>
+      <c r="I520" s="19"/>
+      <c r="J520" s="20"/>
+      <c r="K520" s="35"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="35"/>
+      <c r="B521" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D521" s="35"/>
+      <c r="E521" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F521" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G521" s="35"/>
+      <c r="H521" s="29"/>
+      <c r="I521" s="19"/>
+      <c r="J521" s="20"/>
+      <c r="K521" s="35"/>
+    </row>
+    <row r="522" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="35"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="35"/>
+      <c r="E522" s="33"/>
+      <c r="F522" s="61"/>
+      <c r="G522" s="35"/>
+      <c r="H522" s="33"/>
+      <c r="I522" s="25"/>
+      <c r="J522" s="26"/>
+      <c r="K522" s="35"/>
+    </row>
+    <row r="523" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="35"/>
+      <c r="B523" s="38"/>
+      <c r="C523" s="39"/>
+      <c r="D523" s="35"/>
+      <c r="E523" s="40"/>
+      <c r="F523" s="55"/>
+      <c r="G523" s="35"/>
+      <c r="H523" s="40"/>
+      <c r="I523" s="41"/>
+      <c r="J523" s="41"/>
+      <c r="K523" s="35"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="35"/>
+      <c r="B525" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D525" s="35"/>
+      <c r="E525" s="29"/>
+      <c r="F525" s="58"/>
+      <c r="G525" s="35"/>
+      <c r="H525" s="29"/>
+      <c r="I525" s="19"/>
+      <c r="J525" s="20"/>
+      <c r="K525" s="35"/>
+    </row>
+    <row r="526" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="35"/>
+      <c r="B526" s="50"/>
+      <c r="C526" s="51"/>
+      <c r="D526" s="35"/>
+      <c r="E526" s="52"/>
+      <c r="F526" s="62"/>
+      <c r="G526" s="35"/>
+      <c r="H526" s="52"/>
+      <c r="I526" s="53"/>
+      <c r="J526" s="54"/>
+      <c r="K526" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15178,7 +15394,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F127:F131 F133:F137 F139:F145 F147:F149 F151:F152 F157 F159:F177 F217:F219 F221:F225 F232:F251 F263:F268 F270:F271 F294:F295 F297:F298 F305:F310 F312:F313 F315:F316 F356:F364 F367:F369 F371 F373:F377 F379:F382 F384:F385 F395:F400 F402:F404 F406:F407 F409:F410 F154:F155 F412 F414:F415 F454:F456 F458:F462 F389:F393 F465:F469 F471:F473 F117:F120 F506:F509 F273:F292 F351:F354 F301:F303 F122:F124 F511:F513 F58 F37:F56 F35 F19:F22 F261 F17 F77:F84 F253:F254 F228:F230 F86:F115 F179:F215 F417:F452 F318:F349 F481:F504 F475:F480" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F127:F131 F133:F137 F139:F145 F147:F149 F151:F152 F161 F163:F181 F221:F223 F225:F229 F236:F255 F267:F272 F274:F275 F298:F299 F301:F302 F309:F314 F316:F317 F319:F320 F360:F368 F371:F373 F375 F377:F381 F383:F386 F388:F389 F399:F404 F406:F408 F410:F411 F417:F418 F158:F159 F420 F422:F423 F462:F464 F466:F470 F393:F397 F473:F477 F479:F481 F117:F120 F514:F517 F277:F296 F355:F358 F305:F307 F122:F124 F519:F521 F58 F37:F56 F35 F19:F22 F265 F17 F77:F84 F257:F258 F232:F234 F86:F115 F183:F219 F425:F460 F322:F353 F489:F512 F483:F488 F153:F156 F412:F415" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="898">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -1875,12 +1875,6 @@
   </si>
   <si>
     <t>transaction.read.dataRecord.dataAcquisition.getLog_Device_PersonAccess</t>
-  </si>
-  <si>
-    <t>Mendapatkan Data Record LogDevice Person Access</t>
-  </si>
-  <si>
-    <t>Mendapatkan Data Record LogDevice Person Access Fetch</t>
   </si>
   <si>
     <t>transaction.read.dataRecord.sysConfig.getDBObject_User</t>
@@ -3012,6 +3006,42 @@
   </si>
   <si>
     <t>Membatalkan Penghapusan Data Log Upload Pointer History</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.dataAcquisition.setLog_FileUpload_Object</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.dataAcquisition.setLog_FileUpload_ObjectDetail</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.dataAcquisition.setLog_FileUpload_Pointer</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.dataAcquisition.setLog_FileUpload_PointerHistory</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log Device Person Access Fetch</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log Device Person Access</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log File Upload Object</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log File Upload Object Detail</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log Upload Pointer</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Log Upload Pointer History</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.master.getCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Kartu Keluarga Penduduk</t>
   </si>
 </sst>
 </file>
@@ -3911,13 +3941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L526"/>
+  <dimension ref="A1:L531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C397" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F415" sqref="F412:F415"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3959,7 +3989,7 @@
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="74" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F2" s="75"/>
       <c r="G2" s="35"/>
@@ -4006,7 +4036,7 @@
         <v>44148</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="28">
@@ -4033,7 +4063,7 @@
         <v>44148</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="29">
@@ -4060,7 +4090,7 @@
         <v>44148</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="29">
@@ -4113,7 +4143,7 @@
         <v>44148</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="29">
@@ -4166,7 +4196,7 @@
         <v>44148</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="29">
@@ -4193,7 +4223,7 @@
         <v>44180</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="29">
@@ -4220,7 +4250,7 @@
         <v>44230</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="29"/>
@@ -4257,17 +4287,17 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="29">
         <v>44403</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="29"/>
@@ -4291,17 +4321,17 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="29">
         <v>44400</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="29"/>
@@ -4312,17 +4342,17 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="29">
         <v>44398</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="29"/>
@@ -4333,17 +4363,17 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="29">
         <v>44398</v>
       </c>
       <c r="F21" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="29"/>
@@ -4354,17 +4384,17 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="29">
         <v>44399</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="29"/>
@@ -4411,7 +4441,7 @@
         <v>44209</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="29">
@@ -4438,7 +4468,7 @@
         <v>44208</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="29">
@@ -4478,7 +4508,7 @@
         <v>44321</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="29"/>
@@ -4512,7 +4542,7 @@
         <v>44231</v>
       </c>
       <c r="F30" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="29"/>
@@ -4533,7 +4563,7 @@
         <v>44231</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="29"/>
@@ -4554,7 +4584,7 @@
         <v>44229</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="29"/>
@@ -4591,17 +4621,17 @@
     <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="29">
         <v>44393</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="29"/>
@@ -4625,17 +4655,17 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="29">
         <v>44391</v>
       </c>
       <c r="F37" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G37" s="35"/>
       <c r="H37" s="29"/>
@@ -4646,17 +4676,17 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="29">
         <v>44391</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="29"/>
@@ -4667,17 +4697,17 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="29">
         <v>44391</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="29"/>
@@ -4688,17 +4718,17 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="29">
         <v>44392</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="29"/>
@@ -4709,17 +4739,17 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="29">
         <v>44385</v>
       </c>
       <c r="F41" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="29"/>
@@ -4730,17 +4760,17 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="29">
         <v>44392</v>
       </c>
       <c r="F42" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="29"/>
@@ -4751,17 +4781,17 @@
     <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="29">
         <v>44391</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="29"/>
@@ -4772,17 +4802,17 @@
     <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="29">
         <v>44391</v>
       </c>
       <c r="F44" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="29"/>
@@ -4793,17 +4823,17 @@
     <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="29">
         <v>44391</v>
       </c>
       <c r="F45" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="29"/>
@@ -4814,17 +4844,17 @@
     <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
       <c r="B46" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="29">
         <v>44391</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="29"/>
@@ -4835,17 +4865,17 @@
     <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="29">
         <v>44391</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="29"/>
@@ -4856,17 +4886,17 @@
     <row r="48" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D48" s="37"/>
       <c r="E48" s="29">
         <v>44393</v>
       </c>
       <c r="F48" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="29"/>
@@ -4877,17 +4907,17 @@
     <row r="49" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="29">
         <v>44393</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="29"/>
@@ -4898,17 +4928,17 @@
     <row r="50" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="29">
         <v>44393</v>
       </c>
       <c r="F50" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="29"/>
@@ -4921,17 +4951,17 @@
         <v>2</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="29">
         <v>44393</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="29"/>
@@ -4942,17 +4972,17 @@
     <row r="52" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="29">
         <v>44393</v>
       </c>
       <c r="F52" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="29"/>
@@ -4963,17 +4993,17 @@
     <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="29">
         <v>44393</v>
       </c>
       <c r="F53" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="29"/>
@@ -4984,17 +5014,17 @@
     <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="29">
         <v>44393</v>
       </c>
       <c r="F54" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G54" s="37"/>
       <c r="H54" s="29"/>
@@ -5005,17 +5035,17 @@
     <row r="55" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="29">
         <v>44393</v>
       </c>
       <c r="F55" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G55" s="37"/>
       <c r="H55" s="29"/>
@@ -5026,17 +5056,17 @@
     <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="29">
         <v>44393</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="29"/>
@@ -5060,17 +5090,17 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="29">
         <v>44384</v>
       </c>
       <c r="F58" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="29"/>
@@ -5117,7 +5147,7 @@
         <v>44222</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G61" s="35"/>
       <c r="H61" s="29"/>
@@ -5138,7 +5168,7 @@
         <v>44222</v>
       </c>
       <c r="F62" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G62" s="35"/>
       <c r="H62" s="29"/>
@@ -5159,7 +5189,7 @@
         <v>44222</v>
       </c>
       <c r="F63" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G63" s="35"/>
       <c r="H63" s="29"/>
@@ -5180,7 +5210,7 @@
         <v>44222</v>
       </c>
       <c r="F64" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G64" s="35"/>
       <c r="H64" s="29"/>
@@ -5201,7 +5231,7 @@
         <v>44222</v>
       </c>
       <c r="F65" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G65" s="35"/>
       <c r="H65" s="29"/>
@@ -5222,7 +5252,7 @@
         <v>44222</v>
       </c>
       <c r="F66" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G66" s="35"/>
       <c r="H66" s="29"/>
@@ -5243,7 +5273,7 @@
         <v>44222</v>
       </c>
       <c r="F67" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G67" s="35"/>
       <c r="H67" s="29"/>
@@ -5290,7 +5320,7 @@
         <v>44361</v>
       </c>
       <c r="F70" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G70" s="35"/>
       <c r="H70" s="29"/>
@@ -5311,7 +5341,7 @@
         <v>44362</v>
       </c>
       <c r="F71" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G71" s="35"/>
       <c r="H71" s="29"/>
@@ -5322,17 +5352,17 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="29">
         <v>44362</v>
       </c>
       <c r="F72" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G72" s="35"/>
       <c r="H72" s="29"/>
@@ -5343,17 +5373,17 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="29">
         <v>44365</v>
       </c>
       <c r="F73" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G73" s="35"/>
       <c r="H73" s="29"/>
@@ -5374,7 +5404,7 @@
         <v>44362</v>
       </c>
       <c r="F74" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="29"/>
@@ -5395,7 +5425,7 @@
         <v>44362</v>
       </c>
       <c r="F75" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G75" s="35"/>
       <c r="H75" s="29"/>
@@ -5429,7 +5459,7 @@
         <v>44250</v>
       </c>
       <c r="F77" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G77" s="35"/>
       <c r="H77" s="29"/>
@@ -5450,7 +5480,7 @@
         <v>44378</v>
       </c>
       <c r="F78" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G78" s="35"/>
       <c r="H78" s="29"/>
@@ -5471,7 +5501,7 @@
         <v>44250</v>
       </c>
       <c r="F79" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G79" s="35"/>
       <c r="H79" s="29"/>
@@ -5495,17 +5525,17 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>840</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>842</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="29">
         <v>44404</v>
       </c>
       <c r="F81" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G81" s="35"/>
       <c r="H81" s="29"/>
@@ -5516,17 +5546,17 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="29">
         <v>44404</v>
       </c>
       <c r="F82" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G82" s="35"/>
       <c r="H82" s="29"/>
@@ -5537,17 +5567,17 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="29">
         <v>44404</v>
       </c>
       <c r="F83" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G83" s="35"/>
       <c r="H83" s="29"/>
@@ -5558,17 +5588,17 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="29">
         <v>44406</v>
       </c>
       <c r="F84" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G84" s="35"/>
       <c r="H84" s="29"/>
@@ -5602,7 +5632,7 @@
         <v>44148</v>
       </c>
       <c r="F86" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G86" s="35"/>
       <c r="H86" s="29">
@@ -5619,17 +5649,17 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D87" s="35"/>
       <c r="E87" s="29">
         <v>44148</v>
       </c>
       <c r="F87" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G87" s="35"/>
       <c r="H87" s="29"/>
@@ -5647,10 +5677,10 @@
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F88" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G88" s="35"/>
       <c r="H88" s="29"/>
@@ -5668,10 +5698,10 @@
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F89" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G89" s="35"/>
       <c r="H89" s="29"/>
@@ -5692,7 +5722,7 @@
         <v>44172</v>
       </c>
       <c r="F90" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G90" s="35"/>
       <c r="H90" s="29">
@@ -5709,17 +5739,17 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="29">
         <v>44172</v>
       </c>
       <c r="F91" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G91" s="35"/>
       <c r="H91" s="29"/>
@@ -5730,17 +5760,17 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="29">
         <v>44404</v>
       </c>
       <c r="F92" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G92" s="35"/>
       <c r="H92" s="29"/>
@@ -5751,17 +5781,17 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="29">
         <v>44376</v>
       </c>
       <c r="F93" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G93" s="35"/>
       <c r="H93" s="29"/>
@@ -5772,17 +5802,17 @@
     <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
       <c r="B94" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="29">
         <v>44376</v>
       </c>
       <c r="F94" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="29"/>
@@ -5793,17 +5823,17 @@
     <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
       <c r="B95" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D95" s="37"/>
       <c r="E95" s="29">
         <v>44376</v>
       </c>
       <c r="F95" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="29"/>
@@ -5814,17 +5844,17 @@
     <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
       <c r="B96" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D96" s="37"/>
       <c r="E96" s="29">
         <v>44376</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G96" s="37"/>
       <c r="H96" s="29"/>
@@ -5835,17 +5865,17 @@
     <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
       <c r="B97" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D97" s="37"/>
       <c r="E97" s="29">
         <v>44376</v>
       </c>
       <c r="F97" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="29"/>
@@ -5856,17 +5886,17 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="29">
         <v>44376</v>
       </c>
       <c r="F98" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G98" s="35"/>
       <c r="H98" s="29"/>
@@ -5877,17 +5907,17 @@
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="29">
         <v>44405</v>
       </c>
       <c r="F99" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G99" s="37"/>
       <c r="H99" s="29"/>
@@ -5908,7 +5938,7 @@
         <v>44176</v>
       </c>
       <c r="F100" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G100" s="37"/>
       <c r="H100" s="29">
@@ -5935,7 +5965,7 @@
         <v>44176</v>
       </c>
       <c r="F101" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="29">
@@ -5962,7 +5992,7 @@
         <v>44173</v>
       </c>
       <c r="F102" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G102" s="37"/>
       <c r="H102" s="29">
@@ -5989,7 +6019,7 @@
         <v>44173</v>
       </c>
       <c r="F103" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G103" s="37"/>
       <c r="H103" s="29">
@@ -6016,7 +6046,7 @@
         <v>44245</v>
       </c>
       <c r="F104" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="29"/>
@@ -6037,7 +6067,7 @@
         <v>44245</v>
       </c>
       <c r="F105" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="29"/>
@@ -6058,7 +6088,7 @@
         <v>44245</v>
       </c>
       <c r="F106" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G106" s="35"/>
       <c r="H106" s="29"/>
@@ -6079,7 +6109,7 @@
         <v>44175</v>
       </c>
       <c r="F107" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G107" s="35"/>
       <c r="H107" s="29">
@@ -6106,7 +6136,7 @@
         <v>44175</v>
       </c>
       <c r="F108" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G108" s="35"/>
       <c r="H108" s="29">
@@ -6133,7 +6163,7 @@
         <v>44175</v>
       </c>
       <c r="F109" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G109" s="35"/>
       <c r="H109" s="29">
@@ -6160,7 +6190,7 @@
         <v>44175</v>
       </c>
       <c r="F110" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G110" s="35"/>
       <c r="H110" s="29">
@@ -6187,7 +6217,7 @@
         <v>44175</v>
       </c>
       <c r="F111" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G111" s="35"/>
       <c r="H111" s="29">
@@ -6214,7 +6244,7 @@
         <v>44175</v>
       </c>
       <c r="F112" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G112" s="35"/>
       <c r="H112" s="29">
@@ -6241,7 +6271,7 @@
         <v>44173</v>
       </c>
       <c r="F113" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G113" s="35"/>
       <c r="H113" s="29">
@@ -6268,7 +6298,7 @@
         <v>44173</v>
       </c>
       <c r="F114" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G114" s="35"/>
       <c r="H114" s="29">
@@ -6295,7 +6325,7 @@
         <v>44173</v>
       </c>
       <c r="F115" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G115" s="35"/>
       <c r="H115" s="29">
@@ -6325,17 +6355,17 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
         <v>44382</v>
       </c>
       <c r="F117" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G117" s="35"/>
       <c r="H117" s="29"/>
@@ -6346,17 +6376,17 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29">
         <v>44382</v>
       </c>
       <c r="F118" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G118" s="35"/>
       <c r="H118" s="29"/>
@@ -6367,17 +6397,17 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29">
         <v>44382</v>
       </c>
       <c r="F119" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G119" s="35"/>
       <c r="H119" s="29"/>
@@ -6388,17 +6418,17 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="29">
         <v>44382</v>
       </c>
       <c r="F120" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="29"/>
@@ -6422,17 +6452,17 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29">
         <v>44384</v>
       </c>
       <c r="F122" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G122" s="35"/>
       <c r="H122" s="29"/>
@@ -6443,17 +6473,17 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29">
         <v>44384</v>
       </c>
       <c r="F123" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G123" s="35"/>
       <c r="H123" s="29"/>
@@ -6464,17 +6494,17 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29">
         <v>44384</v>
       </c>
       <c r="F124" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G124" s="35"/>
       <c r="H124" s="29"/>
@@ -6521,7 +6551,7 @@
         <v>44160</v>
       </c>
       <c r="F127" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G127" s="35"/>
       <c r="H127" s="29"/>
@@ -6546,7 +6576,7 @@
         <v>44160</v>
       </c>
       <c r="F128" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G128" s="35"/>
       <c r="H128" s="29"/>
@@ -6571,7 +6601,7 @@
         <v>44160</v>
       </c>
       <c r="F129" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G129" s="35"/>
       <c r="H129" s="29"/>
@@ -6596,7 +6626,7 @@
         <v>44160</v>
       </c>
       <c r="F130" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G130" s="35"/>
       <c r="H130" s="29"/>
@@ -6621,7 +6651,7 @@
         <v>44160</v>
       </c>
       <c r="F131" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G131" s="35"/>
       <c r="H131" s="29"/>
@@ -6659,7 +6689,7 @@
         <v>44154</v>
       </c>
       <c r="F133" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="29">
@@ -6686,7 +6716,7 @@
         <v>44154</v>
       </c>
       <c r="F134" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G134" s="35"/>
       <c r="H134" s="29"/>
@@ -6711,7 +6741,7 @@
         <v>44154</v>
       </c>
       <c r="F135" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G135" s="35"/>
       <c r="H135" s="29"/>
@@ -6736,7 +6766,7 @@
         <v>44154</v>
       </c>
       <c r="F136" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G136" s="35"/>
       <c r="H136" s="29"/>
@@ -6761,7 +6791,7 @@
         <v>44154</v>
       </c>
       <c r="F137" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G137" s="35"/>
       <c r="H137" s="29"/>
@@ -6799,7 +6829,7 @@
         <v>44154</v>
       </c>
       <c r="F139" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G139" s="35"/>
       <c r="H139" s="29"/>
@@ -6820,7 +6850,7 @@
         <v>44362</v>
       </c>
       <c r="F140" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G140" s="35"/>
       <c r="H140" s="29"/>
@@ -6831,17 +6861,17 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
         <v>44378</v>
       </c>
       <c r="F141" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G141" s="35"/>
       <c r="H141" s="29"/>
@@ -6852,17 +6882,17 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="29">
         <v>44378</v>
       </c>
       <c r="F142" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="29"/>
@@ -6883,7 +6913,7 @@
         <v>44362</v>
       </c>
       <c r="F143" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G143" s="35"/>
       <c r="H143" s="29"/>
@@ -6904,7 +6934,7 @@
         <v>44362</v>
       </c>
       <c r="F144" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G144" s="35"/>
       <c r="H144" s="29"/>
@@ -6925,7 +6955,7 @@
         <v>44154</v>
       </c>
       <c r="F145" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G145" s="35"/>
       <c r="H145" s="29"/>
@@ -6956,14 +6986,14 @@
         <v>202</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
         <v>44148</v>
       </c>
       <c r="F147" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G147" s="35"/>
       <c r="H147" s="29"/>
@@ -6978,17 +7008,17 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
         <v>44378</v>
       </c>
       <c r="F148" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G148" s="35"/>
       <c r="H148" s="29"/>
@@ -6999,17 +7029,17 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
         <v>44378</v>
       </c>
       <c r="F149" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G149" s="35"/>
       <c r="H149" s="29"/>
@@ -7033,17 +7063,17 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="29">
         <v>44378</v>
       </c>
       <c r="F151" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G151" s="35"/>
       <c r="H151" s="29"/>
@@ -7058,17 +7088,17 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
         <v>44378</v>
       </c>
       <c r="F152" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G152" s="35"/>
       <c r="H152" s="29"/>
@@ -7083,17 +7113,17 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
         <v>44406</v>
       </c>
       <c r="F153" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G153" s="35"/>
       <c r="H153" s="29"/>
@@ -7104,17 +7134,17 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D154" s="35"/>
       <c r="E154" s="29">
         <v>44406</v>
       </c>
       <c r="F154" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G154" s="35"/>
       <c r="H154" s="29"/>
@@ -7125,17 +7155,17 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D155" s="35"/>
       <c r="E155" s="29">
         <v>44406</v>
       </c>
       <c r="F155" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G155" s="35"/>
       <c r="H155" s="29"/>
@@ -7146,17 +7176,17 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
         <v>44406</v>
       </c>
       <c r="F156" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G156" s="35"/>
       <c r="H156" s="29"/>
@@ -7190,7 +7220,7 @@
         <v>44154</v>
       </c>
       <c r="F158" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G158" s="35"/>
       <c r="H158" s="29"/>
@@ -7215,7 +7245,7 @@
         <v>44154</v>
       </c>
       <c r="F159" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G159" s="35"/>
       <c r="H159" s="29"/>
@@ -7253,7 +7283,7 @@
         <v>44158</v>
       </c>
       <c r="F161" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="29"/>
@@ -7291,7 +7321,7 @@
         <v>44158</v>
       </c>
       <c r="F163" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="29"/>
@@ -7316,7 +7346,7 @@
         <v>44158</v>
       </c>
       <c r="F164" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G164" s="35"/>
       <c r="H164" s="29"/>
@@ -7341,7 +7371,7 @@
         <v>44158</v>
       </c>
       <c r="F165" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="29"/>
@@ -7366,7 +7396,7 @@
         <v>44158</v>
       </c>
       <c r="F166" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G166" s="35"/>
       <c r="H166" s="29"/>
@@ -7391,7 +7421,7 @@
         <v>44158</v>
       </c>
       <c r="F167" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G167" s="35"/>
       <c r="H167" s="29"/>
@@ -7416,7 +7446,7 @@
         <v>44158</v>
       </c>
       <c r="F168" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G168" s="35"/>
       <c r="H168" s="29"/>
@@ -7441,7 +7471,7 @@
         <v>44158</v>
       </c>
       <c r="F169" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G169" s="35"/>
       <c r="H169" s="29"/>
@@ -7466,7 +7496,7 @@
         <v>44158</v>
       </c>
       <c r="F170" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G170" s="35"/>
       <c r="H170" s="29"/>
@@ -7491,7 +7521,7 @@
         <v>44158</v>
       </c>
       <c r="F171" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G171" s="35"/>
       <c r="H171" s="29"/>
@@ -7516,7 +7546,7 @@
         <v>44158</v>
       </c>
       <c r="F172" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G172" s="35"/>
       <c r="H172" s="29"/>
@@ -7541,7 +7571,7 @@
         <v>44158</v>
       </c>
       <c r="F173" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G173" s="35"/>
       <c r="H173" s="29"/>
@@ -7566,7 +7596,7 @@
         <v>44158</v>
       </c>
       <c r="F174" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G174" s="35"/>
       <c r="H174" s="29"/>
@@ -7591,7 +7621,7 @@
         <v>44158</v>
       </c>
       <c r="F175" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G175" s="35"/>
       <c r="H175" s="29"/>
@@ -7616,7 +7646,7 @@
         <v>44158</v>
       </c>
       <c r="F176" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G176" s="35"/>
       <c r="H176" s="29"/>
@@ -7641,7 +7671,7 @@
         <v>44158</v>
       </c>
       <c r="F177" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G177" s="35"/>
       <c r="H177" s="29"/>
@@ -7666,7 +7696,7 @@
         <v>44158</v>
       </c>
       <c r="F178" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G178" s="35"/>
       <c r="H178" s="29"/>
@@ -7691,7 +7721,7 @@
         <v>44158</v>
       </c>
       <c r="F179" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G179" s="35"/>
       <c r="H179" s="29"/>
@@ -7716,7 +7746,7 @@
         <v>44158</v>
       </c>
       <c r="F180" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="29"/>
@@ -7741,7 +7771,7 @@
         <v>44158</v>
       </c>
       <c r="F181" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="29"/>
@@ -7779,7 +7809,7 @@
         <v>44148</v>
       </c>
       <c r="F183" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G183" s="35"/>
       <c r="H183" s="29"/>
@@ -7804,7 +7834,7 @@
         <v>44148</v>
       </c>
       <c r="F184" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G184" s="35"/>
       <c r="H184" s="29"/>
@@ -7829,7 +7859,7 @@
         <v>44165</v>
       </c>
       <c r="F185" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G185" s="35"/>
       <c r="H185" s="29"/>
@@ -7854,7 +7884,7 @@
         <v>44165</v>
       </c>
       <c r="F186" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G186" s="35"/>
       <c r="H186" s="29"/>
@@ -7879,7 +7909,7 @@
         <v>44148</v>
       </c>
       <c r="F187" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G187" s="35"/>
       <c r="H187" s="29"/>
@@ -7904,7 +7934,7 @@
         <v>44148</v>
       </c>
       <c r="F188" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G188" s="35"/>
       <c r="H188" s="29"/>
@@ -7929,7 +7959,7 @@
         <v>44152</v>
       </c>
       <c r="F189" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G189" s="35"/>
       <c r="H189" s="29"/>
@@ -7954,7 +7984,7 @@
         <v>44152</v>
       </c>
       <c r="F190" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G190" s="35"/>
       <c r="H190" s="29"/>
@@ -7979,7 +8009,7 @@
         <v>44148</v>
       </c>
       <c r="F191" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G191" s="35"/>
       <c r="H191" s="29"/>
@@ -8004,7 +8034,7 @@
         <v>44152</v>
       </c>
       <c r="F192" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G192" s="35"/>
       <c r="H192" s="29"/>
@@ -8029,7 +8059,7 @@
         <v>44148</v>
       </c>
       <c r="F193" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G193" s="35"/>
       <c r="H193" s="29"/>
@@ -8054,7 +8084,7 @@
         <v>44148</v>
       </c>
       <c r="F194" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G194" s="35"/>
       <c r="H194" s="29"/>
@@ -8079,7 +8109,7 @@
         <v>44148</v>
       </c>
       <c r="F195" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G195" s="35"/>
       <c r="H195" s="29"/>
@@ -8104,7 +8134,7 @@
         <v>44148</v>
       </c>
       <c r="F196" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G196" s="35"/>
       <c r="H196" s="29"/>
@@ -8129,7 +8159,7 @@
         <v>44148</v>
       </c>
       <c r="F197" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G197" s="35"/>
       <c r="H197" s="29"/>
@@ -8154,7 +8184,7 @@
         <v>44148</v>
       </c>
       <c r="F198" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G198" s="35"/>
       <c r="H198" s="29"/>
@@ -8179,7 +8209,7 @@
         <v>44152</v>
       </c>
       <c r="F199" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G199" s="35"/>
       <c r="H199" s="29"/>
@@ -8204,7 +8234,7 @@
         <v>44152</v>
       </c>
       <c r="F200" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G200" s="35"/>
       <c r="H200" s="29"/>
@@ -8219,17 +8249,17 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
         <v>44406</v>
       </c>
       <c r="F201" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G201" s="35"/>
       <c r="H201" s="29"/>
@@ -8254,7 +8284,7 @@
         <v>44152</v>
       </c>
       <c r="F202" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G202" s="35"/>
       <c r="H202" s="29"/>
@@ -8279,7 +8309,7 @@
         <v>44152</v>
       </c>
       <c r="F203" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G203" s="35"/>
       <c r="H203" s="29"/>
@@ -8304,7 +8334,7 @@
         <v>44152</v>
       </c>
       <c r="F204" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G204" s="35"/>
       <c r="H204" s="29"/>
@@ -8329,7 +8359,7 @@
         <v>44152</v>
       </c>
       <c r="F205" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G205" s="35"/>
       <c r="H205" s="29"/>
@@ -8354,7 +8384,7 @@
         <v>44152</v>
       </c>
       <c r="F206" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G206" s="35"/>
       <c r="H206" s="29"/>
@@ -8379,7 +8409,7 @@
         <v>44152</v>
       </c>
       <c r="F207" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G207" s="35"/>
       <c r="H207" s="29"/>
@@ -8404,7 +8434,7 @@
         <v>44152</v>
       </c>
       <c r="F208" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G208" s="35"/>
       <c r="H208" s="29"/>
@@ -8429,7 +8459,7 @@
         <v>44152</v>
       </c>
       <c r="F209" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G209" s="35"/>
       <c r="H209" s="29"/>
@@ -8454,7 +8484,7 @@
         <v>44153</v>
       </c>
       <c r="F210" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G210" s="35"/>
       <c r="H210" s="29"/>
@@ -8479,7 +8509,7 @@
         <v>44153</v>
       </c>
       <c r="F211" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G211" s="35"/>
       <c r="H211" s="29"/>
@@ -8504,7 +8534,7 @@
         <v>44153</v>
       </c>
       <c r="F212" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G212" s="35"/>
       <c r="H212" s="29"/>
@@ -8529,7 +8559,7 @@
         <v>44153</v>
       </c>
       <c r="F213" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G213" s="35"/>
       <c r="H213" s="29"/>
@@ -8554,7 +8584,7 @@
         <v>44153</v>
       </c>
       <c r="F214" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G214" s="35"/>
       <c r="H214" s="29"/>
@@ -8579,7 +8609,7 @@
         <v>44153</v>
       </c>
       <c r="F215" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G215" s="35"/>
       <c r="H215" s="29"/>
@@ -8604,7 +8634,7 @@
         <v>44153</v>
       </c>
       <c r="F216" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G216" s="35"/>
       <c r="H216" s="29"/>
@@ -8629,7 +8659,7 @@
         <v>44153</v>
       </c>
       <c r="F217" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G217" s="35"/>
       <c r="H217" s="29"/>
@@ -8654,7 +8684,7 @@
         <v>44153</v>
       </c>
       <c r="F218" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G218" s="35"/>
       <c r="H218" s="29"/>
@@ -8679,7 +8709,7 @@
         <v>44153</v>
       </c>
       <c r="F219" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G219" s="35"/>
       <c r="H219" s="29"/>
@@ -8717,7 +8747,7 @@
         <v>44153</v>
       </c>
       <c r="F221" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G221" s="35"/>
       <c r="H221" s="29"/>
@@ -8742,7 +8772,7 @@
         <v>44153</v>
       </c>
       <c r="F222" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G222" s="35"/>
       <c r="H222" s="29"/>
@@ -8757,17 +8787,17 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29">
         <v>44384</v>
       </c>
       <c r="F223" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G223" s="35"/>
       <c r="H223" s="29"/>
@@ -8805,7 +8835,7 @@
         <v>44160</v>
       </c>
       <c r="F225" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G225" s="35"/>
       <c r="H225" s="29"/>
@@ -8830,7 +8860,7 @@
         <v>44160</v>
       </c>
       <c r="F226" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G226" s="35"/>
       <c r="H226" s="29"/>
@@ -8855,7 +8885,7 @@
         <v>44160</v>
       </c>
       <c r="F227" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G227" s="35"/>
       <c r="H227" s="29"/>
@@ -8880,7 +8910,7 @@
         <v>44160</v>
       </c>
       <c r="F228" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G228" s="35"/>
       <c r="H228" s="29"/>
@@ -8905,7 +8935,7 @@
         <v>44160</v>
       </c>
       <c r="F229" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G229" s="35"/>
       <c r="H229" s="29"/>
@@ -8946,17 +8976,17 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
       <c r="B232" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D232" s="35"/>
       <c r="E232" s="29">
         <v>44405</v>
       </c>
       <c r="F232" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G232" s="35"/>
       <c r="H232" s="29"/>
@@ -8967,17 +8997,17 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>854</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
         <v>44405</v>
       </c>
       <c r="F233" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G233" s="35"/>
       <c r="H233" s="29"/>
@@ -8988,17 +9018,17 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>853</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
         <v>44405</v>
       </c>
       <c r="F234" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G234" s="35"/>
       <c r="H234" s="29"/>
@@ -9032,7 +9062,7 @@
         <v>44148</v>
       </c>
       <c r="F236" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G236" s="35"/>
       <c r="H236" s="29">
@@ -9059,7 +9089,7 @@
         <v>44148</v>
       </c>
       <c r="F237" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G237" s="35"/>
       <c r="H237" s="29">
@@ -9086,7 +9116,7 @@
         <v>44148</v>
       </c>
       <c r="F238" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G238" s="35"/>
       <c r="H238" s="29">
@@ -9113,7 +9143,7 @@
         <v>44148</v>
       </c>
       <c r="F239" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G239" s="35"/>
       <c r="H239" s="29">
@@ -9140,7 +9170,7 @@
         <v>44148</v>
       </c>
       <c r="F240" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G240" s="35"/>
       <c r="H240" s="29">
@@ -9167,7 +9197,7 @@
         <v>44148</v>
       </c>
       <c r="F241" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G241" s="35"/>
       <c r="H241" s="29">
@@ -9194,7 +9224,7 @@
         <v>44148</v>
       </c>
       <c r="F242" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G242" s="35"/>
       <c r="H242" s="29">
@@ -9221,7 +9251,7 @@
         <v>44148</v>
       </c>
       <c r="F243" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G243" s="35"/>
       <c r="H243" s="29">
@@ -9248,7 +9278,7 @@
         <v>44148</v>
       </c>
       <c r="F244" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G244" s="35"/>
       <c r="H244" s="29">
@@ -9275,7 +9305,7 @@
         <v>44148</v>
       </c>
       <c r="F245" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G245" s="35"/>
       <c r="H245" s="29">
@@ -9302,7 +9332,7 @@
         <v>44148</v>
       </c>
       <c r="F246" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G246" s="35"/>
       <c r="H246" s="29">
@@ -9329,7 +9359,7 @@
         <v>44148</v>
       </c>
       <c r="F247" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G247" s="35"/>
       <c r="H247" s="29">
@@ -9356,7 +9386,7 @@
         <v>44148</v>
       </c>
       <c r="F248" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G248" s="35"/>
       <c r="H248" s="29">
@@ -9383,7 +9413,7 @@
         <v>44148</v>
       </c>
       <c r="F249" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G249" s="35"/>
       <c r="H249" s="29">
@@ -9410,7 +9440,7 @@
         <v>44148</v>
       </c>
       <c r="F250" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G250" s="35"/>
       <c r="H250" s="29">
@@ -9437,7 +9467,7 @@
         <v>44148</v>
       </c>
       <c r="F251" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G251" s="35"/>
       <c r="H251" s="29">
@@ -9464,7 +9494,7 @@
         <v>44148</v>
       </c>
       <c r="F252" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G252" s="35"/>
       <c r="H252" s="29">
@@ -9491,7 +9521,7 @@
         <v>44148</v>
       </c>
       <c r="F253" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G253" s="35"/>
       <c r="H253" s="29">
@@ -9518,7 +9548,7 @@
         <v>44148</v>
       </c>
       <c r="F254" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G254" s="35"/>
       <c r="H254" s="29">
@@ -9545,7 +9575,7 @@
         <v>44148</v>
       </c>
       <c r="F255" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G255" s="35"/>
       <c r="H255" s="29">
@@ -9575,17 +9605,17 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29">
         <v>44405</v>
       </c>
       <c r="F257" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G257" s="35"/>
       <c r="H257" s="29"/>
@@ -9596,17 +9626,17 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29">
         <v>44405</v>
       </c>
       <c r="F258" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G258" s="35"/>
       <c r="H258" s="29"/>
@@ -9643,10 +9673,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="29"/>
@@ -9660,10 +9690,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29"/>
@@ -9677,10 +9707,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
       <c r="B263" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="D263" s="35"/>
       <c r="E263" s="29"/>
@@ -9694,10 +9724,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
       <c r="B264" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D264" s="35"/>
       <c r="E264" s="29"/>
@@ -9711,17 +9741,17 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
         <v>44400</v>
       </c>
       <c r="F265" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G265" s="35"/>
       <c r="H265" s="29"/>
@@ -9755,7 +9785,7 @@
         <v>44243</v>
       </c>
       <c r="F267" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G267" s="35"/>
       <c r="H267" s="29"/>
@@ -9776,7 +9806,7 @@
         <v>44349</v>
       </c>
       <c r="F268" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G268" s="35"/>
       <c r="H268" s="29"/>
@@ -9797,7 +9827,7 @@
         <v>44364</v>
       </c>
       <c r="F269" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G269" s="35"/>
       <c r="H269" s="29"/>
@@ -9818,7 +9848,7 @@
         <v>44364</v>
       </c>
       <c r="F270" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G270" s="35"/>
       <c r="H270" s="29"/>
@@ -9839,7 +9869,7 @@
         <v>44243</v>
       </c>
       <c r="F271" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G271" s="35"/>
       <c r="H271" s="29"/>
@@ -9860,7 +9890,7 @@
         <v>44362</v>
       </c>
       <c r="F272" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G272" s="35"/>
       <c r="H272" s="29"/>
@@ -9894,7 +9924,7 @@
         <v>44243</v>
       </c>
       <c r="F274" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G274" s="35"/>
       <c r="H274" s="29"/>
@@ -9915,7 +9945,7 @@
         <v>44343</v>
       </c>
       <c r="F275" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G275" s="35"/>
       <c r="H275" s="29"/>
@@ -9949,7 +9979,7 @@
         <v>44148</v>
       </c>
       <c r="F277" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G277" s="35"/>
       <c r="H277" s="29"/>
@@ -9974,7 +10004,7 @@
         <v>44148</v>
       </c>
       <c r="F278" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G278" s="35"/>
       <c r="H278" s="29"/>
@@ -9999,7 +10029,7 @@
         <v>44148</v>
       </c>
       <c r="F279" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G279" s="35"/>
       <c r="H279" s="29"/>
@@ -10014,17 +10044,17 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
       <c r="B280" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D280" s="35"/>
       <c r="E280" s="29">
         <v>44383</v>
       </c>
       <c r="F280" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G280" s="35"/>
       <c r="H280" s="29"/>
@@ -10049,7 +10079,7 @@
         <v>44148</v>
       </c>
       <c r="F281" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G281" s="35"/>
       <c r="H281" s="29"/>
@@ -10074,7 +10104,7 @@
         <v>44148</v>
       </c>
       <c r="F282" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G282" s="35"/>
       <c r="H282" s="29"/>
@@ -10099,7 +10129,7 @@
         <v>44148</v>
       </c>
       <c r="F283" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G283" s="35"/>
       <c r="H283" s="29"/>
@@ -10124,7 +10154,7 @@
         <v>44148</v>
       </c>
       <c r="F284" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G284" s="35"/>
       <c r="H284" s="29"/>
@@ -10149,7 +10179,7 @@
         <v>44148</v>
       </c>
       <c r="F285" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G285" s="35"/>
       <c r="H285" s="29"/>
@@ -10174,7 +10204,7 @@
         <v>44148</v>
       </c>
       <c r="F286" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G286" s="35"/>
       <c r="H286" s="29"/>
@@ -10199,7 +10229,7 @@
         <v>44148</v>
       </c>
       <c r="F287" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G287" s="35"/>
       <c r="H287" s="29"/>
@@ -10224,7 +10254,7 @@
         <v>44148</v>
       </c>
       <c r="F288" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G288" s="35"/>
       <c r="H288" s="29"/>
@@ -10249,7 +10279,7 @@
         <v>44148</v>
       </c>
       <c r="F289" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G289" s="35"/>
       <c r="H289" s="29"/>
@@ -10274,7 +10304,7 @@
         <v>44148</v>
       </c>
       <c r="F290" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G290" s="35"/>
       <c r="H290" s="29"/>
@@ -10299,7 +10329,7 @@
         <v>44148</v>
       </c>
       <c r="F291" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G291" s="35"/>
       <c r="H291" s="29"/>
@@ -10324,7 +10354,7 @@
         <v>44148</v>
       </c>
       <c r="F292" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G292" s="35"/>
       <c r="H292" s="29"/>
@@ -10349,7 +10379,7 @@
         <v>44148</v>
       </c>
       <c r="F293" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G293" s="35"/>
       <c r="H293" s="29"/>
@@ -10374,7 +10404,7 @@
         <v>44148</v>
       </c>
       <c r="F294" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G294" s="35"/>
       <c r="H294" s="29"/>
@@ -10399,7 +10429,7 @@
         <v>44148</v>
       </c>
       <c r="F295" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G295" s="35"/>
       <c r="H295" s="29"/>
@@ -10424,7 +10454,7 @@
         <v>44148</v>
       </c>
       <c r="F296" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G296" s="35"/>
       <c r="H296" s="29"/>
@@ -10462,7 +10492,7 @@
         <v>44343</v>
       </c>
       <c r="F298" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G298" s="35"/>
       <c r="H298" s="29"/>
@@ -10483,7 +10513,7 @@
         <v>43978</v>
       </c>
       <c r="F299" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G299" s="35"/>
       <c r="H299" s="29"/>
@@ -10517,7 +10547,7 @@
         <v>43978</v>
       </c>
       <c r="F301" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G301" s="35"/>
       <c r="H301" s="29"/>
@@ -10538,7 +10568,7 @@
         <v>44148</v>
       </c>
       <c r="F302" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G302" s="35"/>
       <c r="H302" s="29"/>
@@ -10575,17 +10605,17 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
       <c r="B305" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="D305" s="35"/>
       <c r="E305" s="29">
         <v>44372</v>
       </c>
       <c r="F305" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G305" s="35"/>
       <c r="H305" s="29"/>
@@ -10596,17 +10626,17 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
         <v>44372</v>
       </c>
       <c r="F306" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G306" s="35"/>
       <c r="H306" s="29"/>
@@ -10617,17 +10647,17 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
       <c r="B307" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D307" s="35"/>
       <c r="E307" s="29">
         <v>44372</v>
       </c>
       <c r="F307" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G307" s="35"/>
       <c r="H307" s="29"/>
@@ -10661,7 +10691,7 @@
         <v>44371</v>
       </c>
       <c r="F309" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G309" s="35"/>
       <c r="H309" s="29"/>
@@ -10682,7 +10712,7 @@
         <v>44371</v>
       </c>
       <c r="F310" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G310" s="35"/>
       <c r="H310" s="29"/>
@@ -10703,7 +10733,7 @@
         <v>44371</v>
       </c>
       <c r="F311" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G311" s="35"/>
       <c r="H311" s="29"/>
@@ -10724,7 +10754,7 @@
         <v>44371</v>
       </c>
       <c r="F312" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G312" s="35"/>
       <c r="H312" s="29"/>
@@ -10745,7 +10775,7 @@
         <v>44371</v>
       </c>
       <c r="F313" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G313" s="35"/>
       <c r="H313" s="29"/>
@@ -10766,7 +10796,7 @@
         <v>44371</v>
       </c>
       <c r="F314" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G314" s="35"/>
       <c r="H314" s="29"/>
@@ -10800,7 +10830,7 @@
         <v>44371</v>
       </c>
       <c r="F316" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G316" s="35"/>
       <c r="H316" s="29"/>
@@ -10821,7 +10851,7 @@
         <v>44371</v>
       </c>
       <c r="F317" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G317" s="35"/>
       <c r="H317" s="29"/>
@@ -10848,14 +10878,14 @@
         <v>559</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>560</v>
+        <v>891</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
         <v>44372</v>
       </c>
       <c r="F319" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G319" s="35"/>
       <c r="H319" s="29"/>
@@ -10869,14 +10899,14 @@
         <v>558</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>561</v>
+        <v>890</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
         <v>44372</v>
       </c>
       <c r="F320" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G320" s="35"/>
       <c r="H320" s="29"/>
@@ -10884,83 +10914,83 @@
       <c r="J320" s="20"/>
       <c r="K320" s="35"/>
     </row>
-    <row r="321" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
-      <c r="B321" s="11"/>
-      <c r="C321" s="12"/>
+      <c r="B321" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>892</v>
+      </c>
       <c r="D321" s="35"/>
-      <c r="E321" s="32"/>
-      <c r="F321" s="60"/>
+      <c r="E321" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F321" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G321" s="35"/>
-      <c r="H321" s="32"/>
-      <c r="I321" s="23"/>
-      <c r="J321" s="24"/>
+      <c r="H321" s="29"/>
+      <c r="I321" s="19"/>
+      <c r="J321" s="20"/>
       <c r="K321" s="35"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
       <c r="B322" s="7" t="s">
-        <v>511</v>
+        <v>887</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>602</v>
+        <v>893</v>
       </c>
       <c r="D322" s="35"/>
       <c r="E322" s="29">
-        <v>44371</v>
+        <v>44406</v>
       </c>
       <c r="F322" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G322" s="35"/>
       <c r="H322" s="29"/>
-      <c r="I322" s="19">
-        <v>1</v>
-      </c>
-      <c r="J322" s="20">
-        <v>0</v>
-      </c>
+      <c r="I322" s="19"/>
+      <c r="J322" s="20"/>
       <c r="K322" s="35"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
       <c r="B323" s="7" t="s">
-        <v>512</v>
+        <v>888</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>598</v>
+        <v>894</v>
       </c>
       <c r="D323" s="35"/>
       <c r="E323" s="29">
-        <v>44371</v>
+        <v>44406</v>
       </c>
       <c r="F323" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G323" s="35"/>
       <c r="H323" s="29"/>
-      <c r="I323" s="19">
-        <v>1</v>
-      </c>
-      <c r="J323" s="20">
-        <v>0</v>
-      </c>
+      <c r="I323" s="19"/>
+      <c r="J323" s="20"/>
       <c r="K323" s="35"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>596</v>
+        <v>889</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>599</v>
+        <v>895</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
-        <v>44378</v>
+        <v>44406</v>
       </c>
       <c r="F324" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G324" s="35"/>
       <c r="H324" s="29"/>
@@ -10968,41 +10998,33 @@
       <c r="J324" s="20"/>
       <c r="K324" s="35"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
-      <c r="B325" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B325" s="11"/>
+      <c r="C325" s="12"/>
       <c r="D325" s="35"/>
-      <c r="E325" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F325" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E325" s="32"/>
+      <c r="F325" s="60"/>
       <c r="G325" s="35"/>
-      <c r="H325" s="29"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
+      <c r="H325" s="32"/>
+      <c r="I325" s="23"/>
+      <c r="J325" s="24"/>
       <c r="K325" s="35"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
       <c r="B326" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D326" s="35"/>
       <c r="E326" s="29">
         <v>44371</v>
       </c>
       <c r="F326" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G326" s="35"/>
       <c r="H326" s="29"/>
@@ -11017,17 +11039,17 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F327" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G327" s="35"/>
       <c r="H327" s="29"/>
@@ -11042,67 +11064,59 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F328" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G328" s="35"/>
       <c r="H328" s="29"/>
-      <c r="I328" s="19">
-        <v>1</v>
-      </c>
-      <c r="J328" s="20">
-        <v>0</v>
-      </c>
+      <c r="I328" s="19"/>
+      <c r="J328" s="20"/>
       <c r="K328" s="35"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F329" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G329" s="35"/>
       <c r="H329" s="29"/>
-      <c r="I329" s="19">
-        <v>1</v>
-      </c>
-      <c r="J329" s="20">
-        <v>0</v>
-      </c>
+      <c r="I329" s="19"/>
+      <c r="J329" s="20"/>
       <c r="K329" s="35"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
         <v>44371</v>
       </c>
       <c r="F330" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G330" s="35"/>
       <c r="H330" s="29"/>
@@ -11117,17 +11131,17 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F331" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G331" s="35"/>
       <c r="H331" s="29"/>
@@ -11142,17 +11156,17 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
       <c r="B332" s="7" t="s">
-        <v>518</v>
+        <v>896</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>609</v>
+        <v>897</v>
       </c>
       <c r="D332" s="35"/>
       <c r="E332" s="29">
-        <v>44371</v>
+        <v>44406</v>
       </c>
       <c r="F332" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G332" s="35"/>
       <c r="H332" s="29"/>
@@ -11167,17 +11181,17 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
       <c r="B333" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D333" s="35"/>
       <c r="E333" s="29">
         <v>44371</v>
       </c>
       <c r="F333" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G333" s="35"/>
       <c r="H333" s="29"/>
@@ -11192,17 +11206,17 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F334" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G334" s="35"/>
       <c r="H334" s="29"/>
@@ -11217,17 +11231,17 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>733</v>
+        <v>516</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>735</v>
+        <v>605</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F335" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="29"/>
@@ -11242,17 +11256,17 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>734</v>
+        <v>517</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>736</v>
+        <v>606</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F336" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G336" s="35"/>
       <c r="H336" s="29"/>
@@ -11267,101 +11281,117 @@
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>739</v>
+        <v>518</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>863</v>
+        <v>607</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F337" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
+      <c r="I337" s="19">
+        <v>1</v>
+      </c>
+      <c r="J337" s="20">
+        <v>0</v>
+      </c>
       <c r="K337" s="35"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>862</v>
+        <v>519</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>864</v>
+        <v>608</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
-        <v>44406</v>
+        <v>44371</v>
       </c>
       <c r="F338" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G338" s="35"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
+      <c r="I338" s="19">
+        <v>1</v>
+      </c>
+      <c r="J338" s="20">
+        <v>0</v>
+      </c>
       <c r="K338" s="35"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
       <c r="B339" s="7" t="s">
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>865</v>
+        <v>609</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F339" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G339" s="35"/>
       <c r="H339" s="29"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
+      <c r="I339" s="19">
+        <v>1</v>
+      </c>
+      <c r="J339" s="20">
+        <v>0</v>
+      </c>
       <c r="K339" s="35"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
         <v>44383</v>
       </c>
       <c r="F340" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
+      <c r="I340" s="19">
+        <v>1</v>
+      </c>
+      <c r="J340" s="20">
+        <v>0</v>
+      </c>
       <c r="K340" s="35"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>521</v>
+        <v>732</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>612</v>
+        <v>734</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F341" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="29"/>
@@ -11376,42 +11406,38 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>726</v>
+        <v>861</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
         <v>44383</v>
       </c>
       <c r="F342" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G342" s="35"/>
       <c r="H342" s="29"/>
-      <c r="I342" s="19">
-        <v>1</v>
-      </c>
-      <c r="J342" s="20">
-        <v>0</v>
-      </c>
+      <c r="I342" s="19"/>
+      <c r="J342" s="20"/>
       <c r="K342" s="35"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>727</v>
+        <v>860</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>728</v>
+        <v>862</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44383</v>
+        <v>44406</v>
       </c>
       <c r="F343" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G343" s="35"/>
       <c r="H343" s="29"/>
@@ -11422,17 +11448,17 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>731</v>
+        <v>863</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
         <v>44383</v>
       </c>
       <c r="F344" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G344" s="35"/>
       <c r="H344" s="29"/>
@@ -11443,17 +11469,17 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
         <v>44383</v>
       </c>
       <c r="F345" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G345" s="35"/>
       <c r="H345" s="29"/>
@@ -11464,17 +11490,17 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
         <v>44371</v>
       </c>
       <c r="F346" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="29"/>
@@ -11489,17 +11515,17 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>523</v>
+        <v>723</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F347" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G347" s="35"/>
       <c r="H347" s="29"/>
@@ -11514,92 +11540,80 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>524</v>
+        <v>725</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>615</v>
+        <v>726</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F348" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G348" s="35"/>
       <c r="H348" s="29"/>
-      <c r="I348" s="19">
-        <v>1</v>
-      </c>
-      <c r="J348" s="20">
-        <v>0</v>
-      </c>
+      <c r="I348" s="19"/>
+      <c r="J348" s="20"/>
       <c r="K348" s="35"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="7" t="s">
-        <v>525</v>
+        <v>727</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F349" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G349" s="35"/>
       <c r="H349" s="29"/>
-      <c r="I349" s="19">
-        <v>1</v>
-      </c>
-      <c r="J349" s="20">
-        <v>0</v>
-      </c>
+      <c r="I349" s="19"/>
+      <c r="J349" s="20"/>
       <c r="K349" s="35"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
       <c r="B350" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>617</v>
+        <v>728</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>730</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
-        <v>44370</v>
+        <v>44383</v>
       </c>
       <c r="F350" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G350" s="35"/>
       <c r="H350" s="29"/>
-      <c r="I350" s="19">
-        <v>1</v>
-      </c>
-      <c r="J350" s="20">
-        <v>0</v>
-      </c>
+      <c r="I350" s="19"/>
+      <c r="J350" s="20"/>
       <c r="K350" s="35"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F351" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="29"/>
@@ -11614,17 +11628,17 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="F352" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G352" s="35"/>
       <c r="H352" s="29"/>
@@ -11636,20 +11650,20 @@
       </c>
       <c r="K352" s="35"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="F353" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G353" s="35"/>
       <c r="H353" s="29"/>
@@ -11661,104 +11675,132 @@
       </c>
       <c r="K353" s="35"/>
     </row>
-    <row r="354" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12"/>
+      <c r="B354" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="D354" s="35"/>
-      <c r="E354" s="32"/>
-      <c r="F354" s="60"/>
+      <c r="E354" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F354" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G354" s="35"/>
-      <c r="H354" s="32"/>
-      <c r="I354" s="23"/>
-      <c r="J354" s="24"/>
+      <c r="H354" s="29"/>
+      <c r="I354" s="19">
+        <v>1</v>
+      </c>
+      <c r="J354" s="20">
+        <v>0</v>
+      </c>
       <c r="K354" s="35"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
       <c r="B355" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>746</v>
+        <v>526</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="D355" s="35"/>
       <c r="E355" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F355" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G355" s="35"/>
       <c r="H355" s="29"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
+      <c r="I355" s="19">
+        <v>1</v>
+      </c>
+      <c r="J355" s="20">
+        <v>0</v>
+      </c>
       <c r="K355" s="35"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>744</v>
+        <v>527</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>745</v>
+        <v>616</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
-        <v>44383</v>
+        <v>44370</v>
       </c>
       <c r="F356" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="29"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
+      <c r="I356" s="19">
+        <v>1</v>
+      </c>
+      <c r="J356" s="20">
+        <v>0</v>
+      </c>
       <c r="K356" s="35"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
-        <v>44372</v>
+        <v>44370</v>
       </c>
       <c r="F357" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
+      <c r="I357" s="19">
+        <v>1</v>
+      </c>
+      <c r="J357" s="20">
+        <v>0</v>
+      </c>
       <c r="K357" s="35"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
       <c r="B358" s="7" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="F358" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="29"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
+      <c r="I358" s="19">
+        <v>1</v>
+      </c>
+      <c r="J358" s="20">
+        <v>0</v>
+      </c>
       <c r="K358" s="35"/>
     </row>
-    <row r="359" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
       <c r="B359" s="11"/>
       <c r="C359" s="12"/>
@@ -11771,20 +11813,20 @@
       <c r="J359" s="24"/>
       <c r="K359" s="35"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
       <c r="B360" s="7" t="s">
-        <v>538</v>
+        <v>741</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>554</v>
+        <v>744</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F360" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G360" s="35"/>
       <c r="H360" s="29"/>
@@ -11792,20 +11834,20 @@
       <c r="J360" s="20"/>
       <c r="K360" s="35"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
       <c r="B361" s="7" t="s">
-        <v>557</v>
+        <v>742</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F361" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G361" s="35"/>
       <c r="H361" s="29"/>
@@ -11813,20 +11855,20 @@
       <c r="J361" s="20"/>
       <c r="K361" s="35"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
         <v>44372</v>
       </c>
       <c r="F362" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G362" s="35"/>
       <c r="H362" s="29"/>
@@ -11834,388 +11876,372 @@
       <c r="J362" s="20"/>
       <c r="K362" s="35"/>
     </row>
-    <row r="363" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
-      <c r="B363" s="11"/>
-      <c r="C363" s="12"/>
+      <c r="B363" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D363" s="35"/>
-      <c r="E363" s="32"/>
-      <c r="F363" s="60"/>
+      <c r="E363" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F363" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G363" s="35"/>
-      <c r="H363" s="32"/>
-      <c r="I363" s="23"/>
-      <c r="J363" s="24"/>
+      <c r="H363" s="29"/>
+      <c r="I363" s="19"/>
+      <c r="J363" s="20"/>
       <c r="K363" s="35"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
-      <c r="B364" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>770</v>
-      </c>
+      <c r="B364" s="11"/>
+      <c r="C364" s="12"/>
       <c r="D364" s="35"/>
-      <c r="E364" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F364" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E364" s="32"/>
+      <c r="F364" s="60"/>
       <c r="G364" s="35"/>
-      <c r="H364" s="29"/>
-      <c r="I364" s="19">
-        <v>1</v>
-      </c>
-      <c r="J364" s="20">
-        <v>0</v>
-      </c>
+      <c r="H364" s="32"/>
+      <c r="I364" s="23"/>
+      <c r="J364" s="24"/>
       <c r="K364" s="35"/>
-      <c r="L364" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
-      <c r="B365" s="13" t="s">
-        <v>546</v>
+      <c r="B365" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>771</v>
+        <v>554</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
         <v>44372</v>
       </c>
       <c r="F365" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G365" s="35"/>
       <c r="H365" s="29"/>
-      <c r="I365" s="19">
-        <v>1</v>
-      </c>
-      <c r="J365" s="20">
-        <v>0</v>
-      </c>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
       <c r="K365" s="35"/>
-      <c r="L365" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
-      <c r="B366" s="13" t="s">
-        <v>548</v>
+      <c r="B366" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>772</v>
+        <v>556</v>
       </c>
       <c r="D366" s="35"/>
       <c r="E366" s="29">
         <v>44372</v>
       </c>
       <c r="F366" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G366" s="35"/>
       <c r="H366" s="29"/>
-      <c r="I366" s="19">
-        <v>1</v>
-      </c>
-      <c r="J366" s="20">
-        <v>0</v>
-      </c>
+      <c r="I366" s="19"/>
+      <c r="J366" s="20"/>
       <c r="K366" s="35"/>
-      <c r="L366" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
-      <c r="B367" s="13" t="s">
-        <v>549</v>
+      <c r="B367" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>773</v>
+        <v>555</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
         <v>44372</v>
       </c>
       <c r="F367" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="29"/>
-      <c r="I367" s="19">
-        <v>1</v>
-      </c>
-      <c r="J367" s="20">
-        <v>0</v>
-      </c>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
       <c r="K367" s="35"/>
-      <c r="L367" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
-      <c r="B368" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="C368" s="14" t="s">
-        <v>769</v>
-      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="12"/>
       <c r="D368" s="35"/>
-      <c r="E368" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F368" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E368" s="32"/>
+      <c r="F368" s="60"/>
       <c r="G368" s="35"/>
-      <c r="H368" s="29"/>
-      <c r="I368" s="19">
-        <v>1</v>
-      </c>
-      <c r="J368" s="20">
-        <v>0</v>
-      </c>
+      <c r="H368" s="32"/>
+      <c r="I368" s="23"/>
+      <c r="J368" s="24"/>
       <c r="K368" s="35"/>
-      <c r="L368" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="7"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>768</v>
+      </c>
       <c r="D369" s="35"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="58"/>
+      <c r="E369" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F369" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G369" s="35"/>
       <c r="H369" s="29"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="20"/>
+      <c r="I369" s="19">
+        <v>1</v>
+      </c>
+      <c r="J369" s="20">
+        <v>0</v>
+      </c>
       <c r="K369" s="35"/>
-    </row>
-    <row r="370" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L369" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="9"/>
-      <c r="C370" s="10"/>
+      <c r="B370" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>769</v>
+      </c>
       <c r="D370" s="35"/>
-      <c r="E370" s="30"/>
-      <c r="F370" s="59"/>
+      <c r="E370" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F370" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G370" s="35"/>
-      <c r="H370" s="30"/>
-      <c r="I370" s="21"/>
-      <c r="J370" s="22"/>
+      <c r="H370" s="29"/>
+      <c r="I370" s="19">
+        <v>1</v>
+      </c>
+      <c r="J370" s="20">
+        <v>0</v>
+      </c>
       <c r="K370" s="35"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
-      <c r="B371" s="7" t="s">
-        <v>424</v>
+      <c r="B371" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>425</v>
+        <v>770</v>
       </c>
       <c r="D371" s="35"/>
       <c r="E371" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F371" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="29"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
+      <c r="I371" s="19">
+        <v>1</v>
+      </c>
+      <c r="J371" s="20">
+        <v>0</v>
+      </c>
       <c r="K371" s="35"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L371" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
-      <c r="B372" s="7" t="s">
-        <v>420</v>
+      <c r="B372" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>421</v>
+        <v>771</v>
       </c>
       <c r="D372" s="35"/>
       <c r="E372" s="29">
-        <v>44257</v>
+        <v>44372</v>
       </c>
       <c r="F372" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="29"/>
-      <c r="I372" s="19"/>
-      <c r="J372" s="20"/>
+      <c r="I372" s="19">
+        <v>1</v>
+      </c>
+      <c r="J372" s="20">
+        <v>0</v>
+      </c>
       <c r="K372" s="35"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L372" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
-      <c r="B373" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>423</v>
+      <c r="B373" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>767</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44257</v>
+        <v>44384</v>
       </c>
       <c r="F373" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="20"/>
+      <c r="I373" s="19">
+        <v>1</v>
+      </c>
+      <c r="J373" s="20">
+        <v>0</v>
+      </c>
       <c r="K373" s="35"/>
-    </row>
-    <row r="374" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L373" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="12"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="4"/>
       <c r="D374" s="35"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="60"/>
+      <c r="E374" s="29"/>
+      <c r="F374" s="58"/>
       <c r="G374" s="35"/>
-      <c r="H374" s="32"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
+      <c r="H374" s="29"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="20"/>
       <c r="K374" s="35"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>647</v>
-      </c>
+      <c r="B375" s="9"/>
+      <c r="C375" s="10"/>
       <c r="D375" s="35"/>
-      <c r="E375" s="29">
-        <v>44319</v>
-      </c>
-      <c r="F375" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E375" s="30"/>
+      <c r="F375" s="59"/>
       <c r="G375" s="35"/>
-      <c r="H375" s="29"/>
-      <c r="I375" s="19">
-        <v>1</v>
-      </c>
-      <c r="J375" s="20">
-        <v>0</v>
-      </c>
+      <c r="H375" s="30"/>
+      <c r="I375" s="21"/>
+      <c r="J375" s="22"/>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="12"/>
+      <c r="B376" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="D376" s="35"/>
-      <c r="E376" s="32"/>
-      <c r="F376" s="60"/>
+      <c r="E376" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F376" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G376" s="35"/>
-      <c r="H376" s="32"/>
-      <c r="I376" s="23"/>
-      <c r="J376" s="24"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="20"/>
       <c r="K376" s="35"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
       <c r="B377" s="7" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
-        <v>44151</v>
+        <v>44257</v>
       </c>
       <c r="F377" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="29"/>
-      <c r="I377" s="19">
-        <v>1</v>
-      </c>
-      <c r="J377" s="20">
-        <v>0</v>
-      </c>
+      <c r="I377" s="19"/>
+      <c r="J377" s="20"/>
       <c r="K377" s="35"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
-        <v>44245</v>
+        <v>44257</v>
       </c>
       <c r="F378" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="29"/>
-      <c r="I378" s="19">
-        <v>1</v>
-      </c>
-      <c r="J378" s="20">
-        <v>0</v>
-      </c>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="B379" s="11"/>
+      <c r="C379" s="12"/>
       <c r="D379" s="35"/>
-      <c r="E379" s="29">
-        <v>44231</v>
-      </c>
-      <c r="F379" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E379" s="32"/>
+      <c r="F379" s="60"/>
       <c r="G379" s="35"/>
-      <c r="H379" s="29"/>
-      <c r="I379" s="19">
-        <v>1</v>
-      </c>
-      <c r="J379" s="20">
-        <v>0</v>
-      </c>
+      <c r="H379" s="32"/>
+      <c r="I379" s="23"/>
+      <c r="J379" s="24"/>
       <c r="K379" s="35"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="7" t="s">
-        <v>379</v>
+        <v>644</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>380</v>
+        <v>645</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
-        <v>44230</v>
+        <v>44319</v>
       </c>
       <c r="F380" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="29"/>
@@ -12227,126 +12253,142 @@
       </c>
       <c r="K380" s="35"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
-      <c r="B381" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C381" s="45" t="s">
-        <v>429</v>
-      </c>
+      <c r="B381" s="11"/>
+      <c r="C381" s="12"/>
       <c r="D381" s="35"/>
-      <c r="E381" s="29">
-        <v>44264</v>
-      </c>
-      <c r="F381" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G381" s="46"/>
-      <c r="H381" s="47"/>
-      <c r="I381" s="48">
-        <v>1</v>
-      </c>
-      <c r="J381" s="49">
-        <v>0</v>
-      </c>
+      <c r="E381" s="32"/>
+      <c r="F381" s="60"/>
+      <c r="G381" s="35"/>
+      <c r="H381" s="32"/>
+      <c r="I381" s="23"/>
+      <c r="J381" s="24"/>
       <c r="K381" s="35"/>
     </row>
-    <row r="382" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="12"/>
+      <c r="B382" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D382" s="35"/>
-      <c r="E382" s="32"/>
-      <c r="F382" s="60"/>
+      <c r="E382" s="29">
+        <v>44151</v>
+      </c>
+      <c r="F382" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G382" s="35"/>
-      <c r="H382" s="32"/>
-      <c r="I382" s="23"/>
-      <c r="J382" s="24"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="19">
+        <v>1</v>
+      </c>
+      <c r="J382" s="20">
+        <v>0</v>
+      </c>
       <c r="K382" s="35"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
       <c r="B383" s="7" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="D383" s="35"/>
       <c r="E383" s="29">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="F383" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="29"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="20"/>
+      <c r="I383" s="19">
+        <v>1</v>
+      </c>
+      <c r="J383" s="20">
+        <v>0</v>
+      </c>
       <c r="K383" s="35"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="7" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
-        <v>44278</v>
+        <v>44231</v>
       </c>
       <c r="F384" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="29"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
+      <c r="I384" s="19">
+        <v>1</v>
+      </c>
+      <c r="J384" s="20">
+        <v>0</v>
+      </c>
       <c r="K384" s="35"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
       <c r="B385" s="7" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="D385" s="35"/>
       <c r="E385" s="29">
-        <v>44271</v>
+        <v>44230</v>
       </c>
       <c r="F385" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="29"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="20"/>
+      <c r="I385" s="19">
+        <v>1</v>
+      </c>
+      <c r="J385" s="20">
+        <v>0</v>
+      </c>
       <c r="K385" s="35"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>435</v>
+      <c r="B386" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C386" s="45" t="s">
+        <v>429</v>
       </c>
       <c r="D386" s="35"/>
       <c r="E386" s="29">
-        <v>44272</v>
+        <v>44264</v>
       </c>
       <c r="F386" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G386" s="35"/>
-      <c r="H386" s="29"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
+        <v>625</v>
+      </c>
+      <c r="G386" s="46"/>
+      <c r="H386" s="47"/>
+      <c r="I386" s="48">
+        <v>1</v>
+      </c>
+      <c r="J386" s="49">
+        <v>0</v>
+      </c>
       <c r="K386" s="35"/>
     </row>
     <row r="387" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12365,42 +12407,38 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
-        <v>44151</v>
+        <v>44271</v>
       </c>
       <c r="F388" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="29"/>
-      <c r="I388" s="19">
-        <v>1</v>
-      </c>
-      <c r="J388" s="20">
-        <v>0</v>
-      </c>
+      <c r="I388" s="19"/>
+      <c r="J388" s="20"/>
       <c r="K388" s="35"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
-        <v>44258</v>
+        <v>44278</v>
       </c>
       <c r="F389" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="29"/>
@@ -12408,59 +12446,75 @@
       <c r="J389" s="20"/>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="12"/>
+      <c r="B390" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="D390" s="35"/>
-      <c r="E390" s="32"/>
-      <c r="F390" s="60"/>
+      <c r="E390" s="29">
+        <v>44271</v>
+      </c>
+      <c r="F390" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G390" s="35"/>
-      <c r="H390" s="32"/>
-      <c r="I390" s="23"/>
-      <c r="J390" s="24"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="19"/>
+      <c r="J390" s="20"/>
       <c r="K390" s="35"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
-      <c r="B391" s="7"/>
-      <c r="C391" s="4"/>
+      <c r="B391" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D391" s="35"/>
-      <c r="E391" s="29"/>
-      <c r="F391" s="58"/>
+      <c r="E391" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F391" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G391" s="35"/>
       <c r="H391" s="29"/>
       <c r="I391" s="19"/>
       <c r="J391" s="20"/>
       <c r="K391" s="35"/>
     </row>
-    <row r="392" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
-      <c r="B392" s="9"/>
-      <c r="C392" s="10"/>
+      <c r="B392" s="11"/>
+      <c r="C392" s="12"/>
       <c r="D392" s="35"/>
-      <c r="E392" s="30"/>
-      <c r="F392" s="59"/>
+      <c r="E392" s="32"/>
+      <c r="F392" s="60"/>
       <c r="G392" s="35"/>
-      <c r="H392" s="30"/>
-      <c r="I392" s="21"/>
-      <c r="J392" s="22"/>
+      <c r="H392" s="32"/>
+      <c r="I392" s="23"/>
+      <c r="J392" s="24"/>
       <c r="K392" s="35"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
       <c r="B393" s="7" t="s">
-        <v>764</v>
+        <v>83</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>700</v>
+        <v>84</v>
       </c>
       <c r="D393" s="35"/>
       <c r="E393" s="29">
-        <v>44382</v>
+        <v>44151</v>
       </c>
       <c r="F393" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="29"/>
@@ -12475,235 +12529,215 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
       <c r="B394" s="7" t="s">
-        <v>765</v>
+        <v>426</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>701</v>
+        <v>427</v>
       </c>
       <c r="D394" s="35"/>
       <c r="E394" s="29">
-        <v>44382</v>
+        <v>44258</v>
       </c>
       <c r="F394" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="29"/>
-      <c r="I394" s="19">
-        <v>1</v>
-      </c>
-      <c r="J394" s="20">
-        <v>0</v>
-      </c>
+      <c r="I394" s="19"/>
+      <c r="J394" s="20"/>
       <c r="K394" s="35"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
-      <c r="B395" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="B395" s="11"/>
+      <c r="C395" s="12"/>
       <c r="D395" s="35"/>
-      <c r="E395" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F395" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E395" s="32"/>
+      <c r="F395" s="60"/>
       <c r="G395" s="35"/>
-      <c r="H395" s="29"/>
-      <c r="I395" s="19">
-        <v>1</v>
-      </c>
-      <c r="J395" s="20">
-        <v>0</v>
-      </c>
+      <c r="H395" s="32"/>
+      <c r="I395" s="23"/>
+      <c r="J395" s="24"/>
       <c r="K395" s="35"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
-      <c r="B396" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="B396" s="7"/>
+      <c r="C396" s="4"/>
       <c r="D396" s="35"/>
-      <c r="E396" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F396" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E396" s="29"/>
+      <c r="F396" s="58"/>
       <c r="G396" s="35"/>
       <c r="H396" s="29"/>
-      <c r="I396" s="19">
-        <v>1</v>
-      </c>
-      <c r="J396" s="20">
-        <v>0</v>
-      </c>
+      <c r="I396" s="19"/>
+      <c r="J396" s="20"/>
       <c r="K396" s="35"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
-      <c r="B397" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>704</v>
-      </c>
+      <c r="B397" s="9"/>
+      <c r="C397" s="10"/>
       <c r="D397" s="35"/>
-      <c r="E397" s="29">
+      <c r="E397" s="30"/>
+      <c r="F397" s="59"/>
+      <c r="G397" s="35"/>
+      <c r="H397" s="30"/>
+      <c r="I397" s="21"/>
+      <c r="J397" s="22"/>
+      <c r="K397" s="35"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="35"/>
+      <c r="B398" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D398" s="35"/>
+      <c r="E398" s="29">
         <v>44382</v>
       </c>
-      <c r="F397" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G397" s="35"/>
-      <c r="H397" s="29"/>
-      <c r="I397" s="19">
-        <v>1</v>
-      </c>
-      <c r="J397" s="20">
-        <v>0</v>
-      </c>
-      <c r="K397" s="35"/>
-    </row>
-    <row r="398" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="35"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="35"/>
-      <c r="E398" s="32"/>
-      <c r="F398" s="60"/>
+      <c r="F398" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G398" s="35"/>
-      <c r="H398" s="32"/>
-      <c r="I398" s="23"/>
-      <c r="J398" s="24"/>
+      <c r="H398" s="29"/>
+      <c r="I398" s="19">
+        <v>1</v>
+      </c>
+      <c r="J398" s="20">
+        <v>0</v>
+      </c>
       <c r="K398" s="35"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>648</v>
+        <v>763</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F399" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G399" s="35"/>
       <c r="H399" s="29"/>
-      <c r="I399" s="19"/>
-      <c r="J399" s="20"/>
+      <c r="I399" s="19">
+        <v>1</v>
+      </c>
+      <c r="J399" s="20">
+        <v>0</v>
+      </c>
       <c r="K399" s="35"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
       <c r="B400" s="7" t="s">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="D400" s="35"/>
       <c r="E400" s="29">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="F400" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G400" s="35"/>
       <c r="H400" s="29"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
+      <c r="I400" s="19">
+        <v>1</v>
+      </c>
+      <c r="J400" s="20">
+        <v>0</v>
+      </c>
       <c r="K400" s="35"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
       <c r="B401" s="7" t="s">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>651</v>
+        <v>701</v>
       </c>
       <c r="D401" s="35"/>
       <c r="E401" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F401" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G401" s="35"/>
       <c r="H401" s="29"/>
-      <c r="I401" s="19"/>
-      <c r="J401" s="20"/>
+      <c r="I401" s="19">
+        <v>1</v>
+      </c>
+      <c r="J401" s="20">
+        <v>0</v>
+      </c>
       <c r="K401" s="35"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>652</v>
+        <v>766</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="D402" s="35"/>
       <c r="E402" s="29">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="F402" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G402" s="35"/>
       <c r="H402" s="29"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="20"/>
+      <c r="I402" s="19">
+        <v>1</v>
+      </c>
+      <c r="J402" s="20">
+        <v>0</v>
+      </c>
       <c r="K402" s="35"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
-      <c r="B403" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>453</v>
-      </c>
+      <c r="B403" s="11"/>
+      <c r="C403" s="12"/>
       <c r="D403" s="35"/>
-      <c r="E403" s="29">
-        <v>44362</v>
-      </c>
-      <c r="F403" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E403" s="32"/>
+      <c r="F403" s="60"/>
       <c r="G403" s="35"/>
-      <c r="H403" s="29"/>
-      <c r="I403" s="19"/>
-      <c r="J403" s="20"/>
+      <c r="H403" s="32"/>
+      <c r="I403" s="23"/>
+      <c r="J403" s="24"/>
       <c r="K403" s="35"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
       <c r="B404" s="7" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>465</v>
+        <v>647</v>
       </c>
       <c r="D404" s="35"/>
       <c r="E404" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F404" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G404" s="35"/>
       <c r="H404" s="29"/>
@@ -12711,58 +12745,62 @@
       <c r="J404" s="20"/>
       <c r="K404" s="35"/>
     </row>
-    <row r="405" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="12"/>
+      <c r="B405" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="D405" s="35"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="60"/>
+      <c r="E405" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F405" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G405" s="35"/>
-      <c r="H405" s="32"/>
-      <c r="I405" s="23"/>
-      <c r="J405" s="24"/>
+      <c r="H405" s="29"/>
+      <c r="I405" s="19"/>
+      <c r="J405" s="20"/>
       <c r="K405" s="35"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
       <c r="B406" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D406" s="35"/>
       <c r="E406" s="29">
         <v>44379</v>
       </c>
       <c r="F406" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G406" s="35"/>
       <c r="H406" s="29"/>
-      <c r="I406" s="19">
-        <v>1</v>
-      </c>
-      <c r="J406" s="20">
-        <v>0</v>
-      </c>
+      <c r="I406" s="19"/>
+      <c r="J406" s="20"/>
       <c r="K406" s="35"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
       <c r="B407" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D407" s="35"/>
       <c r="E407" s="29">
         <v>44379</v>
       </c>
       <c r="F407" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G407" s="35"/>
       <c r="H407" s="29"/>
@@ -12773,17 +12811,17 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
       <c r="B408" s="7" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>659</v>
+        <v>453</v>
       </c>
       <c r="D408" s="35"/>
       <c r="E408" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F408" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G408" s="35"/>
       <c r="H408" s="29"/>
@@ -12791,58 +12829,54 @@
       <c r="J408" s="20"/>
       <c r="K408" s="35"/>
     </row>
-    <row r="409" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12"/>
+      <c r="B409" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D409" s="35"/>
-      <c r="E409" s="32"/>
-      <c r="F409" s="60"/>
+      <c r="E409" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F409" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G409" s="35"/>
-      <c r="H409" s="32"/>
-      <c r="I409" s="23"/>
-      <c r="J409" s="24"/>
+      <c r="H409" s="29"/>
+      <c r="I409" s="19"/>
+      <c r="J409" s="20"/>
       <c r="K409" s="35"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
-      <c r="B410" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>662</v>
-      </c>
+      <c r="B410" s="11"/>
+      <c r="C410" s="12"/>
       <c r="D410" s="35"/>
-      <c r="E410" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F410" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E410" s="32"/>
+      <c r="F410" s="60"/>
       <c r="G410" s="35"/>
-      <c r="H410" s="29"/>
-      <c r="I410" s="19">
-        <v>1</v>
-      </c>
-      <c r="J410" s="20">
-        <v>0</v>
-      </c>
+      <c r="H410" s="32"/>
+      <c r="I410" s="23"/>
+      <c r="J410" s="24"/>
       <c r="K410" s="35"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
         <v>44379</v>
       </c>
       <c r="F411" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G411" s="35"/>
       <c r="H411" s="29"/>
@@ -12857,17 +12891,17 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>880</v>
+        <v>653</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>884</v>
+        <v>656</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F412" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G412" s="35"/>
       <c r="H412" s="29"/>
@@ -12878,17 +12912,17 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
       <c r="B413" s="7" t="s">
-        <v>881</v>
+        <v>654</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>885</v>
+        <v>657</v>
       </c>
       <c r="D413" s="35"/>
       <c r="E413" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F413" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G413" s="35"/>
       <c r="H413" s="29"/>
@@ -12896,147 +12930,151 @@
       <c r="J413" s="20"/>
       <c r="K413" s="35"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
-      <c r="B414" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>886</v>
-      </c>
+      <c r="B414" s="11"/>
+      <c r="C414" s="12"/>
       <c r="D414" s="35"/>
-      <c r="E414" s="29">
-        <v>44406</v>
-      </c>
-      <c r="F414" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E414" s="32"/>
+      <c r="F414" s="60"/>
       <c r="G414" s="35"/>
-      <c r="H414" s="29"/>
-      <c r="I414" s="19"/>
-      <c r="J414" s="20"/>
+      <c r="H414" s="32"/>
+      <c r="I414" s="23"/>
+      <c r="J414" s="24"/>
       <c r="K414" s="35"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>883</v>
+        <v>658</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>887</v>
+        <v>660</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F415" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G415" s="35"/>
       <c r="H415" s="29"/>
-      <c r="I415" s="19"/>
-      <c r="J415" s="20"/>
+      <c r="I415" s="19">
+        <v>1</v>
+      </c>
+      <c r="J415" s="20">
+        <v>0</v>
+      </c>
       <c r="K415" s="35"/>
     </row>
-    <row r="416" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
-      <c r="B416" s="11"/>
-      <c r="C416" s="12"/>
+      <c r="B416" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>661</v>
+      </c>
       <c r="D416" s="35"/>
-      <c r="E416" s="32"/>
-      <c r="F416" s="60"/>
+      <c r="E416" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F416" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G416" s="35"/>
-      <c r="H416" s="32"/>
-      <c r="I416" s="23"/>
-      <c r="J416" s="24"/>
+      <c r="H416" s="29"/>
+      <c r="I416" s="19">
+        <v>1</v>
+      </c>
+      <c r="J416" s="20">
+        <v>0</v>
+      </c>
       <c r="K416" s="35"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>664</v>
+        <v>878</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>666</v>
+        <v>882</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F417" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G417" s="35"/>
       <c r="H417" s="29"/>
-      <c r="I417" s="19">
-        <v>1</v>
-      </c>
-      <c r="J417" s="20">
-        <v>0</v>
-      </c>
+      <c r="I417" s="19"/>
+      <c r="J417" s="20"/>
       <c r="K417" s="35"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>665</v>
+        <v>879</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F418" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G418" s="35"/>
       <c r="H418" s="29"/>
-      <c r="I418" s="19">
-        <v>1</v>
-      </c>
-      <c r="J418" s="20">
-        <v>0</v>
-      </c>
+      <c r="I418" s="19"/>
+      <c r="J418" s="20"/>
       <c r="K418" s="35"/>
     </row>
-    <row r="419" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="12"/>
+      <c r="B419" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>884</v>
+      </c>
       <c r="D419" s="35"/>
-      <c r="E419" s="32"/>
-      <c r="F419" s="60"/>
+      <c r="E419" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F419" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G419" s="35"/>
-      <c r="H419" s="32"/>
-      <c r="I419" s="23"/>
-      <c r="J419" s="24"/>
+      <c r="H419" s="29"/>
+      <c r="I419" s="19"/>
+      <c r="J419" s="20"/>
       <c r="K419" s="35"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
       <c r="B420" s="7" t="s">
-        <v>668</v>
+        <v>881</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>669</v>
+        <v>885</v>
       </c>
       <c r="D420" s="35"/>
       <c r="E420" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F420" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G420" s="35"/>
       <c r="H420" s="29"/>
-      <c r="I420" s="19">
-        <v>1</v>
-      </c>
-      <c r="J420" s="20">
-        <v>0</v>
-      </c>
+      <c r="I420" s="19"/>
+      <c r="J420" s="20"/>
       <c r="K420" s="35"/>
     </row>
     <row r="421" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13055,17 +13093,17 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
         <v>44379</v>
       </c>
       <c r="F422" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G422" s="35"/>
       <c r="H422" s="29"/>
@@ -13080,17 +13118,17 @@
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
         <v>44379</v>
       </c>
       <c r="F423" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G423" s="35"/>
       <c r="H423" s="29"/>
@@ -13118,17 +13156,17 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
       <c r="B425" s="7" t="s">
-        <v>32</v>
+        <v>666</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>74</v>
+        <v>667</v>
       </c>
       <c r="D425" s="35"/>
       <c r="E425" s="29">
-        <v>44148</v>
+        <v>44379</v>
       </c>
       <c r="F425" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G425" s="35"/>
       <c r="H425" s="29"/>
@@ -13140,45 +13178,33 @@
       </c>
       <c r="K425" s="35"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
-      <c r="B426" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C426" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="B426" s="11"/>
+      <c r="C426" s="12"/>
       <c r="D426" s="35"/>
-      <c r="E426" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F426" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E426" s="32"/>
+      <c r="F426" s="60"/>
       <c r="G426" s="35"/>
-      <c r="H426" s="29"/>
-      <c r="I426" s="19">
-        <v>1</v>
-      </c>
-      <c r="J426" s="20">
-        <v>0</v>
-      </c>
+      <c r="H426" s="32"/>
+      <c r="I426" s="23"/>
+      <c r="J426" s="24"/>
       <c r="K426" s="35"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>284</v>
+        <v>668</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>285</v>
+        <v>670</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F427" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G427" s="35"/>
       <c r="H427" s="29"/>
@@ -13193,17 +13219,17 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>145</v>
+        <v>669</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>127</v>
+        <v>671</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
-        <v>44172</v>
+        <v>44379</v>
       </c>
       <c r="F428" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G428" s="35"/>
       <c r="H428" s="29"/>
@@ -13215,45 +13241,33 @@
       </c>
       <c r="K428" s="35"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
-      <c r="B429" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="B429" s="11"/>
+      <c r="C429" s="12"/>
       <c r="D429" s="35"/>
-      <c r="E429" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F429" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E429" s="32"/>
+      <c r="F429" s="60"/>
       <c r="G429" s="35"/>
-      <c r="H429" s="29"/>
-      <c r="I429" s="19">
-        <v>1</v>
-      </c>
-      <c r="J429" s="20">
-        <v>0</v>
-      </c>
+      <c r="H429" s="32"/>
+      <c r="I429" s="23"/>
+      <c r="J429" s="24"/>
       <c r="K429" s="35"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
-        <v>44376</v>
+        <v>44148</v>
       </c>
       <c r="F430" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G430" s="35"/>
       <c r="H430" s="29"/>
@@ -13268,17 +13282,17 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
       <c r="B431" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D431" s="35"/>
       <c r="E431" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F431" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G431" s="35"/>
       <c r="H431" s="29"/>
@@ -13293,17 +13307,17 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
       <c r="B432" s="7" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="D432" s="35"/>
       <c r="E432" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F432" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G432" s="35"/>
       <c r="H432" s="29"/>
@@ -13318,17 +13332,17 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F433" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G433" s="35"/>
       <c r="H433" s="29"/>
@@ -13343,17 +13357,17 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
       <c r="B434" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D434" s="35"/>
       <c r="E434" s="29">
-        <v>44379</v>
+        <v>44172</v>
       </c>
       <c r="F434" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G434" s="35"/>
       <c r="H434" s="29"/>
@@ -13368,17 +13382,17 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
       <c r="B435" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D435" s="35"/>
       <c r="E435" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F435" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="29"/>
@@ -13393,17 +13407,17 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="35"/>
       <c r="B436" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D436" s="35"/>
       <c r="E436" s="29">
         <v>44379</v>
       </c>
       <c r="F436" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="29"/>
@@ -13418,17 +13432,17 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
       <c r="B437" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D437" s="35"/>
       <c r="E437" s="29">
         <v>44379</v>
       </c>
       <c r="F437" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="29"/>
@@ -13443,17 +13457,17 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
         <v>44379</v>
       </c>
       <c r="F438" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="29"/>
@@ -13468,17 +13482,17 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
       <c r="B439" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D439" s="35"/>
       <c r="E439" s="29">
         <v>44379</v>
       </c>
       <c r="F439" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="29"/>
@@ -13493,17 +13507,17 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
       <c r="B440" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D440" s="35"/>
       <c r="E440" s="29">
         <v>44379</v>
       </c>
       <c r="F440" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="29"/>
@@ -13518,17 +13532,17 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
         <v>44379</v>
       </c>
       <c r="F441" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="29"/>
@@ -13543,17 +13557,17 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>860</v>
+        <v>154</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>861</v>
+        <v>136</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F442" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="29"/>
@@ -13568,17 +13582,17 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
         <v>44379</v>
       </c>
       <c r="F443" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="29"/>
@@ -13593,17 +13607,17 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
         <v>44379</v>
       </c>
       <c r="F444" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="29"/>
@@ -13618,17 +13632,17 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
         <v>44379</v>
       </c>
       <c r="F445" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G445" s="35"/>
       <c r="H445" s="29"/>
@@ -13643,17 +13657,17 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>623</v>
+        <v>140</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
         <v>44379</v>
       </c>
       <c r="F446" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G446" s="35"/>
       <c r="H446" s="29"/>
@@ -13668,17 +13682,17 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>163</v>
+        <v>858</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>674</v>
+        <v>859</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F447" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G447" s="35"/>
       <c r="H447" s="29"/>
@@ -13693,17 +13707,17 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>675</v>
+        <v>141</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
         <v>44379</v>
       </c>
       <c r="F448" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G448" s="35"/>
       <c r="H448" s="29"/>
@@ -13718,17 +13732,17 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>676</v>
+        <v>142</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
         <v>44379</v>
       </c>
       <c r="F449" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G449" s="35"/>
       <c r="H449" s="29"/>
@@ -13743,17 +13757,17 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>677</v>
+        <v>143</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
         <v>44379</v>
       </c>
       <c r="F450" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G450" s="35"/>
       <c r="H450" s="29"/>
@@ -13768,17 +13782,17 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
       <c r="B451" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>678</v>
+        <v>621</v>
       </c>
       <c r="D451" s="35"/>
       <c r="E451" s="29">
         <v>44379</v>
       </c>
       <c r="F451" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G451" s="35"/>
       <c r="H451" s="29"/>
@@ -13793,17 +13807,17 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
       <c r="B452" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D452" s="35"/>
       <c r="E452" s="29">
         <v>44379</v>
       </c>
       <c r="F452" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G452" s="35"/>
       <c r="H452" s="29"/>
@@ -13818,17 +13832,17 @@
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
         <v>44379</v>
       </c>
       <c r="F453" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G453" s="35"/>
       <c r="H453" s="29"/>
@@ -13843,17 +13857,17 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
         <v>44379</v>
       </c>
       <c r="F454" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G454" s="35"/>
       <c r="H454" s="29"/>
@@ -13868,17 +13882,17 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
         <v>44379</v>
       </c>
       <c r="F455" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G455" s="35"/>
       <c r="H455" s="29"/>
@@ -13893,17 +13907,17 @@
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
         <v>44379</v>
       </c>
       <c r="F456" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G456" s="35"/>
       <c r="H456" s="29"/>
@@ -13918,17 +13932,17 @@
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
       <c r="B457" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D457" s="35"/>
       <c r="E457" s="29">
         <v>44379</v>
       </c>
       <c r="F457" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="29"/>
@@ -13943,17 +13957,17 @@
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
         <v>44379</v>
       </c>
       <c r="F458" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="29"/>
@@ -13968,17 +13982,17 @@
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
         <v>44379</v>
       </c>
       <c r="F459" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G459" s="35"/>
       <c r="H459" s="29"/>
@@ -13993,17 +14007,17 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
         <v>44379</v>
       </c>
       <c r="F460" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G460" s="35"/>
       <c r="H460" s="29"/>
@@ -14015,33 +14029,45 @@
       </c>
       <c r="K460" s="35"/>
     </row>
-    <row r="461" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
-      <c r="B461" s="11"/>
-      <c r="C461" s="12"/>
+      <c r="B461" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>681</v>
+      </c>
       <c r="D461" s="35"/>
-      <c r="E461" s="32"/>
-      <c r="F461" s="60"/>
+      <c r="E461" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F461" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G461" s="35"/>
-      <c r="H461" s="32"/>
-      <c r="I461" s="23"/>
-      <c r="J461" s="24"/>
+      <c r="H461" s="29"/>
+      <c r="I461" s="19">
+        <v>1</v>
+      </c>
+      <c r="J461" s="20">
+        <v>0</v>
+      </c>
       <c r="K461" s="35"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
       <c r="B462" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D462" s="35"/>
       <c r="E462" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F462" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G462" s="35"/>
       <c r="H462" s="29"/>
@@ -14056,17 +14082,17 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="F463" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G463" s="35"/>
       <c r="H463" s="29"/>
@@ -14081,17 +14107,17 @@
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>760</v>
+        <v>175</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="F464" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G464" s="35"/>
       <c r="H464" s="29"/>
@@ -14103,58 +14129,58 @@
       </c>
       <c r="K464" s="35"/>
     </row>
-    <row r="465" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
-      <c r="B465" s="11"/>
-      <c r="C465" s="12"/>
+      <c r="B465" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="D465" s="35"/>
-      <c r="E465" s="32"/>
-      <c r="F465" s="60"/>
+      <c r="E465" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F465" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G465" s="35"/>
-      <c r="H465" s="32"/>
-      <c r="I465" s="23"/>
-      <c r="J465" s="24"/>
+      <c r="H465" s="29"/>
+      <c r="I465" s="19">
+        <v>1</v>
+      </c>
+      <c r="J465" s="20">
+        <v>0</v>
+      </c>
       <c r="K465" s="35"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
-      <c r="B466" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>695</v>
-      </c>
+      <c r="B466" s="11"/>
+      <c r="C466" s="12"/>
       <c r="D466" s="35"/>
-      <c r="E466" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F466" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E466" s="32"/>
+      <c r="F466" s="60"/>
       <c r="G466" s="35"/>
-      <c r="H466" s="29"/>
-      <c r="I466" s="19">
-        <v>1</v>
-      </c>
-      <c r="J466" s="20">
-        <v>0</v>
-      </c>
+      <c r="H466" s="32"/>
+      <c r="I466" s="23"/>
+      <c r="J466" s="24"/>
       <c r="K466" s="35"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>691</v>
+        <v>177</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
         <v>44382</v>
       </c>
       <c r="F467" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="29"/>
@@ -14169,17 +14195,17 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>692</v>
+        <v>197</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
         <v>44382</v>
       </c>
       <c r="F468" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G468" s="35"/>
       <c r="H468" s="29"/>
@@ -14194,17 +14220,17 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
       <c r="B469" s="7" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>698</v>
+        <v>759</v>
       </c>
       <c r="D469" s="35"/>
       <c r="E469" s="29">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="F469" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="29"/>
@@ -14216,189 +14242,205 @@
       </c>
       <c r="K469" s="35"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
-      <c r="B470" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>699</v>
-      </c>
+      <c r="B470" s="11"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="35"/>
-      <c r="E470" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F470" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E470" s="32"/>
+      <c r="F470" s="60"/>
       <c r="G470" s="35"/>
-      <c r="H470" s="29"/>
-      <c r="I470" s="19">
-        <v>1</v>
-      </c>
-      <c r="J470" s="20">
-        <v>0</v>
-      </c>
+      <c r="H470" s="32"/>
+      <c r="I470" s="23"/>
+      <c r="J470" s="24"/>
       <c r="K470" s="35"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
-      <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
+      <c r="B471" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>693</v>
+      </c>
       <c r="D471" s="35"/>
-      <c r="E471" s="29"/>
-      <c r="F471" s="58"/>
+      <c r="E471" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F471" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G471" s="35"/>
       <c r="H471" s="29"/>
-      <c r="I471" s="19"/>
-      <c r="J471" s="20"/>
+      <c r="I471" s="19">
+        <v>1</v>
+      </c>
+      <c r="J471" s="20">
+        <v>0</v>
+      </c>
       <c r="K471" s="35"/>
     </row>
-    <row r="472" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
-      <c r="B472" s="9"/>
-      <c r="C472" s="10"/>
+      <c r="B472" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="D472" s="35"/>
-      <c r="E472" s="30"/>
-      <c r="F472" s="59"/>
+      <c r="E472" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F472" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G472" s="35"/>
-      <c r="H472" s="30"/>
-      <c r="I472" s="21"/>
-      <c r="J472" s="22"/>
+      <c r="H472" s="29"/>
+      <c r="I472" s="19">
+        <v>1</v>
+      </c>
+      <c r="J472" s="20">
+        <v>0</v>
+      </c>
       <c r="K472" s="35"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
       <c r="B473" s="7" t="s">
-        <v>461</v>
+        <v>690</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>463</v>
+        <v>695</v>
       </c>
       <c r="D473" s="35"/>
       <c r="E473" s="29">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="F473" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G473" s="35"/>
       <c r="H473" s="29"/>
-      <c r="I473" s="19"/>
-      <c r="J473" s="20"/>
+      <c r="I473" s="19">
+        <v>1</v>
+      </c>
+      <c r="J473" s="20">
+        <v>0</v>
+      </c>
       <c r="K473" s="35"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
       <c r="B474" s="7" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D474" s="35"/>
       <c r="E474" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F474" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G474" s="35"/>
       <c r="H474" s="29"/>
-      <c r="I474" s="19"/>
-      <c r="J474" s="20"/>
+      <c r="I474" s="19">
+        <v>1</v>
+      </c>
+      <c r="J474" s="20">
+        <v>0</v>
+      </c>
       <c r="K474" s="35"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="F475" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G475" s="35"/>
       <c r="H475" s="29"/>
-      <c r="I475" s="19"/>
-      <c r="J475" s="20"/>
+      <c r="I475" s="19">
+        <v>1</v>
+      </c>
+      <c r="J475" s="20">
+        <v>0</v>
+      </c>
       <c r="K475" s="35"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
-      <c r="B476" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B476" s="7"/>
+      <c r="C476" s="4"/>
       <c r="D476" s="35"/>
-      <c r="E476" s="29">
-        <v>44362</v>
-      </c>
-      <c r="F476" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E476" s="29"/>
+      <c r="F476" s="58"/>
       <c r="G476" s="35"/>
       <c r="H476" s="29"/>
       <c r="I476" s="19"/>
       <c r="J476" s="20"/>
       <c r="K476" s="35"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
-      <c r="B477" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="B477" s="9"/>
+      <c r="C477" s="10"/>
       <c r="D477" s="35"/>
-      <c r="E477" s="29">
+      <c r="E477" s="30"/>
+      <c r="F477" s="59"/>
+      <c r="G477" s="35"/>
+      <c r="H477" s="30"/>
+      <c r="I477" s="21"/>
+      <c r="J477" s="22"/>
+      <c r="K477" s="35"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="35"/>
+      <c r="B478" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D478" s="35"/>
+      <c r="E478" s="29">
         <v>44363</v>
       </c>
-      <c r="F477" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G477" s="35"/>
-      <c r="H477" s="29"/>
-      <c r="I477" s="19"/>
-      <c r="J477" s="20"/>
-      <c r="K477" s="35"/>
-    </row>
-    <row r="478" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="35"/>
-      <c r="B478" s="11"/>
-      <c r="C478" s="12"/>
-      <c r="D478" s="35"/>
-      <c r="E478" s="32"/>
-      <c r="F478" s="60"/>
+      <c r="F478" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G478" s="35"/>
-      <c r="H478" s="32"/>
-      <c r="I478" s="23"/>
-      <c r="J478" s="24"/>
+      <c r="H478" s="29"/>
+      <c r="I478" s="19"/>
+      <c r="J478" s="20"/>
       <c r="K478" s="35"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
       <c r="B479" s="7" t="s">
-        <v>408</v>
+        <v>703</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>409</v>
+        <v>705</v>
       </c>
       <c r="D479" s="35"/>
       <c r="E479" s="29">
-        <v>44250</v>
+        <v>44365</v>
       </c>
       <c r="F479" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G479" s="35"/>
       <c r="H479" s="29"/>
@@ -14409,17 +14451,17 @@
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
       <c r="B480" s="7" t="s">
-        <v>418</v>
+        <v>704</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>419</v>
+        <v>706</v>
       </c>
       <c r="D480" s="35"/>
       <c r="E480" s="29">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="F480" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G480" s="35"/>
       <c r="H480" s="29"/>
@@ -14430,17 +14472,17 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
-        <v>44250</v>
+        <v>44362</v>
       </c>
       <c r="F481" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G481" s="35"/>
       <c r="H481" s="29"/>
@@ -14448,58 +14490,54 @@
       <c r="J481" s="20"/>
       <c r="K481" s="35"/>
     </row>
-    <row r="482" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
-      <c r="B482" s="11"/>
-      <c r="C482" s="12"/>
+      <c r="B482" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D482" s="35"/>
-      <c r="E482" s="32"/>
-      <c r="F482" s="60"/>
+      <c r="E482" s="29">
+        <v>44363</v>
+      </c>
+      <c r="F482" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G482" s="35"/>
-      <c r="H482" s="32"/>
-      <c r="I482" s="23"/>
-      <c r="J482" s="24"/>
+      <c r="H482" s="29"/>
+      <c r="I482" s="19"/>
+      <c r="J482" s="20"/>
       <c r="K482" s="35"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
-      <c r="B483" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B483" s="11"/>
+      <c r="C483" s="12"/>
       <c r="D483" s="35"/>
-      <c r="E483" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F483" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E483" s="32"/>
+      <c r="F483" s="60"/>
       <c r="G483" s="35"/>
-      <c r="H483" s="29"/>
-      <c r="I483" s="19">
-        <v>1</v>
-      </c>
-      <c r="J483" s="20">
-        <v>0</v>
-      </c>
+      <c r="H483" s="32"/>
+      <c r="I483" s="23"/>
+      <c r="J483" s="24"/>
       <c r="K483" s="35"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
       <c r="B484" s="7" t="s">
-        <v>594</v>
+        <v>408</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>595</v>
+        <v>409</v>
       </c>
       <c r="D484" s="35"/>
       <c r="E484" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F484" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G484" s="35"/>
       <c r="H484" s="29"/>
@@ -14510,17 +14548,17 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="F485" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G485" s="35"/>
       <c r="H485" s="29"/>
@@ -14531,17 +14569,17 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>297</v>
+        <v>411</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
-        <v>44377</v>
+        <v>44250</v>
       </c>
       <c r="F486" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G486" s="35"/>
       <c r="H486" s="29"/>
@@ -14549,66 +14587,58 @@
       <c r="J486" s="20"/>
       <c r="K486" s="35"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
-      <c r="B487" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="B487" s="11"/>
+      <c r="C487" s="12"/>
       <c r="D487" s="35"/>
-      <c r="E487" s="29">
-        <v>44172</v>
-      </c>
-      <c r="F487" s="58" t="s">
-        <v>627</v>
-      </c>
+      <c r="E487" s="32"/>
+      <c r="F487" s="60"/>
       <c r="G487" s="35"/>
-      <c r="H487" s="29"/>
-      <c r="I487" s="19">
-        <v>1</v>
-      </c>
-      <c r="J487" s="20">
-        <v>0</v>
-      </c>
+      <c r="H487" s="32"/>
+      <c r="I487" s="23"/>
+      <c r="J487" s="24"/>
       <c r="K487" s="35"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="35"/>
       <c r="B488" s="7" t="s">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="D488" s="35"/>
       <c r="E488" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F488" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G488" s="35"/>
       <c r="H488" s="29"/>
-      <c r="I488" s="19"/>
-      <c r="J488" s="20"/>
+      <c r="I488" s="19">
+        <v>1</v>
+      </c>
+      <c r="J488" s="20">
+        <v>0</v>
+      </c>
       <c r="K488" s="35"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
       <c r="B489" s="7" t="s">
-        <v>868</v>
+        <v>592</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>869</v>
+        <v>593</v>
       </c>
       <c r="D489" s="35"/>
       <c r="E489" s="29">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="F489" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G489" s="35"/>
       <c r="H489" s="29"/>
@@ -14619,17 +14649,17 @@
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
       <c r="B490" s="7" t="s">
-        <v>578</v>
+        <v>294</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="D490" s="35"/>
       <c r="E490" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F490" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G490" s="35"/>
       <c r="H490" s="29"/>
@@ -14640,17 +14670,17 @@
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="35"/>
       <c r="B491" s="7" t="s">
-        <v>579</v>
+        <v>295</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="D491" s="35"/>
       <c r="E491" s="29">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="F491" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G491" s="35"/>
       <c r="H491" s="29"/>
@@ -14661,38 +14691,42 @@
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="D492" s="35"/>
       <c r="E492" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F492" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G492" s="35"/>
       <c r="H492" s="29"/>
-      <c r="I492" s="19"/>
-      <c r="J492" s="20"/>
+      <c r="I492" s="19">
+        <v>1</v>
+      </c>
+      <c r="J492" s="20">
+        <v>0</v>
+      </c>
       <c r="K492" s="35"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="F493" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G493" s="35"/>
       <c r="H493" s="29"/>
@@ -14703,17 +14737,17 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>582</v>
+        <v>866</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>587</v>
+        <v>867</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="F494" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G494" s="35"/>
       <c r="H494" s="29"/>
@@ -14724,17 +14758,17 @@
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
         <v>44376</v>
       </c>
       <c r="F495" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G495" s="35"/>
       <c r="H495" s="29"/>
@@ -14742,333 +14776,313 @@
       <c r="J495" s="20"/>
       <c r="K495" s="35"/>
     </row>
-    <row r="496" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="37"/>
-      <c r="B496" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C496" s="14" t="s">
-        <v>867</v>
-      </c>
-      <c r="D496" s="37"/>
-      <c r="E496" s="31">
-        <v>44406</v>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="35"/>
+      <c r="B496" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D496" s="35"/>
+      <c r="E496" s="29">
+        <v>44376</v>
       </c>
       <c r="F496" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G496" s="37"/>
-      <c r="H496" s="31"/>
-      <c r="I496" s="19">
-        <v>1</v>
-      </c>
-      <c r="J496" s="20">
-        <v>0</v>
-      </c>
-      <c r="K496" s="37"/>
-    </row>
-    <row r="497" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="37"/>
-      <c r="B497" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C497" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D497" s="37"/>
-      <c r="E497" s="31">
-        <v>44176</v>
+        <v>625</v>
+      </c>
+      <c r="G496" s="35"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="20"/>
+      <c r="K496" s="35"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="35"/>
+      <c r="B497" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D497" s="35"/>
+      <c r="E497" s="29">
+        <v>44376</v>
       </c>
       <c r="F497" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G497" s="37"/>
-      <c r="H497" s="31"/>
-      <c r="I497" s="19">
-        <v>1</v>
-      </c>
-      <c r="J497" s="20">
-        <v>0</v>
-      </c>
-      <c r="K497" s="37"/>
-    </row>
-    <row r="498" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="37"/>
-      <c r="B498" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C498" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D498" s="37"/>
-      <c r="E498" s="31">
-        <v>44176</v>
+        <v>625</v>
+      </c>
+      <c r="G497" s="35"/>
+      <c r="H497" s="29"/>
+      <c r="I497" s="19"/>
+      <c r="J497" s="20"/>
+      <c r="K497" s="35"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" s="35"/>
+      <c r="B498" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D498" s="35"/>
+      <c r="E498" s="29">
+        <v>44376</v>
       </c>
       <c r="F498" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G498" s="37"/>
-      <c r="H498" s="31"/>
-      <c r="I498" s="19">
-        <v>1</v>
-      </c>
-      <c r="J498" s="20">
-        <v>0</v>
-      </c>
-      <c r="K498" s="37"/>
-    </row>
-    <row r="499" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="37"/>
-      <c r="B499" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C499" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D499" s="37"/>
-      <c r="E499" s="31">
-        <v>44176</v>
+        <v>625</v>
+      </c>
+      <c r="G498" s="35"/>
+      <c r="H498" s="29"/>
+      <c r="I498" s="19"/>
+      <c r="J498" s="20"/>
+      <c r="K498" s="35"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" s="35"/>
+      <c r="B499" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D499" s="35"/>
+      <c r="E499" s="29">
+        <v>44376</v>
       </c>
       <c r="F499" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G499" s="37"/>
-      <c r="H499" s="31"/>
-      <c r="I499" s="19">
-        <v>1</v>
-      </c>
-      <c r="J499" s="20">
-        <v>0</v>
-      </c>
-      <c r="K499" s="37"/>
-    </row>
-    <row r="500" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="37"/>
-      <c r="B500" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C500" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D500" s="37"/>
-      <c r="E500" s="31">
-        <v>44176</v>
+        <v>625</v>
+      </c>
+      <c r="G499" s="35"/>
+      <c r="H499" s="29"/>
+      <c r="I499" s="19"/>
+      <c r="J499" s="20"/>
+      <c r="K499" s="35"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="35"/>
+      <c r="B500" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D500" s="35"/>
+      <c r="E500" s="29">
+        <v>44376</v>
       </c>
       <c r="F500" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G500" s="37"/>
-      <c r="H500" s="31"/>
-      <c r="I500" s="19">
-        <v>1</v>
-      </c>
-      <c r="J500" s="20">
-        <v>0</v>
-      </c>
-      <c r="K500" s="37"/>
+        <v>625</v>
+      </c>
+      <c r="G500" s="35"/>
+      <c r="H500" s="29"/>
+      <c r="I500" s="19"/>
+      <c r="J500" s="20"/>
+      <c r="K500" s="35"/>
     </row>
     <row r="501" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="37"/>
-      <c r="B501" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>403</v>
+      <c r="B501" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="C501" s="14" t="s">
+        <v>865</v>
       </c>
       <c r="D501" s="37"/>
       <c r="E501" s="31">
-        <v>44245</v>
+        <v>44406</v>
       </c>
       <c r="F501" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G501" s="37"/>
       <c r="H501" s="31"/>
-      <c r="I501" s="19"/>
-      <c r="J501" s="20"/>
+      <c r="I501" s="19">
+        <v>1</v>
+      </c>
+      <c r="J501" s="20">
+        <v>0</v>
+      </c>
       <c r="K501" s="37"/>
     </row>
     <row r="502" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="37"/>
-      <c r="B502" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>407</v>
+      <c r="B502" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C502" s="14" t="s">
+        <v>342</v>
       </c>
       <c r="D502" s="37"/>
       <c r="E502" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F502" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G502" s="37"/>
       <c r="H502" s="31"/>
-      <c r="I502" s="19"/>
-      <c r="J502" s="20"/>
+      <c r="I502" s="19">
+        <v>1</v>
+      </c>
+      <c r="J502" s="20">
+        <v>0</v>
+      </c>
       <c r="K502" s="37"/>
     </row>
     <row r="503" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="37"/>
-      <c r="B503" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C503" s="4" t="s">
-        <v>406</v>
+      <c r="B503" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C503" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="D503" s="37"/>
       <c r="E503" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F503" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G503" s="37"/>
       <c r="H503" s="31"/>
-      <c r="I503" s="19"/>
-      <c r="J503" s="20"/>
+      <c r="I503" s="19">
+        <v>1</v>
+      </c>
+      <c r="J503" s="20">
+        <v>0</v>
+      </c>
       <c r="K503" s="37"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="35"/>
-      <c r="B504" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C504" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D504" s="35"/>
-      <c r="E504" s="29">
-        <v>44175</v>
+    <row r="504" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="37"/>
+      <c r="B504" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C504" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D504" s="37"/>
+      <c r="E504" s="31">
+        <v>44176</v>
       </c>
       <c r="F504" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G504" s="35"/>
-      <c r="H504" s="29"/>
+        <v>625</v>
+      </c>
+      <c r="G504" s="37"/>
+      <c r="H504" s="31"/>
       <c r="I504" s="19">
         <v>1</v>
       </c>
       <c r="J504" s="20">
         <v>0</v>
       </c>
-      <c r="K504" s="35"/>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="35"/>
-      <c r="B505" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D505" s="35"/>
-      <c r="E505" s="29">
-        <v>44175</v>
+      <c r="K504" s="37"/>
+    </row>
+    <row r="505" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="37"/>
+      <c r="B505" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C505" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D505" s="37"/>
+      <c r="E505" s="31">
+        <v>44176</v>
       </c>
       <c r="F505" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G505" s="35"/>
-      <c r="H505" s="29"/>
+        <v>625</v>
+      </c>
+      <c r="G505" s="37"/>
+      <c r="H505" s="31"/>
       <c r="I505" s="19">
         <v>1</v>
       </c>
       <c r="J505" s="20">
         <v>0</v>
       </c>
-      <c r="K505" s="35"/>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="35"/>
+      <c r="K505" s="37"/>
+    </row>
+    <row r="506" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="37"/>
       <c r="B506" s="7" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D506" s="35"/>
-      <c r="E506" s="29">
-        <v>44175</v>
+        <v>403</v>
+      </c>
+      <c r="D506" s="37"/>
+      <c r="E506" s="31">
+        <v>44245</v>
       </c>
       <c r="F506" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G506" s="35"/>
-      <c r="H506" s="29"/>
-      <c r="I506" s="19">
-        <v>1</v>
-      </c>
-      <c r="J506" s="20">
-        <v>0</v>
-      </c>
-      <c r="K506" s="35"/>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="35"/>
+        <v>625</v>
+      </c>
+      <c r="G506" s="37"/>
+      <c r="H506" s="31"/>
+      <c r="I506" s="19"/>
+      <c r="J506" s="20"/>
+      <c r="K506" s="37"/>
+    </row>
+    <row r="507" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="37"/>
       <c r="B507" s="7" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D507" s="35"/>
-      <c r="E507" s="29">
-        <v>44175</v>
+        <v>407</v>
+      </c>
+      <c r="D507" s="37"/>
+      <c r="E507" s="31">
+        <v>44245</v>
       </c>
       <c r="F507" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G507" s="35"/>
-      <c r="H507" s="29"/>
-      <c r="I507" s="19">
-        <v>1</v>
-      </c>
-      <c r="J507" s="20">
-        <v>0</v>
-      </c>
-      <c r="K507" s="35"/>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="35"/>
+        <v>625</v>
+      </c>
+      <c r="G507" s="37"/>
+      <c r="H507" s="31"/>
+      <c r="I507" s="19"/>
+      <c r="J507" s="20"/>
+      <c r="K507" s="37"/>
+    </row>
+    <row r="508" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="37"/>
       <c r="B508" s="7" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D508" s="35"/>
-      <c r="E508" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D508" s="37"/>
+      <c r="E508" s="31">
+        <v>44245</v>
       </c>
       <c r="F508" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="G508" s="35"/>
-      <c r="H508" s="29"/>
-      <c r="I508" s="19">
-        <v>1</v>
-      </c>
-      <c r="J508" s="20">
-        <v>0</v>
-      </c>
-      <c r="K508" s="35"/>
+        <v>625</v>
+      </c>
+      <c r="G508" s="37"/>
+      <c r="H508" s="31"/>
+      <c r="I508" s="19"/>
+      <c r="J508" s="20"/>
+      <c r="K508" s="37"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
       <c r="B509" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D509" s="35"/>
       <c r="E509" s="29">
         <v>44175</v>
       </c>
       <c r="F509" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G509" s="35"/>
       <c r="H509" s="29"/>
@@ -15083,17 +15097,17 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
       <c r="B510" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D510" s="35"/>
       <c r="E510" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F510" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G510" s="35"/>
       <c r="H510" s="29"/>
@@ -15108,17 +15122,17 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
       <c r="B511" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="D511" s="35"/>
       <c r="E511" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F511" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G511" s="35"/>
       <c r="H511" s="29"/>
@@ -15133,17 +15147,17 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="35"/>
       <c r="B512" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D512" s="35"/>
       <c r="E512" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F512" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G512" s="35"/>
       <c r="H512" s="29"/>
@@ -15155,101 +15169,129 @@
       </c>
       <c r="K512" s="35"/>
     </row>
-    <row r="513" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="35"/>
-      <c r="B513" s="11"/>
-      <c r="C513" s="12"/>
+      <c r="B513" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="D513" s="35"/>
-      <c r="E513" s="32"/>
-      <c r="F513" s="60"/>
+      <c r="E513" s="29">
+        <v>44175</v>
+      </c>
+      <c r="F513" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G513" s="35"/>
-      <c r="H513" s="32"/>
-      <c r="I513" s="23"/>
-      <c r="J513" s="24"/>
+      <c r="H513" s="29"/>
+      <c r="I513" s="19">
+        <v>1</v>
+      </c>
+      <c r="J513" s="20">
+        <v>0</v>
+      </c>
       <c r="K513" s="35"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="35"/>
       <c r="B514" s="7" t="s">
-        <v>717</v>
+        <v>316</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>721</v>
+        <v>321</v>
       </c>
       <c r="D514" s="35"/>
       <c r="E514" s="29">
-        <v>44382</v>
+        <v>44175</v>
       </c>
       <c r="F514" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G514" s="35"/>
       <c r="H514" s="29"/>
-      <c r="I514" s="19"/>
-      <c r="J514" s="20"/>
+      <c r="I514" s="19">
+        <v>1</v>
+      </c>
+      <c r="J514" s="20">
+        <v>0</v>
+      </c>
       <c r="K514" s="35"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="35"/>
       <c r="B515" s="7" t="s">
-        <v>718</v>
+        <v>306</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>722</v>
+        <v>307</v>
       </c>
       <c r="D515" s="35"/>
       <c r="E515" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F515" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G515" s="35"/>
       <c r="H515" s="29"/>
-      <c r="I515" s="19"/>
-      <c r="J515" s="20"/>
+      <c r="I515" s="19">
+        <v>1</v>
+      </c>
+      <c r="J515" s="20">
+        <v>0</v>
+      </c>
       <c r="K515" s="35"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="35"/>
       <c r="B516" s="7" t="s">
-        <v>719</v>
+        <v>304</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>723</v>
+        <v>305</v>
       </c>
       <c r="D516" s="35"/>
       <c r="E516" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F516" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G516" s="35"/>
       <c r="H516" s="29"/>
-      <c r="I516" s="19"/>
-      <c r="J516" s="20"/>
+      <c r="I516" s="19">
+        <v>1</v>
+      </c>
+      <c r="J516" s="20">
+        <v>0</v>
+      </c>
       <c r="K516" s="35"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="35"/>
       <c r="B517" s="7" t="s">
-        <v>720</v>
+        <v>298</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>724</v>
+        <v>299</v>
       </c>
       <c r="D517" s="35"/>
       <c r="E517" s="29">
-        <v>44382</v>
+        <v>44173</v>
       </c>
       <c r="F517" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G517" s="35"/>
       <c r="H517" s="29"/>
-      <c r="I517" s="19"/>
-      <c r="J517" s="20"/>
+      <c r="I517" s="19">
+        <v>1</v>
+      </c>
+      <c r="J517" s="20">
+        <v>0</v>
+      </c>
       <c r="K517" s="35"/>
     </row>
     <row r="518" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15268,17 +15310,17 @@
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="35"/>
       <c r="B519" s="7" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="D519" s="35"/>
       <c r="E519" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F519" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G519" s="35"/>
       <c r="H519" s="29"/>
@@ -15289,17 +15331,17 @@
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="35"/>
       <c r="B520" s="7" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="D520" s="35"/>
       <c r="E520" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F520" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G520" s="35"/>
       <c r="H520" s="29"/>
@@ -15310,17 +15352,17 @@
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="35"/>
       <c r="B521" s="7" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="D521" s="35"/>
       <c r="E521" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F521" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G521" s="35"/>
       <c r="H521" s="29"/>
@@ -15328,61 +15370,158 @@
       <c r="J521" s="20"/>
       <c r="K521" s="35"/>
     </row>
-    <row r="522" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="35"/>
-      <c r="B522" s="8"/>
-      <c r="C522" s="6"/>
+      <c r="B522" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D522" s="35"/>
-      <c r="E522" s="33"/>
-      <c r="F522" s="61"/>
+      <c r="E522" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F522" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G522" s="35"/>
-      <c r="H522" s="33"/>
-      <c r="I522" s="25"/>
-      <c r="J522" s="26"/>
+      <c r="H522" s="29"/>
+      <c r="I522" s="19"/>
+      <c r="J522" s="20"/>
       <c r="K522" s="35"/>
     </row>
-    <row r="523" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="35"/>
-      <c r="B523" s="38"/>
-      <c r="C523" s="39"/>
+      <c r="B523" s="11"/>
+      <c r="C523" s="12"/>
       <c r="D523" s="35"/>
-      <c r="E523" s="40"/>
-      <c r="F523" s="55"/>
+      <c r="E523" s="32"/>
+      <c r="F523" s="60"/>
       <c r="G523" s="35"/>
-      <c r="H523" s="40"/>
-      <c r="I523" s="41"/>
-      <c r="J523" s="41"/>
+      <c r="H523" s="32"/>
+      <c r="I523" s="23"/>
+      <c r="J523" s="24"/>
       <c r="K523" s="35"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" s="35"/>
+      <c r="B524" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D524" s="35"/>
+      <c r="E524" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F524" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="G524" s="35"/>
+      <c r="H524" s="29"/>
+      <c r="I524" s="19"/>
+      <c r="J524" s="20"/>
+      <c r="K524" s="35"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="35"/>
       <c r="B525" s="7" t="s">
-        <v>389</v>
+        <v>756</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>390</v>
+        <v>753</v>
       </c>
       <c r="D525" s="35"/>
-      <c r="E525" s="29"/>
-      <c r="F525" s="58"/>
+      <c r="E525" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F525" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G525" s="35"/>
       <c r="H525" s="29"/>
       <c r="I525" s="19"/>
       <c r="J525" s="20"/>
       <c r="K525" s="35"/>
     </row>
-    <row r="526" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="35"/>
-      <c r="B526" s="50"/>
-      <c r="C526" s="51"/>
+      <c r="B526" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="D526" s="35"/>
-      <c r="E526" s="52"/>
-      <c r="F526" s="62"/>
+      <c r="E526" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F526" s="58" t="s">
+        <v>625</v>
+      </c>
       <c r="G526" s="35"/>
-      <c r="H526" s="52"/>
-      <c r="I526" s="53"/>
-      <c r="J526" s="54"/>
+      <c r="H526" s="29"/>
+      <c r="I526" s="19"/>
+      <c r="J526" s="20"/>
       <c r="K526" s="35"/>
+    </row>
+    <row r="527" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="35"/>
+      <c r="B527" s="8"/>
+      <c r="C527" s="6"/>
+      <c r="D527" s="35"/>
+      <c r="E527" s="33"/>
+      <c r="F527" s="61"/>
+      <c r="G527" s="35"/>
+      <c r="H527" s="33"/>
+      <c r="I527" s="25"/>
+      <c r="J527" s="26"/>
+      <c r="K527" s="35"/>
+    </row>
+    <row r="528" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="35"/>
+      <c r="B528" s="38"/>
+      <c r="C528" s="39"/>
+      <c r="D528" s="35"/>
+      <c r="E528" s="40"/>
+      <c r="F528" s="55"/>
+      <c r="G528" s="35"/>
+      <c r="H528" s="40"/>
+      <c r="I528" s="41"/>
+      <c r="J528" s="41"/>
+      <c r="K528" s="35"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" s="35"/>
+      <c r="B530" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D530" s="35"/>
+      <c r="E530" s="29"/>
+      <c r="F530" s="58"/>
+      <c r="G530" s="35"/>
+      <c r="H530" s="29"/>
+      <c r="I530" s="19"/>
+      <c r="J530" s="20"/>
+      <c r="K530" s="35"/>
+    </row>
+    <row r="531" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="35"/>
+      <c r="B531" s="50"/>
+      <c r="C531" s="51"/>
+      <c r="D531" s="35"/>
+      <c r="E531" s="52"/>
+      <c r="F531" s="62"/>
+      <c r="G531" s="35"/>
+      <c r="H531" s="52"/>
+      <c r="I531" s="53"/>
+      <c r="J531" s="54"/>
+      <c r="K531" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15394,7 +15533,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F127:F131 F133:F137 F139:F145 F147:F149 F151:F152 F161 F163:F181 F221:F223 F225:F229 F236:F255 F267:F272 F274:F275 F298:F299 F301:F302 F309:F314 F316:F317 F319:F320 F360:F368 F371:F373 F375 F377:F381 F383:F386 F388:F389 F399:F404 F406:F408 F410:F411 F417:F418 F158:F159 F420 F422:F423 F462:F464 F466:F470 F393:F397 F473:F477 F479:F481 F117:F120 F514:F517 F277:F296 F355:F358 F305:F307 F122:F124 F519:F521 F58 F37:F56 F35 F19:F22 F265 F17 F77:F84 F257:F258 F232:F234 F86:F115 F183:F219 F425:F460 F322:F353 F489:F512 F483:F488 F153:F156 F412:F415" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F127:F131 F133:F137 F139:F145 F147:F149 F161 F163:F181 F221:F223 F225:F229 F236:F255 F267:F272 F274:F275 F298:F299 F301:F302 F309:F314 F316:F317 F365:F373 F376:F378 F380 F382:F386 F388:F391 F393:F394 F404:F409 F411:F413 F422:F423 F158:F159 F425 F427:F428 F467:F469 F471:F475 F398:F402 F478:F482 F484:F486 F117:F120 F519:F522 F277:F296 F360:F363 F305:F307 F122:F124 F524:F526 F58 F37:F56 F35 F19:F22 F265 F17 F77:F84 F257:F258 F232:F234 F86:F115 F183:F219 F430:F465 F332:F358 F488:F517 F151:F156 F415:F420 F319:F324 F326:F331" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="934">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -3144,6 +3144,12 @@
   </si>
   <si>
     <t>Mendapatkan Data Record Hubungan Keluarga Penduduk</t>
+  </si>
+  <si>
+    <t>transaction.read.dataRecord.master.getCitizenIdentityCard</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Record Kartu Tanda Penduduk (KTP)</t>
   </si>
 </sst>
 </file>
@@ -4012,13 +4018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L547"/>
+  <dimension ref="A1:L548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C332" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F340" sqref="F340"/>
+      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11445,14 +11451,14 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>515</v>
+        <v>932</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>604</v>
+        <v>933</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44369</v>
+        <v>44410</v>
       </c>
       <c r="F342" s="53" t="s">
         <v>625</v>
@@ -11470,14 +11476,14 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F343" s="53" t="s">
         <v>625</v>
@@ -11495,10 +11501,10 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
@@ -11520,10 +11526,10 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
@@ -11545,10 +11551,10 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
@@ -11570,10 +11576,10 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
@@ -11595,14 +11601,14 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>731</v>
+        <v>520</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F348" s="53" t="s">
         <v>625</v>
@@ -11620,10 +11626,10 @@
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
@@ -11645,10 +11651,10 @@
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
       <c r="B350" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>861</v>
+        <v>734</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
@@ -11659,21 +11665,25 @@
       </c>
       <c r="G350" s="35"/>
       <c r="H350" s="29"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="20"/>
+      <c r="I350" s="19">
+        <v>1</v>
+      </c>
+      <c r="J350" s="20">
+        <v>0</v>
+      </c>
       <c r="K350" s="35"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>860</v>
+        <v>737</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
-        <v>44406</v>
+        <v>44383</v>
       </c>
       <c r="F351" s="53" t="s">
         <v>625</v>
@@ -11687,14 +11697,14 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>738</v>
+        <v>860</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44383</v>
+        <v>44406</v>
       </c>
       <c r="F352" s="53" t="s">
         <v>625</v>
@@ -11708,10 +11718,10 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>740</v>
+        <v>863</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
@@ -11729,39 +11739,35 @@
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
       <c r="B354" s="7" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>610</v>
+        <v>740</v>
       </c>
       <c r="D354" s="35"/>
       <c r="E354" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F354" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G354" s="35"/>
       <c r="H354" s="29"/>
-      <c r="I354" s="19">
-        <v>1</v>
-      </c>
-      <c r="J354" s="20">
-        <v>0</v>
-      </c>
+      <c r="I354" s="19"/>
+      <c r="J354" s="20"/>
       <c r="K354" s="35"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
       <c r="B355" s="7" t="s">
-        <v>723</v>
+        <v>521</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="D355" s="35"/>
       <c r="E355" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F355" s="53" t="s">
         <v>625</v>
@@ -11779,10 +11785,10 @@
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
@@ -11793,17 +11799,21 @@
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="29"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
+      <c r="I356" s="19">
+        <v>1</v>
+      </c>
+      <c r="J356" s="20">
+        <v>0</v>
+      </c>
       <c r="K356" s="35"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11821,10 +11831,10 @@
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
       <c r="B358" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
@@ -11842,35 +11852,31 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
       <c r="B359" s="7" t="s">
-        <v>522</v>
+        <v>728</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>611</v>
+        <v>730</v>
       </c>
       <c r="D359" s="35"/>
       <c r="E359" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F359" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G359" s="35"/>
       <c r="H359" s="29"/>
-      <c r="I359" s="19">
-        <v>1</v>
-      </c>
-      <c r="J359" s="20">
-        <v>0</v>
-      </c>
+      <c r="I359" s="19"/>
+      <c r="J359" s="20"/>
       <c r="K359" s="35"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
       <c r="B360" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
@@ -11892,10 +11898,10 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
       <c r="B361" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
@@ -11917,10 +11923,10 @@
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
@@ -11942,31 +11948,35 @@
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>921</v>
+        <v>525</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>919</v>
+        <v>614</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
-        <v>44407</v>
+        <v>44371</v>
       </c>
       <c r="F363" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="29"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="20"/>
+      <c r="I363" s="19">
+        <v>1</v>
+      </c>
+      <c r="J363" s="20">
+        <v>0</v>
+      </c>
       <c r="K363" s="35"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
@@ -11984,35 +11994,31 @@
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
       <c r="B365" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>615</v>
+        <v>922</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
-        <v>44370</v>
+        <v>44407</v>
       </c>
       <c r="F365" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G365" s="35"/>
       <c r="H365" s="29"/>
-      <c r="I365" s="19">
-        <v>1</v>
-      </c>
-      <c r="J365" s="20">
-        <v>0</v>
-      </c>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
       <c r="K365" s="35"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
       <c r="B366" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>616</v>
+        <v>526</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="D366" s="35"/>
       <c r="E366" s="29">
@@ -12034,10 +12040,10 @@
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
       <c r="B367" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
@@ -12059,14 +12065,14 @@
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
       <c r="B368" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="F368" s="53" t="s">
         <v>625</v>
@@ -12081,47 +12087,51 @@
       </c>
       <c r="K368" s="35"/>
     </row>
-    <row r="369" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="12"/>
+      <c r="B369" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="D369" s="35"/>
-      <c r="E369" s="32"/>
-      <c r="F369" s="55"/>
+      <c r="E369" s="29">
+        <v>44369</v>
+      </c>
+      <c r="F369" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G369" s="35"/>
-      <c r="H369" s="32"/>
-      <c r="I369" s="23"/>
-      <c r="J369" s="24"/>
+      <c r="H369" s="29"/>
+      <c r="I369" s="19">
+        <v>1</v>
+      </c>
+      <c r="J369" s="20">
+        <v>0</v>
+      </c>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>744</v>
-      </c>
+      <c r="B370" s="11"/>
+      <c r="C370" s="12"/>
       <c r="D370" s="35"/>
-      <c r="E370" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F370" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E370" s="32"/>
+      <c r="F370" s="55"/>
       <c r="G370" s="35"/>
-      <c r="H370" s="29"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="20"/>
+      <c r="H370" s="32"/>
+      <c r="I370" s="23"/>
+      <c r="J370" s="24"/>
       <c r="K370" s="35"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
       <c r="B371" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D371" s="35"/>
       <c r="E371" s="29">
@@ -12139,14 +12149,14 @@
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
       <c r="B372" s="7" t="s">
-        <v>550</v>
+        <v>742</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>552</v>
+        <v>743</v>
       </c>
       <c r="D372" s="35"/>
       <c r="E372" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F372" s="53" t="s">
         <v>625</v>
@@ -12160,10 +12170,10 @@
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
@@ -12178,47 +12188,47 @@
       <c r="J373" s="20"/>
       <c r="K373" s="35"/>
     </row>
-    <row r="374" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="12"/>
+      <c r="B374" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D374" s="35"/>
-      <c r="E374" s="32"/>
-      <c r="F374" s="55"/>
+      <c r="E374" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F374" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G374" s="35"/>
-      <c r="H374" s="32"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
+      <c r="H374" s="29"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="20"/>
       <c r="K374" s="35"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>554</v>
-      </c>
+      <c r="B375" s="11"/>
+      <c r="C375" s="12"/>
       <c r="D375" s="35"/>
-      <c r="E375" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F375" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E375" s="32"/>
+      <c r="F375" s="55"/>
       <c r="G375" s="35"/>
-      <c r="H375" s="29"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
+      <c r="H375" s="32"/>
+      <c r="I375" s="23"/>
+      <c r="J375" s="24"/>
       <c r="K375" s="35"/>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
       <c r="B376" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D376" s="35"/>
       <c r="E376" s="29">
@@ -12236,10 +12246,10 @@
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
       <c r="B377" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
@@ -12254,54 +12264,47 @@
       <c r="J377" s="20"/>
       <c r="K377" s="35"/>
     </row>
-    <row r="378" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="12"/>
+      <c r="B378" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D378" s="35"/>
-      <c r="E378" s="32"/>
-      <c r="F378" s="55"/>
+      <c r="E378" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F378" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G378" s="35"/>
-      <c r="H378" s="32"/>
-      <c r="I378" s="23"/>
-      <c r="J378" s="24"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>768</v>
-      </c>
+      <c r="B379" s="11"/>
+      <c r="C379" s="12"/>
       <c r="D379" s="35"/>
-      <c r="E379" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F379" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E379" s="32"/>
+      <c r="F379" s="55"/>
       <c r="G379" s="35"/>
-      <c r="H379" s="29"/>
-      <c r="I379" s="19">
-        <v>1</v>
-      </c>
-      <c r="J379" s="20">
-        <v>0</v>
-      </c>
+      <c r="H379" s="32"/>
+      <c r="I379" s="23"/>
+      <c r="J379" s="24"/>
       <c r="K379" s="35"/>
-      <c r="L379" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
       <c r="B380" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D380" s="35"/>
       <c r="E380" s="29">
@@ -12326,10 +12329,10 @@
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
@@ -12354,10 +12357,10 @@
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
       <c r="B382" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D382" s="35"/>
       <c r="E382" s="29">
@@ -12382,14 +12385,14 @@
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
       <c r="B383" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="C383" s="14" t="s">
-        <v>767</v>
+        <v>549</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="D383" s="35"/>
       <c r="E383" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F383" s="53" t="s">
         <v>625</v>
@@ -12409,58 +12412,65 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
-      <c r="B384" s="7"/>
-      <c r="C384" s="4"/>
+      <c r="B384" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C384" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="D384" s="35"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="53"/>
+      <c r="E384" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F384" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G384" s="35"/>
       <c r="H384" s="29"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
+      <c r="I384" s="19">
+        <v>1</v>
+      </c>
+      <c r="J384" s="20">
+        <v>0</v>
+      </c>
       <c r="K384" s="35"/>
-    </row>
-    <row r="385" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L384" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
-      <c r="B385" s="9"/>
-      <c r="C385" s="10"/>
+      <c r="B385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="35"/>
-      <c r="E385" s="30"/>
-      <c r="F385" s="54"/>
+      <c r="E385" s="29"/>
+      <c r="F385" s="53"/>
       <c r="G385" s="35"/>
-      <c r="H385" s="30"/>
-      <c r="I385" s="21"/>
-      <c r="J385" s="22"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
       <c r="K385" s="35"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="B386" s="9"/>
+      <c r="C386" s="10"/>
       <c r="D386" s="35"/>
-      <c r="E386" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F386" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E386" s="30"/>
+      <c r="F386" s="54"/>
       <c r="G386" s="35"/>
-      <c r="H386" s="29"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
+      <c r="H386" s="30"/>
+      <c r="I386" s="21"/>
+      <c r="J386" s="22"/>
       <c r="K386" s="35"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
       <c r="B387" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D387" s="35"/>
       <c r="E387" s="29">
@@ -12478,10 +12488,10 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
@@ -12496,93 +12506,89 @@
       <c r="J388" s="20"/>
       <c r="K388" s="35"/>
     </row>
-    <row r="389" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="12"/>
+      <c r="B389" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D389" s="35"/>
-      <c r="E389" s="32"/>
-      <c r="F389" s="55"/>
+      <c r="E389" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F389" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G389" s="35"/>
-      <c r="H389" s="32"/>
-      <c r="I389" s="23"/>
-      <c r="J389" s="24"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="19"/>
+      <c r="J389" s="20"/>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="11"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="35"/>
+      <c r="E390" s="32"/>
+      <c r="F390" s="55"/>
+      <c r="G390" s="35"/>
+      <c r="H390" s="32"/>
+      <c r="I390" s="23"/>
+      <c r="J390" s="24"/>
+      <c r="K390" s="35"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="35"/>
+      <c r="B391" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C390" s="4" t="s">
+      <c r="C391" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D390" s="35"/>
-      <c r="E390" s="29">
+      <c r="D391" s="35"/>
+      <c r="E391" s="29">
         <v>44319</v>
       </c>
-      <c r="F390" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G390" s="35"/>
-      <c r="H390" s="29"/>
-      <c r="I390" s="19">
-        <v>1</v>
-      </c>
-      <c r="J390" s="20">
-        <v>0</v>
-      </c>
-      <c r="K390" s="35"/>
-    </row>
-    <row r="391" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="35"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="12"/>
-      <c r="D391" s="35"/>
-      <c r="E391" s="32"/>
-      <c r="F391" s="55"/>
+      <c r="F391" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G391" s="35"/>
-      <c r="H391" s="32"/>
-      <c r="I391" s="23"/>
-      <c r="J391" s="24"/>
+      <c r="H391" s="29"/>
+      <c r="I391" s="19">
+        <v>1</v>
+      </c>
+      <c r="J391" s="20">
+        <v>0</v>
+      </c>
       <c r="K391" s="35"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="35"/>
-      <c r="B392" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B392" s="11"/>
+      <c r="C392" s="12"/>
       <c r="D392" s="35"/>
-      <c r="E392" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F392" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E392" s="32"/>
+      <c r="F392" s="55"/>
       <c r="G392" s="35"/>
-      <c r="H392" s="29"/>
-      <c r="I392" s="19">
-        <v>1</v>
-      </c>
-      <c r="J392" s="20">
-        <v>0</v>
-      </c>
+      <c r="H392" s="32"/>
+      <c r="I392" s="23"/>
+      <c r="J392" s="24"/>
       <c r="K392" s="35"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
       <c r="B393" s="7" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="D393" s="35"/>
       <c r="E393" s="29">
-        <v>44245</v>
+        <v>44151</v>
       </c>
       <c r="F393" s="53" t="s">
         <v>625</v>
@@ -12600,14 +12606,14 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
       <c r="B394" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D394" s="35"/>
       <c r="E394" s="29">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="F394" s="53" t="s">
         <v>625</v>
@@ -12625,14 +12631,14 @@
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="F395" s="53" t="s">
         <v>625</v>
@@ -12649,74 +12655,78 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
-      <c r="B396" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C396" s="45" t="s">
-        <v>429</v>
+      <c r="B396" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
+        <v>44230</v>
+      </c>
+      <c r="F396" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G396" s="35"/>
+      <c r="H396" s="29"/>
+      <c r="I396" s="19">
+        <v>1</v>
+      </c>
+      <c r="J396" s="20">
+        <v>0</v>
+      </c>
+      <c r="K396" s="35"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="35"/>
+      <c r="B397" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C397" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="D397" s="35"/>
+      <c r="E397" s="29">
         <v>44264</v>
       </c>
-      <c r="F396" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G396" s="46"/>
-      <c r="H396" s="47"/>
-      <c r="I396" s="48">
-        <v>1</v>
-      </c>
-      <c r="J396" s="49">
-        <v>0</v>
-      </c>
-      <c r="K396" s="35"/>
-    </row>
-    <row r="397" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="35"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12"/>
-      <c r="D397" s="35"/>
-      <c r="E397" s="32"/>
-      <c r="F397" s="55"/>
-      <c r="G397" s="35"/>
-      <c r="H397" s="32"/>
-      <c r="I397" s="23"/>
-      <c r="J397" s="24"/>
+      <c r="F397" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G397" s="46"/>
+      <c r="H397" s="47"/>
+      <c r="I397" s="48">
+        <v>1</v>
+      </c>
+      <c r="J397" s="49">
+        <v>0</v>
+      </c>
       <c r="K397" s="35"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="35"/>
-      <c r="B398" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B398" s="11"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="35"/>
-      <c r="E398" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F398" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E398" s="32"/>
+      <c r="F398" s="55"/>
       <c r="G398" s="35"/>
-      <c r="H398" s="29"/>
-      <c r="I398" s="19"/>
-      <c r="J398" s="20"/>
+      <c r="H398" s="32"/>
+      <c r="I398" s="23"/>
+      <c r="J398" s="24"/>
       <c r="K398" s="35"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
       <c r="B399" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D399" s="35"/>
       <c r="E399" s="29">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F399" s="53" t="s">
         <v>625</v>
@@ -12730,14 +12740,14 @@
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
       <c r="B400" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D400" s="35"/>
       <c r="E400" s="29">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="F400" s="53" t="s">
         <v>625</v>
@@ -12751,14 +12761,14 @@
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
       <c r="B401" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D401" s="35"/>
       <c r="E401" s="29">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="F401" s="53" t="s">
         <v>625</v>
@@ -12769,136 +12779,132 @@
       <c r="J401" s="20"/>
       <c r="K401" s="35"/>
     </row>
-    <row r="402" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
-      <c r="B402" s="11"/>
-      <c r="C402" s="12"/>
+      <c r="B402" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D402" s="35"/>
-      <c r="E402" s="32"/>
-      <c r="F402" s="55"/>
+      <c r="E402" s="29">
+        <v>44272</v>
+      </c>
+      <c r="F402" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G402" s="35"/>
-      <c r="H402" s="32"/>
-      <c r="I402" s="23"/>
-      <c r="J402" s="24"/>
+      <c r="H402" s="29"/>
+      <c r="I402" s="19"/>
+      <c r="J402" s="20"/>
       <c r="K402" s="35"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="35"/>
-      <c r="B403" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B403" s="11"/>
+      <c r="C403" s="12"/>
       <c r="D403" s="35"/>
-      <c r="E403" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F403" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E403" s="32"/>
+      <c r="F403" s="55"/>
       <c r="G403" s="35"/>
-      <c r="H403" s="29"/>
-      <c r="I403" s="19">
-        <v>1</v>
-      </c>
-      <c r="J403" s="20">
-        <v>0</v>
-      </c>
+      <c r="H403" s="32"/>
+      <c r="I403" s="23"/>
+      <c r="J403" s="24"/>
       <c r="K403" s="35"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="35"/>
       <c r="B404" s="7" t="s">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="D404" s="35"/>
       <c r="E404" s="29">
-        <v>44258</v>
+        <v>44151</v>
       </c>
       <c r="F404" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G404" s="35"/>
       <c r="H404" s="29"/>
-      <c r="I404" s="19"/>
-      <c r="J404" s="20"/>
+      <c r="I404" s="19">
+        <v>1</v>
+      </c>
+      <c r="J404" s="20">
+        <v>0</v>
+      </c>
       <c r="K404" s="35"/>
     </row>
-    <row r="405" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="35"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="12"/>
+      <c r="B405" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D405" s="35"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="55"/>
+      <c r="E405" s="29">
+        <v>44258</v>
+      </c>
+      <c r="F405" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G405" s="35"/>
-      <c r="H405" s="32"/>
-      <c r="I405" s="23"/>
-      <c r="J405" s="24"/>
+      <c r="H405" s="29"/>
+      <c r="I405" s="19"/>
+      <c r="J405" s="20"/>
       <c r="K405" s="35"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="35"/>
-      <c r="B406" s="7"/>
-      <c r="C406" s="4"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="12"/>
       <c r="D406" s="35"/>
-      <c r="E406" s="29"/>
-      <c r="F406" s="53"/>
+      <c r="E406" s="32"/>
+      <c r="F406" s="55"/>
       <c r="G406" s="35"/>
-      <c r="H406" s="29"/>
-      <c r="I406" s="19"/>
-      <c r="J406" s="20"/>
+      <c r="H406" s="32"/>
+      <c r="I406" s="23"/>
+      <c r="J406" s="24"/>
       <c r="K406" s="35"/>
     </row>
-    <row r="407" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="35"/>
-      <c r="B407" s="9"/>
-      <c r="C407" s="10"/>
+      <c r="B407" s="7"/>
+      <c r="C407" s="4"/>
       <c r="D407" s="35"/>
-      <c r="E407" s="30"/>
-      <c r="F407" s="54"/>
+      <c r="E407" s="29"/>
+      <c r="F407" s="53"/>
       <c r="G407" s="35"/>
-      <c r="H407" s="30"/>
-      <c r="I407" s="21"/>
-      <c r="J407" s="22"/>
+      <c r="H407" s="29"/>
+      <c r="I407" s="19"/>
+      <c r="J407" s="20"/>
       <c r="K407" s="35"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="35"/>
-      <c r="B408" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="B408" s="9"/>
+      <c r="C408" s="10"/>
       <c r="D408" s="35"/>
-      <c r="E408" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F408" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E408" s="30"/>
+      <c r="F408" s="54"/>
       <c r="G408" s="35"/>
-      <c r="H408" s="29"/>
-      <c r="I408" s="19">
-        <v>1</v>
-      </c>
-      <c r="J408" s="20">
-        <v>0</v>
-      </c>
+      <c r="H408" s="30"/>
+      <c r="I408" s="21"/>
+      <c r="J408" s="22"/>
       <c r="K408" s="35"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="35"/>
       <c r="B409" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D409" s="35"/>
       <c r="E409" s="29">
@@ -12920,10 +12926,10 @@
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="35"/>
       <c r="B410" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D410" s="35"/>
       <c r="E410" s="29">
@@ -12945,10 +12951,10 @@
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="35"/>
       <c r="B411" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D411" s="35"/>
       <c r="E411" s="29">
@@ -12970,10 +12976,10 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="35"/>
       <c r="B412" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D412" s="35"/>
       <c r="E412" s="29">
@@ -12992,51 +12998,55 @@
       </c>
       <c r="K412" s="35"/>
     </row>
-    <row r="413" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="35"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="12"/>
+      <c r="B413" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="D413" s="35"/>
-      <c r="E413" s="32"/>
-      <c r="F413" s="55"/>
+      <c r="E413" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F413" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G413" s="35"/>
-      <c r="H413" s="32"/>
-      <c r="I413" s="23"/>
-      <c r="J413" s="24"/>
+      <c r="H413" s="29"/>
+      <c r="I413" s="19">
+        <v>1</v>
+      </c>
+      <c r="J413" s="20">
+        <v>0</v>
+      </c>
       <c r="K413" s="35"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="35"/>
-      <c r="B414" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>647</v>
-      </c>
+      <c r="B414" s="11"/>
+      <c r="C414" s="12"/>
       <c r="D414" s="35"/>
-      <c r="E414" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F414" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E414" s="32"/>
+      <c r="F414" s="55"/>
       <c r="G414" s="35"/>
-      <c r="H414" s="29"/>
-      <c r="I414" s="19"/>
-      <c r="J414" s="20"/>
+      <c r="H414" s="32"/>
+      <c r="I414" s="23"/>
+      <c r="J414" s="24"/>
       <c r="K414" s="35"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="35"/>
       <c r="B415" s="7" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>460</v>
+        <v>647</v>
       </c>
       <c r="D415" s="35"/>
       <c r="E415" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F415" s="53" t="s">
         <v>625</v>
@@ -13050,14 +13060,14 @@
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="35"/>
       <c r="B416" s="7" t="s">
-        <v>648</v>
+        <v>542</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>649</v>
+        <v>460</v>
       </c>
       <c r="D416" s="35"/>
       <c r="E416" s="29">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="F416" s="53" t="s">
         <v>625</v>
@@ -13071,10 +13081,10 @@
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="35"/>
       <c r="B417" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D417" s="35"/>
       <c r="E417" s="29">
@@ -13092,14 +13102,14 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="35"/>
       <c r="B418" s="7" t="s">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>453</v>
+        <v>651</v>
       </c>
       <c r="D418" s="35"/>
       <c r="E418" s="29">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="F418" s="53" t="s">
         <v>625</v>
@@ -13113,10 +13123,10 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="35"/>
       <c r="B419" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D419" s="35"/>
       <c r="E419" s="29">
@@ -13131,51 +13141,47 @@
       <c r="J419" s="20"/>
       <c r="K419" s="35"/>
     </row>
-    <row r="420" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="35"/>
-      <c r="B420" s="11"/>
-      <c r="C420" s="12"/>
+      <c r="B420" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D420" s="35"/>
-      <c r="E420" s="32"/>
-      <c r="F420" s="55"/>
+      <c r="E420" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F420" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G420" s="35"/>
-      <c r="H420" s="32"/>
-      <c r="I420" s="23"/>
-      <c r="J420" s="24"/>
+      <c r="H420" s="29"/>
+      <c r="I420" s="19"/>
+      <c r="J420" s="20"/>
       <c r="K420" s="35"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="35"/>
-      <c r="B421" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>655</v>
-      </c>
+      <c r="B421" s="11"/>
+      <c r="C421" s="12"/>
       <c r="D421" s="35"/>
-      <c r="E421" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F421" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E421" s="32"/>
+      <c r="F421" s="55"/>
       <c r="G421" s="35"/>
-      <c r="H421" s="29"/>
-      <c r="I421" s="19">
-        <v>1</v>
-      </c>
-      <c r="J421" s="20">
-        <v>0</v>
-      </c>
+      <c r="H421" s="32"/>
+      <c r="I421" s="23"/>
+      <c r="J421" s="24"/>
       <c r="K421" s="35"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="35"/>
       <c r="B422" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D422" s="35"/>
       <c r="E422" s="29">
@@ -13186,17 +13192,21 @@
       </c>
       <c r="G422" s="35"/>
       <c r="H422" s="29"/>
-      <c r="I422" s="19"/>
-      <c r="J422" s="20"/>
+      <c r="I422" s="19">
+        <v>1</v>
+      </c>
+      <c r="J422" s="20">
+        <v>0</v>
+      </c>
       <c r="K422" s="35"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="35"/>
       <c r="B423" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D423" s="35"/>
       <c r="E423" s="29">
@@ -13211,51 +13221,47 @@
       <c r="J423" s="20"/>
       <c r="K423" s="35"/>
     </row>
-    <row r="424" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="35"/>
-      <c r="B424" s="11"/>
-      <c r="C424" s="12"/>
+      <c r="B424" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="D424" s="35"/>
-      <c r="E424" s="32"/>
-      <c r="F424" s="55"/>
+      <c r="E424" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F424" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G424" s="35"/>
-      <c r="H424" s="32"/>
-      <c r="I424" s="23"/>
-      <c r="J424" s="24"/>
+      <c r="H424" s="29"/>
+      <c r="I424" s="19"/>
+      <c r="J424" s="20"/>
       <c r="K424" s="35"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="35"/>
-      <c r="B425" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>660</v>
-      </c>
+      <c r="B425" s="11"/>
+      <c r="C425" s="12"/>
       <c r="D425" s="35"/>
-      <c r="E425" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F425" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E425" s="32"/>
+      <c r="F425" s="55"/>
       <c r="G425" s="35"/>
-      <c r="H425" s="29"/>
-      <c r="I425" s="19">
-        <v>1</v>
-      </c>
-      <c r="J425" s="20">
-        <v>0</v>
-      </c>
+      <c r="H425" s="32"/>
+      <c r="I425" s="23"/>
+      <c r="J425" s="24"/>
       <c r="K425" s="35"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="35"/>
       <c r="B426" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D426" s="35"/>
       <c r="E426" s="29">
@@ -13277,31 +13283,35 @@
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="35"/>
       <c r="B427" s="7" t="s">
-        <v>877</v>
+        <v>659</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>881</v>
+        <v>661</v>
       </c>
       <c r="D427" s="35"/>
       <c r="E427" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F427" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G427" s="35"/>
       <c r="H427" s="29"/>
-      <c r="I427" s="19"/>
-      <c r="J427" s="20"/>
+      <c r="I427" s="19">
+        <v>1</v>
+      </c>
+      <c r="J427" s="20">
+        <v>0</v>
+      </c>
       <c r="K427" s="35"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="35"/>
       <c r="B428" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D428" s="35"/>
       <c r="E428" s="29">
@@ -13319,10 +13329,10 @@
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="35"/>
       <c r="B429" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D429" s="35"/>
       <c r="E429" s="29">
@@ -13340,10 +13350,10 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="35"/>
       <c r="B430" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D430" s="35"/>
       <c r="E430" s="29">
@@ -13358,51 +13368,47 @@
       <c r="J430" s="20"/>
       <c r="K430" s="35"/>
     </row>
-    <row r="431" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="35"/>
-      <c r="B431" s="11"/>
-      <c r="C431" s="12"/>
+      <c r="B431" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>884</v>
+      </c>
       <c r="D431" s="35"/>
-      <c r="E431" s="32"/>
-      <c r="F431" s="55"/>
+      <c r="E431" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F431" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G431" s="35"/>
-      <c r="H431" s="32"/>
-      <c r="I431" s="23"/>
-      <c r="J431" s="24"/>
+      <c r="H431" s="29"/>
+      <c r="I431" s="19"/>
+      <c r="J431" s="20"/>
       <c r="K431" s="35"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="35"/>
-      <c r="B432" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C432" s="4" t="s">
-        <v>664</v>
-      </c>
+      <c r="B432" s="11"/>
+      <c r="C432" s="12"/>
       <c r="D432" s="35"/>
-      <c r="E432" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F432" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E432" s="32"/>
+      <c r="F432" s="55"/>
       <c r="G432" s="35"/>
-      <c r="H432" s="29"/>
-      <c r="I432" s="19">
-        <v>1</v>
-      </c>
-      <c r="J432" s="20">
-        <v>0</v>
-      </c>
+      <c r="H432" s="32"/>
+      <c r="I432" s="23"/>
+      <c r="J432" s="24"/>
       <c r="K432" s="35"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="35"/>
       <c r="B433" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D433" s="35"/>
       <c r="E433" s="29">
@@ -13421,89 +13427,89 @@
       </c>
       <c r="K433" s="35"/>
     </row>
-    <row r="434" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="35"/>
-      <c r="B434" s="11"/>
-      <c r="C434" s="12"/>
+      <c r="B434" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>665</v>
+      </c>
       <c r="D434" s="35"/>
-      <c r="E434" s="32"/>
-      <c r="F434" s="55"/>
+      <c r="E434" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F434" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G434" s="35"/>
-      <c r="H434" s="32"/>
-      <c r="I434" s="23"/>
-      <c r="J434" s="24"/>
+      <c r="H434" s="29"/>
+      <c r="I434" s="19">
+        <v>1</v>
+      </c>
+      <c r="J434" s="20">
+        <v>0</v>
+      </c>
       <c r="K434" s="35"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="35"/>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="11"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="35"/>
+      <c r="E435" s="32"/>
+      <c r="F435" s="55"/>
+      <c r="G435" s="35"/>
+      <c r="H435" s="32"/>
+      <c r="I435" s="23"/>
+      <c r="J435" s="24"/>
+      <c r="K435" s="35"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="35"/>
+      <c r="B436" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C436" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="D435" s="35"/>
-      <c r="E435" s="29">
+      <c r="D436" s="35"/>
+      <c r="E436" s="29">
         <v>44379</v>
       </c>
-      <c r="F435" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G435" s="35"/>
-      <c r="H435" s="29"/>
-      <c r="I435" s="19">
-        <v>1</v>
-      </c>
-      <c r="J435" s="20">
-        <v>0</v>
-      </c>
-      <c r="K435" s="35"/>
-    </row>
-    <row r="436" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="35"/>
-      <c r="B436" s="11"/>
-      <c r="C436" s="12"/>
-      <c r="D436" s="35"/>
-      <c r="E436" s="32"/>
-      <c r="F436" s="55"/>
+      <c r="F436" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G436" s="35"/>
-      <c r="H436" s="32"/>
-      <c r="I436" s="23"/>
-      <c r="J436" s="24"/>
+      <c r="H436" s="29"/>
+      <c r="I436" s="19">
+        <v>1</v>
+      </c>
+      <c r="J436" s="20">
+        <v>0</v>
+      </c>
       <c r="K436" s="35"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="35"/>
-      <c r="B437" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>670</v>
-      </c>
+      <c r="B437" s="11"/>
+      <c r="C437" s="12"/>
       <c r="D437" s="35"/>
-      <c r="E437" s="29">
-        <v>44379</v>
-      </c>
-      <c r="F437" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E437" s="32"/>
+      <c r="F437" s="55"/>
       <c r="G437" s="35"/>
-      <c r="H437" s="29"/>
-      <c r="I437" s="19">
-        <v>1</v>
-      </c>
-      <c r="J437" s="20">
-        <v>0</v>
-      </c>
+      <c r="H437" s="32"/>
+      <c r="I437" s="23"/>
+      <c r="J437" s="24"/>
       <c r="K437" s="35"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="35"/>
       <c r="B438" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D438" s="35"/>
       <c r="E438" s="29">
@@ -13522,55 +13528,55 @@
       </c>
       <c r="K438" s="35"/>
     </row>
-    <row r="439" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="35"/>
-      <c r="B439" s="11"/>
-      <c r="C439" s="12"/>
+      <c r="B439" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>671</v>
+      </c>
       <c r="D439" s="35"/>
-      <c r="E439" s="32"/>
-      <c r="F439" s="55"/>
+      <c r="E439" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F439" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G439" s="35"/>
-      <c r="H439" s="32"/>
-      <c r="I439" s="23"/>
-      <c r="J439" s="24"/>
+      <c r="H439" s="29"/>
+      <c r="I439" s="19">
+        <v>1</v>
+      </c>
+      <c r="J439" s="20">
+        <v>0</v>
+      </c>
       <c r="K439" s="35"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="35"/>
-      <c r="B440" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C440" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B440" s="11"/>
+      <c r="C440" s="12"/>
       <c r="D440" s="35"/>
-      <c r="E440" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F440" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E440" s="32"/>
+      <c r="F440" s="55"/>
       <c r="G440" s="35"/>
-      <c r="H440" s="29"/>
-      <c r="I440" s="19">
-        <v>1</v>
-      </c>
-      <c r="J440" s="20">
-        <v>0</v>
-      </c>
+      <c r="H440" s="32"/>
+      <c r="I440" s="23"/>
+      <c r="J440" s="24"/>
       <c r="K440" s="35"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="35"/>
       <c r="B441" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D441" s="35"/>
       <c r="E441" s="29">
-        <v>44172</v>
+        <v>44148</v>
       </c>
       <c r="F441" s="53" t="s">
         <v>625</v>
@@ -13588,10 +13594,10 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="35"/>
       <c r="B442" s="7" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="D442" s="35"/>
       <c r="E442" s="29">
@@ -13613,10 +13619,10 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="35"/>
       <c r="B443" s="7" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="D443" s="35"/>
       <c r="E443" s="29">
@@ -13638,10 +13644,10 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="35"/>
       <c r="B444" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D444" s="35"/>
       <c r="E444" s="29">
@@ -13663,14 +13669,14 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="35"/>
       <c r="B445" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D445" s="35"/>
       <c r="E445" s="29">
-        <v>44376</v>
+        <v>44172</v>
       </c>
       <c r="F445" s="53" t="s">
         <v>625</v>
@@ -13688,14 +13694,14 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="35"/>
       <c r="B446" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D446" s="35"/>
       <c r="E446" s="29">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="F446" s="53" t="s">
         <v>625</v>
@@ -13713,56 +13719,56 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="35"/>
       <c r="B447" s="7" t="s">
-        <v>925</v>
+        <v>148</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>926</v>
+        <v>130</v>
       </c>
       <c r="D447" s="35"/>
       <c r="E447" s="29">
-        <v>44407</v>
+        <v>44379</v>
       </c>
       <c r="F447" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G447" s="35"/>
       <c r="H447" s="29"/>
-      <c r="I447" s="19"/>
-      <c r="J447" s="20"/>
+      <c r="I447" s="19">
+        <v>1</v>
+      </c>
+      <c r="J447" s="20">
+        <v>0</v>
+      </c>
       <c r="K447" s="35"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="35"/>
       <c r="B448" s="7" t="s">
-        <v>149</v>
+        <v>925</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>131</v>
+        <v>926</v>
       </c>
       <c r="D448" s="35"/>
       <c r="E448" s="29">
-        <v>44379</v>
+        <v>44407</v>
       </c>
       <c r="F448" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G448" s="35"/>
       <c r="H448" s="29"/>
-      <c r="I448" s="19">
-        <v>1</v>
-      </c>
-      <c r="J448" s="20">
-        <v>0</v>
-      </c>
+      <c r="I448" s="19"/>
+      <c r="J448" s="20"/>
       <c r="K448" s="35"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="35"/>
       <c r="B449" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D449" s="35"/>
       <c r="E449" s="29">
@@ -13784,10 +13790,10 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="35"/>
       <c r="B450" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D450" s="35"/>
       <c r="E450" s="29">
@@ -13809,10 +13815,10 @@
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="35"/>
       <c r="B451" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D451" s="35"/>
       <c r="E451" s="29">
@@ -13834,10 +13840,10 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="35"/>
       <c r="B452" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D452" s="35"/>
       <c r="E452" s="29">
@@ -13859,10 +13865,10 @@
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="35"/>
       <c r="B453" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D453" s="35"/>
       <c r="E453" s="29">
@@ -13884,10 +13890,10 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="35"/>
       <c r="B454" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D454" s="35"/>
       <c r="E454" s="29">
@@ -13909,10 +13915,10 @@
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="35"/>
       <c r="B455" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D455" s="35"/>
       <c r="E455" s="29">
@@ -13934,10 +13940,10 @@
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="35"/>
       <c r="B456" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D456" s="35"/>
       <c r="E456" s="29">
@@ -13959,10 +13965,10 @@
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="35"/>
       <c r="B457" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D457" s="35"/>
       <c r="E457" s="29">
@@ -13984,14 +13990,14 @@
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="35"/>
       <c r="B458" s="7" t="s">
-        <v>858</v>
+        <v>158</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>859</v>
+        <v>140</v>
       </c>
       <c r="D458" s="35"/>
       <c r="E458" s="29">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="F458" s="53" t="s">
         <v>625</v>
@@ -14009,14 +14015,14 @@
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="35"/>
       <c r="B459" s="7" t="s">
-        <v>159</v>
+        <v>858</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>141</v>
+        <v>859</v>
       </c>
       <c r="D459" s="35"/>
       <c r="E459" s="29">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="F459" s="53" t="s">
         <v>625</v>
@@ -14034,10 +14040,10 @@
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="35"/>
       <c r="B460" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D460" s="35"/>
       <c r="E460" s="29">
@@ -14059,10 +14065,10 @@
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="35"/>
       <c r="B461" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D461" s="35"/>
       <c r="E461" s="29">
@@ -14084,10 +14090,10 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="35"/>
       <c r="B462" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>621</v>
+        <v>143</v>
       </c>
       <c r="D462" s="35"/>
       <c r="E462" s="29">
@@ -14109,10 +14115,10 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="35"/>
       <c r="B463" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="D463" s="35"/>
       <c r="E463" s="29">
@@ -14134,10 +14140,10 @@
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="35"/>
       <c r="B464" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D464" s="35"/>
       <c r="E464" s="29">
@@ -14159,10 +14165,10 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="35"/>
       <c r="B465" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D465" s="35"/>
       <c r="E465" s="29">
@@ -14184,10 +14190,10 @@
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="35"/>
       <c r="B466" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D466" s="35"/>
       <c r="E466" s="29">
@@ -14209,10 +14215,10 @@
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="35"/>
       <c r="B467" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D467" s="35"/>
       <c r="E467" s="29">
@@ -14234,10 +14240,10 @@
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="35"/>
       <c r="B468" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D468" s="35"/>
       <c r="E468" s="29">
@@ -14259,10 +14265,10 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="35"/>
       <c r="B469" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D469" s="35"/>
       <c r="E469" s="29">
@@ -14284,10 +14290,10 @@
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="35"/>
       <c r="B470" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D470" s="35"/>
       <c r="E470" s="29">
@@ -14309,31 +14315,35 @@
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="35"/>
       <c r="B471" s="7" t="s">
-        <v>911</v>
+        <v>170</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>913</v>
+        <v>679</v>
       </c>
       <c r="D471" s="35"/>
       <c r="E471" s="29">
-        <v>44407</v>
+        <v>44379</v>
       </c>
       <c r="F471" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G471" s="35"/>
       <c r="H471" s="29"/>
-      <c r="I471" s="19"/>
-      <c r="J471" s="20"/>
+      <c r="I471" s="19">
+        <v>1</v>
+      </c>
+      <c r="J471" s="20">
+        <v>0</v>
+      </c>
       <c r="K471" s="35"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="35"/>
       <c r="B472" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D472" s="35"/>
       <c r="E472" s="29">
@@ -14351,35 +14361,31 @@
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="35"/>
       <c r="B473" s="7" t="s">
-        <v>171</v>
+        <v>912</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>680</v>
+        <v>914</v>
       </c>
       <c r="D473" s="35"/>
       <c r="E473" s="29">
-        <v>44379</v>
+        <v>44407</v>
       </c>
       <c r="F473" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G473" s="35"/>
       <c r="H473" s="29"/>
-      <c r="I473" s="19">
-        <v>1</v>
-      </c>
-      <c r="J473" s="20">
-        <v>0</v>
-      </c>
+      <c r="I473" s="19"/>
+      <c r="J473" s="20"/>
       <c r="K473" s="35"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="35"/>
       <c r="B474" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D474" s="35"/>
       <c r="E474" s="29">
@@ -14401,10 +14407,10 @@
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="35"/>
       <c r="B475" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D475" s="35"/>
       <c r="E475" s="29">
@@ -14426,10 +14432,10 @@
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="35"/>
       <c r="B476" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D476" s="35"/>
       <c r="E476" s="29">
@@ -14451,10 +14457,10 @@
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="35"/>
       <c r="B477" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D477" s="35"/>
       <c r="E477" s="29">
@@ -14476,10 +14482,10 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="35"/>
       <c r="B478" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D478" s="35"/>
       <c r="E478" s="29">
@@ -14498,51 +14504,51 @@
       </c>
       <c r="K478" s="35"/>
     </row>
-    <row r="479" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="35"/>
-      <c r="B479" s="11"/>
-      <c r="C479" s="12"/>
+      <c r="B479" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="D479" s="35"/>
-      <c r="E479" s="32"/>
-      <c r="F479" s="55"/>
+      <c r="E479" s="29">
+        <v>44379</v>
+      </c>
+      <c r="F479" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G479" s="35"/>
-      <c r="H479" s="32"/>
-      <c r="I479" s="23"/>
-      <c r="J479" s="24"/>
+      <c r="H479" s="29"/>
+      <c r="I479" s="19">
+        <v>1</v>
+      </c>
+      <c r="J479" s="20">
+        <v>0</v>
+      </c>
       <c r="K479" s="35"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="35"/>
-      <c r="B480" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>686</v>
-      </c>
+      <c r="B480" s="11"/>
+      <c r="C480" s="12"/>
       <c r="D480" s="35"/>
-      <c r="E480" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F480" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E480" s="32"/>
+      <c r="F480" s="55"/>
       <c r="G480" s="35"/>
-      <c r="H480" s="29"/>
-      <c r="I480" s="19">
-        <v>1</v>
-      </c>
-      <c r="J480" s="20">
-        <v>0</v>
-      </c>
+      <c r="H480" s="32"/>
+      <c r="I480" s="23"/>
+      <c r="J480" s="24"/>
       <c r="K480" s="35"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="35"/>
       <c r="B481" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D481" s="35"/>
       <c r="E481" s="29">
@@ -14564,14 +14570,14 @@
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="7" t="s">
-        <v>758</v>
+        <v>197</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>759</v>
+        <v>687</v>
       </c>
       <c r="D482" s="35"/>
       <c r="E482" s="29">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="F482" s="53" t="s">
         <v>625</v>
@@ -14586,51 +14592,51 @@
       </c>
       <c r="K482" s="35"/>
     </row>
-    <row r="483" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="35"/>
-      <c r="B483" s="11"/>
-      <c r="C483" s="12"/>
+      <c r="B483" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>759</v>
+      </c>
       <c r="D483" s="35"/>
-      <c r="E483" s="32"/>
-      <c r="F483" s="55"/>
+      <c r="E483" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F483" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G483" s="35"/>
-      <c r="H483" s="32"/>
-      <c r="I483" s="23"/>
-      <c r="J483" s="24"/>
+      <c r="H483" s="29"/>
+      <c r="I483" s="19">
+        <v>1</v>
+      </c>
+      <c r="J483" s="20">
+        <v>0</v>
+      </c>
       <c r="K483" s="35"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="35"/>
-      <c r="B484" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>693</v>
-      </c>
+      <c r="B484" s="11"/>
+      <c r="C484" s="12"/>
       <c r="D484" s="35"/>
-      <c r="E484" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F484" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E484" s="32"/>
+      <c r="F484" s="55"/>
       <c r="G484" s="35"/>
-      <c r="H484" s="29"/>
-      <c r="I484" s="19">
-        <v>1</v>
-      </c>
-      <c r="J484" s="20">
-        <v>0</v>
-      </c>
+      <c r="H484" s="32"/>
+      <c r="I484" s="23"/>
+      <c r="J484" s="24"/>
       <c r="K484" s="35"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="35"/>
       <c r="B485" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D485" s="35"/>
       <c r="E485" s="29">
@@ -14652,10 +14658,10 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="35"/>
       <c r="B486" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D486" s="35"/>
       <c r="E486" s="29">
@@ -14677,10 +14683,10 @@
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="35"/>
       <c r="B487" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D487" s="35"/>
       <c r="E487" s="29">
@@ -14702,10 +14708,10 @@
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="35"/>
       <c r="B488" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D488" s="35"/>
       <c r="E488" s="29">
@@ -14726,62 +14732,66 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="35"/>
-      <c r="B489" s="7"/>
-      <c r="C489" s="4"/>
+      <c r="B489" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>697</v>
+      </c>
       <c r="D489" s="35"/>
-      <c r="E489" s="29"/>
-      <c r="F489" s="53"/>
+      <c r="E489" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F489" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G489" s="35"/>
       <c r="H489" s="29"/>
-      <c r="I489" s="19"/>
-      <c r="J489" s="20"/>
+      <c r="I489" s="19">
+        <v>1</v>
+      </c>
+      <c r="J489" s="20">
+        <v>0</v>
+      </c>
       <c r="K489" s="35"/>
     </row>
-    <row r="490" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="35"/>
-      <c r="B490" s="9"/>
-      <c r="C490" s="10"/>
+      <c r="B490" s="7"/>
+      <c r="C490" s="4"/>
       <c r="D490" s="35"/>
-      <c r="E490" s="30"/>
-      <c r="F490" s="54"/>
+      <c r="E490" s="29"/>
+      <c r="F490" s="53"/>
       <c r="G490" s="35"/>
-      <c r="H490" s="30"/>
-      <c r="I490" s="21"/>
-      <c r="J490" s="22"/>
+      <c r="H490" s="29"/>
+      <c r="I490" s="19"/>
+      <c r="J490" s="20"/>
       <c r="K490" s="35"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="35"/>
-      <c r="B491" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B491" s="9"/>
+      <c r="C491" s="10"/>
       <c r="D491" s="35"/>
-      <c r="E491" s="29">
-        <v>44363</v>
-      </c>
-      <c r="F491" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E491" s="30"/>
+      <c r="F491" s="54"/>
       <c r="G491" s="35"/>
-      <c r="H491" s="29"/>
-      <c r="I491" s="19"/>
-      <c r="J491" s="20"/>
+      <c r="H491" s="30"/>
+      <c r="I491" s="21"/>
+      <c r="J491" s="22"/>
       <c r="K491" s="35"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="35"/>
       <c r="B492" s="7" t="s">
-        <v>703</v>
+        <v>461</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
       <c r="D492" s="35"/>
       <c r="E492" s="29">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="F492" s="53" t="s">
         <v>625</v>
@@ -14795,10 +14805,10 @@
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="35"/>
       <c r="B493" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D493" s="35"/>
       <c r="E493" s="29">
@@ -14816,14 +14826,14 @@
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="35"/>
       <c r="B494" s="7" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>451</v>
+        <v>706</v>
       </c>
       <c r="D494" s="35"/>
       <c r="E494" s="29">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="F494" s="53" t="s">
         <v>625</v>
@@ -14837,14 +14847,14 @@
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="35"/>
       <c r="B495" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D495" s="35"/>
       <c r="E495" s="29">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="F495" s="53" t="s">
         <v>625</v>
@@ -14855,51 +14865,51 @@
       <c r="J495" s="20"/>
       <c r="K495" s="35"/>
     </row>
-    <row r="496" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="35"/>
-      <c r="B496" s="11"/>
-      <c r="C496" s="12"/>
+      <c r="B496" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D496" s="35"/>
-      <c r="E496" s="32"/>
-      <c r="F496" s="55"/>
+      <c r="E496" s="29">
+        <v>44363</v>
+      </c>
+      <c r="F496" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G496" s="35"/>
-      <c r="H496" s="32"/>
-      <c r="I496" s="23"/>
-      <c r="J496" s="24"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="20"/>
       <c r="K496" s="35"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="35"/>
-      <c r="B497" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="B497" s="11"/>
+      <c r="C497" s="12"/>
       <c r="D497" s="35"/>
-      <c r="E497" s="29">
-        <v>44250</v>
-      </c>
-      <c r="F497" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E497" s="32"/>
+      <c r="F497" s="55"/>
       <c r="G497" s="35"/>
-      <c r="H497" s="29"/>
-      <c r="I497" s="19"/>
-      <c r="J497" s="20"/>
+      <c r="H497" s="32"/>
+      <c r="I497" s="23"/>
+      <c r="J497" s="24"/>
       <c r="K497" s="35"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D498" s="35"/>
       <c r="E498" s="29">
-        <v>44382</v>
+        <v>44250</v>
       </c>
       <c r="F498" s="53" t="s">
         <v>625</v>
@@ -14913,14 +14923,14 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="35"/>
       <c r="B499" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D499" s="35"/>
       <c r="E499" s="29">
-        <v>44250</v>
+        <v>44382</v>
       </c>
       <c r="F499" s="53" t="s">
         <v>625</v>
@@ -14931,72 +14941,72 @@
       <c r="J499" s="20"/>
       <c r="K499" s="35"/>
     </row>
-    <row r="500" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="35"/>
-      <c r="B500" s="11"/>
-      <c r="C500" s="12"/>
+      <c r="B500" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D500" s="35"/>
-      <c r="E500" s="32"/>
-      <c r="F500" s="55"/>
+      <c r="E500" s="29">
+        <v>44250</v>
+      </c>
+      <c r="F500" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G500" s="35"/>
-      <c r="H500" s="32"/>
-      <c r="I500" s="23"/>
-      <c r="J500" s="24"/>
+      <c r="H500" s="29"/>
+      <c r="I500" s="19"/>
+      <c r="J500" s="20"/>
       <c r="K500" s="35"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="35"/>
-      <c r="B501" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B501" s="11"/>
+      <c r="C501" s="12"/>
       <c r="D501" s="35"/>
-      <c r="E501" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F501" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E501" s="32"/>
+      <c r="F501" s="55"/>
       <c r="G501" s="35"/>
-      <c r="H501" s="29"/>
-      <c r="I501" s="19">
-        <v>1</v>
-      </c>
-      <c r="J501" s="20">
-        <v>0</v>
-      </c>
+      <c r="H501" s="32"/>
+      <c r="I501" s="23"/>
+      <c r="J501" s="24"/>
       <c r="K501" s="35"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
       <c r="B502" s="7" t="s">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>593</v>
+        <v>85</v>
       </c>
       <c r="D502" s="35"/>
       <c r="E502" s="29">
-        <v>44377</v>
+        <v>44148</v>
       </c>
       <c r="F502" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G502" s="35"/>
       <c r="H502" s="29"/>
-      <c r="I502" s="19"/>
-      <c r="J502" s="20"/>
+      <c r="I502" s="19">
+        <v>1</v>
+      </c>
+      <c r="J502" s="20">
+        <v>0</v>
+      </c>
       <c r="K502" s="35"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="35"/>
       <c r="B503" s="7" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>296</v>
+        <v>593</v>
       </c>
       <c r="D503" s="35"/>
       <c r="E503" s="29">
@@ -15014,10 +15024,10 @@
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="35"/>
       <c r="B504" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D504" s="35"/>
       <c r="E504" s="29">
@@ -15035,60 +15045,60 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="35"/>
       <c r="B505" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D505" s="35"/>
       <c r="E505" s="29">
-        <v>44172</v>
+        <v>44377</v>
       </c>
       <c r="F505" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G505" s="35"/>
       <c r="H505" s="29"/>
-      <c r="I505" s="19">
-        <v>1</v>
-      </c>
-      <c r="J505" s="20">
-        <v>0</v>
-      </c>
+      <c r="I505" s="19"/>
+      <c r="J505" s="20"/>
       <c r="K505" s="35"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="35"/>
       <c r="B506" s="7" t="s">
-        <v>622</v>
+        <v>288</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>623</v>
+        <v>289</v>
       </c>
       <c r="D506" s="35"/>
       <c r="E506" s="29">
-        <v>44378</v>
+        <v>44172</v>
       </c>
       <c r="F506" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G506" s="35"/>
       <c r="H506" s="29"/>
-      <c r="I506" s="19"/>
-      <c r="J506" s="20"/>
+      <c r="I506" s="19">
+        <v>1</v>
+      </c>
+      <c r="J506" s="20">
+        <v>0</v>
+      </c>
       <c r="K506" s="35"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="35"/>
       <c r="B507" s="7" t="s">
-        <v>866</v>
+        <v>622</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>927</v>
+        <v>623</v>
       </c>
       <c r="D507" s="35"/>
       <c r="E507" s="29">
-        <v>44406</v>
+        <v>44378</v>
       </c>
       <c r="F507" s="53" t="s">
         <v>625</v>
@@ -15102,14 +15112,14 @@
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="35"/>
       <c r="B508" s="7" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D508" s="35"/>
       <c r="E508" s="29">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="F508" s="53" t="s">
         <v>625</v>
@@ -15123,14 +15133,14 @@
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="35"/>
       <c r="B509" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D509" s="35"/>
       <c r="E509" s="29">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="F509" s="53" t="s">
         <v>625</v>
@@ -15144,14 +15154,14 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="35"/>
       <c r="B510" s="7" t="s">
-        <v>576</v>
+        <v>902</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>582</v>
+        <v>929</v>
       </c>
       <c r="D510" s="35"/>
       <c r="E510" s="29">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="F510" s="53" t="s">
         <v>625</v>
@@ -15165,10 +15175,10 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="35"/>
       <c r="B511" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D511" s="35"/>
       <c r="E511" s="29">
@@ -15186,10 +15196,10 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="35"/>
       <c r="B512" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D512" s="35"/>
       <c r="E512" s="29">
@@ -15207,10 +15217,10 @@
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="35"/>
       <c r="B513" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D513" s="35"/>
       <c r="E513" s="29">
@@ -15228,10 +15238,10 @@
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="35"/>
       <c r="B514" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D514" s="35"/>
       <c r="E514" s="29">
@@ -15249,10 +15259,10 @@
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="35"/>
       <c r="B515" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D515" s="35"/>
       <c r="E515" s="29">
@@ -15267,42 +15277,38 @@
       <c r="J515" s="20"/>
       <c r="K515" s="35"/>
     </row>
-    <row r="516" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="37"/>
-      <c r="B516" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="C516" s="14" t="s">
-        <v>865</v>
-      </c>
-      <c r="D516" s="37"/>
-      <c r="E516" s="31">
-        <v>44406</v>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="35"/>
+      <c r="B516" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D516" s="35"/>
+      <c r="E516" s="29">
+        <v>44376</v>
       </c>
       <c r="F516" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G516" s="37"/>
-      <c r="H516" s="31"/>
-      <c r="I516" s="19">
-        <v>1</v>
-      </c>
-      <c r="J516" s="20">
-        <v>0</v>
-      </c>
-      <c r="K516" s="37"/>
+      <c r="G516" s="35"/>
+      <c r="H516" s="29"/>
+      <c r="I516" s="19"/>
+      <c r="J516" s="20"/>
+      <c r="K516" s="35"/>
     </row>
     <row r="517" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="37"/>
       <c r="B517" s="13" t="s">
-        <v>338</v>
+        <v>864</v>
       </c>
       <c r="C517" s="14" t="s">
-        <v>342</v>
+        <v>865</v>
       </c>
       <c r="D517" s="37"/>
       <c r="E517" s="31">
-        <v>44176</v>
+        <v>44406</v>
       </c>
       <c r="F517" s="53" t="s">
         <v>625</v>
@@ -15320,10 +15326,10 @@
     <row r="518" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="37"/>
       <c r="B518" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C518" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D518" s="37"/>
       <c r="E518" s="31">
@@ -15345,10 +15351,10 @@
     <row r="519" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="37"/>
       <c r="B519" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C519" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D519" s="37"/>
       <c r="E519" s="31">
@@ -15370,10 +15376,10 @@
     <row r="520" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="37"/>
       <c r="B520" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C520" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D520" s="37"/>
       <c r="E520" s="31">
@@ -15394,32 +15400,36 @@
     </row>
     <row r="521" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="37"/>
-      <c r="B521" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C521" s="4" t="s">
-        <v>403</v>
+      <c r="B521" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C521" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D521" s="37"/>
       <c r="E521" s="31">
-        <v>44245</v>
+        <v>44176</v>
       </c>
       <c r="F521" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G521" s="37"/>
       <c r="H521" s="31"/>
-      <c r="I521" s="19"/>
-      <c r="J521" s="20"/>
+      <c r="I521" s="19">
+        <v>1</v>
+      </c>
+      <c r="J521" s="20">
+        <v>0</v>
+      </c>
       <c r="K521" s="37"/>
     </row>
     <row r="522" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="37"/>
       <c r="B522" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D522" s="37"/>
       <c r="E522" s="31">
@@ -15437,10 +15447,10 @@
     <row r="523" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="37"/>
       <c r="B523" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D523" s="37"/>
       <c r="E523" s="31">
@@ -15455,38 +15465,34 @@
       <c r="J523" s="20"/>
       <c r="K523" s="37"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="35"/>
+    <row r="524" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="37"/>
       <c r="B524" s="7" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D524" s="35"/>
-      <c r="E524" s="29">
-        <v>44175</v>
+        <v>406</v>
+      </c>
+      <c r="D524" s="37"/>
+      <c r="E524" s="31">
+        <v>44245</v>
       </c>
       <c r="F524" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G524" s="35"/>
-      <c r="H524" s="29"/>
-      <c r="I524" s="19">
-        <v>1</v>
-      </c>
-      <c r="J524" s="20">
-        <v>0</v>
-      </c>
-      <c r="K524" s="35"/>
+      <c r="G524" s="37"/>
+      <c r="H524" s="31"/>
+      <c r="I524" s="19"/>
+      <c r="J524" s="20"/>
+      <c r="K524" s="37"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="35"/>
       <c r="B525" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D525" s="35"/>
       <c r="E525" s="29">
@@ -15508,10 +15514,10 @@
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="35"/>
       <c r="B526" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D526" s="35"/>
       <c r="E526" s="29">
@@ -15533,10 +15539,10 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="35"/>
       <c r="B527" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D527" s="35"/>
       <c r="E527" s="29">
@@ -15558,31 +15564,35 @@
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="35"/>
       <c r="B528" s="7" t="s">
-        <v>907</v>
+        <v>318</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>909</v>
+        <v>319</v>
       </c>
       <c r="D528" s="35"/>
       <c r="E528" s="29">
-        <v>44407</v>
+        <v>44175</v>
       </c>
       <c r="F528" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G528" s="35"/>
       <c r="H528" s="29"/>
-      <c r="I528" s="19"/>
-      <c r="J528" s="20"/>
+      <c r="I528" s="19">
+        <v>1</v>
+      </c>
+      <c r="J528" s="20">
+        <v>0</v>
+      </c>
       <c r="K528" s="35"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="35"/>
       <c r="B529" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D529" s="35"/>
       <c r="E529" s="29">
@@ -15600,35 +15610,31 @@
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="35"/>
       <c r="B530" s="7" t="s">
-        <v>317</v>
+        <v>908</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>320</v>
+        <v>910</v>
       </c>
       <c r="D530" s="35"/>
       <c r="E530" s="29">
-        <v>44175</v>
+        <v>44407</v>
       </c>
       <c r="F530" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G530" s="35"/>
       <c r="H530" s="29"/>
-      <c r="I530" s="19">
-        <v>1</v>
-      </c>
-      <c r="J530" s="20">
-        <v>0</v>
-      </c>
+      <c r="I530" s="19"/>
+      <c r="J530" s="20"/>
       <c r="K530" s="35"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="35"/>
       <c r="B531" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D531" s="35"/>
       <c r="E531" s="29">
@@ -15650,14 +15656,14 @@
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="35"/>
       <c r="B532" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D532" s="35"/>
       <c r="E532" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F532" s="53" t="s">
         <v>625</v>
@@ -15675,10 +15681,10 @@
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="35"/>
       <c r="B533" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D533" s="35"/>
       <c r="E533" s="29">
@@ -15700,10 +15706,10 @@
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="35"/>
       <c r="B534" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D534" s="35"/>
       <c r="E534" s="29">
@@ -15722,47 +15728,51 @@
       </c>
       <c r="K534" s="35"/>
     </row>
-    <row r="535" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="35"/>
-      <c r="B535" s="11"/>
-      <c r="C535" s="12"/>
+      <c r="B535" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D535" s="35"/>
-      <c r="E535" s="32"/>
-      <c r="F535" s="55"/>
+      <c r="E535" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F535" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G535" s="35"/>
-      <c r="H535" s="32"/>
-      <c r="I535" s="23"/>
-      <c r="J535" s="24"/>
+      <c r="H535" s="29"/>
+      <c r="I535" s="19">
+        <v>1</v>
+      </c>
+      <c r="J535" s="20">
+        <v>0</v>
+      </c>
       <c r="K535" s="35"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="35"/>
-      <c r="B536" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>719</v>
-      </c>
+      <c r="B536" s="11"/>
+      <c r="C536" s="12"/>
       <c r="D536" s="35"/>
-      <c r="E536" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F536" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E536" s="32"/>
+      <c r="F536" s="55"/>
       <c r="G536" s="35"/>
-      <c r="H536" s="29"/>
-      <c r="I536" s="19"/>
-      <c r="J536" s="20"/>
+      <c r="H536" s="32"/>
+      <c r="I536" s="23"/>
+      <c r="J536" s="24"/>
       <c r="K536" s="35"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="35"/>
       <c r="B537" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D537" s="35"/>
       <c r="E537" s="29">
@@ -15780,10 +15790,10 @@
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="35"/>
       <c r="B538" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D538" s="35"/>
       <c r="E538" s="29">
@@ -15801,10 +15811,10 @@
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="35"/>
       <c r="B539" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D539" s="35"/>
       <c r="E539" s="29">
@@ -15819,47 +15829,47 @@
       <c r="J539" s="20"/>
       <c r="K539" s="35"/>
     </row>
-    <row r="540" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="35"/>
-      <c r="B540" s="11"/>
-      <c r="C540" s="12"/>
+      <c r="B540" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="D540" s="35"/>
-      <c r="E540" s="32"/>
-      <c r="F540" s="55"/>
+      <c r="E540" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F540" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G540" s="35"/>
-      <c r="H540" s="32"/>
-      <c r="I540" s="23"/>
-      <c r="J540" s="24"/>
+      <c r="H540" s="29"/>
+      <c r="I540" s="19"/>
+      <c r="J540" s="20"/>
       <c r="K540" s="35"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="35"/>
-      <c r="B541" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="C541" s="4" t="s">
-        <v>752</v>
-      </c>
+      <c r="B541" s="11"/>
+      <c r="C541" s="12"/>
       <c r="D541" s="35"/>
-      <c r="E541" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F541" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E541" s="32"/>
+      <c r="F541" s="55"/>
       <c r="G541" s="35"/>
-      <c r="H541" s="29"/>
-      <c r="I541" s="19"/>
-      <c r="J541" s="20"/>
+      <c r="H541" s="32"/>
+      <c r="I541" s="23"/>
+      <c r="J541" s="24"/>
       <c r="K541" s="35"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="35"/>
       <c r="B542" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D542" s="35"/>
       <c r="E542" s="29">
@@ -15877,10 +15887,10 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="35"/>
       <c r="B543" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D543" s="35"/>
       <c r="E543" s="29">
@@ -15895,48 +15905,69 @@
       <c r="J543" s="20"/>
       <c r="K543" s="35"/>
     </row>
-    <row r="544" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="35"/>
-      <c r="B544" s="8"/>
-      <c r="C544" s="6"/>
+      <c r="B544" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="D544" s="35"/>
-      <c r="E544" s="33"/>
-      <c r="F544" s="56"/>
+      <c r="E544" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F544" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G544" s="35"/>
-      <c r="H544" s="33"/>
-      <c r="I544" s="25"/>
-      <c r="J544" s="26"/>
+      <c r="H544" s="29"/>
+      <c r="I544" s="19"/>
+      <c r="J544" s="20"/>
       <c r="K544" s="35"/>
     </row>
-    <row r="545" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="35"/>
-      <c r="B545" s="38"/>
-      <c r="C545" s="39"/>
+      <c r="B545" s="8"/>
+      <c r="C545" s="6"/>
       <c r="D545" s="35"/>
-      <c r="E545" s="40"/>
-      <c r="F545" s="50"/>
+      <c r="E545" s="33"/>
+      <c r="F545" s="56"/>
       <c r="G545" s="35"/>
-      <c r="H545" s="40"/>
-      <c r="I545" s="41"/>
-      <c r="J545" s="41"/>
+      <c r="H545" s="33"/>
+      <c r="I545" s="25"/>
+      <c r="J545" s="26"/>
       <c r="K545" s="35"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="35"/>
-      <c r="B547" s="7" t="s">
+    <row r="546" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="35"/>
+      <c r="B546" s="38"/>
+      <c r="C546" s="39"/>
+      <c r="D546" s="35"/>
+      <c r="E546" s="40"/>
+      <c r="F546" s="50"/>
+      <c r="G546" s="35"/>
+      <c r="H546" s="40"/>
+      <c r="I546" s="41"/>
+      <c r="J546" s="41"/>
+      <c r="K546" s="35"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="35"/>
+      <c r="B548" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C547" s="4" t="s">
+      <c r="C548" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D547" s="35"/>
-      <c r="E547" s="29"/>
-      <c r="F547" s="53"/>
-      <c r="G547" s="35"/>
-      <c r="H547" s="29"/>
-      <c r="I547" s="19"/>
-      <c r="J547" s="20"/>
-      <c r="K547" s="35"/>
+      <c r="D548" s="35"/>
+      <c r="E548" s="29"/>
+      <c r="F548" s="53"/>
+      <c r="G548" s="35"/>
+      <c r="H548" s="29"/>
+      <c r="I548" s="19"/>
+      <c r="J548" s="20"/>
+      <c r="K548" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15948,7 +15979,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F131:F135 F137:F141 F143:F149 F151:F153 F165 F167:F185 F228:F230 F232:F236 F243:F262 F274:F279 F281:F282 F305:F306 F308:F309 F316:F321 F323:F324 F375:F383 F386:F388 F390 F392:F396 F398:F401 F403:F404 F414:F419 F421:F423 F432:F433 F162:F163 F435 F437:F438 F480:F482 F484:F488 F408:F412 F491:F495 F497:F499 F121:F124 F536:F539 F284:F303 F370:F373 F312:F314 F126:F128 F541:F543 F58 F37:F56 F35 F19:F22 F272 F17 F77:F84 F264:F265 F239:F241 F155:F160 F425:F430 F326:F331 F501:F508 F86:F119 F510:F534 F340:F368 F187:F226 F440:F478 F333:F339" numberStoredAsText="1"/>
+    <ignoredError sqref="F4:F6 F9 F12:F14 F25:F26 F28 F30:F32 F61:F67 F70:F75 F131:F135 F137:F141 F143:F149 F151:F153 F165 F167:F185 F228:F230 F232:F236 F243:F262 F274:F279 F281:F282 F305:F306 F308:F309 F316:F321 F323:F324 F376:F384 F387:F389 F391 F393:F397 F399:F402 F404:F405 F415:F420 F422:F424 F433:F434 F162:F163 F436 F438:F439 F481:F483 F485:F489 F409:F413 F492:F496 F498:F500 F121:F124 F537:F540 F284:F303 F371:F374 F312:F314 F126:F128 F542:F544 F58 F37:F56 F35 F19:F22 F272 F17 F77:F84 F264:F265 F239:F241 F155:F160 F426:F431 F326:F331 F502:F509 F86:F119 F511:F535 F342:F369 F187:F226 F441:F479 F333:F341" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - API/API-Catalogue.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="936">
   <si>
     <t>transaction.update.master.setBloodAglutinogenType</t>
   </si>
@@ -3044,9 +3044,6 @@
     <t>transaction.create.master.setCitizenIdentityCard</t>
   </si>
   <si>
-    <t>Menyimpan Data Baru Kartu Identitas Penduduk (KTP)</t>
-  </si>
-  <si>
     <t>transaction.create.master.setCitizenFamilyRelationship</t>
   </si>
   <si>
@@ -3150,6 +3147,15 @@
   </si>
   <si>
     <t>Mendapatkan Data Record Kartu Tanda Penduduk (KTP)</t>
+  </si>
+  <si>
+    <t>transaction.create.master.setCitizenIdentity</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Identitas Penduduk</t>
+  </si>
+  <si>
+    <t>Menyimpan Data Baru Kartu Tanda Penduduk (KTP)</t>
   </si>
 </sst>
 </file>
@@ -4018,13 +4024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L548"/>
+  <dimension ref="A1:L549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5858,10 +5864,10 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>900</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="29">
@@ -5879,14 +5885,14 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="7" t="s">
-        <v>897</v>
+        <v>933</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>898</v>
+        <v>934</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="29">
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="F94" s="53" t="s">
         <v>625</v>
@@ -5900,14 +5906,14 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="7" t="s">
-        <v>566</v>
+        <v>897</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>567</v>
+        <v>935</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="29">
-        <v>44376</v>
+        <v>44407</v>
       </c>
       <c r="F95" s="53" t="s">
         <v>625</v>
@@ -5918,34 +5924,34 @@
       <c r="J95" s="20"/>
       <c r="K95" s="35"/>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="13" t="s">
-        <v>568</v>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="35"/>
+      <c r="B96" s="7" t="s">
+        <v>566</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D96" s="37"/>
+        <v>567</v>
+      </c>
+      <c r="D96" s="35"/>
       <c r="E96" s="29">
         <v>44376</v>
       </c>
       <c r="F96" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G96" s="37"/>
+      <c r="G96" s="35"/>
       <c r="H96" s="29"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
-      <c r="K96" s="37"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
       <c r="B97" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D97" s="37"/>
       <c r="E97" s="29">
@@ -5963,10 +5969,10 @@
     <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
       <c r="B98" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D98" s="37"/>
       <c r="E98" s="29">
@@ -5984,10 +5990,10 @@
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
       <c r="B99" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D99" s="37"/>
       <c r="E99" s="29">
@@ -6002,82 +6008,76 @@
       <c r="J99" s="20"/>
       <c r="K99" s="37"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="7" t="s">
-        <v>588</v>
+    <row r="100" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="13" t="s">
+        <v>571</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D100" s="35"/>
+        <v>575</v>
+      </c>
+      <c r="D100" s="37"/>
       <c r="E100" s="29">
         <v>44376</v>
       </c>
       <c r="F100" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G100" s="35"/>
+      <c r="G100" s="37"/>
       <c r="H100" s="29"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
-      <c r="K100" s="35"/>
-    </row>
-    <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>855</v>
-      </c>
-      <c r="D101" s="37"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="35"/>
+      <c r="B101" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D101" s="35"/>
       <c r="E101" s="29">
-        <v>44405</v>
+        <v>44376</v>
       </c>
       <c r="F101" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G101" s="37"/>
+      <c r="G101" s="35"/>
       <c r="H101" s="29"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
-      <c r="K101" s="37"/>
+      <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
       <c r="B102" s="13" t="s">
-        <v>334</v>
+        <v>854</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>346</v>
+        <v>855</v>
       </c>
       <c r="D102" s="37"/>
       <c r="E102" s="29">
-        <v>44176</v>
+        <v>44405</v>
       </c>
       <c r="F102" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G102" s="37"/>
-      <c r="H102" s="29">
-        <v>44204</v>
-      </c>
-      <c r="I102" s="19">
-        <v>1</v>
-      </c>
-      <c r="J102" s="20">
-        <v>1</v>
-      </c>
+      <c r="H102" s="29"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
       <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
       <c r="B103" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="29">
@@ -6101,14 +6101,14 @@
     <row r="104" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37"/>
       <c r="B104" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D104" s="37"/>
       <c r="E104" s="29">
-        <v>44173</v>
+        <v>44176</v>
       </c>
       <c r="F104" s="53" t="s">
         <v>625</v>
@@ -6128,10 +6128,10 @@
     <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37"/>
       <c r="B105" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D105" s="37"/>
       <c r="E105" s="29">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="29">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="I105" s="19">
         <v>1</v>
@@ -6154,32 +6154,38 @@
     </row>
     <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37"/>
-      <c r="B106" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>400</v>
+      <c r="B106" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="D106" s="37"/>
       <c r="E106" s="29">
-        <v>44245</v>
+        <v>44173</v>
       </c>
       <c r="F106" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G106" s="37"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I106" s="19">
+        <v>1</v>
+      </c>
+      <c r="J106" s="20">
+        <v>1</v>
+      </c>
       <c r="K106" s="37"/>
     </row>
     <row r="107" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37"/>
       <c r="B107" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D107" s="37"/>
       <c r="E107" s="29">
@@ -6194,61 +6200,55 @@
       <c r="J107" s="20"/>
       <c r="K107" s="37"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+    <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="37"/>
       <c r="B108" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D108" s="35"/>
+        <v>401</v>
+      </c>
+      <c r="D108" s="37"/>
       <c r="E108" s="29">
         <v>44245</v>
       </c>
       <c r="F108" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="G108" s="35"/>
+      <c r="G108" s="37"/>
       <c r="H108" s="29"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
-      <c r="K108" s="35"/>
+      <c r="K108" s="37"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="29">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="F109" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G109" s="35"/>
-      <c r="H109" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I109" s="19">
-        <v>1</v>
-      </c>
-      <c r="J109" s="20">
-        <v>1</v>
-      </c>
+      <c r="H109" s="29"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
       <c r="K109" s="35"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="29">
@@ -6272,10 +6272,10 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="29">
@@ -6299,10 +6299,10 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="29">
@@ -6326,31 +6326,37 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="7" t="s">
-        <v>903</v>
+        <v>312</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>904</v>
+        <v>313</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="29">
-        <v>44407</v>
+        <v>44175</v>
       </c>
       <c r="F113" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G113" s="35"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H113" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I113" s="19">
+        <v>1</v>
+      </c>
+      <c r="J113" s="20">
+        <v>1</v>
+      </c>
       <c r="K113" s="35"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="29">
@@ -6368,37 +6374,31 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="7" t="s">
-        <v>311</v>
+        <v>904</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>314</v>
+        <v>905</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="29">
-        <v>44175</v>
+        <v>44407</v>
       </c>
       <c r="F115" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G115" s="35"/>
-      <c r="H115" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I115" s="19">
-        <v>1</v>
-      </c>
-      <c r="J115" s="20">
-        <v>1</v>
-      </c>
+      <c r="H115" s="29"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="29">
@@ -6422,14 +6422,14 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="29">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="F117" s="53" t="s">
         <v>625</v>
@@ -6449,10 +6449,10 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="29">
@@ -6476,10 +6476,10 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="29">
@@ -6500,47 +6500,53 @@
       </c>
       <c r="K119" s="35"/>
     </row>
-    <row r="120" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="B120" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D120" s="35"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="55"/>
+      <c r="E120" s="29">
+        <v>44173</v>
+      </c>
+      <c r="F120" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G120" s="35"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="24"/>
+      <c r="H120" s="29">
+        <v>44207</v>
+      </c>
+      <c r="I120" s="19">
+        <v>1</v>
+      </c>
+      <c r="J120" s="20">
+        <v>1</v>
+      </c>
       <c r="K120" s="35"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
-      <c r="B121" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>711</v>
-      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="35"/>
-      <c r="E121" s="29">
-        <v>44382</v>
-      </c>
-      <c r="F121" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E121" s="32"/>
+      <c r="F121" s="55"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="24"/>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="29">
@@ -6558,10 +6564,10 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
       <c r="B123" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="29">
@@ -6579,10 +6585,10 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="29">
@@ -6597,47 +6603,47 @@
       <c r="J124" s="20"/>
       <c r="K124" s="35"/>
     </row>
-    <row r="125" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="B125" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>714</v>
+      </c>
       <c r="D125" s="35"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="55"/>
+      <c r="E125" s="29">
+        <v>44382</v>
+      </c>
+      <c r="F125" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G125" s="35"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="24"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
       <c r="K125" s="35"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
-      <c r="B126" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>747</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="35"/>
-      <c r="E126" s="29">
-        <v>44384</v>
-      </c>
-      <c r="F126" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="55"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="24"/>
       <c r="K126" s="35"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="29">
@@ -6655,10 +6661,10 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="29">
@@ -6675,62 +6681,58 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="4"/>
+      <c r="B129" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>751</v>
+      </c>
       <c r="D129" s="35"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="53"/>
+      <c r="E129" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F129" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G129" s="35"/>
       <c r="H129" s="29"/>
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
       <c r="K129" s="35"/>
     </row>
-    <row r="130" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="35"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="54"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="53"/>
       <c r="G130" s="35"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="22"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
       <c r="K130" s="35"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
       <c r="D131" s="35"/>
-      <c r="E131" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F131" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E131" s="30"/>
+      <c r="F131" s="54"/>
       <c r="G131" s="35"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="19">
-        <v>1</v>
-      </c>
-      <c r="J131" s="20">
-        <v>0</v>
-      </c>
+      <c r="H131" s="30"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="22"/>
       <c r="K131" s="35"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="29">
@@ -6752,10 +6754,10 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="29">
@@ -6777,10 +6779,10 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="29">
@@ -6802,10 +6804,10 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="29">
@@ -6824,53 +6826,51 @@
       </c>
       <c r="K135" s="35"/>
     </row>
-    <row r="136" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="B136" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D136" s="35"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="55"/>
+      <c r="E136" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F136" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G136" s="35"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="24"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="19">
+        <v>1</v>
+      </c>
+      <c r="J136" s="20">
+        <v>0</v>
+      </c>
       <c r="K136" s="35"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
-      <c r="B137" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="35"/>
-      <c r="E137" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F137" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E137" s="32"/>
+      <c r="F137" s="55"/>
       <c r="G137" s="35"/>
-      <c r="H137" s="29">
-        <v>44188</v>
-      </c>
-      <c r="I137" s="19">
-        <v>1</v>
-      </c>
-      <c r="J137" s="20">
-        <v>1</v>
-      </c>
+      <c r="H137" s="32"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="24"/>
       <c r="K137" s="35"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="29">
@@ -6880,22 +6880,24 @@
         <v>625</v>
       </c>
       <c r="G138" s="35"/>
-      <c r="H138" s="29"/>
+      <c r="H138" s="29">
+        <v>44188</v>
+      </c>
       <c r="I138" s="19">
         <v>1</v>
       </c>
       <c r="J138" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="35"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="29">
@@ -6917,10 +6919,10 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="29">
@@ -6942,10 +6944,10 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D141" s="35"/>
       <c r="E141" s="29">
@@ -6964,51 +6966,55 @@
       </c>
       <c r="K141" s="35"/>
     </row>
-    <row r="142" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
+      <c r="B142" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D142" s="35"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="55"/>
+      <c r="E142" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F142" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G142" s="35"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="24"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="19">
+        <v>1</v>
+      </c>
+      <c r="J142" s="20">
+        <v>0</v>
+      </c>
       <c r="K142" s="35"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
-      <c r="B143" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="35"/>
-      <c r="E143" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F143" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E143" s="32"/>
+      <c r="F143" s="55"/>
       <c r="G143" s="35"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="24"/>
       <c r="K143" s="35"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="7" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>459</v>
+        <v>200</v>
       </c>
       <c r="D144" s="35"/>
       <c r="E144" s="29">
-        <v>44362</v>
+        <v>44154</v>
       </c>
       <c r="F144" s="53" t="s">
         <v>625</v>
@@ -7022,14 +7028,14 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="7" t="s">
-        <v>631</v>
+        <v>458</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>633</v>
+        <v>459</v>
       </c>
       <c r="D145" s="35"/>
       <c r="E145" s="29">
-        <v>44378</v>
+        <v>44362</v>
       </c>
       <c r="F145" s="53" t="s">
         <v>625</v>
@@ -7043,10 +7049,10 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D146" s="35"/>
       <c r="E146" s="29">
@@ -7064,14 +7070,14 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="7" t="s">
-        <v>454</v>
+        <v>632</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>455</v>
+        <v>634</v>
       </c>
       <c r="D147" s="35"/>
       <c r="E147" s="29">
-        <v>44362</v>
+        <v>44378</v>
       </c>
       <c r="F147" s="53" t="s">
         <v>625</v>
@@ -7085,10 +7091,10 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D148" s="35"/>
       <c r="E148" s="29">
@@ -7106,94 +7112,94 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="7" t="s">
-        <v>199</v>
+        <v>466</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="D149" s="35"/>
       <c r="E149" s="29">
-        <v>44154</v>
+        <v>44362</v>
       </c>
       <c r="F149" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G149" s="35"/>
       <c r="H149" s="29"/>
-      <c r="I149" s="19">
-        <v>1</v>
-      </c>
-      <c r="J149" s="20">
-        <v>0</v>
-      </c>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
+      <c r="B150" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D150" s="35"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="55"/>
+      <c r="E150" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F150" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G150" s="35"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="24"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="19">
+        <v>1</v>
+      </c>
+      <c r="J150" s="20">
+        <v>0</v>
+      </c>
       <c r="K150" s="35"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
-      <c r="B151" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>635</v>
-      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="35"/>
-      <c r="E151" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F151" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="55"/>
       <c r="G151" s="35"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="19">
-        <v>1</v>
-      </c>
-      <c r="J151" s="20">
-        <v>0</v>
-      </c>
+      <c r="H151" s="32"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="24"/>
       <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="7" t="s">
-        <v>636</v>
+        <v>202</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D152" s="35"/>
       <c r="E152" s="29">
-        <v>44378</v>
+        <v>44148</v>
       </c>
       <c r="F152" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G152" s="35"/>
       <c r="H152" s="29"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="I152" s="19">
+        <v>1</v>
+      </c>
+      <c r="J152" s="20">
+        <v>0</v>
+      </c>
       <c r="K152" s="35"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D153" s="35"/>
       <c r="E153" s="29">
@@ -7208,51 +7214,47 @@
       <c r="J153" s="20"/>
       <c r="K153" s="35"/>
     </row>
-    <row r="154" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
+      <c r="B154" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="D154" s="35"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="55"/>
+      <c r="E154" s="29">
+        <v>44378</v>
+      </c>
+      <c r="F154" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G154" s="35"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="24"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
       <c r="K154" s="35"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>642</v>
-      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="35"/>
-      <c r="E155" s="29">
-        <v>44378</v>
-      </c>
-      <c r="F155" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E155" s="32"/>
+      <c r="F155" s="55"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="19">
-        <v>1</v>
-      </c>
-      <c r="J155" s="20">
-        <v>0</v>
-      </c>
+      <c r="H155" s="32"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="24"/>
       <c r="K155" s="35"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D156" s="35"/>
       <c r="E156" s="29">
@@ -7274,31 +7276,35 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="7" t="s">
-        <v>869</v>
+        <v>641</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>873</v>
+        <v>643</v>
       </c>
       <c r="D157" s="35"/>
       <c r="E157" s="29">
-        <v>44406</v>
+        <v>44378</v>
       </c>
       <c r="F157" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G157" s="35"/>
       <c r="H157" s="29"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="I157" s="19">
+        <v>1</v>
+      </c>
+      <c r="J157" s="20">
+        <v>0</v>
+      </c>
       <c r="K157" s="35"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D158" s="35"/>
       <c r="E158" s="29">
@@ -7316,10 +7322,10 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D159" s="35"/>
       <c r="E159" s="29">
@@ -7337,10 +7343,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D160" s="35"/>
       <c r="E160" s="29">
@@ -7355,51 +7361,47 @@
       <c r="J160" s="20"/>
       <c r="K160" s="35"/>
     </row>
-    <row r="161" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="35"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
+      <c r="B161" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>876</v>
+      </c>
       <c r="D161" s="35"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="55"/>
+      <c r="E161" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F161" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G161" s="35"/>
-      <c r="H161" s="32"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="24"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="20"/>
       <c r="K161" s="35"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="35"/>
-      <c r="B162" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="35"/>
-      <c r="E162" s="29">
-        <v>44154</v>
-      </c>
-      <c r="F162" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E162" s="32"/>
+      <c r="F162" s="55"/>
       <c r="G162" s="35"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="19">
-        <v>1</v>
-      </c>
-      <c r="J162" s="20">
-        <v>0</v>
-      </c>
+      <c r="H162" s="32"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="24"/>
       <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="35"/>
       <c r="B163" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D163" s="35"/>
       <c r="E163" s="29">
@@ -7418,89 +7420,89 @@
       </c>
       <c r="K163" s="35"/>
     </row>
-    <row r="164" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="35"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
+      <c r="B164" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D164" s="35"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="55"/>
+      <c r="E164" s="29">
+        <v>44154</v>
+      </c>
+      <c r="F164" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G164" s="35"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="23"/>
-      <c r="J164" s="24"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="19">
+        <v>1</v>
+      </c>
+      <c r="J164" s="20">
+        <v>0</v>
+      </c>
       <c r="K164" s="35"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="35"/>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="11"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="55"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="35"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="35"/>
+      <c r="B166" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D165" s="35"/>
-      <c r="E165" s="29">
+      <c r="D166" s="35"/>
+      <c r="E166" s="29">
         <v>44158</v>
       </c>
-      <c r="F165" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G165" s="35"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="19">
-        <v>1</v>
-      </c>
-      <c r="J165" s="20">
-        <v>0</v>
-      </c>
-      <c r="K165" s="35"/>
-    </row>
-    <row r="166" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="55"/>
+      <c r="F166" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G166" s="35"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="23"/>
-      <c r="J166" s="24"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="19">
+        <v>1</v>
+      </c>
+      <c r="J166" s="20">
+        <v>0</v>
+      </c>
       <c r="K166" s="35"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="35"/>
-      <c r="B167" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="35"/>
-      <c r="E167" s="29">
-        <v>44158</v>
-      </c>
-      <c r="F167" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E167" s="32"/>
+      <c r="F167" s="55"/>
       <c r="G167" s="35"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="19">
-        <v>1</v>
-      </c>
-      <c r="J167" s="20">
-        <v>0</v>
-      </c>
+      <c r="H167" s="32"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="24"/>
       <c r="K167" s="35"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="35"/>
       <c r="B168" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D168" s="35"/>
       <c r="E168" s="29">
@@ -7522,10 +7524,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="35"/>
       <c r="B169" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D169" s="35"/>
       <c r="E169" s="29">
@@ -7547,10 +7549,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="35"/>
       <c r="B170" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D170" s="35"/>
       <c r="E170" s="29">
@@ -7572,10 +7574,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="35"/>
       <c r="B171" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="29">
@@ -7597,10 +7599,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="35"/>
       <c r="B172" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D172" s="35"/>
       <c r="E172" s="29">
@@ -7622,10 +7624,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="35"/>
       <c r="B173" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D173" s="35"/>
       <c r="E173" s="29">
@@ -7647,10 +7649,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="35"/>
       <c r="B174" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D174" s="35"/>
       <c r="E174" s="29">
@@ -7672,10 +7674,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="35"/>
       <c r="B175" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D175" s="35"/>
       <c r="E175" s="29">
@@ -7697,10 +7699,10 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="35"/>
       <c r="B176" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D176" s="35"/>
       <c r="E176" s="29">
@@ -7722,10 +7724,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="35"/>
       <c r="B177" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D177" s="35"/>
       <c r="E177" s="29">
@@ -7747,10 +7749,10 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="35"/>
       <c r="B178" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D178" s="35"/>
       <c r="E178" s="29">
@@ -7772,10 +7774,10 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D179" s="35"/>
       <c r="E179" s="29">
@@ -7797,10 +7799,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35"/>
       <c r="B180" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D180" s="35"/>
       <c r="E180" s="29">
@@ -7822,10 +7824,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="35"/>
       <c r="B181" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D181" s="35"/>
       <c r="E181" s="29">
@@ -7847,10 +7849,10 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="35"/>
       <c r="B182" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D182" s="35"/>
       <c r="E182" s="29">
@@ -7872,10 +7874,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="35"/>
       <c r="B183" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D183" s="35"/>
       <c r="E183" s="29">
@@ -7897,10 +7899,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="35"/>
       <c r="B184" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D184" s="35"/>
       <c r="E184" s="29">
@@ -7922,10 +7924,10 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35"/>
       <c r="B185" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D185" s="35"/>
       <c r="E185" s="29">
@@ -7944,51 +7946,51 @@
       </c>
       <c r="K185" s="35"/>
     </row>
-    <row r="186" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="35"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
+      <c r="B186" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D186" s="35"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="55"/>
+      <c r="E186" s="29">
+        <v>44158</v>
+      </c>
+      <c r="F186" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G186" s="35"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="23"/>
-      <c r="J186" s="24"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="19">
+        <v>1</v>
+      </c>
+      <c r="J186" s="20">
+        <v>0</v>
+      </c>
       <c r="K186" s="35"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="35"/>
-      <c r="B187" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="35"/>
-      <c r="E187" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F187" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E187" s="32"/>
+      <c r="F187" s="55"/>
       <c r="G187" s="35"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="19">
-        <v>1</v>
-      </c>
-      <c r="J187" s="20">
-        <v>0</v>
-      </c>
+      <c r="H187" s="32"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="24"/>
       <c r="K187" s="35"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="35"/>
       <c r="B188" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D188" s="35"/>
       <c r="E188" s="29">
@@ -8010,14 +8012,14 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="35"/>
       <c r="B189" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="D189" s="35"/>
       <c r="E189" s="29">
-        <v>44165</v>
+        <v>44148</v>
       </c>
       <c r="F189" s="53" t="s">
         <v>625</v>
@@ -8035,10 +8037,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D190" s="35"/>
       <c r="E190" s="29">
@@ -8060,14 +8062,14 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="35"/>
       <c r="B191" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="D191" s="35"/>
       <c r="E191" s="29">
-        <v>44148</v>
+        <v>44165</v>
       </c>
       <c r="F191" s="53" t="s">
         <v>625</v>
@@ -8085,10 +8087,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="35"/>
       <c r="B192" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D192" s="35"/>
       <c r="E192" s="29">
@@ -8110,14 +8112,14 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="35"/>
       <c r="B193" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D193" s="35"/>
       <c r="E193" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F193" s="53" t="s">
         <v>625</v>
@@ -8135,10 +8137,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="35"/>
       <c r="B194" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D194" s="35"/>
       <c r="E194" s="29">
@@ -8160,60 +8162,60 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="35"/>
       <c r="B195" s="7" t="s">
-        <v>923</v>
+        <v>105</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>924</v>
+        <v>108</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="29">
-        <v>44407</v>
+        <v>44152</v>
       </c>
       <c r="F195" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G195" s="35"/>
       <c r="H195" s="29"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="I195" s="19">
+        <v>1</v>
+      </c>
+      <c r="J195" s="20">
+        <v>0</v>
+      </c>
       <c r="K195" s="35"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="35"/>
       <c r="B196" s="7" t="s">
-        <v>79</v>
+        <v>922</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>81</v>
+        <v>923</v>
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="29">
-        <v>44148</v>
+        <v>44407</v>
       </c>
       <c r="F196" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G196" s="35"/>
       <c r="H196" s="29"/>
-      <c r="I196" s="19">
-        <v>1</v>
-      </c>
-      <c r="J196" s="20">
-        <v>0</v>
-      </c>
+      <c r="I196" s="19"/>
+      <c r="J196" s="20"/>
       <c r="K196" s="35"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D197" s="35"/>
       <c r="E197" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F197" s="53" t="s">
         <v>625</v>
@@ -8231,14 +8233,14 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="35"/>
       <c r="B198" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D198" s="35"/>
       <c r="E198" s="29">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="F198" s="53" t="s">
         <v>625</v>
@@ -8256,10 +8258,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="35"/>
       <c r="B199" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="D199" s="35"/>
       <c r="E199" s="29">
@@ -8281,10 +8283,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="35"/>
       <c r="B200" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D200" s="35"/>
       <c r="E200" s="29">
@@ -8306,10 +8308,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="35"/>
       <c r="B201" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="29">
@@ -8331,10 +8333,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="35"/>
       <c r="B202" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D202" s="35"/>
       <c r="E202" s="29">
@@ -8356,10 +8358,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="35"/>
       <c r="B203" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D203" s="35"/>
       <c r="E203" s="29">
@@ -8381,14 +8383,14 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="35"/>
       <c r="B204" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D204" s="35"/>
       <c r="E204" s="29">
-        <v>44152</v>
+        <v>44148</v>
       </c>
       <c r="F204" s="53" t="s">
         <v>625</v>
@@ -8406,10 +8408,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="35"/>
       <c r="B205" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="29">
@@ -8431,14 +8433,14 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="7" t="s">
-        <v>856</v>
+        <v>94</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>857</v>
+        <v>97</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="29">
-        <v>44406</v>
+        <v>44152</v>
       </c>
       <c r="F206" s="53" t="s">
         <v>625</v>
@@ -8456,14 +8458,14 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="35"/>
       <c r="B207" s="7" t="s">
-        <v>98</v>
+        <v>856</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>100</v>
+        <v>857</v>
       </c>
       <c r="D207" s="35"/>
       <c r="E207" s="29">
-        <v>44152</v>
+        <v>44406</v>
       </c>
       <c r="F207" s="53" t="s">
         <v>625</v>
@@ -8481,10 +8483,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="35"/>
       <c r="B208" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D208" s="35"/>
       <c r="E208" s="29">
@@ -8506,10 +8508,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="35"/>
       <c r="B209" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29">
@@ -8531,10 +8533,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="35"/>
       <c r="B210" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="D210" s="35"/>
       <c r="E210" s="29">
@@ -8556,10 +8558,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="35"/>
       <c r="B211" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D211" s="35"/>
       <c r="E211" s="29">
@@ -8581,10 +8583,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="35"/>
       <c r="B212" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D212" s="35"/>
       <c r="E212" s="29">
@@ -8606,10 +8608,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
       <c r="B213" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D213" s="35"/>
       <c r="E213" s="29">
@@ -8631,10 +8633,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
       <c r="B214" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D214" s="35"/>
       <c r="E214" s="29">
@@ -8656,14 +8658,14 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="35"/>
       <c r="B215" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D215" s="35"/>
       <c r="E215" s="29">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="F215" s="53" t="s">
         <v>625</v>
@@ -8681,10 +8683,10 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="35"/>
       <c r="B216" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D216" s="35"/>
       <c r="E216" s="29">
@@ -8706,10 +8708,10 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="35"/>
       <c r="B217" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D217" s="35"/>
       <c r="E217" s="29">
@@ -8731,10 +8733,10 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="35"/>
       <c r="B218" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D218" s="35"/>
       <c r="E218" s="29">
@@ -8756,31 +8758,35 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="35"/>
       <c r="B219" s="7" t="s">
-        <v>915</v>
+        <v>116</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>917</v>
+        <v>185</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="29">
-        <v>44407</v>
+        <v>44153</v>
       </c>
       <c r="F219" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G219" s="35"/>
       <c r="H219" s="29"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="I219" s="19">
+        <v>1</v>
+      </c>
+      <c r="J219" s="20">
+        <v>0</v>
+      </c>
       <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="35"/>
       <c r="B220" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>918</v>
       </c>
       <c r="D220" s="35"/>
       <c r="E220" s="29">
@@ -8798,35 +8804,31 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="35"/>
       <c r="B221" s="7" t="s">
-        <v>115</v>
+        <v>915</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>188</v>
+        <v>917</v>
       </c>
       <c r="D221" s="35"/>
       <c r="E221" s="29">
-        <v>44153</v>
+        <v>44407</v>
       </c>
       <c r="F221" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G221" s="35"/>
       <c r="H221" s="29"/>
-      <c r="I221" s="19">
-        <v>1</v>
-      </c>
-      <c r="J221" s="20">
-        <v>0</v>
-      </c>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
       <c r="K221" s="35"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="35"/>
       <c r="B222" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D222" s="35"/>
       <c r="E222" s="29">
@@ -8848,10 +8850,10 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="35"/>
       <c r="B223" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D223" s="35"/>
       <c r="E223" s="29">
@@ -8873,10 +8875,10 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="35"/>
       <c r="B224" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D224" s="35"/>
       <c r="E224" s="29">
@@ -8898,10 +8900,10 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="35"/>
       <c r="B225" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D225" s="35"/>
       <c r="E225" s="29">
@@ -8923,10 +8925,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="35"/>
       <c r="B226" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D226" s="35"/>
       <c r="E226" s="29">
@@ -8945,51 +8947,51 @@
       </c>
       <c r="K226" s="35"/>
     </row>
-    <row r="227" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="35"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
+      <c r="B227" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="D227" s="35"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="55"/>
+      <c r="E227" s="29">
+        <v>44153</v>
+      </c>
+      <c r="F227" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G227" s="35"/>
-      <c r="H227" s="32"/>
-      <c r="I227" s="23"/>
-      <c r="J227" s="24"/>
+      <c r="H227" s="29"/>
+      <c r="I227" s="19">
+        <v>1</v>
+      </c>
+      <c r="J227" s="20">
+        <v>0</v>
+      </c>
       <c r="K227" s="35"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="35"/>
-      <c r="B228" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
       <c r="D228" s="35"/>
-      <c r="E228" s="29">
-        <v>44153</v>
-      </c>
-      <c r="F228" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E228" s="32"/>
+      <c r="F228" s="55"/>
       <c r="G228" s="35"/>
-      <c r="H228" s="29"/>
-      <c r="I228" s="19">
-        <v>1</v>
-      </c>
-      <c r="J228" s="20">
-        <v>0</v>
-      </c>
+      <c r="H228" s="32"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="24"/>
       <c r="K228" s="35"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="35"/>
       <c r="B229" s="7" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D229" s="35"/>
       <c r="E229" s="29">
@@ -9011,14 +9013,14 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="35"/>
       <c r="B230" s="7" t="s">
-        <v>760</v>
+        <v>195</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>761</v>
+        <v>196</v>
       </c>
       <c r="D230" s="35"/>
       <c r="E230" s="29">
-        <v>44384</v>
+        <v>44153</v>
       </c>
       <c r="F230" s="53" t="s">
         <v>625</v>
@@ -9033,51 +9035,51 @@
       </c>
       <c r="K230" s="35"/>
     </row>
-    <row r="231" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="35"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12"/>
+      <c r="B231" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="D231" s="35"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="55"/>
+      <c r="E231" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F231" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G231" s="35"/>
-      <c r="H231" s="32"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="24"/>
+      <c r="H231" s="29"/>
+      <c r="I231" s="19">
+        <v>1</v>
+      </c>
+      <c r="J231" s="20">
+        <v>0</v>
+      </c>
       <c r="K231" s="35"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="35"/>
-      <c r="B232" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12"/>
       <c r="D232" s="35"/>
-      <c r="E232" s="29">
-        <v>44160</v>
-      </c>
-      <c r="F232" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E232" s="32"/>
+      <c r="F232" s="55"/>
       <c r="G232" s="35"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="19">
-        <v>1</v>
-      </c>
-      <c r="J232" s="20">
-        <v>0</v>
-      </c>
+      <c r="H232" s="32"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="24"/>
       <c r="K232" s="35"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="35"/>
       <c r="B233" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D233" s="35"/>
       <c r="E233" s="29">
@@ -9099,10 +9101,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="35"/>
       <c r="B234" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D234" s="35"/>
       <c r="E234" s="29">
@@ -9124,10 +9126,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="35"/>
       <c r="B235" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D235" s="35"/>
       <c r="E235" s="29">
@@ -9149,10 +9151,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="35"/>
       <c r="B236" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D236" s="35"/>
       <c r="E236" s="29">
@@ -9173,58 +9175,62 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="35"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
+      <c r="B237" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="D237" s="35"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="53"/>
+      <c r="E237" s="29">
+        <v>44160</v>
+      </c>
+      <c r="F237" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G237" s="35"/>
       <c r="H237" s="29"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
+      <c r="I237" s="19">
+        <v>1</v>
+      </c>
+      <c r="J237" s="20">
+        <v>0</v>
+      </c>
       <c r="K237" s="35"/>
     </row>
-    <row r="238" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="10"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="4"/>
       <c r="D238" s="35"/>
-      <c r="E238" s="30"/>
-      <c r="F238" s="54"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="53"/>
       <c r="G238" s="35"/>
-      <c r="H238" s="30"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="22"/>
+      <c r="H238" s="29"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
       <c r="K238" s="35"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="35"/>
-      <c r="B239" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>849</v>
-      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="10"/>
       <c r="D239" s="35"/>
-      <c r="E239" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F239" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E239" s="30"/>
+      <c r="F239" s="54"/>
       <c r="G239" s="35"/>
-      <c r="H239" s="29"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="22"/>
       <c r="K239" s="35"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="35"/>
       <c r="B240" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D240" s="35"/>
       <c r="E240" s="29">
@@ -9242,10 +9248,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="35"/>
       <c r="B241" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D241" s="35"/>
       <c r="E241" s="29">
@@ -9260,53 +9266,47 @@
       <c r="J241" s="20"/>
       <c r="K241" s="35"/>
     </row>
-    <row r="242" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="35"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
+      <c r="B242" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="D242" s="35"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="55"/>
+      <c r="E242" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F242" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G242" s="35"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="23"/>
-      <c r="J242" s="24"/>
+      <c r="H242" s="29"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
       <c r="K242" s="35"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="35"/>
-      <c r="B243" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12"/>
       <c r="D243" s="35"/>
-      <c r="E243" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F243" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E243" s="32"/>
+      <c r="F243" s="55"/>
       <c r="G243" s="35"/>
-      <c r="H243" s="29">
-        <v>44207</v>
-      </c>
-      <c r="I243" s="19">
-        <v>1</v>
-      </c>
-      <c r="J243" s="20">
-        <v>1</v>
-      </c>
+      <c r="H243" s="32"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="24"/>
       <c r="K243" s="35"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="35"/>
       <c r="B244" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D244" s="35"/>
       <c r="E244" s="29">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="G244" s="35"/>
       <c r="H244" s="29">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="I244" s="19">
         <v>1</v>
@@ -9330,10 +9330,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="35"/>
       <c r="B245" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D245" s="35"/>
       <c r="E245" s="29">
@@ -9357,10 +9357,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="35"/>
       <c r="B246" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D246" s="35"/>
       <c r="E246" s="29">
@@ -9384,10 +9384,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="35"/>
       <c r="B247" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D247" s="35"/>
       <c r="E247" s="29">
@@ -9411,10 +9411,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="35"/>
       <c r="B248" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="29">
@@ -9438,10 +9438,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="35"/>
       <c r="B249" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D249" s="35"/>
       <c r="E249" s="29">
@@ -9465,10 +9465,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="35"/>
       <c r="B250" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="29">
@@ -9492,10 +9492,10 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="35"/>
       <c r="B251" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D251" s="35"/>
       <c r="E251" s="29">
@@ -9519,10 +9519,10 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="35"/>
       <c r="B252" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D252" s="35"/>
       <c r="E252" s="29">
@@ -9546,10 +9546,10 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="35"/>
       <c r="B253" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D253" s="35"/>
       <c r="E253" s="29">
@@ -9573,10 +9573,10 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="35"/>
       <c r="B254" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="29">
@@ -9600,10 +9600,10 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="35"/>
       <c r="B255" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D255" s="35"/>
       <c r="E255" s="29">
@@ -9627,10 +9627,10 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="35"/>
       <c r="B256" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D256" s="35"/>
       <c r="E256" s="29">
@@ -9654,10 +9654,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="35"/>
       <c r="B257" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D257" s="35"/>
       <c r="E257" s="29">
@@ -9681,10 +9681,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="35"/>
       <c r="B258" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D258" s="35"/>
       <c r="E258" s="29">
@@ -9708,10 +9708,10 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="35"/>
       <c r="B259" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D259" s="35"/>
       <c r="E259" s="29">
@@ -9735,10 +9735,10 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="35"/>
       <c r="B260" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D260" s="35"/>
       <c r="E260" s="29">
@@ -9762,10 +9762,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="35"/>
       <c r="B261" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D261" s="35"/>
       <c r="E261" s="29">
@@ -9789,10 +9789,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="35"/>
       <c r="B262" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="29">
@@ -9813,47 +9813,53 @@
       </c>
       <c r="K262" s="35"/>
     </row>
-    <row r="263" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="35"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12"/>
+      <c r="B263" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D263" s="35"/>
-      <c r="E263" s="32"/>
-      <c r="F263" s="55"/>
+      <c r="E263" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F263" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G263" s="35"/>
-      <c r="H263" s="32"/>
-      <c r="I263" s="23"/>
-      <c r="J263" s="24"/>
+      <c r="H263" s="29">
+        <v>44211</v>
+      </c>
+      <c r="I263" s="19">
+        <v>1</v>
+      </c>
+      <c r="J263" s="20">
+        <v>1</v>
+      </c>
       <c r="K263" s="35"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="35"/>
-      <c r="B264" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>847</v>
-      </c>
+      <c r="B264" s="11"/>
+      <c r="C264" s="12"/>
       <c r="D264" s="35"/>
-      <c r="E264" s="29">
-        <v>44405</v>
-      </c>
-      <c r="F264" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E264" s="32"/>
+      <c r="F264" s="55"/>
       <c r="G264" s="35"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
+      <c r="H264" s="32"/>
+      <c r="I264" s="23"/>
+      <c r="J264" s="24"/>
       <c r="K264" s="35"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="35"/>
       <c r="B265" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="29">
@@ -9870,54 +9876,58 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="35"/>
-      <c r="B266" s="7"/>
-      <c r="C266" s="4"/>
+      <c r="B266" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>844</v>
+      </c>
       <c r="D266" s="35"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="53"/>
+      <c r="E266" s="29">
+        <v>44405</v>
+      </c>
+      <c r="F266" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G266" s="35"/>
       <c r="H266" s="29"/>
       <c r="I266" s="19"/>
       <c r="J266" s="20"/>
       <c r="K266" s="35"/>
     </row>
-    <row r="267" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="35"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="10"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="4"/>
       <c r="D267" s="35"/>
-      <c r="E267" s="30"/>
-      <c r="F267" s="54"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="53"/>
       <c r="G267" s="35"/>
-      <c r="H267" s="30"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="22"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
       <c r="K267" s="35"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="35"/>
-      <c r="B268" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>826</v>
-      </c>
+      <c r="B268" s="9"/>
+      <c r="C268" s="10"/>
       <c r="D268" s="35"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="53"/>
+      <c r="E268" s="30"/>
+      <c r="F268" s="54"/>
       <c r="G268" s="35"/>
-      <c r="H268" s="29"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
+      <c r="H268" s="30"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="22"/>
       <c r="K268" s="35"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="35"/>
       <c r="B269" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D269" s="35"/>
       <c r="E269" s="29"/>
@@ -9931,10 +9941,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="35"/>
       <c r="B270" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D270" s="35"/>
       <c r="E270" s="29"/>
@@ -9948,10 +9958,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="35"/>
       <c r="B271" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D271" s="35"/>
       <c r="E271" s="29"/>
@@ -9965,69 +9975,65 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="35"/>
       <c r="B272" s="7" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D272" s="35"/>
-      <c r="E272" s="29">
-        <v>44400</v>
-      </c>
-      <c r="F272" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E272" s="29"/>
+      <c r="F272" s="53"/>
       <c r="G272" s="35"/>
       <c r="H272" s="29"/>
       <c r="I272" s="19"/>
       <c r="J272" s="20"/>
       <c r="K272" s="35"/>
     </row>
-    <row r="273" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="35"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12"/>
+      <c r="B273" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="D273" s="35"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="55"/>
+      <c r="E273" s="29">
+        <v>44400</v>
+      </c>
+      <c r="F273" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G273" s="35"/>
-      <c r="H273" s="32"/>
-      <c r="I273" s="23"/>
-      <c r="J273" s="24"/>
+      <c r="H273" s="29"/>
+      <c r="I273" s="19"/>
+      <c r="J273" s="20"/>
       <c r="K273" s="35"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="35"/>
-      <c r="B274" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="35"/>
-      <c r="E274" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F274" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E274" s="32"/>
+      <c r="F274" s="55"/>
       <c r="G274" s="35"/>
-      <c r="H274" s="29"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
+      <c r="H274" s="32"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="24"/>
       <c r="K274" s="35"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="35"/>
       <c r="B275" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D275" s="35"/>
       <c r="E275" s="29">
-        <v>44349</v>
+        <v>44243</v>
       </c>
       <c r="F275" s="53" t="s">
         <v>625</v>
@@ -10041,14 +10047,14 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="35"/>
       <c r="B276" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D276" s="35"/>
       <c r="E276" s="29">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="F276" s="53" t="s">
         <v>625</v>
@@ -10062,10 +10068,10 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="35"/>
       <c r="B277" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D277" s="35"/>
       <c r="E277" s="29">
@@ -10083,14 +10089,14 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="35"/>
       <c r="B278" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D278" s="35"/>
       <c r="E278" s="29">
-        <v>44243</v>
+        <v>44364</v>
       </c>
       <c r="F278" s="53" t="s">
         <v>625</v>
@@ -10104,14 +10110,14 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="35"/>
       <c r="B279" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D279" s="35"/>
       <c r="E279" s="29">
-        <v>44362</v>
+        <v>44243</v>
       </c>
       <c r="F279" s="53" t="s">
         <v>625</v>
@@ -10122,51 +10128,51 @@
       <c r="J279" s="20"/>
       <c r="K279" s="35"/>
     </row>
-    <row r="280" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="35"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12"/>
+      <c r="B280" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D280" s="35"/>
-      <c r="E280" s="32"/>
-      <c r="F280" s="55"/>
+      <c r="E280" s="29">
+        <v>44362</v>
+      </c>
+      <c r="F280" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G280" s="35"/>
-      <c r="H280" s="32"/>
-      <c r="I280" s="23"/>
-      <c r="J280" s="24"/>
+      <c r="H280" s="29"/>
+      <c r="I280" s="19"/>
+      <c r="J280" s="20"/>
       <c r="K280" s="35"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="35"/>
-      <c r="B281" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="B281" s="11"/>
+      <c r="C281" s="12"/>
       <c r="D281" s="35"/>
-      <c r="E281" s="29">
-        <v>44243</v>
-      </c>
-      <c r="F281" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E281" s="32"/>
+      <c r="F281" s="55"/>
       <c r="G281" s="35"/>
-      <c r="H281" s="29"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="20"/>
+      <c r="H281" s="32"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="24"/>
       <c r="K281" s="35"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="35"/>
       <c r="B282" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D282" s="35"/>
       <c r="E282" s="29">
-        <v>44343</v>
+        <v>44243</v>
       </c>
       <c r="F282" s="53" t="s">
         <v>625</v>
@@ -10177,51 +10183,47 @@
       <c r="J282" s="20"/>
       <c r="K282" s="35"/>
     </row>
-    <row r="283" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="35"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
+      <c r="B283" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D283" s="35"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="55"/>
+      <c r="E283" s="29">
+        <v>44343</v>
+      </c>
+      <c r="F283" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G283" s="35"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="24"/>
+      <c r="H283" s="29"/>
+      <c r="I283" s="19"/>
+      <c r="J283" s="20"/>
       <c r="K283" s="35"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="35"/>
-      <c r="B284" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12"/>
       <c r="D284" s="35"/>
-      <c r="E284" s="29">
-        <v>44148</v>
-      </c>
-      <c r="F284" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E284" s="32"/>
+      <c r="F284" s="55"/>
       <c r="G284" s="35"/>
-      <c r="H284" s="29"/>
-      <c r="I284" s="19">
-        <v>1</v>
-      </c>
-      <c r="J284" s="20">
-        <v>0</v>
-      </c>
+      <c r="H284" s="32"/>
+      <c r="I284" s="23"/>
+      <c r="J284" s="24"/>
       <c r="K284" s="35"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="35"/>
       <c r="B285" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D285" s="35"/>
       <c r="E285" s="29">
@@ -10243,10 +10245,10 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="35"/>
       <c r="B286" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D286" s="35"/>
       <c r="E286" s="29">
@@ -10268,14 +10270,14 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="35"/>
       <c r="B287" s="7" t="s">
-        <v>735</v>
+        <v>484</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>736</v>
+        <v>15</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="29">
-        <v>44383</v>
+        <v>44148</v>
       </c>
       <c r="F287" s="53" t="s">
         <v>625</v>
@@ -10293,14 +10295,14 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="35"/>
       <c r="B288" s="7" t="s">
-        <v>485</v>
+        <v>735</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>16</v>
+        <v>736</v>
       </c>
       <c r="D288" s="35"/>
       <c r="E288" s="29">
-        <v>44148</v>
+        <v>44383</v>
       </c>
       <c r="F288" s="53" t="s">
         <v>625</v>
@@ -10318,10 +10320,10 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="35"/>
       <c r="B289" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D289" s="35"/>
       <c r="E289" s="29">
@@ -10343,10 +10345,10 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="35"/>
       <c r="B290" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D290" s="35"/>
       <c r="E290" s="29">
@@ -10368,10 +10370,10 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D291" s="35"/>
       <c r="E291" s="29">
@@ -10393,10 +10395,10 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="35"/>
       <c r="B292" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D292" s="35"/>
       <c r="E292" s="29">
@@ -10418,10 +10420,10 @@
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="35"/>
       <c r="B293" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D293" s="35"/>
       <c r="E293" s="29">
@@ -10443,10 +10445,10 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="35"/>
       <c r="B294" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" s="35"/>
       <c r="E294" s="29">
@@ -10468,10 +10470,10 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="35"/>
       <c r="B295" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D295" s="35"/>
       <c r="E295" s="29">
@@ -10493,10 +10495,10 @@
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="35"/>
       <c r="B296" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D296" s="35"/>
       <c r="E296" s="29">
@@ -10518,10 +10520,10 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="35"/>
       <c r="B297" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="29">
@@ -10543,10 +10545,10 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="35"/>
       <c r="B298" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D298" s="35"/>
       <c r="E298" s="29">
@@ -10568,10 +10570,10 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="35"/>
       <c r="B299" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D299" s="35"/>
       <c r="E299" s="29">
@@ -10593,10 +10595,10 @@
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="35"/>
       <c r="B300" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>28</v>
+        <v>496</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D300" s="35"/>
       <c r="E300" s="29">
@@ -10618,10 +10620,10 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="35"/>
       <c r="B301" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>29</v>
+        <v>497</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D301" s="35"/>
       <c r="E301" s="29">
@@ -10643,10 +10645,10 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="35"/>
       <c r="B302" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D302" s="35"/>
       <c r="E302" s="29">
@@ -10668,10 +10670,10 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="35"/>
       <c r="B303" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D303" s="35"/>
       <c r="E303" s="29">
@@ -10690,51 +10692,55 @@
       </c>
       <c r="K303" s="35"/>
     </row>
-    <row r="304" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="35"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="12"/>
+      <c r="B304" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D304" s="35"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="55"/>
+      <c r="E304" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F304" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G304" s="35"/>
-      <c r="H304" s="32"/>
-      <c r="I304" s="23"/>
-      <c r="J304" s="24"/>
+      <c r="H304" s="29"/>
+      <c r="I304" s="19">
+        <v>1</v>
+      </c>
+      <c r="J304" s="20">
+        <v>0</v>
+      </c>
       <c r="K304" s="35"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="35"/>
-      <c r="B305" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>440</v>
-      </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="12"/>
       <c r="D305" s="35"/>
-      <c r="E305" s="29">
-        <v>44343</v>
-      </c>
-      <c r="F305" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E305" s="32"/>
+      <c r="F305" s="55"/>
       <c r="G305" s="35"/>
-      <c r="H305" s="29"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
+      <c r="H305" s="32"/>
+      <c r="I305" s="23"/>
+      <c r="J305" s="24"/>
       <c r="K305" s="35"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="35"/>
       <c r="B306" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="29">
-        <v>43978</v>
+        <v>44343</v>
       </c>
       <c r="F306" s="53" t="s">
         <v>625</v>
@@ -10745,51 +10751,51 @@
       <c r="J306" s="20"/>
       <c r="K306" s="35"/>
     </row>
-    <row r="307" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="35"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="12"/>
+      <c r="B307" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D307" s="35"/>
-      <c r="E307" s="32"/>
-      <c r="F307" s="55"/>
+      <c r="E307" s="29">
+        <v>43978</v>
+      </c>
+      <c r="F307" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G307" s="35"/>
-      <c r="H307" s="32"/>
-      <c r="I307" s="23"/>
-      <c r="J307" s="24"/>
+      <c r="H307" s="29"/>
+      <c r="I307" s="19"/>
+      <c r="J307" s="20"/>
       <c r="K307" s="35"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="35"/>
-      <c r="B308" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="35"/>
-      <c r="E308" s="29">
-        <v>43978</v>
-      </c>
-      <c r="F308" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E308" s="32"/>
+      <c r="F308" s="55"/>
       <c r="G308" s="35"/>
-      <c r="H308" s="29"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
+      <c r="H308" s="32"/>
+      <c r="I308" s="23"/>
+      <c r="J308" s="24"/>
       <c r="K308" s="35"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="35"/>
       <c r="B309" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D309" s="35"/>
       <c r="E309" s="29">
-        <v>44148</v>
+        <v>43978</v>
       </c>
       <c r="F309" s="53" t="s">
         <v>625</v>
@@ -10802,58 +10808,58 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="35"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="4"/>
+      <c r="B310" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D310" s="35"/>
-      <c r="E310" s="29"/>
-      <c r="F310" s="53"/>
+      <c r="E310" s="29">
+        <v>44148</v>
+      </c>
+      <c r="F310" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G310" s="35"/>
       <c r="H310" s="29"/>
       <c r="I310" s="19"/>
       <c r="J310" s="20"/>
       <c r="K310" s="35"/>
     </row>
-    <row r="311" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="35"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="10"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="4"/>
       <c r="D311" s="35"/>
-      <c r="E311" s="30"/>
-      <c r="F311" s="54"/>
+      <c r="E311" s="29"/>
+      <c r="F311" s="53"/>
       <c r="G311" s="35"/>
-      <c r="H311" s="30"/>
-      <c r="I311" s="21"/>
-      <c r="J311" s="22"/>
+      <c r="H311" s="29"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
       <c r="K311" s="35"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="35"/>
-      <c r="B312" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>563</v>
-      </c>
+      <c r="B312" s="9"/>
+      <c r="C312" s="10"/>
       <c r="D312" s="35"/>
-      <c r="E312" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F312" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E312" s="30"/>
+      <c r="F312" s="54"/>
       <c r="G312" s="35"/>
-      <c r="H312" s="29"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
+      <c r="H312" s="30"/>
+      <c r="I312" s="21"/>
+      <c r="J312" s="22"/>
       <c r="K312" s="35"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="35"/>
       <c r="B313" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D313" s="35"/>
       <c r="E313" s="29">
@@ -10871,10 +10877,10 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="35"/>
       <c r="B314" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D314" s="35"/>
       <c r="E314" s="29">
@@ -10889,47 +10895,47 @@
       <c r="J314" s="20"/>
       <c r="K314" s="35"/>
     </row>
-    <row r="315" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="35"/>
-      <c r="B315" s="11"/>
-      <c r="C315" s="12"/>
+      <c r="B315" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="D315" s="35"/>
-      <c r="E315" s="32"/>
-      <c r="F315" s="55"/>
+      <c r="E315" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F315" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G315" s="35"/>
-      <c r="H315" s="32"/>
-      <c r="I315" s="23"/>
-      <c r="J315" s="24"/>
+      <c r="H315" s="29"/>
+      <c r="I315" s="19"/>
+      <c r="J315" s="20"/>
       <c r="K315" s="35"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="35"/>
-      <c r="B316" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="B316" s="11"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="35"/>
-      <c r="E316" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F316" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E316" s="32"/>
+      <c r="F316" s="55"/>
       <c r="G316" s="35"/>
-      <c r="H316" s="29"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
+      <c r="H316" s="32"/>
+      <c r="I316" s="23"/>
+      <c r="J316" s="24"/>
       <c r="K316" s="35"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="35"/>
       <c r="B317" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D317" s="35"/>
       <c r="E317" s="29">
@@ -10947,10 +10953,10 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="35"/>
       <c r="B318" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D318" s="35"/>
       <c r="E318" s="29">
@@ -10968,10 +10974,10 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="35"/>
       <c r="B319" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D319" s="35"/>
       <c r="E319" s="29">
@@ -10989,10 +10995,10 @@
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="35"/>
       <c r="B320" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D320" s="35"/>
       <c r="E320" s="29">
@@ -11010,10 +11016,10 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="35"/>
       <c r="B321" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D321" s="35"/>
       <c r="E321" s="29">
@@ -11028,47 +11034,47 @@
       <c r="J321" s="20"/>
       <c r="K321" s="35"/>
     </row>
-    <row r="322" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="35"/>
-      <c r="B322" s="11"/>
-      <c r="C322" s="12"/>
+      <c r="B322" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D322" s="35"/>
-      <c r="E322" s="32"/>
-      <c r="F322" s="55"/>
+      <c r="E322" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F322" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G322" s="35"/>
-      <c r="H322" s="32"/>
-      <c r="I322" s="23"/>
-      <c r="J322" s="24"/>
+      <c r="H322" s="29"/>
+      <c r="I322" s="19"/>
+      <c r="J322" s="20"/>
       <c r="K322" s="35"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="35"/>
-      <c r="B323" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>470</v>
-      </c>
+      <c r="B323" s="11"/>
+      <c r="C323" s="12"/>
       <c r="D323" s="35"/>
-      <c r="E323" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F323" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E323" s="32"/>
+      <c r="F323" s="55"/>
       <c r="G323" s="35"/>
-      <c r="H323" s="29"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
+      <c r="H323" s="32"/>
+      <c r="I323" s="23"/>
+      <c r="J323" s="24"/>
       <c r="K323" s="35"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="35"/>
       <c r="B324" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D324" s="35"/>
       <c r="E324" s="29">
@@ -11083,47 +11089,47 @@
       <c r="J324" s="20"/>
       <c r="K324" s="35"/>
     </row>
-    <row r="325" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="35"/>
-      <c r="B325" s="11"/>
-      <c r="C325" s="12"/>
+      <c r="B325" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D325" s="35"/>
-      <c r="E325" s="32"/>
-      <c r="F325" s="55"/>
+      <c r="E325" s="29">
+        <v>44371</v>
+      </c>
+      <c r="F325" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G325" s="35"/>
-      <c r="H325" s="32"/>
-      <c r="I325" s="23"/>
-      <c r="J325" s="24"/>
+      <c r="H325" s="29"/>
+      <c r="I325" s="19"/>
+      <c r="J325" s="20"/>
       <c r="K325" s="35"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="35"/>
-      <c r="B326" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>890</v>
-      </c>
+      <c r="B326" s="11"/>
+      <c r="C326" s="12"/>
       <c r="D326" s="35"/>
-      <c r="E326" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F326" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E326" s="32"/>
+      <c r="F326" s="55"/>
       <c r="G326" s="35"/>
-      <c r="H326" s="29"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
+      <c r="H326" s="32"/>
+      <c r="I326" s="23"/>
+      <c r="J326" s="24"/>
       <c r="K326" s="35"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="35"/>
       <c r="B327" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D327" s="35"/>
       <c r="E327" s="29">
@@ -11141,14 +11147,14 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="35"/>
       <c r="B328" s="7" t="s">
-        <v>885</v>
+        <v>558</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D328" s="35"/>
       <c r="E328" s="29">
-        <v>44406</v>
+        <v>44372</v>
       </c>
       <c r="F328" s="53" t="s">
         <v>625</v>
@@ -11162,10 +11168,10 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="35"/>
       <c r="B329" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D329" s="35"/>
       <c r="E329" s="29">
@@ -11183,10 +11189,10 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="35"/>
       <c r="B330" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D330" s="35"/>
       <c r="E330" s="29">
@@ -11204,10 +11210,10 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="35"/>
       <c r="B331" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D331" s="35"/>
       <c r="E331" s="29">
@@ -11222,51 +11228,47 @@
       <c r="J331" s="20"/>
       <c r="K331" s="35"/>
     </row>
-    <row r="332" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="35"/>
-      <c r="B332" s="11"/>
-      <c r="C332" s="12"/>
+      <c r="B332" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="D332" s="35"/>
-      <c r="E332" s="32"/>
-      <c r="F332" s="55"/>
+      <c r="E332" s="29">
+        <v>44406</v>
+      </c>
+      <c r="F332" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G332" s="35"/>
-      <c r="H332" s="32"/>
-      <c r="I332" s="23"/>
-      <c r="J332" s="24"/>
+      <c r="H332" s="29"/>
+      <c r="I332" s="19"/>
+      <c r="J332" s="20"/>
       <c r="K332" s="35"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="35"/>
-      <c r="B333" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="B333" s="11"/>
+      <c r="C333" s="12"/>
       <c r="D333" s="35"/>
-      <c r="E333" s="29">
-        <v>44371</v>
-      </c>
-      <c r="F333" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E333" s="32"/>
+      <c r="F333" s="55"/>
       <c r="G333" s="35"/>
-      <c r="H333" s="29"/>
-      <c r="I333" s="19">
-        <v>1</v>
-      </c>
-      <c r="J333" s="20">
-        <v>0</v>
-      </c>
+      <c r="H333" s="32"/>
+      <c r="I333" s="23"/>
+      <c r="J333" s="24"/>
       <c r="K333" s="35"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="35"/>
       <c r="B334" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D334" s="35"/>
       <c r="E334" s="29">
@@ -11288,31 +11290,35 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="35"/>
       <c r="B335" s="7" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D335" s="35"/>
       <c r="E335" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F335" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G335" s="35"/>
       <c r="H335" s="29"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
+      <c r="I335" s="19">
+        <v>1</v>
+      </c>
+      <c r="J335" s="20">
+        <v>0</v>
+      </c>
       <c r="K335" s="35"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="35"/>
       <c r="B336" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D336" s="35"/>
       <c r="E336" s="29">
@@ -11330,39 +11336,35 @@
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="35"/>
       <c r="B337" s="7" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D337" s="35"/>
       <c r="E337" s="29">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="F337" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G337" s="35"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="19">
-        <v>1</v>
-      </c>
-      <c r="J337" s="20">
-        <v>0</v>
-      </c>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
       <c r="K337" s="35"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="35"/>
       <c r="B338" s="7" t="s">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D338" s="35"/>
       <c r="E338" s="29">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="F338" s="53" t="s">
         <v>625</v>
@@ -11380,14 +11382,14 @@
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="35"/>
       <c r="B339" s="7" t="s">
-        <v>895</v>
+        <v>599</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>896</v>
+        <v>602</v>
       </c>
       <c r="D339" s="35"/>
       <c r="E339" s="29">
-        <v>44406</v>
+        <v>44378</v>
       </c>
       <c r="F339" s="53" t="s">
         <v>625</v>
@@ -11405,60 +11407,60 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="35"/>
       <c r="B340" s="7" t="s">
-        <v>930</v>
+        <v>895</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>931</v>
+        <v>896</v>
       </c>
       <c r="D340" s="35"/>
       <c r="E340" s="29">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="F340" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G340" s="35"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
+      <c r="I340" s="19">
+        <v>1</v>
+      </c>
+      <c r="J340" s="20">
+        <v>0</v>
+      </c>
       <c r="K340" s="35"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="35"/>
       <c r="B341" s="7" t="s">
-        <v>514</v>
+        <v>929</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>603</v>
+        <v>930</v>
       </c>
       <c r="D341" s="35"/>
       <c r="E341" s="29">
-        <v>44371</v>
+        <v>44407</v>
       </c>
       <c r="F341" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G341" s="35"/>
       <c r="H341" s="29"/>
-      <c r="I341" s="19">
-        <v>1</v>
-      </c>
-      <c r="J341" s="20">
-        <v>0</v>
-      </c>
+      <c r="I341" s="19"/>
+      <c r="J341" s="20"/>
       <c r="K341" s="35"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="35"/>
       <c r="B342" s="7" t="s">
-        <v>932</v>
+        <v>514</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>933</v>
+        <v>603</v>
       </c>
       <c r="D342" s="35"/>
       <c r="E342" s="29">
-        <v>44410</v>
+        <v>44371</v>
       </c>
       <c r="F342" s="53" t="s">
         <v>625</v>
@@ -11476,14 +11478,14 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="35"/>
       <c r="B343" s="7" t="s">
-        <v>515</v>
+        <v>931</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>604</v>
+        <v>932</v>
       </c>
       <c r="D343" s="35"/>
       <c r="E343" s="29">
-        <v>44369</v>
+        <v>44410</v>
       </c>
       <c r="F343" s="53" t="s">
         <v>625</v>
@@ -11501,14 +11503,14 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="35"/>
       <c r="B344" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D344" s="35"/>
       <c r="E344" s="29">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="F344" s="53" t="s">
         <v>625</v>
@@ -11526,10 +11528,10 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="35"/>
       <c r="B345" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D345" s="35"/>
       <c r="E345" s="29">
@@ -11551,10 +11553,10 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="35"/>
       <c r="B346" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D346" s="35"/>
       <c r="E346" s="29">
@@ -11576,10 +11578,10 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="35"/>
       <c r="B347" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D347" s="35"/>
       <c r="E347" s="29">
@@ -11601,10 +11603,10 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="35"/>
       <c r="B348" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D348" s="35"/>
       <c r="E348" s="29">
@@ -11626,14 +11628,14 @@
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="35"/>
       <c r="B349" s="7" t="s">
-        <v>731</v>
+        <v>520</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
       <c r="D349" s="35"/>
       <c r="E349" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F349" s="53" t="s">
         <v>625</v>
@@ -11651,10 +11653,10 @@
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="35"/>
       <c r="B350" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D350" s="35"/>
       <c r="E350" s="29">
@@ -11676,10 +11678,10 @@
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="35"/>
       <c r="B351" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>861</v>
+        <v>734</v>
       </c>
       <c r="D351" s="35"/>
       <c r="E351" s="29">
@@ -11690,21 +11692,25 @@
       </c>
       <c r="G351" s="35"/>
       <c r="H351" s="29"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
+      <c r="I351" s="19">
+        <v>1</v>
+      </c>
+      <c r="J351" s="20">
+        <v>0</v>
+      </c>
       <c r="K351" s="35"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="35"/>
       <c r="B352" s="7" t="s">
-        <v>860</v>
+        <v>737</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D352" s="35"/>
       <c r="E352" s="29">
-        <v>44406</v>
+        <v>44383</v>
       </c>
       <c r="F352" s="53" t="s">
         <v>625</v>
@@ -11718,14 +11724,14 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="35"/>
       <c r="B353" s="7" t="s">
-        <v>738</v>
+        <v>860</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D353" s="35"/>
       <c r="E353" s="29">
-        <v>44383</v>
+        <v>44406</v>
       </c>
       <c r="F353" s="53" t="s">
         <v>625</v>
@@ -11739,10 +11745,10 @@
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="35"/>
       <c r="B354" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>740</v>
+        <v>863</v>
       </c>
       <c r="D354" s="35"/>
       <c r="E354" s="29">
@@ -11760,39 +11766,35 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="35"/>
       <c r="B355" s="7" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>610</v>
+        <v>740</v>
       </c>
       <c r="D355" s="35"/>
       <c r="E355" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F355" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G355" s="35"/>
       <c r="H355" s="29"/>
-      <c r="I355" s="19">
-        <v>1</v>
-      </c>
-      <c r="J355" s="20">
-        <v>0</v>
-      </c>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
       <c r="K355" s="35"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="35"/>
       <c r="B356" s="7" t="s">
-        <v>723</v>
+        <v>521</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="D356" s="35"/>
       <c r="E356" s="29">
-        <v>44383</v>
+        <v>44371</v>
       </c>
       <c r="F356" s="53" t="s">
         <v>625</v>
@@ -11810,10 +11812,10 @@
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="35"/>
       <c r="B357" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D357" s="35"/>
       <c r="E357" s="29">
@@ -11824,17 +11826,21 @@
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
+      <c r="I357" s="19">
+        <v>1</v>
+      </c>
+      <c r="J357" s="20">
+        <v>0</v>
+      </c>
       <c r="K357" s="35"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="35"/>
       <c r="B358" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D358" s="35"/>
       <c r="E358" s="29">
@@ -11852,10 +11858,10 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="35"/>
       <c r="B359" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D359" s="35"/>
       <c r="E359" s="29">
@@ -11873,35 +11879,31 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="35"/>
       <c r="B360" s="7" t="s">
-        <v>522</v>
+        <v>728</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>611</v>
+        <v>730</v>
       </c>
       <c r="D360" s="35"/>
       <c r="E360" s="29">
-        <v>44371</v>
+        <v>44383</v>
       </c>
       <c r="F360" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G360" s="35"/>
       <c r="H360" s="29"/>
-      <c r="I360" s="19">
-        <v>1</v>
-      </c>
-      <c r="J360" s="20">
-        <v>0</v>
-      </c>
+      <c r="I360" s="19"/>
+      <c r="J360" s="20"/>
       <c r="K360" s="35"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="35"/>
       <c r="B361" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D361" s="35"/>
       <c r="E361" s="29">
@@ -11923,10 +11925,10 @@
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="35"/>
       <c r="B362" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D362" s="35"/>
       <c r="E362" s="29">
@@ -11948,10 +11950,10 @@
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="35"/>
       <c r="B363" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D363" s="35"/>
       <c r="E363" s="29">
@@ -11973,31 +11975,35 @@
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="35"/>
       <c r="B364" s="7" t="s">
-        <v>921</v>
+        <v>525</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>919</v>
+        <v>614</v>
       </c>
       <c r="D364" s="35"/>
       <c r="E364" s="29">
-        <v>44407</v>
+        <v>44371</v>
       </c>
       <c r="F364" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G364" s="35"/>
       <c r="H364" s="29"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="20"/>
+      <c r="I364" s="19">
+        <v>1</v>
+      </c>
+      <c r="J364" s="20">
+        <v>0</v>
+      </c>
       <c r="K364" s="35"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="35"/>
       <c r="B365" s="7" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D365" s="35"/>
       <c r="E365" s="29">
@@ -12015,35 +12021,31 @@
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="35"/>
       <c r="B366" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>615</v>
+        <v>921</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="D366" s="35"/>
       <c r="E366" s="29">
-        <v>44370</v>
+        <v>44407</v>
       </c>
       <c r="F366" s="53" t="s">
         <v>625</v>
       </c>
       <c r="G366" s="35"/>
       <c r="H366" s="29"/>
-      <c r="I366" s="19">
-        <v>1</v>
-      </c>
-      <c r="J366" s="20">
-        <v>0</v>
-      </c>
+      <c r="I366" s="19"/>
+      <c r="J366" s="20"/>
       <c r="K366" s="35"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="35"/>
       <c r="B367" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>616</v>
+        <v>526</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="D367" s="35"/>
       <c r="E367" s="29">
@@ -12065,10 +12067,10 @@
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="35"/>
       <c r="B368" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D368" s="35"/>
       <c r="E368" s="29">
@@ -12090,14 +12092,14 @@
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="35"/>
       <c r="B369" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D369" s="35"/>
       <c r="E369" s="29">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="F369" s="53" t="s">
         <v>625</v>
@@ -12112,47 +12114,51 @@
       </c>
       <c r="K369" s="35"/>
     </row>
-    <row r="370" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="35"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="12"/>
+      <c r="B370" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="D370" s="35"/>
-      <c r="E370" s="32"/>
-      <c r="F370" s="55"/>
+      <c r="E370" s="29">
+        <v>44369</v>
+      </c>
+      <c r="F370" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G370" s="35"/>
-      <c r="H370" s="32"/>
-      <c r="I370" s="23"/>
-      <c r="J370" s="24"/>
+      <c r="H370" s="29"/>
+      <c r="I370" s="19">
+        <v>1</v>
+      </c>
+      <c r="J370" s="20">
+        <v>0</v>
+      </c>
       <c r="K370" s="35"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="35"/>
-      <c r="B371" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>744</v>
-      </c>
+      <c r="B371" s="11"/>
+      <c r="C371" s="12"/>
       <c r="D371" s="35"/>
-      <c r="E371" s="29">
-        <v>44383</v>
-      </c>
-      <c r="F371" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E371" s="32"/>
+      <c r="F371" s="55"/>
       <c r="G371" s="35"/>
-      <c r="H371" s="29"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
+      <c r="H371" s="32"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="24"/>
       <c r="K371" s="35"/>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="35"/>
       <c r="B372" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D372" s="35"/>
       <c r="E372" s="29">
@@ -12170,14 +12176,14 @@
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="35"/>
       <c r="B373" s="7" t="s">
-        <v>550</v>
+        <v>742</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>552</v>
+        <v>743</v>
       </c>
       <c r="D373" s="35"/>
       <c r="E373" s="29">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="F373" s="53" t="s">
         <v>625</v>
@@ -12191,10 +12197,10 @@
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="35"/>
       <c r="B374" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D374" s="35"/>
       <c r="E374" s="29">
@@ -12209,47 +12215,47 @@
       <c r="J374" s="20"/>
       <c r="K374" s="35"/>
     </row>
-    <row r="375" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="35"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="12"/>
+      <c r="B375" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D375" s="35"/>
-      <c r="E375" s="32"/>
-      <c r="F375" s="55"/>
+      <c r="E375" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F375" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G375" s="35"/>
-      <c r="H375" s="32"/>
-      <c r="I375" s="23"/>
-      <c r="J375" s="24"/>
+      <c r="H375" s="29"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
       <c r="K375" s="35"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="35"/>
-      <c r="B376" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>554</v>
-      </c>
+      <c r="B376" s="11"/>
+      <c r="C376" s="12"/>
       <c r="D376" s="35"/>
-      <c r="E376" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F376" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E376" s="32"/>
+      <c r="F376" s="55"/>
       <c r="G376" s="35"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="20"/>
+      <c r="H376" s="32"/>
+      <c r="I376" s="23"/>
+      <c r="J376" s="24"/>
       <c r="K376" s="35"/>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="35"/>
       <c r="B377" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D377" s="35"/>
       <c r="E377" s="29">
@@ -12267,10 +12273,10 @@
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="35"/>
       <c r="B378" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D378" s="35"/>
       <c r="E378" s="29">
@@ -12285,54 +12291,47 @@
       <c r="J378" s="20"/>
       <c r="K378" s="35"/>
     </row>
-    <row r="379" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="35"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="12"/>
+      <c r="B379" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D379" s="35"/>
-      <c r="E379" s="32"/>
-      <c r="F379" s="55"/>
+      <c r="E379" s="29">
+        <v>44372</v>
+      </c>
+      <c r="F379" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G379" s="35"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="23"/>
-      <c r="J379" s="24"/>
+      <c r="H379" s="29"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="20"/>
       <c r="K379" s="35"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="35"/>
-      <c r="B380" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>768</v>
-      </c>
+      <c r="B380" s="11"/>
+      <c r="C380" s="12"/>
       <c r="D380" s="35"/>
-      <c r="E380" s="29">
-        <v>44372</v>
-      </c>
-      <c r="F380" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E380" s="32"/>
+      <c r="F380" s="55"/>
       <c r="G380" s="35"/>
-      <c r="H380" s="29"/>
-      <c r="I380" s="19">
-        <v>1</v>
-      </c>
-      <c r="J380" s="20">
-        <v>0</v>
-      </c>
+      <c r="H380" s="32"/>
+      <c r="I380" s="23"/>
+      <c r="J380" s="24"/>
       <c r="K380" s="35"/>
-      <c r="L380" s="1" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="35"/>
       <c r="B381" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D381" s="35"/>
       <c r="E381" s="29">
@@ -12357,10 +12356,10 @@
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="35"/>
       <c r="B382" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D382" s="35"/>
       <c r="E382" s="29">
@@ -12385,10 +12384,10 @@
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="35"/>
       <c r="B383" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D383" s="35"/>
       <c r="E383" s="29">
@@ -12413,14 +12412,14 @@
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="35"/>
       <c r="B384" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="C384" s="14" t="s">
-        <v>767</v>
+        <v>549</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="D384" s="35"/>
       <c r="E384" s="29">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="F384" s="53" t="s">
         <v>625</v>
@@ -12438,60 +12437,67 @@
         <v>547</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="35"/>
-      <c r="B385" s="7"/>
-      <c r="C385" s="4"/>
+      <c r="B385" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="D385" s="35"/>
-      <c r="E385" s="29"/>
-      <c r="F385" s="53"/>
+      <c r="E385" s="29">
+        <v>44384</v>
+      </c>
+      <c r="F385" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G385" s="35"/>
       <c r="H385" s="29"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="20"/>
+      <c r="I385" s="19">
+        <v>1</v>
+      </c>
+      <c r="J385" s="20">
+        <v>0</v>
+      </c>
       <c r="K385" s="35"/>
-    </row>
-    <row r="386" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L385" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="35"/>
-      <c r="B386" s="9"/>
-      <c r="C386" s="10"/>
+      <c r="B386" s="7"/>
+      <c r="C386" s="4"/>
       <c r="D386" s="35"/>
-      <c r="E386" s="30"/>
-      <c r="F386" s="54"/>
+      <c r="E386" s="29"/>
+      <c r="F386" s="53"/>
       <c r="G386" s="35"/>
-      <c r="H386" s="30"/>
-      <c r="I386" s="21"/>
-      <c r="J386" s="22"/>
+      <c r="H386" s="29"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
       <c r="K386" s="35"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="35"/>
-      <c r="B387" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="B387" s="9"/>
+      <c r="C387" s="10"/>
       <c r="D387" s="35"/>
-      <c r="E387" s="29">
-        <v>44257</v>
-      </c>
-      <c r="F387" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E387" s="30"/>
+      <c r="F387" s="54"/>
       <c r="G387" s="35"/>
-      <c r="H387" s="29"/>
-      <c r="I387" s="19"/>
-      <c r="J387" s="20"/>
+      <c r="H387" s="30"/>
+      <c r="I387" s="21"/>
+      <c r="J387" s="22"/>
       <c r="K387" s="35"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D388" s="35"/>
       <c r="E388" s="29">
@@ -12506,13 +12512,13 @@
       <c r="J388" s="20"/>
       <c r="K388" s="35"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="35"/>
       <c r="B389" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D389" s="35"/>
       <c r="E389" s="29">
@@ -12527,93 +12533,89 @@
       <c r="J389" s="20"/>
       <c r="K389" s="35"/>
     </row>
-    <row r="390" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="35"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="12"/>
+      <c r="B390" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D390" s="35"/>
-      <c r="E390" s="32"/>
-      <c r="F390" s="55"/>
+      <c r="E390" s="29">
+        <v>44257</v>
+      </c>
+      <c r="F390" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G390" s="35"/>
-      <c r="H390" s="32"/>
-      <c r="I390" s="23"/>
-      <c r="J390" s="24"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="19"/>
+      <c r="J390" s="20"/>
       <c r="K390" s="35"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="35"/>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="11"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="35"/>
+      <c r="E391" s="32"/>
+      <c r="F391" s="55"/>
+      <c r="G391" s="35"/>
+      <c r="H391" s="32"/>
+      <c r="I391" s="23"/>
+      <c r="J391" s="24"/>
+      <c r="K391" s="35"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392" s="35"/>
+      <c r="B392" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C391" s="4" t="s">
+      <c r="C392" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D391" s="35"/>
-      <c r="E391" s="29">
+      <c r="D392" s="35"/>
+      <c r="E392" s="29">
         <v>44319</v>
       </c>
-      <c r="F391" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G391" s="35"/>
-      <c r="H391" s="29"/>
-      <c r="I391" s="19">
-        <v>1</v>
-      </c>
-      <c r="J391" s="20">
-        <v>0</v>
-      </c>
-      <c r="K391" s="35"/>
-    </row>
-    <row r="392" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="35"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="35"/>
-      <c r="E392" s="32"/>
-      <c r="F392" s="55"/>
+      <c r="F392" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="G392" s="35"/>
-      <c r="H392" s="32"/>
-      <c r="I392" s="23"/>
-      <c r="J392" s="24"/>
+      <c r="H392" s="29"/>
+      <c r="I392" s="19">
+        <v>1</v>
+      </c>
+      <c r="J392" s="20">
+        <v>0</v>
+      </c>
       <c r="K392" s="35"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="35"/>
-      <c r="B393" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="35"/>
-      <c r="E393" s="29">
-        <v>44151</v>
-      </c>
-      <c r="F393" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E393" s="32"/>
+      <c r="F393" s="55"/>
       <c r="G393" s="35"/>
-      <c r="H393" s="29"/>
-      <c r="I393" s="19">
-        <v>1</v>
-      </c>
-      <c r="J393" s="20">
-        <v>0</v>
-      </c>
+      <c r="H393" s="32"/>
+      <c r="I393" s="23"/>
+      <c r="J393" s="24"/>
       <c r="K393" s="35"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="35"/>
       <c r="B394" s="7" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="D394" s="35"/>
       <c r="E394" s="29">
-        <v>44245</v>
+        <v>44151</v>
       </c>
       <c r="F394" s="53" t="s">
         <v>625</v>
@@ -12628,17 +12630,17 @@
       </c>
       <c r="K394" s="35"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="35"/>
       <c r="B395" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D395" s="35"/>
       <c r="E395" s="29">
-        <v>44231</v>
+        <v>44245</v>
       </c>
       <c r="F395" s="53" t="s">
         <v>625</v>
@@ -12653,17 +12655,17 @@
       </c>
       <c r="K395" s="35"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="35"/>
       <c r="B396" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D396" s="35"/>
       <c r="E396" s="29">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="F396" s="53" t="s">
         <v>625</v>
@@ -12678,76 +12680,80 @@
       </c>
       <c r="K396" s="35"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="35"/>
-      <c r="B397" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C397" s="45" t="s">
-        <v>429</v>
+      <c r="B397" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="D397" s="35"/>
       <c r="E397" s="29">
+        <v>44230</v>
+      </c>
+      <c r="F397" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G397" s="35"/>
+      <c r="H397" s="29"/>
+      <c r="I397" s="19">
+        <v>1</v>
+      </c>
+      <c r="J397" s="20">
+        <v>0</v>
+      </c>
+      <c r="K397" s="35"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A398" s="35"/>
+      <c r="B398" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C398" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="D398" s="35"/>
+      <c r="E398" s="29">
         <v>44264</v>
       </c>
-      <c r="F397" s="53" t="s">
-        <v>625</v>
-      </c>
-      <c r="G397" s="46"/>
-      <c r="H397" s="47"/>
-      <c r="I397" s="48">
-        <v>1</v>
-      </c>
-      <c r="J397" s="49">
-        <v>0</v>
-      </c>
-      <c r="K397" s="35"/>
-    </row>
-    <row r="398" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="35"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="35"/>
-      <c r="E398" s="32"/>
-      <c r="F398" s="55"/>
-      <c r="G398" s="35"/>
-      <c r="H398" s="32"/>
-      <c r="I398" s="23"/>
-      <c r="J398" s="24"/>
+      <c r="F398" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G398" s="46"/>
+      <c r="H398" s="47"/>
+      <c r="I398" s="48">
+        <v>1</v>
+      </c>
+      <c r="J398" s="49">
+        <v>0</v>
+      </c>
       <c r="K398" s="35"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="35"/>
-      <c r="B399" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B399" s="11"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="35"/>
-      <c r="E399" s="29">
-        <v>44271</v>
-      </c>
-      <c r="F399" s="53" t="s">
-        <v>625</v>
-      </c>
+      <c r="E399" s="32"/>
+      <c r="F399" s="55"/>
       <c r="G399" s="35"/>
-      <c r="H399" s="29"/>
-      <c r="I399" s="19"/>
-      <c r="J399" s="20"/>
+      <c r="H399" s="32"/>
+      <c r="I399" s="23"/>
+      <c r="J399" s="24"/>
       <c r="K399" s="35"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="35"/>
       <c r="B400" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D400" s="35"/>
       <c r="E400" s="29">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F400" s="53" t="s">
         <v>625</v>
@@ -12761,14 +12767,14 @@
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="35"/>
       <c r="B401" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D401" s="35"/>
       <c r="E401" s="29">
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="F401" s="53" t="s">
         <v>625</v>
@@ -12782,14 +12788,14 @@
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="35"/>
       <c r="B402" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     